--- a/output.xlsx
+++ b/output.xlsx
@@ -893,22 +893,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>디프로젝트 디불 불독 차량용방향제 자동차 디퓨저 DP-DBL01</t>
+          <t>미키미니 차량방향제 디퓨저 STDF-1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=13697148540</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29872854449</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1369714/13697148540.20211222172941.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2987285/29872854449.20211129022822.jpg</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>49000</t>
+          <t>38900</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
@@ -922,16 +922,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>디프로젝트</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>디프로젝트</t>
-        </is>
-      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -959,22 +951,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>에이비 사막여우 차량용 방향제 송풍구 고급형</t>
+          <t>디프로젝트 디불 불독 차량용방향제 자동차 디퓨저 DP-DBL01</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29639151141</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=13697148540</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2963915/29639151141.20211224101014.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1369714/13697148540.20211222172941.jpg</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>33000</t>
+          <t>49000</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
@@ -990,12 +982,12 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>에이비</t>
+          <t>디프로젝트</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>에이비</t>
+          <t>디프로젝트</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1025,22 +1017,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>에이비 큐빅베어브릭 차량용 방향제 차방향제 벤츠 BMW 디퓨저 고급 AB-DF02</t>
+          <t>에이비 사막여우 차량용 방향제 송풍구 고급형</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27944185800</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29639151141</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2794418/27944185800.20210929135132.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2963915/29639151141.20211224101014.jpg</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>18900</t>
+          <t>33000</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
@@ -1091,22 +1083,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>미스터앤미세스 니키 차량용 방향제 리필</t>
+          <t>에이비 큐빅베어브릭 차량용 방향제 차방향제 벤츠 BMW 디퓨저 고급 AB-DF02</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=10149695240</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27944185800</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1014969/10149695240.20201014180005.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2794418/27944185800.20210929135132.jpg</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4920</t>
+          <t>18900</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
@@ -1120,8 +1112,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>에이비</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>에이비</t>
+        </is>
+      </c>
       <c r="K12" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1215,22 +1215,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>루크타 도베르만  차량용 송풍구 방향제</t>
+          <t>미스터앤미세스 니키 차량용 방향제 리필</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25380843939</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=10149695240</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2538084/25380843939.20211029114127.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1014969/10149695240.20201014180005.jpg</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>49000</t>
+          <t>4930</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
@@ -1244,11 +1244,7 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>루크타</t>
-        </is>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
@@ -1277,22 +1273,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>딥티크 차량용방향제 세트 케이스 + 리필용 캡슐</t>
+          <t>루크타 도베르만  차량용 송풍구 방향제</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28620531681</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25380843939</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2862053/28620531681.20210829001356.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2538084/25380843939.20211029114127.jpg</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>88900</t>
+          <t>49000</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
@@ -1308,7 +1304,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>딥티크</t>
+          <t>루크타</t>
         </is>
       </c>
       <c r="J15" t="inlineStr"/>
@@ -1401,22 +1397,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>양키캔들 프레그런스 스피어스 차량용 방향제</t>
+          <t>불스원 그라스 디퓨져 차량용 방향제 105ml</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27954927224</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=12140232094</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2795492/27954927224.20210711203524.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1214023/12140232094.20211006140204.jpg</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>5060</t>
+          <t>9460</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
@@ -1432,12 +1428,12 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>양키캔들</t>
+          <t>불스원</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>양키캔들</t>
+          <t>불스원</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1467,22 +1463,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>불스원 그라스 디퓨져 차량용 방향제 105ml</t>
+          <t>양키캔들 프레그런스 스피어스 차량용 방향제</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=12140232094</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27954927224</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1214023/12140232094.20211006140204.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2795492/27954927224.20210711203524.jpg</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>9250</t>
+          <t>4990</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
@@ -1498,12 +1494,12 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>불스원</t>
+          <t>양키캔들</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>불스원</t>
+          <t>양키캔들</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1533,22 +1529,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>디프로젝트 리필킷 디불 디버니 디릴라고 차량용방향제 자동차 디퓨저 고체 리필 DP-RF02</t>
+          <t>딥티크 차량용방향제 세트 케이스 + 리필용 캡슐</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18367838563</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28620531681</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1836783/18367838563.20211108142647.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2862053/28620531681.20210829001356.jpg</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>13000</t>
+          <t>88900</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
@@ -1564,14 +1560,10 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>디프로젝트</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>디프로젝트</t>
-        </is>
-      </c>
+          <t>딥티크</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1599,22 +1591,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>플래트 고급 프로펠러 차량용 방향제 F430</t>
+          <t>디프로젝트 리필킷 디불 디버니 디릴라고 차량용방향제 자동차 디퓨저 고체 리필 DP-RF02</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27806043522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18367838563</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2780604/27806043522.20210701115440.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1836783/18367838563.20211108142647.jpg</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>41880</t>
+          <t>13000</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
@@ -1630,10 +1622,14 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>플래트</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr"/>
+          <t>디프로젝트</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>디프로젝트</t>
+        </is>
+      </c>
       <c r="K20" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1661,22 +1657,22 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>아우라 카카오 모니터걸이형 방향제 라이언 블루스카이향 10g x1개</t>
+          <t>불스원 폴라프레쉬 선바이저 방향제 리필</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24014062100</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=17787599329</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2401406/24014062100.20200903003222.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1778759/17787599329.20210111143633.jpg</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>15390</t>
+          <t>2210</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
@@ -1690,8 +1686,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>불스원</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>불스원</t>
+        </is>
+      </c>
       <c r="K21" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1719,22 +1723,22 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>불스원 폴라프레쉬 선바이저 방향제 리필</t>
+          <t>제로스킨 로보트 태권브이 차량용 방향제 자동차 디퓨저 AD-KF90</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=17787599329</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29535937618</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1778759/17787599329.20210111143633.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2953593/29535937618.20211216102403.jpg</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2160</t>
+          <t>48780</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
@@ -1750,12 +1754,12 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>불스원</t>
+          <t>제로스킨</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>불스원</t>
+          <t>제로스킨</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1785,22 +1789,22 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>DIPTYQUE 딥디크 차량용 방향제 리필 캡슐 케이스</t>
+          <t>아우라 카카오 모니터걸이형 방향제 라이언 블루스카이향 10g x1개</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30306912853</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24014062100</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3030691/30306912853.20211226224634.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2401406/24014062100.20200903003222.jpg</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>26900</t>
+          <t>15390</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
@@ -1843,22 +1847,22 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>제로스킨 로보트 태권브이 차량용 방향제 자동차 디퓨저 AD-KF90</t>
+          <t>DIPTYQUE 딥디크 차량용 방향제 리필 캡슐 케이스</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29535937618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30306912853</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2953593/29535937618.20211216102403.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3030691/30306912853.20211226224634.jpg</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>48760</t>
+          <t>26900</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
@@ -1872,16 +1876,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>제로스킨</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>제로스킨</t>
-        </is>
-      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1909,22 +1905,22 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>센트몬스터 고양이 차량용 방향제 고급 디퓨져</t>
+          <t>언더스코어 오버라인 오버타이거 호랑이 퓨마 차량용 방향제 OL-CFOT</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24163460435</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30245909618</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2416346/24163460435.20210124121840.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3024590/30245909618.20211221184249.jpg</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>39000</t>
+          <t>36500</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
@@ -1940,10 +1936,14 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>센트몬스터</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr"/>
+          <t>언더스코어</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>언더스코어</t>
+        </is>
+      </c>
       <c r="K25" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1971,22 +1971,22 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>언더스코어 오버라인 오버타이거 호랑이 퓨마 차량용 방향제 OL-CFOT</t>
+          <t>플래트 고급 프로펠러 차량용 방향제 F430</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30245909618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27806043522</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3024590/30245909618.20211221184249.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2780604/27806043522.20210701115440.jpg</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>36500</t>
+          <t>41900</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
@@ -2002,14 +2002,10 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>언더스코어</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>언더스코어</t>
-        </is>
-      </c>
+          <t>플래트</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2037,22 +2033,22 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>양키캔들 벤트스틱 차량용 방향제 4P입</t>
+          <t>센트몬스터 고양이 차량용 방향제 고급 디퓨져</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=6552648097</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24163460435</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_6552648/6552648097.20190731160942.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2416346/24163460435.20210124121840.jpg</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2780</t>
+          <t>39000</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
@@ -2068,14 +2064,10 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>양키캔들</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>양키캔들</t>
-        </is>
-      </c>
+          <t>센트몬스터</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2103,22 +2095,22 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>훠링 하이센트 차량용 방향제 컵홀더형 95g</t>
+          <t>양키캔들 벤트스틱 차량용 방향제 4P입</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26601404523</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=6552648097</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2660140/26601404523.20210420172441.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_6552648/6552648097.20190731160942.jpg</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>43000</t>
+          <t>2690</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
@@ -2134,12 +2126,12 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>훠링</t>
+          <t>양키캔들</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>훠링</t>
+          <t>양키캔들</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2169,22 +2161,22 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>차바치 씨스톤 차량용 방향제</t>
+          <t>훠링 하이센트 차량용 방향제 컵홀더형 95g</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21337624052</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26601404523</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2133762/21337624052.20191119171610.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2660140/26601404523.20210420172441.jpg</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>24900</t>
+          <t>43000</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
@@ -2200,10 +2192,14 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>차바치</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr"/>
+          <t>훠링</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>훠링</t>
+        </is>
+      </c>
       <c r="K29" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2293,22 +2289,22 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>올리바노 메탈 엠블럼 차량용 방향제 송풍구형 리필형</t>
+          <t>차바치 씨스톤 차량용 방향제</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28618378553</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21337624052</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2861837/28618378553.20210828185043.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2133762/21337624052.20191119171610.jpg</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>17800</t>
+          <t>24900</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
@@ -2322,7 +2318,11 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr"/>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>차바치</t>
+        </is>
+      </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
@@ -2351,22 +2351,22 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>아우라 카카오 어피치 모니터걸이형 방향제 4.5ml</t>
+          <t>올리바노 메탈 엠블럼 차량용 방향제 송풍구형 리필형</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26955394520</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28618378553</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2695539/26955394520.20210428203230.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2861837/28618378553.20210828185043.jpg</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>15270</t>
+          <t>17800</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
@@ -2380,11 +2380,7 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>아우라</t>
-        </is>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
@@ -2413,22 +2409,22 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>카카오프렌즈 차량용방향제 통풍구형 라이언 어피치</t>
+          <t>아우라 카카오 어피치 모니터걸이형 방향제 4.5ml</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24045761869</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26955394520</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2404576/24045761869.20210928022130.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2695539/26955394520.20210428203230.jpg</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>14000</t>
+          <t>15240</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
@@ -2444,7 +2440,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>카카오프렌즈</t>
+          <t>아우라</t>
         </is>
       </c>
       <c r="J33" t="inlineStr"/>
@@ -2475,22 +2471,22 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>미키미니 차량방향제 디퓨저 STDF-1</t>
+          <t>카카오프렌즈 차량용방향제 통풍구형 라이언 어피치</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29872854449</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24045761869</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2987285/29872854449.20211129022822.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2404576/24045761869.20210928022130.jpg</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>38900</t>
+          <t>14000</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
@@ -2504,7 +2500,11 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I34" t="inlineStr"/>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>카카오프렌즈</t>
+        </is>
+      </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
@@ -2533,22 +2533,22 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>리빙인아로마 쿤달 퍼퓸 차량용 디퓨저 2구 세트 블랙체리</t>
+          <t>엘에스인터내셔널 플레이위드센트 사슴 차량용 방향제</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24803290609</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28125690522</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2480329/24803290609.20211223022852.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2812569/28125690522.20211105172954.jpg</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>9900</t>
+          <t>27990</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
@@ -2564,12 +2564,12 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>쿤달</t>
+          <t>플레이위드센트</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>리빙인아로마</t>
+          <t>엘에스인터내셔널</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -2599,22 +2599,22 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>엘에스인터내셔널 플레이위드센트 사슴 차량용 방향제</t>
+          <t>리틀트리 걸이형 종이 방향제</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28125690522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=7162545992</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2812569/28125690522.20211105172954.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_7162545/7162545992.20190731170829.jpg</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>27990</t>
+          <t>860</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
@@ -2628,16 +2628,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>플레이위드센트</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>엘에스인터내셔널</t>
-        </is>
-      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2665,22 +2657,22 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>에이비 얼굴 일러스트 사진 차량용방향제 2set</t>
+          <t>리빙인아로마 쿤달 퍼퓸 차량용 디퓨저 2구 세트 블랙체리</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27190906522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24803290609</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2719090/27190906522.20210518150908.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2480329/24803290609.20211223022852.jpg</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>23000</t>
+          <t>9900</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
@@ -2696,12 +2688,12 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>에이비</t>
+          <t>쿤달</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>에이비</t>
+          <t>리빙인아로마</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -2731,22 +2723,22 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>리틀트리 걸이형 종이 방향제</t>
+          <t>에이비 얼굴 일러스트 사진 차량용방향제 2set</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=7162545992</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27190906522</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_7162545/7162545992.20190731170829.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2719090/27190906522.20210518150908.jpg</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>830</t>
+          <t>23000</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
@@ -2760,8 +2752,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>에이비</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>에이비</t>
+        </is>
+      </c>
       <c r="K38" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2913,22 +2913,22 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>미스터앤미세스 체사레 시저 차량용 방향제</t>
+          <t>쓰리나인 이니셜 커스텀 차량용 방향제 수제 송풍구 차 자동차 이색선물 기념일</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=8119194241</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29539346631</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8119194/8119194241.20190802121728.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2953934/29539346631.20211105043518.jpg</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>6920</t>
+          <t>39000</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
@@ -2971,22 +2971,22 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>쓰리나인 이니셜 커스텀 차량용 방향제 수제 송풍구 차 자동차 이색선물 기념일</t>
+          <t>디프로젝트 디버니 토끼 차량용방향제 자동차 디퓨저 DP-DBN02</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29539346631</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27331951522</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2953934/29539346631.20211105043518.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2733195/27331951522.20211222172819.jpg</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>39000</t>
+          <t>49000</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
@@ -3000,8 +3000,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>디프로젝트</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>디프로젝트</t>
+        </is>
+      </c>
       <c r="K42" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3029,22 +3037,22 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>불스원 그라스 디퓨저 105ml 블랙베리 체리 방향제</t>
+          <t>미스터앤미세스 체사레 시저 차량용 방향제</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26677172452</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=8119194241</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2667717/26677172452.20210407202430.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8119194/8119194241.20190802121728.jpg</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>7730</t>
+          <t>6920</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
@@ -3058,16 +3066,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>불스원</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>불스원</t>
-        </is>
-      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3095,22 +3095,22 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>디프로젝트 디버니 토끼 차량용방향제 자동차 디퓨저 DP-DBN02</t>
+          <t>불스원 그라스 디퓨저 105ml 블랙베리 체리 방향제</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27331951522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26677172452</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2733195/27331951522.20211222172819.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2667717/26677172452.20210407202430.jpg</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>49000</t>
+          <t>7690</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
@@ -3126,12 +3126,12 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>디프로젝트</t>
+          <t>불스원</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>디프로젝트</t>
+          <t>불스원</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -3161,22 +3161,22 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>양키캔들 스마트 센트 벤트클립</t>
+          <t>제이엠제이라인 도슈아 클래식 프리미엄 차량용 방향제</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18975414143</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=17787594512</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1897541/18975414143.20190429160633.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1778759/17787594512.20210802225254.jpg</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>3660</t>
+          <t>29750</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
@@ -3192,10 +3192,14 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>양키캔들</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr"/>
+          <t>도슈아</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>제이엠제이라인</t>
+        </is>
+      </c>
       <c r="K45" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3223,22 +3227,22 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>디프로젝트 디릴라고 고릴라 차량용방향제 자동차 디퓨저 DP-DRL03</t>
+          <t>양키캔들 차량용방향제 카자얼티메이트 10g 클린코튼</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26801331279</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28974434758</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2680133/26801331279.20211222172904.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2897443/28974434758.20211222174413.jpg</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>49000</t>
+          <t>3400</t>
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
@@ -3254,14 +3258,10 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>디프로젝트</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>디프로젝트</t>
-        </is>
-      </c>
+          <t>양키캔들</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3289,22 +3289,22 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>조말론 차량용 방향제 센트 투 고 잉글리쉬 페어 앤 프리지아</t>
+          <t>픽도큐먼트 베어브릭 송풍구 차량용 방향제</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25503166629</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29900193281</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2550316/25503166629.20211225025210.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2990019/29900193281.20211208030917.jpg</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>33000</t>
+          <t>14900</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
@@ -3318,16 +3318,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>조말론</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>조말론</t>
-        </is>
-      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3413,22 +3405,22 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>픽도큐먼트 베어브릭 송풍구 차량용 방향제</t>
+          <t>캘리포니아센트 캔타입 방향제 15종</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29900193281</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27414604011</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2990019/29900193281.20211208030917.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2741460/27414604011.20210602231933.jpg</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>14900</t>
+          <t>3360</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
@@ -3471,22 +3463,22 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>제이엠제이라인 도슈아 클래식 프리미엄 차량용 방향제</t>
+          <t>디캣 차량용 송풍구 방향제 A세트 쇼핑백 선물상자</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=17787594512</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29581678158</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1778759/17787594512.20210802225254.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2958167/29581678158.20211122011246.jpg</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>29750</t>
+          <t>9900</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
@@ -3500,16 +3492,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>도슈아</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>제이엠제이라인</t>
-        </is>
-      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3537,22 +3521,22 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>양키캔들 차량용방향제 카자얼티메이트 10g 클린코튼</t>
+          <t>조말론 차량용 방향제 센트 투 고 잉글리쉬 페어 앤 프리지아</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28974434758</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25503166629</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2897443/28974434758.20211222174413.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2550316/25503166629.20211225025210.jpg</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>3490</t>
+          <t>33000</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
@@ -3568,10 +3552,14 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>양키캔들</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr"/>
+          <t>조말론</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>조말론</t>
+        </is>
+      </c>
       <c r="K51" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3599,22 +3587,22 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>에이센트 네이처 차량용 디퓨저 방향제 120ml</t>
+          <t>양키캔들 스마트 센트 벤트클립</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27334130786</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18975414143</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2733413/27334130786.20211216041142.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1897541/18975414143.20190429160633.jpg</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>7830</t>
+          <t>3580</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
@@ -3630,7 +3618,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>에이센트</t>
+          <t>양키캔들</t>
         </is>
       </c>
       <c r="J52" t="inlineStr"/>
@@ -3661,22 +3649,22 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>캘리포니아센트 캔타입 방향제 15종</t>
+          <t>빅쏘 카로브 차량용방향제 디퓨저 송풍구형</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27414604011</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26310652183</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2741460/27414604011.20210602231933.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2631065/26310652183.20211126145332.jpg</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>3390</t>
+          <t>19900</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
@@ -3690,8 +3678,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>빅쏘</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>빅쏘</t>
+        </is>
+      </c>
       <c r="K53" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3719,22 +3715,22 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>디캣 차량용 송풍구 방향제 A세트 쇼핑백 선물상자</t>
+          <t>디프로젝트 디릴라고 고릴라 차량용방향제 자동차 디퓨저 DP-DRL03</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29581678158</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26801331279</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2958167/29581678158.20211122011246.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2680133/26801331279.20211222172904.jpg</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>9900</t>
+          <t>49000</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
@@ -3748,8 +3744,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>디프로젝트</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>디프로젝트</t>
+        </is>
+      </c>
       <c r="K54" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3843,22 +3847,22 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>딥티크 차량용 방향제 케이스 베이 리필 세트</t>
+          <t>에이센트 네이처 차량용 디퓨저 방향제 120ml</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28546536156</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27334130786</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2854653/28546536156.20210824021557.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2733413/27334130786.20211216041142.jpg</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>31970</t>
+          <t>7840</t>
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
@@ -3874,7 +3878,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>딥티크</t>
+          <t>에이센트</t>
         </is>
       </c>
       <c r="J56" t="inlineStr"/>
@@ -3905,22 +3909,22 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>더딥 부엉이 차량용 디퓨져</t>
+          <t>KAN 뷰센트 De.Line 차량용 방향제 싱글세트</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25789622342</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18985549503</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2578962/25789622342.20210129193056.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1898554/18985549503.20210713121106.jpg</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>19900</t>
+          <t>11900</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
@@ -3934,8 +3938,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>뷰센트</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>KAN</t>
+        </is>
+      </c>
       <c r="K57" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3963,22 +3975,22 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>포맨트 퍼퓸 썸퓨저 차량용 방향제</t>
+          <t>딥티크 차량용 방향제 케이스 베이 리필 세트</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20901530534</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28546536156</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2090153/20901530534.20211028161645.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2854653/28546536156.20210824021557.jpg</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>32460</t>
+          <t>31970</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
@@ -3994,7 +4006,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>포맨트</t>
+          <t>딥티크</t>
         </is>
       </c>
       <c r="J58" t="inlineStr"/>
@@ -4025,22 +4037,22 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>KAN 뷰센트 De.Line 차량용 방향제 싱글세트</t>
+          <t>더딥 부엉이 차량용 디퓨져</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18985549503</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25789622342</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1898554/18985549503.20210713121106.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2578962/25789622342.20210129193056.jpg</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11900</t>
+          <t>19900</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
@@ -4054,16 +4066,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>뷰센트</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>KAN</t>
-        </is>
-      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4091,22 +4095,22 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>로베르타디까메리노 원형 대용량 방향제 100ml 2P</t>
+          <t>양키캔들 차밍센츠 고급 차량용 방향제 리필 16g</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=5640406696</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24073000302</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_5640406/5640406696.20190805143958.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2407300/24073000302.20200907200512.jpg</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>13800</t>
+          <t>4830</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
@@ -4122,14 +4126,10 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>로베르타디까메리노</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>로베르타디까메리노</t>
-        </is>
-      </c>
+          <t>양키캔들</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4157,22 +4157,22 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>P&amp;amp;G 페브리즈 차량용 방향제 2.2ml 3개</t>
+          <t>더드림 엠블럼 차량용 방향제 자동차 석고 송풍구 디퓨져 벤츠BMW아우디</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20397190459</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26310016583</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2039719/20397190459.20190726113415.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2631001/26310016583.20210310210332.jpg</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>7880</t>
+          <t>9800</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
@@ -4188,14 +4188,10 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>페브리즈</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>P&amp;G</t>
-        </is>
-      </c>
+          <t>더드림</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4223,22 +4219,22 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>제로캔들 차량용 방향제 디퓨저</t>
+          <t>로베르타디까메리노 원형 대용량 방향제 100ml 2P</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26702050185</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=5640406696</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2670205/26702050185.20210409175725.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_5640406/5640406696.20190805143958.jpg</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>16500</t>
+          <t>13800</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
@@ -4254,10 +4250,14 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>제로캔들</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr"/>
+          <t>로베르타디까메리노</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>로베르타디까메리노</t>
+        </is>
+      </c>
       <c r="K62" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4343,22 +4343,22 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>JK 크롬 베어브릭 차량용방향제 자동차 디퓨저 송풍구형</t>
+          <t>포맨트 퍼퓸 썸퓨저 차량용 방향제</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29584087308</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20901530534</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2958408/29584087308.20211108030207.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2090153/20901530534.20211028161645.jpg</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>15900</t>
+          <t>32400</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
@@ -4372,7 +4372,11 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I64" t="inlineStr"/>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>포맨트</t>
+        </is>
+      </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
@@ -4401,22 +4405,22 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>양키캔들 차밍센츠 고급 차량용 방향제 리필 16g</t>
+          <t>불스원 GRASSE 그라스 디퓨저 방향제</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24073000302</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24073924737</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2407300/24073000302.20200907200512.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2407392/24073924737.20200907231547.jpg</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>4830</t>
+          <t>8110</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
@@ -4432,7 +4436,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>양키캔들</t>
+          <t>불스원</t>
         </is>
       </c>
       <c r="J65" t="inlineStr"/>
@@ -4463,22 +4467,22 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>불스원 GRASSE 그라스 디퓨저 방향제</t>
+          <t>유니레버 스너글 곰돌이 방향제 21g 5종 3개입</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24073924737</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28658857392</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2407392/24073924737.20200907231547.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2865885/28658857392.20210831223854.jpg</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>8150</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
@@ -4494,10 +4498,14 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>불스원</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr"/>
+          <t>스너글</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>유니레버</t>
+        </is>
+      </c>
       <c r="K66" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4525,22 +4533,22 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>유니레버 스너글 곰돌이 방향제 21g 5종 3개입</t>
+          <t>제로캔들 차량용 방향제 디퓨저</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28658857392</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26702050185</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2865885/28658857392.20210831223854.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2670205/26702050185.20210409175725.jpg</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>1700</t>
+          <t>16500</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
@@ -4556,14 +4564,10 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>스너글</t>
-        </is>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>유니레버</t>
-        </is>
-      </c>
+          <t>제로캔들</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4591,22 +4595,22 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>산도깨비 차량용 멤브렌 리필 방향제 x 10개입 휘튼치드</t>
+          <t>JK 크롬 베어브릭 차량용방향제 자동차 디퓨저 송풍구형</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25695237598</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29584087308</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2569523/25695237598.20211215041018.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2958408/29584087308.20211108030207.jpg</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>21000</t>
+          <t>15900</t>
         </is>
       </c>
       <c r="F68" t="inlineStr"/>
@@ -4620,11 +4624,7 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>산도깨비</t>
-        </is>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
@@ -4653,22 +4653,22 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>칠라릴라 크롬블랙 차량용 자동차 방향제 고급 디퓨저</t>
+          <t>조이오퓨저 오퓨저 가죽곰 가죽토끼 차량용 석고방향제 디퓨저 엠블럼 무료제작</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28621039462</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29908385702</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2862103/28621039462.20211108103254.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2990838/29908385702.20211201233207.jpg</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>29900</t>
+          <t>9900</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
@@ -4682,7 +4682,11 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I69" t="inlineStr"/>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>조이오퓨저</t>
+        </is>
+      </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
@@ -4711,22 +4715,22 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>조이오퓨저 오퓨저 가죽곰 가죽토끼 차량용 석고방향제 디퓨저 엠블럼 무료제작</t>
+          <t>P&amp;amp;G 페브리즈 차량용 방향제 2.2ml 3개</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29908385702</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20397190459</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2990838/29908385702.20211201233207.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2039719/20397190459.20190726113415.jpg</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>9900</t>
+          <t>7870</t>
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
@@ -4742,10 +4746,14 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>조이오퓨저</t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr"/>
+          <t>페브리즈</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>P&amp;G</t>
+        </is>
+      </c>
       <c r="K70" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4773,22 +4781,22 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>명품고급디퓨저 마일론 갤러리1 차량용 방향제 MGAL-01</t>
+          <t>칠라릴라 크롬블랙 차량용 자동차 방향제 고급 디퓨저</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30352215619</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28621039462</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3035221/30352215619.20211229123441.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2862103/28621039462.20211108103254.jpg</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>49000</t>
+          <t>29900</t>
         </is>
       </c>
       <c r="F71" t="inlineStr"/>
@@ -4802,16 +4810,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>마일론</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>명품고급디퓨저</t>
-        </is>
-      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4839,22 +4839,22 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>불스원 그라스 레스떼렐 방향제 110ml</t>
+          <t>에이비 차량용 방향제 차방향제 도베르만 고급 디퓨저 벤츠 BMW 제네시스 AB-DF04</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=5887774761</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30317520568</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_5887774/5887774761.20180928095307.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3031752/30317520568.20220101003830.jpg</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10800</t>
+          <t>28000</t>
         </is>
       </c>
       <c r="F72" t="inlineStr"/>
@@ -4870,12 +4870,12 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>불스원</t>
+          <t>에이비</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>불스원</t>
+          <t>에이비</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -4905,41 +4905,45 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>조말론 딥디크 센트247 명품 고급 차량용 방향제 디퓨저 50ml</t>
+          <t>지엠지모터스 더라이더 디퓨저</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82695237172</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21538184583</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8269523/82695237172.4.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2153818/21538184583.20210325121809.jpg</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>19900</t>
+          <t>27800</t>
         </is>
       </c>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr">
         <is>
-          <t>센트247 SCENT247</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>딥티크</t>
-        </is>
-      </c>
-      <c r="J73" t="inlineStr"/>
+          <t>지엠지모터스</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>지엠지모터스</t>
+        </is>
+      </c>
       <c r="K73" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4967,22 +4971,22 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>로베르타디까메리노 방향제 송풍구 리틀포레스트향수</t>
+          <t>명품고급디퓨저 마일론 갤러리1 차량용 방향제 MGAL-01</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29185219914</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30352215619</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2918521/29185219914.20211022050132.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3035221/30352215619.20211229123441.jpg</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11900</t>
+          <t>49000</t>
         </is>
       </c>
       <c r="F74" t="inlineStr"/>
@@ -4998,10 +5002,14 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>로베르타디까메리노</t>
-        </is>
-      </c>
-      <c r="J74" t="inlineStr"/>
+          <t>마일론</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>명품고급디퓨저</t>
+        </is>
+      </c>
       <c r="K74" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -5029,45 +5037,41 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>제이엠제이라인 도슈아 차량용 방향제 리필 도자기</t>
+          <t>조말론 딥디크 센트247 명품 고급 차량용 방향제 디퓨저 50ml</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20347407194</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82695237172</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2034740/20347407194.20211001120304.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8269523/82695237172.4.jpg</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>19900</t>
         </is>
       </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>센트247 SCENT247</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>도슈아</t>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>제이엠제이라인</t>
-        </is>
-      </c>
+          <t>딥티크</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -5095,22 +5099,22 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>JW중외제약 JW생활건강 피톤케어 차량용 방향제 리필 카트리지</t>
+          <t>엠블럼 스누피 방향제</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=15901498616</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25645224899</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1590149/15901498616.20211116120223.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2564522/25645224899.20211028043708.jpg</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>19000</t>
+          <t>9900</t>
         </is>
       </c>
       <c r="F76" t="inlineStr"/>
@@ -5124,16 +5128,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>JW생활건강</t>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>JW중외제약</t>
-        </is>
-      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -5161,22 +5157,22 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>템즈 SCP-01 차량용 태양열 프로펠러 방향제</t>
+          <t>토씨 클래시맨 명품 차량용방향제 룸미러걸이형</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26802221964</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25695599950</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2680222/26802221964.20210417192926.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2569559/25695599950.20210902144804.jpg</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>11790</t>
+          <t>85000</t>
         </is>
       </c>
       <c r="F77" t="inlineStr"/>
@@ -5190,8 +5186,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>토씨</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>토씨</t>
+        </is>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -5219,22 +5223,22 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>헤니르 송풍구 클립형 파일럿 베어 차량용 방향제</t>
+          <t>딥디크 차량용 방향제 디퓨저 조말론 송풍구 리필</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29861388136</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29610789265</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2986138/29861388136.20211129014233.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2961078/29610789265.20211109214417.jpg</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>15000</t>
+          <t>38000</t>
         </is>
       </c>
       <c r="F78" t="inlineStr"/>
@@ -5248,11 +5252,7 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>헤니르</t>
-        </is>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
@@ -5281,22 +5281,22 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>빅터글로벌 지오바니 차량용 디퓨저 150ml x 2종 세트</t>
+          <t>불스원 그라스 레스떼렐 방향제 110ml</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28799224230</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=5887774761</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2879922/28799224230.20211217014149.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_5887774/5887774761.20180928095307.jpg</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>12500</t>
+          <t>10800</t>
         </is>
       </c>
       <c r="F79" t="inlineStr"/>
@@ -5312,12 +5312,12 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>지오바니</t>
+          <t>불스원</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>빅터글로벌</t>
+          <t>불스원</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -5347,22 +5347,22 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>엠블럼 스누피 방향제</t>
+          <t>로베르타디까메리노 방향제 송풍구 리틀포레스트향수</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25645224899</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29185219914</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2564522/25645224899.20211028043708.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2918521/29185219914.20211022050132.jpg</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>9880</t>
+          <t>11900</t>
         </is>
       </c>
       <c r="F80" t="inlineStr"/>
@@ -5376,7 +5376,11 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I80" t="inlineStr"/>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>로베르타디까메리노</t>
+        </is>
+      </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
@@ -5420,7 +5424,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10780</t>
+          <t>10640</t>
         </is>
       </c>
       <c r="F81" t="inlineStr"/>
@@ -5463,45 +5467,37 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>조말론 센트투고 차량방향제 자동차 쇼핑백 기본리본포장</t>
+          <t>메탈아이원 차량용방향제 고급 송풍구방향제 홀더 향스틱2P</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=83296295354</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27657435982</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8329629/83296295354.2.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2765743/27657435982.20210620214337.jpg</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>49900</t>
+          <t>9600</t>
         </is>
       </c>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr">
         <is>
-          <t>더딥스토어</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>조말론</t>
-        </is>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>조말론</t>
-        </is>
-      </c>
+          <t>일반 - 가격비교 상품</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -5529,22 +5525,22 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>미스터앤미세스 지지 차량용 방향제</t>
+          <t>헤니르 송풍구 클립형 파일럿 베어 차량용 방향제</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21712692459</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29861388136</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2171269/21712692459.20200108100214.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2986138/29861388136.20211129014233.jpg</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>7770</t>
+          <t>15000</t>
         </is>
       </c>
       <c r="F83" t="inlineStr"/>
@@ -5558,7 +5554,11 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I83" t="inlineStr"/>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>헤니르</t>
+        </is>
+      </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
@@ -5587,22 +5587,22 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>리틀트리 안전한 종이방향제 실내방향제 모음전</t>
+          <t>타이거다즐러 호랑이 차량용 방향제</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25190591305</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28699641173</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2519059/25190591305.20201211215631.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2869964/28699641173.20211127052936.jpg</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>840</t>
+          <t>48960</t>
         </is>
       </c>
       <c r="F84" t="inlineStr"/>
@@ -5616,7 +5616,11 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I84" t="inlineStr"/>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>타이거다즐러</t>
+        </is>
+      </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
@@ -5645,22 +5649,22 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>산도깨비 네오엑스 멤브렌 차랑용 에어 방향제 탈취제</t>
+          <t>라피네르 로얄스페이드 듀오 차량용방향제</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26802017624</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20171310036</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2680201/26802017624.20210417191005.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2017131/20171310036.20190711115346.jpg</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2150</t>
+          <t>39800</t>
         </is>
       </c>
       <c r="F85" t="inlineStr"/>
@@ -5676,10 +5680,14 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>산도깨비</t>
-        </is>
-      </c>
-      <c r="J85" t="inlineStr"/>
+          <t>라피네르</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>라피네르</t>
+        </is>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -5707,22 +5715,22 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>에멜시 클립형 차량용방향제 자동차방향제</t>
+          <t>리틀트리 안전한 종이방향제 실내방향제 모음전</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24015321886</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25190591305</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2401532/24015321886.20201218150649.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2519059/25190591305.20201211215631.jpg</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>20520</t>
+          <t>840</t>
         </is>
       </c>
       <c r="F86" t="inlineStr"/>
@@ -5765,22 +5773,22 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>타이거다즐러 호랑이 차량용 방향제</t>
+          <t>템즈 SCP-01 차량용 태양열 프로펠러 방향제</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28699641173</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26802221964</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2869964/28699641173.20211127052936.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2680222/26802221964.20210417192926.jpg</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>48980</t>
+          <t>11790</t>
         </is>
       </c>
       <c r="F87" t="inlineStr"/>
@@ -5794,11 +5802,7 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>타이거다즐러</t>
-        </is>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
@@ -5827,22 +5831,22 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>쿤달 디퓨저 새차선물 방향제</t>
+          <t>에멜시 클립형 차량용방향제 자동차방향제</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27074544271</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24015321886</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2707454/27074544271.20210508185830.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2401532/24015321886.20201218150649.jpg</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>10500</t>
+          <t>20520</t>
         </is>
       </c>
       <c r="F88" t="inlineStr"/>
@@ -5856,11 +5860,7 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>쿤달</t>
-        </is>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
@@ -5889,22 +5889,22 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>라피네르 로얄스페이드 듀오 차량용방향제</t>
+          <t>빅터글로벌 지오바니 차량용 디퓨저 150ml x 2종 세트</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20171310036</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28799224230</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2017131/20171310036.20190711115346.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2879922/28799224230.20211217014149.jpg</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>39800</t>
+          <t>12500</t>
         </is>
       </c>
       <c r="F89" t="inlineStr"/>
@@ -5920,12 +5920,12 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>라피네르</t>
+          <t>지오바니</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>라피네르</t>
+          <t>빅터글로벌</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -6013,22 +6013,22 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>불스원 그라스 디퓨저 자동차 방향제 45ml</t>
+          <t>JW중외제약 JW생활건강 피톤케어 차량용 방향제 리필 카트리지</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24026344145</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=15901498616</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2402634/24026344145.20210112100959.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1590149/15901498616.20211116120223.jpg</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>6370</t>
+          <t>19000</t>
         </is>
       </c>
       <c r="F91" t="inlineStr"/>
@@ -6044,10 +6044,14 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>불스원</t>
-        </is>
-      </c>
-      <c r="J91" t="inlineStr"/>
+          <t>JW생활건강</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>JW중외제약</t>
+        </is>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -6075,43 +6079,43 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>토씨 클래시맨 명품 차량용방향제 룸미러걸이형</t>
+          <t>(리본끈+쇼핑백)딥디크 차량용 명품 고급 딥티크 방향제 디퓨저 리필향 9종 및 세트</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25695599950</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82298466138</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2569559/25695599950.20210902144804.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8229846/82298466138.7.jpg</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>85000</t>
+          <t>27840</t>
         </is>
       </c>
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>the슈필라움</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>토씨</t>
+          <t>딥티크</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>토씨</t>
+          <t>딥티크</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -6141,22 +6145,22 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>페브리즈 차량용 방향제 6개입</t>
+          <t>제이엠제이라인 도슈아 차량용 방향제 리필 도자기</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28545855511</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20347407194</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2854585/28545855511.20210917024341.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2034740/20347407194.20211001120304.jpg</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>16170</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="F93" t="inlineStr"/>
@@ -6172,10 +6176,14 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>페브리즈</t>
-        </is>
-      </c>
-      <c r="J93" t="inlineStr"/>
+          <t>도슈아</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>제이엠제이라인</t>
+        </is>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -6203,45 +6211,41 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>카카오프렌즈 차량용 방향제 모니터걸이 통풍구형 송풍구형 방향제 라이언 방향제 리필 / 본품</t>
+          <t>산도깨비 차량용 멤브렌 리필 방향제 x 10개입 휘튼치드</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=83073964169</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25695237598</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8307396/83073964169.2.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2569523/25695237598.20211215041018.jpg</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>5900</t>
+          <t>21000</t>
         </is>
       </c>
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr">
         <is>
-          <t>LG생활건강 e스토어</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>카카오프렌즈</t>
-        </is>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>엘지생활건강</t>
-        </is>
-      </c>
+          <t>산도깨비</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -6269,22 +6273,22 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>양키캔들 차밍센츠 스타터세트 차량용 미드썸머나잇</t>
+          <t>언더스코어 오버라인 오버라이노 코뿔소 차량용 방향제 자동차 디퓨저 OL-CFORH</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25381038019</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30251365068</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2538103/25381038019.20201226200744.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3025136/30251365068.20211222051742.jpg</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>15420</t>
+          <t>36500</t>
         </is>
       </c>
       <c r="F95" t="inlineStr"/>
@@ -6300,12 +6304,12 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>양키캔들</t>
+          <t>언더스코어</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>양키캔들</t>
+          <t>언더스코어</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -6335,22 +6339,22 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>언더스코어 오버라인 오버라이노 코뿔소 차량용 방향제 자동차 디퓨저 OL-CFORH</t>
+          <t>불스원 그라스 디퓨저 자동차 방향제 45ml</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30251365068</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24026344145</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3025136/30251365068.20211222051742.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2402634/24026344145.20210112100959.jpg</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>36500</t>
+          <t>6350</t>
         </is>
       </c>
       <c r="F96" t="inlineStr"/>
@@ -6366,14 +6370,10 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>언더스코어</t>
-        </is>
-      </c>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>언더스코어</t>
-        </is>
-      </c>
+          <t>불스원</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -6401,36 +6401,40 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>뽀글이 부클 곰돌이 차량용 석고 방향제</t>
+          <t>쿤달 디퓨저 새차선물 방향제</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=81536224875</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27074544271</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8153622/81536224875.1.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2707454/27074544271.20210508185830.jpg</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>5500</t>
+          <t>10500</t>
         </is>
       </c>
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr">
         <is>
-          <t>메무아</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
-        </is>
-      </c>
-      <c r="I97" t="inlineStr"/>
+          <t>일반 - 가격비교 상품</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>쿤달</t>
+        </is>
+      </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
@@ -6459,41 +6463,45 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>조말론 차량용 방향제 센트 투 고 고급 명품 디퓨저 and 거치대 석고방향제</t>
+          <t>양키캔들 차밍센츠 스타터세트 차량용 미드썸머나잇</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82623141464</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25381038019</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8262314/82623141464.2.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2538103/25381038019.20201226200744.jpg</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>38540</t>
+          <t>15530</t>
         </is>
       </c>
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr">
         <is>
-          <t>the슈필라움</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>조말론</t>
-        </is>
-      </c>
-      <c r="J98" t="inlineStr"/>
+          <t>양키캔들</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>양키캔들</t>
+        </is>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -6521,22 +6529,22 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>베이스어스 초슬림형 차량용 방향제</t>
+          <t>미스터앤미세스 지지 차량용 방향제</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21497508797</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21712692459</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2149750/21497508797.20200226181650.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2171269/21712692459.20200108100214.jpg</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>7800</t>
+          <t>7770</t>
         </is>
       </c>
       <c r="F99" t="inlineStr"/>
@@ -6550,16 +6558,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I99" t="inlineStr">
-        <is>
-          <t>베이스어스</t>
-        </is>
-      </c>
-      <c r="J99" t="inlineStr">
-        <is>
-          <t>베이스어스</t>
-        </is>
-      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -6587,36 +6587,40 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>미스터앤미세스 니키 본품/리필 차량용 방향제</t>
+          <t>페브리즈 차량용 방향제 6개입</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=10017842540</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28545855511</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1001784/10017842540.12.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2854585/28545855511.20210917024341.jpg</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>7200</t>
+          <t>16190</t>
         </is>
       </c>
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr">
         <is>
-          <t>반도향기나라</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
-        </is>
-      </c>
-      <c r="I100" t="inlineStr"/>
+          <t>일반 - 가격비교 상품</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>페브리즈</t>
+        </is>
+      </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
@@ -6645,22 +6649,22 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>딥디크 차량용 방향제 디퓨저 조말론 송풍구 리필</t>
+          <t>베이스어스 초슬림형 차량용 방향제</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29610789265</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21497508797</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2961078/29610789265.20211109214417.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2149750/21497508797.20200226181650.jpg</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>38000</t>
+          <t>7800</t>
         </is>
       </c>
       <c r="F101" t="inlineStr"/>
@@ -6674,8 +6678,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>베이스어스</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>베이스어스</t>
+        </is>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
           <t>생활/건강</t>

--- a/output.xlsx
+++ b/output.xlsx
@@ -571,22 +571,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>카보노 대쉬보드 거치형 프리미엄 차량용 방향제</t>
+          <t>로얄워터 텀블러 모양 차량용 방향제 신차선물 R-T01</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25371363986</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29835967618</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2537136/25371363986.20220104014030.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2983596/29835967618.20211125191149.jpg</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>46500</t>
+          <t>49000</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
@@ -602,10 +602,14 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>카보노</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr"/>
+          <t>로얄워터</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>로얄워터</t>
+        </is>
+      </c>
       <c r="K4" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -633,22 +637,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>로얄워터 텀블러 모양 차량용 방향제 신차선물 R-T01</t>
+          <t>에이비 베어브릭 차량용방향제 석고 고급 디퓨저 차방향제 벤츠 bmw 제네시스 ab-df01</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29835967618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27765010523</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2983596/29835967618.20211125191149.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2776501/27765010523.20211221122132.jpg</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>49000</t>
+          <t>12900</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
@@ -664,12 +668,12 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>로얄워터</t>
+          <t>에이비</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>로얄워터</t>
+          <t>에이비</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -699,22 +703,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>불스원 그라스 디퓨저 105ml 블랙베리 체리 방향제</t>
+          <t>에이비 큐빅베어브릭 차량용 방향제 차방향제 벤츠 BMW 디퓨저 고급 AB-DF02</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26677172452</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27944185800</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2667717/26677172452.20210407202430.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2794418/27944185800.20210929135132.jpg</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>7610</t>
+          <t>18900</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
@@ -730,12 +734,12 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>불스원</t>
+          <t>에이비</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>불스원</t>
+          <t>에이비</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -765,22 +769,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>에이비 베어브릭 차량용방향제 석고 고급 디퓨저 차방향제 벤츠 bmw 제네시스 ab-df01</t>
+          <t>카보노 대쉬보드 거치형 프리미엄 차량용 방향제</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27765010523</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25371363986</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2776501/27765010523.20211221122132.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2537136/25371363986.20220104014030.jpg</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12900</t>
+          <t>46500</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
@@ -796,14 +800,10 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>에이비</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>에이비</t>
-        </is>
-      </c>
+          <t>카보노</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -831,22 +831,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>에이비 큐빅베어브릭 차량용 방향제 차방향제 벤츠 BMW 디퓨저 고급 AB-DF02</t>
+          <t>언더스코어 젠틀맨 프리미엄 차량용 방향제 디퓨저</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27944185800</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27137540258</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2794418/27944185800.20210929135132.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2713754/27137540258.20210708110811.jpg</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>18900</t>
+          <t>28480</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
@@ -862,12 +862,12 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>에이비</t>
+          <t>언더스코어</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>에이비</t>
+          <t>언더스코어</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -897,22 +897,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>언더스코어 젠틀맨 프리미엄 차량용 방향제 디퓨저</t>
+          <t>불스원 폴라프레쉬 선바이저 방향제 리필</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27137540258</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=17787599329</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2713754/27137540258.20210708110811.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1778759/17787599329.20220107133652.jpg</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>28480</t>
+          <t>2090</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
@@ -928,12 +928,12 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>언더스코어</t>
+          <t>불스원</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>언더스코어</t>
+          <t>불스원</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -963,22 +963,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>디프로젝트 리필킷 디불 디버니 디릴라고 차량용방향제 자동차 디퓨저 고체 리필 DP-RF02</t>
+          <t>루크타 도베르만 차량용 자동차 송풍구 차 고급 방향제 디퓨저 LT-DB01</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18367838563</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25380843939</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1836783/18367838563.20211108142647.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2538084/25380843939.20211029114127.jpg</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>13000</t>
+          <t>49000</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
@@ -994,14 +994,10 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>디프로젝트</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>디프로젝트</t>
-        </is>
-      </c>
+          <t>루크타</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1095,17 +1091,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>루크타 도베르만 차량용 자동차 송풍구 차 고급 방향제 디퓨저 LT-DB01</t>
+          <t>디프로젝트 디불 불독 차량용방향제 자동차 디퓨저 DP-DBL01</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25380843939</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=13697148540</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2538084/25380843939.20211029114127.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1369714/13697148540.20211222172941.jpg</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1126,10 +1122,14 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>루크타</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr"/>
+          <t>디프로젝트</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>디프로젝트</t>
+        </is>
+      </c>
       <c r="K12" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1157,22 +1157,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>디프로젝트 디불 불독 차량용방향제 자동차 디퓨저 DP-DBL01</t>
+          <t>에이비 사막여우 차량용 방향제 송풍구 고급형</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=13697148540</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29639151141</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1369714/13697148540.20211222172941.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2963915/29639151141.20211224101014.jpg</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>49000</t>
+          <t>33000</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
@@ -1188,12 +1188,12 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>디프로젝트</t>
+          <t>에이비</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>디프로젝트</t>
+          <t>에이비</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1223,22 +1223,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>에이비 사막여우 차량용 방향제 송풍구 고급형</t>
+          <t>딥티크 차량용방향제 세트 케이스 + 리필용 캡슐</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29639151141</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28620531681</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2963915/29639151141.20211224101014.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2862053/28620531681.20210829001356.jpg</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>33000</t>
+          <t>88900</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
@@ -1254,14 +1254,10 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>에이비</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>에이비</t>
-        </is>
-      </c>
+          <t>딥티크</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1289,22 +1285,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>딥티크 차량용방향제 세트 케이스 + 리필용 캡슐</t>
+          <t>에이비 차량용 방향제 도베르만 고급 AB-DF04</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28620531681</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30317520568</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2862053/28620531681.20210829001356.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3031752/30317520568.20220110102207.jpg</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>88900</t>
+          <t>28000</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
@@ -1320,10 +1316,14 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>딥티크</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr"/>
+          <t>에이비</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>에이비</t>
+        </is>
+      </c>
       <c r="K15" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1351,22 +1351,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>에이비 차량용 방향제 도베르만 고급 AB-DF04</t>
+          <t>디프로젝트 리필킷 디불 디버니 디릴라고 차량용방향제 자동차 디퓨저 고체 리필 DP-RF02</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30317520568</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18367838563</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3031752/30317520568.20220110102207.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1836783/18367838563.20211108142647.jpg</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>28000</t>
+          <t>13000</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
@@ -1382,12 +1382,12 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>에이비</t>
+          <t>디프로젝트</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>에이비</t>
+          <t>디프로젝트</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1417,22 +1417,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>미스터앤미세스 니키 차량용 방향제 리필</t>
+          <t>언더스코어 오버라인 오버타이거 호랑이 퓨마 차량용 방향제 자동차 디퓨저 OL-CFOT</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=10149695240</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30404262618</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1014969/10149695240.20201014180005.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3040426/30404262618.20220103184026.jpg</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>4880</t>
+          <t>32120</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
@@ -1446,8 +1446,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>언더스코어</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>언더스코어</t>
+        </is>
+      </c>
       <c r="K17" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1475,22 +1483,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>플래트 고급 프로펠러 차량용 방향제 F430</t>
+          <t>미스터앤미세스 니키 차량용 방향제 리필</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27806043522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=10149695240</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2780604/27806043522.20210701115440.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1014969/10149695240.20201014180005.jpg</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>41880</t>
+          <t>4860</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
@@ -1504,11 +1512,7 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>플래트</t>
-        </is>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
@@ -1537,22 +1541,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>아우라 카카오 어피치 모니터걸이형 방향제 4.5ml</t>
+          <t>불스원 그라스 디퓨저 105ml 블랙베리 체리 방향제</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26955394520</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26677172452</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2695539/26955394520.20210428203230.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2667717/26677172452.20210407202430.jpg</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>14630</t>
+          <t>7550</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
@@ -1568,10 +1572,14 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>아우라</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr"/>
+          <t>불스원</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>불스원</t>
+        </is>
+      </c>
       <c r="K19" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1599,22 +1607,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>불스원 폴라프레쉬 선바이저 방향제 리필</t>
+          <t>플래트 고급 프로펠러 차량용 방향제 F430</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=17787599329</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27806043522</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1778759/17787599329.20220107133652.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2780604/27806043522.20210701115440.jpg</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2110</t>
+          <t>41880</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
@@ -1630,14 +1638,10 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>불스원</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>불스원</t>
-        </is>
-      </c>
+          <t>플래트</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1680,7 +1684,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>5750</t>
+          <t>4300</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
@@ -1797,22 +1801,22 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>카늘 글래디에이터 차량용 방향제</t>
+          <t>센트몬스터 고양이 차량용 방향제 고급 디퓨져</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20826026697</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24163460435</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2082602/20826026697.20210217230953.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2416346/24163460435.20210124121840.jpg</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>19800</t>
+          <t>39000</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
@@ -1828,7 +1832,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>카늘</t>
+          <t>센트몬스터</t>
         </is>
       </c>
       <c r="J23" t="inlineStr"/>
@@ -1859,22 +1863,22 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>언더스코어 오버라인 오버타이거 호랑이 퓨마 차량용 방향제 자동차 디퓨저 OL-CFOT</t>
+          <t>메탈아이원 차량용방향제 고급 송풍구방향제 홀더 향스틱2P</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30404262618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27657435982</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3040426/30404262618.20220103184026.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2765743/27657435982.20210620214337.jpg</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>32120</t>
+          <t>10900</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
@@ -1888,16 +1892,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>언더스코어</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>언더스코어</t>
-        </is>
-      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1925,22 +1921,22 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>DIPTYQUE 딥디크 차량용 방향제 리필 캡슐 케이스</t>
+          <t>카늘 글래디에이터 차량용 방향제</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30306912853</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20826026697</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3030691/30306912853.20211226224634.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2082602/20826026697.20210217230953.jpg</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>29900</t>
+          <t>19800</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
@@ -1954,7 +1950,11 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr"/>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>카늘</t>
+        </is>
+      </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
@@ -1983,22 +1983,22 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>양키캔들 차량용방향제 카자얼티메이트 10g 클린코튼</t>
+          <t>DIPTYQUE 딥디크 차량용 방향제 리필 캡슐 케이스</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28974434758</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30306912853</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2897443/28974434758.20211222174413.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3030691/30306912853.20211226224634.jpg</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>3490</t>
+          <t>29900</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
@@ -2012,11 +2012,7 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>양키캔들</t>
-        </is>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
@@ -2045,45 +2041,41 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>(리본끈+쇼핑백)딥디크 차량용 명품 고급 딥티크 방향제 디퓨저 리필향 9종 및 세트</t>
+          <t>차바치 씨스톤 차량용 방향제</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82298466138</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21337624052</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8229846/82298466138.7.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2133762/21337624052.20191119171610.jpg</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>27840</t>
+          <t>24900</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
-          <t>the슈필라움</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>딥티크</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>딥티크</t>
-        </is>
-      </c>
+          <t>차바치</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2111,22 +2103,22 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>디프로젝트 디릴라고 고릴라 차량용방향제 자동차 디퓨저 DP-DRL03</t>
+          <t>양키캔들 차량용방향제 카자얼티메이트 10g 클린코튼</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26801331279</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28974434758</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2680133/26801331279.20211222172904.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2897443/28974434758.20211222174413.jpg</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>49000</t>
+          <t>3490</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
@@ -2142,14 +2134,10 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>디프로젝트</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>디프로젝트</t>
-        </is>
-      </c>
+          <t>양키캔들</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2177,22 +2165,22 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>메탈아이원 차량용방향제 고급 송풍구방향제 홀더 향스틱2P</t>
+          <t>언더스코어 오버라인 오버라이노 코뿔소 차량용 방향제 자동차 디퓨저 OL-CFORH</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27657435982</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30251365068</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2765743/27657435982.20210620214337.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3025136/30251365068.20211222051742.jpg</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10900</t>
+          <t>32120</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
@@ -2206,8 +2194,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>언더스코어</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>언더스코어</t>
+        </is>
+      </c>
       <c r="K29" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2235,22 +2231,22 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>센트몬스터 고양이 차량용 방향제 고급 디퓨져</t>
+          <t>아우라 카카오 모니터걸이형 방향제 라이언 블루스카이향 10g x1개</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24163460435</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24014062100</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2416346/24163460435.20210124121840.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2401406/24014062100.20200903003222.jpg</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>38000</t>
+          <t>14630</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
@@ -2264,11 +2260,7 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>센트몬스터</t>
-        </is>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
@@ -2297,22 +2289,22 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>딥티크 차량용 방향제 케이스 베이 리필 세트</t>
+          <t>엘에스인터내셔널 플레이위드센트 사슴 차량용 방향제</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28546536156</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28125690522</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2854653/28546536156.20210824021557.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2812569/28125690522.20211105172954.jpg</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>31530</t>
+          <t>27990</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
@@ -2328,10 +2320,14 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>딥티크</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr"/>
+          <t>플레이위드센트</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>엘에스인터내셔널</t>
+        </is>
+      </c>
       <c r="K31" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2359,22 +2355,22 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>언더스코어 오버라인 오버라이노 코뿔소 차량용 방향제 자동차 디퓨저 OL-CFORH</t>
+          <t>딥티크 차량용 방향제 리필 9종류향</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30251365068</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27604493058</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3025136/30251365068.20211222051742.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2760449/27604493058.20210617024518.jpg</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>32120</t>
+          <t>37500</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
@@ -2390,12 +2386,12 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>언더스코어</t>
+          <t>딥티크</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>언더스코어</t>
+          <t>딥티크</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2425,22 +2421,22 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>아우라 카카오 모니터걸이형 방향제 라이언 블루스카이향 10g x1개</t>
+          <t>딥티크 차량용 방향제 케이스 베이 리필 세트</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24014062100</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28546536156</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2401406/24014062100.20200903003222.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2854653/28546536156.20210824021557.jpg</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>14630</t>
+          <t>31530</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
@@ -2454,7 +2450,11 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr"/>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>딥티크</t>
+        </is>
+      </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
@@ -2483,22 +2483,22 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>아야 펭수 차량용 방향제 AYA-CD01</t>
+          <t>제로스킨 로보트 태권브이 차량용 방향제 자동차 디퓨저 AD-KF90</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30275726375</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29535937618</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3027572/30275726375.20220107031017.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2953593/29535937618.20211216102403.jpg</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>24900</t>
+          <t>48760</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
@@ -2514,12 +2514,12 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>아야</t>
+          <t>제로스킨</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>아야</t>
+          <t>제로스킨</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2549,22 +2549,22 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>엘에스인터내셔널 플레이위드센트 사슴 차량용 방향제</t>
+          <t>디프로젝트 디버니 토끼 차량용방향제 자동차 디퓨저 DP-DBN02</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28125690522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27331951522</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2812569/28125690522.20211105172954.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2733195/27331951522.20211222172819.jpg</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>27990</t>
+          <t>49000</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
@@ -2580,12 +2580,12 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>플레이위드센트</t>
+          <t>디프로젝트</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>엘에스인터내셔널</t>
+          <t>디프로젝트</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -2615,22 +2615,22 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>제로스킨 로보트 태권브이 차량용 방향제 자동차 디퓨저 AD-KF90</t>
+          <t>훠링 하이센트 차량용 방향제 컵홀더형 95g</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29535937618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26601404523</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2953593/29535937618.20211216102403.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2660140/26601404523.20210420172441.jpg</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>48760</t>
+          <t>35000</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
@@ -2646,12 +2646,12 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>제로스킨</t>
+          <t>훠링</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>제로스킨</t>
+          <t>훠링</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2681,22 +2681,22 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>딥티크 차량용 방향제 리필 9종류향</t>
+          <t>아우라 카카오 어피치 모니터걸이형 방향제 4.5ml</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27604493058</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26955394520</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2760449/27604493058.20210617024518.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2695539/26955394520.20210428203230.jpg</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>37500</t>
+          <t>13890</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
@@ -2712,14 +2712,10 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>딥티크</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>딥티크</t>
-        </is>
-      </c>
+          <t>아우라</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2747,22 +2743,22 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>차량용 디퓨저 gv80 사각 송풍구 클립 네발 석고 방향제</t>
+          <t>리틀트리 안전한 종이방향제 실내방향제 모음전</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28685666448</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25190591305</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2868566/28685666448.20210902222527.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2519059/25190591305.20201211215631.jpg</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>840</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
@@ -2805,22 +2801,22 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>훠링 하이센트 차량용 방향제 컵홀더형 95g</t>
+          <t>리틀트리 걸이형 종이 방향제</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26601404523</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=7162545992</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2660140/26601404523.20210420172441.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_7162545/7162545992.20190731170829.jpg</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>35000</t>
+          <t>840</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
@@ -2834,16 +2830,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>훠링</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>훠링</t>
-        </is>
-      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2871,22 +2859,22 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>디프로젝트 디버니 토끼 차량용방향제 자동차 디퓨저 DP-DBN02</t>
+          <t>더딥 부엉이 차량용 디퓨져</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27331951522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25789622342</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2733195/27331951522.20211222172819.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2578962/25789622342.20210129193056.jpg</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>49000</t>
+          <t>19900</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
@@ -2900,16 +2888,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>디프로젝트</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>디프로젝트</t>
-        </is>
-      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3018,7 +2998,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>14000</t>
+          <t>13990</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
@@ -3065,22 +3045,22 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>리틀트리 안전한 종이방향제 실내방향제 모음전</t>
+          <t>에이센트 네이처 차량용 디퓨저 방향제 120ml</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25190591305</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27334130786</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2519059/25190591305.20201211215631.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2733413/27334130786.20211216041142.jpg</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>840</t>
+          <t>6900</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
@@ -3094,7 +3074,11 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I43" t="inlineStr"/>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>에이센트</t>
+        </is>
+      </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
@@ -3123,22 +3107,22 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>리틀트리 걸이형 종이 방향제</t>
+          <t>레모 차량용 프로펠러 머스탱 송풍구 방향제</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=7162545992</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24114474449</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_7162545/7162545992.20190731170829.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2411447/24114474449.20200910212921.jpg</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>880</t>
+          <t>19000</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
@@ -3181,22 +3165,22 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>양키캔들 벤트스틱 차량용 방향제 4P입</t>
+          <t>디프로젝트 디릴라고 고릴라 차량용방향제 자동차 디퓨저 DP-DRL03</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=6552648097</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26801331279</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_6552648/6552648097.20190731160942.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2680133/26801331279.20211222172904.jpg</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2260</t>
+          <t>49000</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
@@ -3212,12 +3196,12 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>양키캔들</t>
+          <t>디프로젝트</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>양키캔들</t>
+          <t>디프로젝트</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -3247,22 +3231,22 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>불스원 GRASSE 그라스 디퓨저 방향제</t>
+          <t>양키캔들 벤트스틱 차량용 방향제 4P입</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24073924737</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=6552648097</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2407392/24073924737.20200907231547.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_6552648/6552648097.20190731160942.jpg</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>8180</t>
+          <t>2160</t>
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
@@ -3278,10 +3262,14 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>불스원</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr"/>
+          <t>양키캔들</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>양키캔들</t>
+        </is>
+      </c>
       <c r="K46" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3309,22 +3297,22 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>더딥 부엉이 차량용 디퓨져</t>
+          <t>FYC 고급 명품 불독 차량용 방향제 디퓨저</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25789622342</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24941672502</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2578962/25789622342.20210129193056.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2494167/24941672502.20201122175400.jpg</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>19900</t>
+          <t>39000</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
@@ -3367,41 +3355,45 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>에이센트 네이처 차량용 디퓨저 방향제 120ml</t>
+          <t>(리본끈+쇼핑백)딥디크 차량용 명품 고급 딥티크 방향제 디퓨저 리필향 9종 및 세트</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27334130786</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82298466138</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2733413/27334130786.20211216041142.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8229846/82298466138.7.jpg</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>6900</t>
+          <t>27840</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>the슈필라움</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>에이센트</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr"/>
+          <t>딥티크</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>딥티크</t>
+        </is>
+      </c>
       <c r="K48" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3429,22 +3421,22 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>레모 차량용 프로펠러 머스탱 송풍구 방향제</t>
+          <t>제이엠제이라인 도슈아 차량용 방향제 리필 도자기</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24114474449</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20347407194</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2411447/24114474449.20200910212921.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2034740/20347407194.20211001120304.jpg</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>19000</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
@@ -3458,8 +3450,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>도슈아</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>제이엠제이라인</t>
+        </is>
+      </c>
       <c r="K49" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3487,22 +3487,22 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>에이비 얼굴 일러스트 사진 차량용방향제 2set</t>
+          <t>에이비 불독 차량용 방향제 디퓨저 차방향제 고급 명품 벤츠 bmw 제네시스 AB-DF05</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27190906522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29651432618</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2719090/27190906522.20210518150908.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2965143/29651432618.20211230143432.jpg</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>23000</t>
+          <t>28000</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
@@ -3553,22 +3553,22 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>FYC 고급 명품 불독 차량용 방향제 디퓨저</t>
+          <t>에이비 얼굴 일러스트 사진 차량용방향제 2set</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24941672502</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27190906522</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2494167/24941672502.20201122175400.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2719090/27190906522.20210518150908.jpg</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>39000</t>
+          <t>23000</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
@@ -3582,8 +3582,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>에이비</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>에이비</t>
+        </is>
+      </c>
       <c r="K51" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3611,22 +3619,22 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>에이비 불독 차량용 방향제 디퓨저 차방향제 고급 명품 벤츠 bmw 제네시스 AB-DF05</t>
+          <t>아야 펭수 차량용 방향제 AYA-CD01</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29651432618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30275726375</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2965143/29651432618.20211230143432.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3027572/30275726375.20220107031017.jpg</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>28000</t>
+          <t>24900</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
@@ -3642,12 +3650,12 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>에이비</t>
+          <t>아야</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>에이비</t>
+          <t>아야</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -3677,22 +3685,22 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>캘리포니아센트 캔타입 방향제 15종</t>
+          <t>차량용 디퓨저 gv80 사각 송풍구 클립 네발 석고 방향제</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27414604011</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28685666448</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2741460/27414604011.20210602231933.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2868566/28685666448.20210902222527.jpg</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>3310</t>
+          <t>30</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
@@ -3735,33 +3743,33 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>뽀글이 부클 곰돌이 차량용 석고 방향제</t>
+          <t>캘리포니아센트 캔타입 방향제 15종</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=81536224875</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27414604011</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8153622/81536224875.1.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2741460/27414604011.20210602231933.jpg</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>5500</t>
+          <t>3270</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
-          <t>메무아</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -3793,33 +3801,33 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>조말론 차량용 방향제 센트투고 명품향수 고급 디퓨저 거치대</t>
+          <t>조말론 차량용 방향제 센트 투 고 잉글리쉬 페어 앤 프리지아</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=83025886866</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25503166629</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8302588/83025886866.4.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2550316/25503166629.20211225025210.jpg</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>48500</t>
+          <t>33000</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
-          <t>홍콩걸즈</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -3859,38 +3867,38 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>디즈니 스턴 마블 아이언맨 미드나잇블랙 차량용 방향제 STMD-2</t>
+          <t>메이튼 십이지신 갓타이거 호랑이 차량용 방향제 차방향제 자동차 디퓨저 M-DF03</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28731194560</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=83200800540</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2873119/28731194560.20211216030849.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8320080/83200800540.jpg</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>39000</t>
+          <t>22000</t>
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>메이튼</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>디즈니</t>
+          <t>메이튼</t>
         </is>
       </c>
       <c r="J56" t="inlineStr"/>
@@ -3921,41 +3929,37 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>에너자이저 캘리포니아센트 방향제 코로나도 체리향 1개</t>
+          <t>뽀글이 부클 곰돌이 차량용 석고 방향제</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29022166369</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=81536224875</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2902216/29022166369.20210929024636.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8153622/81536224875.1.jpg</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>3280</t>
+          <t>5500</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>메무아</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>에너자이저</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3983,41 +3987,41 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>메이튼 십이지신 갓타이거 호랑이 차량용 방향제 차방향제 자동차 디퓨저 M-DF03</t>
+          <t>에너자이저 캘리포니아센트 방향제 코로나도 체리향 1개</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=83200800540</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29022166369</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8320080/83200800540.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2902216/29022166369.20210929024636.jpg</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>22000</t>
+          <t>3230</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
-          <t>메이튼</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>메이튼</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr"/>
+          <t>일반 - 가격비교 상품</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>에너자이저</t>
+        </is>
+      </c>
       <c r="K58" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4045,22 +4049,22 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>차바치 씨스톤 차량용 방향제</t>
+          <t>유니레버 스너글 곰돌이 방향제 21g 5종 3개입</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21337624052</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28658857392</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2133762/21337624052.20191119171610.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2865885/28658857392.20210831223854.jpg</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>24900</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
@@ -4076,10 +4080,14 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>차바치</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr"/>
+          <t>스너글</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>유니레버</t>
+        </is>
+      </c>
       <c r="K59" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4231,22 +4239,22 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>지엠지모터스 더라이더 디퓨저</t>
+          <t>미스터앤미세스 체사레 시저 차량용 방향제</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21538184583</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=8119194241</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2153818/21538184583.20210325121809.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8119194/8119194241.20190802121728.jpg</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>27800</t>
+          <t>6990</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
@@ -4260,16 +4268,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>지엠지모터스</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>지엠지모터스</t>
-        </is>
-      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4297,22 +4297,22 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>유니레버 스너글 곰돌이 방향제 21g 5종 3개입</t>
+          <t>명품고급디퓨저 마일론 갤러리1 차량용 방향제 MGAL-01</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28658857392</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30352215619</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2865885/28658857392.20210831223854.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3035221/30352215619.20220102155103.jpg</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>1700</t>
+          <t>49000</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
@@ -4328,12 +4328,12 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>스너글</t>
+          <t>마일론</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>유니레버</t>
+          <t>명품고급디퓨저</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -4363,22 +4363,22 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>조말론 차량용 방향제 센트 투 고 잉글리쉬 페어 앤 프리지아</t>
+          <t>피오나겔 복숭아 방향제</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25503166629</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27305478364</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2550316/25503166629.20211225025210.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2730547/27305478364.20210525235112.jpg</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>33000</t>
+          <t>940</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
@@ -4392,16 +4392,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>조말론</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>조말론</t>
-        </is>
-      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4429,22 +4421,22 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>명품고급디퓨저 마일론 갤러리1 차량용 방향제 MGAL-01</t>
+          <t>지엠지모터스 더라이더 디퓨저</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30352215619</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21538184583</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3035221/30352215619.20220102155103.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2153818/21538184583.20210325121809.jpg</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>49000</t>
+          <t>27800</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
@@ -4460,12 +4452,12 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>마일론</t>
+          <t>지엠지모터스</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>명품고급디퓨저</t>
+          <t>지엠지모터스</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -4495,22 +4487,22 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>픽도큐먼트 베어브릭 송풍구 차량용 방향제</t>
+          <t>엠퓨처 불독 차량용 방향제 디퓨저 MF-CAF02</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29900193281</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30458791731</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2990019/29900193281.20211208030917.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3045879/30458791731.20220107233129.jpg</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>14900</t>
+          <t>13900</t>
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
@@ -4553,22 +4545,22 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>칠라릴라 크롬블랙 차량용 자동차 방향제 고급 디퓨저</t>
+          <t>더드림 크리스마스 베어 방향제</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28621039462</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30394934683</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2862103/28621039462.20211108103254.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3039493/30394934683.20220103000148.jpg</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>29900</t>
+          <t>11000</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
@@ -4582,8 +4574,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>더드림</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>더드림</t>
+        </is>
+      </c>
       <c r="K67" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4611,22 +4611,22 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>제이엠제이라인 도슈아 클래식 프리미엄 차량용 방향제</t>
+          <t>잠자는 강아지인형 숯먹은 강아지 탈취제 방향제</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=17787594512</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24045215525</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1778759/17787594512.20210802225254.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2404521/24045215525.20200904192719.jpg</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>29750</t>
+          <t>8730</t>
         </is>
       </c>
       <c r="F68" t="inlineStr"/>
@@ -4640,16 +4640,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>도슈아</t>
-        </is>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>제이엠제이라인</t>
-        </is>
-      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4677,22 +4669,22 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>더드림 크리스마스 베어 방향제</t>
+          <t>제이엠제이라인 도슈아 클래식 프리미엄 차량용 방향제</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30394934683</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=17787594512</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3039493/30394934683.20220103000148.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1778759/17787594512.20210802225254.jpg</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11000</t>
+          <t>29750</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
@@ -4708,12 +4700,12 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>더드림</t>
+          <t>도슈아</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>더드림</t>
+          <t>제이엠제이라인</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -4743,22 +4735,22 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>미스터앤미세스 체사레 시저 차량용 방향제</t>
+          <t>불스원 GRASSE 그라스 디퓨저 방향제</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=8119194241</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24073924737</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8119194/8119194241.20190802121728.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2407392/24073924737.20200907231547.jpg</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>6990</t>
+          <t>8120</t>
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
@@ -4772,7 +4764,11 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I70" t="inlineStr"/>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>불스원</t>
+        </is>
+      </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
@@ -4801,22 +4797,22 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>토씨 클래시맨 명품 차량용방향제 룸미러걸이형</t>
+          <t>칠라릴라 크롬블랙 차량용 자동차 방향제 고급 디퓨저</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25695599950</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28621039462</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2569559/25695599950.20210902144804.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2862103/28621039462.20211108103254.jpg</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>85000</t>
+          <t>29900</t>
         </is>
       </c>
       <c r="F71" t="inlineStr"/>
@@ -4830,16 +4826,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>토씨</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>토씨</t>
-        </is>
-      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4867,33 +4855,33 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>카카오프렌즈 라이언 어피치 모니터걸이 모니터걸이형 네비게이션 걸이형 방향제</t>
+          <t>픽도큐먼트 베어브릭 송풍구 차량용 방향제</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=83484034800</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29900193281</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8348403/83484034800.1.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2990019/29900193281.20211208030917.jpg</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>16900</t>
+          <t>14900</t>
         </is>
       </c>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr">
         <is>
-          <t>ZENZEN MARKET</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -4925,22 +4913,22 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>다다아이엔티 허브타임 라비에 리필용 방향제 120ml</t>
+          <t>토씨 클래시맨 명품 차량용방향제 룸미러걸이형</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=8549499783</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25695599950</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8549499/8549499783.20190805153250.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2569559/25695599950.20210902144804.jpg</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>13500</t>
+          <t>85000</t>
         </is>
       </c>
       <c r="F73" t="inlineStr"/>
@@ -4956,12 +4944,12 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>허브타임</t>
+          <t>토씨</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>다다아이엔티</t>
+          <t>토씨</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -4991,22 +4979,22 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>엠퓨처 불독 차량용 방향제 디퓨저 MF-CAF02</t>
+          <t>쿤달 디퓨저 새차선물 방향제</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30458791731</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27074544271</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3045879/30458791731.20220107233129.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2707454/27074544271.20220112014738.jpg</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>13900</t>
+          <t>11490</t>
         </is>
       </c>
       <c r="F74" t="inlineStr"/>
@@ -5020,7 +5008,11 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I74" t="inlineStr"/>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>쿤달</t>
+        </is>
+      </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
@@ -5049,22 +5041,22 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>쿤달 디퓨저 새차선물 방향제</t>
+          <t>미스터앤미세스 지지 차량용 방향제</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27074544271</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21712692459</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2707454/27074544271.20210508185830.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2171269/21712692459.20200108100214.jpg</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11290</t>
+          <t>7770</t>
         </is>
       </c>
       <c r="F75" t="inlineStr"/>
@@ -5078,11 +5070,7 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>쿤달</t>
-        </is>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
@@ -5111,22 +5099,22 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>헤니르 송풍구 클립형 파일럿 베어 차량용 방향제</t>
+          <t>다다아이엔티 허브타임 라비에 리필용 방향제 120ml</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29861388136</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=8549499783</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2986138/29861388136.20211129014233.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8549499/8549499783.20190805153250.jpg</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>15000</t>
+          <t>13500</t>
         </is>
       </c>
       <c r="F76" t="inlineStr"/>
@@ -5142,10 +5130,14 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>헤니르</t>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr"/>
+          <t>허브타임</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>다다아이엔티</t>
+        </is>
+      </c>
       <c r="K76" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -5173,45 +5165,37 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>언더스코어 오버리트리버 차량용 방향제</t>
+          <t>카카오프렌즈 라이언 어피치 모니터걸이 모니터걸이형 네비게이션 걸이형 방향제</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30272149758</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=83484034800</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3027214/30272149758.20211224002351.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8348403/83484034800.1.jpg</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>36500</t>
+          <t>16900</t>
         </is>
       </c>
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>ZENZEN MARKET</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>언더스코어</t>
-        </is>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>언더스코어</t>
-        </is>
-      </c>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -5239,22 +5223,22 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>포포베 차량용방향제 자동차 디퓨저 선물 패키지</t>
+          <t>언더스코어 오버리트리버 차량용 방향제</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30238144502</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30272149758</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3023814/30238144502.20211222050944.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3027214/30272149758.20211224002351.jpg</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>19800</t>
+          <t>36500</t>
         </is>
       </c>
       <c r="F78" t="inlineStr"/>
@@ -5268,8 +5252,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>언더스코어</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>언더스코어</t>
+        </is>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -5297,22 +5289,22 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>제이엠제이라인 도슈아 차량용 방향제 리필 도자기</t>
+          <t>산도깨비 차량용 멤브렌 리필 방향제 x 10개입 휘튼치드</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20347407194</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25695237598</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2034740/20347407194.20211001120304.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2569523/25695237598.20211215041018.jpg</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>21500</t>
         </is>
       </c>
       <c r="F79" t="inlineStr"/>
@@ -5328,14 +5320,10 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>도슈아</t>
-        </is>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>제이엠제이라인</t>
-        </is>
-      </c>
+          <t>산도깨비</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -5363,37 +5351,45 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>디캣 차량용 송풍구 방향제 A세트 쇼핑백 선물상자</t>
+          <t>조말론 차량용 방향제 센트투고 명품향수 고급 디퓨저 거치대</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29581678158</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=83025886866</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2958167/29581678158.20211122011246.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8302588/83025886866.4.jpg</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>9900</t>
+          <t>48500</t>
         </is>
       </c>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>홍콩걸즈</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>조말론</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>조말론</t>
+        </is>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -5421,40 +5417,36 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>조말론 차량용 방향제 센트 투 고 고급 명품 디퓨저 and 거치대 석고방향제</t>
+          <t>포포베 차량용방향제 자동차 디퓨저 선물 패키지</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82623141464</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30238144502</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8262314/82623141464.2.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3023814/30238144502.20211222050944.jpg</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>38540</t>
+          <t>19800</t>
         </is>
       </c>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr">
         <is>
-          <t>the슈필라움</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>조말론</t>
-        </is>
-      </c>
+          <t>일반 - 가격비교 상품</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
@@ -5483,45 +5475,41 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>조말론 센트투고 차량방향제 자동차 쇼핑백 기본리본포장</t>
+          <t>양키캔들 카자 3개입 차량용 종이방향제</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=83296295354</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24030918060</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8329629/83296295354.2.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2403091/24030918060.20200904000428.jpg</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>49900</t>
+          <t>3910</t>
         </is>
       </c>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr">
         <is>
-          <t>더딥스토어</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>조말론</t>
-        </is>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>조말론</t>
-        </is>
-      </c>
+          <t>양키캔들</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -5549,22 +5537,22 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>엠블럼 스누피 방향제</t>
+          <t>디캣 차량용 송풍구 방향제 A세트 쇼핑백 선물상자</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25645224899</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29581678158</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2564522/25645224899.20211028043708.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2958167/29581678158.20211122011246.jpg</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>9860</t>
+          <t>9900</t>
         </is>
       </c>
       <c r="F83" t="inlineStr"/>
@@ -5607,45 +5595,41 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>카카오프렌즈 어피치 라이언 모니터 네비게이션 걸이형 방향제</t>
+          <t>헤니르 송풍구 클립형 파일럿 베어 차량용 방향제</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82953307035</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29861388136</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8295330/82953307035.2.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2986138/29861388136.20211129014233.jpg</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>23900</t>
+          <t>15000</t>
         </is>
       </c>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr">
         <is>
-          <t>주네트</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>엘지생활건강</t>
-        </is>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>엘지생활건강</t>
-        </is>
-      </c>
+          <t>헤니르</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -5673,22 +5657,22 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>산도깨비 차량용 멤브렌 리필 방향제 x 10개입 휘튼치드</t>
+          <t>블랑16 천연 자동차 디퓨저 냄새제거</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25695237598</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25146212346</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2569523/25695237598.20211215041018.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2514621/25146212346.20201208222311.jpg</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>21500</t>
+          <t>9700</t>
         </is>
       </c>
       <c r="F85" t="inlineStr"/>
@@ -5704,7 +5688,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>산도깨비</t>
+          <t>블랑16</t>
         </is>
       </c>
       <c r="J85" t="inlineStr"/>
@@ -5735,22 +5719,22 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>인비저블 방향제 차량용 송풍구 일체형</t>
+          <t>조이오퓨저 오퓨저 가죽곰 가죽토끼 차량용 석고방향제 디퓨저 엠블럼 무료제작</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24445209070</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29908385702</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2444520/24445209070.20201013225708.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2990838/29908385702.20211201233207.jpg</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>7180</t>
+          <t>9900</t>
         </is>
       </c>
       <c r="F86" t="inlineStr"/>
@@ -5764,7 +5748,11 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I86" t="inlineStr"/>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>조이오퓨저</t>
+        </is>
+      </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
@@ -5793,38 +5781,38 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>조이오퓨저 오퓨저 가죽곰 가죽토끼 차량용 석고방향제 디퓨저 엠블럼 무료제작</t>
+          <t>쓰리나인 차 차량용 방향제 불독 명품 힙한늑대 디퓨저</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29908385702</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82749964205</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2990838/29908385702.20211201233207.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8274996/82749964205.12.jpg</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>9900</t>
+          <t>29850</t>
         </is>
       </c>
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>THREENINE</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>조이오퓨저</t>
+          <t>쓰리나인</t>
         </is>
       </c>
       <c r="J87" t="inlineStr"/>
@@ -5855,28 +5843,28 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>쓰리나인 차 차량용 방향제 불독 명품 힙한늑대 디퓨저</t>
+          <t>조말론 차량용 방향제 센트 투 고 고급 명품 디퓨저 and 거치대 석고방향제</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82749964205</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82623141464</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8274996/82749964205.12.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8262314/82623141464.2.jpg</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>29850</t>
+          <t>38540</t>
         </is>
       </c>
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr">
         <is>
-          <t>THREENINE</t>
+          <t>the슈필라움</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -5886,7 +5874,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>쓰리나인</t>
+          <t>조말론</t>
         </is>
       </c>
       <c r="J88" t="inlineStr"/>
@@ -5917,22 +5905,22 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>포맨트 퍼퓸 썸퓨저 차량용 방향제</t>
+          <t>엠블럼 스누피 방향제</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20901530534</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25645224899</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2090153/20901530534.20211028161645.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2564522/25645224899.20211028043708.jpg</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>30710</t>
+          <t>9880</t>
         </is>
       </c>
       <c r="F89" t="inlineStr"/>
@@ -5946,11 +5934,7 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>포맨트</t>
-        </is>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
@@ -5979,28 +5963,28 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>라피네르 로얄스페이드 듀오 차량용방향제</t>
+          <t>미스터앤미세스 니키 본품/리필 차량용 방향제</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82123406483</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=10017842540</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8212340/82123406483.4.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1001784/10017842540.12.jpg</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>39800</t>
+          <t>7200</t>
         </is>
       </c>
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr">
         <is>
-          <t>RAFFINEUR</t>
+          <t>반도향기나라</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -6008,16 +5992,8 @@
           <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>라피네르</t>
-        </is>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>라피네르</t>
-        </is>
-      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -6045,28 +6021,28 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>미스터앤미세스 니키 본품/리필 차량용 방향제</t>
+          <t>카카오프렌즈 어피치 라이언 모니터 네비게이션 걸이형 방향제</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=10017842540</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82953307035</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1001784/10017842540.12.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8295330/82953307035.2.jpg</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>7200</t>
+          <t>23900</t>
         </is>
       </c>
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr">
         <is>
-          <t>반도향기나라</t>
+          <t>주네트</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -6074,8 +6050,16 @@
           <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>엘지생활건강</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>엘지생활건강</t>
+        </is>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -6103,33 +6087,33 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>JK 크롬 베어브릭 차량용방향제 자동차 디퓨저 송풍구형</t>
+          <t>캐릭터 오리 그네 석고 차량용 방향제 자동차 차량 디퓨저</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29584087308</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=83579983455</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2958408/29584087308.20211108030207.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8357998/83579983455.jpg</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>15900</t>
+          <t>4900</t>
         </is>
       </c>
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>담배가게 아저씨</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I92" t="inlineStr"/>
@@ -6161,22 +6145,22 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>양키캔들 스마트 센트 벤트클립</t>
+          <t>인비저블 방향제 차량용 송풍구 일체형</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18975414143</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24445209070</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1897541/18975414143.20190429160633.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2444520/24445209070.20201013225708.jpg</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>3240</t>
+          <t>8310</t>
         </is>
       </c>
       <c r="F93" t="inlineStr"/>
@@ -6190,11 +6174,7 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>양키캔들</t>
-        </is>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
@@ -6223,45 +6203,41 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>에어디 강아지 방향제 3세트 도베르만 불독 포메라니안</t>
+          <t>카카오프렌즈 모니터걸이 방향제 어피치+라이언</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82822446786</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27139606827</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8282244/82822446786.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2713960/27139606827.20210513203418.jpg</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>59000</t>
+          <t>33190</t>
         </is>
       </c>
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr">
         <is>
-          <t>에어디</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>에어디</t>
-        </is>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>삼디몰</t>
-        </is>
-      </c>
+          <t>카카오프렌즈</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -6289,22 +6265,22 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>P&amp;amp;G 페브리즈 차량용 방향제 2.2ml 3개</t>
+          <t>포맨트 퍼퓸 썸퓨저 차량용 방향제</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20397190459</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20901530534</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2039719/20397190459.20190726113415.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2090153/20901530534.20211028161645.jpg</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>7950</t>
+          <t>30310</t>
         </is>
       </c>
       <c r="F95" t="inlineStr"/>
@@ -6320,14 +6296,10 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>페브리즈</t>
-        </is>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>P&amp;G</t>
-        </is>
-      </c>
+          <t>포맨트</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -6355,43 +6327,43 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>로베르타디까메리노 원형 대용량 방향제 100ml 2P</t>
+          <t>라피네르 로얄스페이드 듀오 차량용방향제</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=5640406696</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82123406483</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_5640406/5640406696.20190805143958.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8212340/82123406483.4.jpg</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>13800</t>
+          <t>39800</t>
         </is>
       </c>
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>RAFFINEUR</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>로베르타디까메리노</t>
+          <t>라피네르</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>로베르타디까메리노</t>
+          <t>라피네르</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -6421,45 +6393,41 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>카카오 차량용 송풍구 방향제 자동차 통풍구 리필 모니터형</t>
+          <t>양키캔들 스마트 센트 벤트클립</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=12881246711</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18975414143</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1288124/12881246711.12.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1897541/18975414143.20190429160633.jpg</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>13100</t>
+          <t>3160</t>
         </is>
       </c>
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr">
         <is>
-          <t>주네트</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>카카오프렌즈</t>
-        </is>
-      </c>
-      <c r="J97" t="inlineStr">
-        <is>
-          <t>엘지생활건강</t>
-        </is>
-      </c>
+          <t>양키캔들</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -6487,41 +6455,45 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>카카오프렌즈 모니터걸이 방향제 어피치+라이언</t>
+          <t>피톤치드 편백 나무 방향제 향 천연 차량용 자동차 아로마 송풍구 디퓨저</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27139606827</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=9501913801</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2713960/27139606827.20210513203418.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_9501913/9501913801.23.jpg</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>33190</t>
+          <t>10900</t>
         </is>
       </c>
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>순수팜</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>카카오프렌즈</t>
-        </is>
-      </c>
-      <c r="J98" t="inlineStr"/>
+          <t>순수팜</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>엠제이글로벌</t>
+        </is>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -6549,22 +6521,22 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>P&amp;amp;G 앰비언트 이퀄라이저 방향제 PG-CF01</t>
+          <t>양키캔들 차밍센츠 고급 차량용 방향제 리필 16g</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30091667863</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24073000302</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3009166/30091667863.20211214231525.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2407300/24073000302.20200907200512.jpg</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>20890</t>
+          <t>4760</t>
         </is>
       </c>
       <c r="F99" t="inlineStr"/>
@@ -6580,14 +6552,10 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>P&amp;G</t>
-        </is>
-      </c>
-      <c r="J99" t="inlineStr">
-        <is>
-          <t>P&amp;G</t>
-        </is>
-      </c>
+          <t>양키캔들</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -6615,22 +6583,22 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>양키캔들 차밍센츠 고급 차량용 방향제 리필 16g</t>
+          <t>산도깨비 멤브렌 방향제 휘튼치트</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24073000302</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30307277363</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2407300/24073000302.20200907200512.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3030727/30307277363.20211227004153.jpg</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>4460</t>
+          <t>2280</t>
         </is>
       </c>
       <c r="F100" t="inlineStr"/>
@@ -6646,10 +6614,14 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>양키캔들</t>
-        </is>
-      </c>
-      <c r="J100" t="inlineStr"/>
+          <t>산도깨비</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>산도깨비</t>
+        </is>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -6677,37 +6649,45 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>프리미엄 차량용 송풍구 프렌치 불독 방향제 디퓨저 투싼 gv70</t>
+          <t>P&amp;amp;G 페브리즈 차량용 방향제 2.2ml 3개</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=83068734135</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20397190459</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8306873/83068734135.1.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2039719/20397190459.20190726113415.jpg</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>16900</t>
+          <t>7950</t>
         </is>
       </c>
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr">
         <is>
-          <t>록마스터</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
-        </is>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
+          <t>일반 - 가격비교 상품</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>페브리즈</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>P&amp;G</t>
+        </is>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
           <t>생활/건강</t>

--- a/output.xlsx
+++ b/output.xlsx
@@ -703,22 +703,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>에이비 큐빅베어브릭 차량용 방향제 차방향제 벤츠 BMW 디퓨저 고급 AB-DF02</t>
+          <t>카보노 대쉬보드 거치형 프리미엄 차량용 방향제</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27944185800</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25371363986</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2794418/27944185800.20210929135132.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2537136/25371363986.20220104014030.jpg</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>18900</t>
+          <t>46500</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
@@ -734,14 +734,10 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>에이비</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>에이비</t>
-        </is>
-      </c>
+          <t>카보노</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -769,22 +765,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>카보노 대쉬보드 거치형 프리미엄 차량용 방향제</t>
+          <t>에이비 큐빅베어브릭 차량용 방향제 차방향제 벤츠 BMW 디퓨저 고급 AB-DF02</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25371363986</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27944185800</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2537136/25371363986.20220104014030.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2794418/27944185800.20210929135132.jpg</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>46500</t>
+          <t>18900</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
@@ -800,10 +796,14 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>카보노</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr"/>
+          <t>에이비</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>에이비</t>
+        </is>
+      </c>
       <c r="K7" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -963,22 +963,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>루크타 도베르만 차량용 자동차 송풍구 차 고급 방향제 디퓨저 LT-DB01</t>
+          <t>JW중외제약 피톤치드 차량용 방향제 피톤케어</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25380843939</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=12916212027</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2538084/25380843939.20211029114127.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1291621/12916212027.20211116115126.jpg</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>49000</t>
+          <t>37700</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
@@ -994,10 +994,14 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>루크타</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr"/>
+          <t>JW중외제약</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>JW중외제약</t>
+        </is>
+      </c>
       <c r="K10" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1025,22 +1029,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>JW중외제약 피톤치드 차량용 방향제 피톤케어</t>
+          <t>디프로젝트 디불 불독 차량용방향제 자동차 디퓨저 DP-DBL01</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=12916212027</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=13697148540</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1291621/12916212027.20211116115126.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1369714/13697148540.20211222172941.jpg</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>37700</t>
+          <t>49000</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
@@ -1056,12 +1060,12 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>JW중외제약</t>
+          <t>디프로젝트</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>JW중외제약</t>
+          <t>디프로젝트</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1091,17 +1095,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>디프로젝트 디불 불독 차량용방향제 자동차 디퓨저 DP-DBL01</t>
+          <t>루크타 도베르만 차량용 자동차 송풍구 차 고급 방향제 디퓨저 LT-DB01</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=13697148540</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25380843939</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1369714/13697148540.20211222172941.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2538084/25380843939.20211029114127.jpg</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1122,14 +1126,10 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>디프로젝트</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>디프로젝트</t>
-        </is>
-      </c>
+          <t>루크타</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1285,22 +1285,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>에이비 차량용 방향제 도베르만 고급 AB-DF04</t>
+          <t>디프로젝트 리필킷 디불 디버니 디릴라고 차량용방향제 자동차 디퓨저 고체 리필 DP-RF02</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30317520568</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18367838563</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3031752/30317520568.20220110102207.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1836783/18367838563.20211108142647.jpg</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>28000</t>
+          <t>13000</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
@@ -1316,12 +1316,12 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>에이비</t>
+          <t>디프로젝트</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>에이비</t>
+          <t>디프로젝트</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1351,22 +1351,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>디프로젝트 리필킷 디불 디버니 디릴라고 차량용방향제 자동차 디퓨저 고체 리필 DP-RF02</t>
+          <t>미스터앤미세스 니키 차량용 방향제 리필</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18367838563</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=10149695240</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1836783/18367838563.20211108142647.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1014969/10149695240.20201014180005.jpg</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>13000</t>
+          <t>4860</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
@@ -1380,16 +1380,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>디프로젝트</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>디프로젝트</t>
-        </is>
-      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1417,22 +1409,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>언더스코어 오버라인 오버타이거 호랑이 퓨마 차량용 방향제 자동차 디퓨저 OL-CFOT</t>
+          <t>불스원 그라스 디퓨저 105ml 블랙베리 체리 방향제</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30404262618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26677172452</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3040426/30404262618.20220103184026.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2667717/26677172452.20210407202430.jpg</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>32120</t>
+          <t>7540</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
@@ -1448,12 +1440,12 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>언더스코어</t>
+          <t>불스원</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>언더스코어</t>
+          <t>불스원</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1483,22 +1475,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>미스터앤미세스 니키 차량용 방향제 리필</t>
+          <t>에이비 차량용 방향제 도베르만 고급 AB-DF04</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=10149695240</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30317520568</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1014969/10149695240.20201014180005.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3031752/30317520568.20220110102207.jpg</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4860</t>
+          <t>28000</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
@@ -1512,8 +1504,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>에이비</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>에이비</t>
+        </is>
+      </c>
       <c r="K18" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1541,22 +1541,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>불스원 그라스 디퓨저 105ml 블랙베리 체리 방향제</t>
+          <t>플래트 고급 프로펠러 차량용 방향제 F430</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26677172452</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27806043522</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2667717/26677172452.20210407202430.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2780604/27806043522.20210701115440.jpg</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>7550</t>
+          <t>41880</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
@@ -1572,14 +1572,10 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>불스원</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>불스원</t>
-        </is>
-      </c>
+          <t>플래트</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1607,22 +1603,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>플래트 고급 프로펠러 차량용 방향제 F430</t>
+          <t>언더스코어 오버라인 오버타이거 호랑이 퓨마 차량용 방향제 자동차 디퓨저 OL-CFOT</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27806043522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30404262618</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2780604/27806043522.20210701115440.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3040426/30404262618.20220103184026.jpg</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>41880</t>
+          <t>32120</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
@@ -1638,10 +1634,14 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>플래트</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr"/>
+          <t>언더스코어</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>언더스코어</t>
+        </is>
+      </c>
       <c r="K20" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1863,22 +1863,22 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>메탈아이원 차량용방향제 고급 송풍구방향제 홀더 향스틱2P</t>
+          <t>카늘 글래디에이터 차량용 방향제</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27657435982</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20826026697</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2765743/27657435982.20210620214337.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2082602/20826026697.20210217230953.jpg</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10900</t>
+          <t>19800</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
@@ -1892,7 +1892,11 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr"/>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>카늘</t>
+        </is>
+      </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
@@ -1921,22 +1925,22 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>카늘 글래디에이터 차량용 방향제</t>
+          <t>메탈아이원 차량용방향제 고급 송풍구방향제 홀더 향스틱2P</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20826026697</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27657435982</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2082602/20826026697.20210217230953.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2765743/27657435982.20210620214337.jpg</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>19800</t>
+          <t>10900</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
@@ -1950,11 +1954,7 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>카늘</t>
-        </is>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
@@ -1983,22 +1983,22 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>DIPTYQUE 딥디크 차량용 방향제 리필 캡슐 케이스</t>
+          <t>차바치 씨스톤 차량용 방향제</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30306912853</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21337624052</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3030691/30306912853.20211226224634.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2133762/21337624052.20191119171610.jpg</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>29900</t>
+          <t>24900</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
@@ -2012,7 +2012,11 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>차바치</t>
+        </is>
+      </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
@@ -2041,22 +2045,22 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>차바치 씨스톤 차량용 방향제</t>
+          <t>양키캔들 차량용방향제 카자얼티메이트 10g 클린코튼</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21337624052</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28974434758</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2133762/21337624052.20191119171610.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2897443/28974434758.20211222174413.jpg</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>24900</t>
+          <t>3490</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
@@ -2072,7 +2076,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>차바치</t>
+          <t>양키캔들</t>
         </is>
       </c>
       <c r="J27" t="inlineStr"/>
@@ -2103,22 +2107,22 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>양키캔들 차량용방향제 카자얼티메이트 10g 클린코튼</t>
+          <t>DIPTYQUE 딥디크 차량용 방향제 리필 캡슐 케이스</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28974434758</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30306912853</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2897443/28974434758.20211222174413.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3030691/30306912853.20211226224634.jpg</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>3490</t>
+          <t>29900</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
@@ -2132,11 +2136,7 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>양키캔들</t>
-        </is>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
@@ -2231,22 +2231,22 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>아우라 카카오 모니터걸이형 방향제 라이언 블루스카이향 10g x1개</t>
+          <t>제로스킨 로보트 태권브이 차량용 방향제 자동차 디퓨저 AD-KF90</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24014062100</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29535937618</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2401406/24014062100.20200903003222.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2953593/29535937618.20211216102403.jpg</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>14630</t>
+          <t>48760</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
@@ -2260,8 +2260,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>제로스킨</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>제로스킨</t>
+        </is>
+      </c>
       <c r="K30" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2289,22 +2297,22 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>엘에스인터내셔널 플레이위드센트 사슴 차량용 방향제</t>
+          <t>딥티크 차량용 방향제 리필 9종류향</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28125690522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27604493058</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2812569/28125690522.20211105172954.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2760449/27604493058.20210617024518.jpg</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>27990</t>
+          <t>37500</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
@@ -2320,12 +2328,12 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>플레이위드센트</t>
+          <t>딥티크</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>엘에스인터내셔널</t>
+          <t>딥티크</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2355,22 +2363,22 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>딥티크 차량용 방향제 리필 9종류향</t>
+          <t>아우라 카카오 모니터걸이형 방향제 라이언 블루스카이향 10g x1개</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27604493058</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24014062100</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2760449/27604493058.20210617024518.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2401406/24014062100.20200903003222.jpg</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>37500</t>
+          <t>14630</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
@@ -2384,16 +2392,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>딥티크</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>딥티크</t>
-        </is>
-      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2483,22 +2483,22 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>제로스킨 로보트 태권브이 차량용 방향제 자동차 디퓨저 AD-KF90</t>
+          <t>엘에스인터내셔널 플레이위드센트 사슴 차량용 방향제</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29535937618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28125690522</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2953593/29535937618.20211216102403.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2812569/28125690522.20211105172954.jpg</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>48760</t>
+          <t>27990</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
@@ -2514,12 +2514,12 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>제로스킨</t>
+          <t>플레이위드센트</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>제로스킨</t>
+          <t>엘에스인터내셔널</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2549,22 +2549,22 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>디프로젝트 디버니 토끼 차량용방향제 자동차 디퓨저 DP-DBN02</t>
+          <t>아우라 카카오 어피치 모니터걸이형 방향제 4.5ml</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27331951522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26955394520</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2733195/27331951522.20211222172819.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2695539/26955394520.20210428203230.jpg</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>49000</t>
+          <t>13890</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
@@ -2580,14 +2580,10 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>디프로젝트</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>디프로젝트</t>
-        </is>
-      </c>
+          <t>아우라</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2615,22 +2611,22 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>훠링 하이센트 차량용 방향제 컵홀더형 95g</t>
+          <t>리틀트리 걸이형 종이 방향제</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26601404523</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=7162545992</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2660140/26601404523.20210420172441.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_7162545/7162545992.20190731170829.jpg</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>35000</t>
+          <t>830</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
@@ -2644,16 +2640,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>훠링</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>훠링</t>
-        </is>
-      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2681,22 +2669,22 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>아우라 카카오 어피치 모니터걸이형 방향제 4.5ml</t>
+          <t>훠링 하이센트 차량용 방향제 컵홀더형 95g</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26955394520</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26601404523</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2695539/26955394520.20210428203230.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2660140/26601404523.20210420172441.jpg</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>13890</t>
+          <t>35000</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
@@ -2712,10 +2700,14 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>아우라</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr"/>
+          <t>훠링</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>훠링</t>
+        </is>
+      </c>
       <c r="K37" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2801,22 +2793,22 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>리틀트리 걸이형 종이 방향제</t>
+          <t>리빙인아로마 쿤달 퍼퓸 차량용 디퓨저 2구 세트 블랙체리</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=7162545992</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24803290609</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_7162545/7162545992.20190731170829.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2480329/24803290609.20211223022852.jpg</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>840</t>
+          <t>10300</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
@@ -2830,8 +2822,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>쿤달</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>리빙인아로마</t>
+        </is>
+      </c>
       <c r="K39" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2917,22 +2917,22 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>리빙인아로마 쿤달 퍼퓸 차량용 디퓨저 2구 세트 블랙체리</t>
+          <t>양키캔들 벤트스틱 차량용 방향제 4P입</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24803290609</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=6552648097</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2480329/24803290609.20211223022852.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_6552648/6552648097.20190731160942.jpg</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10300</t>
+          <t>2150</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
@@ -2948,12 +2948,12 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>쿤달</t>
+          <t>양키캔들</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>리빙인아로마</t>
+          <t>양키캔들</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -2983,22 +2983,22 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>카카오프렌즈 차량용방향제 통풍구형 라이언 어피치</t>
+          <t>에이센트 네이처 차량용 디퓨저 방향제 120ml</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24045761869</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27334130786</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2404576/24045761869.20210928022130.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2733413/27334130786.20211216041142.jpg</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>13990</t>
+          <t>6900</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
@@ -3014,7 +3014,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>카카오프렌즈</t>
+          <t>에이센트</t>
         </is>
       </c>
       <c r="J42" t="inlineStr"/>
@@ -3045,22 +3045,22 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>에이센트 네이처 차량용 디퓨저 방향제 120ml</t>
+          <t>카카오프렌즈 차량용방향제 통풍구형 라이언 어피치</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27334130786</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24045761869</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2733413/27334130786.20211216041142.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2404576/24045761869.20210928022130.jpg</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>6900</t>
+          <t>13990</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
@@ -3076,7 +3076,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>에이센트</t>
+          <t>카카오프렌즈</t>
         </is>
       </c>
       <c r="J43" t="inlineStr"/>
@@ -3165,22 +3165,22 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>디프로젝트 디릴라고 고릴라 차량용방향제 자동차 디퓨저 DP-DRL03</t>
+          <t>FYC 고급 명품 불독 차량용 방향제 디퓨저</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26801331279</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24941672502</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2680133/26801331279.20211222172904.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2494167/24941672502.20201122175400.jpg</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>49000</t>
+          <t>39000</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
@@ -3194,16 +3194,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>디프로젝트</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>디프로젝트</t>
-        </is>
-      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3231,22 +3223,22 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>양키캔들 벤트스틱 차량용 방향제 4P입</t>
+          <t>제이엠제이라인 도슈아 차량용 방향제 리필 도자기</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=6552648097</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20347407194</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_6552648/6552648097.20190731160942.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2034740/20347407194.20211001120304.jpg</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2160</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
@@ -3262,12 +3254,12 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>양키캔들</t>
+          <t>도슈아</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>양키캔들</t>
+          <t>제이엠제이라인</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -3297,37 +3289,45 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>FYC 고급 명품 불독 차량용 방향제 디퓨저</t>
+          <t>(리본끈+쇼핑백)딥디크 차량용 명품 고급 딥티크 방향제 디퓨저 리필향 9종 및 세트</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24941672502</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82298466138</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2494167/24941672502.20201122175400.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8229846/82298466138.7.jpg</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>39000</t>
+          <t>27840</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>the슈필라움</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>딥티크</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>딥티크</t>
+        </is>
+      </c>
       <c r="K47" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3355,43 +3355,43 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>(리본끈+쇼핑백)딥디크 차량용 명품 고급 딥티크 방향제 디퓨저 리필향 9종 및 세트</t>
+          <t>디프로젝트 디버니 토끼 차량용방향제 자동차 디퓨저 DP-DBN02</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82298466138</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27331951522</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8229846/82298466138.7.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2733195/27331951522.20211222172819.jpg</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>27840</t>
+          <t>49000</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
-          <t>the슈필라움</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>딥티크</t>
+          <t>디프로젝트</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>딥티크</t>
+          <t>디프로젝트</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -3421,22 +3421,22 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>제이엠제이라인 도슈아 차량용 방향제 리필 도자기</t>
+          <t>디프로젝트 디릴라고 고릴라 차량용방향제 자동차 디퓨저 DP-DRL03</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20347407194</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26801331279</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2034740/20347407194.20211001120304.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2680133/26801331279.20211222172904.jpg</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>49000</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
@@ -3452,12 +3452,12 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>도슈아</t>
+          <t>디프로젝트</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>제이엠제이라인</t>
+          <t>디프로젝트</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -3685,22 +3685,22 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>차량용 디퓨저 gv80 사각 송풍구 클립 네발 석고 방향제</t>
+          <t>캘리포니아센트 캔타입 방향제 15종</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28685666448</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27414604011</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2868566/28685666448.20210902222527.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2741460/27414604011.20210602231933.jpg</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>3270</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
@@ -3743,22 +3743,22 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>캘리포니아센트 캔타입 방향제 15종</t>
+          <t>차량용 디퓨저 gv80 사각 송풍구 클립 네발 석고 방향제</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27414604011</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28685666448</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2741460/27414604011.20210602231933.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2868566/28685666448.20210902222527.jpg</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>3270</t>
+          <t>30</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
@@ -3801,22 +3801,22 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>조말론 차량용 방향제 센트 투 고 잉글리쉬 페어 앤 프리지아</t>
+          <t>미스터앤미세스 체사레 시저 차량용 방향제</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25503166629</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=8119194241</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2550316/25503166629.20211225025210.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8119194/8119194241.20190802121728.jpg</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>33000</t>
+          <t>6990</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
@@ -3830,16 +3830,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>조말론</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>조말론</t>
-        </is>
-      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3867,41 +3859,41 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>메이튼 십이지신 갓타이거 호랑이 차량용 방향제 차방향제 자동차 디퓨저 M-DF03</t>
+          <t>에너자이저 캘리포니아센트 방향제 코로나도 체리향 1개</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=83200800540</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29022166369</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8320080/83200800540.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2902216/29022166369.20210929024636.jpg</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>22000</t>
+          <t>3230</t>
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
-          <t>메이튼</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>메이튼</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr"/>
+          <t>일반 - 가격비교 상품</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>에너자이저</t>
+        </is>
+      </c>
       <c r="K56" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3929,37 +3921,45 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>뽀글이 부클 곰돌이 차량용 석고 방향제</t>
+          <t>KAN 뷰센트 De.Line 차량용 방향제 싱글세트</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=81536224875</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18985549503</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8153622/81536224875.1.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1898554/18985549503.20210713121106.jpg</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>5500</t>
+          <t>11900</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr">
         <is>
-          <t>메무아</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
+          <t>일반 - 가격비교 상품</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>뷰센트</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>KAN</t>
+        </is>
+      </c>
       <c r="K57" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3987,22 +3987,22 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>에너자이저 캘리포니아센트 방향제 코로나도 체리향 1개</t>
+          <t>유니레버 스너글 곰돌이 방향제 21g 5종 3개입</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29022166369</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28658857392</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2902216/29022166369.20210929024636.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2865885/28658857392.20210831223854.jpg</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>3230</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
@@ -4016,10 +4016,14 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I58" t="inlineStr"/>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>스너글</t>
+        </is>
+      </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>에너자이저</t>
+          <t>유니레버</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -4049,22 +4053,22 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>유니레버 스너글 곰돌이 방향제 21g 5종 3개입</t>
+          <t>조말론 차량용 방향제 센트 투 고 잉글리쉬 페어 앤 프리지아</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28658857392</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25503166629</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2865885/28658857392.20210831223854.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2550316/25503166629.20211225025210.jpg</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>1700</t>
+          <t>33000</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
@@ -4080,12 +4084,12 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>스너글</t>
+          <t>조말론</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>유니레버</t>
+          <t>조말론</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -4115,22 +4119,22 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>KAN 뷰센트 De.Line 차량용 방향제 싱글세트</t>
+          <t>쓰리나인 이니셜 커스텀 차량용 방향제 수제 송풍구 차 자동차 이색선물 기념일</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18985549503</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29539346631</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1898554/18985549503.20210713121106.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2953934/29539346631.20211105043518.jpg</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11900</t>
+          <t>34700</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
@@ -4144,16 +4148,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>뷰센트</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>KAN</t>
-        </is>
-      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4181,33 +4177,33 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>쓰리나인 이니셜 커스텀 차량용 방향제 수제 송풍구 차 자동차 이색선물 기념일</t>
+          <t>뽀글이 부클 곰돌이 차량용 석고 방향제</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29539346631</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=81536224875</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2953934/29539346631.20211105043518.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8153622/81536224875.1.jpg</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>34700</t>
+          <t>5500</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>메무아</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -4239,36 +4235,40 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>미스터앤미세스 체사레 시저 차량용 방향제</t>
+          <t>메이튼 십이지신 갓타이거 호랑이 차량용 방향제 차방향제 자동차 디퓨저 M-DF03</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=8119194241</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=83200800540</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8119194/8119194241.20190802121728.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8320080/83200800540.jpg</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>6990</t>
+          <t>22000</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>메이튼</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr"/>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>메이튼</t>
+        </is>
+      </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
@@ -4297,22 +4297,22 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>명품고급디퓨저 마일론 갤러리1 차량용 방향제 MGAL-01</t>
+          <t>피오나겔 복숭아 방향제</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30352215619</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27305478364</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3035221/30352215619.20220102155103.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2730547/27305478364.20210525235112.jpg</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>49000</t>
+          <t>930</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
@@ -4326,16 +4326,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>마일론</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>명품고급디퓨저</t>
-        </is>
-      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4363,22 +4355,22 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>피오나겔 복숭아 방향제</t>
+          <t>지엠지모터스 더라이더 디퓨저</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27305478364</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21538184583</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2730547/27305478364.20210525235112.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2153818/21538184583.20210325121809.jpg</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>940</t>
+          <t>27800</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
@@ -4392,8 +4384,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>지엠지모터스</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>지엠지모터스</t>
+        </is>
+      </c>
       <c r="K64" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4421,22 +4421,22 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>지엠지모터스 더라이더 디퓨저</t>
+          <t>명품고급디퓨저 마일론 갤러리1 차량용 방향제 MGAL-01</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21538184583</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30352215619</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2153818/21538184583.20210325121809.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3035221/30352215619.20220102155103.jpg</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>27800</t>
+          <t>49000</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
@@ -4452,12 +4452,12 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>지엠지모터스</t>
+          <t>마일론</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>지엠지모터스</t>
+          <t>명품고급디퓨저</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -4487,22 +4487,22 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>엠퓨처 불독 차량용 방향제 디퓨저 MF-CAF02</t>
+          <t>잠자는 강아지인형 숯먹은 강아지 탈취제 방향제</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30458791731</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24045215525</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3045879/30458791731.20220107233129.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2404521/24045215525.20200904192719.jpg</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>13900</t>
+          <t>8720</t>
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
@@ -4545,22 +4545,22 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>더드림 크리스마스 베어 방향제</t>
+          <t>제이엠제이라인 도슈아 클래식 프리미엄 차량용 방향제</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30394934683</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=17787594512</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3039493/30394934683.20220103000148.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1778759/17787594512.20210802225254.jpg</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11000</t>
+          <t>29730</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
@@ -4576,12 +4576,12 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>더드림</t>
+          <t>도슈아</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>더드림</t>
+          <t>제이엠제이라인</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -4611,22 +4611,22 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>잠자는 강아지인형 숯먹은 강아지 탈취제 방향제</t>
+          <t>불스원 GRASSE 그라스 디퓨저 방향제</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24045215525</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24073924737</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2404521/24045215525.20200904192719.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2407392/24073924737.20200907231547.jpg</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>8730</t>
+          <t>8110</t>
         </is>
       </c>
       <c r="F68" t="inlineStr"/>
@@ -4640,7 +4640,11 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I68" t="inlineStr"/>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>불스원</t>
+        </is>
+      </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
@@ -4669,22 +4673,22 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>제이엠제이라인 도슈아 클래식 프리미엄 차량용 방향제</t>
+          <t>엠퓨처 불독 차량용 방향제 디퓨저 MF-CAF02</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=17787594512</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30458791731</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1778759/17787594512.20210802225254.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3045879/30458791731.20220107233129.jpg</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>29750</t>
+          <t>13900</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
@@ -4698,16 +4702,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>도슈아</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>제이엠제이라인</t>
-        </is>
-      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4735,22 +4731,22 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>불스원 GRASSE 그라스 디퓨저 방향제</t>
+          <t>더드림 크리스마스 베어 방향제</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24073924737</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30394934683</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2407392/24073924737.20200907231547.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3039493/30394934683.20220103000148.jpg</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>8120</t>
+          <t>11000</t>
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
@@ -4766,10 +4762,14 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>불스원</t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr"/>
+          <t>더드림</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>더드림</t>
+        </is>
+      </c>
       <c r="K70" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4797,22 +4797,22 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>칠라릴라 크롬블랙 차량용 자동차 방향제 고급 디퓨저</t>
+          <t>쿤달 디퓨저 새차선물 방향제</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28621039462</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27074544271</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2862103/28621039462.20211108103254.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2707454/27074544271.20220112014738.jpg</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>29900</t>
+          <t>11490</t>
         </is>
       </c>
       <c r="F71" t="inlineStr"/>
@@ -4826,7 +4826,11 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I71" t="inlineStr"/>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>쿤달</t>
+        </is>
+      </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
@@ -4979,22 +4983,22 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>쿤달 디퓨저 새차선물 방향제</t>
+          <t>칠라릴라 크롬블랙 차량용 자동차 방향제 고급 디퓨저</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27074544271</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28621039462</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2707454/27074544271.20220112014738.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2862103/28621039462.20211108103254.jpg</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11490</t>
+          <t>29900</t>
         </is>
       </c>
       <c r="F74" t="inlineStr"/>
@@ -5008,11 +5012,7 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>쿤달</t>
-        </is>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
@@ -5099,22 +5099,22 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>다다아이엔티 허브타임 라비에 리필용 방향제 120ml</t>
+          <t>양키캔들 카자 3개입 차량용 종이방향제</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=8549499783</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24030918060</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8549499/8549499783.20190805153250.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2403091/24030918060.20200904000428.jpg</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>13500</t>
+          <t>3910</t>
         </is>
       </c>
       <c r="F76" t="inlineStr"/>
@@ -5130,14 +5130,10 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>허브타임</t>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>다다아이엔티</t>
-        </is>
-      </c>
+          <t>양키캔들</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -5165,36 +5161,40 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>카카오프렌즈 라이언 어피치 모니터걸이 모니터걸이형 네비게이션 걸이형 방향제</t>
+          <t>산도깨비 차량용 멤브렌 리필 방향제 x 10개입 휘튼치드</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=83484034800</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25695237598</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8348403/83484034800.1.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2569523/25695237598.20211215041018.jpg</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>16900</t>
+          <t>21500</t>
         </is>
       </c>
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr">
         <is>
-          <t>ZENZEN MARKET</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr"/>
+          <t>일반 - 가격비교 상품</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>산도깨비</t>
+        </is>
+      </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
@@ -5223,45 +5223,37 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>언더스코어 오버리트리버 차량용 방향제</t>
+          <t>카카오프렌즈 라이언 어피치 모니터걸이 모니터걸이형 네비게이션 걸이형 방향제</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30272149758</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=83484034800</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3027214/30272149758.20211224002351.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8348403/83484034800.1.jpg</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>36500</t>
+          <t>16900</t>
         </is>
       </c>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>ZENZEN MARKET</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>언더스코어</t>
-        </is>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>언더스코어</t>
-        </is>
-      </c>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -5289,22 +5281,22 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>산도깨비 차량용 멤브렌 리필 방향제 x 10개입 휘튼치드</t>
+          <t>언더스코어 오버리트리버 차량용 방향제</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25695237598</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30272149758</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2569523/25695237598.20211215041018.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3027214/30272149758.20211224002351.jpg</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>21500</t>
+          <t>36500</t>
         </is>
       </c>
       <c r="F79" t="inlineStr"/>
@@ -5320,10 +5312,14 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>산도깨비</t>
-        </is>
-      </c>
-      <c r="J79" t="inlineStr"/>
+          <t>언더스코어</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>언더스코어</t>
+        </is>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -5351,45 +5347,37 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>조말론 차량용 방향제 센트투고 명품향수 고급 디퓨저 거치대</t>
+          <t>포포베 차량용방향제 자동차 디퓨저 선물 패키지</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=83025886866</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30238144502</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8302588/83025886866.4.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3023814/30238144502.20211222050944.jpg</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>48500</t>
+          <t>19800</t>
         </is>
       </c>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr">
         <is>
-          <t>홍콩걸즈</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>조말론</t>
-        </is>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>조말론</t>
-        </is>
-      </c>
+          <t>일반 - 가격비교 상품</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -5417,37 +5405,45 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>포포베 차량용방향제 자동차 디퓨저 선물 패키지</t>
+          <t>조말론 센트투고 차량방향제 자동차 쇼핑백 기본리본포장</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30238144502</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=83296295354</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3023814/30238144502.20211222050944.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8329629/83296295354.2.jpg</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>19800</t>
+          <t>49900</t>
         </is>
       </c>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>더딥스토어</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>조말론</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>조말론</t>
+        </is>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -5475,41 +5471,45 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>양키캔들 카자 3개입 차량용 종이방향제</t>
+          <t>조말론 차량용 방향제 센트투고 명품향수 고급 디퓨저 거치대</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24030918060</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=83025886866</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2403091/24030918060.20200904000428.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8302588/83025886866.4.jpg</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>3910</t>
+          <t>48500</t>
         </is>
       </c>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>홍콩걸즈</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>양키캔들</t>
-        </is>
-      </c>
-      <c r="J82" t="inlineStr"/>
+          <t>조말론</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>조말론</t>
+        </is>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -5657,22 +5657,22 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>블랑16 천연 자동차 디퓨저 냄새제거</t>
+          <t>엠블럼 스누피 방향제</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25146212346</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25645224899</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2514621/25146212346.20201208222311.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2564522/25645224899.20211028043708.jpg</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>9700</t>
+          <t>9880</t>
         </is>
       </c>
       <c r="F85" t="inlineStr"/>
@@ -5686,11 +5686,7 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>블랑16</t>
-        </is>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
@@ -5719,40 +5715,36 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>조이오퓨저 오퓨저 가죽곰 가죽토끼 차량용 석고방향제 디퓨저 엠블럼 무료제작</t>
+          <t>미스터앤미세스 니키 본품/리필 차량용 방향제</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29908385702</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=10017842540</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2990838/29908385702.20211201233207.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1001784/10017842540.12.jpg</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>9900</t>
+          <t>7200</t>
         </is>
       </c>
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>반도향기나라</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>조이오퓨저</t>
-        </is>
-      </c>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
@@ -5843,40 +5835,36 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>조말론 차량용 방향제 센트 투 고 고급 명품 디퓨저 and 거치대 석고방향제</t>
+          <t>인비저블 방향제 차량용 송풍구 일체형</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82623141464</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24445209070</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8262314/82623141464.2.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2444520/24445209070.20201013225708.jpg</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>38540</t>
+          <t>7810</t>
         </is>
       </c>
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr">
         <is>
-          <t>the슈필라움</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>조말론</t>
-        </is>
-      </c>
+          <t>일반 - 가격비교 상품</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
@@ -5905,22 +5893,22 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>엠블럼 스누피 방향제</t>
+          <t>포맨트 퍼퓸 썸퓨저 차량용 방향제</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25645224899</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20901530534</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2564522/25645224899.20211028043708.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2090153/20901530534.20211028161645.jpg</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>9880</t>
+          <t>30310</t>
         </is>
       </c>
       <c r="F89" t="inlineStr"/>
@@ -5934,7 +5922,11 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I89" t="inlineStr"/>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>포맨트</t>
+        </is>
+      </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
@@ -5963,28 +5955,28 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>미스터앤미세스 니키 본품/리필 차량용 방향제</t>
+          <t>카카오프렌즈 어피치 라이언 모니터 네비게이션 걸이형 방향제</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=10017842540</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82953307035</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1001784/10017842540.12.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8295330/82953307035.2.jpg</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>7200</t>
+          <t>23900</t>
         </is>
       </c>
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr">
         <is>
-          <t>반도향기나라</t>
+          <t>주네트</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -5992,8 +5984,16 @@
           <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>엘지생활건강</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>엘지생활건강</t>
+        </is>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -6021,28 +6021,28 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>카카오프렌즈 어피치 라이언 모니터 네비게이션 걸이형 방향제</t>
+          <t>조말론 차량용 방향제 센트 투 고 고급 명품 디퓨저 and 거치대 석고방향제</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82953307035</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82623141464</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8295330/82953307035.2.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8262314/82623141464.2.jpg</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>23900</t>
+          <t>38540</t>
         </is>
       </c>
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr">
         <is>
-          <t>주네트</t>
+          <t>the슈필라움</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -6052,14 +6052,10 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>엘지생활건강</t>
-        </is>
-      </c>
-      <c r="J91" t="inlineStr">
-        <is>
-          <t>엘지생활건강</t>
-        </is>
-      </c>
+          <t>조말론</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -6087,33 +6083,33 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>캐릭터 오리 그네 석고 차량용 방향제 자동차 차량 디퓨저</t>
+          <t>JK 크롬 베어브릭 차량용방향제 자동차 디퓨저 송풍구형</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=83579983455</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29584087308</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8357998/83579983455.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2958408/29584087308.20211108030207.jpg</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>4900</t>
+          <t>15900</t>
         </is>
       </c>
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr">
         <is>
-          <t>담배가게 아저씨</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I92" t="inlineStr"/>
@@ -6145,33 +6141,33 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>인비저블 방향제 차량용 송풍구 일체형</t>
+          <t>캐릭터 오리 그네 석고 차량용 방향제 자동차 차량 디퓨저</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24445209070</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=83579983455</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2444520/24445209070.20201013225708.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8357998/83579983455.jpg</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>8310</t>
+          <t>4900</t>
         </is>
       </c>
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>담배가게 아저씨</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I93" t="inlineStr"/>
@@ -6203,22 +6199,22 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>카카오프렌즈 모니터걸이 방향제 어피치+라이언</t>
+          <t>조이오퓨저 오퓨저 가죽곰 가죽토끼 차량용 석고방향제 디퓨저 엠블럼 무료제작</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27139606827</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29908385702</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2713960/27139606827.20210513203418.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2990838/29908385702.20211201233207.jpg</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>33190</t>
+          <t>9900</t>
         </is>
       </c>
       <c r="F94" t="inlineStr"/>
@@ -6234,7 +6230,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>카카오프렌즈</t>
+          <t>조이오퓨저</t>
         </is>
       </c>
       <c r="J94" t="inlineStr"/>
@@ -6265,22 +6261,22 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>포맨트 퍼퓸 썸퓨저 차량용 방향제</t>
+          <t>양키캔들 스마트 센트 벤트클립</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20901530534</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18975414143</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2090153/20901530534.20211028161645.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1897541/18975414143.20190429160633.jpg</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>30310</t>
+          <t>3150</t>
         </is>
       </c>
       <c r="F95" t="inlineStr"/>
@@ -6296,7 +6292,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>포맨트</t>
+          <t>양키캔들</t>
         </is>
       </c>
       <c r="J95" t="inlineStr"/>
@@ -6327,45 +6323,41 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>라피네르 로얄스페이드 듀오 차량용방향제</t>
+          <t>양키캔들 차밍센츠 고급 차량용 방향제 리필 16g</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82123406483</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24073000302</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8212340/82123406483.4.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2407300/24073000302.20200907200512.jpg</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>39800</t>
+          <t>4750</t>
         </is>
       </c>
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr">
         <is>
-          <t>RAFFINEUR</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>라피네르</t>
-        </is>
-      </c>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>라피네르</t>
-        </is>
-      </c>
+          <t>양키캔들</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -6393,22 +6385,22 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>양키캔들 스마트 센트 벤트클립</t>
+          <t>산도깨비 멤브렌 방향제 휘튼치트</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18975414143</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30307277363</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1897541/18975414143.20190429160633.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3030727/30307277363.20211227004153.jpg</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>3160</t>
+          <t>2280</t>
         </is>
       </c>
       <c r="F97" t="inlineStr"/>
@@ -6424,10 +6416,14 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>양키캔들</t>
-        </is>
-      </c>
-      <c r="J97" t="inlineStr"/>
+          <t>산도깨비</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>산도깨비</t>
+        </is>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -6455,43 +6451,43 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>피톤치드 편백 나무 방향제 향 천연 차량용 자동차 아로마 송풍구 디퓨저</t>
+          <t>P&amp;amp;G 페브리즈 차량용 방향제 2.2ml 3개</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=9501913801</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20397190459</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_9501913/9501913801.23.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2039719/20397190459.20190726113415.jpg</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>10900</t>
+          <t>7950</t>
         </is>
       </c>
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr">
         <is>
-          <t>순수팜</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>순수팜</t>
+          <t>페브리즈</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>엠제이글로벌</t>
+          <t>P&amp;G</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -6521,41 +6517,45 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>양키캔들 차밍센츠 고급 차량용 방향제 리필 16g</t>
+          <t>피톤치드 편백 나무 방향제 향 천연 차량용 자동차 아로마 송풍구 디퓨저</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24073000302</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=9501913801</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2407300/24073000302.20200907200512.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_9501913/9501913801.23.jpg</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>4760</t>
+          <t>10900</t>
         </is>
       </c>
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>순수팜</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>양키캔들</t>
-        </is>
-      </c>
-      <c r="J99" t="inlineStr"/>
+          <t>순수팜</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>엠제이글로벌</t>
+        </is>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -6583,22 +6583,22 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>산도깨비 멤브렌 방향제 휘튼치트</t>
+          <t>카카오프렌즈 모니터걸이 방향제 어피치+라이언</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30307277363</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27139606827</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3030727/30307277363.20211227004153.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2713960/27139606827.20210513203418.jpg</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>2280</t>
+          <t>32820</t>
         </is>
       </c>
       <c r="F100" t="inlineStr"/>
@@ -6614,14 +6614,10 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>산도깨비</t>
-        </is>
-      </c>
-      <c r="J100" t="inlineStr">
-        <is>
-          <t>산도깨비</t>
-        </is>
-      </c>
+          <t>카카오프렌즈</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -6649,43 +6645,43 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>P&amp;amp;G 페브리즈 차량용 방향제 2.2ml 3개</t>
+          <t>라피네르 로얄스페이드 듀오 차량용방향제</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20397190459</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82123406483</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2039719/20397190459.20190726113415.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8212340/82123406483.4.jpg</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>7950</t>
+          <t>39800</t>
         </is>
       </c>
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>RAFFINEUR</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>페브리즈</t>
+          <t>라피네르</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>P&amp;G</t>
+          <t>라피네르</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">

--- a/output.xlsx
+++ b/output.xlsx
@@ -571,22 +571,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>로얄워터 텀블러 모양 차량용 방향제 신차선물 R-T01</t>
+          <t>카보노 대쉬보드 거치형 프리미엄 차량용 방향제</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29835967618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25371363986</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2983596/29835967618.20211125191149.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2537136/25371363986.20220104014030.jpg</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>49000</t>
+          <t>46500</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
@@ -602,14 +602,10 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>로얄워터</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>로얄워터</t>
-        </is>
-      </c>
+          <t>카보노</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -703,22 +699,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>카보노 대쉬보드 거치형 프리미엄 차량용 방향제</t>
+          <t>로얄워터 텀블러 모양 차량용 방향제 신차선물 R-T01</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25371363986</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29835967618</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2537136/25371363986.20220104014030.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2983596/29835967618.20211125191149.jpg</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>46500</t>
+          <t>49000</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
@@ -734,10 +730,14 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>카보노</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr"/>
+          <t>로얄워터</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>로얄워터</t>
+        </is>
+      </c>
       <c r="K6" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -846,7 +846,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>28480</t>
+          <t>31800</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
@@ -897,22 +897,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>불스원 폴라프레쉬 선바이저 방향제 리필</t>
+          <t>루크타 도베르만 차량용 자동차 송풍구 차 고급 방향제 디퓨저 LT-DB01</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=17787599329</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25380843939</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1778759/17787599329.20220107133652.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2538084/25380843939.20220113101814.jpg</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2090</t>
+          <t>49000</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
@@ -928,14 +928,10 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>불스원</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>불스원</t>
-        </is>
-      </c>
+          <t>루크타</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -963,22 +959,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>JW중외제약 피톤치드 차량용 방향제 피톤케어</t>
+          <t>디프로젝트 디불 불독 차량용방향제 자동차 디퓨저 DP-DBL01</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=12916212027</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=13697148540</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1291621/12916212027.20211116115126.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1369714/13697148540.20211222172941.jpg</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>37700</t>
+          <t>49000</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
@@ -994,12 +990,12 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>JW중외제약</t>
+          <t>디프로젝트</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>JW중외제약</t>
+          <t>디프로젝트</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1029,22 +1025,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>디프로젝트 디불 불독 차량용방향제 자동차 디퓨저 DP-DBL01</t>
+          <t>JW중외제약 피톤치드 차량용 방향제 피톤케어</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=13697148540</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=12916212027</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1369714/13697148540.20211222172941.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1291621/12916212027.20211116115126.jpg</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>49000</t>
+          <t>37700</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
@@ -1060,12 +1056,12 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>디프로젝트</t>
+          <t>JW중외제약</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>디프로젝트</t>
+          <t>JW중외제약</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1095,22 +1091,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>루크타 도베르만 차량용 자동차 송풍구 차 고급 방향제 디퓨저 LT-DB01</t>
+          <t>딥티크 차량용방향제 세트 케이스 + 리필용 캡슐</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25380843939</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28620531681</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2538084/25380843939.20211029114127.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2862053/28620531681.20210829001356.jpg</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>49000</t>
+          <t>88900</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
@@ -1126,7 +1122,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>루크타</t>
+          <t>딥티크</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
@@ -1223,22 +1219,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>딥티크 차량용방향제 세트 케이스 + 리필용 캡슐</t>
+          <t>디프로젝트 리필킷 디불 디버니 디릴라고 차량용방향제 자동차 디퓨저 고체 리필 DP-RF02</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28620531681</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18367838563</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2862053/28620531681.20210829001356.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1836783/18367838563.20211108142647.jpg</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>88900</t>
+          <t>13000</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
@@ -1254,10 +1250,14 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>딥티크</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr"/>
+          <t>디프로젝트</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>디프로젝트</t>
+        </is>
+      </c>
       <c r="K14" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1285,43 +1285,43 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>디프로젝트 리필킷 디불 디버니 디릴라고 차량용방향제 자동차 디퓨저 고체 리필 DP-RF02</t>
+          <t>(리본끈+쇼핑백)딥디크 차량용 명품 고급 딥티크 방향제 디퓨저 리필향 9종 및 세트</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18367838563</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82298466138</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1836783/18367838563.20211108142647.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8229846/82298466138.7.jpg</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>13000</t>
+          <t>27840</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>the슈필라움</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>디프로젝트</t>
+          <t>딥티크</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>디프로젝트</t>
+          <t>딥티크</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1351,22 +1351,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>미스터앤미세스 니키 차량용 방향제 리필</t>
+          <t>불스원 폴라프레쉬 선바이저 방향제 리필</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=10149695240</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=17787599329</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1014969/10149695240.20201014180005.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1778759/17787599329.20220107133652.jpg</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>4860</t>
+          <t>2090</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
@@ -1380,8 +1380,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>불스원</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>불스원</t>
+        </is>
+      </c>
       <c r="K16" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1409,22 +1417,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>불스원 그라스 디퓨저 105ml 블랙베리 체리 방향제</t>
+          <t>에이비 차량용 방향제 도베르만 고급 AB-DF04</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26677172452</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30317520568</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2667717/26677172452.20210407202430.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3031752/30317520568.20220110102207.jpg</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>7540</t>
+          <t>28000</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
@@ -1440,12 +1448,12 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>불스원</t>
+          <t>에이비</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>불스원</t>
+          <t>에이비</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1475,22 +1483,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>에이비 차량용 방향제 도베르만 고급 AB-DF04</t>
+          <t>미스터앤미세스 니키 차량용 방향제 리필</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30317520568</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=10149695240</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3031752/30317520568.20220110102207.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1014969/10149695240.20201014180005.jpg</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>28000</t>
+          <t>4860</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
@@ -1504,16 +1512,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>에이비</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>에이비</t>
-        </is>
-      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1669,22 +1669,22 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>양키캔들 프레그런스 스피어스 차량용 방향제</t>
+          <t>불스원 그라스 디퓨져 차량용 방향제 105ml</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27954927224</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=12140232094</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2795492/27954927224.20210711203524.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1214023/12140232094.20211006140204.jpg</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>4300</t>
+          <t>9480</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
@@ -1700,12 +1700,12 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>양키캔들</t>
+          <t>불스원</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>양키캔들</t>
+          <t>불스원</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1735,22 +1735,22 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>불스원 그라스 디퓨져 차량용 방향제 105ml</t>
+          <t>불스원 그라스 디퓨저 105ml 블랙베리 체리 방향제</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=12140232094</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26677172452</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1214023/12140232094.20211006140204.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2667717/26677172452.20210407202430.jpg</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>9480</t>
+          <t>7530</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
@@ -1801,22 +1801,22 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>센트몬스터 고양이 차량용 방향제 고급 디퓨져</t>
+          <t>양키캔들 프레그런스 스피어스 차량용 방향제</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24163460435</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27954927224</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2416346/24163460435.20210124121840.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2795492/27954927224.20210711203524.jpg</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>39000</t>
+          <t>4270</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
@@ -1832,10 +1832,14 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>센트몬스터</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr"/>
+          <t>양키캔들</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>양키캔들</t>
+        </is>
+      </c>
       <c r="K23" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2045,22 +2049,22 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>양키캔들 차량용방향제 카자얼티메이트 10g 클린코튼</t>
+          <t>센트몬스터 고양이 차량용 방향제 고급 디퓨져</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28974434758</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24163460435</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2897443/28974434758.20211222174413.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2416346/24163460435.20210124121840.jpg</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>3490</t>
+          <t>39000</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
@@ -2076,7 +2080,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>양키캔들</t>
+          <t>센트몬스터</t>
         </is>
       </c>
       <c r="J27" t="inlineStr"/>
@@ -2107,22 +2111,22 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>DIPTYQUE 딥디크 차량용 방향제 리필 캡슐 케이스</t>
+          <t>언더스코어 오버라인 오버라이노 코뿔소 차량용 방향제 자동차 디퓨저 OL-CFORH</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30306912853</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30251365068</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3030691/30306912853.20211226224634.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3025136/30251365068.20211222051742.jpg</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>29900</t>
+          <t>32120</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
@@ -2136,8 +2140,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>언더스코어</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>언더스코어</t>
+        </is>
+      </c>
       <c r="K28" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2165,22 +2177,22 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>언더스코어 오버라인 오버라이노 코뿔소 차량용 방향제 자동차 디퓨저 OL-CFORH</t>
+          <t>아우라 카카오 어피치 모니터걸이형 방향제 4.5ml</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30251365068</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26955394520</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3025136/30251365068.20211222051742.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2695539/26955394520.20210428203230.jpg</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>32120</t>
+          <t>13890</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
@@ -2196,14 +2208,10 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>언더스코어</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>언더스코어</t>
-        </is>
-      </c>
+          <t>아우라</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2297,22 +2305,22 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>딥티크 차량용 방향제 리필 9종류향</t>
+          <t>딥티크 차량용 방향제 케이스 베이 리필 세트</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27604493058</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28546536156</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2760449/27604493058.20210617024518.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2854653/28546536156.20210824021557.jpg</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>37500</t>
+          <t>31530</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
@@ -2331,11 +2339,7 @@
           <t>딥티크</t>
         </is>
       </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>딥티크</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2363,22 +2367,22 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>아우라 카카오 모니터걸이형 방향제 라이언 블루스카이향 10g x1개</t>
+          <t>DIPTYQUE 딥디크 차량용 방향제 리필 캡슐 케이스</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24014062100</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30306912853</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2401406/24014062100.20200903003222.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3030691/30306912853.20211226224634.jpg</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>14630</t>
+          <t>29900</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
@@ -2421,22 +2425,22 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>딥티크 차량용 방향제 케이스 베이 리필 세트</t>
+          <t>엘에스인터내셔널 플레이위드센트 사슴 차량용 방향제</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28546536156</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28125690522</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2854653/28546536156.20210824021557.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2812569/28125690522.20211105172954.jpg</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>31530</t>
+          <t>27990</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
@@ -2452,10 +2456,14 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>딥티크</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr"/>
+          <t>플레이위드센트</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>엘에스인터내셔널</t>
+        </is>
+      </c>
       <c r="K33" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2483,22 +2491,22 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>엘에스인터내셔널 플레이위드센트 사슴 차량용 방향제</t>
+          <t>아우라 카카오 모니터걸이형 방향제 라이언 블루스카이향 10g x1개</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28125690522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24014062100</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2812569/28125690522.20211105172954.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2401406/24014062100.20200903003222.jpg</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>27990</t>
+          <t>14630</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
@@ -2512,16 +2520,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>플레이위드센트</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>엘에스인터내셔널</t>
-        </is>
-      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2549,22 +2549,22 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>아우라 카카오 어피치 모니터걸이형 방향제 4.5ml</t>
+          <t>차량용 디퓨저 gv80 사각 송풍구 클립 네발 석고 방향제</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26955394520</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28685666448</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2695539/26955394520.20210428203230.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2868566/28685666448.20210902222527.jpg</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>13890</t>
+          <t>30</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
@@ -2578,11 +2578,7 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>아우라</t>
-        </is>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
@@ -2611,22 +2607,22 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>리틀트리 걸이형 종이 방향제</t>
+          <t>딥티크 차량용 방향제 리필 9종류향</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=7162545992</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27604493058</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_7162545/7162545992.20190731170829.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2760449/27604493058.20210617024518.jpg</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>830</t>
+          <t>37500</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
@@ -2640,8 +2636,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>딥티크</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>딥티크</t>
+        </is>
+      </c>
       <c r="K36" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2669,22 +2673,22 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>훠링 하이센트 차량용 방향제 컵홀더형 95g</t>
+          <t>더딥 부엉이 차량용 디퓨져</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26601404523</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25789622342</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2660140/26601404523.20210420172441.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2578962/25789622342.20210129193056.jpg</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>35000</t>
+          <t>19900</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
@@ -2698,16 +2702,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>훠링</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>훠링</t>
-        </is>
-      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2735,22 +2731,22 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>리틀트리 안전한 종이방향제 실내방향제 모음전</t>
+          <t>훠링 하이센트 차량용 방향제 컵홀더형 95g</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25190591305</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26601404523</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2519059/25190591305.20201211215631.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2660140/26601404523.20210420172441.jpg</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>840</t>
+          <t>43000</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
@@ -2764,8 +2760,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>훠링</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>훠링</t>
+        </is>
+      </c>
       <c r="K38" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2793,22 +2797,22 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>리빙인아로마 쿤달 퍼퓸 차량용 디퓨저 2구 세트 블랙체리</t>
+          <t>불스원 그라스 통풍구 디퓨저 차량용 방향제 10ml x 2개</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24803290609</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25543313849</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2480329/24803290609.20211223022852.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2554331/25543313849.20211119124936.jpg</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10300</t>
+          <t>10000</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
@@ -2824,12 +2828,12 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>쿤달</t>
+          <t>불스원</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>리빙인아로마</t>
+          <t>불스원</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -2859,22 +2863,22 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>더딥 부엉이 차량용 디퓨져</t>
+          <t>디프로젝트 디버니 토끼 차량용방향제 자동차 디퓨저 DP-DBN02</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25789622342</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27331951522</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2578962/25789622342.20210129193056.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2733195/27331951522.20211222172819.jpg</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>19900</t>
+          <t>49000</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
@@ -2888,8 +2892,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>디프로젝트</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>디프로젝트</t>
+        </is>
+      </c>
       <c r="K40" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2917,22 +2929,22 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>양키캔들 벤트스틱 차량용 방향제 4P입</t>
+          <t>카카오프렌즈 차량용방향제 통풍구형 라이언 어피치</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=6552648097</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24045761869</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_6552648/6552648097.20190731160942.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2404576/24045761869.20210928022130.jpg</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2150</t>
+          <t>13990</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
@@ -2948,14 +2960,10 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>양키캔들</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>양키캔들</t>
-        </is>
-      </c>
+          <t>카카오프렌즈</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2983,22 +2991,22 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>에이센트 네이처 차량용 디퓨저 방향제 120ml</t>
+          <t>양키캔들 벤트스틱 차량용 방향제 4P입</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27334130786</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=6552648097</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2733413/27334130786.20211216041142.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_6552648/6552648097.20190731160942.jpg</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>6900</t>
+          <t>2980</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
@@ -3014,10 +3022,14 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>에이센트</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr"/>
+          <t>양키캔들</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>양키캔들</t>
+        </is>
+      </c>
       <c r="K42" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3045,22 +3057,22 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>카카오프렌즈 차량용방향제 통풍구형 라이언 어피치</t>
+          <t>FYC 고급 명품 불독 차량용 방향제 디퓨저</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24045761869</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24941672502</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2404576/24045761869.20210928022130.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2494167/24941672502.20201122175400.jpg</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>13990</t>
+          <t>39000</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
@@ -3074,11 +3086,7 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>카카오프렌즈</t>
-        </is>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
@@ -3165,22 +3173,22 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>FYC 고급 명품 불독 차량용 방향제 디퓨저</t>
+          <t>리틀트리 걸이형 종이 방향제</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24941672502</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=7162545992</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2494167/24941672502.20201122175400.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_7162545/7162545992.20190731170829.jpg</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>39000</t>
+          <t>830</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
@@ -3223,22 +3231,22 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>제이엠제이라인 도슈아 차량용 방향제 리필 도자기</t>
+          <t>디프로젝트 디릴라고 고릴라 차량용방향제 자동차 디퓨저 DP-DRL03</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20347407194</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26801331279</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2034740/20347407194.20211001120304.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2680133/26801331279.20211222172904.jpg</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>49000</t>
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
@@ -3254,12 +3262,12 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>도슈아</t>
+          <t>디프로젝트</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>제이엠제이라인</t>
+          <t>디프로젝트</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -3289,43 +3297,43 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>(리본끈+쇼핑백)딥디크 차량용 명품 고급 딥티크 방향제 디퓨저 리필향 9종 및 세트</t>
+          <t>에이비 불독 차량용 방향제 디퓨저 차방향제 고급 명품 벤츠 bmw 제네시스 AB-DF05</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82298466138</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29651432618</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8229846/82298466138.7.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2965143/29651432618.20211230143432.jpg</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>27840</t>
+          <t>28000</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
-          <t>the슈필라움</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>딥티크</t>
+          <t>에이비</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>딥티크</t>
+          <t>에이비</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -3355,45 +3363,41 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>디프로젝트 디버니 토끼 차량용방향제 자동차 디퓨저 DP-DBN02</t>
+          <t>메이튼 십이지신 갓타이거 호랑이 차량용 방향제 차방향제 자동차 디퓨저 M-DF03</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27331951522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=83200800540</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2733195/27331951522.20211222172819.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8320080/83200800540.jpg</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>49000</t>
+          <t>22000</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>메이튼</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>디프로젝트</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>디프로젝트</t>
-        </is>
-      </c>
+          <t>메이튼</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3421,22 +3425,22 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>디프로젝트 디릴라고 고릴라 차량용방향제 자동차 디퓨저 DP-DRL03</t>
+          <t>제이엠제이라인 도슈아 차량용 방향제 리필 도자기</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26801331279</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20347407194</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2680133/26801331279.20211222172904.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2034740/20347407194.20211001120304.jpg</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>49000</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
@@ -3452,12 +3456,12 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>디프로젝트</t>
+          <t>도슈아</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>디프로젝트</t>
+          <t>제이엠제이라인</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -3487,22 +3491,22 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>에이비 불독 차량용 방향제 디퓨저 차방향제 고급 명품 벤츠 bmw 제네시스 AB-DF05</t>
+          <t>에이비 얼굴 일러스트 사진 차량용방향제 2set</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29651432618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27190906522</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2965143/29651432618.20211230143432.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2719090/27190906522.20210518150908.jpg</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>28000</t>
+          <t>23000</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
@@ -3553,22 +3557,22 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>에이비 얼굴 일러스트 사진 차량용방향제 2set</t>
+          <t>아야 펭수 차량용 방향제 AYA-CD01</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27190906522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30275726375</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2719090/27190906522.20210518150908.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3027572/30275726375.20220107031017.jpg</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>23000</t>
+          <t>24900</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
@@ -3584,12 +3588,12 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>에이비</t>
+          <t>아야</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>에이비</t>
+          <t>아야</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -3619,22 +3623,22 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>아야 펭수 차량용 방향제 AYA-CD01</t>
+          <t>엠퓨처 불독 차량용 방향제 디퓨저 MF-CAF02</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30275726375</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30458791731</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3027572/30275726375.20220107031017.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3045879/30458791731.20220107233129.jpg</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>24900</t>
+          <t>13900</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
@@ -3648,16 +3652,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>아야</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>아야</t>
-        </is>
-      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3685,22 +3681,22 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>캘리포니아센트 캔타입 방향제 15종</t>
+          <t>지엠지모터스 더라이더 디퓨저</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27414604011</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21538184583</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2741460/27414604011.20210602231933.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2153818/21538184583.20210325121809.jpg</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>3270</t>
+          <t>27800</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
@@ -3714,8 +3710,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>지엠지모터스</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>지엠지모터스</t>
+        </is>
+      </c>
       <c r="K53" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3743,22 +3747,22 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>차량용 디퓨저 gv80 사각 송풍구 클립 네발 석고 방향제</t>
+          <t>유니레버 스너글 곰돌이 방향제 21g 5종 3개입</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28685666448</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28658857392</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2868566/28685666448.20210902222527.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2865885/28658857392.20210831223854.jpg</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
@@ -3772,8 +3776,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>스너글</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>유니레버</t>
+        </is>
+      </c>
       <c r="K54" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3801,22 +3813,22 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>미스터앤미세스 체사레 시저 차량용 방향제</t>
+          <t>에너자이저 캘리포니아센트 방향제 코로나도 체리향 1개</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=8119194241</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29022166369</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8119194/8119194241.20190802121728.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2902216/29022166369.20210929024636.jpg</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>6990</t>
+          <t>3310</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
@@ -3831,7 +3843,11 @@
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>에너자이저</t>
+        </is>
+      </c>
       <c r="K55" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3859,22 +3875,22 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>에너자이저 캘리포니아센트 방향제 코로나도 체리향 1개</t>
+          <t>캘리포니아센트 캔타입 방향제 15종</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29022166369</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27414604011</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2902216/29022166369.20210929024636.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2741460/27414604011.20210602231933.jpg</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>3230</t>
+          <t>3500</t>
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
@@ -3889,11 +3905,7 @@
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>에너자이저</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3921,22 +3933,22 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>KAN 뷰센트 De.Line 차량용 방향제 싱글세트</t>
+          <t>양키캔들 차량용방향제 카자얼티메이트 10g 클린코튼</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18985549503</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28974434758</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1898554/18985549503.20210713121106.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2897443/28974434758.20211222174413.jpg</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11900</t>
+          <t>3490</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
@@ -3952,14 +3964,10 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>뷰센트</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>KAN</t>
-        </is>
-      </c>
+          <t>양키캔들</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3987,22 +3995,22 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>유니레버 스너글 곰돌이 방향제 21g 5종 3개입</t>
+          <t>조말론 차량용 방향제 센트 투 고 잉글리쉬 페어 앤 프리지아</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28658857392</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25503166629</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2865885/28658857392.20210831223854.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2550316/25503166629.20211225025210.jpg</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>1700</t>
+          <t>33000</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
@@ -4018,12 +4026,12 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>스너글</t>
+          <t>조말론</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>유니레버</t>
+          <t>조말론</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -4053,22 +4061,22 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>조말론 차량용 방향제 센트 투 고 잉글리쉬 페어 앤 프리지아</t>
+          <t>쓰리나인 이니셜 커스텀 차량용 방향제 수제 송풍구 차 자동차 이색선물 기념일</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25503166629</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29539346631</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2550316/25503166629.20211225025210.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2953934/29539346631.20211105043518.jpg</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>33000</t>
+          <t>34700</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
@@ -4082,16 +4090,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>조말론</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>조말론</t>
-        </is>
-      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4119,37 +4119,45 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>쓰리나인 이니셜 커스텀 차량용 방향제 수제 송풍구 차 자동차 이색선물 기념일</t>
+          <t>조말론 차량용 방향제 센트투고 명품향수 고급 디퓨저 거치대</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29539346631</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=83025886866</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2953934/29539346631.20211105043518.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8302588/83025886866.4.jpg</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>34700</t>
+          <t>48500</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>홍콩걸즈</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>조말론</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>조말론</t>
+        </is>
+      </c>
       <c r="K60" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4177,37 +4185,45 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>뽀글이 부클 곰돌이 차량용 석고 방향제</t>
+          <t>명품고급디퓨저 마일론 갤러리1 차량용 방향제 MGAL-01</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=81536224875</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30352215619</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8153622/81536224875.1.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3035221/30352215619.20220102155103.jpg</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>5500</t>
+          <t>49000</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr">
         <is>
-          <t>메무아</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
+          <t>일반 - 가격비교 상품</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>마일론</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>명품고급디퓨저</t>
+        </is>
+      </c>
       <c r="K61" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4235,28 +4251,28 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>메이튼 십이지신 갓타이거 호랑이 차량용 방향제 차방향제 자동차 디퓨저 M-DF03</t>
+          <t>카카오 차량용 송풍구 방향제 자동차 통풍구 리필 모니터형</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=83200800540</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=12881246711</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8320080/83200800540.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1288124/12881246711.12.jpg</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>22000</t>
+          <t>13100</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
         <is>
-          <t>메이튼</t>
+          <t>주네트</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -4266,10 +4282,14 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>메이튼</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr"/>
+          <t>카카오프렌즈</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>엘지생활건강</t>
+        </is>
+      </c>
       <c r="K62" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4297,22 +4317,22 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>피오나겔 복숭아 방향제</t>
+          <t>제이엠제이라인 도슈아 클래식 프리미엄 차량용 방향제</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27305478364</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=17787594512</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2730547/27305478364.20210525235112.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1778759/17787594512.20210802225254.jpg</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>930</t>
+          <t>29730</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
@@ -4326,8 +4346,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>도슈아</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>제이엠제이라인</t>
+        </is>
+      </c>
       <c r="K63" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4355,22 +4383,22 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>지엠지모터스 더라이더 디퓨저</t>
+          <t>KAN 뷰센트 De.Line 차량용 방향제 싱글세트</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21538184583</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18985549503</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2153818/21538184583.20210325121809.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1898554/18985549503.20210713121106.jpg</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>27800</t>
+          <t>11900</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
@@ -4386,12 +4414,12 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>지엠지모터스</t>
+          <t>뷰센트</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>지엠지모터스</t>
+          <t>KAN</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -4421,43 +4449,43 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>명품고급디퓨저 마일론 갤러리1 차량용 방향제 MGAL-01</t>
+          <t>도그독 명품 차량용 방향제 고급 자동차 디퓨저 프렌치불독 D-E1 새차 선물</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30352215619</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82807740637</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3035221/30352215619.20220102155103.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8280774/82807740637.10.jpg</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>49000</t>
+          <t>28000</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>주식회사 도그독</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>마일론</t>
+          <t>도그독</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>명품고급디퓨저</t>
+          <t>도그독</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -4487,33 +4515,33 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>잠자는 강아지인형 숯먹은 강아지 탈취제 방향제</t>
+          <t>뽀글이 부클 곰돌이 차량용 석고 방향제</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24045215525</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=81536224875</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2404521/24045215525.20200904192719.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8153622/81536224875.1.jpg</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>8720</t>
+          <t>5500</t>
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>메무아</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
@@ -4545,22 +4573,22 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>제이엠제이라인 도슈아 클래식 프리미엄 차량용 방향제</t>
+          <t>리빙인아로마 쿤달 퍼퓸 차량용 디퓨저 2구 세트 블랙체리</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=17787594512</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24803290609</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1778759/17787594512.20210802225254.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2480329/24803290609.20211223022852.jpg</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>29730</t>
+          <t>10300</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
@@ -4576,12 +4604,12 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>도슈아</t>
+          <t>쿤달</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>제이엠제이라인</t>
+          <t>리빙인아로마</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -4611,22 +4639,22 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>불스원 GRASSE 그라스 디퓨저 방향제</t>
+          <t>포포베 차량용방향제 자동차 디퓨저 선물 패키지</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24073924737</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30238144502</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2407392/24073924737.20200907231547.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3023814/30238144502.20211222050944.jpg</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>8110</t>
+          <t>19800</t>
         </is>
       </c>
       <c r="F68" t="inlineStr"/>
@@ -4640,11 +4668,7 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>불스원</t>
-        </is>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
@@ -4673,22 +4697,22 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>엠퓨처 불독 차량용 방향제 디퓨저 MF-CAF02</t>
+          <t>토씨 클래시맨 명품 차량용방향제 룸미러걸이형</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30458791731</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25695599950</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3045879/30458791731.20220107233129.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2569559/25695599950.20210902144804.jpg</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>13900</t>
+          <t>85000</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
@@ -4702,8 +4726,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>토씨</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>토씨</t>
+        </is>
+      </c>
       <c r="K69" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4731,22 +4763,22 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>더드림 크리스마스 베어 방향제</t>
+          <t>픽도큐먼트 베어브릭 송풍구 차량용 방향제</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30394934683</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29900193281</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3039493/30394934683.20220103000148.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2990019/29900193281.20211208030917.jpg</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11000</t>
+          <t>14900</t>
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
@@ -4760,16 +4792,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>더드림</t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>더드림</t>
-        </is>
-      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4797,22 +4821,22 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>쿤달 디퓨저 새차선물 방향제</t>
+          <t>미스터앤미세스 지지 차량용 방향제</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27074544271</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21712692459</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2707454/27074544271.20220112014738.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2171269/21712692459.20200108100214.jpg</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11490</t>
+          <t>7770</t>
         </is>
       </c>
       <c r="F71" t="inlineStr"/>
@@ -4826,11 +4850,7 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>쿤달</t>
-        </is>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
@@ -4859,22 +4879,22 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>픽도큐먼트 베어브릭 송풍구 차량용 방향제</t>
+          <t>디캣 차량용 송풍구 방향제 A세트 쇼핑백 선물상자</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29900193281</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29581678158</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2990019/29900193281.20211208030917.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2958167/29581678158.20211122011246.jpg</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>14900</t>
+          <t>9900</t>
         </is>
       </c>
       <c r="F72" t="inlineStr"/>
@@ -4917,22 +4937,22 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>토씨 클래시맨 명품 차량용방향제 룸미러걸이형</t>
+          <t>더드림 크리스마스 베어 방향제</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25695599950</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30394934683</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2569559/25695599950.20210902144804.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3039493/30394934683.20220103000148.jpg</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>85000</t>
+          <t>11000</t>
         </is>
       </c>
       <c r="F73" t="inlineStr"/>
@@ -4948,12 +4968,12 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>토씨</t>
+          <t>더드림</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>토씨</t>
+          <t>더드림</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -4983,22 +5003,22 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>칠라릴라 크롬블랙 차량용 자동차 방향제 고급 디퓨저</t>
+          <t>에이센트 네이처 차량용 디퓨저 방향제 120ml</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28621039462</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27334130786</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2862103/28621039462.20211108103254.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2733413/27334130786.20211216041142.jpg</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>29900</t>
+          <t>7830</t>
         </is>
       </c>
       <c r="F74" t="inlineStr"/>
@@ -5012,7 +5032,11 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I74" t="inlineStr"/>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>에이센트</t>
+        </is>
+      </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
@@ -5041,22 +5065,22 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>미스터앤미세스 지지 차량용 방향제</t>
+          <t>1 1 일루젠 실내방향제 디퓨저 리필</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21712692459</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29861688559</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2171269/21712692459.20200108100214.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2986168/29861688559.20211128004136.jpg</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>7770</t>
+          <t>4760</t>
         </is>
       </c>
       <c r="F75" t="inlineStr"/>
@@ -5099,22 +5123,22 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>양키캔들 카자 3개입 차량용 종이방향제</t>
+          <t>칠라릴라 크롬블랙 차량용 자동차 방향제 고급 디퓨저</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24030918060</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28621039462</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2403091/24030918060.20200904000428.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2862103/28621039462.20211108103254.jpg</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>3910</t>
+          <t>29900</t>
         </is>
       </c>
       <c r="F76" t="inlineStr"/>
@@ -5128,11 +5152,7 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>양키캔들</t>
-        </is>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
@@ -5161,22 +5181,22 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>산도깨비 차량용 멤브렌 리필 방향제 x 10개입 휘튼치드</t>
+          <t>쿤달 디퓨저 새차선물 방향제</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25695237598</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27074544271</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2569523/25695237598.20211215041018.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2707454/27074544271.20220112014738.jpg</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>21500</t>
+          <t>11490</t>
         </is>
       </c>
       <c r="F77" t="inlineStr"/>
@@ -5192,7 +5212,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>산도깨비</t>
+          <t>쿤달</t>
         </is>
       </c>
       <c r="J77" t="inlineStr"/>
@@ -5223,33 +5243,33 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>카카오프렌즈 라이언 어피치 모니터걸이 모니터걸이형 네비게이션 걸이형 방향제</t>
+          <t>JK 크롬 베어브릭 차량용방향제 자동차 디퓨저 송풍구형</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=83484034800</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29584087308</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8348403/83484034800.1.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2958408/29584087308.20211108030207.jpg</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>16900</t>
+          <t>15900</t>
         </is>
       </c>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr">
         <is>
-          <t>ZENZEN MARKET</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
@@ -5296,7 +5316,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>36500</t>
+          <t>32500</t>
         </is>
       </c>
       <c r="F79" t="inlineStr"/>
@@ -5347,22 +5367,22 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>포포베 차량용방향제 자동차 디퓨저 선물 패키지</t>
+          <t>미스터앤미세스 체사레 시저 차량용 방향제</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30238144502</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=8119194241</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3023814/30238144502.20211222050944.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8119194/8119194241.20190802121728.jpg</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>19800</t>
+          <t>6990</t>
         </is>
       </c>
       <c r="F80" t="inlineStr"/>
@@ -5405,28 +5425,28 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>조말론 센트투고 차량방향제 자동차 쇼핑백 기본리본포장</t>
+          <t>카카오프렌즈 라이언 어피치 모니터걸이 모니터걸이형 네비게이션 걸이형 방향제</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=83296295354</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=83484034800</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8329629/83296295354.2.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8348403/83484034800.1.jpg</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>49900</t>
+          <t>16900</t>
         </is>
       </c>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr">
         <is>
-          <t>더딥스토어</t>
+          <t>ZENZEN MARKET</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -5434,16 +5454,8 @@
           <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>조말론</t>
-        </is>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>조말론</t>
-        </is>
-      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -5471,28 +5483,28 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>조말론 차량용 방향제 센트투고 명품향수 고급 디퓨저 거치대</t>
+          <t>미스터앤미세스 니키 본품/리필 차량용 방향제</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=83025886866</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=10017842540</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8302588/83025886866.4.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1001784/10017842540.12.jpg</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>48500</t>
+          <t>7200</t>
         </is>
       </c>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr">
         <is>
-          <t>홍콩걸즈</t>
+          <t>반도향기나라</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -5500,16 +5512,8 @@
           <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>조말론</t>
-        </is>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>조말론</t>
-        </is>
-      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -5537,22 +5541,22 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>디캣 차량용 송풍구 방향제 A세트 쇼핑백 선물상자</t>
+          <t>헤니르 송풍구 클립형 파일럿 베어 차량용 방향제</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29581678158</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29861388136</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2958167/29581678158.20211122011246.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2986138/29861388136.20211129014233.jpg</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>9900</t>
+          <t>15000</t>
         </is>
       </c>
       <c r="F83" t="inlineStr"/>
@@ -5566,7 +5570,11 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I83" t="inlineStr"/>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>헤니르</t>
+        </is>
+      </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
@@ -5595,22 +5603,22 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>헤니르 송풍구 클립형 파일럿 베어 차량용 방향제</t>
+          <t>양키캔들 차밍센츠 스타터세트 차량용 미드썸머나잇</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29861388136</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25381038019</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2986138/29861388136.20211129014233.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2538103/25381038019.20201226200744.jpg</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>15000</t>
+          <t>14810</t>
         </is>
       </c>
       <c r="F84" t="inlineStr"/>
@@ -5626,10 +5634,14 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>헤니르</t>
-        </is>
-      </c>
-      <c r="J84" t="inlineStr"/>
+          <t>양키캔들</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>양키캔들</t>
+        </is>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -5657,22 +5669,22 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>엠블럼 스누피 방향제</t>
+          <t>불스원 GRASSE 그라스 디퓨저 방향제</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25645224899</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24073924737</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2564522/25645224899.20211028043708.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2407392/24073924737.20200907231547.jpg</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>9880</t>
+          <t>8060</t>
         </is>
       </c>
       <c r="F85" t="inlineStr"/>
@@ -5686,7 +5698,11 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I85" t="inlineStr"/>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>불스원</t>
+        </is>
+      </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
@@ -5715,36 +5731,40 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>미스터앤미세스 니키 본품/리필 차량용 방향제</t>
+          <t>산도깨비 차량용 멤브렌 리필 방향제 x 10개입 휘튼치드</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=10017842540</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25695237598</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1001784/10017842540.12.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2569523/25695237598.20211215041018.jpg</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>7200</t>
+          <t>21500</t>
         </is>
       </c>
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr">
         <is>
-          <t>반도향기나라</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr"/>
+          <t>일반 - 가격비교 상품</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>산도깨비</t>
+        </is>
+      </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
@@ -5773,28 +5793,28 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>쓰리나인 차 차량용 방향제 불독 명품 힙한늑대 디퓨저</t>
+          <t>조말론 센트투고 차량방향제 자동차 쇼핑백 기본리본포장</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82749964205</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=83296295354</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8274996/82749964205.12.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8329629/83296295354.2.jpg</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>29850</t>
+          <t>49900</t>
         </is>
       </c>
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr">
         <is>
-          <t>THREENINE</t>
+          <t>더딥스토어</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -5804,10 +5824,14 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>쓰리나인</t>
-        </is>
-      </c>
-      <c r="J87" t="inlineStr"/>
+          <t>조말론</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>조말론</t>
+        </is>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -5835,22 +5859,22 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>인비저블 방향제 차량용 송풍구 일체형</t>
+          <t>티커벨 TKB 붕붕 차량용 태양열 비행기 방향제</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24445209070</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26760512605</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2444520/24445209070.20201013225708.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2676051/26760512605.20210930012339.jpg</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>7810</t>
+          <t>10480</t>
         </is>
       </c>
       <c r="F88" t="inlineStr"/>
@@ -5893,22 +5917,22 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>포맨트 퍼퓸 썸퓨저 차량용 방향제</t>
+          <t>엠블럼 스누피 방향제</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20901530534</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25645224899</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2090153/20901530534.20211028161645.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2564522/25645224899.20211028043708.jpg</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>30310</t>
+          <t>9880</t>
         </is>
       </c>
       <c r="F89" t="inlineStr"/>
@@ -5922,11 +5946,7 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>포맨트</t>
-        </is>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
@@ -5955,43 +5975,43 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>카카오프렌즈 어피치 라이언 모니터 네비게이션 걸이형 방향제</t>
+          <t>P&amp;amp;G 페브리즈 차량용 방향제 2.2ml 3개</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82953307035</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20397190459</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8295330/82953307035.2.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2039719/20397190459.20190726113415.jpg</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>23900</t>
+          <t>7950</t>
         </is>
       </c>
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr">
         <is>
-          <t>주네트</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>엘지생활건강</t>
+          <t>페브리즈</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>엘지생활건강</t>
+          <t>P&amp;G</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -6021,28 +6041,28 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>조말론 차량용 방향제 센트 투 고 고급 명품 디퓨저 and 거치대 석고방향제</t>
+          <t>카카오프렌즈 어피치 라이언 모니터 네비게이션 걸이형 방향제</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82623141464</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82953307035</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8262314/82623141464.2.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8295330/82953307035.2.jpg</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>38540</t>
+          <t>23900</t>
         </is>
       </c>
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr">
         <is>
-          <t>the슈필라움</t>
+          <t>주네트</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -6052,10 +6072,14 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>조말론</t>
-        </is>
-      </c>
-      <c r="J91" t="inlineStr"/>
+          <t>엘지생활건강</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>엘지생활건강</t>
+        </is>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -6083,22 +6107,22 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>JK 크롬 베어브릭 차량용방향제 자동차 디퓨저 송풍구형</t>
+          <t>잠자는 강아지인형 숯먹은 강아지 탈취제 방향제</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29584087308</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24045215525</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2958408/29584087308.20211108030207.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2404521/24045215525.20200904192719.jpg</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>15900</t>
+          <t>8720</t>
         </is>
       </c>
       <c r="F92" t="inlineStr"/>
@@ -6141,28 +6165,28 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>캐릭터 오리 그네 석고 차량용 방향제 자동차 차량 디퓨저</t>
+          <t>조말론 차량용 방향제 센트 투 고 고급 명품 디퓨저 and 거치대 석고방향제</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=83579983455</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82623141464</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8357998/83579983455.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8262314/82623141464.2.jpg</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>4900</t>
+          <t>38540</t>
         </is>
       </c>
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr">
         <is>
-          <t>담배가게 아저씨</t>
+          <t>the슈필라움</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -6170,7 +6194,11 @@
           <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
-      <c r="I93" t="inlineStr"/>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>조말론</t>
+        </is>
+      </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
@@ -6199,41 +6227,45 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>조이오퓨저 오퓨저 가죽곰 가죽토끼 차량용 석고방향제 디퓨저 엠블럼 무료제작</t>
+          <t>허브타임 시그니처 차량용 방향제 60ml 레드프룻 외 27종 택1</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29908385702</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=11106686529</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2990838/29908385702.20211201233207.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1110668/11106686529.1.jpg</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>9900</t>
+          <t>14900</t>
         </is>
       </c>
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>허브타임 디퓨저</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>조이오퓨저</t>
-        </is>
-      </c>
-      <c r="J94" t="inlineStr"/>
+          <t>허브타임</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>허브타임</t>
+        </is>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -6261,22 +6293,22 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>양키캔들 스마트 센트 벤트클립</t>
+          <t>조이오퓨저 오퓨저 가죽곰 가죽토끼 차량용 석고방향제 디퓨저 엠블럼 무료제작</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18975414143</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29908385702</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1897541/18975414143.20190429160633.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2990838/29908385702.20211201233207.jpg</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>3150</t>
+          <t>9900</t>
         </is>
       </c>
       <c r="F95" t="inlineStr"/>
@@ -6292,7 +6324,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>양키캔들</t>
+          <t>조이오퓨저</t>
         </is>
       </c>
       <c r="J95" t="inlineStr"/>
@@ -6323,22 +6355,22 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>양키캔들 차밍센츠 고급 차량용 방향제 리필 16g</t>
+          <t>포맨트 퍼퓸 썸퓨저 차량용 방향제</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24073000302</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20901530534</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2407300/24073000302.20200907200512.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2090153/20901530534.20211028161645.jpg</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>4750</t>
+          <t>29910</t>
         </is>
       </c>
       <c r="F96" t="inlineStr"/>
@@ -6354,7 +6386,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>양키캔들</t>
+          <t>포맨트</t>
         </is>
       </c>
       <c r="J96" t="inlineStr"/>
@@ -6385,22 +6417,22 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>산도깨비 멤브렌 방향제 휘튼치트</t>
+          <t>P&amp;amp;G 앰비언트 이퀄라이저 방향제 PG-CF01</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30307277363</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30091667863</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3030727/30307277363.20211227004153.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3009166/30091667863.20211214231525.jpg</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>2280</t>
+          <t>24800</t>
         </is>
       </c>
       <c r="F97" t="inlineStr"/>
@@ -6416,12 +6448,12 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>산도깨비</t>
+          <t>P&amp;G</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>산도깨비</t>
+          <t>P&amp;G</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -6451,22 +6483,22 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>P&amp;amp;G 페브리즈 차량용 방향제 2.2ml 3개</t>
+          <t>수향 차량용 디퓨저 송풍구 클립 차량방향제</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20397190459</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29246650148</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2039719/20397190459.20190726113415.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2924665/29246650148.20211015230801.jpg</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>7950</t>
+          <t>13900</t>
         </is>
       </c>
       <c r="F98" t="inlineStr"/>
@@ -6482,12 +6514,12 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>페브리즈</t>
+          <t>수향</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>P&amp;G</t>
+          <t>수향</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -6517,45 +6549,41 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>피톤치드 편백 나무 방향제 향 천연 차량용 자동차 아로마 송풍구 디퓨저</t>
+          <t>양키캔들 스마트 센트 벤트클립</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=9501913801</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18975414143</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_9501913/9501913801.23.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1897541/18975414143.20190429160633.jpg</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>10900</t>
+          <t>4140</t>
         </is>
       </c>
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr">
         <is>
-          <t>순수팜</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>순수팜</t>
-        </is>
-      </c>
-      <c r="J99" t="inlineStr">
-        <is>
-          <t>엠제이글로벌</t>
-        </is>
-      </c>
+          <t>양키캔들</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -6598,7 +6626,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>32820</t>
+          <t>33190</t>
         </is>
       </c>
       <c r="F100" t="inlineStr"/>
@@ -6645,45 +6673,37 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>라피네르 로얄스페이드 듀오 차량용방향제</t>
+          <t>리틀트리 안전한 종이방향제 실내방향제 모음전</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82123406483</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25190591305</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8212340/82123406483.4.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2519059/25190591305.20201211215631.jpg</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>39800</t>
+          <t>840</t>
         </is>
       </c>
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr">
         <is>
-          <t>RAFFINEUR</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
-        </is>
-      </c>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>라피네르</t>
-        </is>
-      </c>
-      <c r="J101" t="inlineStr">
-        <is>
-          <t>라피네르</t>
-        </is>
-      </c>
+          <t>일반 - 가격비교 상품</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
           <t>생활/건강</t>

--- a/output.xlsx
+++ b/output.xlsx
@@ -633,22 +633,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>게이즈샵 지독 차량용 방향제</t>
+          <t>도그독 명품 리본독 차량용 방향제 고급 디퓨저 불독 D-E2</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29039136038</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30000303618</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2903913/29039136038.20210930051303.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3000030/30000303618.20211220153958.jpg</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>46550</t>
+          <t>48800</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
@@ -664,12 +664,12 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>게이즈샵</t>
+          <t>도그독</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>게이즈</t>
+          <t>도그독</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -761,22 +761,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>도그독 명품 리본독 차량용 방향제 고급 디퓨저 불독 D-E2</t>
+          <t>게이즈샵 지독 차량용 방향제</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30000303618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29039136038</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3000030/30000303618.20211220153958.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2903913/29039136038.20210930051303.jpg</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>48800</t>
+          <t>46550</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
@@ -792,12 +792,12 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>도그독</t>
+          <t>게이즈샵</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>도그독</t>
+          <t>게이즈</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -889,22 +889,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>빅쏘 카로브 차량용방향제 디퓨저 송풍구형</t>
+          <t>마블 스턴 아이언맨 차량용 방향제 ST-IM01</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26310652183</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30644523374</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2631065/26310652183.20211126145332.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3064452/30644523374.20220122233828.jpg</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>19890</t>
+          <t>39000</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
@@ -920,14 +920,10 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>빅쏘</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>빅쏘</t>
-        </is>
-      </c>
+          <t>마블</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1079,22 +1075,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>루크타 도베르만 차량용 자동차 송풍구 차 고급 방향제 디퓨저 LT-DB01</t>
+          <t>로얄워터 텀블러 모양 차량용 방향제 신차선물</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25380843939</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29835967618</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2538084/25380843939.20220113101814.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2983596/29835967618.20211125191149.jpg</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>49000</t>
+          <t>47510</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
@@ -1110,10 +1106,14 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>루크타</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr"/>
+          <t>로얄워터</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>로얄워터</t>
+        </is>
+      </c>
       <c r="K12" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1141,22 +1141,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>양키캔들 프레그런스 스피어스 차량용 방향제</t>
+          <t>빅쏘 카로브 차량용방향제 디퓨저 송풍구형</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27954927224</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26310652183</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2795492/27954927224.20210711203524.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2631065/26310652183.20211126145332.jpg</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3690</t>
+          <t>19890</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
@@ -1172,12 +1172,12 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>양키캔들</t>
+          <t>빅쏘</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>양키캔들</t>
+          <t>빅쏘</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1207,22 +1207,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>플래트 고급 프로펠러 차량용 방향제 F430</t>
+          <t>루크타 도베르만 차량용 자동차 송풍구 차 고급 방향제 디퓨저 LT-DB01</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27806043522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25380843939</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2780604/27806043522.20210701115440.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2538084/25380843939.20220113101814.jpg</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>41880</t>
+          <t>49000</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>플래트</t>
+          <t>루크타</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
@@ -1269,22 +1269,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>마블 스턴 아이언맨 차량용 방향제 ST-IM01</t>
+          <t>플래트 고급 프로펠러 차량용 방향제 F430</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30644523374</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27806043522</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3064452/30644523374.20220122233828.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2780604/27806043522.20210701115440.jpg</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>39000</t>
+          <t>41880</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
@@ -1300,7 +1300,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>마블</t>
+          <t>플래트</t>
         </is>
       </c>
       <c r="J15" t="inlineStr"/>
@@ -1331,22 +1331,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>언더스코어 젠틀맨 프리미엄 차량용 방향제 디퓨저</t>
+          <t>에이비 차량용 방향제 도베르만 고급 AB-DF04</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27137540258</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30317520568</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2713754/27137540258.20210708110811.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3031752/30317520568.20220110102207.jpg</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>28480</t>
+          <t>28000</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
@@ -1362,12 +1362,12 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>언더스코어</t>
+          <t>에이비</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>언더스코어</t>
+          <t>에이비</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1397,22 +1397,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>로얄워터 텀블러 모양 차량용 방향제 신차선물</t>
+          <t>메이튼 십이지신 갓몽키 원숭이 차량용 방향제 M-DF10</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29835967618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30826860690</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2983596/29835967618.20211125191149.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3082686/30826860690.20220207023910.jpg</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>48020</t>
+          <t>23900</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
@@ -1426,16 +1426,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>로얄워터</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>로얄워터</t>
-        </is>
-      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1463,22 +1455,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>에이비 차량용 방향제 도베르만 고급 AB-DF04</t>
+          <t>언더스코어 젠틀맨 프리미엄 차량용 방향제 디퓨저</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30317520568</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27137540258</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3031752/30317520568.20220110102207.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2713754/27137540258.20210708110811.jpg</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>28000</t>
+          <t>31800</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
@@ -1494,12 +1486,12 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>에이비</t>
+          <t>언더스코어</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>에이비</t>
+          <t>언더스코어</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1529,22 +1521,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>디프로젝트 디릴라고 고릴라 차량용방향제 자동차 디퓨저 DP-DRL03</t>
+          <t>양키캔들 프레그런스 스피어스 차량용 방향제</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26801331279</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27954927224</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2680133/26801331279.20211222172904.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2795492/27954927224.20210711203524.jpg</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>49000</t>
+          <t>3680</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
@@ -1560,12 +1552,12 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>디프로젝트</t>
+          <t>양키캔들</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>디프로젝트</t>
+          <t>양키캔들</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1595,22 +1587,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>딥티크 Diptyque 자동차 방향제 세트 송풍케이스 리필용 로즈</t>
+          <t>제이엠제이라인 도슈아 클래식 프리미엄 차량용 방향제</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28631448191</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=17787594512</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2863144/28631448191.20210830004730.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1778759/17787594512.20210802225254.jpg</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>65000</t>
+          <t>29750</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
@@ -1626,10 +1618,14 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>딥티크</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr"/>
+          <t>도슈아</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>제이엠제이라인</t>
+        </is>
+      </c>
       <c r="K20" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1657,22 +1653,22 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>제이엠제이라인 도슈아 클래식 프리미엄 차량용 방향제</t>
+          <t>미스터앤미세스 니키 차량용 방향제 리필</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=17787594512</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=10149695240</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1778759/17787594512.20210802225254.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1014969/10149695240.20201014180005.jpg</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>29750</t>
+          <t>4750</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
@@ -1686,16 +1682,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>도슈아</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>제이엠제이라인</t>
-        </is>
-      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1723,22 +1711,22 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>차바치 씨스톤 차량용 방향제</t>
+          <t>디프로젝트 디릴라고 고릴라 차량용방향제 자동차 디퓨저 DP-DRL03</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21337624052</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26801331279</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2133762/21337624052.20191119171610.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2680133/26801331279.20211222172904.jpg</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>24900</t>
+          <t>49000</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
@@ -1754,10 +1742,14 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>차바치</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr"/>
+          <t>디프로젝트</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>디프로젝트</t>
+        </is>
+      </c>
       <c r="K22" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1785,22 +1777,22 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>언더스코어 오버라인 오버타이거 호랑이 퓨마 차량용 방향제 자동차 디퓨저 OL-CFOT</t>
+          <t>센트데코 후드독 차량용 방향제 고급 명품 디퓨저 차방향제 새차선물 SCD-01</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30404262618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30570794618</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3040426/30404262618.20220103184026.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3057079/30570794618.20220129124817.jpg</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>35030</t>
+          <t>29000</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
@@ -1816,12 +1808,12 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>언더스코어</t>
+          <t>센트데코</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>언더스코어</t>
+          <t>센트데코</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1851,22 +1843,22 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>센트데코 후드독 차량용 방향제 고급 명품 디퓨저 차방향제 새차선물 SCD-01</t>
+          <t>언더스코어 오버라인 오버타이거 호랑이 퓨마 차량용 방향제 자동차 디퓨저 OL-CFOT</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30570794618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30404262618</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3057079/30570794618.20220129124817.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3040426/30404262618.20220103184026.jpg</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>29000</t>
+          <t>35030</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
@@ -1882,12 +1874,12 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>센트데코</t>
+          <t>언더스코어</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>센트데코</t>
+          <t>언더스코어</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -1979,22 +1971,22 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>불스원 그라스 디퓨져 차량용 방향제 105ml</t>
+          <t>딥티크 차량용 방향제 케이스 베이 리필 세트</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=12140232094</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28546536156</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1214023/12140232094.20211006140204.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2854653/28546536156.20210824021557.jpg</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>9480</t>
+          <t>29290</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
@@ -2010,14 +2002,10 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>불스원</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>불스원</t>
-        </is>
-      </c>
+          <t>딥티크</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2045,22 +2033,22 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>딥티크 차량용 방향제 케이스 베이 리필 세트</t>
+          <t>딥티크 Diptyque 자동차 방향제 세트 송풍케이스 리필용 로즈</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28546536156</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28631448191</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2854653/28546536156.20210824021557.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2863144/28631448191.20210830004730.jpg</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>29290</t>
+          <t>65000</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
@@ -2107,22 +2095,22 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>메탈아이원 차량용방향제 고급 송풍구방향제 홀더 향스틱2P</t>
+          <t>불스원 그라스 디퓨져 차량용 방향제 105ml</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27657435982</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=12140232094</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2765743/27657435982.20210620214337.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1214023/12140232094.20211006140204.jpg</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10900</t>
+          <t>9480</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
@@ -2136,8 +2124,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>불스원</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>불스원</t>
+        </is>
+      </c>
       <c r="K28" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2165,22 +2161,22 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>딥티크 차량용 방향제 리필 9종류향</t>
+          <t>에이비 사막여우 차량용 방향제 송풍구 고급형</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27604493058</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29639151141</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2760449/27604493058.20210617024518.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2963915/29639151141.20211224101014.jpg</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>37500</t>
+          <t>33000</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
@@ -2196,12 +2192,12 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>딥티크</t>
+          <t>에이비</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>딥티크</t>
+          <t>에이비</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2231,22 +2227,22 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>미스터앤미세스 니키 차량용 방향제 리필</t>
+          <t>딥티크 차량용 방향제 리필 9종류향</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=10149695240</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27604493058</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1014969/10149695240.20201014180005.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2760449/27604493058.20210617024518.jpg</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>4750</t>
+          <t>37500</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
@@ -2260,8 +2256,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>딥티크</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>딥티크</t>
+        </is>
+      </c>
       <c r="K30" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2289,22 +2293,22 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>에이비 사막여우 차량용 방향제 송풍구 고급형</t>
+          <t>에이비 큐빅베어브릭 차량용 방향제 차방향제 디퓨저 고급 AB-DF02</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29639151141</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27944185800</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2963915/29639151141.20211224101014.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2794418/27944185800.20210929135132.jpg</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>33000</t>
+          <t>18900</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
@@ -2355,22 +2359,22 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>에이비 큐빅베어브릭 차량용 방향제 차방향제 디퓨저 고급 AB-DF02</t>
+          <t>허브타임 시그니처 차량용 방향제 60m</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27944185800</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30756073471</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2794418/27944185800.20210929135132.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3075607/30756073471.20220202024136.jpg</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>18900</t>
+          <t>14900</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
@@ -2386,12 +2390,12 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>에이비</t>
+          <t>허브타임</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>에이비</t>
+          <t>허브타임</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2421,22 +2425,22 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>메이튼 십이지신 갓몽키 원숭이 차량용 방향제 M-DF10</t>
+          <t>메탈아이원 차량용방향제 고급 송풍구방향제 홀더 향스틱2P</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30826860690</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27657435982</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3082686/30826860690.20220207023910.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2765743/27657435982.20210620214337.jpg</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>23900</t>
+          <t>10900</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
@@ -2479,22 +2483,22 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>리틀트리 걸이형 종이 방향제</t>
+          <t>더드림 꽃 베어브릭 석고 차량용 방향제 귀여운 자동차 송풍구 디퓨저</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=7162545992</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27124471579</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_7162545/7162545992.20190731170829.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2712447/27124471579.20210512182954.jpg</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>860</t>
+          <t>11700</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
@@ -2508,7 +2512,11 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I34" t="inlineStr"/>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>더드림</t>
+        </is>
+      </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
@@ -2537,43 +2545,43 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>디프로젝트 리필킷 디불 디버니 디릴라고 차량용방향제 자동차 디퓨저 고체 리필 DP-RF02</t>
+          <t>조말론 차량용 방향제 센트투고 명품향수 고급 디퓨저 거치대</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18367838563</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=83025886866</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1836783/18367838563.20211108142647.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8302588/83025886866.4.jpg</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>13000</t>
+          <t>48500</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>홍콩걸즈</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>디프로젝트</t>
+          <t>조말론</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>디프로젝트</t>
+          <t>조말론</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -2603,22 +2611,22 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>더드림 꽃 베어브릭 석고 차량용 방향제 귀여운 자동차 송풍구 디퓨저</t>
+          <t>카카오프렌즈 차량용방향제 통풍구형 라이언 어피치</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27124471579</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24045761869</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2712447/27124471579.20210512182954.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2404576/24045761869.20210928022130.jpg</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11700</t>
+          <t>14200</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
@@ -2634,7 +2642,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>더드림</t>
+          <t>카카오프렌즈</t>
         </is>
       </c>
       <c r="J36" t="inlineStr"/>
@@ -2665,22 +2673,22 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>허브타임 시그니처 차량용 방향제 60m</t>
+          <t>리틀트리 걸이형 종이 방향제</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30756073471</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=7162545992</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3075607/30756073471.20220202024136.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_7162545/7162545992.20190731170829.jpg</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>14900</t>
+          <t>860</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
@@ -2694,16 +2702,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>허브타임</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>허브타임</t>
-        </is>
-      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2731,22 +2731,22 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>카카오프렌즈 차량용방향제 통풍구형 라이언 어피치</t>
+          <t>디프로젝트 리필킷 디불 디버니 디릴라고 차량용방향제 자동차 디퓨저 고체 리필 DP-RF02</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24045761869</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18367838563</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2404576/24045761869.20210928022130.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1836783/18367838563.20211108142647.jpg</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>14200</t>
+          <t>13000</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
@@ -2762,10 +2762,14 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>카카오프렌즈</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr"/>
+          <t>디프로젝트</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>디프로젝트</t>
+        </is>
+      </c>
       <c r="K38" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2793,45 +2797,41 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>조말론 차량용 방향제 센트투고 명품향수 고급 디퓨저 거치대</t>
+          <t>차바치 씨스톤 차량용 방향제</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=83025886866</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21337624052</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8302588/83025886866.4.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2133762/21337624052.20191119171610.jpg</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>48500</t>
+          <t>24900</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
-          <t>홍콩걸즈</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>조말론</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>조말론</t>
-        </is>
-      </c>
+          <t>차바치</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2859,22 +2859,22 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>디프로젝트 디버니 토끼 차량용방향제 자동차 디퓨저 DP-DBN02</t>
+          <t>JW중외제약 피톤치드 차량용 방향제 피톤케어</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27331951522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=12916212027</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2733195/27331951522.20211222172819.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1291621/12916212027.20211116115126.jpg</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>49000</t>
+          <t>33000</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
@@ -2890,12 +2890,12 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>디프로젝트</t>
+          <t>JW중외제약</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>디프로젝트</t>
+          <t>JW중외제약</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -2925,22 +2925,22 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>카늘 글래디에이터 차량용 방향제</t>
+          <t>엠퓨처 큐빅베어 1P 차량용 베어브릭 방향제 명품 디퓨저 MF-CAF01</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20826026697</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30506047035</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2082602/20826026697.20210217230953.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3050604/30506047035.20220111221900.jpg</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>19800</t>
+          <t>15900</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
@@ -2954,11 +2954,7 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>카늘</t>
-        </is>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
@@ -2987,22 +2983,22 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>산도깨비 차량용 멤브렌 리필 방향제 x 10개입 휘튼치드</t>
+          <t>카늘 글래디에이터 차량용 방향제</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25695237598</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20826026697</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2569523/25695237598.20211215041018.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2082602/20826026697.20210217230953.jpg</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11040</t>
+          <t>19800</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
@@ -3018,7 +3014,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>산도깨비</t>
+          <t>카늘</t>
         </is>
       </c>
       <c r="J42" t="inlineStr"/>
@@ -3049,22 +3045,22 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>엠퓨처 큐빅베어 1P 차량용 베어브릭 방향제 명품 디퓨저 MF-CAF01</t>
+          <t>픽도큐먼트 베어브릭 송풍구 차량용 방향제</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30506047035</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29900193281</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3050604/30506047035.20220111221900.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2990019/29900193281.20211208030917.jpg</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>15900</t>
+          <t>14900</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
@@ -3169,22 +3165,22 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>양키캔들 벤트스틱 차량용 방향제 4P입</t>
+          <t>디프로젝트 디버니 토끼 차량용방향제 자동차 디퓨저 DP-DBN02</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=6552648097</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27331951522</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_6552648/6552648097.20190731160942.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2733195/27331951522.20211222172819.jpg</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>3240</t>
+          <t>49000</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
@@ -3200,12 +3196,12 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>양키캔들</t>
+          <t>디프로젝트</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>양키캔들</t>
+          <t>디프로젝트</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -3235,22 +3231,22 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>픽도큐먼트 베어브릭 송풍구 차량용 방향제</t>
+          <t>산도깨비 차량용 멤브렌 리필 방향제 x 10개입 휘튼치드</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29900193281</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25695237598</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2990019/29900193281.20211208030917.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2569523/25695237598.20211215041018.jpg</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>14900</t>
+          <t>21500</t>
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
@@ -3264,7 +3260,11 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I46" t="inlineStr"/>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>산도깨비</t>
+        </is>
+      </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
@@ -3293,22 +3293,22 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>JW중외제약 피톤치드 차량용 방향제 피톤케어</t>
+          <t>양키캔들 벤트스틱 차량용 방향제 4P입</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=12916212027</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=6552648097</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1291621/12916212027.20211116115126.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_6552648/6552648097.20190731160942.jpg</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>37000</t>
+          <t>3190</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
@@ -3324,12 +3324,12 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>JW중외제약</t>
+          <t>양키캔들</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>JW중외제약</t>
+          <t>양키캔들</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -3359,22 +3359,22 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>에이비 얼굴 일러스트 사진 차량용방향제 2set</t>
+          <t>FYC 고급 명품 불독 차량용 방향제 디퓨저</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27190906522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24941672502</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2719090/27190906522.20210518150908.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2494167/24941672502.20201122175400.jpg</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>23000</t>
+          <t>39000</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
@@ -3388,16 +3388,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>에이비</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>에이비</t>
-        </is>
-      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3425,22 +3417,22 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>명품고급디퓨저 마일론 갤러리1 차량용 방향제 MGAL-01</t>
+          <t>불스원 폴라프레쉬 선바이저 방향제 리필</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30352215619</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=17787599329</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3035221/30352215619.20220102155103.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1778759/17787599329.20220107133652.jpg</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>49000</t>
+          <t>2130</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
@@ -3456,12 +3448,12 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>마일론</t>
+          <t>불스원</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>명품고급디퓨저</t>
+          <t>불스원</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -3491,22 +3483,22 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>조말론 조말론 차량용 송풍구 방향제 센트투고 거치대포함</t>
+          <t>명품고급디퓨저 마일론 갤러리1 차량용 방향제 MGAL-01</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30506938714</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30352215619</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3050693/30506938714.20220112013652.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3035221/30352215619.20220102155103.jpg</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>34320</t>
+          <t>49000</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
@@ -3522,12 +3514,12 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>조말론</t>
+          <t>마일론</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>조말론</t>
+          <t>명품고급디퓨저</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -3681,22 +3673,22 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>FYC 고급 명품 불독 차량용 방향제 디퓨저</t>
+          <t>조말론 조말론 차량용 송풍구 방향제 센트투고 거치대포함</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24941672502</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30506938714</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2494167/24941672502.20201122175400.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3050693/30506938714.20220112013652.jpg</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>39000</t>
+          <t>34320</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
@@ -3710,8 +3702,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>조말론</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>조말론</t>
+        </is>
+      </c>
       <c r="K53" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3739,22 +3739,22 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>불스원 폴라프레쉬 선바이저 방향제 리필</t>
+          <t>훠링 하이센트 차량용 방향제 컵홀더형 95g</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=17787599329</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26601404523</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1778759/17787599329.20220107133652.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2660140/26601404523.20210420172441.jpg</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2130</t>
+          <t>43000</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
@@ -3770,12 +3770,12 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>불스원</t>
+          <t>훠링</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>불스원</t>
+          <t>훠링</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -3805,41 +3805,45 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>센트몬스터 고양이 차량용 방향제 고급 디퓨져</t>
+          <t>스턴 미키 차량용 방향제 자동차 디퓨저 STDF-1</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24163460435</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82863631854</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2416346/24163460435.20210124121840.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8286363/82863631854.3.jpg</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>39000</t>
+          <t>38900</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>스턴방향제</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>센트몬스터</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr"/>
+          <t>디즈니</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>에프티엘컴퍼니</t>
+        </is>
+      </c>
       <c r="K55" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3867,45 +3871,37 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>스턴 미키 차량용 방향제 자동차 디퓨저 STDF-1</t>
+          <t>리틀트리 안전한 종이방향제 실내방향제 모음전</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82863631854</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25190591305</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8286363/82863631854.3.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2519059/25190591305.20201211215631.jpg</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>38900</t>
+          <t>840</t>
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
-          <t>스턴방향제</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>디즈니</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>에프티엘컴퍼니</t>
-        </is>
-      </c>
+          <t>일반 - 가격비교 상품</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3933,22 +3929,22 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>훠링 하이센트 차량용 방향제 컵홀더형 95g</t>
+          <t>센트몬스터 고양이 차량용 방향제 고급 디퓨져</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26601404523</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24163460435</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2660140/26601404523.20210420172441.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2416346/24163460435.20210124121840.jpg</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>43000</t>
+          <t>39000</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
@@ -3964,14 +3960,10 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>훠링</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>훠링</t>
-        </is>
-      </c>
+          <t>센트몬스터</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3999,22 +3991,22 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>리틀트리 안전한 종이방향제 실내방향제 모음전</t>
+          <t>에이비 얼굴 일러스트 사진 차량용방향제 2set</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25190591305</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27190906522</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2519059/25190591305.20201211215631.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2719090/27190906522.20210518150908.jpg</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>840</t>
+          <t>23000</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
@@ -4028,8 +4020,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>에이비</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>에이비</t>
+        </is>
+      </c>
       <c r="K58" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4057,22 +4057,22 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>유니레버 스너글 곰돌이 방향제 21g 5종 3개입</t>
+          <t>캘리포니아센트 캔타입 방향제 15종</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28658857392</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27414604011</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2865885/28658857392.20210831223854.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2741460/27414604011.20210602231933.jpg</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2200</t>
+          <t>3200</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
@@ -4086,16 +4086,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>스너글</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>유니레버</t>
-        </is>
-      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4123,22 +4115,22 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>양키캔들 차밍센츠 고급 차량용 방향제 리필 16g</t>
+          <t>카카오프렌즈 모니터걸이 방향제 어피치+라이언</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24073000302</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27139606827</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2407300/24073000302.20200907200512.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2713960/27139606827.20210513203418.jpg</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>4570</t>
+          <t>32060</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
@@ -4154,7 +4146,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>양키캔들</t>
+          <t>카카오프렌즈</t>
         </is>
       </c>
       <c r="J60" t="inlineStr"/>
@@ -4185,22 +4177,22 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>레모 차량용 프로펠러 머스탱 송풍구 방향제</t>
+          <t>양키캔들 차밍센츠 고급 차량용 방향제 리필 16g</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24114474449</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24073000302</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2411447/24114474449.20200910212921.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2407300/24073000302.20200907200512.jpg</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>19000</t>
+          <t>4600</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
@@ -4214,7 +4206,11 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I61" t="inlineStr"/>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>양키캔들</t>
+        </is>
+      </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
@@ -4309,22 +4305,22 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>칠라릴라 크롬블랙 차량용 자동차 방향제 고급 디퓨저</t>
+          <t>유니레버 스너글 곰돌이 방향제 21g 5종 3개입</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28621039462</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28658857392</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2862103/28621039462.20211108103254.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2865885/28658857392.20210831223854.jpg</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>38800</t>
+          <t>2200</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
@@ -4338,8 +4334,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>스너글</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>유니레버</t>
+        </is>
+      </c>
       <c r="K63" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4367,22 +4371,22 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>캘리포니아센트 캔타입 방향제 15종</t>
+          <t>진로 소주 송풍구 디퓨저 차량용 자동차 고급 방향제</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27414604011</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28904371459</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2741460/27414604011.20210602231933.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2890437/28904371459.20220114025946.jpg</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>3200</t>
+          <t>10900</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
@@ -4483,22 +4487,22 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>진로 소주 송풍구 디퓨저 차량용 자동차 고급 방향제</t>
+          <t>로베르타디까메리노 원형 대용량 방향제 100ml 2P</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28904371459</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=5640406696</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2890437/28904371459.20220114025946.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_5640406/5640406696.20190805143958.jpg</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10930</t>
+          <t>13800</t>
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
@@ -4512,8 +4516,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>로베르타디까메리노</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>로베르타디까메리노</t>
+        </is>
+      </c>
       <c r="K66" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4541,22 +4553,22 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>명품고급디퓨저 마일론 갤러리2 차량용 방향제</t>
+          <t>P&amp;amp;G 페브리즈 차량용 방향제 2.2ml 3개</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30441772620</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20397190459</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3044177/30441772620.20220204192733.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2039719/20397190459.20190726113415.jpg</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>49000</t>
+          <t>7950</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
@@ -4572,12 +4584,12 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>마일론</t>
+          <t>페브리즈</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>명품고급디퓨저</t>
+          <t>P&amp;G</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -4607,22 +4619,22 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>양키캔들 차량용 방향제 얼티메이트 카자</t>
+          <t>레모 차량용 프로펠러 머스탱 송풍구 방향제</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24075378761</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24114474449</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2407537/24075378761.20200908033619.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2411447/24114474449.20200910212921.jpg</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>3300</t>
+          <t>19000</t>
         </is>
       </c>
       <c r="F68" t="inlineStr"/>
@@ -4636,16 +4648,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>양키캔들</t>
-        </is>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>양키캔들</t>
-        </is>
-      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4673,22 +4677,22 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>P&amp;amp;G 페브리즈 차량용 방향제 2.2ml 3개</t>
+          <t>칠라릴라 크롬블랙 차량용 자동차 방향제 고급 디퓨저</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20397190459</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28621039462</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2039719/20397190459.20190726113415.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2862103/28621039462.20211108103254.jpg</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>7950</t>
+          <t>38800</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
@@ -4702,16 +4706,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>페브리즈</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>P&amp;G</t>
-        </is>
-      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4739,22 +4735,22 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>바흐가르트 차량용 석고 송풍구 방향제</t>
+          <t>명품고급디퓨저 마일론 갤러리2 차량용 방향제</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30841337224</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30441772620</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3084133/30841337224.20220208023232.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3044177/30441772620.20220204192733.jpg</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>48900</t>
+          <t>49000</t>
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
@@ -4770,10 +4766,14 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>바흐가르트</t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr"/>
+          <t>마일론</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>명품고급디퓨저</t>
+        </is>
+      </c>
       <c r="K70" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4801,22 +4801,22 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>언더스코어 오버라인 오버라이노 코뿔소 차량용 방향제 자동차 디퓨저 OL-CFORH</t>
+          <t>바흐가르트 차량용 석고 송풍구 방향제</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30251365068</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30841337224</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3025136/30251365068.20211222051742.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3084133/30841337224.20220208023232.jpg</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>35030</t>
+          <t>48900</t>
         </is>
       </c>
       <c r="F71" t="inlineStr"/>
@@ -4832,14 +4832,10 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>언더스코어</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>언더스코어</t>
-        </is>
-      </c>
+          <t>바흐가르트</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4867,22 +4863,22 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>카카오프렌즈 모니터걸이 방향제 어피치+라이언</t>
+          <t>양키캔들 차량용 방향제 얼티메이트 카자</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27139606827</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24075378761</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2713960/27139606827.20210513203418.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2407537/24075378761.20200908033619.jpg</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>32060</t>
+          <t>3300</t>
         </is>
       </c>
       <c r="F72" t="inlineStr"/>
@@ -4898,10 +4894,14 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>카카오프렌즈</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr"/>
+          <t>양키캔들</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>양키캔들</t>
+        </is>
+      </c>
       <c r="K72" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4929,45 +4929,41 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>(리본끈+쇼핑백)딥디크 차량용 명품 고급 딥티크 방향제 디퓨저 리필향 9종 및 세트</t>
+          <t>헤니르 송풍구 클립형 파일럿 베어 차량용 방향제</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82298466138</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29861388136</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8229846/82298466138.7.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2986138/29861388136.20211129014233.jpg</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>27840</t>
+          <t>12000</t>
         </is>
       </c>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr">
         <is>
-          <t>the슈필라움</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>딥티크</t>
-        </is>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>딥티크</t>
-        </is>
-      </c>
+          <t>헤니르</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -5053,22 +5049,22 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>아우라 카카오 어피치 모니터걸이형 방향제 4.5ml</t>
+          <t>언더스코어 오버라인 오버라이노 코뿔소 차량용 방향제 자동차 디퓨저 OL-CFORH</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26955394520</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30251365068</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2695539/26955394520.20210428203230.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3025136/30251365068.20211222051742.jpg</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>14640</t>
+          <t>35030</t>
         </is>
       </c>
       <c r="F75" t="inlineStr"/>
@@ -5084,10 +5080,14 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>아우라</t>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr"/>
+          <t>언더스코어</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>언더스코어</t>
+        </is>
+      </c>
       <c r="K75" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -5115,22 +5115,22 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>KAN 뷰센트 De.Line 차량용 방향제 싱글세트</t>
+          <t>아우라 카카오 어피치 모니터걸이형 방향제 4.5ml</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18985549503</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26955394520</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1898554/18985549503.20210713121106.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2695539/26955394520.20210428203230.jpg</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>12900</t>
+          <t>14640</t>
         </is>
       </c>
       <c r="F76" t="inlineStr"/>
@@ -5146,14 +5146,10 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>뷰센트</t>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>KAN</t>
-        </is>
-      </c>
+          <t>아우라</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -5181,22 +5177,22 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>아우라 카카오 모니터걸이형 방향제 라이언 블루스카이향 10g x1개</t>
+          <t>미스터앤미세스 니키 클래식 차량용 방향제 본품</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24014062100</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25359648694</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2401406/24014062100.20200903003222.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2535964/25359648694.20201224195431.jpg</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>14640</t>
+          <t>9990</t>
         </is>
       </c>
       <c r="F77" t="inlineStr"/>
@@ -5305,22 +5301,22 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>포맨트 퍼퓸 썸퓨저 차량용 방향제</t>
+          <t>양키캔들 차량용방향제 프레그런스 스피어스 인기향</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20901530534</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30247866969</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2090153/20901530534.20211028161645.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3024786/30247866969.20211222014950.jpg</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>27500</t>
+          <t>3830</t>
         </is>
       </c>
       <c r="F79" t="inlineStr"/>
@@ -5336,10 +5332,14 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>포맨트</t>
-        </is>
-      </c>
-      <c r="J79" t="inlineStr"/>
+          <t>양키캔들</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>양키캔들</t>
+        </is>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -5367,37 +5367,45 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>미스터앤미세스 니키 클래식 차량용 방향제 본품</t>
+          <t>(리본끈+쇼핑백)딥디크 차량용 명품 고급 딥티크 방향제 디퓨저 리필향 9종 및 세트</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25359648694</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82298466138</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2535964/25359648694.20201224195431.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8229846/82298466138.7.jpg</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>9990</t>
+          <t>27840</t>
         </is>
       </c>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>the슈필라움</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>딥티크</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>딥티크</t>
+        </is>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -5425,22 +5433,22 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>양키캔들 차량용방향제 프레그런스 스피어스 인기향</t>
+          <t>아우라 카카오 모니터걸이형 방향제 라이언 블루스카이향 10g x1개</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30247866969</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24014062100</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3024786/30247866969.20211222014950.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2401406/24014062100.20200903003222.jpg</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>3750</t>
+          <t>14640</t>
         </is>
       </c>
       <c r="F81" t="inlineStr"/>
@@ -5454,16 +5462,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>양키캔들</t>
-        </is>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>양키캔들</t>
-        </is>
-      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -5491,22 +5491,22 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>로베르타디까메리노 원형 대용량 방향제 100ml 2P</t>
+          <t>포맨트 퍼퓸 썸퓨저 차량용 방향제</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=5640406696</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20901530534</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_5640406/5640406696.20190805143958.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2090153/20901530534.20211028161645.jpg</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>13800</t>
+          <t>27500</t>
         </is>
       </c>
       <c r="F82" t="inlineStr"/>
@@ -5522,14 +5522,10 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>로베르타디까메리노</t>
-        </is>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>로베르타디까메리노</t>
-        </is>
-      </c>
+          <t>포맨트</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -5557,38 +5553,38 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>불스원 그라스 디퓨저 블루 차량용 방향제 100ml</t>
+          <t>벤볼릭 명품 차량용 방향제 고급 자동차 차량 디퓨져</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24063116873</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82293143959</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2406311/24063116873.20210111145156.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8229314/82293143959.16.jpg</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>14980</t>
+          <t>28000</t>
         </is>
       </c>
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>매드포모던</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>불스원</t>
+          <t>벤볼릭</t>
         </is>
       </c>
       <c r="J83" t="inlineStr"/>
@@ -5619,22 +5615,22 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>불스원 그라스 오브제 디퓨저 차량용 방향제 100ml</t>
+          <t>KAN 뷰센트 De.Line 차량용 방향제 싱글세트</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30425453618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18985549503</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3042545/30425453618.20220105100536.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1898554/18985549503.20210713121106.jpg</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>17500</t>
+          <t>12900</t>
         </is>
       </c>
       <c r="F84" t="inlineStr"/>
@@ -5650,12 +5646,12 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>불스원</t>
+          <t>뷰센트</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>불스원</t>
+          <t>KAN</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -5743,41 +5739,45 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>벤볼릭 명품 차량용 방향제 고급 자동차 차량 디퓨져</t>
+          <t>토씨 클래시맨 명품 차량용방향제 룸미러걸이형</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82293143959</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25695599950</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8229314/82293143959.16.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2569559/25695599950.20210902144804.jpg</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>28000</t>
+          <t>85000</t>
         </is>
       </c>
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr">
         <is>
-          <t>매드포모던</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>벤볼릭</t>
-        </is>
-      </c>
-      <c r="J86" t="inlineStr"/>
+          <t>토씨</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>토씨</t>
+        </is>
+      </c>
       <c r="K86" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -5805,22 +5805,22 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>포포베 차량용방향제 자동차 디퓨저 선물 패키지</t>
+          <t>불스원 그라스 오브제 디퓨저 차량용 방향제 100ml</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30238144502</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30425453618</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3023814/30238144502.20211222050944.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3042545/30425453618.20220105100536.jpg</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>21900</t>
+          <t>17500</t>
         </is>
       </c>
       <c r="F87" t="inlineStr"/>
@@ -5834,8 +5834,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>불스원</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>불스원</t>
+        </is>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -5863,22 +5871,22 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>캘리포니아센트 방향제 코로나도 체리향 1개</t>
+          <t>불스원 그라스 디퓨저 블루 차량용 방향제 100ml</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29022166369</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24063116873</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2902216/29022166369.20210929024636.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2406311/24063116873.20210111145156.jpg</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>3440</t>
+          <t>14980</t>
         </is>
       </c>
       <c r="F88" t="inlineStr"/>
@@ -5892,7 +5900,11 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I88" t="inlineStr"/>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>불스원</t>
+        </is>
+      </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
@@ -5936,7 +5948,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>20000</t>
+          <t>18000</t>
         </is>
       </c>
       <c r="F89" t="inlineStr"/>
@@ -5987,22 +5999,22 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>쓰리나인 이니셜 커스텀 차량용 방향제 수제 송풍구 차 자동차 이색선물 기념일</t>
+          <t>포포베 차량용방향제 자동차 디퓨저 선물 패키지</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29539346631</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30238144502</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2953934/29539346631.20211105043518.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3023814/30238144502.20211222050944.jpg</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>39000</t>
+          <t>21900</t>
         </is>
       </c>
       <c r="F90" t="inlineStr"/>
@@ -6045,22 +6057,22 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>로이야마모토 로이야 자동차 방향제 차량용 LED 디퓨저 SW-001</t>
+          <t>캘리포니아센트 방향제 코로나도 체리향 1개</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30479640415</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29022166369</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3047964/30479640415.20220110001547.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2902216/29022166369.20210929024636.jpg</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>19800</t>
+          <t>3440</t>
         </is>
       </c>
       <c r="F91" t="inlineStr"/>
@@ -6074,11 +6086,7 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>로이야마모토</t>
-        </is>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
@@ -6107,22 +6115,22 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>토씨 클래시맨 명품 차량용방향제 룸미러걸이형</t>
+          <t>로이야마모토 로이야 자동차 방향제 차량용 LED 디퓨저 SW-001</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25695599950</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30479640415</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2569559/25695599950.20210902144804.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3047964/30479640415.20220110001547.jpg</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>85000</t>
+          <t>19800</t>
         </is>
       </c>
       <c r="F92" t="inlineStr"/>
@@ -6138,14 +6146,10 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>토씨</t>
-        </is>
-      </c>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>토씨</t>
-        </is>
-      </c>
+          <t>로이야마모토</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -6173,22 +6177,22 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>앵그리차일드 한야 차량용방향제 이레즈미 차량용디퓨저 타투 디퓨저</t>
+          <t>디캣 고양이 차량용 방향제 동물 송풍구 클립 대용량 방향제</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30696464055</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30272171955</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3069646/30696464055.20220127031522.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3027217/30272171955.20211224003422.jpg</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>44980</t>
+          <t>9900</t>
         </is>
       </c>
       <c r="F93" t="inlineStr"/>
@@ -6231,22 +6235,22 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>딥티크 차량용 방향제 본품 리필 베이 34번가 진저</t>
+          <t>쓰리나인 이니셜 커스텀 차량용 방향제 수제 송풍구 차 자동차 이색선물 기념일</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26198772033</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29539346631</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2619877/26198772033.20220201042850.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2953934/29539346631.20211105043518.jpg</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>27500</t>
+          <t>39000</t>
         </is>
       </c>
       <c r="F94" t="inlineStr"/>
@@ -6260,11 +6264,7 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>딥티크</t>
-        </is>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
@@ -6293,22 +6293,22 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>조말론 센트투고 차량용 방향제 디퓨저 거치대</t>
+          <t>딥티크 차량용 방향제 본품 리필 베이 34번가 진저</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28963685748</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26198772033</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2896368/28963685748.20210924031047.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2619877/26198772033.20220201042850.jpg</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>18000</t>
+          <t>27500</t>
         </is>
       </c>
       <c r="F95" t="inlineStr"/>
@@ -6324,7 +6324,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>조말론</t>
+          <t>딥티크</t>
         </is>
       </c>
       <c r="J95" t="inlineStr"/>
@@ -6355,43 +6355,43 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>카카오프렌즈 차량용 방향제 모니터걸이 통풍구형 송풍구형 방향제 라이언 방향제 리필 / 본품</t>
+          <t>조말론 런던 차량용 방향제 풀 세트</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=83073964169</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26576380371</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8307396/83073964169.2.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2657638/26576380371.20210330191219.jpg</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>5900</t>
+          <t>63480</t>
         </is>
       </c>
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr">
         <is>
-          <t>LG생활건강 e스토어</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>카카오프렌즈</t>
+          <t>조말론</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>엘지생활건강</t>
+          <t>조말론</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -6421,22 +6421,22 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>조말론 런던 차량용 방향제 풀 세트</t>
+          <t>차량용 디퓨저 gv80 사각 송풍구 클립 네발 석고 방향제</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26576380371</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28685666448</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2657638/26576380371.20210330191219.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2868566/28685666448.20210902222527.jpg</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>63480</t>
+          <t>30</t>
         </is>
       </c>
       <c r="F97" t="inlineStr"/>
@@ -6450,16 +6450,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I97" t="inlineStr">
-        <is>
-          <t>조말론</t>
-        </is>
-      </c>
-      <c r="J97" t="inlineStr">
-        <is>
-          <t>조말론</t>
-        </is>
-      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -6487,37 +6479,45 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>디캣 고양이 차량용 방향제 동물 송풍구 클립 대용량 방향제</t>
+          <t>카카오프렌즈 차량용 방향제 모니터걸이 통풍구형 송풍구형 방향제 라이언 방향제 리필 / 본품</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30272171955</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=83073964169</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3027217/30272171955.20211224003422.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8307396/83073964169.2.jpg</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>9900</t>
+          <t>5900</t>
         </is>
       </c>
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>LG생활건강 e스토어</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
-        </is>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>카카오프렌즈</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>엘지생활건강</t>
+        </is>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -6603,22 +6603,22 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>차량용 디퓨저 gv80 사각 송풍구 클립 네발 석고 방향제</t>
+          <t>쿤달 디퓨저 새차선물 방향제</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28685666448</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27074544271</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2868566/28685666448.20210902222527.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2707454/27074544271.20220112014738.jpg</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>10710</t>
         </is>
       </c>
       <c r="F100" t="inlineStr"/>
@@ -6632,7 +6632,11 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I100" t="inlineStr"/>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>쿤달</t>
+        </is>
+      </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>

--- a/output.xlsx
+++ b/output.xlsx
@@ -516,7 +516,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>35378</t>
+          <t>46550</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
@@ -567,22 +567,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>빅쏘 카로브 차량용방향제 디퓨저 송풍구형</t>
+          <t>마블 스턴 아이언맨 차량용 방향제 ST-IM01</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26310652183</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30644523374</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2631065/26310652183.20211126145332.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3064452/30644523374.20220122233828.jpg</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>19900</t>
+          <t>39000</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
@@ -598,14 +598,10 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>빅쏘</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>빅쏘</t>
-        </is>
-      </c>
+          <t>마블</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -633,22 +629,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>카보노 대쉬보드 거치형 프리미엄 차량용 방향제</t>
+          <t>빅쏘 카로브 차량용방향제 디퓨저 송풍구형</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25371363986</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26310652183</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2537136/25371363986.20220104014030.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2631065/26310652183.20211126145332.jpg</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>46500</t>
+          <t>19900</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
@@ -664,10 +660,14 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>카보노</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr"/>
+          <t>빅쏘</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>빅쏘</t>
+        </is>
+      </c>
       <c r="K5" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -761,22 +761,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>마블 스턴 아이언맨 차량용 방향제 ST-IM01</t>
+          <t>언더스코어 젠틀맨 프리미엄 차량용 방향제 디퓨저</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30644523374</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27137540258</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3064452/30644523374.20220122233828.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2713754/27137540258.20210708110811.jpg</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>39000</t>
+          <t>28480</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
@@ -792,10 +792,14 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>마블</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr"/>
+          <t>언더스코어</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>언더스코어</t>
+        </is>
+      </c>
       <c r="K7" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -889,22 +893,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>언더스코어 젠틀맨 프리미엄 차량용 방향제 디퓨저</t>
+          <t>딥티크 차량용방향제 세트 케이스 + 리필용 캡슐</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27137540258</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28620531681</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2713754/27137540258.20210708110811.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2862053/28620531681.20210829001356.jpg</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>31800</t>
+          <t>42720</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
@@ -920,14 +924,10 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>언더스코어</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>언더스코어</t>
-        </is>
-      </c>
+          <t>딥티크</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -955,22 +955,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>딥티크 차량용방향제 세트 케이스 + 리필용 캡슐</t>
+          <t>카보노 대쉬보드 거치형 프리미엄 차량용 방향제</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28620531681</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25371363986</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2862053/28620531681.20210829001356.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2537136/25371363986.20220104014030.jpg</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>42720</t>
+          <t>46500</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
@@ -986,7 +986,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>딥티크</t>
+          <t>카보노</t>
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
@@ -1083,22 +1083,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>루크타 도베르만 차량용 자동차 송풍구 차 고급 방향제 디퓨저 LT-DB01</t>
+          <t>센트몬스터 고양이 차량용 방향제 고급 디퓨져</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25380843939</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24163460435</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2538084/25380843939.20220113101814.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2416346/24163460435.20210124121840.jpg</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>49000</t>
+          <t>39000</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
@@ -1114,7 +1114,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>루크타</t>
+          <t>센트몬스터</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
@@ -1145,22 +1145,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>센트몬스터 고양이 차량용 방향제 고급 디퓨져</t>
+          <t>루크타 도베르만 차량용 자동차 송풍구 차 고급 방향제 디퓨저 LT-DB01</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24163460435</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25380843939</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2416346/24163460435.20210124121840.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2538084/25380843939.20220113101814.jpg</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>39000</t>
+          <t>49000</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>센트몬스터</t>
+          <t>루크타</t>
         </is>
       </c>
       <c r="J13" t="inlineStr"/>
@@ -1207,22 +1207,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>엠퓨처 불독 송풍구 차량용 방향제 디퓨저 MF-CAF02</t>
+          <t>센트데코 후드독 차량용 방향제 고급 명품 디퓨저 차방향제 새차선물 SCD-01</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30458791731</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30570794618</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3045879/30458791731.20220117151934.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3057079/30570794618.20220223091835.jpg</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>13900</t>
+          <t>29000</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
@@ -1236,8 +1236,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>센트데코</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>센트데코</t>
+        </is>
+      </c>
       <c r="K14" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1265,22 +1273,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>로얄워터 텀블러 모양 차량용 방향제 신차선물</t>
+          <t>엠퓨처 불독 송풍구 차량용 방향제 디퓨저 MF-CAF02</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29835967618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30458791731</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2983596/29835967618.20211125191149.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3045879/30458791731.20220117151934.jpg</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>48530</t>
+          <t>13900</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
@@ -1294,16 +1302,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>로얄워터</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>로얄워터</t>
-        </is>
-      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1331,22 +1331,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>에이비 차량용 방향제 도베르만 고급 AB-DF04</t>
+          <t>플래트 고급 프로펠러 차량용 방향제 F430</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30317520568</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27806043522</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3031752/30317520568.20220110102207.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2780604/27806043522.20210701115440.jpg</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>28000</t>
+          <t>41880</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
@@ -1362,14 +1362,10 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>에이비</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>에이비</t>
-        </is>
-      </c>
+          <t>플래트</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1397,22 +1393,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>블랩 오르브 오브제 고급 차량용 디퓨저 방향제 120ml</t>
+          <t>에이비 차량용 방향제 도베르만 고급 AB-DF04</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30431426701</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30317520568</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3043142/30431426701.20220120021144.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3031752/30317520568.20220110102207.jpg</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>12300</t>
+          <t>28000</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
@@ -1428,12 +1424,12 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>오르브</t>
+          <t>에이비</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>블랩</t>
+          <t>에이비</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1463,22 +1459,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>플래트 고급 프로펠러 차량용 방향제 F430</t>
+          <t>로얄워터 텀블러 모양 차량용 방향제 신차선물</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27806043522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29835967618</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2780604/27806043522.20210701115440.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2983596/29835967618.20211125191149.jpg</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>41880</t>
+          <t>48530</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
@@ -1494,10 +1490,14 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>플래트</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr"/>
+          <t>로얄워터</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>로얄워터</t>
+        </is>
+      </c>
       <c r="K18" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1525,22 +1525,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>JW중외제약 피톤치드 차량용 방향제 피톤케어</t>
+          <t>블랩 오르브 오브제 고급 차량용 디퓨저 방향제 120ml</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=12916212027</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30431426701</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1291621/12916212027.20211116115126.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3043142/30431426701.20220120021144.jpg</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>39780</t>
+          <t>12300</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
@@ -1556,12 +1556,12 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>JW중외제약</t>
+          <t>오르브</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>JW중외제약</t>
+          <t>블랩</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1591,22 +1591,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>센트데코 후드독 차량용 방향제 고급 명품 디퓨저 차방향제 새차선물 SCD-01</t>
+          <t>JW중외제약 피톤치드 차량용 방향제 피톤케어</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30570794618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=12916212027</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3057079/30570794618.20220223091835.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1291621/12916212027.20211116115126.jpg</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>29000</t>
+          <t>39780</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
@@ -1622,12 +1622,12 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>센트데코</t>
+          <t>JW중외제약</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>센트데코</t>
+          <t>JW중외제약</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1657,22 +1657,22 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>메탈아이원 차량용방향제 고급 송풍구방향제 홀더 향스틱2P</t>
+          <t>언더스코어 오버라인 오버타이거 호랑이 퓨마 차량용 방향제 자동차 디퓨저 OL-CFOT</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27657435982</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30404262618</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2765743/27657435982.20210620214337.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3040426/30404262618.20220103184026.jpg</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>10900</t>
+          <t>35030</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
@@ -1686,8 +1686,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>언더스코어</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>언더스코어</t>
+        </is>
+      </c>
       <c r="K21" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1715,22 +1723,22 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>언더스코어 오버라인 오버타이거 호랑이 퓨마 차량용 방향제 자동차 디퓨저 OL-CFOT</t>
+          <t>메탈아이원 차량용방향제 고급 송풍구방향제 홀더 향스틱2P</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30404262618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27657435982</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3040426/30404262618.20220103184026.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2765743/27657435982.20210620214337.jpg</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>35030</t>
+          <t>9920</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
@@ -1744,16 +1752,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>언더스코어</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>언더스코어</t>
-        </is>
-      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1781,22 +1781,22 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>차바치 씨스톤 차량용 방향제</t>
+          <t>딥티크 차량용 방향제 리필 9종류향</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21337624052</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27604493058</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2133762/21337624052.20191119171610.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2760449/27604493058.20210617024518.jpg</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>24900</t>
+          <t>37500</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
@@ -1812,10 +1812,14 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>차바치</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr"/>
+          <t>딥티크</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>딥티크</t>
+        </is>
+      </c>
       <c r="K23" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1843,22 +1847,22 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>딥티크 차량용 방향제 리필 9종류향</t>
+          <t>차바치 씨스톤 차량용 방향제</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27604493058</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21337624052</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2760449/27604493058.20210617024518.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2133762/21337624052.20191119171610.jpg</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>37500</t>
+          <t>24900</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
@@ -1874,14 +1878,10 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>딥티크</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>딥티크</t>
-        </is>
-      </c>
+          <t>차바치</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1909,22 +1909,22 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>양키캔들 프레그런스 스피어스 차량용 방향제</t>
+          <t>디프로젝트 디릴라고 고릴라 차량용방향제 자동차 디퓨저 DP-DRL03</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27954927224</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26801331279</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2795492/27954927224.20210711203524.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2680133/26801331279.20211222172904.jpg</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>3620</t>
+          <t>49000</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
@@ -1940,12 +1940,12 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>양키캔들</t>
+          <t>디프로젝트</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>양키캔들</t>
+          <t>디프로젝트</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -1975,22 +1975,22 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>디프로젝트 디릴라고 고릴라 차량용방향제 자동차 디퓨저 DP-DRL03</t>
+          <t>양키캔들 프레그런스 스피어스 차량용 방향제</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26801331279</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27954927224</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2680133/26801331279.20211222172904.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2795492/27954927224.20210711203524.jpg</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>49000</t>
+          <t>3560</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
@@ -2006,12 +2006,12 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>디프로젝트</t>
+          <t>양키캔들</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>디프로젝트</t>
+          <t>양키캔들</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2041,22 +2041,22 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>딥티크 차량용 방향제 케이스 베이 리필 세트</t>
+          <t>불스원 그라스 디퓨져 차량용 방향제 105ml</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28546536156</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=12140232094</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2854653/28546536156.20220224012118.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1214023/12140232094.20211006140204.jpg</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>27300</t>
+          <t>9500</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
@@ -2072,10 +2072,14 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>딥티크</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr"/>
+          <t>불스원</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>불스원</t>
+        </is>
+      </c>
       <c r="K27" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2103,22 +2107,22 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>미스터앤미세스 니키 차량용 방향제 리필</t>
+          <t>딥티크 차량용 방향제 케이스 베이 리필 세트</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=10149695240</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28546536156</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1014969/10149695240.20201014180005.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2854653/28546536156.20220224012118.jpg</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>4390</t>
+          <t>28700</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
@@ -2132,7 +2136,11 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr"/>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>딥티크</t>
+        </is>
+      </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
@@ -2161,22 +2169,22 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>불스원 그라스 디퓨져 차량용 방향제 105ml</t>
+          <t>리틀트리 걸이형 종이 방향제</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=12140232094</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=7162545992</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1214023/12140232094.20211006140204.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_7162545/7162545992.20190731170829.jpg</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>9500</t>
+          <t>860</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
@@ -2190,16 +2198,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>불스원</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>불스원</t>
-        </is>
-      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2227,22 +2227,22 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>엠퓨처 큐빅베어 1P 차량용 베어브릭 방향제 명품 디퓨저 MF-CAF01</t>
+          <t>미스터앤미세스 니키 차량용 방향제 리필</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30506047035</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=10149695240</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3050604/30506047035.20220111221900.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1014969/10149695240.20201014180005.jpg</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>15900</t>
+          <t>4390</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
@@ -2351,22 +2351,22 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>딥티크 Diptyque 자동차 방향제 세트 송풍케이스 리필용 로즈</t>
+          <t>에이비 큐빅베어브릭 차량용 방향제 차방향제 디퓨저 고급 AB-DF02</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28631448191</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27944185800</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2863144/28631448191.20210830004730.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2794418/27944185800.20220223113823.jpg</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>65000</t>
+          <t>18900</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
@@ -2382,10 +2382,14 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>딥티크</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr"/>
+          <t>에이비</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>에이비</t>
+        </is>
+      </c>
       <c r="K32" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2413,22 +2417,22 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>더드림 꽃 베어브릭 석고 차량용 방향제 귀여운 자동차 송풍구 디퓨저</t>
+          <t>딥티크 Diptyque 자동차 방향제 세트 송풍케이스 리필용 로즈</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27124471579</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28631448191</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2712447/27124471579.20210512182954.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2863144/28631448191.20210830004730.jpg</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11700</t>
+          <t>65000</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
@@ -2444,7 +2448,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>더드림</t>
+          <t>딥티크</t>
         </is>
       </c>
       <c r="J33" t="inlineStr"/>
@@ -2475,22 +2479,22 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>카카오프렌즈 차량용방향제 통풍구형 라이언 어피치</t>
+          <t>더드림 꽃 베어브릭 석고 차량용 방향제 귀여운 자동차 송풍구 디퓨저</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24045761869</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27124471579</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2404576/24045761869.20210928022130.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2712447/27124471579.20210512182954.jpg</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>13800</t>
+          <t>11700</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
@@ -2506,7 +2510,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>카카오프렌즈</t>
+          <t>더드림</t>
         </is>
       </c>
       <c r="J34" t="inlineStr"/>
@@ -2537,22 +2541,22 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>에이비 큐빅베어브릭 차량용 방향제 차방향제 디퓨저 고급 AB-DF02</t>
+          <t>엠퓨처 큐빅베어 1P 차량용 베어브릭 방향제 명품 디퓨저 MF-CAF01</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27944185800</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30506047035</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2794418/27944185800.20220223113823.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3050604/30506047035.20220111221900.jpg</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>18900</t>
+          <t>15900</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
@@ -2566,16 +2570,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>에이비</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>에이비</t>
-        </is>
-      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2603,22 +2599,22 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>디프로젝트 리필킷 디불 디버니 디릴라고 차량용방향제 자동차 디퓨저 고체 리필 DP-RF02</t>
+          <t>카카오프렌즈 차량용방향제 통풍구형 라이언 어피치</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18367838563</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24045761869</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1836783/18367838563.20211108142647.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2404576/24045761869.20210928022130.jpg</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>13000</t>
+          <t>13800</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
@@ -2634,14 +2630,10 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>디프로젝트</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>디프로젝트</t>
-        </is>
-      </c>
+          <t>카카오프렌즈</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2735,22 +2727,22 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>캘리포니아센트 캔타입 방향제 15종</t>
+          <t>디프로젝트 리필킷 디불 디버니 디릴라고 차량용방향제 자동차 디퓨저 고체 리필 DP-RF02</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27414604011</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18367838563</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2741460/27414604011.20210602231933.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1836783/18367838563.20211108142647.jpg</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>3190</t>
+          <t>13000</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
@@ -2764,8 +2756,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>디프로젝트</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>디프로젝트</t>
+        </is>
+      </c>
       <c r="K38" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2793,22 +2793,22 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>리틀트리 걸이형 종이 방향제</t>
+          <t>양키캔들 벤트스틱 차량용 방향제 4P입</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=7162545992</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=6552648097</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_7162545/7162545992.20190731170829.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_6552648/6552648097.20190731160942.jpg</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>850</t>
+          <t>2740</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
@@ -2822,8 +2822,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>양키캔들</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>양키캔들</t>
+        </is>
+      </c>
       <c r="K39" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2851,22 +2859,22 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>양키캔들 벤트스틱 차량용 방향제 4P입</t>
+          <t>디프로젝트 디버니 토끼 차량용방향제 자동차 디퓨저 DP-DBN02</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=6552648097</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27331951522</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_6552648/6552648097.20190731160942.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2733195/27331951522.20211222172819.jpg</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2740</t>
+          <t>49000</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
@@ -2882,12 +2890,12 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>양키캔들</t>
+          <t>디프로젝트</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>양키캔들</t>
+          <t>디프로젝트</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -2917,22 +2925,22 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>명품고급디퓨저 마일론 갤러리1 차량용 방향제 MGAL-01</t>
+          <t>캘리포니아센트 캔타입 방향제 15종</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30352215619</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27414604011</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3035221/30352215619.20220102155103.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2741460/27414604011.20210602231933.jpg</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>49000</t>
+          <t>3190</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
@@ -2946,16 +2954,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>마일론</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>명품고급디퓨저</t>
-        </is>
-      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2983,22 +2983,22 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>디프로젝트 디버니 토끼 차량용방향제 자동차 디퓨저 DP-DBN02</t>
+          <t>픽도큐먼트 베어브릭 송풍구 차량용 방향제</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27331951522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29900193281</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2733195/27331951522.20211222172819.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2990019/29900193281.20211208030917.jpg</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>49000</t>
+          <t>14900</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
@@ -3012,16 +3012,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>디프로젝트</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>디프로젝트</t>
-        </is>
-      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3049,22 +3041,22 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>픽도큐먼트 베어브릭 송풍구 차량용 방향제</t>
+          <t>명품고급디퓨저 마일론 갤러리1 차량용 방향제 MGAL-01</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29900193281</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30352215619</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2990019/29900193281.20211208030917.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3035221/30352215619.20220102155103.jpg</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>14900</t>
+          <t>49000</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
@@ -3078,8 +3070,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>마일론</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>명품고급디퓨저</t>
+        </is>
+      </c>
       <c r="K43" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3107,45 +3107,41 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>조말론 차량용 방향제 센트투고 명품향수 고급 디퓨저 거치대</t>
+          <t>카카오프렌즈 모니터걸이 방향제 어피치+라이언</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=83025886866</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27139606827</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8302588/83025886866.4.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2713960/27139606827.20210513203418.jpg</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>48500</t>
+          <t>30960</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
-          <t>홍콩걸즈</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>조말론</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>조말론</t>
-        </is>
-      </c>
+          <t>카카오프렌즈</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3173,22 +3169,22 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>카카오프렌즈 모니터걸이 방향제 어피치+라이언</t>
+          <t>도그독 명품 리본독 차량용 방향제 고급 디퓨저 불독 D-E2</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27139606827</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30000303618</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2713960/27139606827.20210513203418.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3000030/30000303618.20220215142352.jpg</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>30960</t>
+          <t>48800</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
@@ -3204,10 +3200,14 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>카카오프렌즈</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr"/>
+          <t>도그독</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>도그독</t>
+        </is>
+      </c>
       <c r="K45" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3235,37 +3235,45 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>FYC 고급 명품 불독 차량용 방향제 디퓨저</t>
+          <t>조말론 차량용 방향제 센트투고 명품향수 고급 디퓨저 거치대</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24941672502</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=83025886866</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2494167/24941672502.20201122175400.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8302588/83025886866.4.jpg</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>39000</t>
+          <t>48500</t>
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>홍콩걸즈</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>조말론</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>조말론</t>
+        </is>
+      </c>
       <c r="K46" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3293,22 +3301,22 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>바흐가르트 차량용 석고 송풍구 방향제</t>
+          <t>조말론 조말론 차량용 송풍구 방향제 센트투고 거치대포함</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30841337224</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30506938714</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3084133/30841337224.20220208023232.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3050693/30506938714.20220112013652.jpg</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>48900</t>
+          <t>26660</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
@@ -3324,10 +3332,14 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>바흐가르트</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr"/>
+          <t>조말론</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>조말론</t>
+        </is>
+      </c>
       <c r="K47" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3421,22 +3433,22 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>헤니르 송풍구 클립형 파일럿 베어 차량용 방향제</t>
+          <t>바흐가르트 차량용 석고 송풍구 방향제</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29861388136</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30841337224</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2986138/29861388136.20211129014233.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3084133/30841337224.20220208023232.jpg</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>12000</t>
+          <t>48900</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
@@ -3452,7 +3464,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>헤니르</t>
+          <t>바흐가르트</t>
         </is>
       </c>
       <c r="J49" t="inlineStr"/>
@@ -3483,22 +3495,22 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>카늘 글래디에이터 차량용 방향제</t>
+          <t>헤니르 송풍구 클립형 파일럿 베어 차량용 방향제</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20826026697</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29861388136</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2082602/20826026697.20210217230953.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2986138/29861388136.20211129014233.jpg</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>19800</t>
+          <t>12000</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
@@ -3514,7 +3526,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>카늘</t>
+          <t>헤니르</t>
         </is>
       </c>
       <c r="J50" t="inlineStr"/>
@@ -3545,22 +3557,22 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>훠링 하이센트 차량용 방향제 컵홀더형 95g</t>
+          <t>앵그리차일드 한야 프리미엄 차량용방향제</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26601404523</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30696464055</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2660140/26601404523.20210420172441.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3069646/30696464055.20220127031522.jpg</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>43000</t>
+          <t>44480</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
@@ -3574,16 +3586,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>훠링</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>훠링</t>
-        </is>
-      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3611,22 +3615,22 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>에이센트 네이처 차량용 디퓨저 방향제 120ml</t>
+          <t>FYC 고급 명품 불독 차량용 방향제 디퓨저</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27334130786</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24941672502</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2733413/27334130786.20211216041142.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2494167/24941672502.20201122175400.jpg</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>7440</t>
+          <t>39000</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
@@ -3640,11 +3644,7 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>에이센트</t>
-        </is>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
@@ -3731,22 +3731,22 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>레모 차량용 프로펠러 머스탱 송풍구 방향제</t>
+          <t>훠링 하이센트 차량용 방향제 컵홀더형 95g</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24114474449</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26601404523</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2411447/24114474449.20200910212921.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2660140/26601404523.20210420172441.jpg</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>19000</t>
+          <t>43000</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
@@ -3760,8 +3760,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>훠링</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>훠링</t>
+        </is>
+      </c>
       <c r="K54" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3789,22 +3797,22 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>앵그리차일드 한야 프리미엄 차량용방향제</t>
+          <t>에이센트 네이처 차량용 디퓨저 방향제 120ml</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30696464055</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27334130786</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3069646/30696464055.20220127031522.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2733413/27334130786.20211216041142.jpg</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>44480</t>
+          <t>7440</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
@@ -3818,7 +3826,11 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I55" t="inlineStr"/>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>에이센트</t>
+        </is>
+      </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
@@ -3847,22 +3859,22 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>라미유 차량용 고급 송풍구 방향제 블랙체리향 1+1</t>
+          <t>레모 차량용 프로펠러 머스탱 송풍구 방향제</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30586965618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24114474449</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3058696/30586965618.20220118105349.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2411447/24114474449.20200910212921.jpg</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>15900</t>
+          <t>19000</t>
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
@@ -3876,16 +3888,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>라미유</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>라미유</t>
-        </is>
-      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3913,22 +3917,22 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>불스원 폴라프레쉬 선바이저 방향제 리필</t>
+          <t>라미유 차량용 고급 송풍구 방향제 블랙체리향 1+1</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=17787599329</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30586965618</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1778759/17787599329.20220107133652.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3058696/30586965618.20220118105349.jpg</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2130</t>
+          <t>15900</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
@@ -3944,12 +3948,12 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>불스원</t>
+          <t>라미유</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>불스원</t>
+          <t>라미유</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -3979,22 +3983,22 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>제로스킨 로보트 태권브이 차량용 방향제 자동차 디퓨저 AD-KF90</t>
+          <t>불스원 폴라프레쉬 선바이저 방향제 리필</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29535937618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=17787599329</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2953593/29535937618.20211216102403.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1778759/17787599329.20220107133652.jpg</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>46020</t>
+          <t>2130</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
@@ -4010,12 +4014,12 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>제로스킨</t>
+          <t>불스원</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>제로스킨</t>
+          <t>불스원</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -4045,22 +4049,22 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>산도깨비 차량용 멤브렌 리필 방향제 x 10개입 휘튼치드</t>
+          <t>카늘 글래디에이터 차량용 방향제</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25695237598</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20826026697</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2569523/25695237598.20211215041018.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2082602/20826026697.20210217230953.jpg</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>21480</t>
+          <t>19800</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
@@ -4076,7 +4080,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>산도깨비</t>
+          <t>카늘</t>
         </is>
       </c>
       <c r="J59" t="inlineStr"/>
@@ -4107,22 +4111,22 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>베어브릭 석고방향제 새차선물 차량용 엠블럼 답례품 자동차 소품 디퓨저 지인선물 생일</t>
+          <t>제로스킨 로보트 태권브이 차량용 방향제 자동차 디퓨저 AD-KF90</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30817509563</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29535937618</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3081750/30817509563.20220206000038.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2953593/29535937618.20211216102403.jpg</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>29860</t>
+          <t>46020</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
@@ -4136,8 +4140,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>제로스킨</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>제로스킨</t>
+        </is>
+      </c>
       <c r="K60" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4165,22 +4177,22 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>도그독 명품 리본독 차량용 방향제 고급 디퓨저 불독 D-E2</t>
+          <t>산도깨비 차량용 멤브렌 리필 방향제 x 10개입 휘튼치드</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30000303618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25695237598</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3000030/30000303618.20220215142352.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2569523/25695237598.20211215041018.jpg</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>48800</t>
+          <t>21480</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
@@ -4196,14 +4208,10 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>도그독</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>도그독</t>
-        </is>
-      </c>
+          <t>산도깨비</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4231,22 +4239,22 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>조말론 조말론 차량용 송풍구 방향제 센트투고 거치대포함</t>
+          <t>센텍 지엠지모터스 프리티 차량용방향제</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30506938714</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=14880698741</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3050693/30506938714.20220112013652.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1488069/14880698741.20210812112321.jpg</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>26660</t>
+          <t>7500</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
@@ -4262,12 +4270,12 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>조말론</t>
+          <t>지엠지모터스</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>조말론</t>
+          <t>센텍</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -4297,22 +4305,22 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>차량용 디퓨저 gv80 사각 송풍구 클립 네발 석고 방향제</t>
+          <t>리틀트리 안전한 종이방향제 실내방향제 모음전</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28685666448</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25190591305</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2868566/28685666448.20210902222527.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2519059/25190591305.20201211215631.jpg</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>840</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
@@ -4413,22 +4421,22 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>리틀트리 안전한 종이방향제 실내방향제 모음전</t>
+          <t>유니레버 스너글 곰돌이 방향제 21g 5종 3개입</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25190591305</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28658857392</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2519059/25190591305.20201211215631.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2865885/28658857392.20210831223854.jpg</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>840</t>
+          <t>2200</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
@@ -4442,8 +4450,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>스너글</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>유니레버</t>
+        </is>
+      </c>
       <c r="K65" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4471,22 +4487,22 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>유니레버 스너글 곰돌이 방향제 21g 5종 3개입</t>
+          <t>차량용 디퓨저 gv80 사각 송풍구 클립 네발 석고 방향제</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28658857392</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28685666448</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2865885/28658857392.20210831223854.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2868566/28685666448.20210902222527.jpg</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2200</t>
+          <t>30</t>
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
@@ -4500,16 +4516,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>스너글</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>유니레버</t>
-        </is>
-      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4537,22 +4545,22 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>양키캔들 차밍센츠 고급 차량용 방향제 리필 16g</t>
+          <t>양키캔들 차량용 방향제 얼티메이트 카자</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24073000302</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24075378761</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2407300/24073000302.20200907200512.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2407537/24075378761.20200908033619.jpg</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>4640</t>
+          <t>3300</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
@@ -4571,7 +4579,11 @@
           <t>양키캔들</t>
         </is>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>양키캔들</t>
+        </is>
+      </c>
       <c r="K67" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4599,22 +4611,22 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>센텍 지엠지모터스 프리티 차량용방향제</t>
+          <t>양키캔들 차밍센츠 고급 차량용 방향제 리필 16g</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=14880698741</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24073000302</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1488069/14880698741.20210812112321.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2407300/24073000302.20200907200512.jpg</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>7500</t>
+          <t>4570</t>
         </is>
       </c>
       <c r="F68" t="inlineStr"/>
@@ -4630,14 +4642,10 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>지엠지모터스</t>
-        </is>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>센텍</t>
-        </is>
-      </c>
+          <t>양키캔들</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4665,22 +4673,22 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>양키캔들 차량용 방향제 얼티메이트 카자</t>
+          <t>P&amp;amp;G 페브리즈 차량용 방향제 2.2ml 3개</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24075378761</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20397190459</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2407537/24075378761.20200908033619.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2039719/20397190459.20190726113415.jpg</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>3260</t>
+          <t>7940</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
@@ -4696,12 +4704,12 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>양키캔들</t>
+          <t>페브리즈</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>양키캔들</t>
+          <t>P&amp;G</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -4731,22 +4739,22 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>페브리즈 차량용 방향제 맑은하늘바람 2.2ml</t>
+          <t>미스터앤미세스 니키 클래식 차량용 방향제 본품</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30394971480</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25359648694</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3039497/30394971480.20220224152649.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2535964/25359648694.20201224195431.jpg</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>3900</t>
+          <t>9500</t>
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
@@ -4760,11 +4768,7 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>페브리즈</t>
-        </is>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
@@ -4793,22 +4797,22 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>P&amp;amp;G 페브리즈 차량용 방향제 2.2ml 3개</t>
+          <t>KAN 뷰센트 De.Line 차량용 방향제 싱글세트</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20397190459</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18985549503</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2039719/20397190459.20190726113415.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1898554/18985549503.20210713121106.jpg</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>7940</t>
+          <t>12900</t>
         </is>
       </c>
       <c r="F71" t="inlineStr"/>
@@ -4824,12 +4828,12 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>페브리즈</t>
+          <t>뷰센트</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>P&amp;G</t>
+          <t>KAN</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -4859,22 +4863,22 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>미스터앤미세스 니키 클래식 차량용 방향제 본품</t>
+          <t>불스원 그라스 디퓨저 블루 차량용 방향제 100ml</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25359648694</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24063116873</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2535964/25359648694.20201224195431.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2406311/24063116873.20210111145156.jpg</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>9500</t>
+          <t>13850</t>
         </is>
       </c>
       <c r="F72" t="inlineStr"/>
@@ -4888,7 +4892,11 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I72" t="inlineStr"/>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>불스원</t>
+        </is>
+      </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
@@ -4917,22 +4925,22 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>KAN 뷰센트 De.Line 차량용 방향제 싱글세트</t>
+          <t>로베르타디까메리노 원형 대용량 방향제 100ml 2P</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18985549503</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=5640406696</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1898554/18985549503.20210713121106.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_5640406/5640406696.20190805143958.jpg</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>12900</t>
+          <t>13800</t>
         </is>
       </c>
       <c r="F73" t="inlineStr"/>
@@ -4948,12 +4956,12 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>뷰센트</t>
+          <t>로베르타디까메리노</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>KAN</t>
+          <t>로베르타디까메리노</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -5049,22 +5057,22 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>진로 소주 송풍구 디퓨저 차량용 자동차 고급 방향제</t>
+          <t>피톤치드 차량용 방향제 제스퍼 에어피톤 배터리형</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28904371459</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27705110029</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2890437/28904371459.20220114025946.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2770511/27705110029.20210624003814.jpg</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10880</t>
+          <t>14920</t>
         </is>
       </c>
       <c r="F75" t="inlineStr"/>
@@ -5107,22 +5115,22 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>제이엠제이라인 도슈아 차량용 방향제 리필 도자기</t>
+          <t>페브리즈 차량용 방향제 맑은하늘바람 2.2ml</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20347407194</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30394971480</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2034740/20347407194.20211001120304.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3039497/30394971480.20220224152649.jpg</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>3190</t>
         </is>
       </c>
       <c r="F76" t="inlineStr"/>
@@ -5138,14 +5146,10 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>도슈아</t>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>제이엠제이라인</t>
-        </is>
-      </c>
+          <t>페브리즈</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -5173,22 +5177,22 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>딥티크 차량용 방향제 본품 리필 베이 34번가 진저</t>
+          <t>제이엠제이라인 도슈아 차량용 방향제 리필 도자기</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26198772033</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20347407194</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2619877/26198772033.20220201042850.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2034740/20347407194.20211001120304.jpg</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>27500</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="F77" t="inlineStr"/>
@@ -5204,10 +5208,14 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>딥티크</t>
-        </is>
-      </c>
-      <c r="J77" t="inlineStr"/>
+          <t>도슈아</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>제이엠제이라인</t>
+        </is>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -5235,22 +5243,22 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>로베르타디까메리노 원형 대용량 방향제 100ml 2P</t>
+          <t>포포베 차량용방향제 자동차 디퓨저 선물 패키지</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=5640406696</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30238144502</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_5640406/5640406696.20190805143958.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3023814/30238144502.20211222050944.jpg</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>13800</t>
+          <t>21900</t>
         </is>
       </c>
       <c r="F78" t="inlineStr"/>
@@ -5264,16 +5272,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>로베르타디까메리노</t>
-        </is>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>로베르타디까메리노</t>
-        </is>
-      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -5301,36 +5301,40 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>카카오프렌즈 라이언 어피치 모니터걸이 모니터걸이형 네비게이션 걸이형 방향제</t>
+          <t>포맨트 퍼퓸 썸퓨저 차량용 방향제</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=83484034800</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20901530534</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8348403/83484034800.1.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2090153/20901530534.20211028161645.jpg</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>19900</t>
+          <t>27500</t>
         </is>
       </c>
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr">
         <is>
-          <t>ZENZEN MARKET</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr"/>
+          <t>일반 - 가격비교 상품</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>포맨트</t>
+        </is>
+      </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
@@ -5359,22 +5363,22 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>포맨트 퍼퓸 썸퓨저 차량용 방향제</t>
+          <t>디캣 고양이 차량용 방향제 동물 송풍구 클립 대용량 방향제</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20901530534</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30272171955</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2090153/20901530534.20211028161645.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3027217/30272171955.20211224003422.jpg</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>27500</t>
+          <t>9900</t>
         </is>
       </c>
       <c r="F80" t="inlineStr"/>
@@ -5388,11 +5392,7 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>포맨트</t>
-        </is>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
@@ -5421,22 +5421,22 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>포포베 차량용방향제 자동차 디퓨저 선물 패키지</t>
+          <t>딥티크 차량용 방향제 본품 리필 베이 34번가 진저</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30238144502</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26198772033</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3023814/30238144502.20211222050944.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2619877/26198772033.20220201042850.jpg</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>21900</t>
+          <t>12000</t>
         </is>
       </c>
       <c r="F81" t="inlineStr"/>
@@ -5450,7 +5450,11 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I81" t="inlineStr"/>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>딥티크</t>
+        </is>
+      </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
@@ -5479,43 +5483,43 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>토씨 클래시맨 명품 차량용방향제 룸미러걸이형</t>
+          <t>조말론 센트투고 차량방향제 자동차 쇼핑백 기본리본포장</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25695599950</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=83296295354</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2569559/25695599950.20210902144804.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8329629/83296295354.2.jpg</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>85000</t>
+          <t>49900</t>
         </is>
       </c>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>더딥스토어</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>토씨</t>
+          <t>조말론</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>토씨</t>
+          <t>조말론</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -5545,43 +5549,43 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>JW중외제약 JW생활건강 피톤케어 차량용 방향제 리필 카트리지</t>
+          <t>오마르 퍼퓸베어 베어브릭 자동차 송풍구 차량용방향제</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=15901498616</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82706965947</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1590149/15901498616.20211116120223.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8270696/82706965947.4.jpg</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>21750</t>
+          <t>14600</t>
         </is>
       </c>
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>크로바세제</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>JW생활건강</t>
+          <t>오마르</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>JW중외제약</t>
+          <t>크로바케미칼</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -5611,40 +5615,36 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>불스원 그라스 디퓨저 블루 차량용 방향제 100ml</t>
+          <t>카카오프렌즈 라이언 어피치 모니터걸이 모니터걸이형 네비게이션 걸이형 방향제</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24063116873</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=83484034800</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2406311/24063116873.20210111145156.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8348403/83484034800.1.jpg</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>13850</t>
+          <t>19900</t>
         </is>
       </c>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>ZENZEN MARKET</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>불스원</t>
-        </is>
-      </c>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
@@ -5673,43 +5673,43 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>오마르 퍼퓸베어 베어브릭 자동차 송풍구 차량용방향제</t>
+          <t>토씨 클래시맨 명품 차량용방향제 룸미러걸이형</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82706965947</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25695599950</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8270696/82706965947.4.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2569559/25695599950.20210902144804.jpg</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>14600</t>
+          <t>85000</t>
         </is>
       </c>
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr">
         <is>
-          <t>크로바세제</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>오마르</t>
+          <t>토씨</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>크로바케미칼</t>
+          <t>토씨</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -5739,22 +5739,22 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>디캣 고양이 차량용 방향제 동물 송풍구 클립 대용량 방향제</t>
+          <t>칠라릴라 크롬블랙 차량용 자동차 방향제 고급 디퓨저</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30272171955</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28621039462</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3027217/30272171955.20211224003422.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2862103/28621039462.20211108103254.jpg</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>9900</t>
+          <t>29000</t>
         </is>
       </c>
       <c r="F86" t="inlineStr"/>
@@ -5797,22 +5797,22 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>칠라릴라 크롬블랙 차량용 자동차 방향제 고급 디퓨저</t>
+          <t>JW중외제약 JW생활건강 피톤케어 차량용 방향제 리필 카트리지</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28621039462</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=15901498616</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2862103/28621039462.20211108103254.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1590149/15901498616.20211116120223.jpg</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>39000</t>
+          <t>21750</t>
         </is>
       </c>
       <c r="F87" t="inlineStr"/>
@@ -5826,8 +5826,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>JW생활건강</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>JW중외제약</t>
+        </is>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -5855,45 +5863,37 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>조말론 센트투고 차량방향제 자동차 쇼핑백 기본리본포장</t>
+          <t>베어브릭 석고방향제 새차선물 차량용 엠블럼 답례품 자동차 소품 디퓨저 지인선물 생일</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=83296295354</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30817509563</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8329629/83296295354.2.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3081750/30817509563.20220206000038.jpg</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>49900</t>
+          <t>29900</t>
         </is>
       </c>
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr">
         <is>
-          <t>더딥스토어</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>조말론</t>
-        </is>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>조말론</t>
-        </is>
-      </c>
+          <t>일반 - 가격비교 상품</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -5921,22 +5921,22 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>피톤치드 차량용 방향제 제스퍼 에어피톤 배터리형</t>
+          <t>불스원 GRASSE 그라스 디퓨저 방향제</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27705110029</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24073924737</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2770511/27705110029.20210624003814.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2407392/24073924737.20200907231547.jpg</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>14740</t>
+          <t>7450</t>
         </is>
       </c>
       <c r="F89" t="inlineStr"/>
@@ -5950,7 +5950,11 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I89" t="inlineStr"/>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>불스원</t>
+        </is>
+      </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
@@ -5979,22 +5983,22 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>불스원 그라스 오브제 디퓨저 차량용 방향제 100ml</t>
+          <t>진로 소주 송풍구 디퓨저 차량용 자동차 고급 방향제</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30425453618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28904371459</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3042545/30425453618.20220105100536.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2890437/28904371459.20220114025946.jpg</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>20360</t>
+          <t>10880</t>
         </is>
       </c>
       <c r="F90" t="inlineStr"/>
@@ -6008,16 +6012,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>불스원</t>
-        </is>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>불스원</t>
-        </is>
-      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -6045,41 +6041,45 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>벤볼릭 명품 차량용 방향제 고급 자동차 차량 디퓨져</t>
+          <t>불스원 그라스 오브제 디퓨저 차량용 방향제 100ml</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82293143959</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30425453618</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8229314/82293143959.16.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3042545/30425453618.20220105100536.jpg</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>28000</t>
+          <t>20310</t>
         </is>
       </c>
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr">
         <is>
-          <t>매드포모던</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>벤볼릭</t>
-        </is>
-      </c>
-      <c r="J91" t="inlineStr"/>
+          <t>불스원</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>불스원</t>
+        </is>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -6107,22 +6107,22 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>아우라 카카오 모니터걸이형 방향제 라이언 블루스카이향 10g x1개</t>
+          <t>캘리포니아센트 방향제 코로나도 체리향 1개</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24014062100</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29022166369</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2401406/24014062100.20200903003222.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2902216/29022166369.20210929024636.jpg</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>14710</t>
+          <t>2500</t>
         </is>
       </c>
       <c r="F92" t="inlineStr"/>
@@ -6165,22 +6165,22 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>미스터앤미세스 체사레 시저 차량용 방향제</t>
+          <t>아우라 카카오 모니터걸이형 방향제 라이언 블루스카이향 10g x1개</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=8119194241</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24014062100</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8119194/8119194241.20190802121728.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2401406/24014062100.20200903003222.jpg</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>6990</t>
+          <t>14690</t>
         </is>
       </c>
       <c r="F93" t="inlineStr"/>
@@ -6223,22 +6223,22 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>캘리포니아센트 방향제 코로나도 체리향 1개</t>
+          <t>미스터앤미세스 체사레 시저 차량용 방향제</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29022166369</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=8119194241</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2902216/29022166369.20210929024636.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8119194/8119194241.20190802121728.jpg</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>6990</t>
         </is>
       </c>
       <c r="F94" t="inlineStr"/>
@@ -6281,36 +6281,40 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>모가니 디그니티 오브제 명품 고급 차량용 방향제</t>
+          <t>벤볼릭 명품 차량용 방향제 고급 자동차 차량 디퓨져</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30654328079</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82293143959</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3065432/30654328079.20220125022650.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8229314/82293143959.16.jpg</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>33500</t>
+          <t>28000</t>
         </is>
       </c>
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>매드포모던</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
-        </is>
-      </c>
-      <c r="I95" t="inlineStr"/>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>벤볼릭</t>
+        </is>
+      </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
@@ -6339,33 +6343,33 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>미스터앤미세스 니키 본품/리필 차량용 방향제</t>
+          <t>청개구리 멤브렌 방향제 공기청향제 탈취제 산도깨비</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=10017842540</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29899764272</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1001784/10017842540.12.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2989976/29899764272.20211201020417.jpg</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>7200</t>
+          <t>1500</t>
         </is>
       </c>
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr">
         <is>
-          <t>반도향기나라</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
@@ -6397,22 +6401,22 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>양키캔들 차량용방향제 프레그런스 스피어스 인기향</t>
+          <t>조말론 센트투고 차량용방향제 신차선물 3종세트</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30247866969</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27293227878</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3024786/30247866969.20211222014950.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2729322/27293227878.20210525024824.jpg</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>3870</t>
+          <t>13000</t>
         </is>
       </c>
       <c r="F97" t="inlineStr"/>
@@ -6428,12 +6432,12 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>양키캔들</t>
+          <t>조말론</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>양키캔들</t>
+          <t>조말론</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -6463,22 +6467,22 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>아우라 카카오 어피치 모니터걸이형 방향제 4.5ml</t>
+          <t>모가니 디그니티 오브제 명품 고급 차량용 방향제</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26955394520</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30654328079</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2695539/26955394520.20210428203230.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3065432/30654328079.20220125022650.jpg</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>15390</t>
+          <t>33500</t>
         </is>
       </c>
       <c r="F98" t="inlineStr"/>
@@ -6492,11 +6496,7 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I98" t="inlineStr">
-        <is>
-          <t>아우라</t>
-        </is>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
@@ -6525,45 +6525,37 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>조말론 센트투고 차량용방향제 신차선물 3종세트</t>
+          <t>미스터앤미세스 니키 본품/리필 차량용 방향제</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27293227878</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=10017842540</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2729322/27293227878.20210525024824.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1001784/10017842540.12.jpg</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>13000</t>
+          <t>7200</t>
         </is>
       </c>
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>반도향기나라</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
-        </is>
-      </c>
-      <c r="I99" t="inlineStr">
-        <is>
-          <t>조말론</t>
-        </is>
-      </c>
-      <c r="J99" t="inlineStr">
-        <is>
-          <t>조말론</t>
-        </is>
-      </c>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -6591,22 +6583,22 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>청개구리 멤브렌 방향제 공기청향제 탈취제 산도깨비</t>
+          <t>태양열 프로펠러 헬기 차량용 방향제 083</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29899764272</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24046348048</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2989976/29899764272.20211201020417.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2404634/24046348048.20220201035232.jpg</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>1500</t>
+          <t>13890</t>
         </is>
       </c>
       <c r="F100" t="inlineStr"/>
@@ -6649,22 +6641,22 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>로이야마모토 로이야 자동차 방향제 차량용 LED 디퓨저 SW-001</t>
+          <t>불스원 폴라패밀리 선바이저 방향제 상쾌한아쿠아</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30479640415</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30458903321</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3047964/30479640415.20220110001547.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3045890/30458903321.20220108001547.jpg</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>17900</t>
+          <t>3400</t>
         </is>
       </c>
       <c r="F101" t="inlineStr"/>
@@ -6678,12 +6670,12 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>로이야마모토</t>
-        </is>
-      </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>불스원</t>
+        </is>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
           <t>생활/건강</t>

--- a/output.xlsx
+++ b/output.xlsx
@@ -439,22 +439,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>라피네르 베이직 디퓨저 블랙에디션 차량용 방향제 120ml</t>
+          <t>에이비 베어브릭 차량용방향제 석고 고급 디퓨저 차방향제  ab-df01</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29178319224</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27765010523</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2917831/29178319224.20220125123447.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2776501/27765010523.20220303170756.jpg</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>21880</t>
+          <t>12900</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
@@ -470,10 +470,14 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>라피네르</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr"/>
+          <t>에이비</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>에이비</t>
+        </is>
+      </c>
       <c r="K2" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -501,22 +505,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>에이비 차량용 방향제 도베르만 고급 AB-DF04</t>
+          <t>라피네르 베이직 디퓨저 블랙에디션 차량용 방향제 120ml</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30317520568</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29178319224</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3031752/30317520568.20220110102207.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2917831/29178319224.20220125123447.jpg</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>28000</t>
+          <t>21880</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
@@ -532,14 +536,10 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>에이비</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>에이비</t>
-        </is>
-      </c>
+          <t>라피네르</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -567,22 +567,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>더드림 꽃 베어브릭 석고 차량용 방향제 귀여운 자동차 송풍구 디퓨저</t>
+          <t>에이비 차량용 방향제 도베르만 고급 AB-DF04</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27124471579</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30317520568</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2712447/27124471579.20210512182954.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3031752/30317520568.20220110102207.jpg</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11700</t>
+          <t>28000</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
@@ -598,10 +598,14 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>더드림</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr"/>
+          <t>에이비</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>에이비</t>
+        </is>
+      </c>
       <c r="K4" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -629,22 +633,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>딥티크 차량용방향제 세트 케이스 + 리필용 캡슐</t>
+          <t>제이엠제이라인 도슈아 클래식 프리미엄 차량용 방향제</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28620531681</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=17787594512</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2862053/28620531681.20210829001356.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1778759/17787594512.20210802225254.jpg</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>70000</t>
+          <t>29750</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
@@ -660,10 +664,14 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>딥티크</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr"/>
+          <t>도슈아</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>제이엠제이라인</t>
+        </is>
+      </c>
       <c r="K5" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -757,22 +765,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>플래트 고급 프로펠러 차량용 방향제 F430</t>
+          <t>딥티크 차량용방향제 세트 케이스 + 리필용 캡슐</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27806043522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28620531681</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2780604/27806043522.20210701115440.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2862053/28620531681.20220308051600.jpg</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>41880</t>
+          <t>64120</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
@@ -788,7 +796,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>플래트</t>
+          <t>딥티크</t>
         </is>
       </c>
       <c r="J7" t="inlineStr"/>
@@ -819,22 +827,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>제이엠제이라인 도슈아 클래식 프리미엄 차량용 방향제</t>
+          <t>플래트 고급 프로펠러 차량용 방향제 F430</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=17787594512</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27806043522</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1778759/17787594512.20210802225254.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2780604/27806043522.20210701115440.jpg</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>29750</t>
+          <t>41880</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
@@ -850,14 +858,10 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>도슈아</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>제이엠제이라인</t>
-        </is>
-      </c>
+          <t>플래트</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -885,22 +889,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>언더스코어 젠틀맨 프리미엄 차량용 방향제 디퓨저</t>
+          <t>엠퓨처 불독 송풍구 고급 차량용 방향제 디퓨저 MF-CAF02</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27137540258</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30458791731</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2713754/27137540258.20210708110811.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3045879/30458791731.20220117151934.jpg</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>28480</t>
+          <t>14000</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
@@ -916,14 +920,10 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>언더스코어</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>언더스코어</t>
-        </is>
-      </c>
+          <t>엠퓨처</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -951,22 +951,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>마블 스턴 아이언맨 차량용 방향제 ST-IM01</t>
+          <t>빅쏘 카로브 차량용방향제 디퓨저 송풍구형</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30644523374</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26310652183</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3064452/30644523374.20220122233828.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2631065/26310652183.20211126145332.jpg</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>39000</t>
+          <t>19900</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
@@ -982,10 +982,14 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>마블</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr"/>
+          <t>빅쏘</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>빅쏘</t>
+        </is>
+      </c>
       <c r="K10" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1013,22 +1017,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>빅쏘 카로브 차량용방향제 디퓨저 송풍구형</t>
+          <t>마블 스턴 아이언맨 차량용 방향제 ST-IM01</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26310652183</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30644523374</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2631065/26310652183.20211126145332.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3064452/30644523374.20220122233828.jpg</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>19900</t>
+          <t>39000</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
@@ -1044,14 +1048,10 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>빅쏘</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>빅쏘</t>
-        </is>
-      </c>
+          <t>마블</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1079,22 +1079,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>에이비 베어브릭 차량용방향제 석고 고급 디퓨저 차방향제  ab-df01</t>
+          <t>불스원 그라스 디퓨져 차량용 방향제 105ml</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27765010523</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=12140232094</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2776501/27765010523.20220303170756.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1214023/12140232094.20211006140204.jpg</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12900</t>
+          <t>9490</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
@@ -1110,12 +1110,12 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>에이비</t>
+          <t>불스원</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>에이비</t>
+          <t>불스원</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1145,22 +1145,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>엠퓨처 불독 송풍구 고급 차량용 방향제 디퓨저 MF-CAF02</t>
+          <t>언더스코어 젠틀맨 프리미엄 차량용 방향제 디퓨저</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30458791731</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27137540258</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3045879/30458791731.20220117151934.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2713754/27137540258.20210708110811.jpg</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>14000</t>
+          <t>31800</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
@@ -1176,10 +1176,14 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>엠퓨처</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr"/>
+          <t>언더스코어</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>언더스코어</t>
+        </is>
+      </c>
       <c r="K13" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1269,22 +1273,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>게이즈샵 지독 차량용 방향제</t>
+          <t>JW중외제약 피톤치드 차량용 방향제 피톤케어</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29039136038</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=12916212027</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2903913/29039136038.20220223152854.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1291621/12916212027.20211116115126.jpg</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>39690</t>
+          <t>39780</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
@@ -1300,12 +1304,12 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>게이즈샵</t>
+          <t>JW중외제약</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>게이즈</t>
+          <t>JW중외제약</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1335,22 +1339,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>딥티크 차량용 방향제 리필 9종류향</t>
+          <t>루크타 도베르만 차량용 자동차 송풍구 차 고급 방향제 디퓨저 LT-DB01</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27604493058</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25380843939</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2760449/27604493058.20210617024518.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2538084/25380843939.20220113101814.jpg</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>37500</t>
+          <t>49000</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
@@ -1366,14 +1370,10 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>딥티크</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>딥티크</t>
-        </is>
-      </c>
+          <t>루크타</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1401,22 +1401,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>루크타 도베르만 차량용 자동차 송풍구 차 고급 방향제 디퓨저 LT-DB01</t>
+          <t>양키캔들 프레그런스 스피어스 차량용 방향제</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25380843939</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27954927224</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2538084/25380843939.20220113101814.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2795492/27954927224.20220301042430.jpg</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>49000</t>
+          <t>3440</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
@@ -1432,10 +1432,14 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>루크타</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr"/>
+          <t>양키캔들</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>양키캔들</t>
+        </is>
+      </c>
       <c r="K17" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1463,22 +1467,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>카보노 대쉬보드 거치형 프리미엄 차량용 방향제</t>
+          <t>딥티크 차량용 방향제 리필 9종류향</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25371363986</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27604493058</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2537136/25371363986.20220104014030.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2760449/27604493058.20210617024518.jpg</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>46500</t>
+          <t>37500</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
@@ -1494,10 +1498,14 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>카보노</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr"/>
+          <t>딥티크</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>딥티크</t>
+        </is>
+      </c>
       <c r="K18" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1525,22 +1533,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>JW중외제약 피톤치드 차량용 방향제 피톤케어</t>
+          <t>카보노 대쉬보드 거치형 프리미엄 차량용 방향제</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=12916212027</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25371363986</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1291621/12916212027.20211116115126.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2537136/25371363986.20220104014030.jpg</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>39780</t>
+          <t>46500</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
@@ -1556,14 +1564,10 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>JW중외제약</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>JW중외제약</t>
-        </is>
-      </c>
+          <t>카보노</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1591,22 +1595,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>불스원 그라스 디퓨져 차량용 방향제 105ml</t>
+          <t>디프로젝트 리필킷 디불 디버니 디릴라고 차량용방향제 자동차 디퓨저 고체 리필 DP-RF02</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=12140232094</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18367838563</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1214023/12140232094.20211006140204.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1836783/18367838563.20211108142647.jpg</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>9500</t>
+          <t>13000</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
@@ -1622,12 +1626,12 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>불스원</t>
+          <t>디프로젝트</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>불스원</t>
+          <t>디프로젝트</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1657,22 +1661,22 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>양키캔들 프레그런스 스피어스 차량용 방향제</t>
+          <t>더드림 꽃 베어브릭 석고 차량용 방향제 귀여운 자동차 송풍구 디퓨저</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27954927224</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27124471579</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2795492/27954927224.20220301042430.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2712447/27124471579.20210512182954.jpg</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>3890</t>
+          <t>11700</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
@@ -1688,14 +1692,10 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>양키캔들</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>양키캔들</t>
-        </is>
-      </c>
+          <t>더드림</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1789,22 +1789,22 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>디프로젝트 리필킷 디불 디버니 디릴라고 차량용방향제 자동차 디퓨저 고체 리필 DP-RF02</t>
+          <t>게이즈샵 지독 차량용 방향제</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18367838563</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29039136038</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1836783/18367838563.20211108142647.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2903913/29039136038.20220223152854.jpg</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>13000</t>
+          <t>39690</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
@@ -1820,12 +1820,12 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>디프로젝트</t>
+          <t>게이즈샵</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>디프로젝트</t>
+          <t>게이즈</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1855,22 +1855,22 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>센트데코 후드독 차량용 방향제 고급 명품 디퓨저 차방향제 새차선물 SCD-01</t>
+          <t>미스터앤미세스 니키 차량용 방향제 리필</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30570794618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=10149695240</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3057079/30570794618.20220223091835.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1014969/10149695240.20201014180005.jpg</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>29000</t>
+          <t>4190</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
@@ -1884,16 +1884,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>센트데코</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>센트데코</t>
-        </is>
-      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1921,22 +1913,22 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>미스터앤미세스 니키 차량용 방향제 리필</t>
+          <t>로얄워터 텀블러 모양 차량용 방향제 신차선물</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=10149695240</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29835967618</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1014969/10149695240.20201014180005.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2983596/29835967618.20211125191149.jpg</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>4190</t>
+          <t>49000</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
@@ -1950,8 +1942,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>로얄워터</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>로얄워터</t>
+        </is>
+      </c>
       <c r="K25" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1979,22 +1979,22 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>로얄워터 텀블러 모양 차량용 방향제 신차선물</t>
+          <t>카카오프렌즈 모니터걸이 방향제 어피치+라이언</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29835967618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27139606827</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2983596/29835967618.20211125191149.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2713960/27139606827.20210513203418.jpg</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>49000</t>
+          <t>31690</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
@@ -2010,14 +2010,10 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>로얄워터</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>로얄워터</t>
-        </is>
-      </c>
+          <t>카카오프렌즈</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2045,22 +2041,22 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>블랩 오르브 오브제 고급 차량용 디퓨저 방향제 120ml</t>
+          <t>센트데코 후드독 차량용 방향제 고급 명품 디퓨저 차방향제 새차선물 SCD-01</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30431426701</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30570794618</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3043142/30431426701.20220120021144.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3057079/30570794618.20220223091835.jpg</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>12600</t>
+          <t>29000</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
@@ -2076,12 +2072,12 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>오르브</t>
+          <t>센트데코</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>블랩</t>
+          <t>센트데코</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2111,22 +2107,22 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>디프로젝트 디릴라고 고릴라 차량용방향제 자동차 디퓨저 DP-DRL03</t>
+          <t>블랩 오르브 오브제 고급 차량용 디퓨저 방향제 120ml</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26801331279</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30431426701</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2680133/26801331279.20211222172904.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3043142/30431426701.20220120021144.jpg</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>49000</t>
+          <t>12600</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
@@ -2142,12 +2138,12 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>디프로젝트</t>
+          <t>오르브</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>디프로젝트</t>
+          <t>블랩</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2177,22 +2173,22 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>카카오프렌즈 모니터걸이 방향제 어피치+라이언</t>
+          <t>디프로젝트 디릴라고 고릴라 차량용방향제 자동차 디퓨저 DP-DRL03</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27139606827</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26801331279</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2713960/27139606827.20210513203418.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2680133/26801331279.20211222172904.jpg</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>31340</t>
+          <t>49000</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
@@ -2208,10 +2204,14 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>카카오프렌즈</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr"/>
+          <t>디프로젝트</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>디프로젝트</t>
+        </is>
+      </c>
       <c r="K29" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2239,22 +2239,22 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>불스원 폴라프레쉬 선바이저 방향제 리필</t>
+          <t>에이비 큐빅베어브릭 차량용 방향제 차방향제 디퓨저 고급 AB-DF02</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=17787599329</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27944185800</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1778759/17787599329.20220107133652.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2794418/27944185800.20220223113823.jpg</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2130</t>
+          <t>18900</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
@@ -2270,12 +2270,12 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>불스원</t>
+          <t>에이비</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>불스원</t>
+          <t>에이비</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2320,7 +2320,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>32550</t>
+          <t>29120</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
@@ -2367,22 +2367,22 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>리틀트리 걸이형 종이 방향제</t>
+          <t>메탈아이원 차량용방향제 고급 송풍구방향제 홀더 향스틱2P</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=7162545992</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27657435982</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_7162545/7162545992.20190731170829.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2765743/27657435982.20210620214337.jpg</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>860</t>
+          <t>10900</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
@@ -2491,22 +2491,22 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>메탈아이원 차량용방향제 고급 송풍구방향제 홀더 향스틱2P</t>
+          <t>디프로젝트 디버니 토끼 차량용방향제 자동차 디퓨저 DP-DBN02</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27657435982</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27331951522</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2765743/27657435982.20210620214337.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2733195/27331951522.20211222172819.jpg</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10900</t>
+          <t>49000</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
@@ -2520,8 +2520,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>디프로젝트</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>디프로젝트</t>
+        </is>
+      </c>
       <c r="K34" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2549,22 +2557,22 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>카카오프렌즈 차량용방향제 통풍구형 라이언 어피치</t>
+          <t>차바치 씨스톤 차량용 방향제</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24045761869</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21337624052</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2404576/24045761869.20210928022130.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2133762/21337624052.20191119171610.jpg</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>13700</t>
+          <t>24900</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
@@ -2580,7 +2588,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>카카오프렌즈</t>
+          <t>차바치</t>
         </is>
       </c>
       <c r="J35" t="inlineStr"/>
@@ -2611,22 +2619,22 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>차바치 씨스톤 차량용 방향제</t>
+          <t>리틀트리 걸이형 종이 방향제</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21337624052</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=7162545992</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2133762/21337624052.20191119171610.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_7162545/7162545992.20190731170829.jpg</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>24900</t>
+          <t>900</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
@@ -2640,11 +2648,7 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>차바치</t>
-        </is>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
@@ -2673,22 +2677,22 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>에이비 큐빅베어브릭 차량용 방향제 차방향제 디퓨저 고급 AB-DF02</t>
+          <t>양키캔들 벤트스틱 차량용 방향제 4P입</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27944185800</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=6552648097</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2794418/27944185800.20220223113823.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_6552648/6552648097.20190731160942.jpg</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>18900</t>
+          <t>3850</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
@@ -2704,12 +2708,12 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>에이비</t>
+          <t>양키캔들</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>에이비</t>
+          <t>양키캔들</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -2739,22 +2743,22 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>디프로젝트 디버니 토끼 차량용방향제 자동차 디퓨저 DP-DBN02</t>
+          <t>에이센트 네이처 차량용 디퓨저 방향제 120ml</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27331951522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27334130786</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2733195/27331951522.20211222172819.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2733413/27334130786.20211216041142.jpg</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>49000</t>
+          <t>7900</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
@@ -2770,14 +2774,10 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>디프로젝트</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>디프로젝트</t>
-        </is>
-      </c>
+          <t>에이센트</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2805,22 +2805,22 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>에이센트 네이처 차량용 디퓨저 방향제 120ml</t>
+          <t>불스원 그라스 디퓨저 블루 차량용 방향제 100ml</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27334130786</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24063116873</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2733413/27334130786.20211216041142.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2406311/24063116873.20210111145156.jpg</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>7900</t>
+          <t>12510</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
@@ -2836,7 +2836,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>에이센트</t>
+          <t>불스원</t>
         </is>
       </c>
       <c r="J39" t="inlineStr"/>
@@ -2925,22 +2925,22 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>캘리포니아센트 캔타입 방향제 15종</t>
+          <t>카카오프렌즈 차량용방향제 통풍구형 라이언 어피치</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27414604011</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24045761869</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2741460/27414604011.20210602231933.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2404576/24045761869.20210928022130.jpg</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>3200</t>
+          <t>13650</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
@@ -2954,7 +2954,11 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I41" t="inlineStr"/>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>카카오프렌즈</t>
+        </is>
+      </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
@@ -2983,22 +2987,22 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>양키캔들 벤트스틱 차량용 방향제 4P입</t>
+          <t>불스원 폴라프레쉬 선바이저 방향제 리필</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=6552648097</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=17787599329</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_6552648/6552648097.20190731160942.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1778759/17787599329.20220107133652.jpg</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>3880</t>
+          <t>2130</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
@@ -3014,12 +3018,12 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>양키캔들</t>
+          <t>불스원</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>양키캔들</t>
+          <t>불스원</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -3115,22 +3119,22 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>산도깨비 차량용 멤브렌 리필 방향제 x 10개입 휘튼치드</t>
+          <t>캘리포니아센트 캔타입 방향제 15종</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25695237598</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27414604011</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2569523/25695237598.20211215041018.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2741460/27414604011.20210602231933.jpg</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>21480</t>
+          <t>3200</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
@@ -3144,11 +3148,7 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>산도깨비</t>
-        </is>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
@@ -3177,22 +3177,22 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>불스원 그라스 디퓨저 블루 차량용 방향제 100ml</t>
+          <t>리틀트리 안전한 종이방향제 실내방향제 모음전</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24063116873</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25190591305</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2406311/24063116873.20210111145156.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2519059/25190591305.20201211215631.jpg</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>12510</t>
+          <t>840</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
@@ -3206,11 +3206,7 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>불스원</t>
-        </is>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
@@ -3239,22 +3235,22 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>리틀트리 안전한 종이방향제 실내방향제 모음전</t>
+          <t>명품고급디퓨저 마일론 갤러리2 차량용 방향제</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25190591305</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30441772620</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2519059/25190591305.20201211215631.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3044177/30441772620.20220204192733.jpg</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>840</t>
+          <t>49000</t>
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
@@ -3268,8 +3264,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>마일론</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>명품고급디퓨저</t>
+        </is>
+      </c>
       <c r="K46" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3297,22 +3301,22 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>명품고급디퓨저 마일론 갤러리2 차량용 방향제</t>
+          <t>이븐도우 생귄 쥬얼리 클립 차량용 방향제</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30441772620</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=19103746764</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3044177/30441772620.20220204192733.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1910374/19103746764.20220213194209.jpg</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>49000</t>
+          <t>32800</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
@@ -3328,12 +3332,12 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>마일론</t>
+          <t>생귄</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>명품고급디퓨저</t>
+          <t>이븐도우</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -3363,22 +3367,22 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>조말론 조말론 차량용 송풍구 방향제 센트투고 거치대포함</t>
+          <t>산도깨비 차량용 멤브렌 리필 방향제 x 10개입 휘튼치드</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30506938714</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25695237598</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3050693/30506938714.20220112013652.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2569523/25695237598.20211215041018.jpg</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>26660</t>
+          <t>21480</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
@@ -3394,14 +3398,10 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>조말론</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>조말론</t>
-        </is>
-      </c>
+          <t>산도깨비</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3429,22 +3429,22 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>바흐가르트 차량용 석고 송풍구 방향제</t>
+          <t>잇츠마이플라워 차량용 디퓨저 방향제 시리즈 고급자동차 새차선물</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30841337224</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28620463637</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3084133/30841337224.20220208023232.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2862046/28620463637.20210828235433.jpg</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>48900</t>
+          <t>16800</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
@@ -3460,7 +3460,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>바흐가르트</t>
+          <t>잇츠마이플라워</t>
         </is>
       </c>
       <c r="J49" t="inlineStr"/>
@@ -3491,22 +3491,22 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>에이비 사막여우 차량용 방향제 송풍구 고급형</t>
+          <t>라피네르 명품 로얄스페이드 듀오 차량용방향제</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29639151141</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30565184917</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2963915/29639151141.20211224101014.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3056518/30565184917.20220116233300.jpg</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>33000</t>
+          <t>39780</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
@@ -3522,14 +3522,10 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>에이비</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>에이비</t>
-        </is>
-      </c>
+          <t>라피네르</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3557,22 +3553,22 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>엠퓨처 큐빅베어 1P 차량용 베어브릭 방향제 명품 디퓨저 MF-CAF01</t>
+          <t>조말론 조말론 차량용 송풍구 방향제 센트투고 거치대포함</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30506047035</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30506938714</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3050604/30506047035.20220111221900.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3050693/30506938714.20220112013652.jpg</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>15900</t>
+          <t>26660</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
@@ -3586,8 +3582,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>조말론</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>조말론</t>
+        </is>
+      </c>
       <c r="K51" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3615,22 +3619,22 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>이븐도우 생귄 쥬얼리 클립 차량용 방향제</t>
+          <t>에이비 사막여우 차량용 방향제 송풍구 고급형</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=19103746764</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29639151141</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1910374/19103746764.20220213194209.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2963915/29639151141.20211224101014.jpg</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>32800</t>
+          <t>33000</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
@@ -3646,12 +3650,12 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>생귄</t>
+          <t>에이비</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>이븐도우</t>
+          <t>에이비</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -3681,45 +3685,37 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>조말론 차량용 방향제 센트투고 명품향수 고급 디퓨저 거치대</t>
+          <t>FYC 고급 명품 불독 차량용 방향제 디퓨저</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=83025886866</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24941672502</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8302588/83025886866.4.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2494167/24941672502.20201122175400.jpg</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>48500</t>
+          <t>39000</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
-          <t>홍콩걸즈</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>조말론</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>조말론</t>
-        </is>
-      </c>
+          <t>일반 - 가격비교 상품</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3747,22 +3743,22 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>KAN 뷰센트 De.Line 차량용 방향제 싱글세트</t>
+          <t>바흐가르트 차량용 석고 송풍구 방향제</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18985549503</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30841337224</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1898554/18985549503.20210713121106.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3084133/30841337224.20220208023232.jpg</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>12900</t>
+          <t>48900</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
@@ -3778,14 +3774,10 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>뷰센트</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>KAN</t>
-        </is>
-      </c>
+          <t>바흐가르트</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3813,22 +3805,22 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>FYC 고급 명품 불독 차량용 방향제 디퓨저</t>
+          <t>로베르타디까메리노 원형 대용량 방향제 100ml 2P</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24941672502</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=5640406696</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2494167/24941672502.20201122175400.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_5640406/5640406696.20190805143958.jpg</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>39000</t>
+          <t>13800</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
@@ -3842,8 +3834,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>로베르타디까메리노</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>로베르타디까메리노</t>
+        </is>
+      </c>
       <c r="K55" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3871,22 +3871,22 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>딥티크 Diptyque 자동차 방향제 세트 송풍케이스 리필용 로즈</t>
+          <t>KAN 뷰센트 De.Line 차량용 방향제 싱글세트</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28631448191</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18985549503</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2863144/28631448191.20210830004730.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1898554/18985549503.20210713121106.jpg</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>65000</t>
+          <t>12900</t>
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
@@ -3902,10 +3902,14 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>딥티크</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr"/>
+          <t>뷰센트</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>KAN</t>
+        </is>
+      </c>
       <c r="K56" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3933,43 +3937,43 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>로베르타디까메리노 원형 대용량 방향제 100ml 2P</t>
+          <t>조말론 차량용 방향제 센트투고 명품향수 고급 디퓨저 거치대</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=5640406696</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=83025886866</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_5640406/5640406696.20190805143958.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8302588/83025886866.4.jpg</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>13800</t>
+          <t>48500</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>홍콩걸즈</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>로베르타디까메리노</t>
+          <t>조말론</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>로베르타디까메리노</t>
+          <t>조말론</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -3999,22 +4003,22 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>라피네르 명품 로얄스페이드 듀오 차량용방향제</t>
+          <t>P&amp;amp;G 페브리즈 차량용 방향제 2.2ml 3개</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30565184917</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20397190459</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3056518/30565184917.20220116233300.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2039719/20397190459.20190726113415.jpg</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>39780</t>
+          <t>7940</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
@@ -4030,10 +4034,14 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>라피네르</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr"/>
+          <t>페브리즈</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>P&amp;G</t>
+        </is>
+      </c>
       <c r="K58" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4061,22 +4069,22 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>잇츠마이플라워 차량용 디퓨저 방향제 시리즈 고급자동차 새차선물</t>
+          <t>엠퓨처 큐빅베어 1P 차량용 베어브릭 방향제 명품 디퓨저 MF-CAF01</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28620463637</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30506047035</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2862046/28620463637.20210828235433.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3050604/30506047035.20220111221900.jpg</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>16890</t>
+          <t>15900</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
@@ -4090,11 +4098,7 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>잇츠마이플라워</t>
-        </is>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
@@ -4123,22 +4127,22 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>P&amp;amp;G 페브리즈 차량용 방향제 2.2ml 3개</t>
+          <t>제로스킨 로보트 태권브이 차량용 방향제 자동차 디퓨저 AD-KF90</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20397190459</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29535937618</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2039719/20397190459.20190726113415.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2953593/29535937618.20211216102403.jpg</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>7940</t>
+          <t>46020</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
@@ -4154,12 +4158,12 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>페브리즈</t>
+          <t>제로스킨</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>P&amp;G</t>
+          <t>제로스킨</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -4189,22 +4193,22 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>아트센트 명품 차량용 방향제 고급 디퓨저 차방향제</t>
+          <t>딥티크 Diptyque 자동차 방향제 세트 송풍케이스 리필용 로즈</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30479265972</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28631448191</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3047926/30479265972.20220124154510.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2863144/28631448191.20210830004730.jpg</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>43900</t>
+          <t>65000</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
@@ -4218,7 +4222,11 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I61" t="inlineStr"/>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>딥티크</t>
+        </is>
+      </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
@@ -4262,7 +4270,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>18710</t>
+          <t>19000</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
@@ -4305,22 +4313,22 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>앵그리차일드 한야 프리미엄 차량용방향제</t>
+          <t>아트센트 명품 차량용 방향제 고급 디퓨저 차방향제</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30696464055</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30479265972</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3069646/30696464055.20220127031522.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3047926/30479265972.20220124154510.jpg</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>43480</t>
+          <t>43900</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
@@ -4363,22 +4371,22 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>양키캔들 차밍센츠 고급 차량용 방향제 리필 16g</t>
+          <t>앵그리차일드 한야 프리미엄 차량용방향제</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24073000302</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30696464055</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2407300/24073000302.20200907200512.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3069646/30696464055.20220127031522.jpg</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>4710</t>
+          <t>43000</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
@@ -4392,11 +4400,7 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>양키캔들</t>
-        </is>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
@@ -4425,22 +4429,22 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>훠링 하이센트 차량용 방향제 컵홀더형 95g</t>
+          <t>진로 소주 송풍구 디퓨저 차량용 자동차 고급 방향제</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26601404523</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28904371459</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2660140/26601404523.20210420172441.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2890437/28904371459.20220114025946.jpg</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>43000</t>
+          <t>10880</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
@@ -4454,16 +4458,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>훠링</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>훠링</t>
-        </is>
-      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4491,36 +4487,40 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>리틀트리 TREE 차량용 실내용 걸이형 종이 페이퍼 옷장 방향제</t>
+          <t>양키캔들 차밍센츠 고급 차량용 방향제 리필 16g</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82937356876</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24073000302</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8293735/82937356876.1.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2407300/24073000302.20200907200512.jpg</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>790</t>
+          <t>4640</t>
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
         <is>
-          <t>프랜드캣</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr"/>
+          <t>일반 - 가격비교 상품</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>양키캔들</t>
+        </is>
+      </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
@@ -4549,45 +4549,37 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>라미유 차량용 고급 송풍구 방향제 블랙체리향 1+1</t>
+          <t>리틀트리 TREE 차량용 실내용 걸이형 종이 페이퍼 옷장 방향제</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30586965618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82937356876</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3058696/30586965618.20220118105349.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8293735/82937356876.1.jpg</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>15900</t>
+          <t>790</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>프랜드캣</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>라미유</t>
-        </is>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>라미유</t>
-        </is>
-      </c>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4615,36 +4607,40 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>차량용 디퓨저 gv80 사각 송풍구 클립 네발 석고 방향제</t>
+          <t>벤볼릭 명품 차량용 방향제 고급 자동차 차량 디퓨져</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28685666448</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82293143959</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2868566/28685666448.20210902222527.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8229314/82293143959.16.jpg</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>28000</t>
         </is>
       </c>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>매드포모던</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr"/>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>벤볼릭</t>
+        </is>
+      </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
@@ -4673,22 +4669,22 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>제로스킨 로보트 태권브이 차량용 방향제 자동차 디퓨저 AD-KF90</t>
+          <t>카늘 글래디에이터 차량용 방향제</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29535937618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20826026697</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2953593/29535937618.20211216102403.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2082602/20826026697.20210217230953.jpg</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>46020</t>
+          <t>19800</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
@@ -4704,14 +4700,10 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>제로스킨</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>제로스킨</t>
-        </is>
-      </c>
+          <t>카늘</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4739,22 +4731,22 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>제이엠제이라인 도슈아 차량용 방향제 리필 도자기</t>
+          <t>라미유 차량용 고급 송풍구 방향제 블랙체리향 1+1</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20347407194</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30586965618</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2034740/20347407194.20211001120304.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3058696/30586965618.20220118105349.jpg</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>15900</t>
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
@@ -4770,12 +4762,12 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>도슈아</t>
+          <t>라미유</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>제이엠제이라인</t>
+          <t>라미유</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -4805,22 +4797,22 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>카늘 글래디에이터 차량용 방향제</t>
+          <t>훠링 하이센트 차량용 방향제 컵홀더형 95g</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20826026697</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26601404523</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2082602/20826026697.20210217230953.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2660140/26601404523.20210420172441.jpg</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>19800</t>
+          <t>43000</t>
         </is>
       </c>
       <c r="F71" t="inlineStr"/>
@@ -4836,10 +4828,14 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>카늘</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr"/>
+          <t>훠링</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>훠링</t>
+        </is>
+      </c>
       <c r="K71" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4867,41 +4863,45 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>벤볼릭 명품 차량용 방향제 고급 자동차 차량 디퓨져</t>
+          <t>제이엠제이라인 도슈아 차량용 방향제 리필 도자기</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82293143959</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20347407194</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8229314/82293143959.16.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2034740/20347407194.20211001120304.jpg</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>28000</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr">
         <is>
-          <t>매드포모던</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>벤볼릭</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr"/>
+          <t>도슈아</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>제이엠제이라인</t>
+        </is>
+      </c>
       <c r="K72" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4929,22 +4929,22 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>포맨트 퍼퓸 썸퓨저 차량용 방향제</t>
+          <t>유니레버 스너글 곰돌이 방향제 21g 5종 3개입</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20901530534</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28658857392</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2090153/20901530534.20211028161645.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2865885/28658857392.20210831223854.jpg</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>27500</t>
+          <t>2200</t>
         </is>
       </c>
       <c r="F73" t="inlineStr"/>
@@ -4960,10 +4960,14 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>포맨트</t>
-        </is>
-      </c>
-      <c r="J73" t="inlineStr"/>
+          <t>스너글</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>유니레버</t>
+        </is>
+      </c>
       <c r="K73" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4991,22 +4995,22 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>유니레버 스너글 곰돌이 방향제 21g 5종 3개입</t>
+          <t>미스터앤미세스 체사레 시저 차량용 방향제</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28658857392</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=8119194241</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2865885/28658857392.20210831223854.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8119194/8119194241.20190802121728.jpg</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2200</t>
+          <t>6990</t>
         </is>
       </c>
       <c r="F74" t="inlineStr"/>
@@ -5020,16 +5024,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>스너글</t>
-        </is>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>유니레버</t>
-        </is>
-      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -5057,22 +5053,22 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>딥디크 차량용 방향제 본품 리필 차량 송풍구 디퓨저</t>
+          <t>포맨트 퍼퓸 썸퓨저 차량용 방향제</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30469675959</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20901530534</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3046967/30469675959.20220108225652.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2090153/20901530534.20211028161645.jpg</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>38000</t>
+          <t>27500</t>
         </is>
       </c>
       <c r="F75" t="inlineStr"/>
@@ -5086,7 +5082,11 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I75" t="inlineStr"/>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>포맨트</t>
+        </is>
+      </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
@@ -5115,33 +5115,33 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>진로 소주 송풍구 디퓨저 차량용 자동차 고급 방향제</t>
+          <t>미스터앤미세스 니키 본품/리필 차량용 방향제</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28904371459</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=10017842540</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2890437/28904371459.20220114025946.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1001784/10017842540.12.jpg</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10880</t>
+          <t>7200</t>
         </is>
       </c>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>반도향기나라</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
@@ -5173,22 +5173,22 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>토씨 클래시맨 명품 차량용방향제 룸미러걸이형</t>
+          <t>차량용 디퓨저 gv80 사각 송풍구 클립 네발 석고 방향제</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25695599950</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28685666448</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2569559/25695599950.20210902144804.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2868566/28685666448.20210902222527.jpg</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>85000</t>
+          <t>30</t>
         </is>
       </c>
       <c r="F77" t="inlineStr"/>
@@ -5202,16 +5202,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>토씨</t>
-        </is>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>토씨</t>
-        </is>
-      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -5239,22 +5231,22 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>에이비 얼굴 일러스트 사진 차량용방향제 2set</t>
+          <t>딥디크 차량용 방향제 본품 리필 차량 송풍구 디퓨저</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27190906522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30469675959</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2719090/27190906522.20210518150908.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3046967/30469675959.20220108225652.jpg</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>23000</t>
+          <t>38000</t>
         </is>
       </c>
       <c r="F78" t="inlineStr"/>
@@ -5268,16 +5260,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>에이비</t>
-        </is>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>에이비</t>
-        </is>
-      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -5305,22 +5289,22 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>캘리포니아센트 방향제 코로나도 체리향 1개</t>
+          <t>토씨 클래시맨 명품 차량용방향제 룸미러걸이형</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29022166369</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25695599950</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2902216/29022166369.20210929024636.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2569559/25695599950.20210902144804.jpg</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>85000</t>
         </is>
       </c>
       <c r="F79" t="inlineStr"/>
@@ -5334,8 +5318,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>토씨</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>토씨</t>
+        </is>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -5421,22 +5413,22 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>미스터앤미세스 니키 클래식 차량용 방향제 본품</t>
+          <t>청개구리 멤브렌 방향제 공기청향제 탈취제 산도깨비</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25359648694</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29899764272</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2535964/25359648694.20201224195431.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2989976/29899764272.20211201020417.jpg</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>8890</t>
+          <t>1500</t>
         </is>
       </c>
       <c r="F81" t="inlineStr"/>
@@ -5479,22 +5471,22 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>불스원 폴라패밀리 선바이저 방향제 상쾌한아쿠아</t>
+          <t>모가니 디그니티 오브제 명품 고급 차량용 방향제</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30458903321</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30654328079</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3045890/30458903321.20220108001547.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3065432/30654328079.20220125022650.jpg</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>3390</t>
+          <t>33500</t>
         </is>
       </c>
       <c r="F82" t="inlineStr"/>
@@ -5537,22 +5529,22 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>센텍 지엠지모터스 프리티 차량용방향제</t>
+          <t>미스터앤미세스 니키 클래식 차량용 방향제 본품</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=14880698741</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25359648694</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1488069/14880698741.20210812112321.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2535964/25359648694.20201224195431.jpg</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>7500</t>
+          <t>8890</t>
         </is>
       </c>
       <c r="F83" t="inlineStr"/>
@@ -5566,16 +5558,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>지엠지모터스</t>
-        </is>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>센텍</t>
-        </is>
-      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -5603,22 +5587,22 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>조말론 센트투고 차량용방향제 신차선물 3종세트</t>
+          <t>불스원 그라스 오브제 디퓨저 차량용 방향제 100ml</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27293227878</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30425453618</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2729322/27293227878.20210525024824.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3042545/30425453618.20220105100536.jpg</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>13000</t>
+          <t>21500</t>
         </is>
       </c>
       <c r="F84" t="inlineStr"/>
@@ -5634,12 +5618,12 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>조말론</t>
+          <t>불스원</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>조말론</t>
+          <t>불스원</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -5669,22 +5653,22 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>청개구리 멤브렌 방향제 공기청향제 탈취제 산도깨비</t>
+          <t>캘리포니아센트 방향제 코로나도 체리향 1개</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29899764272</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29022166369</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2989976/29899764272.20211201020417.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2902216/29022166369.20210929024636.jpg</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>1500</t>
+          <t>2500</t>
         </is>
       </c>
       <c r="F85" t="inlineStr"/>
@@ -5727,37 +5711,45 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>미스터앤미세스 체사레 시저 차량용 방향제</t>
+          <t>도그독 명품 차량용 방향제 고급 자동차 디퓨저 프렌치불독 D-E1 새차 선물</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=8119194241</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82807740637</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8119194/8119194241.20190802121728.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8280774/82807740637.10.jpg</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>6990</t>
+          <t>28000</t>
         </is>
       </c>
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>주식회사 도그독</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>도그독</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>도그독</t>
+        </is>
+      </c>
       <c r="K86" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -5785,22 +5777,22 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>모가니 디그니티 오브제 명품 고급 차량용 방향제</t>
+          <t>언더스코어 자동차용 세라믹 방향제</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30654328079</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30977409618</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3065432/30654328079.20220125022650.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3097740/30977409618.20220217150331.jpg</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>33500</t>
+          <t>29900</t>
         </is>
       </c>
       <c r="F87" t="inlineStr"/>
@@ -5814,8 +5806,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>언더스코어</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>언더스코어</t>
+        </is>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -5843,45 +5843,41 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>불스원 그라스 오브제 디퓨저 차량용 방향제 100ml</t>
+          <t>딥디크 조말론 베이 블랑쉬 대용량 센트247 명품 고급 벤츠차량용방향제 디퓨저 120ml</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30425453618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82876701063</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3042545/30425453618.20220105100536.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8287670/82876701063.7.jpg</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>21500</t>
+          <t>27900</t>
         </is>
       </c>
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>센트247 SCENT247</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>불스원</t>
-        </is>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>불스원</t>
-        </is>
-      </c>
+          <t>조말론</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -5909,37 +5905,45 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>미스터앤미세스 니키 본품/리필 차량용 방향제</t>
+          <t>JW중외제약 JW생활건강 피톤케어 차량용 방향제 리필 카트리지</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=10017842540</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=15901498616</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1001784/10017842540.12.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1590149/15901498616.20211116120223.jpg</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>7200</t>
+          <t>21750</t>
         </is>
       </c>
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr">
         <is>
-          <t>반도향기나라</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
-        </is>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
+          <t>일반 - 가격비교 상품</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>JW생활건강</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>JW중외제약</t>
+        </is>
+      </c>
       <c r="K89" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -5982,7 +5986,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>44990</t>
+          <t>47990</t>
         </is>
       </c>
       <c r="F90" t="inlineStr"/>
@@ -6025,22 +6029,22 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>JW중외제약 JW생활건강 피톤케어 차량용 방향제 리필 카트리지</t>
+          <t>불스원 폴라패밀리 선바이저 방향제 상쾌한아쿠아</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=15901498616</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30458903321</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1590149/15901498616.20211116120223.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3045890/30458903321.20220108001547.jpg</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>22000</t>
+          <t>3390</t>
         </is>
       </c>
       <c r="F91" t="inlineStr"/>
@@ -6054,16 +6058,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>JW생활건강</t>
-        </is>
-      </c>
-      <c r="J91" t="inlineStr">
-        <is>
-          <t>JW중외제약</t>
-        </is>
-      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -6091,40 +6087,36 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>딥디크 조말론 베이 블랑쉬 대용량 센트247 명품 고급 벤츠차량용방향제 디퓨저 120ml</t>
+          <t>아우라 카카오 모니터걸이형 방향제 라이언 블루스카이향 10g x1개</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82876701063</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24014062100</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8287670/82876701063.7.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2401406/24014062100.20200903003222.jpg</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>27900</t>
+          <t>14640</t>
         </is>
       </c>
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr">
         <is>
-          <t>센트247 SCENT247</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
-        </is>
-      </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>조말론</t>
-        </is>
-      </c>
+          <t>일반 - 가격비교 상품</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
@@ -6153,22 +6145,22 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>도그독 명품 리본독 차량용 방향제 고급 디퓨저 불독 D-E2</t>
+          <t>조말론 센트투고 차량용방향제 신차선물 3종세트</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30000303618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27293227878</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3000030/30000303618.20220215142352.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2729322/27293227878.20210525024824.jpg</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>48800</t>
+          <t>13000</t>
         </is>
       </c>
       <c r="F93" t="inlineStr"/>
@@ -6184,12 +6176,12 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>도그독</t>
+          <t>조말론</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>도그독</t>
+          <t>조말론</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -6219,22 +6211,22 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>쓰리나인 이니셜 커스텀 차량용 방향제 수제 송풍구 차 자동차 이색선물 기념일</t>
+          <t>지엠지모터스 더라이더 디퓨저</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29539346631</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21538184583</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2953934/29539346631.20211105043518.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2153818/21538184583.20210325121809.jpg</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>39000</t>
+          <t>26900</t>
         </is>
       </c>
       <c r="F94" t="inlineStr"/>
@@ -6248,8 +6240,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>지엠지모터스</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>지엠지모터스</t>
+        </is>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -6277,45 +6277,37 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>도그독 명품 차량용 방향제 고급 자동차 디퓨저 프렌치불독 D-E1 새차 선물</t>
+          <t>칠라릴라 크롬블랙 차량용 자동차 방향제 고급 디퓨저</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82807740637</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28621039462</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8280774/82807740637.10.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2862103/28621039462.20211108103254.jpg</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>28000</t>
+          <t>29000</t>
         </is>
       </c>
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr">
         <is>
-          <t>주식회사 도그독</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
-        </is>
-      </c>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>도그독</t>
-        </is>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>도그독</t>
-        </is>
-      </c>
+          <t>일반 - 가격비교 상품</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -6343,22 +6335,22 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>아우라 카카오 모니터걸이형 방향제 라이언 블루스카이향 10g x1개</t>
+          <t>로베르타디까메리노 방향제 송풍구 리틀포레스트향수</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24014062100</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29185219914</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2401406/24014062100.20200903003222.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2918521/29185219914.20211022050132.jpg</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>14640</t>
+          <t>11890</t>
         </is>
       </c>
       <c r="F96" t="inlineStr"/>
@@ -6372,7 +6364,11 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I96" t="inlineStr"/>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>로베르타디까메리노</t>
+        </is>
+      </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
@@ -6401,22 +6397,22 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>칠라릴라 크롬블랙 차량용 자동차 방향제 고급 디퓨저</t>
+          <t>아우라 카카오 어피치 모니터걸이형 방향제 4.5ml</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28621039462</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26955394520</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2862103/28621039462.20211108103254.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2695539/26955394520.20210428203230.jpg</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>29000</t>
+          <t>14640</t>
         </is>
       </c>
       <c r="F97" t="inlineStr"/>
@@ -6430,7 +6426,11 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I97" t="inlineStr"/>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>아우라</t>
+        </is>
+      </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
@@ -6525,22 +6525,22 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>아우라 카카오 어피치 모니터걸이형 방향제 4.5ml</t>
+          <t>도그독 명품 리본독 차량용 방향제 고급 디퓨저 불독 D-E2</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26955394520</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30000303618</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2695539/26955394520.20210428203230.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3000030/30000303618.20220215142352.jpg</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>14640</t>
+          <t>48800</t>
         </is>
       </c>
       <c r="F99" t="inlineStr"/>
@@ -6556,10 +6556,14 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>아우라</t>
-        </is>
-      </c>
-      <c r="J99" t="inlineStr"/>
+          <t>도그독</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>도그독</t>
+        </is>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -6587,22 +6591,22 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>양키캔들 차량용방향제 프레그런스 스피어스 인기향</t>
+          <t>에이비 얼굴 일러스트 사진 차량용방향제 2set</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30247866969</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27190906522</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3024786/30247866969.20211222014950.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2719090/27190906522.20210518150908.jpg</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>3870</t>
+          <t>23000</t>
         </is>
       </c>
       <c r="F100" t="inlineStr"/>
@@ -6618,12 +6622,12 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>양키캔들</t>
+          <t>에이비</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>양키캔들</t>
+          <t>에이비</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -6653,22 +6657,22 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>언더스코어 자동차용 세라믹 방향제</t>
+          <t>로베르타 디 까메리노 송풍구형 차량용 방향제 본품</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30977409618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30666438576</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3097740/30977409618.20220217150331.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3066643/30666438576.20220126020349.jpg</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>29900</t>
+          <t>11900</t>
         </is>
       </c>
       <c r="F101" t="inlineStr"/>
@@ -6682,16 +6686,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>언더스코어</t>
-        </is>
-      </c>
-      <c r="J101" t="inlineStr">
-        <is>
-          <t>언더스코어</t>
-        </is>
-      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
           <t>생활/건강</t>

--- a/output.xlsx
+++ b/output.xlsx
@@ -505,22 +505,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>아트센트 천연소가죽 명품 차량용 방향제 고급 디퓨저 차 방향제 선물</t>
+          <t>언더스코어 젠틀맨 프리미엄 차량용 방향제 디퓨저</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30479265972</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27137540258</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3047926/30479265972.20220609124802.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2713754/27137540258.20210708110811.jpg</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>38900</t>
+          <t>30140</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
@@ -534,8 +534,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>언더스코어</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>언더스코어</t>
+        </is>
+      </c>
       <c r="K3" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -563,22 +571,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>JW중외제약 피톤치드 차량용 방향제 피톤케어</t>
+          <t>ELLA 프라임 호랑이 차량용 방향제 프로펠러</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=12916212027</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30617053618</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1291621/12916212027.20211116115126.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3061705/30617053618.20220120171741.jpg</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>38000</t>
+          <t>29700</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
@@ -594,14 +602,10 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>JW중외제약</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>JW중외제약</t>
-        </is>
-      </c>
+          <t>ELLA</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -629,22 +633,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>언더스코어 젠틀맨 프리미엄 차량용 방향제 디퓨저</t>
+          <t>아트센트 천연소가죽 명품 차량용 방향제 고급 디퓨저 차 방향제 선물</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27137540258</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30479265972</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2713754/27137540258.20210708110811.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3047926/30479265972.20220609124802.jpg</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>30450</t>
+          <t>38900</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
@@ -658,16 +662,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>언더스코어</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>언더스코어</t>
-        </is>
-      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -695,22 +691,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ELLA 프라임 호랑이 차량용 방향제 프로펠러</t>
+          <t>센트데코 후드독 차량용 방향제 고급 명품 디퓨저 차방향제 새차선물 SCD-01</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30617053618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30570794618</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3061705/30617053618.20220120171741.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3057079/30570794618.20220623052632.jpg</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>29700</t>
+          <t>29000</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
@@ -726,10 +722,14 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>ELLA</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr"/>
+          <t>센트데코</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>센트데코</t>
+        </is>
+      </c>
       <c r="K6" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -757,22 +757,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>제이엠제이라인 도슈아 클래식 프리미엄 차량용 방향제</t>
+          <t>로얄워터 텀블러 모양 차량용 방향제 신차선물</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=17787594512</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29835967618</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1778759/17787594512.20210802225254.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2983596/29835967618.20211125191149.jpg</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>29750</t>
+          <t>49000</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
@@ -788,12 +788,12 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>도슈아</t>
+          <t>로얄워터</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>제이엠제이라인</t>
+          <t>로얄워터</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -823,22 +823,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>에이비 베어브릭 차량용방향제 석고 고급 디퓨저 차방향제  ab-df01</t>
+          <t>JW중외제약 피톤치드 차량용 방향제 피톤케어</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27765010523</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=12916212027</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2776501/27765010523.20220303170756.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1291621/12916212027.20211116115126.jpg</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11900</t>
+          <t>35800</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
@@ -854,12 +854,12 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>에이비</t>
+          <t>JW중외제약</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>에이비</t>
+          <t>JW중외제약</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -889,22 +889,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>엠퓨처 불독 송풍구 고급 차량용 방향제 디퓨저 MF-CAF02</t>
+          <t>제이엠제이라인 도슈아 클래식 프리미엄 차량용 방향제</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30458791731</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=17787594512</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3045879/30458791731.20220117151934.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1778759/17787594512.20210802225254.jpg</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>14740</t>
+          <t>29750</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
@@ -920,10 +920,14 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>엠퓨처</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr"/>
+          <t>도슈아</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>제이엠제이라인</t>
+        </is>
+      </c>
       <c r="K9" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -951,22 +955,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>에이비 차량용 방향제 도베르만 고급 AB-DF04</t>
+          <t>에이비 베어브릭 차량용방향제 석고 고급 디퓨저 차방향제  ab-df01</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30317520568</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27765010523</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3031752/30317520568.20220110102207.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2776501/27765010523.20220303170756.jpg</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>27500</t>
+          <t>11900</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
@@ -1017,22 +1021,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>센트데코 후드독 차량용 방향제 고급 명품 디퓨저 차방향제 새차선물 SCD-01</t>
+          <t>엠퓨처 불독 송풍구 고급 차량용 방향제 디퓨저 MF-CAF02</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30570794618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30458791731</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3057079/30570794618.20220623052632.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3045879/30458791731.20220117151934.jpg</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>29000</t>
+          <t>14700</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
@@ -1048,14 +1052,10 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>센트데코</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>센트데코</t>
-        </is>
-      </c>
+          <t>엠퓨처</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1098,7 +1098,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>28610</t>
+          <t>28890</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
@@ -1277,22 +1277,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>앵그리차일드 한야 도깨비 차량용방향제 자동차 디퓨저</t>
+          <t>플래트 고급 프로펠러 차량용 방향제 F430</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=32626419897</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27806043522</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3262641/32626419897.20220528080017.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2780604/27806043522.20210701115440.jpg</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>45000</t>
+          <t>41850</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
@@ -1306,7 +1306,11 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr"/>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>플래트</t>
+        </is>
+      </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
@@ -1335,22 +1339,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>엠퓨처 하트 송풍구 고급 차량용 방향제 디퓨저 MF-CAF03</t>
+          <t>에이비 차량용 방향제 도베르만 고급 AB-DF04</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31484465959</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30317520568</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3148446/31484465959.20220328053622.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3031752/30317520568.20220110102207.jpg</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>12500</t>
+          <t>26040</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
@@ -1366,10 +1370,14 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>엠퓨처</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr"/>
+          <t>에이비</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>에이비</t>
+        </is>
+      </c>
       <c r="K16" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1397,22 +1405,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>디프로젝트 디불 불독 고급 차량용 방향제 자동차 디퓨저</t>
+          <t>앵그리차일드 한야 도깨비 차량용방향제 자동차 디퓨저</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=13697148540</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=32626419897</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1369714/13697148540.20211222172941.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3262641/32626419897.20220528080017.jpg</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>49000</t>
+          <t>45000</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
@@ -1426,16 +1434,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>디프로젝트</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>디프로젝트</t>
-        </is>
-      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1463,22 +1463,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>플래트 고급 프로펠러 차량용 방향제 F430</t>
+          <t>에이비 큐빅베어브릭 차량용 방향제 차방향제 디퓨저 고급 AB-DF02</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27806043522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27944185800</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2780604/27806043522.20210701115440.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2794418/27944185800.20220622171723.jpg</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>40970</t>
+          <t>17900</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
@@ -1494,10 +1494,14 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>플래트</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr"/>
+          <t>에이비</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>에이비</t>
+        </is>
+      </c>
       <c r="K18" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1525,22 +1529,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>딥티크 차량용 방향제 리필 9종류향</t>
+          <t>엠퓨처 하트 송풍구 고급 차량용 방향제 디퓨저 MF-CAF03</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27604493058</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31484465959</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2760449/27604493058.20220324022642.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3148446/31484465959.20220328053622.jpg</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>21300</t>
+          <t>12450</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
@@ -1556,14 +1560,10 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>딥티크</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>딥티크</t>
-        </is>
-      </c>
+          <t>엠퓨처</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1591,22 +1591,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>에이비 큐빅베어브릭 차량용 방향제 차방향제 디퓨저 고급 AB-DF02</t>
+          <t>앵그리차일드 골프 차량용 방향제 자동차 디퓨저</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27944185800</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=32899616297</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2794418/27944185800.20220622171723.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3289961/32899616297.20220612113459.jpg</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>17900</t>
+          <t>39000</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
@@ -1620,16 +1620,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>에이비</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>에이비</t>
-        </is>
-      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1657,22 +1649,22 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>언더스코어 오버라인 오버타이거 호랑이 퓨마 차량용 방향제 자동차 디퓨저 OL-CFOT</t>
+          <t>포라이트 데무르 고급 자동차 천연 임산부 차량 방향제</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30404262618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31557699426</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3040426/30404262618.20220316162835.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3155769/31557699426.20220402023654.jpg</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>34650</t>
+          <t>29000</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
@@ -1686,16 +1678,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>언더스코어</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>언더스코어</t>
-        </is>
-      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1723,22 +1707,22 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>미스터앤미세스 니키 차량용 방향제 리필</t>
+          <t>디프로젝트 디불 불독 고급 차량용 방향제 자동차 디퓨저</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=10149695240</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=13697148540</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1014969/10149695240.20201014180005.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1369714/13697148540.20211222172941.jpg</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>4800</t>
+          <t>49000</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
@@ -1752,8 +1736,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>디프로젝트</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>디프로젝트</t>
+        </is>
+      </c>
       <c r="K22" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1781,22 +1773,22 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>앵그리차일드 골프 차량용 방향제 자동차 디퓨저</t>
+          <t>딥티크 차량용 방향제 리필 9종류향</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=32899616297</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27604493058</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3289961/32899616297.20220612113459.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2760449/27604493058.20220324022642.jpg</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>39000</t>
+          <t>20800</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
@@ -1810,8 +1802,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>딥티크</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>딥티크</t>
+        </is>
+      </c>
       <c r="K23" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1839,22 +1839,22 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>불스원 폴라프레쉬 선바이저 방향제 리필</t>
+          <t>언더스코어 오버라인 오버타이거 호랑이 퓨마 차량용 방향제 자동차 디퓨저 OL-CFOT</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=17787599329</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30404262618</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1778759/17787599329.20220107133652.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3040426/30404262618.20220316162835.jpg</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2110</t>
+          <t>35000</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
@@ -1870,12 +1870,12 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>불스원</t>
+          <t>언더스코어</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>불스원</t>
+          <t>언더스코어</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -1905,22 +1905,22 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>리틀트리 걸이형 종이 방향제</t>
+          <t>딥티크 차량용방향제 세트 케이스 + 리필용 캡슐</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=7162545992</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28620531681</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_7162545/7162545992.20190731170829.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2862053/28620531681.20220308051600.jpg</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>920</t>
+          <t>85900</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
@@ -1934,7 +1934,11 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr"/>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>딥티크</t>
+        </is>
+      </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
@@ -1963,22 +1967,22 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>디프로젝트 디릴라고 고릴라 고급 차량용 방향제 자동차 디퓨저</t>
+          <t>미스터앤미세스 니키 차량용 방향제 리필</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26801331279</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=10149695240</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2680133/26801331279.20211222172904.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1014969/10149695240.20201014180005.jpg</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>49000</t>
+          <t>4800</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
@@ -1992,16 +1996,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>디프로젝트</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>디프로젝트</t>
-        </is>
-      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2029,22 +2025,22 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>포라이트 데무르 고급 자동차 천연 임산부 차량 방향제</t>
+          <t>리틀트리 걸이형 종이 방향제</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31557699426</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=7162545992</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3155769/31557699426.20220402023654.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_7162545/7162545992.20190731170829.jpg</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>29000</t>
+          <t>920</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
@@ -2087,22 +2083,22 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>로얄워터 텀블러 모양 차량용 방향제 신차선물</t>
+          <t>불스원 폴라프레쉬 선바이저 방향제 리필</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29835967618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=17787599329</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2983596/29835967618.20211125191149.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1778759/17787599329.20220107133652.jpg</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>49000</t>
+          <t>2110</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
@@ -2118,12 +2114,12 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>로얄워터</t>
+          <t>불스원</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>로얄워터</t>
+          <t>불스원</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2153,22 +2149,22 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>딥티크 차량용방향제 세트 케이스 + 리필용 캡슐</t>
+          <t>크로마치 고급 차량용 방향제 자동차 디퓨저 명품 차량 송풍구</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28620531681</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31278229629</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2862053/28620531681.20220308051600.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3127822/31278229629.20220521051428.jpg</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>85900</t>
+          <t>65000</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
@@ -2184,7 +2180,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>딥티크</t>
+          <t>크로마치</t>
         </is>
       </c>
       <c r="J29" t="inlineStr"/>
@@ -2215,17 +2211,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>디프로젝트 디버니 토끼 고급 차량용 방향제 자동차 디퓨저</t>
+          <t>디프로젝트 디릴라고 고릴라 고급 차량용 방향제 자동차 디퓨저</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27331951522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26801331279</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2733195/27331951522.20211222172819.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2680133/26801331279.20211222172904.jpg</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2281,22 +2277,22 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>명품고급디퓨저 마일론 갤러리3 차량용 방향제 MGAL-03</t>
+          <t>디프로젝트 리필킷 디불 디버니 디릴라고 차량용방향제 자동차 디퓨저 고체 리필 DP-RF02</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31231762618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18367838563</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3123176/31231762618.20220310141449.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1836783/18367838563.20211108142647.jpg</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>39900</t>
+          <t>13000</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
@@ -2312,12 +2308,12 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>마일론</t>
+          <t>디프로젝트</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>명품고급디퓨저</t>
+          <t>디프로젝트</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2405,22 +2401,22 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>디프로젝트 리필킷 디불 디버니 디릴라고 차량용방향제 자동차 디퓨저 고체 리필 DP-RF02</t>
+          <t>카퓸 고급 차량용 명품 방향제 송풍구형</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18367838563</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18251740392</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1836783/18367838563.20211108142647.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1825174/18251740392.20190322192938.jpg</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>13000</t>
+          <t>35000</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
@@ -2436,14 +2432,10 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>디프로젝트</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>디프로젝트</t>
-        </is>
-      </c>
+          <t>카퓸</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2471,22 +2463,22 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>크로마치 고급 차량용 방향제 자동차 디퓨저 명품 차량 송풍구</t>
+          <t>에이센트 네이처 차량용 디퓨저 방향제 120ml</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31278229629</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27334130786</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3127822/31278229629.20220521051428.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2733413/27334130786.20211216041142.jpg</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>65000</t>
+          <t>6960</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
@@ -2502,7 +2494,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>크로마치</t>
+          <t>에이센트</t>
         </is>
       </c>
       <c r="J34" t="inlineStr"/>
@@ -2533,22 +2525,22 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>카퓸 고급 차량용 명품 방향제 송풍구형</t>
+          <t>디프로젝트 디버니 토끼 고급 차량용 방향제 자동차 디퓨저</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18251740392</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27331951522</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1825174/18251740392.20190322192938.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2733195/27331951522.20211222172819.jpg</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>35000</t>
+          <t>49000</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
@@ -2564,10 +2556,14 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>카퓸</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr"/>
+          <t>디프로젝트</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>디프로젝트</t>
+        </is>
+      </c>
       <c r="K35" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2595,22 +2591,22 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>산도깨비 차량용 멤브렌 리필 방향제 x 10개입 휘튼치드</t>
+          <t>명품고급디퓨저 마일론 갤러리3 차량용 방향제 MGAL-03</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25695237598</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31231762618</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2569523/25695237598.20220326034624.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3123176/31231762618.20220310141449.jpg</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>21570</t>
+          <t>39900</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
@@ -2626,10 +2622,14 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>산도깨비</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr"/>
+          <t>마일론</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>명품고급디퓨저</t>
+        </is>
+      </c>
       <c r="K36" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2657,22 +2657,22 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>불스원 그라스 디퓨저 블루 차량용 방향제 100ml</t>
+          <t>양키캔들 벤트스틱 차량용 방향제 4P입</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24063116873</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=6552648097</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2406311/24063116873.20210111145156.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_6552648/6552648097.20190731160942.jpg</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>12060</t>
+          <t>3520</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
@@ -2688,10 +2688,14 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>불스원</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr"/>
+          <t>양키캔들</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>양키캔들</t>
+        </is>
+      </c>
       <c r="K37" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2719,22 +2723,22 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>블랩 오르브 오브제 고급 차량용 디퓨저 방향제 120ml</t>
+          <t>산도깨비 차량용 멤브렌 리필 방향제 x 10개입 휘튼치드</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30431426701</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25695237598</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3043142/30431426701.20220616110358.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2569523/25695237598.20220326034624.jpg</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>12600</t>
+          <t>21570</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
@@ -2750,14 +2754,10 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>오르브</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>블랩</t>
-        </is>
-      </c>
+          <t>산도깨비</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2785,22 +2785,22 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>에이센트 네이처 차량용 디퓨저 방향제 120ml</t>
+          <t>블랩 오르브 오브제 고급 차량용 디퓨저 방향제 120ml</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27334130786</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30431426701</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2733413/27334130786.20211216041142.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3043142/30431426701.20220616110358.jpg</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>6760</t>
+          <t>12600</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
@@ -2816,10 +2816,14 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>에이센트</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr"/>
+          <t>오르브</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>블랩</t>
+        </is>
+      </c>
       <c r="K39" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2847,22 +2851,22 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>양키캔들 벤트스틱 차량용 방향제 4P입</t>
+          <t>양키캔들 1 1 양키캔들 카자얼티메이트 차량용 방향제</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=6552648097</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29582915037</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_6552648/6552648097.20190731160942.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2958291/29582915037.20211108020618.jpg</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>3550</t>
+          <t>5520</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
@@ -2913,22 +2917,22 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>센트몬스터 고양이 차량용 방향제 고급 디퓨져</t>
+          <t>불스원 그라스 디퓨저 블루 차량용 방향제 100ml</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24163460435</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24063116873</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2416346/24163460435.20210124121840.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2406311/24063116873.20210111145156.jpg</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>39000</t>
+          <t>12060</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
@@ -2944,7 +2948,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>센트몬스터</t>
+          <t>불스원</t>
         </is>
       </c>
       <c r="J41" t="inlineStr"/>
@@ -2975,22 +2979,22 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>P&amp;amp;G 페브리즈 차량용 방향제 2.2ml 3개</t>
+          <t>까사몬타 차량용 송풍구 디퓨저 명품 자동차 방향제</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20397190459</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31877396570</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2039719/20397190459.20190726113415.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3187739/31877396570.20220418002955.jpg</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>8620</t>
+          <t>43000</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
@@ -3006,14 +3010,10 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>페브리즈</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>P&amp;G</t>
-        </is>
-      </c>
+          <t>까사몬타</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3041,22 +3041,22 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>양키캔들 1 1 양키캔들 카자얼티메이트 차량용 방향제</t>
+          <t>바흐가르트 차량용방향제 석고 송풍구 방향제</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29582915037</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30841337224</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2958291/29582915037.20211108020618.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3084133/30841337224.20220321115121.jpg</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>5520</t>
+          <t>38900</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
@@ -3072,14 +3072,10 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>양키캔들</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>양키캔들</t>
-        </is>
-      </c>
+          <t>바흐가르트</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3107,22 +3103,22 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>까사몬타 차량용 송풍구 디퓨저 명품 자동차 방향제</t>
+          <t>허브타임 시그니처 차량용 방향제 60m</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31877396570</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30756073471</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3187739/31877396570.20220418002955.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3075607/30756073471.20220202024136.jpg</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>43000</t>
+          <t>14900</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
@@ -3138,10 +3134,14 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>까사몬타</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr"/>
+          <t>허브타임</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>허브타임</t>
+        </is>
+      </c>
       <c r="K44" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3169,22 +3169,22 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>허브타임 시그니처 차량용 방향제 60m</t>
+          <t>미스터앤미세스 니키 클래식 차량용 방향제 본품</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30756073471</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25359648694</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3075607/30756073471.20220202024136.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2535964/25359648694.20201224195431.jpg</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>13410</t>
+          <t>8200</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
@@ -3198,16 +3198,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>허브타임</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>허브타임</t>
-        </is>
-      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3235,22 +3227,22 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>바흐가르트 차량용방향제 석고 송풍구 방향제</t>
+          <t>아우라 카카오 모니터걸이형 방향제 라이언 블루스카이향 10g x1개</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30841337224</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24014062100</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3084133/30841337224.20220321115121.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2401406/24014062100.20200903003222.jpg</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>38900</t>
+          <t>13900</t>
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
@@ -3264,11 +3256,7 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>바흐가르트</t>
-        </is>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
@@ -3297,22 +3285,22 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>벨라독스 차량용 방향제 고급 불독 방향제 BD-1 메탈릭 외 2종</t>
+          <t>센트몬스터 고양이 차량용 방향제 고급 디퓨져</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30431626549</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24163460435</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3043162/30431626549.20220525071539.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2416346/24163460435.20210124121840.jpg</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>48000</t>
+          <t>39000</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
@@ -3326,7 +3314,11 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I47" t="inlineStr"/>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>센트몬스터</t>
+        </is>
+      </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
@@ -3355,22 +3347,22 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>미스터앤미세스 니키 클래식 차량용 방향제 본품</t>
+          <t>P&amp;amp;G 페브리즈 차량용 방향제 2.2ml 3개</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25359648694</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20397190459</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2535964/25359648694.20201224195431.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2039719/20397190459.20190726113415.jpg</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>8200</t>
+          <t>8620</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
@@ -3384,8 +3376,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>페브리즈</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>P&amp;G</t>
+        </is>
+      </c>
       <c r="K48" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3413,22 +3413,22 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>JW중외제약 JW생활건강 피톤케어 차량용 방향제 리필 카트리지</t>
+          <t>오마르 퍼퓸베어 베어브릭 차량용방향제 기본형</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=15901498616</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27192765898</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1590149/15901498616.20211116120223.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2719276/27192765898.20220330020644.jpg</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>19000</t>
+          <t>13900</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
@@ -3444,14 +3444,10 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>JW생활건강</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>JW중외제약</t>
-        </is>
-      </c>
+          <t>오마르</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3479,22 +3475,22 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>부테스 미라클 LED무빙 충전식 차량용 방향제</t>
+          <t>로베르타디까메리노 방향제 송풍구 리틀포레스트향수</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=32185539346</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29185219914</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3218553/32185539346.20220505161126.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2918521/29185219914.20211022050132.jpg</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>29700</t>
+          <t>11900</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
@@ -3508,7 +3504,11 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I50" t="inlineStr"/>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>로베르타디까메리노</t>
+        </is>
+      </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
@@ -3537,22 +3537,22 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>아우라 카카오 모니터걸이형 방향제 라이언 블루스카이향 10g x1개</t>
+          <t>부테스 미라클 LED무빙 충전식 차량용 방향제</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24014062100</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=32185539346</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2401406/24014062100.20200903003222.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3218553/32185539346.20220505161126.jpg</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>13900</t>
+          <t>29700</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
@@ -3595,22 +3595,22 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>더드림 꽃 베어브릭 석고 차량용 방향제 귀여운 자동차 송풍구 디퓨저</t>
+          <t>JW중외제약 JW생활건강 피톤케어 차량용 방향제 리필 카트리지</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27124471579</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=15901498616</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2712447/27124471579.20210512182954.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1590149/15901498616.20211116120223.jpg</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11700</t>
+          <t>19000</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
@@ -3626,10 +3626,14 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>더드림</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr"/>
+          <t>JW생활건강</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>JW중외제약</t>
+        </is>
+      </c>
       <c r="K52" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3657,22 +3661,22 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>오마르 퍼퓸베어 베어브릭 차량용방향제 기본형</t>
+          <t>벨라독스 차량용 방향제 고급 불독 방향제 BD-1 메탈릭 외 2종</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27192765898</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30431626549</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2719276/27192765898.20220330020644.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3043162/30431626549.20220525071539.jpg</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>13900</t>
+          <t>48000</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
@@ -3686,11 +3690,7 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>오마르</t>
-        </is>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
@@ -3719,43 +3719,43 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>제이엠제이라인 도슈아 차량용 방향제 리필 도자기</t>
+          <t>아뮈잔트 고급 차량용 방향제 명품 자동차 디퓨저 블랙 120ml</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20347407194</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=80920267289</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2034740/20347407194.20211001120304.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8092026/80920267289.12.jpg</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>20000</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>아뮈잔트</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>도슈아</t>
+          <t>아뮈잔트</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>제이엠제이라인</t>
+          <t>아뮈잔트</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -3785,22 +3785,22 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>불스원 그라스 오브제 디퓨저 차량용 방향제 100ml</t>
+          <t>청개구리 멤브렌 방향제 공기청향제 탈취제 산도깨비</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30425453618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29899764272</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3042545/30425453618.20220105100536.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2989976/29899764272.20211201020417.jpg</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>17500</t>
+          <t>1650</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
@@ -3814,16 +3814,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>불스원</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>불스원</t>
-        </is>
-      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3851,22 +3843,22 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>산도깨비 멤브렌 피톤치드 차량용 방향제 6g</t>
+          <t>제이엠제이라인 도슈아 차량용 방향제 리필 도자기</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20254478730</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20347407194</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2025447/20254478730.20190716114220.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2034740/20347407194.20211001120304.jpg</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2090</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
@@ -3882,12 +3874,12 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>산도깨비</t>
+          <t>도슈아</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>산도깨비</t>
+          <t>제이엠제이라인</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -3917,22 +3909,22 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>청개구리 멤브렌 방향제 공기청향제 탈취제 산도깨비</t>
+          <t>피에르블랑 차량용 방향제 명품 고급 자동차 디퓨저 불독 차</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29899764272</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27347707581</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2989976/29899764272.20211201020417.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2734770/27347707581.20210727114934.jpg</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>1660</t>
+          <t>45790</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
@@ -3975,22 +3967,22 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>라피네르 명품 로얄스페이드 듀오 차량용방향제</t>
+          <t>리빙인아로마 쿤달 퍼퓸 차량용 디퓨저 2구 세트 블랙체리</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30565184917</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24803290609</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3056518/30565184917.20220425114558.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2480329/24803290609.20220330045234.jpg</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>39330</t>
+          <t>10900</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
@@ -4006,12 +3998,12 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>라피네르</t>
+          <t>쿤달</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>라피네르</t>
+          <t>리빙인아로마</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -4041,22 +4033,22 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>명품고급디퓨저 마일론 갤러리1 차량용 방향제 MGAL-01</t>
+          <t>더드림 꽃 베어브릭 석고 차량용 방향제 귀여운 자동차 송풍구 디퓨저</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30352215619</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27124471579</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3035221/30352215619.20220102155103.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2712447/27124471579.20210512182954.jpg</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>49000</t>
+          <t>11700</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
@@ -4072,14 +4064,10 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>마일론</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>명품고급디퓨저</t>
-        </is>
-      </c>
+          <t>더드림</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4107,22 +4095,22 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>딥티크 차량용 방향제 케이스 베이 리필 세트</t>
+          <t>불스원 그라스 오브제 디퓨저 차량용 방향제 100ml</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28546536156</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30425453618</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2854653/28546536156.20220224012118.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3042545/30425453618.20220105100536.jpg</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>20300</t>
+          <t>17500</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
@@ -4138,10 +4126,14 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>딥티크</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr"/>
+          <t>불스원</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>불스원</t>
+        </is>
+      </c>
       <c r="K60" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4169,43 +4161,43 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>아뮈잔트 고급 차량용 방향제 명품 자동차 디퓨저 블랙 120ml</t>
+          <t>산도깨비 멤브렌 피톤치드 차량용 방향제 6g</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=80920267289</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20254478730</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8092026/80920267289.12.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2025447/20254478730.20190716114220.jpg</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>20000</t>
+          <t>2090</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr">
         <is>
-          <t>아뮈잔트</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>아뮈잔트</t>
+          <t>산도깨비</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>아뮈잔트</t>
+          <t>산도깨비</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -4235,22 +4227,22 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>리빙인아로마 쿤달 퍼퓸 차량용 디퓨저 2구 세트 블랙체리</t>
+          <t>라피네르 명품 로얄스페이드 듀오 차량용방향제</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24803290609</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30565184917</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2480329/24803290609.20220330045234.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3056518/30565184917.20220425114558.jpg</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10900</t>
+          <t>39330</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
@@ -4266,12 +4258,12 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>쿤달</t>
+          <t>라피네르</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>리빙인아로마</t>
+          <t>라피네르</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -4301,22 +4293,22 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>라미유 차량용 고급 송풍구 방향제 블랙체리향 1+1</t>
+          <t>명품고급디퓨저 마일론 갤러리1 차량용 방향제 MGAL-01</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30586965618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30352215619</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3058696/30586965618.20220421134837.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3035221/30352215619.20220102155103.jpg</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>15900</t>
+          <t>49000</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
@@ -4332,12 +4324,12 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>라미유</t>
+          <t>마일론</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>라미유</t>
+          <t>명품고급디퓨저</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -4367,22 +4359,22 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>토씨 클래시맨 명품 고급 차량용방향제 룸미러걸이형</t>
+          <t>크롬디 차량용방향제 CD-9</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25695599950</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31387912762</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2569559/25695599950.20220627174817.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3138791/31387912762.20220320033422.jpg</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>85000</t>
+          <t>24900</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
@@ -4396,16 +4388,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>토씨</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>토씨</t>
-        </is>
-      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4433,22 +4417,22 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>FYC 고급 명품 불독 차량용 방향제 디퓨저</t>
+          <t>딥티크 차량용 방향제 케이스 베이 리필 세트</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24941672502</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28546536156</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2494167/24941672502.20201122175400.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2854653/28546536156.20220224012118.jpg</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>39000</t>
+          <t>19900</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
@@ -4462,7 +4446,11 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I65" t="inlineStr"/>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>딥티크</t>
+        </is>
+      </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
@@ -4491,37 +4479,45 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>크롬디 차량용방향제 CD-9</t>
+          <t>벤볼릭 명품 차량용 방향제 고급 자동차 차량 디퓨져</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31387912762</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82293143959</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3138791/31387912762.20220320033422.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8229314/82293143959.16.jpg</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>24900</t>
+          <t>28000</t>
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>매드포모던</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>벤볼릭</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>키니캔들</t>
+        </is>
+      </c>
       <c r="K66" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4549,45 +4545,37 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>벤볼릭 명품 차량용 방향제 고급 자동차 차량 디퓨져</t>
+          <t>FYC 고급 명품 불독 차량용 방향제 디퓨저</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82293143959</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24941672502</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8229314/82293143959.16.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2494167/24941672502.20201122175400.jpg</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>28000</t>
+          <t>39000</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
-          <t>매드포모던</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>벤볼릭</t>
-        </is>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>키니캔들</t>
-        </is>
-      </c>
+          <t>일반 - 가격비교 상품</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4615,22 +4603,22 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>아우라 카카오 어피치 모니터걸이형 방향제 4.5ml</t>
+          <t>토씨 클래시맨 명품 고급 차량용방향제 룸미러걸이형</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26955394520</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25695599950</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2695539/26955394520.20210428203230.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2569559/25695599950.20220627174817.jpg</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>14600</t>
+          <t>85000</t>
         </is>
       </c>
       <c r="F68" t="inlineStr"/>
@@ -4646,10 +4634,14 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>아우라</t>
-        </is>
-      </c>
-      <c r="J68" t="inlineStr"/>
+          <t>토씨</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>토씨</t>
+        </is>
+      </c>
       <c r="K68" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4677,22 +4669,22 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>루크타 도베르만 차량용 자동차 송풍구 차 고급 방향제 디퓨저 LT-DB01</t>
+          <t>라미유 차량용 고급 송풍구 방향제 블랙체리향 1+1</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25380843939</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30586965618</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2538084/25380843939.20220113101814.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3058696/30586965618.20220421134837.jpg</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>49000</t>
+          <t>15900</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
@@ -4708,10 +4700,14 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>루크타</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr"/>
+          <t>라미유</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>라미유</t>
+        </is>
+      </c>
       <c r="K69" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4739,22 +4735,22 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>올리바노 메탈 엠블럼 차량용 방향제 송풍구형 리필형</t>
+          <t>헤니르 송풍구 클립형 파일럿 베어 차량용 방향제</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28618378553</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=32959861840</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2861837/28618378553.20210828185043.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3295986/32959861840.20220615123158.jpg</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>17790</t>
+          <t>12000</t>
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
@@ -4797,22 +4793,22 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>다신 불독 송풍구 차량용 방향제 디퓨저</t>
+          <t>제로스킨 로보트 태권브이 차량용 방향제 자동차 디퓨저 AD-KF90</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31542390843</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29535937618</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3154239/31542390843.20220407161514.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2953593/29535937618.20211216102403.jpg</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>14400</t>
+          <t>46020</t>
         </is>
       </c>
       <c r="F71" t="inlineStr"/>
@@ -4826,8 +4822,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>제로스킨</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>제로스킨</t>
+        </is>
+      </c>
       <c r="K71" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4855,22 +4859,22 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>불스원 그라스클래식 디퓨저 차량용방향제 2개 퓨어코튼</t>
+          <t>디씨네트워크 동물 고급 불독 디퓨저 차량용 방향제</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31268113361</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=32071883828</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3126811/31268113361.20220312023642.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3207188/32071883828.20220428154021.jpg</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>16900</t>
+          <t>12250</t>
         </is>
       </c>
       <c r="F72" t="inlineStr"/>
@@ -4886,12 +4890,12 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>불스원</t>
+          <t>디씨네트워크</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>불스원</t>
+          <t>디씨네트워크</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -4921,45 +4925,37 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>불스원 그라스 디퓨저 105ml 블랙베리 체리 방향제</t>
+          <t>리틀트리 TREE 차량용 실내용 걸이형 종이 페이퍼 옷장 방향제</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26677172452</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82937356876</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2667717/26677172452.20210407202430.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8293735/82937356876.1.jpg</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>7830</t>
+          <t>790</t>
         </is>
       </c>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>프랜드캣</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>불스원</t>
-        </is>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>불스원</t>
-        </is>
-      </c>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4987,22 +4983,22 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>로베르타디까메리노 방향제 송풍구 리틀포레스트향수</t>
+          <t>다신 불독 송풍구 차량용 방향제 디퓨저</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29185219914</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31542390843</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2918521/29185219914.20211022050132.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3154239/31542390843.20220407161514.jpg</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11900</t>
+          <t>14400</t>
         </is>
       </c>
       <c r="F74" t="inlineStr"/>
@@ -5016,11 +5012,7 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>로베르타디까메리노</t>
-        </is>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
@@ -5049,22 +5041,22 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>미스터앤미세스 체사레 시저 차량용 방향제</t>
+          <t>불스원 그라스클래식 디퓨저 차량용방향제 2개 퓨어코튼</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=8119194241</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31268113361</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8119194/8119194241.20190802121728.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3126811/31268113361.20220312023642.jpg</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>6990</t>
+          <t>16900</t>
         </is>
       </c>
       <c r="F75" t="inlineStr"/>
@@ -5078,8 +5070,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>불스원</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>불스원</t>
+        </is>
+      </c>
       <c r="K75" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -5173,22 +5173,22 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>KAN 뷰센트 De.Line 차량용 방향제 싱글세트</t>
+          <t>양키캔들 얼티메이트 미드썸머나잇 차량용 방향제</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18985549503</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25940561903</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1898554/18985549503.20210713121106.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2594056/25940561903.20210209203509.jpg</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>12800</t>
+          <t>3280</t>
         </is>
       </c>
       <c r="F77" t="inlineStr"/>
@@ -5204,12 +5204,12 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>뷰센트</t>
+          <t>양키캔들</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>KAN</t>
+          <t>양키캔들</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -5239,22 +5239,22 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>피에르블랑 차량용 방향제 명품 고급 자동차 디퓨저 불독 차</t>
+          <t>코코쥬 차량용 방향제 고급 프로펠러 자동차 디퓨져 새차 선물</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27347707581</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31875412948</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2734770/27347707581.20210727114934.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3187541/31875412948.20220417180424.jpg</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>47300</t>
+          <t>29800</t>
         </is>
       </c>
       <c r="F78" t="inlineStr"/>
@@ -5297,45 +5297,41 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>조말론 차량용 방향제 센트투고 명품향수 고급 디퓨저 거치대</t>
+          <t>루크타 도베르만 차량용 자동차 송풍구 차 고급 방향제 디퓨저 LT-DB01</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=83025886866</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25380843939</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8302588/83025886866.1.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2538084/25380843939.20220113101814.jpg</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>48500</t>
+          <t>49000</t>
         </is>
       </c>
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr">
         <is>
-          <t>홍콩걸즈</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>조말론</t>
-        </is>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>조말론</t>
-        </is>
-      </c>
+          <t>루크타</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -5363,28 +5359,28 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>리틀트리 TREE 차량용 실내용 걸이형 종이 페이퍼 옷장 방향제</t>
+          <t>조말론 차량용 방향제 센트투고 명품향수 고급 디퓨저 거치대</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82937356876</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=83025886866</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8293735/82937356876.1.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8302588/83025886866.1.jpg</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>790</t>
+          <t>48500</t>
         </is>
       </c>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr">
         <is>
-          <t>프랜드캣</t>
+          <t>홍콩걸즈</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -5392,8 +5388,16 @@
           <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>조말론</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>조말론</t>
+        </is>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -5421,40 +5425,36 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>불스원 그라스 디퓨저 프랑스산 차량용방향제</t>
+          <t>도그독 명품 큐빅불독 푸들 차량용 방향제 고급 자동차 디퓨저 베어브릭 동물 새차 선물</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30458923086</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=84349477491</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3045892/30458923086.20220322103751.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8434947/84349477491.jpg</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>8582</t>
+          <t>24800</t>
         </is>
       </c>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>쇼핑이상</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>불스원</t>
-        </is>
-      </c>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
@@ -5483,22 +5483,22 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>코코쥬 차량용 방향제 고급 프로펠러 자동차 디퓨져 새차 선물</t>
+          <t>미스터앤미세스 체사레 시저 차량용 방향제</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31875412948</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=8119194241</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3187541/31875412948.20220417180424.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8119194/8119194241.20190802121728.jpg</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>29800</t>
+          <t>6990</t>
         </is>
       </c>
       <c r="F82" t="inlineStr"/>
@@ -5541,22 +5541,22 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>헤니르 송풍구 클립형 파일럿 베어 차량용 방향제</t>
+          <t>아우라 카카오 어피치 모니터걸이형 방향제 4.5ml</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=32959861840</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26955394520</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3295986/32959861840.20220615123158.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2695539/26955394520.20210428203230.jpg</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>12000</t>
+          <t>14600</t>
         </is>
       </c>
       <c r="F83" t="inlineStr"/>
@@ -5570,7 +5570,11 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I83" t="inlineStr"/>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>아우라</t>
+        </is>
+      </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
@@ -5599,22 +5603,22 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>양키캔들 얼티메이트 미드썸머나잇 차량용 방향제</t>
+          <t>KAN 뷰센트 De.Line 차량용 방향제 싱글세트</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25940561903</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18985549503</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2594056/25940561903.20210209203509.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1898554/18985549503.20210713121106.jpg</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>3280</t>
+          <t>12800</t>
         </is>
       </c>
       <c r="F84" t="inlineStr"/>
@@ -5630,12 +5634,12 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>양키캔들</t>
+          <t>뷰센트</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>양키캔들</t>
+          <t>KAN</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -5665,40 +5669,36 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>엘지생활건강 아우라 카카오프렌즈 차량용 방향제 리필 2mlx2</t>
+          <t>[LITTLE TREES]리틀트리 방향제 종이방향제 1p 모음전</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27027962659</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=83050195147</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2702796/27027962659.20210504183327.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8305019/83050195147.jpg</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>6760</t>
+          <t>900</t>
         </is>
       </c>
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>LITTLE TREES</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>엘지생활건강</t>
-        </is>
-      </c>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
@@ -5727,22 +5727,22 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>제로스킨 로보트 태권브이 차량용 방향제 자동차 디퓨저 AD-KF90</t>
+          <t>불스원 그라스 디퓨저 프랑스산 차량용방향제</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29535937618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30458923086</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2953593/29535937618.20211216102403.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3045892/30458923086.20220322103751.jpg</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>46020</t>
+          <t>8582</t>
         </is>
       </c>
       <c r="F86" t="inlineStr"/>
@@ -5758,14 +5758,10 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>제로스킨</t>
-        </is>
-      </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>제로스킨</t>
-        </is>
-      </c>
+          <t>불스원</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -5793,22 +5789,22 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>명품고급디퓨저 마일론 갤러리2 차량용 방향제 MGAL-02</t>
+          <t>올리바노 메탈 엠블럼 차량용 방향제 송풍구형 리필형</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30441772620</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28618378553</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3044177/30441772620.20220204192733.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2861837/28618378553.20210828185043.jpg</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>49000</t>
+          <t>17790</t>
         </is>
       </c>
       <c r="F87" t="inlineStr"/>
@@ -5822,16 +5818,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>마일론</t>
-        </is>
-      </c>
-      <c r="J87" t="inlineStr">
-        <is>
-          <t>명품고급디퓨저</t>
-        </is>
-      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -5859,37 +5847,45 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>미스터앤미세스 니키 본품/리필 차량용 방향제</t>
+          <t>명품고급디퓨저 마일론 갤러리2 차량용 방향제 MGAL-02</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=10017842540</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30441772620</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1001784/10017842540.13.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3044177/30441772620.20220204192733.jpg</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>7200</t>
+          <t>49000</t>
         </is>
       </c>
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr">
         <is>
-          <t>반도향기나라</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
+          <t>일반 - 가격비교 상품</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>마일론</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>명품고급디퓨저</t>
+        </is>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -5917,28 +5913,28 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>[LITTLE TREES]리틀트리 방향제 종이방향제 1p 모음전</t>
+          <t>캘리포니아센트 캔타입 방향제 15종 모음</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=83050195147</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=83239063403</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8305019/83050195147.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8323906/83239063403.2.jpg</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>900</t>
+          <t>4300</t>
         </is>
       </c>
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr">
         <is>
-          <t>LITTLE TREES</t>
+          <t>캘리포니아센트 공식대리점</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -5946,8 +5942,16 @@
           <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>캘리포니아센트</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>에너자이저</t>
+        </is>
+      </c>
       <c r="K89" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -5975,41 +5979,45 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>페브리즈 차량용 방향제 6개입</t>
+          <t>벨르아망 포켓몬 피규어 차량용 방향제 메타몽 팬텀 마자용 푸린 새차 선물</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28545855511</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=84024516394</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2854585/28545855511.20220405030723.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8402451/84024516394.jpg</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>16370</t>
+          <t>19800</t>
         </is>
       </c>
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>BELLE AMANT</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>페브리즈</t>
-        </is>
-      </c>
-      <c r="J90" t="inlineStr"/>
+          <t>벨르아망</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>제이앤컴퍼니</t>
+        </is>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -6037,22 +6045,22 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>양키캔들 차밍센츠 고급 차량용 방향제 리필 16g</t>
+          <t>페브리즈 차량용 방향제 6개입</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24073000302</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28545855511</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2407300/24073000302.20200907200512.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2854585/28545855511.20220405030723.jpg</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>6000</t>
+          <t>16830</t>
         </is>
       </c>
       <c r="F91" t="inlineStr"/>
@@ -6068,7 +6076,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>양키캔들</t>
+          <t>페브리즈</t>
         </is>
       </c>
       <c r="J91" t="inlineStr"/>
@@ -6099,28 +6107,28 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>벨르아망 포켓몬 피규어 차량용 방향제 메타몽 팬텀 마자용 푸린 새차 선물</t>
+          <t>미스터앤미세스 니키 본품/리필 차량용 방향제</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=84024516394</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=10017842540</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8402451/84024516394.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1001784/10017842540.13.jpg</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>19800</t>
+          <t>7200</t>
         </is>
       </c>
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr">
         <is>
-          <t>BELLE AMANT</t>
+          <t>반도향기나라</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -6128,16 +6136,8 @@
           <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>벨르아망</t>
-        </is>
-      </c>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>제이앤컴퍼니</t>
-        </is>
-      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -6223,22 +6223,22 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>KAN 뷰센트 자동차 송풍구 메탈 차량용 방향제 선물 2세트</t>
+          <t>엘지생활건강 아우라 카카오프렌즈 차량용 방향제 리필 2mlx2</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31597320645</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27027962659</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3159732/31597320645.20220429115323.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2702796/27027962659.20210504183327.jpg</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>25900</t>
+          <t>6730</t>
         </is>
       </c>
       <c r="F94" t="inlineStr"/>
@@ -6254,14 +6254,10 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>뷰센트</t>
-        </is>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>KAN</t>
-        </is>
-      </c>
+          <t>엘지생활건강</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -6289,22 +6285,22 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>차량용 아쿠아디파르마 방향제 가죽케이스 9종향 쇼핑백 파우치 새차선물</t>
+          <t>양키캔들 차밍센츠 고급 차량용 방향제 리필 16g</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31854323248</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24073000302</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3185432/31854323248.20220416093152.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2407300/24073000302.20200907200512.jpg</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>41500</t>
+          <t>6000</t>
         </is>
       </c>
       <c r="F95" t="inlineStr"/>
@@ -6318,7 +6314,11 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I95" t="inlineStr"/>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>양키캔들</t>
+        </is>
+      </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
@@ -6347,22 +6347,22 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>에이비 얼굴 일러스트 사진 차량용방향제 2set</t>
+          <t>모먼트 리필액 1+1 고급 차량용 디퓨저 자동차 차량 송풍구 방향제 신차 선물 차 향수</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27190906522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31558660043</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2719090/27190906522.20210518150908.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3155866/31558660043.20220401021156.jpg</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>17900</t>
+          <t>9700</t>
         </is>
       </c>
       <c r="F96" t="inlineStr"/>
@@ -6378,14 +6378,10 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>에이비</t>
-        </is>
-      </c>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>에이비</t>
-        </is>
-      </c>
+          <t>모먼트</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -6413,37 +6409,45 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>도그독 명품 큐빅불독 푸들 차량용 방향제 고급 자동차 디퓨저 베어브릭 동물 새차 선물</t>
+          <t>KAN 뷰센트 자동차 송풍구 메탈 차량용 방향제 선물 2세트</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=84349477491</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31597320645</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8434947/84349477491.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3159732/31597320645.20220429115323.jpg</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>24800</t>
+          <t>25900</t>
         </is>
       </c>
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr">
         <is>
-          <t>쇼핑이상</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
-        </is>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
+          <t>일반 - 가격비교 상품</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>뷰센트</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>KAN</t>
+        </is>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -6471,22 +6475,22 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>픽도큐먼트 베어브릭 송풍구 차량용 방향제</t>
+          <t>에이비 얼굴 일러스트 사진 차량용방향제 2set</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29900193281</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27190906522</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2990019/29900193281.20211208030917.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2719090/27190906522.20210518150908.jpg</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>13900</t>
+          <t>17900</t>
         </is>
       </c>
       <c r="F98" t="inlineStr"/>
@@ -6500,8 +6504,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>에이비</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>에이비</t>
+        </is>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -6529,22 +6541,22 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>불스원 폴라프레쉬 NEW 선바이저 차량용 방향제</t>
+          <t>불스원 그라스 디퓨저 105ml 블랙베리 체리 방향제</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29422282618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26677172452</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2942228/29422282618.20211027100552.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2667717/26677172452.20210407202430.jpg</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>7900</t>
+          <t>7830</t>
         </is>
       </c>
       <c r="F99" t="inlineStr"/>
@@ -6595,43 +6607,43 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>카카오 아우라 모니터걸이 방향제 캐릭터 피규어 라이언 어피치</t>
+          <t>에너자이저 캘리포니아센트 방향제 코로나도 체리향</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=83136484211</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29022166369</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8313648/83136484211.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2902216/29022166369.20210929024636.jpg</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>17770</t>
+          <t>4300</t>
         </is>
       </c>
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr">
         <is>
-          <t>다나와25</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>카카오프렌즈</t>
+          <t>캘리포니아센트</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>엘지생활건강</t>
+          <t>에너자이저</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -6661,22 +6673,22 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>에멜시 클립형 차량용방향제 자동차방향제</t>
+          <t>캘리포니아센트 차량용방향제 실내 캔 벤트스틱 디퓨저</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24015321886</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=32935072286</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2401532/24015321886.20201218150649.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3293507/32935072286.20220614120730.jpg</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>19710</t>
+          <t>3400</t>
         </is>
       </c>
       <c r="F101" t="inlineStr"/>
@@ -6690,7 +6702,11 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I101" t="inlineStr"/>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>캘리포니아센트</t>
+        </is>
+      </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>

--- a/output.xlsx
+++ b/output.xlsx
@@ -505,22 +505,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>플래트 고급 프로펠러 차량용 방향제 F430</t>
+          <t>불스원 그라스 디퓨져 차량용 방향제 105ml</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27806043522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=12140232094</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2780604/27806043522.20210701115440.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1214023/12140232094.20211006140204.jpg</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>41320</t>
+          <t>9310</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
@@ -536,10 +536,14 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>플래트</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr"/>
+          <t>불스원</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>불스원</t>
+        </is>
+      </c>
       <c r="K3" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -625,22 +629,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>디프로젝트 디불 불독 고급 차량용 방향제 자동차 디퓨저</t>
+          <t>엠퓨처 불독 송풍구 고급 차량용 방향제 디퓨저 MF-CAF02</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=13697148540</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30458791731</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1369714/13697148540.20211222172941.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3045879/30458791731.20220117151934.jpg</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>49000</t>
+          <t>14740</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
@@ -656,14 +660,10 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>디프로젝트</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>디프로젝트</t>
-        </is>
-      </c>
+          <t>엠퓨처</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -823,22 +823,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>엠퓨처 불독 송풍구 고급 차량용 방향제 디퓨저 MF-CAF02</t>
+          <t>제이엠제이라인 도슈아 클래식 프리미엄 차량용 방향제</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30458791731</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=17787594512</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3045879/30458791731.20220117151934.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1778759/17787594512.20210802225254.jpg</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>14590</t>
+          <t>29750</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
@@ -854,10 +854,14 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>엠퓨처</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr"/>
+          <t>도슈아</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>제이엠제이라인</t>
+        </is>
+      </c>
       <c r="K8" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -885,22 +889,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>제이엠제이라인 도슈아 클래식 프리미엄 차량용 방향제</t>
+          <t>센트데코 후드독 차량용 방향제 고급 명품 디퓨저 차방향제 새차선물 SCD-01</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=17787594512</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30570794618</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1778759/17787594512.20210802225254.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3057079/30570794618.20220623052632.jpg</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>29750</t>
+          <t>29000</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
@@ -916,12 +920,12 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>도슈아</t>
+          <t>센트데코</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>제이엠제이라인</t>
+          <t>센트데코</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -951,22 +955,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ELLA 프라임 호랑이 차량용 방향제 프로펠러</t>
+          <t>디프로젝트 디불 불독 고급 차량용 방향제 자동차 디퓨저</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30617053618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=13697148540</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3061705/30617053618.20220120171741.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1369714/13697148540.20211222172941.jpg</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>29700</t>
+          <t>49000</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
@@ -982,10 +986,14 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>ELLA</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr"/>
+          <t>디프로젝트</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>디프로젝트</t>
+        </is>
+      </c>
       <c r="K10" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1013,22 +1021,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>언더스코어 젠틀맨 프리미엄 차량용 방향제 디퓨저</t>
+          <t>플래트 고급 프로펠러 차량용 방향제 F430</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27137540258</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27806043522</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2713754/27137540258.20210708110811.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2780604/27806043522.20210701115440.jpg</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>30100</t>
+          <t>41250</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
@@ -1044,14 +1052,10 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>언더스코어</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>언더스코어</t>
-        </is>
-      </c>
+          <t>플래트</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1079,22 +1083,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>불스원 그라스 디퓨져 차량용 방향제 105ml</t>
+          <t>에이비 베어브릭 차량용방향제 석고 고급 디퓨저 차방향제  ab-df01</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=12140232094</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27765010523</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1214023/12140232094.20211006140204.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2776501/27765010523.20220303170756.jpg</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>9300</t>
+          <t>11900</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
@@ -1110,12 +1114,12 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>불스원</t>
+          <t>에이비</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>불스원</t>
+          <t>에이비</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1145,22 +1149,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>에이비 베어브릭 차량용방향제 석고 고급 디퓨저 차방향제  ab-df01</t>
+          <t>ELLA 프라임 호랑이 차량용 방향제 프로펠러</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27765010523</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30617053618</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2776501/27765010523.20220303170756.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3061705/30617053618.20220120171741.jpg</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11900</t>
+          <t>29700</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
@@ -1176,14 +1180,10 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>에이비</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>에이비</t>
-        </is>
-      </c>
+          <t>ELLA</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1211,22 +1211,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>센트데코 후드독 차량용 방향제 고급 명품 디퓨저 차방향제 새차선물 SCD-01</t>
+          <t>언더스코어 젠틀맨 프리미엄 차량용 방향제 디퓨저</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30570794618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27137540258</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3057079/30570794618.20220623052632.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2713754/27137540258.20210708110811.jpg</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>29000</t>
+          <t>30200</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
@@ -1242,12 +1242,12 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>센트데코</t>
+          <t>언더스코어</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>센트데코</t>
+          <t>언더스코어</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1343,22 +1343,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>카보노 대쉬보드 거치형 프리미엄 차량용 방향제</t>
+          <t>로베르타디까메리노 액상 클립 통풍구 에어컨 차량용 방향제</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25371363986</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=32628653367</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2537136/25371363986.20220104014030.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3262865/32628653367.20220528094208.jpg</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>46500</t>
+          <t>11900</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
@@ -1374,7 +1374,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>카보노</t>
+          <t>로베르타디까메리노</t>
         </is>
       </c>
       <c r="J16" t="inlineStr"/>
@@ -1599,22 +1599,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>불스원 폴라프레쉬 선바이저 방향제 리필</t>
+          <t>디프로젝트 리필킷 디불 디버니 디릴라고 차량용방향제 자동차 디퓨저 고체 리필 DP-RF02</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=17787599329</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18367838563</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1778759/17787599329.20220107133652.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1836783/18367838563.20211108142647.jpg</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2110</t>
+          <t>13000</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
@@ -1630,12 +1630,12 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>불스원</t>
+          <t>디프로젝트</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>불스원</t>
+          <t>디프로젝트</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1665,22 +1665,22 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>디프로젝트 리필킷 디불 디버니 디릴라고 차량용방향제 자동차 디퓨저 고체 리필 DP-RF02</t>
+          <t>에이센트 네이처 차량용 디퓨저 방향제 120ml</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18367838563</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27334130786</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1836783/18367838563.20211108142647.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2733413/27334130786.20211216041142.jpg</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>13000</t>
+          <t>7190</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
@@ -1696,14 +1696,10 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>디프로젝트</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>디프로젝트</t>
-        </is>
-      </c>
+          <t>에이센트</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1731,22 +1727,22 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>에이센트 네이처 차량용 디퓨저 방향제 120ml</t>
+          <t>카보노 대쉬보드 거치형 프리미엄 차량용 방향제</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27334130786</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25371363986</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2733413/27334130786.20211216041142.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2537136/25371363986.20220104014030.jpg</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>7190</t>
+          <t>46500</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
@@ -1762,7 +1758,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>에이센트</t>
+          <t>카보노</t>
         </is>
       </c>
       <c r="J22" t="inlineStr"/>
@@ -1975,22 +1971,22 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>딥티크 차량용방향제 세트 케이스 + 리필용 캡슐</t>
+          <t>불스원 폴라프레쉬 선바이저 방향제 리필</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28620531681</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=17787599329</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2862053/28620531681.20220308051600.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1778759/17787599329.20220107133652.jpg</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>85900</t>
+          <t>2110</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
@@ -2006,10 +2002,14 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>딥티크</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr"/>
+          <t>불스원</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>불스원</t>
+        </is>
+      </c>
       <c r="K26" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2037,41 +2037,45 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>불스원 그라스 디퓨저 블루 차량용 방향제 100ml</t>
+          <t>아뮈잔트 고급 차량용 방향제 명품 자동차 디퓨저 블랙 120ml</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24063116873</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=80920267289</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2406311/24063116873.20210111145156.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8092026/80920267289.12.jpg</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>12050</t>
+          <t>20000</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>아뮈잔트</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>불스원</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr"/>
+          <t>아뮈잔트</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>아뮈잔트</t>
+        </is>
+      </c>
       <c r="K27" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2099,43 +2103,43 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>아뮈잔트 고급 차량용 방향제 명품 자동차 디퓨저 블랙 120ml</t>
+          <t>언더스코어 오버라인 오버타이거 호랑이 퓨마 차량용 방향제 자동차 디퓨저 OL-CFOT</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=80920267289</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30404262618</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8092026/80920267289.12.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3040426/30404262618.20220316162835.jpg</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>20000</t>
+          <t>35030</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
-          <t>아뮈잔트</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>아뮈잔트</t>
+          <t>언더스코어</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>아뮈잔트</t>
+          <t>언더스코어</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2165,22 +2169,22 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>언더스코어 오버라인 오버타이거 호랑이 퓨마 차량용 방향제 자동차 디퓨저 OL-CFOT</t>
+          <t>벨르아망 포켓몬 메타몽 피규어 차량용 방향제 플라윗 1개 1개입</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30404262618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=32482427674</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3040426/30404262618.20220316162835.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3248242/32482427674.20220520124436.jpg</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>35000</t>
+          <t>19800</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
@@ -2194,16 +2198,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>언더스코어</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>언더스코어</t>
-        </is>
-      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2231,22 +2227,22 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>디프로젝트 디릴라고 고릴라 고급 차량용 방향제 자동차 디퓨저</t>
+          <t>불스원 그라스 디퓨저 블루 차량용 방향제 100ml</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26801331279</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24063116873</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2680133/26801331279.20211222172904.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2406311/24063116873.20210111145156.jpg</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>49000</t>
+          <t>12050</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
@@ -2262,14 +2258,10 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>디프로젝트</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>디프로젝트</t>
-        </is>
-      </c>
+          <t>불스원</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2363,22 +2355,22 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>포라이트 데무르 방향제</t>
+          <t>디프로젝트 디릴라고 고릴라 고급 차량용 방향제 자동차 디퓨저</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31557699426</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26801331279</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3155769/31557699426.20220402023654.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2680133/26801331279.20211222172904.jpg</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>29000</t>
+          <t>49000</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
@@ -2392,8 +2384,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>디프로젝트</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>디프로젝트</t>
+        </is>
+      </c>
       <c r="K32" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2421,22 +2421,22 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>앵그리차일드 골프 차량용 방향제 자동차 디퓨저</t>
+          <t>디프로젝트 디버니 토끼 고급 차량용 방향제 자동차 디퓨저</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=32899616297</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27331951522</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3289961/32899616297.20220612113459.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2733195/27331951522.20211222172819.jpg</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>39000</t>
+          <t>49000</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
@@ -2450,8 +2450,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>디프로젝트</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>디프로젝트</t>
+        </is>
+      </c>
       <c r="K33" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2541,22 +2549,22 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>앵그리차일드 한야 도깨비 차량용방향제 자동차 디퓨저</t>
+          <t>앵그리차일드 골프 차량용 방향제 자동차 디퓨저</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=32626419897</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=32899616297</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3262641/32626419897.20220528080017.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3289961/32899616297.20220612113459.jpg</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>45000</t>
+          <t>39000</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
@@ -2599,22 +2607,22 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>벨라독스 차량용 방향제 고급 불독 방향제 BD-1 메탈릭 외 2종</t>
+          <t>딥티크 차량용방향제 세트 케이스 + 리필용 캡슐</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30431626549</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28620531681</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3043162/30431626549.20220525071539.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2862053/28620531681.20220308051600.jpg</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>48000</t>
+          <t>85900</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
@@ -2628,7 +2636,11 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr"/>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>딥티크</t>
+        </is>
+      </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
@@ -2657,22 +2669,22 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>디씨네트워크 차량용 큐빅 크롬 곰돌이 방향제 오일 15ml 리필</t>
+          <t>바흐가르트 차량용방향제 석고 송풍구 방향제</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29569356700</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30841337224</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2956935/29569356700.20220512095611.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3084133/30841337224.20220321115121.jpg</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>3900</t>
+          <t>38900</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
@@ -2688,7 +2700,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>디씨네트워크</t>
+          <t>바흐가르트</t>
         </is>
       </c>
       <c r="J37" t="inlineStr"/>
@@ -2719,22 +2731,22 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>블랩 바이엘 룸미러 디퓨저 차량용 방향제 BYLDF002</t>
+          <t>부테스 미라클 LED무빙 충전식 차량용 방향제</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=33196067780</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=32185539346</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3319606/33196067780.20220629183526.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3218553/32185539346.20220505161126.jpg</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>6000</t>
+          <t>29700</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
@@ -2748,16 +2760,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>바이엘</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>블랩</t>
-        </is>
-      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2785,22 +2789,22 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>리틀트리 걸이형 종이 방향제</t>
+          <t>앵그리차일드 한야 도깨비 차량용방향제 자동차 디퓨저</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=7162545992</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=32626419897</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_7162545/7162545992.20190731170829.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3262641/32626419897.20220528080017.jpg</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>970</t>
+          <t>45000</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
@@ -2843,45 +2847,37 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>디프로젝트 디버니 토끼 고급 차량용 방향제 자동차 디퓨저</t>
+          <t>도그독 명품 큐빅불독 푸들 차량용 방향제 고급 자동차 디퓨저 베어브릭 동물 새차 선물</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27331951522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=84349477491</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2733195/27331951522.20211222172819.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8434947/84349477491.jpg</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>49000</t>
+          <t>24800</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>쇼핑이상</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>디프로젝트</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>디프로젝트</t>
-        </is>
-      </c>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2909,22 +2905,22 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>로베르타디까메리노 액상 클립 통풍구 에어컨 차량용 방향제</t>
+          <t>리틀트리 걸이형 종이 방향제</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=32628653367</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=7162545992</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3262865/32628653367.20220528094208.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_7162545/7162545992.20190731170829.jpg</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11900</t>
+          <t>970</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
@@ -2938,11 +2934,7 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>로베르타디까메리노</t>
-        </is>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
@@ -2971,22 +2963,22 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>부테스 미라클 LED무빙 충전식 차량용 방향제</t>
+          <t>디씨네트워크 차량용 큐빅 크롬 곰돌이 방향제 오일 15ml 리필</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=32185539346</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29569356700</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3218553/32185539346.20220505161126.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2956935/29569356700.20220512095611.jpg</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>29700</t>
+          <t>3900</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
@@ -3000,7 +2992,11 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I42" t="inlineStr"/>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>디씨네트워크</t>
+        </is>
+      </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
@@ -3029,22 +3025,22 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>바흐가르트 차량용방향제 석고 송풍구 방향제</t>
+          <t>블랩 바이엘 룸미러 디퓨저 차량용 방향제 BYLDF002</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30841337224</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=33196067780</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3084133/30841337224.20220321115121.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3319606/33196067780.20220629183526.jpg</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>38900</t>
+          <t>6000</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
@@ -3060,10 +3056,14 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>바흐가르트</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr"/>
+          <t>바이엘</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>블랩</t>
+        </is>
+      </c>
       <c r="K43" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3091,36 +3091,40 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>도그독 명품 큐빅불독 푸들 차량용 방향제 고급 자동차 디퓨저 베어브릭 동물 새차 선물</t>
+          <t>센트몬스터 고양이 차량용 방향제 고급 디퓨져</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=84349477491</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24163460435</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8434947/84349477491.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2416346/24163460435.20210124121840.jpg</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>24800</t>
+          <t>39000</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
-          <t>쇼핑이상</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr"/>
+          <t>일반 - 가격비교 상품</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>센트몬스터</t>
+        </is>
+      </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
@@ -3149,22 +3153,22 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>산도깨비 차량용 멤브렌 리필 방향제 x 10개입 휘튼치드</t>
+          <t>벨라독스 차량용 방향제 고급 불독 방향제 BD-1 메탈릭 외 2종</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25695237598</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30431626549</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2569523/25695237598.20220326034624.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3043162/30431626549.20220525071539.jpg</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>21570</t>
+          <t>48000</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
@@ -3178,11 +3182,7 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>산도깨비</t>
-        </is>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
@@ -3211,22 +3211,22 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>로베르타디까메리노 원형 대용량 방향제 100ml 2P</t>
+          <t>양키캔들 벤트스틱 차량용 방향제 4P입</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=5640406696</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=6552648097</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_5640406/5640406696.20190805143958.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_6552648/6552648097.20190731160942.jpg</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>13800</t>
+          <t>3550</t>
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
@@ -3242,12 +3242,12 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>로베르타디까메리노</t>
+          <t>양키캔들</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>로베르타디까메리노</t>
+          <t>양키캔들</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -3277,22 +3277,22 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>아우라 카카오 모니터걸이형 방향제 라이언 블루스카이향 10g x1개</t>
+          <t>딥티크 차량용 방향제 케이스 베이 리필 세트</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24014062100</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28546536156</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2401406/24014062100.20200903003222.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2854653/28546536156.20220224012118.jpg</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>14900</t>
+          <t>19700</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
@@ -3306,7 +3306,11 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I47" t="inlineStr"/>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>딥티크</t>
+        </is>
+      </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
@@ -3335,22 +3339,22 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>블랩 오르브 오브제 고급 차량용 디퓨저 방향제 120ml</t>
+          <t>로베르타디까메리노 원형 대용량 방향제 100ml 2P</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30431426701</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=5640406696</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3043142/30431426701.20220616110358.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_5640406/5640406696.20190805143958.jpg</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>12600</t>
+          <t>13800</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
@@ -3366,12 +3370,12 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>오르브</t>
+          <t>로베르타디까메리노</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>블랩</t>
+          <t>로베르타디까메리노</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -3401,22 +3405,22 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>오마르 퍼퓸베어 베어브릭 차량용방향제 기본형</t>
+          <t>아우라 카카오 모니터걸이형 방향제 라이언 블루스카이향 10g x1개</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27192765898</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24014062100</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2719276/27192765898.20220330020644.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2401406/24014062100.20200903003222.jpg</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>13900</t>
+          <t>14900</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
@@ -3430,11 +3434,7 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>오마르</t>
-        </is>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
@@ -3463,22 +3463,22 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>라라체리티 리얼 니치퍼퓸 입술 고급 차량용 송풍구 방향제</t>
+          <t>미스터앤미세스 니키 클래식 차량용 방향제 본품</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=33210930858</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25359648694</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3321093/33210930858.20220630133748.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2535964/25359648694.20201224195431.jpg</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>44000</t>
+          <t>8200</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
@@ -3521,22 +3521,22 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>딥티크 차량용 방향제 케이스 베이 리필 세트</t>
+          <t>블랩 오르브 오브제 고급 차량용 디퓨저 방향제 120ml</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28546536156</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30431426701</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2854653/28546536156.20220224012118.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3043142/30431426701.20220616110358.jpg</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>19700</t>
+          <t>12600</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
@@ -3552,10 +3552,14 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>딥티크</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr"/>
+          <t>오르브</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>블랩</t>
+        </is>
+      </c>
       <c r="K51" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3583,43 +3587,43 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>조말론 차량용 방향제 센트투고 명품향수 고급 디퓨저 거치대</t>
+          <t>양키캔들 1 1 양키캔들 카자얼티메이트 차량용 방향제</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=83025886866</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29582915037</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8302588/83025886866.1.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2958291/29582915037.20211108020618.jpg</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>48500</t>
+          <t>5280</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
-          <t>홍콩걸즈</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>조말론</t>
+          <t>양키캔들</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>조말론</t>
+          <t>양키캔들</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -3649,22 +3653,22 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>양키캔들 벤트스틱 차량용 방향제 4P입</t>
+          <t>포라이트 데무르 방향제</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=6552648097</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31557699426</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_6552648/6552648097.20190731160942.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3155769/31557699426.20220402023654.jpg</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>3560</t>
+          <t>29000</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
@@ -3678,16 +3682,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>양키캔들</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>양키캔들</t>
-        </is>
-      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3715,22 +3711,22 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>센트몬스터 고양이 차량용 방향제 고급 디퓨져</t>
+          <t>산도깨비 차량용 멤브렌 리필 방향제 x 10개입 휘튼치드</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24163460435</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25695237598</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2416346/24163460435.20210124121840.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2569523/25695237598.20220326034624.jpg</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>39000</t>
+          <t>21570</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
@@ -3746,7 +3742,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>센트몬스터</t>
+          <t>산도깨비</t>
         </is>
       </c>
       <c r="J54" t="inlineStr"/>
@@ -3777,22 +3773,22 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>JW중외제약 JW생활건강 피톤케어 차량용 방향제 리필 카트리지</t>
+          <t>라라체리티 리얼 니치퍼퓸 입술 고급 차량용 송풍구 방향제</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=15901498616</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=33210930858</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1590149/15901498616.20211116120223.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3321093/33210930858.20220630133748.jpg</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>19000</t>
+          <t>44000</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
@@ -3806,16 +3802,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>JW생활건강</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>JW중외제약</t>
-        </is>
-      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3843,22 +3831,22 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>미스터앤미세스 니키 클래식 차량용 방향제 본품</t>
+          <t>JW중외제약 JW생활건강 피톤케어 차량용 방향제 리필 카트리지</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25359648694</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=15901498616</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2535964/25359648694.20201224195431.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1590149/15901498616.20211116120223.jpg</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>8200</t>
+          <t>19000</t>
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
@@ -3872,8 +3860,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>JW생활건강</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>JW중외제약</t>
+        </is>
+      </c>
       <c r="K56" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3967,22 +3963,22 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>FYC 고급 명품 불독 차량용 방향제 디퓨저</t>
+          <t>오마르 퍼퓸베어 베어브릭 차량용방향제 기본형</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24941672502</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27192765898</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2494167/24941672502.20201122175400.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2719276/27192765898.20220330020644.jpg</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>39000</t>
+          <t>13900</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
@@ -3996,7 +3992,11 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I58" t="inlineStr"/>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>오마르</t>
+        </is>
+      </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
@@ -4025,45 +4025,37 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>벤볼릭 명품 차량용 방향제 고급 자동차 차량 디퓨져</t>
+          <t>FYC 고급 명품 불독 차량용 방향제 디퓨저</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82293143959</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24941672502</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8229314/82293143959.16.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2494167/24941672502.20201122175400.jpg</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>28000</t>
+          <t>39000</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr">
         <is>
-          <t>매드포모던</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>벤볼릭</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>키니캔들</t>
-        </is>
-      </c>
+          <t>일반 - 가격비교 상품</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4091,22 +4083,22 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>다신 불독 송풍구 차량용 방향제 디퓨저</t>
+          <t>차량용 고급 걸이형 방향제 카퓸</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31542390843</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24030931926</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3154239/31542390843.20220407161514.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2403093/24030931926.20200904000545.jpg</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>14400</t>
+          <t>49000</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
@@ -4149,22 +4141,22 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>P&amp;amp;G 페브리즈 차량용 방향제 2.2ml 3개</t>
+          <t>크롬디 차량용 방향제 CD-9</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20397190459</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31387912762</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2039719/20397190459.20190726113415.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3138791/31387912762.20220320033422.jpg</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>8580</t>
+          <t>24900</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
@@ -4180,14 +4172,10 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>페브리즈</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>P&amp;G</t>
-        </is>
-      </c>
+          <t>크롬디</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4215,22 +4203,22 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>양키캔들 1 1 양키캔들 카자얼티메이트 차량용 방향제</t>
+          <t>명품고급디퓨저 마일론 갤러리1 차량용 방향제 MGAL-01</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29582915037</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30352215619</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2958291/29582915037.20211108020618.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3035221/30352215619.20220102155103.jpg</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>5290</t>
+          <t>49000</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
@@ -4246,12 +4234,12 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>양키캔들</t>
+          <t>마일론</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>양키캔들</t>
+          <t>명품고급디퓨저</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -4281,22 +4269,22 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>크롬디 차량용 방향제 CD-9</t>
+          <t>코코쥬 차량용 방향제 고급 프로펠러 자동차 디퓨져 새차 선물</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31387912762</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31875412948</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3138791/31387912762.20220320033422.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3187541/31875412948.20220417180424.jpg</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>24900</t>
+          <t>29800</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
@@ -4310,11 +4298,7 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>크롬디</t>
-        </is>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
@@ -4343,22 +4327,22 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>명품고급디퓨저 마일론 갤러리1 차량용 방향제 MGAL-01</t>
+          <t>KAN 뷰센트 De.Line 차량용 방향제 싱글세트</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30352215619</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18985549503</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3035221/30352215619.20220102155103.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1898554/18985549503.20210713121106.jpg</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>49000</t>
+          <t>12800</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
@@ -4374,12 +4358,12 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>마일론</t>
+          <t>뷰센트</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>명품고급디퓨저</t>
+          <t>KAN</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -4409,22 +4393,22 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>더드림 꽃 베어브릭 석고 차량용 방향제 귀여운 자동차 송풍구 디퓨저</t>
+          <t>미스터앤미세스 체사레 시저 차량용 방향제</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27124471579</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=8119194241</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2712447/27124471579.20210512182954.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8119194/8119194241.20190802121728.jpg</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11700</t>
+          <t>6990</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
@@ -4438,11 +4422,7 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>더드림</t>
-        </is>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
@@ -4471,22 +4451,22 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>KAN 뷰센트 De.Line 차량용 방향제 싱글세트</t>
+          <t>더드림 꽃 베어브릭 석고 차량용 방향제 귀여운 자동차 송풍구 디퓨저</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18985549503</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27124471579</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1898554/18985549503.20210713121106.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2712447/27124471579.20210512182954.jpg</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>12800</t>
+          <t>11700</t>
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
@@ -4502,14 +4482,10 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>뷰센트</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>KAN</t>
-        </is>
-      </c>
+          <t>더드림</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4603,37 +4579,45 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>코코쥬 차량용 방향제 고급 프로펠러 자동차 디퓨져 새차 선물</t>
+          <t>벤볼릭 명품 차량용 방향제 고급 자동차 차량 디퓨져</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31875412948</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82293143959</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3187541/31875412948.20220417180424.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8229314/82293143959.16.jpg</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>29800</t>
+          <t>28000</t>
         </is>
       </c>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>매드포모던</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>벤볼릭</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>키니캔들</t>
+        </is>
+      </c>
       <c r="K68" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4661,40 +4645,36 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>아우라 카카오 어피치 모니터걸이형 방향제 4.5ml</t>
+          <t>[LITTLE TREES]리틀트리 방향제 종이방향제 1p 모음전</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26955394520</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=83050195147</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2695539/26955394520.20210428203230.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8305019/83050195147.jpg</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>14600</t>
+          <t>900</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>LITTLE TREES</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>아우라</t>
-        </is>
-      </c>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
@@ -4723,22 +4703,22 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>DA디자인 차량용 송풍구 방향제</t>
+          <t>P&amp;amp;G 페브리즈 차량용 방향제 2.2ml 3개</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=33066057690</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20397190459</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3306605/33066057690.20220621195325.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2039719/20397190459.20190726113415.jpg</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>36900</t>
+          <t>8580</t>
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
@@ -4752,8 +4732,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>페브리즈</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>P&amp;G</t>
+        </is>
+      </c>
       <c r="K70" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4781,22 +4769,22 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>불스원 그라스 오브제 디퓨저 차량용 방향제 100ml</t>
+          <t>헤즐넛 커피방향제 탈취와 향기 차량용 화장실 디퓨져</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30425453618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26059553880</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3042545/30425453618.20220105100536.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2605955/26059553880.20210219195508.jpg</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>17500</t>
+          <t>980</t>
         </is>
       </c>
       <c r="F71" t="inlineStr"/>
@@ -4810,16 +4798,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>불스원</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>불스원</t>
-        </is>
-      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4862,7 +4842,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>1670</t>
+          <t>1660</t>
         </is>
       </c>
       <c r="F72" t="inlineStr"/>
@@ -4905,22 +4885,22 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>불스원 그라스클래식 디퓨저 차량용방향제 2개 퓨어코튼</t>
+          <t>불스원 그라스 오브제 디퓨저 차량용 방향제 100ml</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31268113361</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30425453618</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3126811/31268113361.20220312023642.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3042545/30425453618.20220105100536.jpg</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>16900</t>
+          <t>17500</t>
         </is>
       </c>
       <c r="F73" t="inlineStr"/>
@@ -4971,22 +4951,22 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>헤즐넛 커피방향제 탈취와 향기 차량용 화장실 디퓨져</t>
+          <t>제로스킨 로보트 태권브이 차량용 방향제 자동차 디퓨저 AD-KF90</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26059553880</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29535937618</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2605955/26059553880.20210219195508.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2953593/29535937618.20211216102403.jpg</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>980</t>
+          <t>29800</t>
         </is>
       </c>
       <c r="F74" t="inlineStr"/>
@@ -5000,8 +4980,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>제로스킨</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>제로스킨</t>
+        </is>
+      </c>
       <c r="K74" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -5091,22 +5079,22 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>제로스킨 로보트 태권브이 차량용 방향제 자동차 디퓨저 AD-KF90</t>
+          <t>불스원 그라스클래식 디퓨저 차량용방향제 2개 퓨어코튼</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29535937618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31268113361</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2953593/29535937618.20211216102403.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3126811/31268113361.20220312023642.jpg</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>29800</t>
+          <t>16900</t>
         </is>
       </c>
       <c r="F76" t="inlineStr"/>
@@ -5122,12 +5110,12 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>제로스킨</t>
+          <t>불스원</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>제로스킨</t>
+          <t>불스원</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -5157,36 +5145,40 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>리틀트리 TREE 차량용 실내용 걸이형 종이 페이퍼 옷장 방향제</t>
+          <t>아우라 카카오 어피치 모니터걸이형 방향제 4.5ml</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82937356876</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26955394520</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8293735/82937356876.1.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2695539/26955394520.20210428203230.jpg</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>790</t>
+          <t>14600</t>
         </is>
       </c>
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr">
         <is>
-          <t>프랜드캣</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr"/>
+          <t>일반 - 가격비교 상품</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>아우라</t>
+        </is>
+      </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
@@ -5215,33 +5207,33 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>미스터앤미세스 니키 본품/리필 차량용 방향제</t>
+          <t>다신 불독 송풍구 차량용 방향제 디퓨저</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=10017842540</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31542390843</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1001784/10017842540.13.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3154239/31542390843.20220407161514.jpg</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>7200</t>
+          <t>14400</t>
         </is>
       </c>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr">
         <is>
-          <t>반도향기나라</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
@@ -5273,22 +5265,22 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>산도깨비 멤브렌 피톤치드 차량용 방향제 6g</t>
+          <t>DA디자인 차량용 송풍구 방향제</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20254478730</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=33066057690</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2025447/20254478730.20190716114220.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3306605/33066057690.20220621195325.jpg</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2090</t>
+          <t>36900</t>
         </is>
       </c>
       <c r="F79" t="inlineStr"/>
@@ -5302,16 +5294,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>산도깨비</t>
-        </is>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>산도깨비</t>
-        </is>
-      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -5339,33 +5323,33 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>차량용 아쿠아디파르마 방향제 가죽케이스 9종향 쇼핑백 파우치 새차선물</t>
+          <t>리틀트리 TREE 차량용 실내용 걸이형 종이 페이퍼 옷장 방향제</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31854323248</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82937356876</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3185432/31854323248.20220416093152.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8293735/82937356876.1.jpg</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>35000</t>
+          <t>790</t>
         </is>
       </c>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>프랜드캣</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
@@ -5397,37 +5381,45 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>미스터앤미세스 체사레 시저 차량용 방향제</t>
+          <t>조말론 차량용 방향제 센트투고 명품향수 고급 디퓨저 거치대</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=8119194241</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=83025886866</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8119194/8119194241.20190802121728.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8302588/83025886866.1.jpg</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>6990</t>
+          <t>48500</t>
         </is>
       </c>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>홍콩걸즈</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>조말론</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>조말론</t>
+        </is>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -5455,22 +5447,22 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>캘리포니아센트 차량용방향제 실내 캔 벤트스틱 디퓨저</t>
+          <t>루크타 도베르만 차량용 자동차 송풍구 차 고급 방향제 디퓨저 LT-DB01</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=32935072286</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25380843939</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3293507/32935072286.20220614120730.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2538084/25380843939.20220113101814.jpg</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>3400</t>
+          <t>49000</t>
         </is>
       </c>
       <c r="F82" t="inlineStr"/>
@@ -5486,7 +5478,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>캘리포니아센트</t>
+          <t>루크타</t>
         </is>
       </c>
       <c r="J82" t="inlineStr"/>
@@ -5517,22 +5509,22 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>KAN 뷰센트 자동차 송풍구 메탈 차량용 방향제 선물 2세트</t>
+          <t>산도깨비 멤브렌 피톤치드 차량용 방향제 6g</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31597320645</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20254478730</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3159732/31597320645.20220429115323.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2025447/20254478730.20190716114220.jpg</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>25900</t>
+          <t>2090</t>
         </is>
       </c>
       <c r="F83" t="inlineStr"/>
@@ -5548,12 +5540,12 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>뷰센트</t>
+          <t>산도깨비</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>KAN</t>
+          <t>산도깨비</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -5583,22 +5575,22 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>루크타 도베르만 차량용 자동차 송풍구 차 고급 방향제 디퓨저 LT-DB01</t>
+          <t>양키캔들 얼티메이트 미드썸머나잇 차량용 방향제</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25380843939</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25940561903</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2538084/25380843939.20220113101814.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2594056/25940561903.20210209203509.jpg</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>49000</t>
+          <t>3280</t>
         </is>
       </c>
       <c r="F84" t="inlineStr"/>
@@ -5614,10 +5606,14 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>루크타</t>
-        </is>
-      </c>
-      <c r="J84" t="inlineStr"/>
+          <t>양키캔들</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>양키캔들</t>
+        </is>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -5645,22 +5641,22 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>라미유 차량용 고급 송풍구 방향제 블랙체리향 1+1</t>
+          <t>명품고급디퓨저 마일론 갤러리2 차량용 방향제 MGAL-02</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30586965618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30441772620</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3058696/30586965618.20220421134837.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3044177/30441772620.20220204192733.jpg</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>15900</t>
+          <t>49000</t>
         </is>
       </c>
       <c r="F85" t="inlineStr"/>
@@ -5676,12 +5672,12 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>라미유</t>
+          <t>마일론</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>라미유</t>
+          <t>명품고급디퓨저</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -5711,45 +5707,37 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>양키캔들 얼티메이트 미드썸머나잇 차량용 방향제</t>
+          <t>미스터앤미세스 니키 본품/리필 차량용 방향제</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25940561903</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=10017842540</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2594056/25940561903.20210209203509.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1001784/10017842540.13.jpg</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>3280</t>
+          <t>7200</t>
         </is>
       </c>
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>반도향기나라</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>양키캔들</t>
-        </is>
-      </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>양키캔들</t>
-        </is>
-      </c>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -5777,33 +5765,33 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>[LITTLE TREES]리틀트리 방향제 종이방향제 1p 모음전</t>
+          <t>올리바노 메탈 엠블럼 차량용 방향제 송풍구형 리필형</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=83050195147</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28618378553</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8305019/83050195147.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2861837/28618378553.20210828185043.jpg</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>900</t>
+          <t>17790</t>
         </is>
       </c>
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr">
         <is>
-          <t>LITTLE TREES</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
@@ -5835,22 +5823,22 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>허브타임 시그니처 차량용 방향제 60m</t>
+          <t>KAN 뷰센트 자동차 송풍구 메탈 차량용 방향제 선물 2세트</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30756073471</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31597320645</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3075607/30756073471.20220202024136.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3159732/31597320645.20220429115323.jpg</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>14900</t>
+          <t>25900</t>
         </is>
       </c>
       <c r="F88" t="inlineStr"/>
@@ -5866,12 +5854,12 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>허브타임</t>
+          <t>뷰센트</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>허브타임</t>
+          <t>KAN</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -5901,45 +5889,41 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>조말론 차량용 방향제 자동차 디퓨저 차량방향제 명품 차방향제</t>
+          <t>불스원 그라스 디퓨저 프랑스산 차량용방향제</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=83776353433</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30458923086</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8377635/83776353433.1.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3045892/30458923086.20220322103751.jpg</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>29600</t>
+          <t>8582</t>
         </is>
       </c>
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr">
         <is>
-          <t>라벨 라휴</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>조말론</t>
-        </is>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>조말론</t>
-        </is>
-      </c>
+          <t>불스원</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -5967,37 +5951,45 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>올리바노 메탈 엠블럼 차량용 방향제 송풍구형 리필형</t>
+          <t>조말론 차량용 방향제 자동차 디퓨저 차량방향제 명품 차방향제</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28618378553</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=83776353433</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2861837/28618378553.20210828185043.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8377635/83776353433.1.jpg</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>17790</t>
+          <t>29600</t>
         </is>
       </c>
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>라벨 라휴</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
-        </is>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>조말론</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>조말론</t>
+        </is>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -6025,22 +6017,22 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>명품고급디퓨저 마일론 갤러리2 차량용 방향제 MGAL-02</t>
+          <t>토씨 클래시맨 명품 고급 차량용방향제 룸미러걸이형</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30441772620</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25695599950</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3044177/30441772620.20220204192733.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2569559/25695599950.20220704103706.jpg</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>49000</t>
+          <t>85000</t>
         </is>
       </c>
       <c r="F91" t="inlineStr"/>
@@ -6056,12 +6048,12 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>마일론</t>
+          <t>토씨</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>명품고급디퓨저</t>
+          <t>토씨</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -6091,22 +6083,22 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>불스원 그라스 디퓨저 프랑스산 차량용방향제</t>
+          <t>에이비 얼굴 일러스트 사진 차량용방향제 2set</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30458923086</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27190906522</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3045892/30458923086.20220322103751.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2719090/27190906522.20210518150908.jpg</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>8582</t>
+          <t>17900</t>
         </is>
       </c>
       <c r="F92" t="inlineStr"/>
@@ -6122,10 +6114,14 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>불스원</t>
-        </is>
-      </c>
-      <c r="J92" t="inlineStr"/>
+          <t>에이비</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>에이비</t>
+        </is>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -6153,22 +6149,22 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>PRE피톤치드오일 차량용 방향제 다이케스팅 디퓨저</t>
+          <t>페브리즈 차량용 방향제 6개입</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27930349118</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28545855511</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2793034/27930349118.20210709220415.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2854585/28545855511.20220405030723.jpg</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>23100</t>
+          <t>16890</t>
         </is>
       </c>
       <c r="F93" t="inlineStr"/>
@@ -6182,7 +6178,11 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I93" t="inlineStr"/>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>페브리즈</t>
+        </is>
+      </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
@@ -6211,22 +6211,22 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>에이비 얼굴 일러스트 사진 차량용방향제 2set</t>
+          <t>리빙인아로마 쿤달 퍼퓸 차량용 디퓨저 2구 세트 블랙체리</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27190906522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24803290609</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2719090/27190906522.20210518150908.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2480329/24803290609.20220330045234.jpg</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>17900</t>
+          <t>10900</t>
         </is>
       </c>
       <c r="F94" t="inlineStr"/>
@@ -6242,12 +6242,12 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>에이비</t>
+          <t>쿤달</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>에이비</t>
+          <t>리빙인아로마</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -6277,22 +6277,22 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>엘에스인터내셔널 플레이위드센트 불독 송풍구 차량용 방향제</t>
+          <t>불스원 그라스 레스떼렐 방향제 110ml</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28027363522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=5887774761</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2802736/28027363522.20210716101910.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_5887774/5887774761.20180928095307.jpg</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>28000</t>
+          <t>10790</t>
         </is>
       </c>
       <c r="F95" t="inlineStr"/>
@@ -6308,12 +6308,12 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>플레이위드센트</t>
+          <t>불스원</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>엘에스인터내셔널</t>
+          <t>불스원</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -6343,43 +6343,43 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>캘리포니아센트 캔타입 방향제 15종 모음</t>
+          <t>불스원 그라스 디퓨저 105ml 블랙베리 체리 방향제</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=83239063403</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26677172452</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8323906/83239063403.2.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2667717/26677172452.20210407202430.jpg</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>4300</t>
+          <t>7890</t>
         </is>
       </c>
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr">
         <is>
-          <t>캘리포니아센트 공식대리점</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>캘리포니아센트</t>
+          <t>불스원</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>에너자이저</t>
+          <t>불스원</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -6409,22 +6409,22 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>토씨 클래시맨 명품 고급 차량용방향제 룸미러걸이형</t>
+          <t>메이튼 십이지신 갓피그 돼지 차량용 방향제 차방향제 자동차 디퓨저 M-DF12</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25695599950</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26812322732</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2569559/25695599950.20220704103706.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2681232/26812322732.20210517093207.jpg</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>85000</t>
+          <t>33900</t>
         </is>
       </c>
       <c r="F97" t="inlineStr"/>
@@ -6440,12 +6440,12 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>토씨</t>
+          <t>메이튼</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>토씨</t>
+          <t>메이튼</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -6475,22 +6475,22 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>차량용 방향제 룸미러 새차 선물 니치향 테슬라 모델3 Y 로더톰버</t>
+          <t>라미유 차량용 고급 송풍구 방향제 블랙체리향 1+1</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=32639824336</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30586965618</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3263982/32639824336.20220529075405.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3058696/30586965618.20220421134837.jpg</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>24500</t>
+          <t>15900</t>
         </is>
       </c>
       <c r="F98" t="inlineStr"/>
@@ -6504,8 +6504,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>라미유</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>라미유</t>
+        </is>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -6533,22 +6541,22 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>리빙인아로마 쿤달 퍼퓸 차량용 디퓨저 2구 세트 블랙체리</t>
+          <t>허브타임 시그니처 차량용 방향제 60m</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24803290609</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30756073471</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2480329/24803290609.20220330045234.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3075607/30756073471.20220202024136.jpg</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>10900</t>
+          <t>14900</t>
         </is>
       </c>
       <c r="F99" t="inlineStr"/>
@@ -6564,12 +6572,12 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>쿤달</t>
+          <t>허브타임</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>리빙인아로마</t>
+          <t>허브타임</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -6599,41 +6607,45 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>페브리즈 차량용 방향제 6개입</t>
+          <t>도그독 3세대 D-E1 명품 차량용 방향제 고급 디퓨저 프렌치불독 새차 선물 자동차</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28545855511</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82807740637</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2854585/28545855511.20220405030723.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8280774/82807740637.10.jpg</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>16830</t>
+          <t>28000</t>
         </is>
       </c>
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>주식회사 도그독</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>페브리즈</t>
-        </is>
-      </c>
-      <c r="J100" t="inlineStr"/>
+          <t>도그독</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>도그독</t>
+        </is>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -6661,22 +6673,22 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>라피네르 명품 로얄스페이드 듀오 차량용방향제</t>
+          <t>픽도큐먼트 베어브릭 송풍구 차량용 방향제</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30565184917</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29900193281</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3056518/30565184917.20220425114558.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2990019/29900193281.20211208030917.jpg</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>39330</t>
+          <t>14900</t>
         </is>
       </c>
       <c r="F101" t="inlineStr"/>
@@ -6690,16 +6702,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>라피네르</t>
-        </is>
-      </c>
-      <c r="J101" t="inlineStr">
-        <is>
-          <t>라피네르</t>
-        </is>
-      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
           <t>생활/건강</t>

--- a/output.xlsx
+++ b/output.xlsx
@@ -439,22 +439,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>디프로젝트 디불 불독 고급 차량용 방향제 자동차 디퓨저</t>
+          <t>블랩 바이엘 디퓨저 차량용 실내용 방향제 천연디퓨저 BYLDF001</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=13697148540</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=32287746505</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1369714/13697148540.20211222172941.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3228774/32287746505.20220512104109.jpg</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>49000</t>
+          <t>14000</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
@@ -470,12 +470,12 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>디프로젝트</t>
+          <t>바이엘</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>디프로젝트</t>
+          <t>블랩</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -505,22 +505,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>블랩 바이엘 디퓨저 차량용 실내용 방향제 천연디퓨저 BYLDF001</t>
+          <t>디프로젝트 디불 불독 고급 차량용 방향제 자동차 디퓨저</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=32287746505</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=13697148540</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3228774/32287746505.20220512104109.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1369714/13697148540.20211222172941.jpg</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>14000</t>
+          <t>49000</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
@@ -536,12 +536,12 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>바이엘</t>
+          <t>디프로젝트</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>블랩</t>
+          <t>디프로젝트</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -637,22 +637,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>JW중외제약 피톤치드 차량용 방향제 피톤케어</t>
+          <t>에이비 베어브릭 차량용방향제 석고 고급 디퓨저 차방향제  ab-df01</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=12916212027</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27765010523</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1291621/12916212027.20211116115126.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2776501/27765010523.20220303170756.jpg</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>38000</t>
+          <t>11900</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
@@ -668,12 +668,12 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>JW중외제약</t>
+          <t>에이비</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>JW중외제약</t>
+          <t>에이비</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -703,28 +703,28 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>아이수피아 자연의향기 천연차량방향제 (3개 세트)</t>
+          <t>아뮈잔트 고급 차량용 방향제 명품 자동차 디퓨저 블랙 120ml</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=81628659125</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=80920267289</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8162865/81628659125.2.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8092026/80920267289.12.jpg</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>38000</t>
+          <t>20000</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t>아이수피아1</t>
+          <t>아뮈잔트</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -734,10 +734,14 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>아이수피아</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr"/>
+          <t>아뮈잔트</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>아뮈잔트</t>
+        </is>
+      </c>
       <c r="K6" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -765,22 +769,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>에이비 베어브릭 차량용방향제 석고 고급 디퓨저 차방향제  ab-df01</t>
+          <t>아트센트 천연소가죽 명품 차량용 방향제 고급 디퓨저 차 방향제 선물</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27765010523</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30479265972</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2776501/27765010523.20220303170756.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3047926/30479265972.20220609124802.jpg</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11900</t>
+          <t>38900</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
@@ -794,16 +798,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>에이비</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>에이비</t>
-        </is>
-      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -831,22 +827,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>플래트 고급 프로펠러 차량용 방향제 F430</t>
+          <t>엠퓨처 불독 송풍구 고급 차량용 방향제 디퓨저 MF-CAF02</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27806043522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30458791731</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2780604/27806043522.20210701115440.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3045879/30458791731.20220117151934.jpg</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>41450</t>
+          <t>14580</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
@@ -862,7 +858,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>플래트</t>
+          <t>엠퓨처</t>
         </is>
       </c>
       <c r="J8" t="inlineStr"/>
@@ -893,22 +889,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>아트센트 천연소가죽 명품 차량용 방향제 고급 디퓨저 차 방향제 선물</t>
+          <t>JW중외제약 피톤치드 차량용 방향제 피톤케어</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30479265972</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=12916212027</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3047926/30479265972.20220609124802.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1291621/12916212027.20211116115126.jpg</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>38900</t>
+          <t>38000</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
@@ -922,8 +918,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>JW중외제약</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>JW중외제약</t>
+        </is>
+      </c>
       <c r="K9" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -951,22 +955,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>엠퓨처 불독 송풍구 고급 차량용 방향제 디퓨저 MF-CAF02</t>
+          <t>제이엠제이라인 도슈아 클래식 프리미엄 차량용 방향제</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30458791731</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=17787594512</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3045879/30458791731.20220117151934.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1778759/17787594512.20210802225254.jpg</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>14580</t>
+          <t>29750</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
@@ -982,10 +986,14 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>엠퓨처</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr"/>
+          <t>도슈아</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>제이엠제이라인</t>
+        </is>
+      </c>
       <c r="K10" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1013,22 +1021,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>제이엠제이라인 도슈아 클래식 프리미엄 차량용 방향제</t>
+          <t>로베르타디까메리노 액상 클립 통풍구 에어컨 차량용 방향제</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=17787594512</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=32628653367</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1778759/17787594512.20210802225254.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3262865/32628653367.20220528094208.jpg</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>29750</t>
+          <t>11900</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
@@ -1044,14 +1052,10 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>도슈아</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>제이엠제이라인</t>
-        </is>
-      </c>
+          <t>로베르타디까메리노</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1094,7 +1098,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>29900</t>
+          <t>29700</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
@@ -1145,22 +1149,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>에이비 큐빅베어브릭 차량용 방향제 차방향제 디퓨저 고급 AB-DF02</t>
+          <t>바흐가르트 차량용방향제 석고 송풍구 방향제</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27944185800</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30841337224</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2794418/27944185800.20220622171723.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3084133/30841337224.20220321115121.jpg</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>17900</t>
+          <t>38900</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
@@ -1176,14 +1180,10 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>에이비</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>에이비</t>
-        </is>
-      </c>
+          <t>바흐가르트</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1211,45 +1211,41 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>아뮈잔트 고급 차량용 방향제 명품 자동차 디퓨저 블랙 120ml</t>
+          <t>플래트 고급 프로펠러 차량용 방향제 F430</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=80920267289</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27806043522</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8092026/80920267289.12.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2780604/27806043522.20210701115440.jpg</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>20000</t>
+          <t>41390</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
-          <t>아뮈잔트</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>아뮈잔트</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>아뮈잔트</t>
-        </is>
-      </c>
+          <t>플래트</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1277,22 +1273,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>로베르타디까메리노 액상 클립 통풍구 에어컨 차량용 방향제</t>
+          <t>에이비 큐빅베어브릭 차량용 방향제 차방향제 디퓨저 고급 AB-DF02</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=32628653367</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27944185800</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3262865/32628653367.20220528094208.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2794418/27944185800.20220622171723.jpg</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11900</t>
+          <t>17900</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
@@ -1308,10 +1304,14 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>로베르타디까메리노</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr"/>
+          <t>에이비</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>에이비</t>
+        </is>
+      </c>
       <c r="K15" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1339,22 +1339,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>바흐가르트 차량용방향제 석고 송풍구 방향제</t>
+          <t>딥티크 차량용 방향제 리필 9종류향</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30841337224</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27604493058</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3084133/30841337224.20220321115121.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2760449/27604493058.20220324022642.jpg</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>38900</t>
+          <t>20900</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
@@ -1370,10 +1370,14 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>바흐가르트</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr"/>
+          <t>딥티크</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>딥티크</t>
+        </is>
+      </c>
       <c r="K16" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1401,43 +1405,43 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>딥티크 차량용 방향제 리필 9종류향</t>
+          <t>도그독 3세대 D-E1 명품 차량용 방향제 고급 디퓨저 프렌치불독 새차 선물 자동차</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27604493058</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82807740637</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2760449/27604493058.20220324022642.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8280774/82807740637.10.jpg</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>20900</t>
+          <t>28000</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>주식회사 도그독</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>딥티크</t>
+          <t>도그독</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>딥티크</t>
+          <t>도그독</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1467,22 +1471,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>불스원 그라스 디퓨져 차량용 방향제 105ml</t>
+          <t>불스원 폴라프레쉬 선바이저 방향제 리필</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=12140232094</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=17787599329</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1214023/12140232094.20211006140204.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1778759/17787599329.20220107133652.jpg</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>9310</t>
+          <t>2110</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
@@ -1533,22 +1537,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>카보노 대쉬보드 거치형 프리미엄 차량용 방향제</t>
+          <t>에이센트 네이처 차량용 디퓨저 방향제 120ml</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25371363986</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27334130786</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2537136/25371363986.20220104014030.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2733413/27334130786.20211216041142.jpg</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>46500</t>
+          <t>7750</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
@@ -1564,7 +1568,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>카보노</t>
+          <t>에이센트</t>
         </is>
       </c>
       <c r="J19" t="inlineStr"/>
@@ -1595,43 +1599,43 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>도그독 3세대 D-E1 명품 차량용 방향제 고급 디퓨저 프렌치불독 새차 선물 자동차</t>
+          <t>불스원 그라스 디퓨져 차량용 방향제 105ml</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82807740637</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=12140232094</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8280774/82807740637.10.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1214023/12140232094.20211006140204.jpg</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>28000</t>
+          <t>9300</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
-          <t>주식회사 도그독</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>도그독</t>
+          <t>불스원</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>도그독</t>
+          <t>불스원</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1661,22 +1665,22 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>에이센트 네이처 차량용 디퓨저 방향제 120ml</t>
+          <t>카보노 대쉬보드 거치형 프리미엄 차량용 방향제</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27334130786</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25371363986</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2733413/27334130786.20211216041142.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2537136/25371363986.20220104014030.jpg</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>7750</t>
+          <t>46500</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
@@ -1692,7 +1696,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>에이센트</t>
+          <t>카보노</t>
         </is>
       </c>
       <c r="J21" t="inlineStr"/>
@@ -1723,22 +1727,22 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>불스원 폴라프레쉬 선바이저 방향제 리필</t>
+          <t>디프로젝트 디릴라고 고릴라 고급 차량용 방향제 자동차 디퓨저</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=17787599329</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26801331279</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1778759/17787599329.20220107133652.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2680133/26801331279.20211222172904.jpg</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2110</t>
+          <t>49000</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
@@ -1754,12 +1758,12 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>불스원</t>
+          <t>디프로젝트</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>불스원</t>
+          <t>디프로젝트</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1789,22 +1793,22 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>리틀트리 걸이형 종이 방향제</t>
+          <t>에이비 차량용 방향제 도베르만 고급 AB-DF04</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=7162545992</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30317520568</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_7162545/7162545992.20190731170829.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3031752/30317520568.20220110102207.jpg</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>930</t>
+          <t>27500</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
@@ -1818,8 +1822,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>에이비</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>에이비</t>
+        </is>
+      </c>
       <c r="K23" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1847,22 +1859,22 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>디프로젝트 디릴라고 고릴라 고급 차량용 방향제 자동차 디퓨저</t>
+          <t>ELLA 프라임 호랑이 차량용 방향제 프로펠러</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26801331279</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30617053618</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2680133/26801331279.20211222172904.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3061705/30617053618.20220120171741.jpg</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>49000</t>
+          <t>29700</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
@@ -1878,14 +1890,10 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>디프로젝트</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>디프로젝트</t>
-        </is>
-      </c>
+          <t>ELLA</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1913,22 +1921,22 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ELLA 프라임 호랑이 차량용 방향제 프로펠러</t>
+          <t>센트데코 후드독 차량용 방향제 고급 명품 디퓨저 차방향제 새차선물 SCD-01</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30617053618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30570794618</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3061705/30617053618.20220120171741.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3057079/30570794618.20220623052632.jpg</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>29700</t>
+          <t>28990</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
@@ -1944,10 +1952,14 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>ELLA</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr"/>
+          <t>센트데코</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>센트데코</t>
+        </is>
+      </c>
       <c r="K25" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1975,22 +1987,22 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>에이비 차량용 방향제 도베르만 고급 AB-DF04</t>
+          <t>미스터앤미세스 니키 차량용 방향제 리필</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30317520568</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=10149695240</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3031752/30317520568.20220110102207.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1014969/10149695240.20201014180005.jpg</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>27500</t>
+          <t>4000</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
@@ -2004,16 +2016,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>에이비</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>에이비</t>
-        </is>
-      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2041,22 +2045,22 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>센트데코 후드독 차량용 방향제 고급 명품 디퓨저 차방향제 새차선물 SCD-01</t>
+          <t>라미유 차량용 고급 송풍구 방향제 블랙체리향 1+1</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30570794618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30586965618</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3057079/30570794618.20220623052632.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3058696/30586965618.20220421134837.jpg</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>28990</t>
+          <t>15900</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
@@ -2072,12 +2076,12 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>센트데코</t>
+          <t>라미유</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>센트데코</t>
+          <t>라미유</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2107,22 +2111,22 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>디프로젝트 디버니 토끼 고급 차량용 방향제 자동차 디퓨저</t>
+          <t>앵그리차일드 한야 도깨비 차량용방향제 자동차 디퓨저</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27331951522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=32626419897</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2733195/27331951522.20211222172819.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3262641/32626419897.20220528080017.jpg</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>49000</t>
+          <t>45000</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
@@ -2136,16 +2140,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>디프로젝트</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>디프로젝트</t>
-        </is>
-      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2173,22 +2169,22 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>딥티크 차량용방향제 세트 케이스 + 리필용 캡슐</t>
+          <t>불스원 그라스 디퓨저 블루 차량용 방향제 100ml</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28620531681</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24063116873</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2862053/28620531681.20220308051600.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2406311/24063116873.20210111145156.jpg</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>85900</t>
+          <t>11860</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
@@ -2204,7 +2200,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>딥티크</t>
+          <t>불스원</t>
         </is>
       </c>
       <c r="J29" t="inlineStr"/>
@@ -2235,22 +2231,22 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>미스터앤미세스 니키 차량용 방향제 리필</t>
+          <t>딥티크 차량용방향제 세트 케이스 + 리필용 캡슐</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=10149695240</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28620531681</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1014969/10149695240.20201014180005.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2862053/28620531681.20220308051600.jpg</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>4000</t>
+          <t>85900</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
@@ -2264,7 +2260,11 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr"/>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>딥티크</t>
+        </is>
+      </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
@@ -2293,22 +2293,22 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>라미유 차량용 고급 송풍구 방향제 블랙체리향 1+1</t>
+          <t>라라체리티 리얼 니치퍼퓸 입술 고급 차량용 송풍구 방향제</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30586965618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=33210930858</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3058696/30586965618.20220421134837.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3321093/33210930858.20220630133748.jpg</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>15900</t>
+          <t>44000</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
@@ -2322,16 +2322,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>라미유</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>라미유</t>
-        </is>
-      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2359,22 +2351,22 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>디프로젝트 리필킷 디불 디버니 디릴라고 차량용방향제 자동차 디퓨저 고체 리필 DP-RF02</t>
+          <t>명품고급디퓨저 마일론 갤러리3 차량용 방향제 MGAL-03</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18367838563</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31231762618</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1836783/18367838563.20211108142647.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3123176/31231762618.20220310141449.jpg</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>13000</t>
+          <t>39900</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
@@ -2390,12 +2382,12 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>디프로젝트</t>
+          <t>마일론</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>디프로젝트</t>
+          <t>명품고급디퓨저</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2425,22 +2417,22 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>불스원 그라스 디퓨저 블루 차량용 방향제 100ml</t>
+          <t>디프로젝트 리필킷 디불 디버니 디릴라고 차량용방향제 자동차 디퓨저 고체 리필 DP-RF02</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24063116873</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18367838563</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2406311/24063116873.20210111145156.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1836783/18367838563.20211108142647.jpg</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11870</t>
+          <t>13000</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
@@ -2456,10 +2448,14 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>불스원</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr"/>
+          <t>디프로젝트</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>디프로젝트</t>
+        </is>
+      </c>
       <c r="K33" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2502,7 +2498,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>48990</t>
+          <t>47520</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
@@ -2553,22 +2549,22 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>명품고급디퓨저 마일론 갤러리3 차량용 방향제 MGAL-03</t>
+          <t>양키캔들 1 1 양키캔들 카자얼티메이트 차량용 방향제</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31231762618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29582915037</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3123176/31231762618.20220310141449.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2958291/29582915037.20211108020618.jpg</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>39900</t>
+          <t>4880</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
@@ -2584,12 +2580,12 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>마일론</t>
+          <t>양키캔들</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>명품고급디퓨저</t>
+          <t>양키캔들</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -2619,22 +2615,22 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>앵그리차일드 한야 도깨비 차량용방향제 자동차 디퓨저</t>
+          <t>언더스코어 오버라인 오버타이거 호랑이 퓨마 차량용 방향제 자동차 디퓨저 OL-CFOT</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=32626419897</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30404262618</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3262641/32626419897.20220528080017.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3040426/30404262618.20220316162835.jpg</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>45000</t>
+          <t>35000</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
@@ -2648,8 +2644,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>언더스코어</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>언더스코어</t>
+        </is>
+      </c>
       <c r="K36" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2677,22 +2681,22 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>양키캔들 1 1 양키캔들 카자얼티메이트 차량용 방향제</t>
+          <t>제이앤컴퍼니 벨르아망 포켓몬 피규어 차량용 방향제 메타몽 팬텀 마자용 푸린 새차 선물</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29582915037</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=33464840631</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2958291/29582915037.20211108020618.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3346484/33464840631.20220713121644.jpg</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>4890</t>
+          <t>19800</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
@@ -2708,12 +2712,12 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>양키캔들</t>
+          <t>벨르아망</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>양키캔들</t>
+          <t>제이앤컴퍼니</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -2743,22 +2747,22 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>언더스코어 오버라인 오버타이거 호랑이 퓨마 차량용 방향제 자동차 디퓨저 OL-CFOT</t>
+          <t>엠퓨처 하트 송풍구 고급 차량용 방향제 디퓨저 MF-CAF03</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30404262618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31484465959</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3040426/30404262618.20220316162835.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3148446/31484465959.20220328053622.jpg</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>35030</t>
+          <t>13890</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
@@ -2774,14 +2778,10 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>언더스코어</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>언더스코어</t>
-        </is>
-      </c>
+          <t>엠퓨처</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2809,22 +2809,22 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>제이앤컴퍼니 벨르아망 포켓몬 피규어 차량용 방향제 메타몽 팬텀 마자용 푸린 새차 선물</t>
+          <t>리틀트리 걸이형 종이 방향제</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=33464840631</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=7162545992</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3346484/33464840631.20220713121644.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_7162545/7162545992.20190731170829.jpg</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>19800</t>
+          <t>930</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
@@ -2838,16 +2838,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>벨르아망</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>제이앤컴퍼니</t>
-        </is>
-      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2875,22 +2867,22 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>벨라독스 에어휠 프로펠러 차량용 방향제</t>
+          <t>디프로젝트 디버니 토끼 고급 차량용 방향제 자동차 디퓨저</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30564852196</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27331951522</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3056485/30564852196.20220116213658.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2733195/27331951522.20211222172819.jpg</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>29000</t>
+          <t>49000</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
@@ -2904,8 +2896,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>디프로젝트</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>디프로젝트</t>
+        </is>
+      </c>
       <c r="K40" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2933,22 +2933,22 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>엠퓨처 하트 송풍구 고급 차량용 방향제 디퓨저 MF-CAF03</t>
+          <t>P&amp;amp;G 페브리즈 차량용 방향제 2.2ml 3개</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31484465959</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20397190459</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3148446/31484465959.20220328053622.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2039719/20397190459.20190726113415.jpg</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>13890</t>
+          <t>8910</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
@@ -2964,10 +2964,14 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>엠퓨처</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr"/>
+          <t>페브리즈</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>P&amp;G</t>
+        </is>
+      </c>
       <c r="K41" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2995,22 +2999,22 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>JW중외제약 JW생활건강 피톤케어 차량용 방향제 리필 카트리지</t>
+          <t>양키캔들 벤트스틱 차량용 방향제 4P입</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=15901498616</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=6552648097</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1590149/15901498616.20211116120223.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_6552648/6552648097.20190731160942.jpg</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>19000</t>
+          <t>2960</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
@@ -3026,12 +3030,12 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>JW생활건강</t>
+          <t>양키캔들</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>JW중외제약</t>
+          <t>양키캔들</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -3061,22 +3065,22 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>미키큐빅 엠블럼 방향제</t>
+          <t>JW중외제약 JW생활건강 피톤케어 차량용 방향제 리필 카트리지</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29614058913</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=15901498616</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2961405/29614058913.20211110030633.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1590149/15901498616.20211116120223.jpg</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>15660</t>
+          <t>19000</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
@@ -3090,8 +3094,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>JW생활건강</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>JW중외제약</t>
+        </is>
+      </c>
       <c r="K43" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3119,22 +3131,22 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>양키캔들 벤트스틱 차량용 방향제 4P입</t>
+          <t>미키큐빅 엠블럼 방향제</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=6552648097</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29614058913</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_6552648/6552648097.20190731160942.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2961405/29614058913.20211110030633.jpg</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2960</t>
+          <t>15660</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
@@ -3148,16 +3160,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>양키캔들</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>양키캔들</t>
-        </is>
-      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3185,22 +3189,22 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>제이엠제이라인 도슈아 차량용 방향제 리필 도자기</t>
+          <t>KAN 뷰센트 자동차 송풍구 메탈 차량용 방향제 선물 2세트</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20347407194</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31597320645</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2034740/20347407194.20211001120304.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3159732/31597320645.20220429115323.jpg</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>25900</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
@@ -3216,12 +3220,12 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>도슈아</t>
+          <t>뷰센트</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>제이엠제이라인</t>
+          <t>KAN</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -3251,22 +3255,22 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>산도깨비 차량용 멤브렌 리필 방향제 x 10개입 휘튼치드</t>
+          <t>크로마치 고급 차량용 방향제 자동차 디퓨저 명품 차량 송풍구</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25695237598</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31278229629</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2569523/25695237598.20220326034624.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3127822/31278229629.20220521051428.jpg</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>21570</t>
+          <t>65000</t>
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
@@ -3282,7 +3286,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>산도깨비</t>
+          <t>크로마치</t>
         </is>
       </c>
       <c r="J46" t="inlineStr"/>
@@ -3313,22 +3317,22 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>라라체리티 리얼 니치퍼퓸 입술 고급 차량용 송풍구 방향제</t>
+          <t>로베르타디까메리노 방향제 송풍구 리틀포레스트향수</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=33210930858</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29185219914</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3321093/33210930858.20220630133748.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2918521/29185219914.20220719173550.jpg</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>44000</t>
+          <t>11900</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
@@ -3342,7 +3346,11 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I47" t="inlineStr"/>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>로베르타디까메리노</t>
+        </is>
+      </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
@@ -3371,22 +3379,22 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>KAN 뷰센트 자동차 송풍구 메탈 차량용 방향제 선물 2세트</t>
+          <t>벨라독스 에어휠 프로펠러 차량용 방향제</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31597320645</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30564852196</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3159732/31597320645.20220429115323.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3056485/30564852196.20220116213658.jpg</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>25900</t>
+          <t>29000</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
@@ -3400,16 +3408,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>뷰센트</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>KAN</t>
-        </is>
-      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3437,22 +3437,22 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>크로마치 고급 차량용 방향제 자동차 디퓨저 명품 차량 송풍구</t>
+          <t>블랩 오르브 오브제 고급 차량용 디퓨저 방향제 120ml</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31278229629</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30431426701</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3127822/31278229629.20220521051428.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3043142/30431426701.20220616110358.jpg</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>65000</t>
+          <t>12600</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
@@ -3468,10 +3468,14 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>크로마치</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr"/>
+          <t>오르브</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>블랩</t>
+        </is>
+      </c>
       <c r="K49" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3499,45 +3503,41 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>블랩 오르브 오브제 고급 차량용 디퓨저 방향제 120ml</t>
+          <t>쓰리나인 차 차량용 방향제 불독 명품 힙한늑대 디퓨저</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30431426701</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82749964205</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3043142/30431426701.20220616110358.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8274996/82749964205.12.jpg</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>12600</t>
+          <t>29850</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>THREENINE</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>오르브</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>블랩</t>
-        </is>
-      </c>
+          <t>쓰리나인</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3565,40 +3565,36 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>쓰리나인 차 차량용 방향제 불독 명품 힙한늑대 디퓨저</t>
+          <t>센티스 캡시 차량용 방향제 프랑스 송풍구 디퓨저</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82749964205</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30742420421</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8274996/82749964205.12.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3074242/30742420421.20220130232606.jpg</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>29850</t>
+          <t>38000</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
-          <t>THREENINE</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>쓰리나인</t>
-        </is>
-      </c>
+          <t>일반 - 가격비교 상품</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
@@ -3627,22 +3623,22 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>센티스 캡시 차량용 방향제 프랑스 송풍구 디퓨저</t>
+          <t>제이엠제이라인 도슈아 차량용 방향제 리필 도자기</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30742420421</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20347407194</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3074242/30742420421.20220130232606.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2034740/20347407194.20211001120304.jpg</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>38000</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
@@ -3656,8 +3652,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>도슈아</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>제이엠제이라인</t>
+        </is>
+      </c>
       <c r="K52" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3685,22 +3689,22 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>P&amp;amp;G 페브리즈 차량용 방향제 2.2ml 3개</t>
+          <t>산도깨비 차량용 멤브렌 리필 방향제 x 10개입 휘튼치드</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20397190459</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25695237598</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2039719/20397190459.20190726113415.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2569523/25695237598.20220326034624.jpg</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>8960</t>
+          <t>21570</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
@@ -3716,14 +3720,10 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>페브리즈</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>P&amp;G</t>
-        </is>
-      </c>
+          <t>산도깨비</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3751,22 +3751,22 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>미스터앤미세스 체사레 시저 차량용 방향제</t>
+          <t>아우라 카카오 모니터걸이형 방향제 라이언 블루스카이향 10g x1개</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=8119194241</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24014062100</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8119194/8119194241.20190802121728.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2401406/24014062100.20200903003222.jpg</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>6990</t>
+          <t>13900</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
@@ -3809,22 +3809,22 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>아우라 카카오 모니터걸이형 방향제 라이언 블루스카이향 10g x1개</t>
+          <t>미스터앤미세스 체사레 시저 차량용 방향제</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24014062100</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=8119194241</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2401406/24014062100.20200903003222.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8119194/8119194241.20190802121728.jpg</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>13900</t>
+          <t>6990</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
@@ -3867,22 +3867,22 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>오마르 퍼퓸베어 베어브릭 차량용방향제 기본형</t>
+          <t>앵그리차일드 골프 차량용 방향제 자동차 디퓨저</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27192765898</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=32899616297</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2719276/27192765898.20220330020644.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3289961/32899616297.20220612113459.jpg</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>13900</t>
+          <t>39000</t>
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
@@ -3896,11 +3896,7 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>오마르</t>
-        </is>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
@@ -3929,22 +3925,22 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>DA디자인 차량용 송풍구 방향제</t>
+          <t>산도깨비 멤브렌 피톤치드 차량용 방향제 6g</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=33066057690</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20254478730</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3306605/33066057690.20220621195325.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2025447/20254478730.20190716114220.jpg</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>36900</t>
+          <t>2090</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
@@ -3958,8 +3954,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>산도깨비</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>산도깨비</t>
+        </is>
+      </c>
       <c r="K57" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3987,22 +3991,22 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>명품고급디퓨저 마일론 갤러리1 차량용 방향제 MGAL-01</t>
+          <t>오마르 퍼퓸베어 베어브릭 차량용방향제 기본형</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30352215619</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27192765898</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3035221/30352215619.20220102155103.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2719276/27192765898.20220330020644.jpg</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>49000</t>
+          <t>13900</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
@@ -4018,14 +4022,10 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>마일론</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>명품고급디퓨저</t>
-        </is>
-      </c>
+          <t>오마르</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4053,43 +4053,43 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>명품고급디퓨저 마일론 갤러리2 차량용 방향제 MGAL-02</t>
+          <t>벤볼릭 명품 차량용 방향제 고급 자동차 차량 디퓨져</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30441772620</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82293143959</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3044177/30441772620.20220204192733.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8229314/82293143959.16.jpg</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>49000</t>
+          <t>28000</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>매드포모던</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>마일론</t>
+          <t>벤볼릭</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>명품고급디퓨저</t>
+          <t>키니캔들</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -4119,43 +4119,43 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>불스원 폴라프레쉬 선바이저 차량용 방향제</t>
+          <t>벨르아망 포켓몬스터 빅페이스 차량용 디퓨저 방향제 새차 선물 피카츄</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24165357120</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=84367332534</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2416535/24165357120.20220616110219.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8436733/84367332534.1.jpg</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>19800</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>BELLE AMANT</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>불스원</t>
+          <t>벨르아망</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>불스원</t>
+          <t>제이앤컴퍼니</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -4185,22 +4185,22 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>불스원 그라스클래식 디퓨저 차량용방향제 2개 퓨어코튼</t>
+          <t>명품고급디퓨저 마일론 갤러리1 차량용 방향제 MGAL-01</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31268113361</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30352215619</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3126811/31268113361.20220312023642.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3035221/30352215619.20220102155103.jpg</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>16700</t>
+          <t>49000</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
@@ -4216,12 +4216,12 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>불스원</t>
+          <t>마일론</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>불스원</t>
+          <t>명품고급디퓨저</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -4251,22 +4251,22 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>마블 스턴 아이언맨 차량용 방향제 ST-IM01</t>
+          <t>센트몬스터 고양이 차량용 방향제 고급 디퓨져</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30644523374</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24163460435</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3064452/30644523374.20220318023112.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2416346/24163460435.20210124121840.jpg</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>29800</t>
+          <t>39000</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
@@ -4282,7 +4282,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>마블</t>
+          <t>센트몬스터</t>
         </is>
       </c>
       <c r="J62" t="inlineStr"/>
@@ -4313,33 +4313,33 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>곰돌이 차량용 에어컨 방향제 디퓨저 송풍구 자동차 악세사리 인테리어 장식 프로펠러</t>
+          <t>FYC 고급 명품 불독 차량용 방향제 디퓨저</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82594352248</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24941672502</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8259435/82594352248.8.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2494167/24941672502.20201122175400.jpg</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>16900</t>
+          <t>39000</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">
         <is>
-          <t>콜른코리아</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -4371,43 +4371,43 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>벤볼릭 명품 차량용 방향제 고급 자동차 차량 디퓨져</t>
+          <t>불스원 폴라프레쉬 선바이저 차량용 방향제</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82293143959</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24165357120</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8229314/82293143959.16.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2416535/24165357120.20220616110219.jpg</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>28000</t>
+          <t>2500</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
         <is>
-          <t>매드포모던</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>벤볼릭</t>
+          <t>불스원</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>키니캔들</t>
+          <t>불스원</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -4437,22 +4437,22 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>미스터앤미세스 니키 클래식 차량용 방향제 본품</t>
+          <t>마블 스턴 아이언맨 차량용 방향제 ST-IM01</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25359648694</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30644523374</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2535964/25359648694.20201224195431.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3064452/30644523374.20220318023112.jpg</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>7900</t>
+          <t>29800</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
@@ -4466,7 +4466,11 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I65" t="inlineStr"/>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>마블</t>
+        </is>
+      </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
@@ -4495,22 +4499,22 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>산도깨비 멤브렌 피톤치드 차량용 방향제 6g</t>
+          <t>불스원 그라스클래식 디퓨저 차량용방향제 2개 퓨어코튼</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20254478730</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31268113361</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2025447/20254478730.20190716114220.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3126811/31268113361.20220312023642.jpg</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2090</t>
+          <t>16850</t>
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
@@ -4526,12 +4530,12 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>산도깨비</t>
+          <t>불스원</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>산도깨비</t>
+          <t>불스원</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -4561,22 +4565,22 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>양키캔들 얼티메이트 미드썸머나잇 차량용 방향제</t>
+          <t>미스터앤미세스 니키 클래식 차량용 방향제 본품</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25940561903</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25359648694</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2594056/25940561903.20210209203509.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2535964/25359648694.20201224195431.jpg</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>3240</t>
+          <t>7900</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
@@ -4590,16 +4594,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>양키캔들</t>
-        </is>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>양키캔들</t>
-        </is>
-      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4627,22 +4623,22 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>로베르타디까메리노 방향제 송풍구 리틀포레스트향수</t>
+          <t>마무르 캐리어 차량용방향제 고급 명품선물 자동차 송풍구디퓨저 MAP327</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29185219914</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31290700536</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2918521/29185219914.20220719173550.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3129070/31290700536.20220426181416.jpg</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11900</t>
+          <t>39000</t>
         </is>
       </c>
       <c r="F68" t="inlineStr"/>
@@ -4656,11 +4652,7 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>로베르타디까메리노</t>
-        </is>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
@@ -4689,22 +4681,22 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>센트몬스터 고양이 차량용 방향제 고급 디퓨져</t>
+          <t>DA디자인 차량용 송풍구 방향제</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24163460435</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=33066057690</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2416346/24163460435.20210124121840.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3306605/33066057690.20220621195325.jpg</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>39000</t>
+          <t>36900</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
@@ -4718,11 +4710,7 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>센트몬스터</t>
-        </is>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
@@ -4751,22 +4739,22 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>청개구리 멤브렌 방향제 공기청향제 탈취제 산도깨비</t>
+          <t>KAN 뷰센트 De.Line 차량용 방향제 싱글세트</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29899764272</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18985549503</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2989976/29899764272.20211201020417.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1898554/18985549503.20210713121106.jpg</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>1690</t>
+          <t>12600</t>
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
@@ -4780,8 +4768,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>뷰센트</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>KAN</t>
+        </is>
+      </c>
       <c r="K70" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4809,22 +4805,22 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>다신 불독 송풍구 차량용 방향제 디퓨저</t>
+          <t>명품고급디퓨저 마일론 갤러리2 차량용 방향제 MGAL-02</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31542390843</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30441772620</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3154239/31542390843.20220407161514.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3044177/30441772620.20220204192733.jpg</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>14400</t>
+          <t>49000</t>
         </is>
       </c>
       <c r="F71" t="inlineStr"/>
@@ -4838,8 +4834,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>마일론</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>명품고급디퓨저</t>
+        </is>
+      </c>
       <c r="K71" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4925,33 +4929,33 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>레인보우 데이지 스마일방향제+리필오일5ml+선물포장 석고방향제 차량용방향제</t>
+          <t>청개구리 멤브렌 방향제 공기청향제 탈취제 산도깨비</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82498642399</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29899764272</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8249864/82498642399.2.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2989976/29899764272.20211201020417.jpg</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>7000</t>
+          <t>1690</t>
         </is>
       </c>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr">
         <is>
-          <t>제이나작업실</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
@@ -4983,22 +4987,22 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>FYC 고급 명품 불독 차량용 방향제 디퓨저</t>
+          <t>올리바노 메탈 엠블럼 차량용 방향제 송풍구형 리필형</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24941672502</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28618378553</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2494167/24941672502.20201122175400.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2861837/28618378553.20210828185043.jpg</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>39000</t>
+          <t>17800</t>
         </is>
       </c>
       <c r="F74" t="inlineStr"/>
@@ -5041,22 +5045,22 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>올리바노 메탈 엠블럼 차량용 방향제 송풍구형 리필형</t>
+          <t>다신 불독 송풍구 차량용 방향제 디퓨저</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28618378553</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31542390843</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2861837/28618378553.20210828185043.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3154239/31542390843.20220407161514.jpg</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>17800</t>
+          <t>14400</t>
         </is>
       </c>
       <c r="F75" t="inlineStr"/>
@@ -5165,22 +5169,22 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>KAN 뷰센트 De.Line 차량용 방향제 싱글세트</t>
+          <t>제로스킨 로보트 태권브이 차량용 방향제 자동차 디퓨저 AD-KF90</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18985549503</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29535937618</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1898554/18985549503.20210713121106.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2953593/29535937618.20211216102403.jpg</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>12600</t>
+          <t>46020</t>
         </is>
       </c>
       <c r="F77" t="inlineStr"/>
@@ -5196,12 +5200,12 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>뷰센트</t>
+          <t>제로스킨</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>KAN</t>
+          <t>제로스킨</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -5231,28 +5235,28 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>벨르아망 포켓몬스터 빅페이스 차량용 디퓨저 방향제 새차 선물 피카츄</t>
+          <t>[LITTLE TREES]리틀트리 방향제 종이방향제 1p 모음전</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=84367332534</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=83050195147</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8436733/84367332534.1.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8305019/83050195147.jpg</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>19800</t>
+          <t>900</t>
         </is>
       </c>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr">
         <is>
-          <t>BELLE AMANT</t>
+          <t>LITTLE TREES</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -5260,16 +5264,8 @@
           <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>벨르아망</t>
-        </is>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>제이앤컴퍼니</t>
-        </is>
-      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -5297,22 +5293,22 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>에이비 얼굴 일러스트 사진 차량용방향제 2set</t>
+          <t>양키캔들 얼티메이트 미드썸머나잇 차량용 방향제</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27190906522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25940561903</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2719090/27190906522.20210518150908.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2594056/25940561903.20210209203509.jpg</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>17900</t>
+          <t>3240</t>
         </is>
       </c>
       <c r="F79" t="inlineStr"/>
@@ -5328,12 +5324,12 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>에이비</t>
+          <t>양키캔들</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>에이비</t>
+          <t>양키캔들</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -5363,22 +5359,22 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>마무르 캐리어 차량용방향제 고급 명품선물 자동차 송풍구디퓨저 MAP327</t>
+          <t>크롬디 차량용 방향제 CD-9</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31290700536</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31387912762</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3129070/31290700536.20220426181416.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3138791/31387912762.20220320033422.jpg</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>39000</t>
+          <t>24900</t>
         </is>
       </c>
       <c r="F80" t="inlineStr"/>
@@ -5392,7 +5388,11 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I80" t="inlineStr"/>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>크롬디</t>
+        </is>
+      </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
@@ -5421,43 +5421,43 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>조말론 차량용 방향제 센트투고 명품향수 고급 디퓨저 거치대</t>
+          <t>토씨 클래시맨 명품 고급 차량용방향제 룸미러걸이형</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=83025886866</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25695599950</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8302588/83025886866.1.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2569559/25695599950.20220704103706.jpg</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>48500</t>
+          <t>85000</t>
         </is>
       </c>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr">
         <is>
-          <t>홍콩걸즈</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>조말론</t>
+          <t>토씨</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>조말론</t>
+          <t>토씨</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -5487,22 +5487,22 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>토씨 클래시맨 명품 고급 차량용방향제 룸미러걸이형</t>
+          <t>불스원 그라스 디퓨저 105ml 블랙베리 체리 방향제</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25695599950</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26677172452</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2569559/25695599950.20220704103706.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2667717/26677172452.20210407202430.jpg</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>85000</t>
+          <t>7970</t>
         </is>
       </c>
       <c r="F82" t="inlineStr"/>
@@ -5518,12 +5518,12 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>토씨</t>
+          <t>불스원</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>토씨</t>
+          <t>불스원</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -5553,22 +5553,22 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>제로스킨 로보트 태권브이 차량용 방향제 자동차 디퓨저 AD-KF90</t>
+          <t>멜린 베어 파일럿 프로펠러 자동차 송풍구 에어컨</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29535937618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=33272908872</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2953593/29535937618.20211216102403.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3327290/33272908872.20220704113112.jpg</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>46020</t>
+          <t>19800</t>
         </is>
       </c>
       <c r="F83" t="inlineStr"/>
@@ -5584,14 +5584,10 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>제로스킨</t>
-        </is>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>제로스킨</t>
-        </is>
-      </c>
+          <t>멜린</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -5619,22 +5615,22 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>크롬디 차량용 방향제 CD-9</t>
+          <t>이븐도우 생귄 쥬얼리 클립 차량용 방향제</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31387912762</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=19103746764</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3138791/31387912762.20220320033422.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1910374/19103746764.20220213194209.jpg</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>24900</t>
+          <t>32800</t>
         </is>
       </c>
       <c r="F84" t="inlineStr"/>
@@ -5650,10 +5646,14 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>크롬디</t>
-        </is>
-      </c>
-      <c r="J84" t="inlineStr"/>
+          <t>생귄</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>이븐도우</t>
+        </is>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -5681,37 +5681,45 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>코코쥬 차량용 방향제 고급 프로펠러 자동차 디퓨져 새차 선물</t>
+          <t>조말론 차량용 방향제 자동차 디퓨저 차량방향제 명품 차방향제</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31875412948</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=83776353433</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3187541/31875412948.20220417180424.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8377635/83776353433.1.jpg</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>29800</t>
+          <t>29600</t>
         </is>
       </c>
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>라벨 라휴</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>조말론</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>조말론</t>
+        </is>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -5739,22 +5747,22 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>더드림 꽃 베어브릭 석고 차량용 방향제 귀여운 자동차 송풍구 디퓨저</t>
+          <t>불스원 그라스 오브제 디퓨저 차량용 방향제 100ml</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27124471579</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30425453618</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2712447/27124471579.20210512182954.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3042545/30425453618.20220105100536.jpg</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>11700</t>
+          <t>17500</t>
         </is>
       </c>
       <c r="F86" t="inlineStr"/>
@@ -5770,10 +5778,14 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>더드림</t>
-        </is>
-      </c>
-      <c r="J86" t="inlineStr"/>
+          <t>불스원</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>불스원</t>
+        </is>
+      </c>
       <c r="K86" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -5801,22 +5813,22 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>헤즐넛 커피방향제 탈취와 향기 차량용 화장실 디퓨져</t>
+          <t>에이비 얼굴 일러스트 사진 차량용방향제 2set</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26059553880</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27190906522</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2605955/26059553880.20210219195508.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2719090/27190906522.20210518150908.jpg</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>1010</t>
+          <t>17900</t>
         </is>
       </c>
       <c r="F87" t="inlineStr"/>
@@ -5830,8 +5842,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>에이비</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>에이비</t>
+        </is>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -5859,22 +5879,22 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>멜린 베어 파일럿 프로펠러 자동차 송풍구 에어컨</t>
+          <t>불스원 그라스 통풍구 디퓨저 차량용 방향제 10ml x 2개</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=33272908872</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25543313849</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3327290/33272908872.20220704113112.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2554331/25543313849.20211119124936.jpg</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>19800</t>
+          <t>12700</t>
         </is>
       </c>
       <c r="F88" t="inlineStr"/>
@@ -5890,10 +5910,14 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>멜린</t>
-        </is>
-      </c>
-      <c r="J88" t="inlineStr"/>
+          <t>불스원</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>불스원</t>
+        </is>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -5921,43 +5945,43 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>이븐도우 생귄 쥬얼리 클립 차량용 방향제</t>
+          <t>도그독 에어휠 차량용 방향제 명품 프로펠러 고급 자동차 불독 비행기 디퓨저</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=19103746764</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=83379086778</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1910374/19103746764.20220213194209.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8337908/83379086778.2.jpg</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>32800</t>
+          <t>24800</t>
         </is>
       </c>
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>주식회사 도그독</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>생귄</t>
+          <t>도그독</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>이븐도우</t>
+          <t>도그독</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -5987,22 +6011,22 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>불스원 그라스 디퓨저 105ml 블랙베리 체리 방향제</t>
+          <t>페브리즈 차량용 방향제 6개입</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26677172452</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28545855511</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2667717/26677172452.20210407202430.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2854585/28545855511.20220405030723.jpg</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>7970</t>
+          <t>16200</t>
         </is>
       </c>
       <c r="F90" t="inlineStr"/>
@@ -6018,14 +6042,10 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>불스원</t>
-        </is>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>불스원</t>
-        </is>
-      </c>
+          <t>페브리즈</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -6053,33 +6073,33 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>[LITTLE TREES]리틀트리 방향제 종이방향제 1p 모음전</t>
+          <t>센텍 디센트 스포이드 디퓨저 리필 자동차 방향제</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=83050195147</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26762803190</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8305019/83050195147.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2676280/26762803190.20220330024851.jpg</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>900</t>
+          <t>4070</t>
         </is>
       </c>
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr">
         <is>
-          <t>LITTLE TREES</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I91" t="inlineStr"/>
@@ -6111,22 +6131,22 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>앵그리차일드 골프 차량용 방향제 자동차 디퓨저</t>
+          <t>불스원 그라스 레스떼렐 방향제 110ml</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=32899616297</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=5887774761</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3289961/32899616297.20220612113459.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_5887774/5887774761.20180928095307.jpg</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>39000</t>
+          <t>11000</t>
         </is>
       </c>
       <c r="F92" t="inlineStr"/>
@@ -6140,8 +6160,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>불스원</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>불스원</t>
+        </is>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -6169,40 +6197,36 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>루크타 도베르만 차량용 자동차 송풍구 차 고급 방향제 디퓨저 LT-DB01</t>
+          <t>곰돌이 차량용 에어컨 방향제 디퓨저 송풍구 자동차 악세사리 인테리어 장식 프로펠러</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25380843939</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82594352248</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2538084/25380843939.20220113101814.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8259435/82594352248.8.jpg</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>49000</t>
+          <t>16900</t>
         </is>
       </c>
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>콜른코리아</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
-        </is>
-      </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>루크타</t>
-        </is>
-      </c>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
@@ -6231,22 +6255,22 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>센텍 디센트 스포이드 디퓨저 리필 자동차 방향제</t>
+          <t>PRE피톤치드오일 차량용 방향제 다이케스팅 디퓨저</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26762803190</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27930349118</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2676280/26762803190.20220330024851.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2793034/27930349118.20210709220415.jpg</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>4070</t>
+          <t>23100</t>
         </is>
       </c>
       <c r="F94" t="inlineStr"/>
@@ -6289,45 +6313,41 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>조말론 차량용 방향제 자동차 디퓨저 차량방향제 명품 차방향제</t>
+          <t>더드림 꽃 베어브릭 석고 차량용 방향제 귀여운 자동차 송풍구 디퓨저</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=83776353433</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27124471579</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8377635/83776353433.1.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2712447/27124471579.20210512182954.jpg</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>29600</t>
+          <t>11700</t>
         </is>
       </c>
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr">
         <is>
-          <t>라벨 라휴</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>조말론</t>
-        </is>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>조말론</t>
-        </is>
-      </c>
+          <t>더드림</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -6355,22 +6375,22 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>불스원 그라스 레스떼렐 방향제 110ml</t>
+          <t>헤즐넛 커피방향제 탈취와 향기 차량용 화장실 디퓨져</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=5887774761</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26059553880</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_5887774/5887774761.20180928095307.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2605955/26059553880.20210219195508.jpg</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>11000</t>
+          <t>1010</t>
         </is>
       </c>
       <c r="F96" t="inlineStr"/>
@@ -6384,16 +6404,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>불스원</t>
-        </is>
-      </c>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>불스원</t>
-        </is>
-      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -6421,22 +6433,22 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>로베르타디까메리노 방향제 크롬 60ml 3P</t>
+          <t>루크타 도베르만 차량용 자동차 송풍구 차 고급 방향제 디퓨저 LT-DB01</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24046743066</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25380843939</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2404674/24046743066.20211117044215.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2538084/25380843939.20220113101814.jpg</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>18090</t>
+          <t>49000</t>
         </is>
       </c>
       <c r="F97" t="inlineStr"/>
@@ -6452,7 +6464,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>로베르타디까메리노</t>
+          <t>루크타</t>
         </is>
       </c>
       <c r="J97" t="inlineStr"/>
@@ -6483,37 +6495,45 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>우드어 심플 차량용 방향제</t>
+          <t>조말론 차량용 방향제 센트투고 명품향수 고급 디퓨저 거치대</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=33382841447</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=83025886866</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3338284/33382841447.20220709102853.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8302588/83025886866.1.jpg</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>26900</t>
+          <t>48500</t>
         </is>
       </c>
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>홍콩걸즈</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
-        </is>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>조말론</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>조말론</t>
+        </is>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -6541,22 +6561,22 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>페브리즈 차량용 방향제 6개입</t>
+          <t>피톤치드 차량용 방향제 제스퍼 에어피톤 배터리형</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28545855511</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27705110029</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2854585/28545855511.20220405030723.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2770511/27705110029.20220301141146.jpg</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>16100</t>
+          <t>47990</t>
         </is>
       </c>
       <c r="F99" t="inlineStr"/>
@@ -6570,11 +6590,7 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I99" t="inlineStr">
-        <is>
-          <t>페브리즈</t>
-        </is>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
@@ -6603,22 +6619,22 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>불스원 그라스 오브제 디퓨저 차량용 방향제 100ml</t>
+          <t>코코쥬 차량용 방향제 고급 프로펠러 자동차 디퓨져 새차 선물</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30425453618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31875412948</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3042545/30425453618.20220105100536.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3187541/31875412948.20220417180424.jpg</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>17500</t>
+          <t>29800</t>
         </is>
       </c>
       <c r="F100" t="inlineStr"/>
@@ -6632,16 +6648,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>불스원</t>
-        </is>
-      </c>
-      <c r="J100" t="inlineStr">
-        <is>
-          <t>불스원</t>
-        </is>
-      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -6669,22 +6677,22 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>PRE피톤치드오일 차량용 방향제 다이케스팅 디퓨저</t>
+          <t>포라이트 데무르 방향제</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27930349118</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31557699426</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2793034/27930349118.20210709220415.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3155769/31557699426.20220402023654.jpg</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>23100</t>
+          <t>29000</t>
         </is>
       </c>
       <c r="F101" t="inlineStr"/>

--- a/output.xlsx
+++ b/output.xlsx
@@ -439,22 +439,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>명품고급디퓨저 마일론 갤러리3 차량용 방향제 MGAL-03</t>
+          <t>블랩 바이엘 디퓨저 차량용 실내용 방향제 천연디퓨저 BYLDF001</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31231762618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=32287746505</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3123176/31231762618.20220310141449.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3228774/32287746505.20220512104109.jpg</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>39900</t>
+          <t>14000</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
@@ -470,12 +470,12 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>마일론</t>
+          <t>바이엘</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>명품고급디퓨저</t>
+          <t>블랩</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -505,22 +505,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>블랩 바이엘 디퓨저 차량용 실내용 방향제 천연디퓨저 BYLDF001</t>
+          <t>명품고급디퓨저 마일론 갤러리3 차량용 방향제 MGAL-03</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=32287746505</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31231762618</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3228774/32287746505.20220512104109.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3123176/31231762618.20220310141449.jpg</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>14000</t>
+          <t>39900</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
@@ -536,12 +536,12 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>바이엘</t>
+          <t>마일론</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>블랩</t>
+          <t>명품고급디퓨저</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -571,22 +571,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>이븐도우 생귄 쥬얼리 클립 차량용 방향제</t>
+          <t>로얄워터 텀블러 모양 차량용 방향제 신차선물</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=19103746764</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29835967618</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1910374/19103746764.20220213194209.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2983596/29835967618.20211125191149.jpg</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>32800</t>
+          <t>49000</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
@@ -602,12 +602,12 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>생귄</t>
+          <t>로얄워터</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>이븐도우</t>
+          <t>로얄워터</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -637,22 +637,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>디프로젝트 디불 불독 고급 차량용 방향제 자동차 디퓨저</t>
+          <t>에이비 베어브릭 차량용방향제 석고 고급 디퓨저 차방향제  ab-df01</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=13697148540</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27765010523</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1369714/13697148540.20211222172941.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2776501/27765010523.20220303170756.jpg</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>49000</t>
+          <t>11900</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
@@ -668,12 +668,12 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>디프로젝트</t>
+          <t>에이비</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>디프로젝트</t>
+          <t>에이비</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -703,45 +703,41 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>에이비 베어브릭 차량용방향제 석고 고급 디퓨저 차방향제  ab-df01</t>
+          <t>천연차량방향제 3개세트 송풍구거치형</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27765010523</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=81628659125</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2776501/27765010523.20220303170756.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8162865/81628659125.5.jpg</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11900</t>
+          <t>38000</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>아이수피아1</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>에이비</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>에이비</t>
-        </is>
-      </c>
+          <t>아이수피아</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -769,22 +765,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>로얄워터 텀블러 모양 차량용 방향제 신차선물</t>
+          <t>불스원 그라스 디퓨져 차량용 방향제 105ml</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29835967618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=12140232094</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2983596/29835967618.20211125191149.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1214023/12140232094.20211006140204.jpg</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>49000</t>
+          <t>8600</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
@@ -800,12 +796,12 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>로얄워터</t>
+          <t>불스원</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>로얄워터</t>
+          <t>불스원</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -835,22 +831,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>아트센트 천연소가죽 명품 차량용 방향제 고급 디퓨저 차 방향제 선물</t>
+          <t>카보노 대쉬보드 거치형 프리미엄 차량용 방향제</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30479265972</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25371363986</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3047926/30479265972.20220609124802.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2537136/25371363986.20220104014030.jpg</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>38900</t>
+          <t>46500</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
@@ -864,7 +860,11 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>카보노</t>
+        </is>
+      </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
@@ -893,17 +893,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>바흐가르트 차량용방향제 석고 송풍구 방향제</t>
+          <t>아트센트 천연소가죽 명품 차량용 방향제 고급 디퓨저 차 방향제 선물</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30841337224</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30479265972</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3084133/30841337224.20220811101831.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3047926/30479265972.20220609124802.jpg</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -922,11 +922,7 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>바흐가르트</t>
-        </is>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
@@ -955,22 +951,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>엠퓨처 하트 송풍구 고급 차량용 방향제 디퓨저 MF-CAF03</t>
+          <t>디프로젝트 디불 불독 고급 차량용 방향제 자동차 디퓨저</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31484465959</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=13697148540</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3148446/31484465959.20220328053622.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1369714/13697148540.20211222172941.jpg</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>13900</t>
+          <t>49000</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
@@ -986,10 +982,14 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>엠퓨처</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr"/>
+          <t>디프로젝트</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>디프로젝트</t>
+        </is>
+      </c>
       <c r="K10" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1017,22 +1017,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>불스원 그라스 디퓨져 차량용 방향제 105ml</t>
+          <t>제이엠제이라인 도슈아 클래식 프리미엄 차량용 방향제</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=12140232094</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=17787594512</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1214023/12140232094.20211006140204.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1778759/17787594512.20210802225254.jpg</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>8690</t>
+          <t>29750</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
@@ -1048,12 +1048,12 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>불스원</t>
+          <t>도슈아</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>불스원</t>
+          <t>제이엠제이라인</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1215,22 +1215,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>카보노 대쉬보드 거치형 프리미엄 차량용 방향제</t>
+          <t>ELLA 프라임 호랑이 차량용 방향제 프로펠러</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25371363986</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30617053618</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2537136/25371363986.20220104014030.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3061705/30617053618.20220120171741.jpg</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>46500</t>
+          <t>29700</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
@@ -1246,7 +1246,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>카보노</t>
+          <t>ELLA</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
@@ -1277,22 +1277,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ELLA 프라임 호랑이 차량용 방향제 프로펠러</t>
+          <t>이븐도우 생귄 쥬얼리 클립 차량용 방향제</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30617053618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=19103746764</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3061705/30617053618.20220120171741.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1910374/19103746764.20220213194209.jpg</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>29700</t>
+          <t>32800</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
@@ -1308,10 +1308,14 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>ELLA</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr"/>
+          <t>생귄</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>이븐도우</t>
+        </is>
+      </c>
       <c r="K15" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1339,22 +1343,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>제이엠제이라인 도슈아 클래식 프리미엄 차량용 방향제</t>
+          <t>언더스코어 젠틀맨 프리미엄 차량용 방향제 디퓨저</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=17787594512</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27137540258</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1778759/17787594512.20210802225254.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2713754/27137540258.20210708110811.jpg</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>29750</t>
+          <t>30100</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
@@ -1370,12 +1374,12 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>도슈아</t>
+          <t>언더스코어</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>제이엠제이라인</t>
+          <t>언더스코어</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1405,22 +1409,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>불스원 폴라프레쉬 선바이저 방향제 리필</t>
+          <t>바흐가르트 차량용방향제 석고 송풍구 방향제</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=17787599329</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30841337224</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1778759/17787599329.20220107133652.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3084133/30841337224.20220811101831.jpg</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2110</t>
+          <t>38900</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
@@ -1436,14 +1440,10 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>불스원</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>불스원</t>
-        </is>
-      </c>
+          <t>바흐가르트</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1471,45 +1471,41 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>아뮈잔트 고급 차량용 방향제 명품 자동차 디퓨저 블랙 120ml</t>
+          <t>딥티크 차량용방향제 세트 케이스 + 리필용 캡슐</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=80920267289</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28620531681</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8092026/80920267289.12.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2862053/28620531681.20220308051600.jpg</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>20000</t>
+          <t>85900</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
-          <t>아뮈잔트</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>아뮈잔트</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>아뮈잔트</t>
-        </is>
-      </c>
+          <t>딥티크</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1537,22 +1533,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>언더스코어 젠틀맨 프리미엄 차량용 방향제 디퓨저</t>
+          <t>엠퓨처 하트 송풍구 고급 차량용 방향제 디퓨저 MF-CAF03</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27137540258</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31484465959</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2713754/27137540258.20210708110811.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3148446/31484465959.20220328053622.jpg</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>29200</t>
+          <t>13900</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
@@ -1568,14 +1564,10 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>언더스코어</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>언더스코어</t>
-        </is>
-      </c>
+          <t>엠퓨처</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1603,22 +1595,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>딥티크 차량용방향제 세트 케이스 + 리필용 캡슐</t>
+          <t>에이센트 네이처 차량용 디퓨저 방향제 120ml</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28620531681</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27334130786</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2862053/28620531681.20220308051600.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2733413/27334130786.20211216041142.jpg</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>85900</t>
+          <t>7750</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
@@ -1634,7 +1626,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>딥티크</t>
+          <t>에이센트</t>
         </is>
       </c>
       <c r="J20" t="inlineStr"/>
@@ -1723,41 +1715,45 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>에이센트 네이처 차량용 디퓨저 방향제 120ml</t>
+          <t>아뮈잔트 고급 차량용 방향제 명품 자동차 디퓨저 블랙 120ml</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27334130786</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=80920267289</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2733413/27334130786.20211216041142.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8092026/80920267289.12.jpg</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>7750</t>
+          <t>20000</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>아뮈잔트</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>에이센트</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr"/>
+          <t>아뮈잔트</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>아뮈잔트</t>
+        </is>
+      </c>
       <c r="K22" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1785,22 +1781,22 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>딥티크 차량용 방향제 리필 9종류향</t>
+          <t>센트데코 후드독 차량용 방향제 SCD-01</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27604493058</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30570794618</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2760449/27604493058.20220324022642.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3057079/30570794618.20220807184729.jpg</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>24500</t>
+          <t>28900</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
@@ -1816,12 +1812,12 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>딥티크</t>
+          <t>센트데코</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>딥티크</t>
+          <t>센트데코</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1851,22 +1847,22 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>센티스 캡시 차량용 방향제 프랑스 송풍구 디퓨저</t>
+          <t>엠퓨처 불독 송풍구 고급 차량용 방향제 디퓨저 MF-CAF02</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30742420421</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30458791731</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3074242/30742420421.20220130232606.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3045879/30458791731.20220117151934.jpg</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>38000</t>
+          <t>14890</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
@@ -1880,7 +1876,11 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr"/>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>엠퓨처</t>
+        </is>
+      </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
@@ -1909,22 +1909,22 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>디프로젝트 디릴라고 고릴라 고급 차량용 방향제 자동차 디퓨저</t>
+          <t>딥티크 차량용 방향제 리필 9종류향</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26801331279</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27604493058</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2680133/26801331279.20211222172904.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2760449/27604493058.20220324022642.jpg</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>49000</t>
+          <t>18000</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
@@ -1940,12 +1940,12 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>디프로젝트</t>
+          <t>딥티크</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>디프로젝트</t>
+          <t>딥티크</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -1975,41 +1975,45 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>천연차량방향제 3개세트 송풍구거치형</t>
+          <t>불스원 폴라프레쉬 선바이저 방향제 리필</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=81628659125</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=17787599329</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8162865/81628659125.5.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1778759/17787599329.20220107133652.jpg</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>38000</t>
+          <t>2110</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
-          <t>아이수피아1</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>아이수피아</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr"/>
+          <t>불스원</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>불스원</t>
+        </is>
+      </c>
       <c r="K26" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2037,22 +2041,22 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>센트데코 후드독 차량용 방향제 SCD-01</t>
+          <t>모노디트리 차량용 방향제 프리미엄 자동차 차 디퓨저</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30570794618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30869812153</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3057079/30570794618.20220807184729.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3086981/30869812153.20220210025122.jpg</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>28990</t>
+          <t>34000</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
@@ -2066,16 +2070,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>센트데코</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>센트데코</t>
-        </is>
-      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2103,22 +2099,22 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>플래트 고급 프로펠러 차량용 방향제 F430</t>
+          <t>디프로젝트 디릴라고 고릴라 고급 차량용 방향제 자동차 디퓨저</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27806043522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26801331279</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2780604/27806043522.20210701115440.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2680133/26801331279.20211222172904.jpg</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>41110</t>
+          <t>49000</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
@@ -2134,10 +2130,14 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>플래트</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr"/>
+          <t>디프로젝트</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>디프로젝트</t>
+        </is>
+      </c>
       <c r="K28" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2165,22 +2165,22 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>모노디트리 차량용 방향제 프리미엄 자동차 차 디퓨저</t>
+          <t>로베르타디까메리노 액상 클립 통풍구 에어컨 차량용 방향제</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30869812153</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=32628653367</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3086981/30869812153.20220210025122.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3262865/32628653367.20220528094208.jpg</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>34000</t>
+          <t>11900</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
@@ -2194,7 +2194,11 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr"/>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>로베르타디까메리노</t>
+        </is>
+      </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
@@ -2223,22 +2227,22 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>라라체리티 리얼 니치퍼퓸 입술 고급 차량용 송풍구 방향제</t>
+          <t>플래트 고급 프로펠러 차량용 방향제 F430</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=33210930858</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27806043522</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3321093/33210930858.20220630133748.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2780604/27806043522.20210701115440.jpg</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>44000</t>
+          <t>41040</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
@@ -2252,7 +2256,11 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr"/>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>플래트</t>
+        </is>
+      </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
@@ -2281,22 +2289,22 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>미스터앤미세스 니키 차량용 방향제 리필</t>
+          <t>라라체리티 리얼 니치퍼퓸 입술 고급 차량용 송풍구 방향제</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=10149695240</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=33210930858</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1014969/10149695240.20201014180005.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3321093/33210930858.20220630133748.jpg</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>4000</t>
+          <t>44000</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
@@ -2339,17 +2347,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>JW중외제약 피톤치드 차량용 방향제 피톤케어</t>
+          <t>센티스 캡시 차량용 방향제 프랑스 송풍구 디퓨저</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=12916212027</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30742420421</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1291621/12916212027.20220810105056.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3074242/30742420421.20220130232606.jpg</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2368,16 +2376,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>JW중외제약</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>JW중외제약</t>
-        </is>
-      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2405,22 +2405,22 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>루크타 도베르만 차량용 자동차 송풍구 차 고급 방향제 디퓨저 LT-DB01</t>
+          <t>미스터앤미세스 니키 차량용 방향제 리필</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25380843939</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=10149695240</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2538084/25380843939.20220113101814.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1014969/10149695240.20201014180005.jpg</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>49000</t>
+          <t>4000</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
@@ -2434,11 +2434,7 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>루크타</t>
-        </is>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
@@ -2467,22 +2463,22 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>불스원 그라스 디퓨저 블루 차량용 방향제 100ml</t>
+          <t>양키캔들 1 1 양키캔들 카자얼티메이트 차량용 방향제</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24063116873</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29582915037</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2406311/24063116873.20210111145156.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2958291/29582915037.20211108020618.jpg</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11700</t>
+          <t>4680</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
@@ -2498,10 +2494,14 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>불스원</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr"/>
+          <t>양키캔들</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>양키캔들</t>
+        </is>
+      </c>
       <c r="K34" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2529,45 +2529,41 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>양키캔들 1 1 양키캔들 카자얼티메이트 차량용 방향제</t>
+          <t>쓰리나인 명품 차량용방향제 고급 불독 자동차 디퓨저 방향제</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29582915037</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82749964205</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2958291/29582915037.20211108020618.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8274996/82749964205.12.jpg</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>4680</t>
+          <t>29850</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>THREENINE</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>양키캔들</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>양키캔들</t>
-        </is>
-      </c>
+          <t>쓰리나인</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2595,41 +2591,45 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>쓰리나인 명품 차량용방향제 고급 불독 자동차 디퓨저 방향제</t>
+          <t>디프로젝트 디버니 토끼 고급 차량용 방향제 자동차 디퓨저</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82749964205</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27331951522</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8274996/82749964205.12.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2733195/27331951522.20211222172819.jpg</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>29850</t>
+          <t>49000</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
-          <t>THREENINE</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>쓰리나인</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr"/>
+          <t>디프로젝트</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>디프로젝트</t>
+        </is>
+      </c>
       <c r="K36" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2657,22 +2657,22 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>엠퓨처 불독 송풍구 고급 차량용 방향제 디퓨저 MF-CAF02</t>
+          <t>JW중외제약 피톤치드 차량용 방향제 피톤케어</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30458791731</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=12916212027</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3045879/30458791731.20220117151934.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1291621/12916212027.20220810105056.jpg</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>14890</t>
+          <t>38000</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
@@ -2688,10 +2688,14 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>엠퓨처</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr"/>
+          <t>JW중외제약</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>JW중외제약</t>
+        </is>
+      </c>
       <c r="K37" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2719,17 +2723,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>디프로젝트 디버니 토끼 고급 차량용 방향제 자동차 디퓨저</t>
+          <t>루크타 도베르만 차량용 자동차 송풍구 차 고급 방향제 디퓨저 LT-DB01</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27331951522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25380843939</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2733195/27331951522.20211222172819.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2538084/25380843939.20220113101814.jpg</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2750,14 +2754,10 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>디프로젝트</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>디프로젝트</t>
-        </is>
-      </c>
+          <t>루크타</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2785,22 +2785,22 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>우드어 심플 차량용 방향제</t>
+          <t>불스원 그라스 디퓨저 블루 차량용 방향제 100ml</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=33382841447</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24063116873</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3338284/33382841447.20220709102853.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2406311/24063116873.20210111145156.jpg</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>27900</t>
+          <t>11470</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
@@ -2814,7 +2814,11 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I39" t="inlineStr"/>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>불스원</t>
+        </is>
+      </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
@@ -2843,22 +2847,22 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>디프로젝트 리필킷 디불 디버니 디릴라고 차량용방향제 자동차 디퓨저 고체 리필 DP-RF02</t>
+          <t>다신 불독 송풍구 차량용 방향제 디퓨저</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18367838563</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31542390843</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1836783/18367838563.20211108142647.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3154239/31542390843.20220407161514.jpg</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>13000</t>
+          <t>14400</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
@@ -2872,16 +2876,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>디프로젝트</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>디프로젝트</t>
-        </is>
-      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2909,22 +2905,22 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>P&amp;amp;G 페브리즈 차량용 방향제 2.2ml 3개</t>
+          <t>우드어 심플 차량용 방향제</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20397190459</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=33382841447</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2039719/20397190459.20190726113415.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3338284/33382841447.20220709102853.jpg</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>8500</t>
+          <t>27900</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
@@ -2938,16 +2934,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>페브리즈</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>P&amp;G</t>
-        </is>
-      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2975,22 +2963,22 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>양키캔들 벤트스틱 차량용 방향제 4P입</t>
+          <t>디프로젝트 리필킷 디불 디버니 디릴라고 차량용방향제 자동차 디퓨저 고체 리필 DP-RF02</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=6552648097</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18367838563</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_6552648/6552648097.20190731160942.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1836783/18367838563.20211108142647.jpg</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>3290</t>
+          <t>13000</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
@@ -3006,12 +2994,12 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>양키캔들</t>
+          <t>디프로젝트</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>양키캔들</t>
+          <t>디프로젝트</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -3041,22 +3029,22 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>JW중외제약 JW생활건강 피톤케어 차량용 방향제 리필 카트리지</t>
+          <t>라미유 차량용 고급 송풍구 방향제 블랙체리향 1+1</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=15901498616</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30586965618</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1590149/15901498616.20211116120223.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3058696/30586965618.20220421134837.jpg</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>19000</t>
+          <t>15890</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
@@ -3072,12 +3060,12 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>JW생활건강</t>
+          <t>라미유</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>JW중외제약</t>
+          <t>라미유</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -3122,7 +3110,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>6850</t>
+          <t>6840</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
@@ -3165,22 +3153,22 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>크로마치 고급 차량용 방향제 자동차 디퓨저 명품 차량 송풍구</t>
+          <t>게이즈샵 지독 차량용 방향제</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31278229629</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29039136038</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3127822/31278229629.20220521051428.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2903913/29039136038.20220223152854.jpg</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>65000</t>
+          <t>48990</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
@@ -3196,10 +3184,14 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>크로마치</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr"/>
+          <t>게이즈샵</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>게이즈</t>
+        </is>
+      </c>
       <c r="K45" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3227,22 +3219,22 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>벨라독스 에어휠 프로펠러 차량용 방향제</t>
+          <t>P&amp;amp;G 페브리즈 차량용 방향제 2.2ml 3개</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30564852196</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20397190459</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3056485/30564852196.20220116213658.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2039719/20397190459.20190726113415.jpg</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>29000</t>
+          <t>8400</t>
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
@@ -3256,8 +3248,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>페브리즈</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>P&amp;G</t>
+        </is>
+      </c>
       <c r="K46" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3285,22 +3285,22 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>라미유 차량용 고급 송풍구 방향제 블랙체리향 1+1</t>
+          <t>양키캔들 벤트스틱 차량용 방향제 4P입</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30586965618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=6552648097</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3058696/30586965618.20220421134837.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_6552648/6552648097.20190731160942.jpg</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>15890</t>
+          <t>3200</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
@@ -3316,12 +3316,12 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>라미유</t>
+          <t>양키캔들</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>라미유</t>
+          <t>양키캔들</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -3351,22 +3351,22 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>다신 불독 송풍구 차량용 방향제 디퓨저</t>
+          <t>JW중외제약 JW생활건강 피톤케어 차량용 방향제 리필 카트리지</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31542390843</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=15901498616</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3154239/31542390843.20220407161514.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1590149/15901498616.20211116120223.jpg</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>14400</t>
+          <t>19000</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
@@ -3380,8 +3380,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>JW생활건강</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>JW중외제약</t>
+        </is>
+      </c>
       <c r="K48" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3409,22 +3417,22 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>센트몬스터 고양이 차량용 방향제 고급 디퓨져</t>
+          <t>벨라독스 에어휠 프로펠러 차량용 방향제</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24163460435</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30564852196</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2416346/24163460435.20210124121840.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3056485/30564852196.20220116213658.jpg</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>39000</t>
+          <t>29000</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
@@ -3438,11 +3446,7 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>센트몬스터</t>
-        </is>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
@@ -3471,22 +3475,22 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>로베르타디까메리노 방향제 송풍구 리틀포레스트향수</t>
+          <t>픽도큐먼트 베어브릭 송풍구 차량용 방향제</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29185219914</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29900193281</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2918521/29185219914.20220719173550.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2990019/29900193281.20211208030917.jpg</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11900</t>
+          <t>14800</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
@@ -3500,11 +3504,7 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>로베르타디까메리노</t>
-        </is>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
@@ -3533,33 +3533,33 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>아우라 카카오 모니터걸이형 방향제 라이언 블루스카이향 10g x1개</t>
+          <t>이지케이 에스캣 썬글라스 고양이 고급 차량용 방향제 자동차 디퓨저</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24014062100</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=84599056595</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2401406/24014062100.20200903003222.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8459905/84599056595.7.jpg</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>12900</t>
+          <t>32000</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>에스캣 - S CAT</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -3591,22 +3591,22 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>제이엠제이라인 도슈아 차량용 방향제 리필 도자기</t>
+          <t>크로마치 고급 차량용 방향제 자동차 디퓨저 명품 차량 송풍구</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20347407194</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31278229629</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2034740/20347407194.20211001120304.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3127822/31278229629.20220521051428.jpg</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>65000</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
@@ -3622,14 +3622,10 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>도슈아</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>제이엠제이라인</t>
-        </is>
-      </c>
+          <t>크로마치</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3657,22 +3653,22 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>게이즈샵 지독 차량용 방향제</t>
+          <t>센트몬스터 고양이 차량용 방향제 고급 디퓨져</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29039136038</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24163460435</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2903913/29039136038.20220223152854.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2416346/24163460435.20210124121840.jpg</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>48970</t>
+          <t>39000</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
@@ -3688,14 +3684,10 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>게이즈샵</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>게이즈</t>
-        </is>
-      </c>
+          <t>센트몬스터</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3723,22 +3715,22 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>제이앤컴퍼니 벨르아망 포켓몬 피규어 차량용 방향제 메타몽 팬텀 마자용 푸린 새차 선물</t>
+          <t>로베르타디까메리노 방향제 송풍구 리틀포레스트향수</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=33464840631</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29185219914</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3346484/33464840631.20220713121644.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2918521/29185219914.20220719173550.jpg</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>19800</t>
+          <t>11890</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
@@ -3754,14 +3746,10 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>벨르아망</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>제이앤컴퍼니</t>
-        </is>
-      </c>
+          <t>로베르타디까메리노</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3789,41 +3777,45 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>산도깨비 차량용 멤브렌 리필 방향제 x 10개입 휘튼치드</t>
+          <t>페브리즈 차량용 방향제 2.2ml 차방향제 자동차 디퓨저 신차선물 라벤더의포근함</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25695237598</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82250772533</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2569523/25695237598.20220326034624.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8225077/82250772533.6.jpg</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>21570</t>
+          <t>2650</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>위즈브리드</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>산도깨비</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr"/>
+          <t>페브리즈</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>P&amp;G</t>
+        </is>
+      </c>
       <c r="K55" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3851,40 +3843,36 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>잉글리쉬페어 라임바질 베이 대용량 센트247 명품 고급 벤츠차량용방향제 디퓨저 120ml</t>
+          <t>아우라 카카오 모니터걸이형 방향제 라이언 블루스카이향 10g x1개</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82876701063</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24014062100</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8287670/82876701063.7.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2401406/24014062100.20200903003222.jpg</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>27900</t>
+          <t>12900</t>
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
-          <t>센트247 SCENT247</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>조말론</t>
-        </is>
-      </c>
+          <t>일반 - 가격비교 상품</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
@@ -3913,45 +3901,41 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>페브리즈 차량용 방향제 2.2ml 차방향제 자동차 디퓨저 신차선물 라벤더의포근함</t>
+          <t>산도깨비 차량용 멤브렌 리필 방향제 x 10개입 휘튼치드</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82250772533</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25695237598</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8225077/82250772533.6.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2569523/25695237598.20220326034624.jpg</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2650</t>
+          <t>21570</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr">
         <is>
-          <t>위즈브리드</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>페브리즈</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>P&amp;G</t>
-        </is>
-      </c>
+          <t>산도깨비</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3979,37 +3963,45 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>이지케이 에스캣 썬글라스 고양이 고급 차량용 방향제 자동차 디퓨저</t>
+          <t>제이엠제이라인 도슈아 차량용 방향제 리필 도자기</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=84599056595</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20347407194</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8459905/84599056595.3.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2034740/20347407194.20211001120304.jpg</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>32000</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
-          <t>에스캣 - S CAT</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
+          <t>일반 - 가격비교 상품</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>도슈아</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>제이엠제이라인</t>
+        </is>
+      </c>
       <c r="K58" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4037,36 +4029,40 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>픽도큐먼트 베어브릭 송풍구 차량용 방향제</t>
+          <t>잉글리쉬페어 라임바질 베이 대용량 센트247 명품 고급 벤츠차량용방향제 디퓨저 120ml</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29900193281</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82876701063</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2990019/29900193281.20211208030917.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8287670/82876701063.7.jpg</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>14800</t>
+          <t>27900</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>센트247 SCENT247</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr"/>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>조말론</t>
+        </is>
+      </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
@@ -4095,22 +4091,22 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>코코쥬 차량용 방향제 고급 프로펠러 자동차 디퓨져 새차 선물</t>
+          <t>제이앤컴퍼니 벨르아망 포켓몬 피규어 차량용 방향제 메타몽 팬텀 마자용 푸린 새차 선물</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31875412948</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=33464840631</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3187541/31875412948.20220417180424.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3346484/33464840631.20220713121644.jpg</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>29800</t>
+          <t>19800</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
@@ -4124,8 +4120,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>벨르아망</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>제이앤컴퍼니</t>
+        </is>
+      </c>
       <c r="K60" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4153,22 +4157,22 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>로베르타디까메리노 액상 클립 통풍구 에어컨 차량용 방향제</t>
+          <t>로베르타디까메리노 원형 대용량 방향제 100ml 2P</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=32628653367</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=5640406696</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3262865/32628653367.20220528094208.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_5640406/5640406696.20190805143958.jpg</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11900</t>
+          <t>13800</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
@@ -4187,7 +4191,11 @@
           <t>로베르타디까메리노</t>
         </is>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>로베르타디까메리노</t>
+        </is>
+      </c>
       <c r="K61" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4215,37 +4223,45 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>리틀트리 TREE 차량용 실내용 걸이형 종이 페이퍼 옷장 방향제</t>
+          <t>불스원 폴라프레쉬 선바이저 차량용 방향제</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82937356876</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24165357120</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8293735/82937356876.1.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2416535/24165357120.20220616110219.jpg</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>880</t>
+          <t>2500</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
         <is>
-          <t>프랜드캣</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
+          <t>일반 - 가격비교 상품</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>불스원</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>불스원</t>
+        </is>
+      </c>
       <c r="K62" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4273,22 +4289,22 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>올리바노 메탈 엠블럼 차량용 방향제 송풍구형 리필형</t>
+          <t>산도깨비 멤브렌 피톤치드 차량용 방향제 6g</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28618378553</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20254478730</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2861837/28618378553.20210828185043.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2025447/20254478730.20190716114220.jpg</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>18800</t>
+          <t>2090</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
@@ -4302,8 +4318,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>산도깨비</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>산도깨비</t>
+        </is>
+      </c>
       <c r="K63" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4331,45 +4355,41 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>불스원 폴라프레쉬 선바이저 차량용 방향제</t>
+          <t>조말론 차량용 방향제 센트투고 명품향수 고급 디퓨저 거치대</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24165357120</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=83025886866</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2416535/24165357120.20220616110219.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8302588/83025886866.1.jpg</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>48500</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>홍콩걸즈</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>불스원</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>불스원</t>
-        </is>
-      </c>
+          <t>조말론</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4397,22 +4417,22 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>로베르타디까메리노 원형 대용량 방향제 100ml 2P</t>
+          <t>PRE피톤치드오일 차량용 방향제 다이케스팅 디퓨저</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=5640406696</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27930349118</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_5640406/5640406696.20190805143958.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2793034/27930349118.20210709220415.jpg</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>13800</t>
+          <t>23100</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
@@ -4426,16 +4446,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>로베르타디까메리노</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>로베르타디까메리노</t>
-        </is>
-      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4463,22 +4475,22 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>미스터앤미세스 체사레 시저 차량용 방향제</t>
+          <t>오마르 퍼퓸베어 베어브릭 차량용방향제 기본형</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=8119194241</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27192765898</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8119194/8119194241.20190802121728.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2719276/27192765898.20220330020644.jpg</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>6890</t>
+          <t>13900</t>
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
@@ -4492,7 +4504,11 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I66" t="inlineStr"/>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>오마르</t>
+        </is>
+      </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
@@ -4521,22 +4537,22 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>산도깨비 멤브렌 피톤치드 차량용 방향제 6g</t>
+          <t>언더스코어 자동차용 세라믹 방향제</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20254478730</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30977409618</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2025447/20254478730.20190716114220.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3097740/30977409618.20220217150331.jpg</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2090</t>
+          <t>28990</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
@@ -4552,12 +4568,12 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>산도깨비</t>
+          <t>언더스코어</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>산도깨비</t>
+          <t>언더스코어</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -4587,22 +4603,22 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>불스원 그라스클래식 디퓨저 차량용방향제 2개 퓨어코튼</t>
+          <t>코코쥬 차량용 방향제 고급 프로펠러 자동차 디퓨져 새차 선물</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31268113361</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31875412948</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3126811/31268113361.20220312023642.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3187541/31875412948.20220417180424.jpg</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>16900</t>
+          <t>29800</t>
         </is>
       </c>
       <c r="F68" t="inlineStr"/>
@@ -4616,16 +4632,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>불스원</t>
-        </is>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>불스원</t>
-        </is>
-      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4653,22 +4661,22 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>마무르 캐리어 차량용방향제 고급 명품선물 자동차 송풍구디퓨저 MAP327</t>
+          <t>미스터앤미세스 체사레 시저 차량용 방향제</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31290700536</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=8119194241</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3129070/31290700536.20220426181416.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8119194/8119194241.20190802121728.jpg</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>39000</t>
+          <t>6790</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
@@ -4711,40 +4719,36 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>조말론 차량용 방향제 센트투고 명품향수 고급 디퓨저 거치대</t>
+          <t>올리바노 메탈 엠블럼 차량용 방향제 송풍구형 리필형</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=83025886866</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28618378553</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8302588/83025886866.1.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2861837/28618378553.20210828185043.jpg</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>48500</t>
+          <t>18800</t>
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr">
         <is>
-          <t>홍콩걸즈</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>조말론</t>
-        </is>
-      </c>
+          <t>일반 - 가격비교 상품</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
@@ -4773,22 +4777,22 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>언더스코어 자동차용 세라믹 방향제</t>
+          <t>명품고급디퓨저 마일론 갤러리1 차량용 방향제 MGAL-01</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30977409618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30352215619</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3097740/30977409618.20220217150331.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3035221/30352215619.20220102155103.jpg</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>29000</t>
+          <t>49000</t>
         </is>
       </c>
       <c r="F71" t="inlineStr"/>
@@ -4804,12 +4808,12 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>언더스코어</t>
+          <t>마일론</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>언더스코어</t>
+          <t>명품고급디퓨저</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -4839,22 +4843,22 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>오마르 퍼퓸베어 베어브릭 차량용방향제 기본형</t>
+          <t>멜린 베어 파일럿 프로펠러 자동차 송풍구 에어컨</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27192765898</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=33272908872</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2719276/27192765898.20220330020644.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3327290/33272908872.20220704113112.jpg</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>13900</t>
+          <t>19800</t>
         </is>
       </c>
       <c r="F72" t="inlineStr"/>
@@ -4870,7 +4874,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>오마르</t>
+          <t>멜린</t>
         </is>
       </c>
       <c r="J72" t="inlineStr"/>
@@ -4901,22 +4905,22 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>PRE피톤치드오일 차량용 방향제 다이케스팅 디퓨저</t>
+          <t>명품고급디퓨저 마일론 갤러리2 차량용 방향제 MGAL-02</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27930349118</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30441772620</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2793034/27930349118.20210709220415.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3044177/30441772620.20220204192733.jpg</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>23100</t>
+          <t>49000</t>
         </is>
       </c>
       <c r="F73" t="inlineStr"/>
@@ -4930,8 +4934,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>마일론</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>명품고급디퓨저</t>
+        </is>
+      </c>
       <c r="K73" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4959,43 +4971,43 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>명품고급디퓨저 마일론 갤러리2 차량용 방향제 MGAL-02</t>
+          <t>조말론 차량용 방향제 자동차 디퓨저 차량방향제 명품 차방향제</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30441772620</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=83776353433</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3044177/30441772620.20220204192733.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8377635/83776353433.1.jpg</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>49000</t>
+          <t>29600</t>
         </is>
       </c>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>라벨 라휴</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>마일론</t>
+          <t>조말론</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>명품고급디퓨저</t>
+          <t>조말론</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -5025,40 +5037,36 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>멜린 베어 파일럿 프로펠러 자동차 송풍구 에어컨</t>
+          <t>리틀트리 TREE 차량용 실내용 걸이형 종이 페이퍼 옷장 방향제</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=33272908872</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82937356876</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3327290/33272908872.20220704113112.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8293735/82937356876.1.jpg</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>19800</t>
+          <t>880</t>
         </is>
       </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>프랜드캣</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>멜린</t>
-        </is>
-      </c>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
@@ -5273,37 +5281,45 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>미스터앤미세스 니키 리필 차량용 방향제</t>
+          <t>제이앤컴퍼니 벨르아망 차량용방향제 에어도넛 리필키트</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=10017842540</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28686680816</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1001784/10017842540.17.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2868668/28686680816.20220614133410.jpg</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>4900</t>
+          <t>6000</t>
         </is>
       </c>
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr">
         <is>
-          <t>반도향기나라</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
+          <t>일반 - 가격비교 상품</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>벨르아망</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>제이앤컴퍼니</t>
+        </is>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -5331,45 +5347,37 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>제이앤컴퍼니 벨르아망 차량용방향제 에어도넛 리필키트</t>
+          <t>미스터앤미세스 니키 리필 차량용 방향제</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28686680816</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=10017842540</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2868668/28686680816.20220614133410.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1001784/10017842540.17.jpg</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>6000</t>
+          <t>4900</t>
         </is>
       </c>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>반도향기나라</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>벨르아망</t>
-        </is>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>제이앤컴퍼니</t>
-        </is>
-      </c>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -5397,43 +5405,43 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>조말론 차량용 방향제 자동차 디퓨저 차량방향제 명품 차방향제</t>
+          <t>불스원 그라스클래식 디퓨저 차량용방향제 2개 퓨어코튼</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=83776353433</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31268113361</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8377635/83776353433.1.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3126811/31268113361.20220312023642.jpg</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>29600</t>
+          <t>16900</t>
         </is>
       </c>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr">
         <is>
-          <t>라벨 라휴</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>조말론</t>
+          <t>불스원</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>조말론</t>
+          <t>불스원</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -5529,36 +5537,40 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>FYC 고급 명품 불독 차량용 방향제 디퓨저</t>
+          <t>베이 도손 명품 고급 센트247 차량용 방향제 디퓨저 50ml</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24941672502</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82695237172</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2494167/24941672502.20201122175400.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8269523/82695237172.8.jpg</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>39000</t>
+          <t>19900</t>
         </is>
       </c>
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>센트247 SCENT247</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr"/>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>딥티크</t>
+        </is>
+      </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
@@ -5587,22 +5599,22 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>토씨 클래시맨 명품 고급 차량용방향제 룸미러걸이형</t>
+          <t>FYC 고급 명품 불독 차량용 방향제 디퓨저</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25695599950</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24941672502</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2569559/25695599950.20220704103706.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2494167/24941672502.20201122175400.jpg</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>85000</t>
+          <t>39000</t>
         </is>
       </c>
       <c r="F84" t="inlineStr"/>
@@ -5616,16 +5628,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>토씨</t>
-        </is>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>토씨</t>
-        </is>
-      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -5653,22 +5657,22 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>리빙인아로마 쿤달 퍼퓸 차량용 디퓨저 2구 세트 블랙체리</t>
+          <t>라피네르 명품 로얄스페이드 듀오 차량용방향제</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24803290609</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30565184917</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2480329/24803290609.20220330045234.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3056518/30565184917.20220425114558.jpg</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>10350</t>
+          <t>39800</t>
         </is>
       </c>
       <c r="F85" t="inlineStr"/>
@@ -5684,12 +5688,12 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>쿤달</t>
+          <t>라피네르</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>리빙인아로마</t>
+          <t>라피네르</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -5719,22 +5723,22 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>라피네르 명품 로얄스페이드 듀오 차량용방향제</t>
+          <t>리빙인아로마 쿤달 퍼퓸 차량용 디퓨저 2구 세트 블랙체리</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30565184917</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24803290609</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3056518/30565184917.20220425114558.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2480329/24803290609.20220330045234.jpg</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>39800</t>
+          <t>10360</t>
         </is>
       </c>
       <c r="F86" t="inlineStr"/>
@@ -5750,12 +5754,12 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>라피네르</t>
+          <t>쿤달</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>라피네르</t>
+          <t>리빙인아로마</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -5785,22 +5789,22 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>딥티크 차량용 방향제 본품 리필 베이 34번가 진저</t>
+          <t>센텍 디센트 스포이드 디퓨저 리필 자동차 방향제</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26198772033</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26762803190</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2619877/26198772033.20220201042850.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2676280/26762803190.20220330024851.jpg</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>24500</t>
+          <t>4220</t>
         </is>
       </c>
       <c r="F87" t="inlineStr"/>
@@ -5814,11 +5818,7 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>딥티크</t>
-        </is>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
@@ -5847,22 +5847,22 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>청개구리 멤브렌 방향제 공기청향제 탈취제 산도깨비</t>
+          <t>에이비 얼굴 일러스트 사진 차량용방향제 2set</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29899764272</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27190906522</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2989976/29899764272.20211201020417.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2719090/27190906522.20210518150908.jpg</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>1690</t>
+          <t>17900</t>
         </is>
       </c>
       <c r="F88" t="inlineStr"/>
@@ -5876,8 +5876,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>에이비</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>에이비</t>
+        </is>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -5905,45 +5913,41 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>벤볼릭 명품 차량용 방향제 고급 송풍구 자동차 차량 디퓨져</t>
+          <t>딥티크 차량용 방향제 본품 리필 베이 34번가 진저</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82293143959</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26198772033</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8229314/82293143959.16.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2619877/26198772033.20220201042850.jpg</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>28000</t>
+          <t>24500</t>
         </is>
       </c>
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr">
         <is>
-          <t>매드포모던</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>벤볼릭</t>
-        </is>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>키니캔들</t>
-        </is>
-      </c>
+          <t>딥티크</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -5971,22 +5975,22 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>센텍 디센트 스포이드 디퓨저 리필 자동차 방향제</t>
+          <t>불스원 그라스 디퓨저 방향제 차량용디퓨져</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26762803190</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29162891870</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2676280/26762803190.20220330024851.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2916289/29162891870.20211009035226.jpg</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>4220</t>
+          <t>6530</t>
         </is>
       </c>
       <c r="F90" t="inlineStr"/>
@@ -6000,7 +6004,11 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I90" t="inlineStr"/>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>불스원</t>
+        </is>
+      </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
@@ -6029,22 +6037,22 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>딥티크 차량용방향제 세트 케이스 리필용 캡슐 로즈</t>
+          <t>청개구리 멤브렌 방향제 공기청향제 탈취제 산도깨비</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=32877039451</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29899764272</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3287703/32877039451.20220611094451.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2989976/29899764272.20211201020417.jpg</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>122740</t>
+          <t>1690</t>
         </is>
       </c>
       <c r="F91" t="inlineStr"/>
@@ -6058,11 +6066,7 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>딥티크</t>
-        </is>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
@@ -6091,22 +6095,22 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>더드림 꽃 베어브릭 석고 차량용 방향제</t>
+          <t>KAN 뷰센트 De.Line 차량용 방향제 싱글세트</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27124471579</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18985549503</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2712447/27124471579.20210512182954.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1898554/18985549503.20210713121106.jpg</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>11700</t>
+          <t>12800</t>
         </is>
       </c>
       <c r="F92" t="inlineStr"/>
@@ -6122,10 +6126,14 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>더드림</t>
-        </is>
-      </c>
-      <c r="J92" t="inlineStr"/>
+          <t>뷰센트</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>KAN</t>
+        </is>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -6153,41 +6161,45 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>아이나비 차량용 방향제 디퓨저 힙합독 ICD-H1</t>
+          <t>벤볼릭 명품 차량용 방향제 고급 송풍구 자동차 차량 디퓨져</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25013280655</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82293143959</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2501328/25013280655.20220108052154.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8229314/82293143959.16.jpg</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>49000</t>
+          <t>28000</t>
         </is>
       </c>
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>매드포모던</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>아이나비</t>
-        </is>
-      </c>
-      <c r="J93" t="inlineStr"/>
+          <t>벤볼릭</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>키니캔들</t>
+        </is>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -6215,22 +6227,22 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>불스원 그라스 레스떼렐 방향제 110ml</t>
+          <t>불스원 디즈니 통풍구 차량용 방향제</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=5887774761</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25158224812</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_5887774/5887774761.20180928095307.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2515822/25158224812.20211119125115.jpg</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>11000</t>
+          <t>8900</t>
         </is>
       </c>
       <c r="F94" t="inlineStr"/>
@@ -6281,22 +6293,22 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>에이비 얼굴 일러스트 사진 차량용방향제 2set</t>
+          <t>불스원 그라스 레스떼렐 방향제 110ml</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27190906522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=5887774761</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2719090/27190906522.20210518150908.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_5887774/5887774761.20180928095307.jpg</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>17900</t>
+          <t>11000</t>
         </is>
       </c>
       <c r="F95" t="inlineStr"/>
@@ -6312,12 +6324,12 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>에이비</t>
+          <t>불스원</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>에이비</t>
+          <t>불스원</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -6347,22 +6359,22 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>캘리포니아센트 차량용 방향제 코로 나도 체리 캔 5개</t>
+          <t>토씨 클래시맨 명품 고급 차량용방향제 룸미러걸이형</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31265815970</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25695599950</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3126581/31265815970.20220401144224.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2569559/25695599950.20220704103706.jpg</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>19500</t>
+          <t>85000</t>
         </is>
       </c>
       <c r="F96" t="inlineStr"/>
@@ -6376,8 +6388,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>토씨</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>토씨</t>
+        </is>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -6405,22 +6425,22 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>KAN 뷰센트 De.Line 차량용 방향제 싱글세트</t>
+          <t>불스원 그라스 디퓨저 105ml 블랙베리 체리 방향제</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18985549503</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26677172452</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1898554/18985549503.20210713121106.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2667717/26677172452.20210407202430.jpg</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>12800</t>
+          <t>9800</t>
         </is>
       </c>
       <c r="F97" t="inlineStr"/>
@@ -6436,12 +6456,12 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>뷰센트</t>
+          <t>불스원</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>KAN</t>
+          <t>불스원</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -6471,22 +6491,22 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>불스원 그라스 디퓨저 105ml 블랙베리 체리 방향제</t>
+          <t>딥티크 차량용방향제 세트 케이스 리필용 캡슐 로즈</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26677172452</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=32877039451</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2667717/26677172452.20210407202430.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3287703/32877039451.20220611094451.jpg</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>9800</t>
+          <t>127080</t>
         </is>
       </c>
       <c r="F98" t="inlineStr"/>
@@ -6502,12 +6522,12 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>불스원</t>
+          <t>딥티크</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>불스원</t>
+          <t>딥티크</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -6537,22 +6557,22 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>빅쏘 카로브 차량용방향제 디퓨저 송풍구형</t>
+          <t>양키캔들 얼티메이트 미드썸머나잇 차량용 방향제</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26310652183</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25940561903</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2631065/26310652183.20211126145332.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2594056/25940561903.20210209203509.jpg</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>19890</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="F99" t="inlineStr"/>
@@ -6568,12 +6588,12 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>빅쏘</t>
+          <t>양키캔들</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>빅쏘</t>
+          <t>양키캔들</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -6669,22 +6689,22 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>양키캔들 얼티메이트 미드썸머나잇 차량용 방향제</t>
+          <t>빅쏘 카로브 차량용방향제 디퓨저 송풍구형</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25940561903</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26310652183</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2594056/25940561903.20210209203509.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2631065/26310652183.20211126145332.jpg</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>19890</t>
         </is>
       </c>
       <c r="F101" t="inlineStr"/>
@@ -6700,12 +6720,12 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>양키캔들</t>
+          <t>빅쏘</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>양키캔들</t>
+          <t>빅쏘</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">

--- a/output.xlsx
+++ b/output.xlsx
@@ -505,22 +505,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>로베르타디까메리노 액상 클립 통풍구 에어컨 차량용 방향제</t>
+          <t>로얄워터 텀블러 모양 차량용 방향제 신차선물</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=32628653367</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29835967618</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3262865/32628653367.20220528094208.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2983596/29835967618.20211125191149.jpg</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11900</t>
+          <t>48460</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
@@ -536,10 +536,14 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>로베르타디까메리노</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr"/>
+          <t>로얄워터</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>로얄워터</t>
+        </is>
+      </c>
       <c r="K3" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -567,22 +571,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>명품고급디퓨저 마일론 갤러리3 차량용 방향제 MGAL-03</t>
+          <t>아트센트 천연소가죽 명품 차량용 방향제 고급 디퓨저 차 방향제 선물</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31231762618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30479265972</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3123176/31231762618.20220310141449.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3047926/30479265972.20220609124802.jpg</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>39900</t>
+          <t>38900</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
@@ -596,16 +600,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>마일론</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>명품고급디퓨저</t>
-        </is>
-      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -633,22 +629,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ELLA 프라임 호랑이 차량용 방향제 프로펠러</t>
+          <t>명품고급디퓨저 마일론 갤러리3 차량용 방향제 MGAL-03</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30617053618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31231762618</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3061705/30617053618.20220120171741.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3123176/31231762618.20220310141449.jpg</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>29700</t>
+          <t>39900</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
@@ -664,10 +660,14 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>ELLA</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr"/>
+          <t>마일론</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>명품고급디퓨저</t>
+        </is>
+      </c>
       <c r="K5" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -695,22 +695,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>로얄워터 텀블러 모양 차량용 방향제 신차선물</t>
+          <t>ELLA 프라임 호랑이 차량용 방향제 프로펠러</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29835967618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30617053618</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2983596/29835967618.20211125191149.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3061705/30617053618.20220120171741.jpg</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>48460</t>
+          <t>29700</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
@@ -726,14 +726,10 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>로얄워터</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>로얄워터</t>
-        </is>
-      </c>
+          <t>ELLA</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -761,33 +757,33 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>아트센트 천연소가죽 명품 차량용 방향제 고급 디퓨저 차 방향제 선물</t>
+          <t>이지케이 에스캣 세트 썬글라스 고양이 고급 차량용 방향제 자동차 디퓨저</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30479265972</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=84599056595</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3047926/30479265972.20220609124802.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8459905/84599056595.8.jpg</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>38900</t>
+          <t>32000</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>에스캣 - S CAT</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -819,37 +815,45 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>이지케이 에스캣 썬글라스 고양이 고급 차량용 방향제 자동차 디퓨저</t>
+          <t>에이비 베어브릭 차량용방향제 석고 고급 디퓨저 차방향제  ab-df01</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=84599056595</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27765010523</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8459905/84599056595.7.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2776501/27765010523.20220303170756.jpg</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>32000</t>
+          <t>11900</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>에스캣 - S CAT</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+          <t>일반 - 가격비교 상품</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>에이비</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>에이비</t>
+        </is>
+      </c>
       <c r="K8" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -877,38 +881,38 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>천연차량방향제 3개세트 송풍구거치형</t>
+          <t>로베르타디까메리노 액상 클립 통풍구 에어컨 차량용 방향제</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=81628659125</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=32628653367</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8162865/81628659125.5.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3262865/32628653367.20220528094208.jpg</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>38000</t>
+          <t>11900</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>아이수피아1</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>아이수피아</t>
+          <t>로베르타디까메리노</t>
         </is>
       </c>
       <c r="J9" t="inlineStr"/>
@@ -939,45 +943,41 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>에이비 베어브릭 차량용방향제 석고 고급 디퓨저 차방향제  ab-df01</t>
+          <t>천연차량방향제 3개세트 송풍구거치형</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27765010523</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=81628659125</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2776501/27765010523.20220303170756.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8162865/81628659125.5.jpg</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11900</t>
+          <t>38000</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>아이수피아1</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>에이비</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>에이비</t>
-        </is>
-      </c>
+          <t>아이수피아</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1137,22 +1137,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>불스원 그라스 디퓨져 차량용 방향제 105ml</t>
+          <t>에이센트 네이처 차량용 디퓨저 방향제 120ml</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=12140232094</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27334130786</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1214023/12140232094.20211006140204.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2733413/27334130786.20211216041142.jpg</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>8500</t>
+          <t>7750</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
@@ -1168,14 +1168,10 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>불스원</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>불스원</t>
-        </is>
-      </c>
+          <t>에이센트</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1203,22 +1199,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>에이센트 네이처 차량용 디퓨저 방향제 120ml</t>
+          <t>불스원 그라스 디퓨져 차량용 방향제 105ml</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27334130786</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=12140232094</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2733413/27334130786.20211216041142.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1214023/12140232094.20211006140204.jpg</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>7750</t>
+          <t>8500</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
@@ -1234,10 +1230,14 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>에이센트</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr"/>
+          <t>불스원</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>불스원</t>
+        </is>
+      </c>
       <c r="K14" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1265,22 +1265,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>바흐가르트 차량용방향제 석고 송풍구 방향제</t>
+          <t>카보노 대쉬보드 거치형 프리미엄 차량용 방향제</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30841337224</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25371363986</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3084133/30841337224.20220811101831.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2537136/25371363986.20220104014030.jpg</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>38900</t>
+          <t>46500</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>바흐가르트</t>
+          <t>카보노</t>
         </is>
       </c>
       <c r="J15" t="inlineStr"/>
@@ -1327,22 +1327,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>에이비 큐빅베어브릭 차량용 방향제 AB-DF02</t>
+          <t>바흐가르트 차량용방향제 석고 송풍구 방향제</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27944185800</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30841337224</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2794418/27944185800.20220811171446.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3084133/30841337224.20220811101831.jpg</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>17900</t>
+          <t>38900</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
@@ -1358,14 +1358,10 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>에이비</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>에이비</t>
-        </is>
-      </c>
+          <t>바흐가르트</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1459,22 +1455,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>카보노 대쉬보드 거치형 프리미엄 차량용 방향제</t>
+          <t>딥티크 차량용방향제 세트 케이스 + 리필용 캡슐</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25371363986</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28620531681</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2537136/25371363986.20220104014030.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2862053/28620531681.20220308051600.jpg</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>46500</t>
+          <t>87900</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
@@ -1490,7 +1486,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>카보노</t>
+          <t>딥티크</t>
         </is>
       </c>
       <c r="J18" t="inlineStr"/>
@@ -1536,7 +1532,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>29700</t>
+          <t>30200</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
@@ -1587,22 +1583,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>리틀트리 걸이형 종이 방향제</t>
+          <t>제이엠제이라인 도슈아 클래식 프리미엄 차량용 방향제</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=7162545992</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=17787594512</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_7162545/7162545992.20190731170829.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1778759/17787594512.20210802225254.jpg</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1020</t>
+          <t>29750</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
@@ -1616,8 +1612,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>도슈아</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>제이엠제이라인</t>
+        </is>
+      </c>
       <c r="K20" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1645,22 +1649,22 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>딥티크 차량용 방향제 리필 9종류향</t>
+          <t>에이비 큐빅베어브릭 차량용 방향제 AB-DF02</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27604493058</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27944185800</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2760449/27604493058.20220324022642.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2794418/27944185800.20220811171446.jpg</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>18000</t>
+          <t>17900</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
@@ -1676,12 +1680,12 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>딥티크</t>
+          <t>에이비</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>딥티크</t>
+          <t>에이비</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1711,22 +1715,22 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>딥티크 차량용방향제 세트 케이스 + 리필용 캡슐</t>
+          <t>센티스 캡시 차량용 방향제 프랑스 송풍구 디퓨저</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28620531681</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30742420421</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2862053/28620531681.20220308051600.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3074242/30742420421.20220130232606.jpg</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>85900</t>
+          <t>38000</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
@@ -1740,11 +1744,7 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>딥티크</t>
-        </is>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
@@ -1773,45 +1773,41 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>아뮈잔트 고급 차량용 방향제 명품 자동차 디퓨저 블랙 120ml</t>
+          <t>엠퓨처 하트 송풍구 고급 차량용 방향제 디퓨저 MF-CAF03</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=80920267289</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31484465959</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8092026/80920267289.12.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3148446/31484465959.20220328053622.jpg</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>20000</t>
+          <t>13900</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
-          <t>아뮈잔트</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>아뮈잔트</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>아뮈잔트</t>
-        </is>
-      </c>
+          <t>엠퓨처</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1839,22 +1835,22 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>제이엠제이라인 도슈아 클래식 프리미엄 차량용 방향제</t>
+          <t>리틀트리 걸이형 종이 방향제</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=17787594512</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=7162545992</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1778759/17787594512.20210802225254.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_7162545/7162545992.20190731170829.jpg</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>29750</t>
+          <t>1020</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
@@ -1868,16 +1864,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>도슈아</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>제이엠제이라인</t>
-        </is>
-      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1971,22 +1959,22 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>센티스 캡시 차량용 방향제 프랑스 송풍구 디퓨저</t>
+          <t>디프로젝트 디버니 토끼 고급 차량용 방향제 자동차 디퓨저</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30742420421</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27331951522</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3074242/30742420421.20220130232606.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2733195/27331951522.20211222172819.jpg</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>38000</t>
+          <t>49000</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
@@ -2000,8 +1988,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>디프로젝트</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>디프로젝트</t>
+        </is>
+      </c>
       <c r="K26" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2029,22 +2025,22 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>엠퓨처 하트 송풍구 고급 차량용 방향제 디퓨저 MF-CAF03</t>
+          <t>디프로젝트 디릴라고 고릴라 고급 차량용 방향제 자동차 디퓨저</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31484465959</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26801331279</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3148446/31484465959.20220328053622.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2680133/26801331279.20211222172904.jpg</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>13900</t>
+          <t>49000</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
@@ -2060,10 +2056,14 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>엠퓨처</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr"/>
+          <t>디프로젝트</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>디프로젝트</t>
+        </is>
+      </c>
       <c r="K27" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2106,7 +2106,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>40920</t>
+          <t>40850</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
@@ -2153,22 +2153,22 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>미스터앤미세스 니키 차량용 방향제 리필</t>
+          <t>딥티크 차량용 방향제 리필 9종류향</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=10149695240</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27604493058</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1014969/10149695240.20201014180005.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2760449/27604493058.20220324022642.jpg</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>4000</t>
+          <t>18000</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
@@ -2182,8 +2182,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>딥티크</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>딥티크</t>
+        </is>
+      </c>
       <c r="K29" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2211,22 +2219,22 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>디프로젝트 디릴라고 고릴라 고급 차량용 방향제 자동차 디퓨저</t>
+          <t>미스터앤미세스 니키 차량용 방향제 리필</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26801331279</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=10149695240</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2680133/26801331279.20211222172904.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1014969/10149695240.20201014180005.jpg</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>49000</t>
+          <t>4000</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
@@ -2240,16 +2248,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>디프로젝트</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>디프로젝트</t>
-        </is>
-      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2339,22 +2339,22 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>라라체리티 리얼 니치퍼퓸 입술 고급 차량용 송풍구 방향제</t>
+          <t>센트몬스터 고양이 차량용 방향제 고급 디퓨져</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=33210930858</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24163460435</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3321093/33210930858.20220630133748.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2416346/24163460435.20210124121840.jpg</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>44000</t>
+          <t>39000</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
@@ -2368,7 +2368,11 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr"/>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>센트몬스터</t>
+        </is>
+      </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
@@ -2397,22 +2401,22 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>센트몬스터 고양이 차량용 방향제 고급 디퓨져</t>
+          <t>라라체리티 리얼 니치퍼퓸 입술 고급 차량용 송풍구 방향제</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24163460435</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=33210930858</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2416346/24163460435.20210124121840.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3321093/33210930858.20220630133748.jpg</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>39000</t>
+          <t>44000</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
@@ -2426,11 +2430,7 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>센트몬스터</t>
-        </is>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
@@ -2525,22 +2525,22 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>양키캔들 1 1 양키캔들 카자얼티메이트 차량용 방향제</t>
+          <t>불스원 그라스 디퓨저 블루 차량용 방향제 100ml</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29582915037</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24063116873</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2958291/29582915037.20211108020618.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2406311/24063116873.20210111145156.jpg</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>4660</t>
+          <t>11400</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
@@ -2556,14 +2556,10 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>양키캔들</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>양키캔들</t>
-        </is>
-      </c>
+          <t>불스원</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2591,22 +2587,22 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>불스원 그라스 디퓨저 블루 차량용 방향제 100ml</t>
+          <t>디프로젝트 리필킷 디불 디버니 디릴라고 차량용방향제 자동차 디퓨저 고체 리필 DP-RF02</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24063116873</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18367838563</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2406311/24063116873.20210111145156.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1836783/18367838563.20211108142647.jpg</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11430</t>
+          <t>13000</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
@@ -2622,10 +2618,14 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>불스원</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr"/>
+          <t>디프로젝트</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>디프로젝트</t>
+        </is>
+      </c>
       <c r="K36" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2653,22 +2653,22 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>루크타 도베르만 차량용 자동차 송풍구 차 고급 방향제 디퓨저 LT-DB01</t>
+          <t>센트데코 후드독 차량용 방향제 SCD-01</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25380843939</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30570794618</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2538084/25380843939.20220113101814.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3057079/30570794618.20220807184729.jpg</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>49000</t>
+          <t>28900</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
@@ -2684,10 +2684,14 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>루크타</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr"/>
+          <t>센트데코</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>센트데코</t>
+        </is>
+      </c>
       <c r="K37" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2715,22 +2719,22 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>디프로젝트 리필킷 디불 디버니 디릴라고 차량용방향제 자동차 디퓨저 고체 리필 DP-RF02</t>
+          <t>엠퓨처 불독 송풍구 고급 차량용 방향제 디퓨저 MF-CAF02</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18367838563</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30458791731</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1836783/18367838563.20211108142647.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3045879/30458791731.20220117151934.jpg</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>13000</t>
+          <t>14890</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
@@ -2746,14 +2750,10 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>디프로젝트</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>디프로젝트</t>
-        </is>
-      </c>
+          <t>엠퓨처</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2781,43 +2781,43 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>센트데코 후드독 차량용 방향제 SCD-01</t>
+          <t>아뮈잔트 고급 차량용 방향제 명품 자동차 디퓨저 블랙 120ml</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30570794618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=80920267289</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3057079/30570794618.20220807184729.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8092026/80920267289.12.jpg</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>28900</t>
+          <t>20000</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>아뮈잔트</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>센트데코</t>
+          <t>아뮈잔트</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>센트데코</t>
+          <t>아뮈잔트</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -2847,22 +2847,22 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>엠퓨처 불독 송풍구 고급 차량용 방향제 디퓨저 MF-CAF02</t>
+          <t>루크타 도베르만 차량용 자동차 송풍구 차 고급 방향제 디퓨저 LT-DB01</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30458791731</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25380843939</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3045879/30458791731.20220117151934.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2538084/25380843939.20220113101814.jpg</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>14890</t>
+          <t>49000</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
@@ -2878,7 +2878,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>엠퓨처</t>
+          <t>루크타</t>
         </is>
       </c>
       <c r="J40" t="inlineStr"/>
@@ -2909,22 +2909,22 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>디프로젝트 디버니 토끼 고급 차량용 방향제 자동차 디퓨저</t>
+          <t>코코쥬 차량용 방향제 고급 프로펠러 자동차 디퓨져 새차 선물</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27331951522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31875412948</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2733195/27331951522.20211222172819.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3187541/31875412948.20220417180424.jpg</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>49000</t>
+          <t>29800</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
@@ -2938,16 +2938,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>디프로젝트</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>디프로젝트</t>
-        </is>
-      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2975,22 +2967,22 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>양키캔들 벤트스틱 차량용 방향제 4P입</t>
+          <t>크로마치 고급 차량용 방향제 자동차 디퓨저 명품 차량 송풍구</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=6552648097</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31278229629</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_6552648/6552648097.20190731160942.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3127822/31278229629.20220521051428.jpg</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>3090</t>
+          <t>65000</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
@@ -3006,14 +2998,10 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>양키캔들</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>양키캔들</t>
-        </is>
-      </c>
+          <t>크로마치</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3041,38 +3029,38 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>크로마치 고급 차량용 방향제 자동차 디퓨저 명품 차량 송풍구</t>
+          <t>잉글리쉬페어 라임바질 베이 대용량 센트247 명품 고급 벤츠차량용방향제 디퓨저 120ml</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31278229629</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82876701063</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3127822/31278229629.20220521051428.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8287670/82876701063.7.jpg</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>65000</t>
+          <t>27900</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>센트247 SCENT247</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>크로마치</t>
+          <t>조말론</t>
         </is>
       </c>
       <c r="J43" t="inlineStr"/>
@@ -3103,22 +3091,22 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>미스터앤미세스 니키 클래식 차량용 방향제 본품</t>
+          <t>픽도큐먼트 베어브릭 송풍구 차량용 방향제</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25359648694</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29900193281</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2535964/25359648694.20201224195431.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2990019/29900193281.20211208030917.jpg</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>6780</t>
+          <t>14800</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
@@ -3161,22 +3149,22 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>우드어 심플 차량용 방향제</t>
+          <t>양키캔들 벤트스틱 차량용 방향제 4P입</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=33382841447</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=6552648097</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3338284/33382841447.20220709102853.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_6552648/6552648097.20190731160942.jpg</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>27900</t>
+          <t>3080</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
@@ -3190,8 +3178,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>양키캔들</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>양키캔들</t>
+        </is>
+      </c>
       <c r="K45" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3219,22 +3215,22 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>JW중외제약 JW생활건강 피톤케어 차량용 방향제 리필 카트리지</t>
+          <t>미스터앤미세스 니키 클래식 차량용 방향제 본품</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=15901498616</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25359648694</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1590149/15901498616.20211116120223.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2535964/25359648694.20201224195431.jpg</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>19000</t>
+          <t>6770</t>
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
@@ -3248,16 +3244,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>JW생활건강</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>JW중외제약</t>
-        </is>
-      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3285,22 +3273,22 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>벨라독스 에어휠 프로펠러 차량용 방향제</t>
+          <t>JW중외제약 JW생활건강 피톤케어 차량용 방향제 리필 카트리지</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30564852196</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=15901498616</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3056485/30564852196.20220116213658.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1590149/15901498616.20211116120223.jpg</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>29000</t>
+          <t>19000</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
@@ -3314,8 +3302,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>JW생활건강</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>JW중외제약</t>
+        </is>
+      </c>
       <c r="K47" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3343,22 +3339,22 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>산도깨비 차량용 멤브렌 리필 방향제 x 10개입 휘튼치드</t>
+          <t>우드어 심플 차량용 방향제</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25695237598</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=33382841447</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2569523/25695237598.20220326034624.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3338284/33382841447.20220709102853.jpg</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>21560</t>
+          <t>27900</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
@@ -3372,11 +3368,7 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>산도깨비</t>
-        </is>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
@@ -3405,22 +3397,22 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>제이엠제이라인 도슈아 차량용 방향제 리필 도자기</t>
+          <t>벨라독스 에어휠 프로펠러 차량용 방향제</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20347407194</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30564852196</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2034740/20347407194.20211001120304.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3056485/30564852196.20220116213658.jpg</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>29000</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
@@ -3434,16 +3426,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>도슈아</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>제이엠제이라인</t>
-        </is>
-      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3471,22 +3455,22 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>픽도큐먼트 베어브릭 송풍구 차량용 방향제</t>
+          <t>제이엠제이라인 도슈아 차량용 방향제 리필 도자기</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29900193281</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20347407194</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2990019/29900193281.20211208030917.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2034740/20347407194.20211001120304.jpg</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>14800</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
@@ -3500,8 +3484,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>도슈아</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>제이엠제이라인</t>
+        </is>
+      </c>
       <c r="K50" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3529,22 +3521,22 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>P&amp;amp;G 페브리즈 차량용 방향제 2.2ml 3개</t>
+          <t>산도깨비 차량용 멤브렌 리필 방향제 x 10개입 휘튼치드</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20397190459</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25695237598</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2039719/20397190459.20190726113415.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2569523/25695237598.20220326034624.jpg</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>8280</t>
+          <t>21550</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
@@ -3560,14 +3552,10 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>페브리즈</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>P&amp;G</t>
-        </is>
-      </c>
+          <t>산도깨비</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3595,22 +3583,22 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>로베르타디까메리노 방향제 송풍구 리틀포레스트향수</t>
+          <t>불스원 폴라프레쉬 선바이저 차량용 방향제</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29185219914</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24165357120</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2918521/29185219914.20220719173550.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2416535/24165357120.20220616110219.jpg</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11900</t>
+          <t>2500</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
@@ -3626,10 +3614,14 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>로베르타디까메리노</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr"/>
+          <t>불스원</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>불스원</t>
+        </is>
+      </c>
       <c r="K52" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3657,28 +3649,28 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>잉글리쉬페어 라임바질 베이 대용량 센트247 명품 고급 벤츠차량용방향제 디퓨저 120ml</t>
+          <t>페브리즈 차량용 방향제 2.2ml 차방향제 자동차 디퓨저 신차선물 라벤더의포근함</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82876701063</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82250772533</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8287670/82876701063.7.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8225077/82250772533.6.jpg</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>27900</t>
+          <t>2650</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
-          <t>센트247 SCENT247</t>
+          <t>위즈브리드</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -3688,10 +3680,14 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>조말론</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr"/>
+          <t>페브리즈</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>P&amp;G</t>
+        </is>
+      </c>
       <c r="K53" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3719,22 +3715,22 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>제이앤컴퍼니 벨르아망 포켓몬 피규어 차량용 방향제 메타몽 팬텀 마자용 푸린 새차 선물</t>
+          <t>로베르타디까메리노 원형 대용량 방향제 100ml 2P</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=33464840631</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=5640406696</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3346484/33464840631.20220713121644.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_5640406/5640406696.20190805143958.jpg</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>19800</t>
+          <t>13800</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
@@ -3750,12 +3746,12 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>벨르아망</t>
+          <t>로베르타디까메리노</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>제이앤컴퍼니</t>
+          <t>로베르타디까메리노</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -3785,43 +3781,43 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>페브리즈 차량용 방향제 2.2ml 차방향제 자동차 디퓨저 신차선물 라벤더의포근함</t>
+          <t>라미유 차량용 고급 송풍구 방향제 블랙체리향 1+1</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82250772533</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30586965618</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8225077/82250772533.6.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3058696/30586965618.20220421134837.jpg</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2650</t>
+          <t>15900</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
-          <t>위즈브리드</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>페브리즈</t>
+          <t>라미유</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>P&amp;G</t>
+          <t>라미유</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -3851,22 +3847,22 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>불스원 폴라프레쉬 선바이저 차량용 방향제</t>
+          <t>아우라 카카오 모니터걸이형 방향제 라이언 블루스카이향 10g x1개</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24165357120</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24014062100</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2416535/24165357120.20220616110219.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2401406/24014062100.20200903003222.jpg</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>12900</t>
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
@@ -3880,16 +3876,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>불스원</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>불스원</t>
-        </is>
-      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3917,45 +3905,37 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>로베르타디까메리노 원형 대용량 방향제 100ml 2P</t>
+          <t>미스터앤미세스 니키 리필 차량용 방향제</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=5640406696</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=10017842540</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_5640406/5640406696.20190805143958.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1001784/10017842540.17.jpg</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>13800</t>
+          <t>4900</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>반도향기나라</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>로베르타디까메리노</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>로베르타디까메리노</t>
-        </is>
-      </c>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3983,22 +3963,22 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>아우라 카카오 모니터걸이형 방향제 라이언 블루스카이향 10g x1개</t>
+          <t>모노디트리 차량용 방향제 프리미엄 자동차 차 디퓨저</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24014062100</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30869812153</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2401406/24014062100.20200903003222.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3086981/30869812153.20220210025122.jpg</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>12900</t>
+          <t>34000</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
@@ -4041,33 +4021,33 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>미스터앤미세스 니키 리필 차량용 방향제</t>
+          <t>PRE피톤치드오일 차량용 방향제 다이케스팅 디퓨저</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=10017842540</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27930349118</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1001784/10017842540.17.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2793034/27930349118.20210709220415.jpg</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>4900</t>
+          <t>23100</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr">
         <is>
-          <t>반도향기나라</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -4099,22 +4079,22 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>모노디트리 차량용 방향제 프리미엄 자동차 차 디퓨저</t>
+          <t>양키캔들 1 1 양키캔들 카자얼티메이트 차량용 방향제</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30869812153</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29582915037</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3086981/30869812153.20220210025122.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2958291/29582915037.20211108020618.jpg</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>34000</t>
+          <t>4660</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
@@ -4128,8 +4108,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>양키캔들</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>양키캔들</t>
+        </is>
+      </c>
       <c r="K60" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4157,22 +4145,22 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>PRE피톤치드오일 차량용 방향제 다이케스팅 디퓨저</t>
+          <t>P&amp;amp;G 페브리즈 차량용 방향제 2.2ml 3개</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27930349118</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20397190459</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2793034/27930349118.20210709220415.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2039719/20397190459.20190726113415.jpg</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>23100</t>
+          <t>8260</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
@@ -4186,8 +4174,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>페브리즈</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>P&amp;G</t>
+        </is>
+      </c>
       <c r="K61" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4215,22 +4211,22 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>라미유 차량용 고급 송풍구 방향제 블랙체리향 1+1</t>
+          <t>제이앤컴퍼니 벨르아망 포켓몬 피규어 차량용 방향제 메타몽 팬텀 마자용 푸린 새차 선물</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30586965618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=33464840631</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3058696/30586965618.20220421134837.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3346484/33464840631.20220713121644.jpg</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>15900</t>
+          <t>19800</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
@@ -4246,12 +4242,12 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>라미유</t>
+          <t>벨르아망</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>라미유</t>
+          <t>제이앤컴퍼니</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -4281,36 +4277,40 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>다신 불독 송풍구 차량용 방향제 디퓨저</t>
+          <t>베이 도손 명품 고급 센트247 차량용 방향제 디퓨저 50ml</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31542390843</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82695237172</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3154239/31542390843.20220407161514.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8269523/82695237172.8.jpg</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>14400</t>
+          <t>19900</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>센트247 SCENT247</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr"/>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>딥티크</t>
+        </is>
+      </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
@@ -4405,38 +4405,38 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>베이 도손 명품 고급 센트247 차량용 방향제 디퓨저 50ml</t>
+          <t>멜린 베어 파일럿 프로펠러 자동차 송풍구 에어컨</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82695237172</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=33272908872</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8269523/82695237172.8.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3327290/33272908872.20220704113112.jpg</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>19900</t>
+          <t>19800</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr">
         <is>
-          <t>센트247 SCENT247</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>딥티크</t>
+          <t>멜린</t>
         </is>
       </c>
       <c r="J65" t="inlineStr"/>
@@ -4467,22 +4467,22 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>FYC 고급 명품 불독 차량용 방향제 디퓨저</t>
+          <t>미스터앤미세스 체사레 시저 차량용 방향제</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24941672502</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=8119194241</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2494167/24941672502.20201122175400.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8119194/8119194241.20190802121728.jpg</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>39000</t>
+          <t>6780</t>
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
@@ -4525,22 +4525,22 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>멜린 베어 파일럿 프로펠러 자동차 송풍구 에어컨</t>
+          <t>FYC 고급 명품 불독 차량용 방향제 디퓨저</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=33272908872</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24941672502</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3327290/33272908872.20220704113112.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2494167/24941672502.20201122175400.jpg</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>19800</t>
+          <t>39000</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
@@ -4554,11 +4554,7 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>멜린</t>
-        </is>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
@@ -4653,22 +4649,22 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>코코쥬 차량용 방향제 고급 프로펠러 자동차 디퓨져 새차 선물</t>
+          <t>제이앤컴퍼니 벨르아망 차량용방향제 에어도넛 리필키트</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31875412948</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28686680816</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3187541/31875412948.20220417180424.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2868668/28686680816.20220614133410.jpg</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>29800</t>
+          <t>6000</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
@@ -4682,8 +4678,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>벨르아망</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>제이앤컴퍼니</t>
+        </is>
+      </c>
       <c r="K69" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4711,22 +4715,22 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>올리바노 메탈 엠블럼 차량용 방향제 송풍구형 리필형</t>
+          <t>명품고급디퓨저 마일론 갤러리1 차량용 방향제 MGAL-01</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28618378553</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30352215619</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2861837/28618378553.20210828185043.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3035221/30352215619.20220102155103.jpg</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>18800</t>
+          <t>48900</t>
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
@@ -4740,8 +4744,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>마일론</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>명품고급디퓨저</t>
+        </is>
+      </c>
       <c r="K70" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4769,22 +4781,22 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>게이즈샵 지독 차량용 방향제</t>
+          <t>명품고급디퓨저 마일론 갤러리2 차량용 방향제 MGAL-02</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29039136038</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30441772620</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2903913/29039136038.20220223152854.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3044177/30441772620.20220204192733.jpg</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>48990</t>
+          <t>49000</t>
         </is>
       </c>
       <c r="F71" t="inlineStr"/>
@@ -4800,12 +4812,12 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>게이즈샵</t>
+          <t>마일론</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>게이즈</t>
+          <t>명품고급디퓨저</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -4835,22 +4847,22 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>제이앤컴퍼니 벨르아망 차량용방향제 에어도넛 리필키트</t>
+          <t>크롬디 차량용 방향제 CD-9</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28686680816</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31387912762</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2868668/28686680816.20220614133410.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3138791/31387912762.20220320033422.jpg</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>6000</t>
+          <t>24900</t>
         </is>
       </c>
       <c r="F72" t="inlineStr"/>
@@ -4866,14 +4878,10 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>벨르아망</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>제이앤컴퍼니</t>
-        </is>
-      </c>
+          <t>크롬디</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4901,22 +4909,22 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>명품고급디퓨저 마일론 갤러리1 차량용 방향제 MGAL-01</t>
+          <t>게이즈샵 지독 차량용 방향제</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30352215619</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29039136038</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3035221/30352215619.20220102155103.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2903913/29039136038.20220223152854.jpg</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>49000</t>
+          <t>47520</t>
         </is>
       </c>
       <c r="F73" t="inlineStr"/>
@@ -4932,12 +4940,12 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>마일론</t>
+          <t>게이즈샵</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>명품고급디퓨저</t>
+          <t>게이즈</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -4967,45 +4975,37 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>명품고급디퓨저 마일론 갤러리2 차량용 방향제 MGAL-02</t>
+          <t>리틀트리 TREE 차량용 실내용 걸이형 종이 페이퍼 옷장 방향제</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30441772620</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82937356876</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3044177/30441772620.20220204192733.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8293735/82937356876.1.jpg</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>49000</t>
+          <t>880</t>
         </is>
       </c>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>프랜드캣</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>마일론</t>
-        </is>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>명품고급디퓨저</t>
-        </is>
-      </c>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -5033,22 +5033,22 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>오마르 퍼퓸베어 베어브릭 차량용방향제 기본형</t>
+          <t>로베르타디까메리노 방향제 송풍구 리틀포레스트향수</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27192765898</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29185219914</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2719276/27192765898.20220330020644.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2918521/29185219914.20220719173550.jpg</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>13900</t>
+          <t>11900</t>
         </is>
       </c>
       <c r="F75" t="inlineStr"/>
@@ -5064,7 +5064,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>오마르</t>
+          <t>로베르타디까메리노</t>
         </is>
       </c>
       <c r="J75" t="inlineStr"/>
@@ -5157,38 +5157,38 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>크롬디 차량용 방향제 CD-9</t>
+          <t>조말론 차량용 방향제 센트투고 명품향수 고급 디퓨저 거치대</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31387912762</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=83025886866</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3138791/31387912762.20220320033422.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8302588/83025886866.1.jpg</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>24900</t>
+          <t>48500</t>
         </is>
       </c>
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>홍콩걸즈</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>크롬디</t>
+          <t>조말론</t>
         </is>
       </c>
       <c r="J77" t="inlineStr"/>
@@ -5219,41 +5219,45 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>마블 스턴 아이언맨 차량용 방향제 ST-IM01</t>
+          <t>벤볼릭 명품 차량용 방향제 고급 송풍구 자동차 차량 디퓨져</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30644523374</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82293143959</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3064452/30644523374.20220318023112.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8229314/82293143959.16.jpg</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>29800</t>
+          <t>28000</t>
         </is>
       </c>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>매드포모던</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>마블</t>
-        </is>
-      </c>
-      <c r="J78" t="inlineStr"/>
+          <t>벤볼릭</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>키니캔들</t>
+        </is>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -5281,22 +5285,22 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>미스터앤미세스 체사레 시저 차량용 방향제</t>
+          <t>마블 스턴 아이언맨 차량용 방향제 ST-IM01</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=8119194241</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30644523374</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8119194/8119194241.20190802121728.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3064452/30644523374.20220318023112.jpg</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>6780</t>
+          <t>29800</t>
         </is>
       </c>
       <c r="F79" t="inlineStr"/>
@@ -5310,7 +5314,11 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I79" t="inlineStr"/>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>마블</t>
+        </is>
+      </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
@@ -5339,45 +5347,41 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>벤볼릭 명품 차량용 방향제 고급 송풍구 자동차 차량 디퓨져</t>
+          <t>더드림 꽃 베어브릭 석고 차량용 방향제</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82293143959</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27124471579</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8229314/82293143959.16.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2712447/27124471579.20210512182954.jpg</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>28000</t>
+          <t>11700</t>
         </is>
       </c>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr">
         <is>
-          <t>매드포모던</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>벤볼릭</t>
-        </is>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>키니캔들</t>
-        </is>
-      </c>
+          <t>더드림</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -5405,22 +5409,22 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>더드림 꽃 베어브릭 석고 차량용 방향제</t>
+          <t>다신 불독 송풍구 차량용 방향제 디퓨저</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27124471579</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31542390843</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2712447/27124471579.20210512182954.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3154239/31542390843.20220407161514.jpg</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>11700</t>
+          <t>14400</t>
         </is>
       </c>
       <c r="F81" t="inlineStr"/>
@@ -5434,11 +5438,7 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>더드림</t>
-        </is>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
@@ -5467,22 +5467,22 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>제로스킨 로보트 태권브이 차량용 방향제 자동차 디퓨저 AD-KF90</t>
+          <t>청개구리 멤브렌 방향제 공기청향제 탈취제 산도깨비</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29535937618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29899764272</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2953593/29535937618.20211216102403.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2989976/29899764272.20211201020417.jpg</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>46020</t>
+          <t>1690</t>
         </is>
       </c>
       <c r="F82" t="inlineStr"/>
@@ -5496,16 +5496,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>제로스킨</t>
-        </is>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>제로스킨</t>
-        </is>
-      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -5533,33 +5525,33 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>리틀트리 TREE 차량용 실내용 걸이형 종이 페이퍼 옷장 방향제</t>
+          <t>센텍 디센트 스포이드 디퓨저 리필 자동차 방향제</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82937356876</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26762803190</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8293735/82937356876.1.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2676280/26762803190.20220330024851.jpg</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>880</t>
+          <t>4290</t>
         </is>
       </c>
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr">
         <is>
-          <t>프랜드캣</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I83" t="inlineStr"/>
@@ -5591,22 +5583,22 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>불스원 그라스 오브제 디퓨저 차량용 방향제 100ml</t>
+          <t>오마르 퍼퓸베어 베어브릭 차량용방향제 기본형</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30425453618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27192765898</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3042545/30425453618.20220105100536.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2719276/27192765898.20220330020644.jpg</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>17500</t>
+          <t>13900</t>
         </is>
       </c>
       <c r="F84" t="inlineStr"/>
@@ -5622,14 +5614,10 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>불스원</t>
-        </is>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>불스원</t>
-        </is>
-      </c>
+          <t>오마르</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -5657,22 +5645,22 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>청개구리 멤브렌 방향제 공기청향제 탈취제 산도깨비</t>
+          <t>불스원 그라스 오브제 디퓨저 차량용 방향제 100ml</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29899764272</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30425453618</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2989976/29899764272.20211201020417.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3042545/30425453618.20220105100536.jpg</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>1690</t>
+          <t>17500</t>
         </is>
       </c>
       <c r="F85" t="inlineStr"/>
@@ -5686,8 +5674,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>불스원</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>불스원</t>
+        </is>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -5715,40 +5711,36 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>조말론 차량용 방향제 센트투고 명품향수 고급 디퓨저 거치대</t>
+          <t>올리바노 메탈 엠블럼 차량용 방향제 송풍구형 리필형</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=83025886866</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28618378553</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8302588/83025886866.1.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2861837/28618378553.20210828185043.jpg</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>48500</t>
+          <t>18800</t>
         </is>
       </c>
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr">
         <is>
-          <t>홍콩걸즈</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>조말론</t>
-        </is>
-      </c>
+          <t>일반 - 가격비교 상품</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
@@ -5777,22 +5769,22 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>불스원 그라스클래식 디퓨저 차량용방향제 2개 퓨어코튼</t>
+          <t>토씨 클래시맨 명품 고급 차량용방향제 룸미러걸이형</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31268113361</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25695599950</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3126811/31268113361.20220312023642.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2569559/25695599950.20220704103706.jpg</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>16900</t>
+          <t>85000</t>
         </is>
       </c>
       <c r="F87" t="inlineStr"/>
@@ -5808,12 +5800,12 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>불스원</t>
+          <t>토씨</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>불스원</t>
+          <t>토씨</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -5843,22 +5835,22 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>불스원 그라스 디퓨저 방향제 차량용디퓨져</t>
+          <t>불스원 그라스클래식 디퓨저 차량용방향제 2개 퓨어코튼</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29162891870</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31268113361</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2916289/29162891870.20211009035226.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3126811/31268113361.20220312023642.jpg</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>6530</t>
+          <t>16900</t>
         </is>
       </c>
       <c r="F88" t="inlineStr"/>
@@ -5877,7 +5869,11 @@
           <t>불스원</t>
         </is>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>불스원</t>
+        </is>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -5905,43 +5901,43 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>벨르아망 포켓몬스터 빅페이스 차량용 디퓨저 방향제 새차 선물 피카츄</t>
+          <t>리빙인아로마 쿤달 퍼퓸 차량용 디퓨저 2구 세트 블랙체리</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=84367332534</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24803290609</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8436733/84367332534.1.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2480329/24803290609.20220826152350.jpg</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>19800</t>
+          <t>10360</t>
         </is>
       </c>
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr">
         <is>
-          <t>BELLE AMANT</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>벨르아망</t>
+          <t>쿤달</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>제이앤컴퍼니</t>
+          <t>리빙인아로마</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -5971,22 +5967,22 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>토씨 클래시맨 명품 고급 차량용방향제 룸미러걸이형</t>
+          <t>에이비 얼굴 일러스트 사진 차량용방향제 2set</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25695599950</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27190906522</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2569559/25695599950.20220704103706.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2719090/27190906522.20210518150908.jpg</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>85000</t>
+          <t>17900</t>
         </is>
       </c>
       <c r="F90" t="inlineStr"/>
@@ -6002,12 +5998,12 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>토씨</t>
+          <t>에이비</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>토씨</t>
+          <t>에이비</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -6037,22 +6033,22 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>리빙인아로마 쿤달 퍼퓸 차량용 디퓨저 2구 세트 블랙체리</t>
+          <t>제로스킨 로보트 태권브이 차량용 방향제 자동차 디퓨저 AD-KF90</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24803290609</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29535937618</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2480329/24803290609.20220826152350.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2953593/29535937618.20211216102403.jpg</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>10360</t>
+          <t>46020</t>
         </is>
       </c>
       <c r="F91" t="inlineStr"/>
@@ -6068,12 +6064,12 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>쿤달</t>
+          <t>제로스킨</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>리빙인아로마</t>
+          <t>제로스킨</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -6169,22 +6165,22 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>KAN 뷰센트 De.Line 차량용 방향제 싱글세트</t>
+          <t>불스원 그라스 레스떼렐 방향제 110ml</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18985549503</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=5887774761</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1898554/18985549503.20210713121106.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_5887774/5887774761.20180928095307.jpg</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>12800</t>
+          <t>11000</t>
         </is>
       </c>
       <c r="F93" t="inlineStr"/>
@@ -6200,12 +6196,12 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>뷰센트</t>
+          <t>불스원</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>KAN</t>
+          <t>불스원</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -6235,43 +6231,43 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>불스원 그라스 레스떼렐 방향제 110ml</t>
+          <t>벨르아망 포켓몬스터 빅페이스 차량용 디퓨저 방향제 새차 선물 피카츄</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=5887774761</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=84367332534</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_5887774/5887774761.20180928095307.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8436733/84367332534.1.jpg</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>11000</t>
+          <t>19800</t>
         </is>
       </c>
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>BELLE AMANT</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>불스원</t>
+          <t>벨르아망</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>불스원</t>
+          <t>제이앤컴퍼니</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -6301,22 +6297,22 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>센텍 디센트 스포이드 디퓨저 리필 자동차 방향제</t>
+          <t>KAN 뷰센트 De.Line 차량용 방향제 싱글세트</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26762803190</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18985549503</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2676280/26762803190.20220330024851.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1898554/18985549503.20210713121106.jpg</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>4220</t>
+          <t>12800</t>
         </is>
       </c>
       <c r="F95" t="inlineStr"/>
@@ -6330,8 +6326,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>뷰센트</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>KAN</t>
+        </is>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -6359,22 +6363,22 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>아이나비 차량용 방향제 디퓨저 힙합독 ICD-H1</t>
+          <t>양키캔들 얼티메이트 미드썸머나잇 차량용 방향제</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25013280655</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25940561903</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2501328/25013280655.20220108052154.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2594056/25940561903.20210209203509.jpg</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>49000</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="F96" t="inlineStr"/>
@@ -6390,10 +6394,14 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>아이나비</t>
-        </is>
-      </c>
-      <c r="J96" t="inlineStr"/>
+          <t>양키캔들</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>양키캔들</t>
+        </is>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -6421,22 +6429,22 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>에이비 얼굴 일러스트 사진 차량용방향제 2set</t>
+          <t>불스원 그라스 디퓨저 방향제 차량용디퓨져</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27190906522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29162891870</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2719090/27190906522.20210518150908.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2916289/29162891870.20211009035226.jpg</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>17900</t>
+          <t>6460</t>
         </is>
       </c>
       <c r="F97" t="inlineStr"/>
@@ -6452,14 +6460,10 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>에이비</t>
-        </is>
-      </c>
-      <c r="J97" t="inlineStr">
-        <is>
-          <t>에이비</t>
-        </is>
-      </c>
+          <t>불스원</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -6487,22 +6491,22 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>양키캔들 얼티메이트 미드썸머나잇 차량용 방향제</t>
+          <t>아이나비 차량용 방향제 디퓨저 힙합독 ICD-H1</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25940561903</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25013280655</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2594056/25940561903.20210209203509.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2501328/25013280655.20220108052154.jpg</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>49000</t>
         </is>
       </c>
       <c r="F98" t="inlineStr"/>
@@ -6518,14 +6522,10 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>양키캔들</t>
-        </is>
-      </c>
-      <c r="J98" t="inlineStr">
-        <is>
-          <t>양키캔들</t>
-        </is>
-      </c>
+          <t>아이나비</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -6619,22 +6619,22 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>라피네르 명품 로얄스페이드 듀오 차량용방향제</t>
+          <t>카렉스 진로 송풍구 디퓨저v2</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30565184917</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28904371459</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3056518/30565184917.20220425114558.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2890437/28904371459.20220620164944.jpg</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>39800</t>
+          <t>7630</t>
         </is>
       </c>
       <c r="F100" t="inlineStr"/>
@@ -6648,16 +6648,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>라피네르</t>
-        </is>
-      </c>
-      <c r="J100" t="inlineStr">
-        <is>
-          <t>라피네르</t>
-        </is>
-      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -6685,22 +6677,22 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>불스원 폴라프레쉬 NEW 선바이저 차량용 방향제</t>
+          <t>라피네르 명품 로얄스페이드 듀오 차량용방향제</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29422282618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30565184917</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2942228/29422282618.20211027100552.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3056518/30565184917.20220425114558.jpg</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>5500</t>
+          <t>39800</t>
         </is>
       </c>
       <c r="F101" t="inlineStr"/>
@@ -6716,12 +6708,12 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>불스원</t>
+          <t>라피네르</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>불스원</t>
+          <t>라피네르</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">

--- a/output.xlsx
+++ b/output.xlsx
@@ -629,41 +629,45 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>천연차량방향제 3개세트 송풍구거치형</t>
+          <t>로얄워터 텀블러 모양 차량용 방향제 신차선물</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=81628659125</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29835967618</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8162865/81628659125.5.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2983596/29835967618.20211125191149.jpg</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>38000</t>
+          <t>49000</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t>아이수피아1</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>아이수피아</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr"/>
+          <t>로얄워터</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>로얄워터</t>
+        </is>
+      </c>
       <c r="K5" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -691,38 +695,38 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>에이센트 네이처 차량용 디퓨저 방향제 120ml</t>
+          <t>천연차량방향제 3개세트 송풍구거치형</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27334130786</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=81628659125</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2733413/27334130786.20211216041142.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8162865/81628659125.5.jpg</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>7750</t>
+          <t>38000</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>아이수피아1</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>에이센트</t>
+          <t>아이수피아</t>
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
@@ -753,22 +757,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>로얄워터 텀블러 모양 차량용 방향제 신차선물</t>
+          <t>에이센트 네이처 차량용 디퓨저 방향제 120ml</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29835967618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27334130786</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2983596/29835967618.20211125191149.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2733413/27334130786.20211216041142.jpg</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>48460</t>
+          <t>7750</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
@@ -784,14 +788,10 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>로얄워터</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>로얄워터</t>
-        </is>
-      </c>
+          <t>에이센트</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -885,22 +885,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>제이엠제이라인 도슈아 클래식 프리미엄 차량용 방향제</t>
+          <t>이븐도우 생귄 쥬얼리 클립 차량용 방향제</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=17787594512</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=19103746764</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1778759/17787594512.20210802225254.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1910374/19103746764.20220213194209.jpg</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>29750</t>
+          <t>32800</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
@@ -916,12 +916,12 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>도슈아</t>
+          <t>생귄</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>제이엠제이라인</t>
+          <t>이븐도우</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -951,22 +951,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>이븐도우 생귄 쥬얼리 클립 차량용 방향제</t>
+          <t>에이비 베어브릭 차량용방향제 석고 고급 디퓨저 차방향제  ab-df01</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=19103746764</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27765010523</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1910374/19103746764.20220213194209.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2776501/27765010523.20220905133151.jpg</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>29520</t>
+          <t>11900</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
@@ -982,12 +982,12 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>생귄</t>
+          <t>에이비</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>이븐도우</t>
+          <t>에이비</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1017,22 +1017,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>에이비 베어브릭 차량용방향제 석고 고급 디퓨저 차방향제  ab-df01</t>
+          <t>라라체리티 리얼 니치퍼퓸 입술 고급 차량용 송풍구 방향제</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27765010523</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=33210930858</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2776501/27765010523.20220905133151.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3321093/33210930858.20220630133748.jpg</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11900</t>
+          <t>44000</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
@@ -1046,16 +1046,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>에이비</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>에이비</t>
-        </is>
-      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1083,22 +1075,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>로베르타디까메리노 액상 클립 통풍구 에어컨 차량용 방향제</t>
+          <t>제이엠제이라인 도슈아 클래식 프리미엄 차량용 방향제</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=32628653367</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=17787594512</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3262865/32628653367.20220528094208.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1778759/17787594512.20210802225254.jpg</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11900</t>
+          <t>29750</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
@@ -1114,10 +1106,14 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>로베르타디까메리노</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr"/>
+          <t>도슈아</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>제이엠제이라인</t>
+        </is>
+      </c>
       <c r="K12" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1339,22 +1335,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>카보노 대쉬보드 거치형 프리미엄 차량용 방향제</t>
+          <t>언더스코어 젠틀맨 프리미엄 차량용 방향제 디퓨저</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25371363986</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27137540258</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2537136/25371363986.20220104014030.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2713754/27137540258.20210708110811.jpg</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>46500</t>
+          <t>30100</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
@@ -1370,10 +1366,14 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>카보노</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr"/>
+          <t>언더스코어</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>언더스코어</t>
+        </is>
+      </c>
       <c r="K16" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1401,22 +1401,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>리틀트리 걸이형 종이 방향제</t>
+          <t>카보노 대쉬보드 거치형 프리미엄 차량용 방향제</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=7162545992</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25371363986</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_7162545/7162545992.20190731170829.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2537136/25371363986.20220104014030.jpg</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1010</t>
+          <t>46500</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
@@ -1430,7 +1430,11 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>카보노</t>
+        </is>
+      </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
@@ -1459,45 +1463,37 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>아뮈잔트 고급 차량용 방향제 명품 자동차 디퓨저 블랙 120ml</t>
+          <t>리틀트리 걸이형 종이 방향제</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=80920267289</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=7162545992</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8092026/80920267289.12.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_7162545/7162545992.20190731170829.jpg</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>20000</t>
+          <t>1020</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
-          <t>아뮈잔트</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>아뮈잔트</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>아뮈잔트</t>
-        </is>
-      </c>
+          <t>일반 - 가격비교 상품</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1525,43 +1521,43 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>언더스코어 젠틀맨 프리미엄 차량용 방향제 디퓨저</t>
+          <t>아뮈잔트 고급 차량용 방향제 명품 자동차 디퓨저 블랙 120ml</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27137540258</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=80920267289</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2713754/27137540258.20210708110811.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8092026/80920267289.12.jpg</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>30200</t>
+          <t>20000</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>아뮈잔트</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>언더스코어</t>
+          <t>아뮈잔트</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>언더스코어</t>
+          <t>아뮈잔트</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1591,22 +1587,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>라라체리티 리얼 니치퍼퓸 입술 고급 차량용 송풍구 방향제</t>
+          <t>에이비 차량용 방향제 도베르만 고급 AB-DF04</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=33210930858</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30317520568</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3321093/33210930858.20220630133748.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3031752/30317520568.20220110102207.jpg</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>44000</t>
+          <t>27500</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
@@ -1620,8 +1616,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>에이비</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>에이비</t>
+        </is>
+      </c>
       <c r="K20" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1711,22 +1715,22 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>에이비 차량용 방향제 도베르만 고급 AB-DF04</t>
+          <t>로베르타디까메리노 액상 클립 통풍구 에어컨 차량용 방향제</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30317520568</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=32628653367</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3031752/30317520568.20220110102207.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3262865/32628653367.20220528094208.jpg</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>27500</t>
+          <t>11900</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
@@ -1742,14 +1746,10 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>에이비</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>에이비</t>
-        </is>
-      </c>
+          <t>로베르타디까메리노</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1777,22 +1777,22 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>에이비 큐빅베어브릭 차량용 방향제 AB-DF02</t>
+          <t>토씨 클래시맨 명품 고급 차량용방향제 룸미러걸이형</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27944185800</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25695599950</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2794418/27944185800.20220905133240.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2569559/25695599950.20220704103706.jpg</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>17900</t>
+          <t>85000</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
@@ -1808,12 +1808,12 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>에이비</t>
+          <t>토씨</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>에이비</t>
+          <t>토씨</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1843,22 +1843,22 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>엠퓨처 하트 송풍구 고급 차량용 방향제 디퓨저 MF-CAF03</t>
+          <t>센티스 캡시 차량용 방향제 프랑스 송풍구 디퓨저</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31484465959</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30742420421</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3148446/31484465959.20220328053622.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3074242/30742420421.20220130232606.jpg</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>13900</t>
+          <t>38000</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
@@ -1872,11 +1872,7 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>엠퓨처</t>
-        </is>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
@@ -1905,22 +1901,22 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>토씨 클래시맨 명품 고급 차량용방향제 룸미러걸이형</t>
+          <t>에이비 큐빅베어브릭 차량용 방향제 AB-DF02</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25695599950</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27944185800</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2569559/25695599950.20220704103706.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2794418/27944185800.20220905133240.jpg</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>85000</t>
+          <t>17900</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
@@ -1936,12 +1932,12 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>토씨</t>
+          <t>에이비</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>토씨</t>
+          <t>에이비</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -1971,22 +1967,22 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>엠퓨처 불독 송풍구 고급 차량용 방향제 디퓨저 MF-CAF02</t>
+          <t>엠퓨처 하트 송풍구 고급 차량용 방향제 디퓨저 MF-CAF03</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30458791731</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31484465959</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3045879/30458791731.20220117151934.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3148446/31484465959.20220328053622.jpg</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>14890</t>
+          <t>13900</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
@@ -2033,22 +2029,22 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>센티스 캡시 차량용 방향제 프랑스 송풍구 디퓨저</t>
+          <t>딥티크 차량용방향제 세트 케이스 + 리필용 캡슐</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30742420421</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28620531681</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3074242/30742420421.20220130232606.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2862053/28620531681.20220308051600.jpg</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>38000</t>
+          <t>33000</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
@@ -2062,7 +2058,11 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr"/>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>딥티크</t>
+        </is>
+      </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
@@ -2091,22 +2091,22 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>불스원 폴라프레쉬 선바이저 방향제 리필</t>
+          <t>엠퓨처 불독 송풍구 고급 차량용 방향제 디퓨저 MF-CAF02</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=17787599329</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30458791731</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1778759/17787599329.20220107133652.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3045879/30458791731.20220117151934.jpg</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>14890</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
@@ -2122,14 +2122,10 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>불스원</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>불스원</t>
-        </is>
-      </c>
+          <t>엠퓨처</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2157,22 +2153,22 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>딥티크 차량용방향제 세트 케이스 + 리필용 캡슐</t>
+          <t>불스원 폴라프레쉬 선바이저 방향제 리필</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28620531681</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=17787599329</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2862053/28620531681.20220308051600.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1778759/17787599329.20220107133652.jpg</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>33000</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
@@ -2188,10 +2184,14 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>딥티크</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr"/>
+          <t>불스원</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>불스원</t>
+        </is>
+      </c>
       <c r="K29" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2285,22 +2285,22 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>디프로젝트 리필킷 디불 디버니 디릴라고 차량용방향제 자동차 디퓨저 고체 리필 DP-RF02</t>
+          <t>디프로젝트 디릴라고 고릴라 고급 차량용 방향제 자동차 디퓨저</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18367838563</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26801331279</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1836783/18367838563.20211108142647.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2680133/26801331279.20211222172904.jpg</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>12090</t>
+          <t>49000</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
@@ -2351,22 +2351,22 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>양키캔들 1 1 양키캔들 카자얼티메이트 차량용 방향제</t>
+          <t>모노디트리 차량용 방향제 프리미엄 자동차 차 디퓨저</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29582915037</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30869812153</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2958291/29582915037.20211108020618.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3086981/30869812153.20220210025122.jpg</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>4520</t>
+          <t>34000</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
@@ -2380,16 +2380,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>양키캔들</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>양키캔들</t>
-        </is>
-      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2417,22 +2409,22 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>디프로젝트 디릴라고 고릴라 고급 차량용 방향제 자동차 디퓨저</t>
+          <t>디프로젝트 리필킷 디불 디버니 디릴라고 차량용방향제 자동차 디퓨저 고체 리필 DP-RF02</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26801331279</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18367838563</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2680133/26801331279.20211222172904.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1836783/18367838563.20211108142647.jpg</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>49000</t>
+          <t>13000</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
@@ -2498,7 +2490,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>4000</t>
+          <t>3980</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
@@ -2541,22 +2533,22 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>모노디트리 차량용 방향제 프리미엄 자동차 차 디퓨저</t>
+          <t>디프로젝트 디버니 토끼 고급 차량용 방향제 자동차 디퓨저</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30869812153</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27331951522</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3086981/30869812153.20220210025122.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2733195/27331951522.20211222172819.jpg</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>34000</t>
+          <t>49000</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
@@ -2570,8 +2562,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>디프로젝트</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>디프로젝트</t>
+        </is>
+      </c>
       <c r="K35" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2599,22 +2599,22 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>디프로젝트 디버니 토끼 고급 차량용 방향제 자동차 디퓨저</t>
+          <t>양키캔들 1 1 양키캔들 카자얼티메이트 차량용 방향제</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27331951522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29582915037</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2733195/27331951522.20211222172819.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2958291/29582915037.20211108020618.jpg</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>45570</t>
+          <t>4480</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
@@ -2630,12 +2630,12 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>디프로젝트</t>
+          <t>양키캔들</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>디프로젝트</t>
+          <t>양키캔들</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2665,22 +2665,22 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>플래트 고급 프로펠러 차량용 방향제 F430</t>
+          <t>코코쥬 차량용 방향제 고급 프로펠러 자동차 디퓨져 새차 선물</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27806043522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31875412948</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2780604/27806043522.20210701115440.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3187541/31875412948.20220417180424.jpg</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>40280</t>
+          <t>24500</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
@@ -2694,11 +2694,7 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>플래트</t>
-        </is>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
@@ -2727,22 +2723,22 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>픽도큐먼트 베어브릭 송풍구 차량용 방향제</t>
+          <t>플래트 고급 프로펠러 차량용 방향제 F430</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29900193281</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27806043522</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2990019/29900193281.20211208030917.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2780604/27806043522.20210701115440.jpg</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>14800</t>
+          <t>40220</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
@@ -2756,7 +2752,11 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I38" t="inlineStr"/>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>플래트</t>
+        </is>
+      </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
@@ -2785,22 +2785,22 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>코코쥬 차량용 방향제 고급 프로펠러 자동차 디퓨져 새차 선물</t>
+          <t>픽도큐먼트 베어브릭 송풍구 차량용 방향제</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31875412948</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29900193281</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3187541/31875412948.20220417180424.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2990019/29900193281.20211208030917.jpg</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>24500</t>
+          <t>14800</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
@@ -2843,22 +2843,22 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>루크타 도베르만 차량용 자동차 송풍구 차 고급 방향제 디퓨저 LT-DB01</t>
+          <t>센트몬스터 고양이 차량용 방향제 고급 디퓨져</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25380843939</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24163460435</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2538084/25380843939.20220113101814.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2416346/24163460435.20210124121840.jpg</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>49000</t>
+          <t>39000</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
@@ -2874,7 +2874,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>루크타</t>
+          <t>센트몬스터</t>
         </is>
       </c>
       <c r="J40" t="inlineStr"/>
@@ -2905,22 +2905,22 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>센트몬스터 고양이 차량용 방향제 고급 디퓨져</t>
+          <t>루크타 도베르만 차량용 자동차 송풍구 차 고급 방향제 디퓨저 LT-DB01</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24163460435</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25380843939</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2416346/24163460435.20210124121840.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2538084/25380843939.20220113101814.jpg</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>39000</t>
+          <t>49000</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
@@ -2936,7 +2936,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>센트몬스터</t>
+          <t>루크타</t>
         </is>
       </c>
       <c r="J41" t="inlineStr"/>
@@ -2967,45 +2967,41 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>JW중외제약 피톤치드 차량용 방향제 피톤케어</t>
+          <t>잉글리쉬페어 라임바질 베이 대용량 센트247 명품 고급 벤츠차량용방향제 디퓨저 120ml</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=12916212027</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82876701063</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1291621/12916212027.20220810105056.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8287670/82876701063.7.jpg</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>38000</t>
+          <t>27900</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>센트247 SCENT247</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>JW중외제약</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>JW중외제약</t>
-        </is>
-      </c>
+          <t>조말론</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3033,41 +3029,45 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>잉글리쉬페어 라임바질 베이 대용량 센트247 명품 고급 벤츠차량용방향제 디퓨저 120ml</t>
+          <t>라미유 차량용 고급 송풍구 방향제 블랙체리향 1+1</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82876701063</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30586965618</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8287670/82876701063.7.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3058696/30586965618.20220421134837.jpg</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>27900</t>
+          <t>15900</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
-          <t>센트247 SCENT247</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>조말론</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr"/>
+          <t>라미유</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>라미유</t>
+        </is>
+      </c>
       <c r="K43" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3095,22 +3095,22 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>P&amp;amp;G 페브리즈 차량용 방향제 2.2ml 3개</t>
+          <t>PRE피톤치드오일 차량용 방향제 다이케스팅 디퓨저</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20397190459</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27930349118</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2039719/20397190459.20190726113415.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2793034/27930349118.20210709220415.jpg</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>7950</t>
+          <t>23100</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
@@ -3124,16 +3124,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>페브리즈</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>P&amp;G</t>
-        </is>
-      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3161,22 +3153,22 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>라미유 차량용 고급 송풍구 방향제 블랙체리향 1+1</t>
+          <t>JW중외제약 피톤치드 차량용 방향제 피톤케어</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30586965618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=12916212027</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3058696/30586965618.20220421134837.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1291621/12916212027.20220810105056.jpg</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>15900</t>
+          <t>38000</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
@@ -3192,12 +3184,12 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>라미유</t>
+          <t>JW중외제약</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>라미유</t>
+          <t>JW중외제약</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -3227,22 +3219,22 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>우드어 심플 차량용 방향제</t>
+          <t>양키캔들 벤트스틱 차량용 방향제 4P입</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=33382841447</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=6552648097</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3338284/33382841447.20220709102853.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_6552648/6552648097.20190731160942.jpg</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>27900</t>
+          <t>3370</t>
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
@@ -3256,8 +3248,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>양키캔들</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>양키캔들</t>
+        </is>
+      </c>
       <c r="K46" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3285,22 +3285,22 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>불스원 그라스 디퓨저 블루 차량용 방향제 100ml</t>
+          <t>P&amp;amp;G 페브리즈 차량용 방향제 2.2ml 3개</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24063116873</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20397190459</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2406311/24063116873.20210111145156.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2039719/20397190459.20190726113415.jpg</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>12440</t>
+          <t>7950</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
@@ -3316,10 +3316,14 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>불스원</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr"/>
+          <t>페브리즈</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>P&amp;G</t>
+        </is>
+      </c>
       <c r="K47" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3347,22 +3351,22 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>양키캔들 벤트스틱 차량용 방향제 4P입</t>
+          <t>불스원 그라스 디퓨저 블루 차량용 방향제 100ml</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=6552648097</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24063116873</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_6552648/6552648097.20190731160942.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2406311/24063116873.20210111145156.jpg</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>3440</t>
+          <t>12440</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
@@ -3378,14 +3382,10 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>양키캔들</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>양키캔들</t>
-        </is>
-      </c>
+          <t>불스원</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3413,22 +3413,22 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>PRE피톤치드오일 차량용 방향제 다이케스팅 디퓨저</t>
+          <t>리틀조 이태리 방향제</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27930349118</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24014951999</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2793034/27930349118.20210709220415.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2401495/24014951999.20200903022656.jpg</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>23100</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
@@ -3587,22 +3587,22 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>로베르타디까메리노 방향제 송풍구 리틀포레스트향수</t>
+          <t>우드어 심플 차량용 방향제</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29185219914</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=33382841447</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2918521/29185219914.20220719173550.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3338284/33382841447.20220709102853.jpg</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11900</t>
+          <t>27900</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
@@ -3616,11 +3616,7 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>로베르타디까메리노</t>
-        </is>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
@@ -3649,22 +3645,22 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>미스터앤미세스 니키 클래식 차량용 방향제 본품</t>
+          <t>라피네르 명품 로얄스페이드 듀오 차량용방향제</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25359648694</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30565184917</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2535964/25359648694.20201224195431.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3056518/30565184917.20220425114558.jpg</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>6720</t>
+          <t>39800</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
@@ -3678,8 +3674,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>라피네르</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>라피네르</t>
+        </is>
+      </c>
       <c r="K53" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3707,22 +3711,22 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>미키큐빅 엠블럼 방향제</t>
+          <t>산도깨비 차량용 멤브렌 리필 방향제 x 10개입 휘튼치드</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29614058913</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25695237598</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2961405/29614058913.20211110030633.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2569523/25695237598.20220326034624.jpg</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>15800</t>
+          <t>21510</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
@@ -3736,7 +3740,11 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I54" t="inlineStr"/>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>산도깨비</t>
+        </is>
+      </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
@@ -3765,22 +3773,22 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>제이앤컴퍼니 벨르아망 포켓몬 피규어 차량용 방향제 메타몽 팬텀 마자용 푸린 새차 선물</t>
+          <t>미스터앤미세스 니키 클래식 차량용 방향제 본품</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=33464840631</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25359648694</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3346484/33464840631.20220713121644.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2535964/25359648694.20201224195431.jpg</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>19800</t>
+          <t>6720</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
@@ -3794,16 +3802,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>벨르아망</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>제이앤컴퍼니</t>
-        </is>
-      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3831,22 +3831,22 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>언더스코어 자동차용 세라믹 방향제</t>
+          <t>로베르타디까메리노 방향제 송풍구 리틀포레스트향수</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30977409618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29185219914</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3097740/30977409618.20220217150331.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2918521/29185219914.20220719173550.jpg</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>28990</t>
+          <t>11900</t>
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
@@ -3862,14 +3862,10 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>언더스코어</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>언더스코어</t>
-        </is>
-      </c>
+          <t>로베르타디까메리노</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3897,38 +3893,38 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>산도깨비 차량용 멤브렌 리필 방향제 x 10개입 휘튼치드</t>
+          <t>베이 도손 명품 고급 센트247 차량용 방향제 디퓨저 50ml</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25695237598</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82695237172</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2569523/25695237598.20220326034624.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8269523/82695237172.8.jpg</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>21510</t>
+          <t>19900</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>센트247 SCENT247</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>산도깨비</t>
+          <t>딥티크</t>
         </is>
       </c>
       <c r="J57" t="inlineStr"/>
@@ -3959,41 +3955,45 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>베이 도손 명품 고급 센트247 차량용 방향제 디퓨저 50ml</t>
+          <t>제이앤컴퍼니 벨르아망 포켓몬 피규어 차량용 방향제 메타몽 팬텀 마자용 푸린 새차 선물</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82695237172</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=33464840631</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8269523/82695237172.8.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3346484/33464840631.20220713121644.jpg</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>19900</t>
+          <t>19800</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
-          <t>센트247 SCENT247</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>딥티크</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr"/>
+          <t>벨르아망</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>제이앤컴퍼니</t>
+        </is>
+      </c>
       <c r="K58" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4021,45 +4021,37 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>제이엠제이라인 도슈아 차량용 방향제 리필 도자기</t>
+          <t>리틀트리 TREE 차량용 실내용 걸이형 종이 페이퍼 옷장 방향제</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20347407194</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82937356876</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2034740/20347407194.20211001120304.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8293735/82937356876.1.jpg</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>880</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>프랜드캣</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>도슈아</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>제이엠제이라인</t>
-        </is>
-      </c>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4087,22 +4079,22 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>오마르 퍼퓸베어 베어브릭 차량용방향제 기본형</t>
+          <t>제이엠제이라인 도슈아 차량용 방향제 리필 도자기</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27192765898</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20347407194</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2719276/27192765898.20220330020644.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2034740/20347407194.20211001120304.jpg</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>13900</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
@@ -4118,10 +4110,14 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>오마르</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr"/>
+          <t>도슈아</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>제이엠제이라인</t>
+        </is>
+      </c>
       <c r="K60" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4149,22 +4145,22 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>JW중외제약 JW생활건강 피톤케어 차량용 방향제 리필 카트리지</t>
+          <t>산도깨비 멤브렌 피톤치드 차량용 방향제 6g</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=15901498616</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20254478730</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1590149/15901498616.20211116120223.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2025447/20254478730.20190716114220.jpg</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>20000</t>
+          <t>2090</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
@@ -4180,12 +4176,12 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>JW생활건강</t>
+          <t>산도깨비</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>JW중외제약</t>
+          <t>산도깨비</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -4215,33 +4211,33 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>리틀트리 TREE 차량용 실내용 걸이형 종이 페이퍼 옷장 방향제</t>
+          <t>미키큐빅 엠블럼 방향제</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82937356876</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29614058913</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8293735/82937356876.1.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2961405/29614058913.20211110030633.jpg</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>880</t>
+          <t>15800</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
         <is>
-          <t>프랜드캣</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
@@ -4273,22 +4269,22 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>리틀조 이태리 방향제</t>
+          <t>명품고급디퓨저 마일론 갤러리1 차량용 방향제 MGAL-01</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24014951999</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30352215619</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2401495/24014951999.20200903022656.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3035221/30352215619.20220102155103.jpg</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>48900</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
@@ -4302,8 +4298,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>마일론</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>명품고급디퓨저</t>
+        </is>
+      </c>
       <c r="K63" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4331,22 +4335,22 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>산도깨비 멤브렌 피톤치드 차량용 방향제 6g</t>
+          <t>JW중외제약 JW생활건강 피톤케어 차량용 방향제 리필 카트리지</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20254478730</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=15901498616</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2025447/20254478730.20190716114220.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1590149/15901498616.20211116120223.jpg</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2090</t>
+          <t>20000</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
@@ -4362,12 +4366,12 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>산도깨비</t>
+          <t>JW생활건강</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>산도깨비</t>
+          <t>JW중외제약</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -4397,22 +4401,22 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>불스원 폴라프레쉬 선바이저 차량용 방향제</t>
+          <t>언더스코어 자동차용 세라믹 방향제</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24165357120</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30977409618</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2416535/24165357120.20220616110219.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3097740/30977409618.20220217150331.jpg</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>28990</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
@@ -4428,12 +4432,12 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>불스원</t>
+          <t>언더스코어</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>불스원</t>
+          <t>언더스코어</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -4463,22 +4467,22 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>라피네르 명품 로얄스페이드 듀오 차량용방향제</t>
+          <t>페브리즈 차량용 방향제 맑은하늘 바람 2.2ml</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30565184917</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24032457103</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3056518/30565184917.20220425114558.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2403245/24032457103.20210720152653.jpg</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>39800</t>
+          <t>2650</t>
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
@@ -4494,14 +4498,10 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>라피네르</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>라피네르</t>
-        </is>
-      </c>
+          <t>페브리즈</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4529,22 +4529,22 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>페브리즈 차량용 방향제 맑은하늘 바람 2.2ml</t>
+          <t>불스원 폴라프레쉬 선바이저 차량용 방향제</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24032457103</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24165357120</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2403245/24032457103.20210720152653.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2416535/24165357120.20220616110219.jpg</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2650</t>
+          <t>2500</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
@@ -4560,10 +4560,14 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>페브리즈</t>
-        </is>
-      </c>
-      <c r="J67" t="inlineStr"/>
+          <t>불스원</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>불스원</t>
+        </is>
+      </c>
       <c r="K67" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4591,22 +4595,22 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>명품고급디퓨저 마일론 갤러리1 차량용 방향제 MGAL-01</t>
+          <t>로베르타디까메리노 원형 대용량 방향제 100ml 2P</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30352215619</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=5640406696</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3035221/30352215619.20220102155103.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_5640406/5640406696.20190805143958.jpg</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>48900</t>
+          <t>13800</t>
         </is>
       </c>
       <c r="F68" t="inlineStr"/>
@@ -4622,12 +4626,12 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>마일론</t>
+          <t>로베르타디까메리노</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>명품고급디퓨저</t>
+          <t>로베르타디까메리노</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -4657,22 +4661,22 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>로베르타디까메리노 원형 대용량 방향제 100ml 2P</t>
+          <t>FYC 고급 명품 불독 차량용 방향제 디퓨저</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=5640406696</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24941672502</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_5640406/5640406696.20190805143958.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2494167/24941672502.20201122175400.jpg</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>13800</t>
+          <t>39000</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
@@ -4686,16 +4690,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>로베르타디까메리노</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>로베르타디까메리노</t>
-        </is>
-      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4723,22 +4719,22 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>FYC 고급 명품 불독 차량용 방향제 디퓨저</t>
+          <t>아우라 카카오 모니터걸이형 방향제 라이언 블루스카이향 10g x1개</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24941672502</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24014062100</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2494167/24941672502.20201122175400.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2401406/24014062100.20200903003222.jpg</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>39000</t>
+          <t>12900</t>
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
@@ -4847,22 +4843,22 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>아우라 카카오 모니터걸이형 방향제 라이언 블루스카이향 10g x1개</t>
+          <t>오마르 퍼퓸베어 베어브릭 차량용방향제 기본형</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24014062100</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27192765898</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2401406/24014062100.20200903003222.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2719276/27192765898.20220330020644.jpg</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>12900</t>
+          <t>13900</t>
         </is>
       </c>
       <c r="F72" t="inlineStr"/>
@@ -4876,7 +4872,11 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I72" t="inlineStr"/>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>오마르</t>
+        </is>
+      </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
@@ -5025,28 +5025,28 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>조말론 차량용 방향제 센트투고 명품향수 고급 디퓨저 거치대</t>
+          <t>벨르아망 포켓몬스터 빅페이스 차량용 디퓨저 방향제 새차 선물 피카츄</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=83025886866</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=84367332534</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8302588/83025886866.1.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8436733/84367332534.1.jpg</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>48500</t>
+          <t>19800</t>
         </is>
       </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr">
         <is>
-          <t>홍콩걸즈</t>
+          <t>BELLE AMANT</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -5056,10 +5056,14 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>조말론</t>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr"/>
+          <t>벨르아망</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>제이앤컴퍼니</t>
+        </is>
+      </c>
       <c r="K75" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -5087,45 +5091,37 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>불스원 그라스 오브제 디퓨저 차량용 방향제 100ml</t>
+          <t>페브리즈 차량용 방향제 2.2ml 차방향제 자동차 디퓨저 신차선물 라벤더</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30425453618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82250772533</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3042545/30425453618.20220105100536.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8225077/82250772533.11.jpg</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>17500</t>
+          <t>2650</t>
         </is>
       </c>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>위즈브리드</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>불스원</t>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>불스원</t>
-        </is>
-      </c>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -5153,22 +5149,22 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>크롬디 차량용 방향제 CD-9</t>
+          <t>불스원 그라스클래식 디퓨저 차량용방향제 2개 퓨어코튼</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31387912762</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31268113361</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3138791/31387912762.20220320033422.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3126811/31268113361.20220312023642.jpg</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>19900</t>
+          <t>16900</t>
         </is>
       </c>
       <c r="F77" t="inlineStr"/>
@@ -5184,10 +5180,14 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>크롬디</t>
-        </is>
-      </c>
-      <c r="J77" t="inlineStr"/>
+          <t>불스원</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>불스원</t>
+        </is>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -5215,36 +5215,40 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>페브리즈 차량용 방향제 2.2ml 차방향제 자동차 디퓨저 신차선물 라벤더</t>
+          <t>크롬디 차량용 방향제 CD-9</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82250772533</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31387912762</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8225077/82250772533.11.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3138791/31387912762.20220320033422.jpg</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2650</t>
+          <t>19900</t>
         </is>
       </c>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr">
         <is>
-          <t>위즈브리드</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr"/>
+          <t>일반 - 가격비교 상품</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>크롬디</t>
+        </is>
+      </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
@@ -5273,45 +5277,37 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>벤볼릭 명품 차량용 방향제 고급 송풍구 자동차 차량 디퓨져</t>
+          <t>미스터앤미세스 체사레 시저 차량용 방향제</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82293143959</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=8119194241</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8229314/82293143959.16.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8119194/8119194241.20190802121728.jpg</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>28000</t>
+          <t>7000</t>
         </is>
       </c>
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr">
         <is>
-          <t>매드포모던</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>벤볼릭</t>
-        </is>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>키니캔들</t>
-        </is>
-      </c>
+          <t>일반 - 가격비교 상품</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -5339,37 +5335,45 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>미스터앤미세스 체사레 시저 차량용 방향제</t>
+          <t>벤볼릭 명품 차량용 방향제 고급 송풍구 자동차 차량 디퓨져</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=8119194241</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82293143959</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8119194/8119194241.20190802121728.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8229314/82293143959.16.jpg</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>7000</t>
+          <t>28000</t>
         </is>
       </c>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>매드포모던</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>벤볼릭</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>키니캔들</t>
+        </is>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -5397,43 +5401,43 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>벨르아망 포켓몬스터 빅페이스 차량용 디퓨저 방향제 새차 선물 피카츄</t>
+          <t>불스원 그라스 오브제 디퓨저 차량용 방향제 100ml</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=84367332534</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30425453618</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8436733/84367332534.1.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3042545/30425453618.20220105100536.jpg</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>19800</t>
+          <t>17500</t>
         </is>
       </c>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr">
         <is>
-          <t>BELLE AMANT</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>벨르아망</t>
+          <t>불스원</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>제이앤컴퍼니</t>
+          <t>불스원</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -5521,22 +5525,22 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>더드림 꽃 베어브릭 석고 차량용 방향제</t>
+          <t>불스원 그라스 디퓨저 방향제 차량용디퓨져 45ml</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27124471579</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29162891870</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2712447/27124471579.20210512182954.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2916289/29162891870.20211009035226.jpg</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>11700</t>
+          <t>6540</t>
         </is>
       </c>
       <c r="F83" t="inlineStr"/>
@@ -5552,7 +5556,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>더드림</t>
+          <t>불스원</t>
         </is>
       </c>
       <c r="J83" t="inlineStr"/>
@@ -5583,22 +5587,22 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>헤즐넛 커피방향제 탈취와 향기 차량용 화장실 디퓨져</t>
+          <t>더드림 꽃 베어브릭 석고 차량용 방향제</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26059553880</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27124471579</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2605955/26059553880.20210219195508.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2712447/27124471579.20210512182954.jpg</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>11700</t>
         </is>
       </c>
       <c r="F84" t="inlineStr"/>
@@ -5612,7 +5616,11 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I84" t="inlineStr"/>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>더드림</t>
+        </is>
+      </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
@@ -5641,22 +5649,22 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>불스원 그라스클래식 디퓨저 차량용방향제 2개 퓨어코튼</t>
+          <t>제이앤컴퍼니 벨르아망 차량용방향제 에어도넛 리필키트</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31268113361</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28686680816</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3126811/31268113361.20220312023642.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2868668/28686680816.20220614133410.jpg</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>16900</t>
+          <t>6000</t>
         </is>
       </c>
       <c r="F85" t="inlineStr"/>
@@ -5672,12 +5680,12 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>불스원</t>
+          <t>벨르아망</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>불스원</t>
+          <t>제이앤컴퍼니</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -5707,45 +5715,41 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>제이앤컴퍼니 벨르아망 차량용방향제 에어도넛 리필키트</t>
+          <t>조말론 차량용 방향제 센트투고 명품향수 고급 디퓨저 거치대</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28686680816</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=83025886866</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2868668/28686680816.20220614133410.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8302588/83025886866.1.jpg</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>6000</t>
+          <t>48500</t>
         </is>
       </c>
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>홍콩걸즈</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>벨르아망</t>
-        </is>
-      </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>제이앤컴퍼니</t>
-        </is>
-      </c>
+          <t>조말론</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -5839,38 +5843,38 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>불스원 그라스 디퓨저 방향제 차량용디퓨져 45ml</t>
+          <t>딥디크 차량용 방향제 향9종 택1 구성</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29162891870</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=84253191120</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2916289/29162891870.20211009035226.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8425319/84253191120.jpg</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>6540</t>
+          <t>49200</t>
         </is>
       </c>
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>Louis Fennet</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>불스원</t>
+          <t>딥티크</t>
         </is>
       </c>
       <c r="J88" t="inlineStr"/>
@@ -5916,7 +5920,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>29800</t>
+          <t>8800</t>
         </is>
       </c>
       <c r="F89" t="inlineStr"/>
@@ -5963,41 +5967,45 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>딥디크 차량용 방향제 향9종 택1 구성</t>
+          <t>불스원 그라스 디퓨저 105ml 블랙베리 체리 방향제</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=84253191120</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26677172452</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8425319/84253191120.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2667717/26677172452.20210407202430.jpg</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>49200</t>
+          <t>6780</t>
         </is>
       </c>
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Louis Fennet</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>딥티크</t>
-        </is>
-      </c>
-      <c r="J90" t="inlineStr"/>
+          <t>불스원</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>불스원</t>
+        </is>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -6025,43 +6033,43 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>명품 로베르타 디 까메리노 고급 차량용방향제 100ml</t>
+          <t>캘리포니아센트 카센트 차량용 방향제</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=9362402660</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20309241612</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_9362402/9362402660.3.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2030924/20309241612.20190719121300.jpg</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>8300</t>
+          <t>3490</t>
         </is>
       </c>
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr">
         <is>
-          <t>다담기</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>로베르타디까메리노</t>
+          <t>캘리포니아센트</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>로베르타디까메리노</t>
+          <t>캘리포니아센트</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -6091,22 +6099,22 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>불스원 그라스 디퓨저 105ml 블랙베리 체리 방향제</t>
+          <t>딥티크 차량용 방향제 본품 리필 베이 34번가 진저</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26677172452</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26198772033</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2667717/26677172452.20210407202430.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2619877/26198772033.20220201042850.jpg</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>9800</t>
+          <t>19900</t>
         </is>
       </c>
       <c r="F92" t="inlineStr"/>
@@ -6122,14 +6130,10 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>불스원</t>
-        </is>
-      </c>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>불스원</t>
-        </is>
-      </c>
+          <t>딥티크</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -6157,22 +6161,22 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>딥티크 차량용 방향제 본품 리필 베이 34번가 진저</t>
+          <t>제로스킨 로보트 태권브이 차량용 방향제 자동차 디퓨저 AD-KF90</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26198772033</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29535937618</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2619877/26198772033.20220201042850.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2953593/29535937618.20211216102403.jpg</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>19900</t>
+          <t>46020</t>
         </is>
       </c>
       <c r="F93" t="inlineStr"/>
@@ -6188,10 +6192,14 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>딥티크</t>
-        </is>
-      </c>
-      <c r="J93" t="inlineStr"/>
+          <t>제로스킨</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>제로스킨</t>
+        </is>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -6219,22 +6227,22 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>캘리포니아센트 카센트 차량용 방향제</t>
+          <t>헤즐넛 커피방향제 탈취와 향기 차량용 화장실 디퓨져</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20309241612</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26059553880</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2030924/20309241612.20190719121300.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2605955/26059553880.20210219195508.jpg</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>3490</t>
+          <t>990</t>
         </is>
       </c>
       <c r="F94" t="inlineStr"/>
@@ -6248,16 +6256,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>캘리포니아센트</t>
-        </is>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>캘리포니아센트</t>
-        </is>
-      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -6285,22 +6285,22 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>빅쏘 카로브 차량용방향제 디퓨저 송풍구형</t>
+          <t>불스원 폴라프레쉬 NEW 선바이저 차량용 방향제</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26310652183</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29422282618</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2631065/26310652183.20211126145332.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2942228/29422282618.20211027100552.jpg</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>19890</t>
+          <t>5500</t>
         </is>
       </c>
       <c r="F95" t="inlineStr"/>
@@ -6316,12 +6316,12 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>빅쏘</t>
+          <t>불스원</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>빅쏘</t>
+          <t>불스원</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -6351,22 +6351,22 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>제로스킨 로보트 태권브이 차량용 방향제 자동차 디퓨저 AD-KF90</t>
+          <t>에이비 얼굴 일러스트 사진 차량용방향제 2set</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29535937618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27190906522</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2953593/29535937618.20211216102403.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2719090/27190906522.20210518150908.jpg</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>46020</t>
+          <t>17900</t>
         </is>
       </c>
       <c r="F96" t="inlineStr"/>
@@ -6382,12 +6382,12 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>제로스킨</t>
+          <t>에이비</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>제로스킨</t>
+          <t>에이비</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -6417,43 +6417,43 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>에이비 얼굴 일러스트 사진 차량용방향제 2set</t>
+          <t>조말론 차량용 방향제 자동차 디퓨저 차량방향제 명품 차방향제</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27190906522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=83776353433</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2719090/27190906522.20210518150908.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8377635/83776353433.1.jpg</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>17900</t>
+          <t>29600</t>
         </is>
       </c>
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>라벨 라휴</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>에이비</t>
+          <t>조말론</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>에이비</t>
+          <t>조말론</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -6483,45 +6483,41 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>조말론 차량용 방향제 자동차 디퓨저 차량방향제 명품 차방향제</t>
+          <t>로베르타디까메리노 차량용 방향제 일반형3P 60ml</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=83776353433</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24030450488</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8377635/83776353433.1.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2403045/24030450488.20220305050205.jpg</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>29600</t>
+          <t>15500</t>
         </is>
       </c>
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr">
         <is>
-          <t>라벨 라휴</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>조말론</t>
-        </is>
-      </c>
-      <c r="J98" t="inlineStr">
-        <is>
-          <t>조말론</t>
-        </is>
-      </c>
+          <t>로베르타디까메리노</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -6549,22 +6545,22 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>밀레피오리 차량용 방향제 ICON 카에어프레쉬너</t>
+          <t>캘리포니아센트 차량용 방향제 코로 나도 체리 캔 5개</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24013937164</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31265815970</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2401393/24013937164.20200902235225.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3126581/31265815970.20220401144224.jpg</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>15390</t>
+          <t>19500</t>
         </is>
       </c>
       <c r="F99" t="inlineStr"/>
@@ -6578,11 +6574,7 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I99" t="inlineStr">
-        <is>
-          <t>밀레피오리</t>
-        </is>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
@@ -6673,41 +6665,45 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>로베르타디까메리노 차량용 방향제 일반형3P 60ml</t>
+          <t>캘리포니아센트 캔타입 방향제 15종 모음</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24030450488</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=83239063403</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2403045/24030450488.20220305050205.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8323906/83239063403.2.jpg</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>15500</t>
+          <t>4300</t>
         </is>
       </c>
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>캘리포니아센트 공식대리점</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>로베르타디까메리노</t>
-        </is>
-      </c>
-      <c r="J101" t="inlineStr"/>
+          <t>캘리포니아센트</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>에너자이저</t>
+        </is>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
           <t>생활/건강</t>

--- a/output.xlsx
+++ b/output.xlsx
@@ -633,22 +633,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>로얄워터 텀블러 모양 차량용 방향제 신차선물</t>
+          <t>센트데코 후드독 차량용 방향제 SCD-01</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29835967618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30570794618</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2983596/29835967618.20211125191149.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3057079/30570794618.20220807184729.jpg</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>49000</t>
+          <t>28900</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
@@ -664,12 +664,12 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>로얄워터</t>
+          <t>센트데코</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>로얄워터</t>
+          <t>센트데코</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -761,22 +761,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>아트센트 천연소가죽 명품 차량용 방향제 고급 디퓨저 차 방향제 선물</t>
+          <t>로얄워터 텀블러 모양 차량용 방향제 신차선물</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30479265972</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29835967618</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3047926/30479265972.20220609124802.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2983596/29835967618.20211125191149.jpg</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>38900</t>
+          <t>49000</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
@@ -790,8 +790,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>로얄워터</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>로얄워터</t>
+        </is>
+      </c>
       <c r="K7" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -819,22 +827,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>라라체리티 리얼 니치퍼퓸 입술 고급 차량용 송풍구 방향제</t>
+          <t>아트센트 천연소가죽 명품 차량용 방향제 고급 디퓨저 차 방향제 선물</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=33210930858</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30479265972</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3321093/33210930858.20220630133748.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3047926/30479265972.20220609124802.jpg</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>44000</t>
+          <t>38900</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
@@ -877,22 +885,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>센트데코 후드독 차량용 방향제 SCD-01</t>
+          <t>라라체리티 리얼 니치퍼퓸 입술 고급 차량용 송풍구 방향제</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30570794618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=33210930858</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3057079/30570794618.20220807184729.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3321093/33210930858.20220630133748.jpg</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>28900</t>
+          <t>44000</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
@@ -906,16 +914,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>센트데코</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>센트데코</t>
-        </is>
-      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1137,22 +1137,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>에이비 베어브릭 차량용방향제 석고 고급 디퓨저 차방향제  ab-df01</t>
+          <t>센티스 캡시 차량용 방향제 프랑스 송풍구 디퓨저</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27765010523</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30742420421</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2776501/27765010523.20220905133151.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3074242/30742420421.20220130232606.jpg</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11900</t>
+          <t>38000</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
@@ -1166,16 +1166,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>에이비</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>에이비</t>
-        </is>
-      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1203,22 +1195,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>센티스 캡시 차량용 방향제 프랑스 송풍구 디퓨저</t>
+          <t>에이비 베어브릭 차량용방향제 석고 고급 디퓨저 차방향제  ab-df01</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30742420421</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27765010523</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3074242/30742420421.20220130232606.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2776501/27765010523.20220905133151.jpg</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>38000</t>
+          <t>11900</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
@@ -1232,8 +1224,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>에이비</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>에이비</t>
+        </is>
+      </c>
       <c r="K14" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1261,22 +1261,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>불스원 그라스 디퓨져 차량용 방향제 105ml</t>
+          <t>라피네르 명품 로얄스페이드 듀오 차량용방향제</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=12140232094</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30565184917</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1214023/12140232094.20211006140204.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3056518/30565184917.20220425114558.jpg</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>8700</t>
+          <t>39780</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
@@ -1292,12 +1292,12 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>불스원</t>
+          <t>라피네르</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>불스원</t>
+          <t>라피네르</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1327,22 +1327,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>라피네르 명품 로얄스페이드 듀오 차량용방향제</t>
+          <t>카보노 대쉬보드 거치형 프리미엄 차량용 방향제</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30565184917</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25371363986</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3056518/30565184917.20220425114558.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2537136/25371363986.20220104014030.jpg</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>39780</t>
+          <t>46500</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
@@ -1358,14 +1358,10 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>라피네르</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>라피네르</t>
-        </is>
-      </c>
+          <t>카보노</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1393,22 +1389,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>리틀트리 걸이형 종이 방향제</t>
+          <t>불스원 그라스 디퓨져 차량용 방향제 105ml</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=7162545992</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=12140232094</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_7162545/7162545992.20190731170829.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1214023/12140232094.20211006140204.jpg</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1040</t>
+          <t>8590</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
@@ -1422,8 +1418,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>불스원</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>불스원</t>
+        </is>
+      </c>
       <c r="K17" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1451,22 +1455,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>카보노 대쉬보드 거치형 프리미엄 차량용 방향제</t>
+          <t>토씨 클래시맨 명품 고급 차량용방향제 룸미러걸이형</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25371363986</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25695599950</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2537136/25371363986.20220104014030.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2569559/25695599950.20220704103706.jpg</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>46500</t>
+          <t>85000</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
@@ -1482,10 +1486,14 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>카보노</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr"/>
+          <t>토씨</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>토씨</t>
+        </is>
+      </c>
       <c r="K18" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1513,22 +1521,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>토씨 클래시맨 명품 고급 차량용방향제 룸미러걸이형</t>
+          <t>리틀트리 걸이형 종이 방향제</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25695599950</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=7162545992</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2569559/25695599950.20220704103706.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_7162545/7162545992.20190731170829.jpg</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>85000</t>
+          <t>1040</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
@@ -1542,16 +1550,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>토씨</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>토씨</t>
-        </is>
-      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1579,45 +1579,41 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>언더스코어 젠틀맨 프리미엄 차량용 방향제 디퓨저</t>
+          <t>쓰리나인 명품 차량용방향제 고급 불독 자동차 디퓨저 방향제</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27137540258</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82749964205</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2713754/27137540258.20210708110811.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8274996/82749964205.12.jpg</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>29900</t>
+          <t>29850</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>THREENINE</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>언더스코어</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>언더스코어</t>
-        </is>
-      </c>
+          <t>쓰리나인</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1645,22 +1641,22 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>디프로젝트 디불 불독 고급 차량용 방향제 자동차 디퓨저</t>
+          <t>언더스코어 젠틀맨 프리미엄 차량용 방향제 디퓨저</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=13697148540</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27137540258</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1369714/13697148540.20211222172941.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2713754/27137540258.20210708110811.jpg</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>49000</t>
+          <t>29900</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
@@ -1676,12 +1672,12 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>디프로젝트</t>
+          <t>언더스코어</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>디프로젝트</t>
+          <t>언더스코어</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1711,28 +1707,28 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>쓰리나인 명품 차량용방향제 고급 불독 자동차 디퓨저 방향제</t>
+          <t>아뮈잔트 고급 차량용 방향제 명품 자동차 디퓨저 블랙 120ml</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82749964205</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=80920267289</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8274996/82749964205.12.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8092026/80920267289.12.jpg</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>29850</t>
+          <t>20000</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
-          <t>THREENINE</t>
+          <t>아뮈잔트</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1742,10 +1738,14 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>쓰리나인</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr"/>
+          <t>아뮈잔트</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>아뮈잔트</t>
+        </is>
+      </c>
       <c r="K22" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1773,43 +1773,43 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>아뮈잔트 고급 차량용 방향제 명품 자동차 디퓨저 블랙 120ml</t>
+          <t>디프로젝트 디불 불독 고급 차량용 방향제 자동차 디퓨저</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=80920267289</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=13697148540</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8092026/80920267289.12.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1369714/13697148540.20211222172941.jpg</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>20000</t>
+          <t>49000</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
-          <t>아뮈잔트</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>아뮈잔트</t>
+          <t>디프로젝트</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>아뮈잔트</t>
+          <t>디프로젝트</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1839,22 +1839,22 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>에이비 차량용 방향제 도베르만 고급 AB-DF04</t>
+          <t>바흐가르트 차량용방향제 석고 송풍구 방향제</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30317520568</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30841337224</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3031752/30317520568.20220110102207.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3084133/30841337224.20220811101831.jpg</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>27500</t>
+          <t>38900</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
@@ -1870,14 +1870,10 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>에이비</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>에이비</t>
-        </is>
-      </c>
+          <t>바흐가르트</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1905,22 +1901,22 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>바흐가르트 차량용방향제 석고 송풍구 방향제</t>
+          <t>에이비 차량용 방향제 도베르만 고급 AB-DF04</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30841337224</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30317520568</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3084133/30841337224.20220811101831.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3031752/30317520568.20220110102207.jpg</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>38900</t>
+          <t>27500</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
@@ -1936,10 +1932,14 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>바흐가르트</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr"/>
+          <t>에이비</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>에이비</t>
+        </is>
+      </c>
       <c r="K25" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2242,7 +2242,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>41360</t>
+          <t>41280</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
@@ -2289,22 +2289,22 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>모노디트리 차량용 방향제 프리미엄 자동차 차 디퓨저</t>
+          <t>엠퓨처 하트 송풍구 고급 차량용 방향제 디퓨저 MF-CAF03</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30869812153</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31484465959</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3086981/30869812153.20220210025122.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3148446/31484465959.20220328053622.jpg</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>34000</t>
+          <t>13900</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
@@ -2318,7 +2318,11 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr"/>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>엠퓨처</t>
+        </is>
+      </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
@@ -2347,22 +2351,22 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>딥티크 차량용방향제 세트 케이스 + 리필용 캡슐</t>
+          <t>센트몬스터 고양이 차량용 방향제 고급 디퓨져</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28620531681</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24163460435</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2862053/28620531681.20220308051600.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2416346/24163460435.20210124121840.jpg</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>87900</t>
+          <t>39000</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
@@ -2378,7 +2382,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>딥티크</t>
+          <t>센트몬스터</t>
         </is>
       </c>
       <c r="J32" t="inlineStr"/>
@@ -2409,22 +2413,22 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>엠퓨처 하트 송풍구 고급 차량용 방향제 디퓨저 MF-CAF03</t>
+          <t>딥티크 차량용방향제 세트 케이스 + 리필용 캡슐</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31484465959</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28620531681</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3148446/31484465959.20220328053622.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2862053/28620531681.20220308051600.jpg</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>13900</t>
+          <t>87900</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
@@ -2440,7 +2444,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>엠퓨처</t>
+          <t>딥티크</t>
         </is>
       </c>
       <c r="J33" t="inlineStr"/>
@@ -2471,22 +2475,22 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>우드어 심플 차량용 방향제</t>
+          <t>루크타 도베르만 차량용 자동차 송풍구 차 고급 방향제 디퓨저 LT-DB01</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=33382841447</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25380843939</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3338284/33382841447.20220709102853.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2538084/25380843939.20220113101814.jpg</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>27900</t>
+          <t>49000</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
@@ -2500,7 +2504,11 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I34" t="inlineStr"/>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>루크타</t>
+        </is>
+      </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
@@ -2529,22 +2537,22 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>센트몬스터 고양이 차량용 방향제 고급 디퓨져</t>
+          <t>우드어 심플 차량용 방향제</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24163460435</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=33382841447</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2416346/24163460435.20210124121840.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3338284/33382841447.20220709102853.jpg</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>39000</t>
+          <t>27900</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
@@ -2558,11 +2566,7 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>센트몬스터</t>
-        </is>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
@@ -2591,38 +2595,38 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>루크타 도베르만 차량용 자동차 송풍구 차 고급 방향제 디퓨저 LT-DB01</t>
+          <t>잉글리쉬페어 라임바질 베이 대용량 센트247 명품 고급 벤츠차량용방향제 디퓨저 120ml</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25380843939</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82876701063</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2538084/25380843939.20220113101814.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8287670/82876701063.7.jpg</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>49000</t>
+          <t>27900</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>센트247 SCENT247</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>루크타</t>
+          <t>조말론</t>
         </is>
       </c>
       <c r="J36" t="inlineStr"/>
@@ -2653,22 +2657,22 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>디프로젝트 리필킷 디불 디버니 디릴라고 차량용방향제 자동차 디퓨저 고체 리필 DP-RF02</t>
+          <t>라미유 차량용 고급 송풍구 방향제 블랙체리향</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18367838563</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30586965618</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1836783/18367838563.20211108142647.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3058696/30586965618.20220421134837.jpg</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>13000</t>
+          <t>12720</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
@@ -2684,12 +2688,12 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>디프로젝트</t>
+          <t>라미유</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>디프로젝트</t>
+          <t>라미유</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -2719,22 +2723,22 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>라미유 차량용 고급 송풍구 방향제 블랙체리향</t>
+          <t>디프로젝트 디릴라고 고릴라 고급 차량용 방향제 자동차 디퓨저</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30586965618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26801331279</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3058696/30586965618.20220421134837.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2680133/26801331279.20211222172904.jpg</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>12720</t>
+          <t>49000</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
@@ -2750,12 +2754,12 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>라미유</t>
+          <t>디프로젝트</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>라미유</t>
+          <t>디프로젝트</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -2785,22 +2789,22 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>디프로젝트 디버니 토끼 고급 차량용 방향제 자동차 디퓨저</t>
+          <t>PRE피톤치드오일 차량용 방향제 다이케스팅 디퓨저</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27331951522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27930349118</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2733195/27331951522.20211222172819.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2793034/27930349118.20210709220415.jpg</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>49000</t>
+          <t>23100</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
@@ -2814,16 +2818,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>디프로젝트</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>디프로젝트</t>
-        </is>
-      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2851,17 +2847,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>디프로젝트 디릴라고 고릴라 고급 차량용 방향제 자동차 디퓨저</t>
+          <t>디프로젝트 디버니 토끼 고급 차량용 방향제 자동차 디퓨저</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26801331279</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27331951522</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2680133/26801331279.20211222172904.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2733195/27331951522.20211222172819.jpg</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2917,22 +2913,22 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>픽도큐먼트 베어브릭 송풍구 차량용 방향제</t>
+          <t>디프로젝트 리필킷 디불 디버니 디릴라고 차량용방향제 자동차 디퓨저 고체 리필 DP-RF02</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29900193281</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18367838563</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2990019/29900193281.20211208030917.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1836783/18367838563.20211108142647.jpg</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>14800</t>
+          <t>13000</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
@@ -2946,8 +2942,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>디프로젝트</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>디프로젝트</t>
+        </is>
+      </c>
       <c r="K41" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2975,22 +2979,22 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>로베르타디까메리노 액상 클립 통풍구 에어컨 차량용 방향제</t>
+          <t>픽도큐먼트 베어브릭 송풍구 차량용 방향제</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=32628653367</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29900193281</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3262865/32628653367.20220528094208.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2990019/29900193281.20211208030917.jpg</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11900</t>
+          <t>14800</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
@@ -3004,11 +3008,7 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>로베르타디까메리노</t>
-        </is>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
@@ -3103,45 +3103,41 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>P&amp;amp;G 페브리즈 차량용 방향제 2.2ml</t>
+          <t>베이 도손 명품 고급 센트247 차량용 방향제 디퓨저 50ml</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20397190459</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82695237172</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2039719/20397190459.20190726113415.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8269523/82695237172.8.jpg</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>7790</t>
+          <t>19900</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>센트247 SCENT247</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>페브리즈</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>P&amp;G</t>
-        </is>
-      </c>
+          <t>딥티크</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3169,22 +3165,22 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>PRE피톤치드오일 차량용 방향제 다이케스팅 디퓨저</t>
+          <t>P&amp;amp;G 페브리즈 차량용 방향제 2.2ml</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27930349118</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20397190459</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2793034/27930349118.20210709220415.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2039719/20397190459.20190726113415.jpg</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>23100</t>
+          <t>7790</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
@@ -3198,8 +3194,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>페브리즈</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>P&amp;G</t>
+        </is>
+      </c>
       <c r="K45" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3227,28 +3231,28 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>베이 도손 명품 고급 센트247 차량용 방향제 디퓨저 50ml</t>
+          <t>이지케이 에스캣 2개입 썬글라스 고양이 고급 차량용 방향제 자동차 디퓨저</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82695237172</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=84599056595</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8269523/82695237172.8.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8459905/84599056595.10.jpg</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>19900</t>
+          <t>32000</t>
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr">
         <is>
-          <t>센트247 SCENT247</t>
+          <t>에스캣 - S CAT</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -3256,11 +3260,7 @@
           <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>딥티크</t>
-        </is>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
@@ -3289,40 +3289,36 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>잉글리쉬페어 라임바질 베이 대용량 센트247 명품 고급 벤츠차량용방향제 디퓨저 120ml</t>
+          <t>벨라독스 에어휠 프로펠러 차량용 방향제</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82876701063</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30564852196</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8287670/82876701063.7.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3056485/30564852196.20220116213658.jpg</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>27900</t>
+          <t>29000</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
-          <t>센트247 SCENT247</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>조말론</t>
-        </is>
-      </c>
+          <t>일반 - 가격비교 상품</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
@@ -3351,22 +3347,22 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>로베르타 디까메리노 차량용 방향제 로베르따 자동차 향수 고급 차량 디퓨저 차 향기</t>
+          <t>미스터앤미세스 니키 클래식 차량용 방향제 본품</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26801962830</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25359648694</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2680196/26801962830.20220217035825.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2535964/25359648694.20201224195431.jpg</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>8300</t>
+          <t>6680</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
@@ -3467,36 +3463,40 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>이지케이 에스캣 2개입 썬글라스 고양이 고급 차량용 방향제 자동차 디퓨저</t>
+          <t>산도깨비 차량용 멤브렌 리필 방향제 x 10개입 휘튼치드</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=84599056595</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25695237598</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8459905/84599056595.10.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2569523/25695237598.20220326034624.jpg</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>32000</t>
+          <t>21500</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
-          <t>에스캣 - S CAT</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr"/>
+          <t>일반 - 가격비교 상품</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>산도깨비</t>
+        </is>
+      </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
@@ -3525,22 +3525,22 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>미스터앤미세스 니키 클래식 차량용 방향제 본품</t>
+          <t>모노디트리 차량용 방향제 프리미엄 자동차 차 디퓨저</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25359648694</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30869812153</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2535964/25359648694.20201224195431.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3086981/30869812153.20220210025122.jpg</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>6680</t>
+          <t>34000</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
@@ -3583,33 +3583,33 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>코코쥬 차량용 방향제 고급 프로펠러 자동차 디퓨져 새차 선물</t>
+          <t>리틀트리 TREE 차량용 실내용 걸이형 종이 페이퍼 옷장 방향제</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31875412948</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82937356876</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3187541/31875412948.20220417180424.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8293735/82937356876.1.jpg</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>9900</t>
+          <t>950</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>프랜드캣</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -3641,22 +3641,22 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>양키캔들 벤트스틱 차량용 방향제 4P입</t>
+          <t>로베르타디까메리노 액상 클립 통풍구 에어컨 차량용 방향제</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=6552648097</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=32628653367</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_6552648/6552648097.20190731160942.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3262865/32628653367.20220528094208.jpg</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>3170</t>
+          <t>11900</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
@@ -3672,14 +3672,10 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>양키캔들</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>양키캔들</t>
-        </is>
-      </c>
+          <t>로베르타디까메리노</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3707,22 +3703,22 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>산도깨비 차량용 멤브렌 리필 방향제 x 10개입 휘튼치드</t>
+          <t>JW중외제약 피톤치드 차량용 방향제 피톤케어</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25695237598</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=12916212027</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2569523/25695237598.20220326034624.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1291621/12916212027.20220810105056.jpg</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>21500</t>
+          <t>38000</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
@@ -3738,10 +3734,14 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>산도깨비</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr"/>
+          <t>JW중외제약</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>JW중외제약</t>
+        </is>
+      </c>
       <c r="K54" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3769,22 +3769,22 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>JW중외제약 피톤치드 차량용 방향제 피톤케어</t>
+          <t>양키캔들 벤트스틱 차량용 방향제 4P입</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=12916212027</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=6552648097</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1291621/12916212027.20220810105056.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_6552648/6552648097.20190731160942.jpg</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>38000</t>
+          <t>3160</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
@@ -3800,12 +3800,12 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>JW중외제약</t>
+          <t>양키캔들</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>JW중외제약</t>
+          <t>양키캔들</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -3835,22 +3835,22 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>양키캔들 1+1 양키캔들 카자얼티메이트 차량용 방향제</t>
+          <t>불스원 그라스 디퓨저 블루 차량용 방향제 100ml</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29582915037</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24063116873</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2958291/29582915037.20211108020618.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2406311/24063116873.20210111145156.jpg</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>3200</t>
+          <t>12460</t>
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
@@ -3866,14 +3866,10 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>양키캔들</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>양키캔들</t>
-        </is>
-      </c>
+          <t>불스원</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3901,22 +3897,22 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>벨라독스 에어휠 프로펠러 차량용 방향제</t>
+          <t>양키캔들 1+1 양키캔들 카자얼티메이트 차량용 방향제</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30564852196</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29582915037</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3056485/30564852196.20220116213658.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2958291/29582915037.20211108020618.jpg</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>29000</t>
+          <t>3190</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
@@ -3930,8 +3926,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>양키캔들</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>양키캔들</t>
+        </is>
+      </c>
       <c r="K57" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3959,22 +3963,22 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>불스원 그라스 디퓨저 블루 차량용 방향제 100ml</t>
+          <t>미키큐빅 엠블럼 방향제</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24063116873</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29614058913</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2406311/24063116873.20210111145156.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2961405/29614058913.20211110030633.jpg</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>12220</t>
+          <t>15800</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
@@ -3988,11 +3992,7 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>불스원</t>
-        </is>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
@@ -4021,33 +4021,33 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>리틀트리 TREE 차량용 실내용 걸이형 종이 페이퍼 옷장 방향제</t>
+          <t>로베르타 디까메리노 차량용 방향제 로베르따 자동차 향수 고급 차량 디퓨저 차 향기</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82937356876</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26801962830</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8293735/82937356876.1.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2680196/26801962830.20220217035825.jpg</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>950</t>
+          <t>8300</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr">
         <is>
-          <t>프랜드캣</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -4079,45 +4079,37 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>제이엠제이라인 도슈아 차량용 방향제 리필 도자기</t>
+          <t>페브리즈 차량용 방향제 2.2ml 차방향제 자동차 디퓨저 신차선물 라벤더</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20347407194</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82250772533</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2034740/20347407194.20211001120304.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8225077/82250772533.11.jpg</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>2650</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>위즈브리드</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>도슈아</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>제이엠제이라인</t>
-        </is>
-      </c>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4145,22 +4137,22 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>미키큐빅 엠블럼 방향제</t>
+          <t>코코쥬 차량용 방향제 고급 프로펠러 자동차 디퓨져 새차 선물</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29614058913</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31875412948</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2961405/29614058913.20211110030633.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3187541/31875412948.20220417180424.jpg</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>15800</t>
+          <t>9900</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
@@ -4203,22 +4195,22 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>로베르타디까메리노 방향제 송풍구 리틀포레스트향수</t>
+          <t>JW중외제약 JW생활건강 피톤케어 차량용 방향제 리필 카트리지</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29185219914</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=15901498616</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2918521/29185219914.20220719173550.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1590149/15901498616.20211116120223.jpg</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11900</t>
+          <t>16900</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
@@ -4234,10 +4226,14 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>로베르타디까메리노</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr"/>
+          <t>JW생활건강</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>JW중외제약</t>
+        </is>
+      </c>
       <c r="K62" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4265,41 +4261,45 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>조말론 차량용 방향제 센트투고 명품향수 고급 디퓨저 거치대</t>
+          <t>제이엠제이라인 도슈아 차량용 방향제 리필 도자기</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=83025886866</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20347407194</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8302588/83025886866.1.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2034740/20347407194.20211001120304.jpg</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>48500</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">
         <is>
-          <t>홍콩걸즈</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>조말론</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr"/>
+          <t>도슈아</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>제이엠제이라인</t>
+        </is>
+      </c>
       <c r="K63" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4393,22 +4393,22 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>JW중외제약 JW생활건강 피톤케어 차량용 방향제 리필 카트리지</t>
+          <t>청개구리 멤브렌 방향제 공기청향제 탈취제 산도깨비</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=15901498616</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29899764272</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1590149/15901498616.20211116120223.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2989976/29899764272.20211201020417.jpg</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>16900</t>
+          <t>1690</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
@@ -4422,16 +4422,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>JW생활건강</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>JW중외제약</t>
-        </is>
-      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4459,22 +4451,22 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>코코쥬 차량용 방향제 송풍구 자동차 디퓨저 차 선물 2IN1</t>
+          <t>로베르타디까메리노 방향제 송풍구 리틀포레스트향수</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=32801292390</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29185219914</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3280129/32801292390.20220608090651.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2918521/29185219914.20220719173550.jpg</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>48000</t>
+          <t>11900</t>
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
@@ -4488,7 +4480,11 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I66" t="inlineStr"/>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>로베르타디까메리노</t>
+        </is>
+      </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
@@ -4517,22 +4513,22 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>리틀조 이태리 방향제</t>
+          <t>제이앤컴퍼니 벨르아망 포켓몬 피규어 차량용 방향제 메타몽 팬텀 마자용 푸린 새차 선물</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24014951999</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=33464840631</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2401495/24014951999.20200903022656.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3346484/33464840631.20220713121644.jpg</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>19800</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
@@ -4546,8 +4542,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>벨르아망</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>제이앤컴퍼니</t>
+        </is>
+      </c>
       <c r="K67" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4575,33 +4579,33 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>페브리즈 차량용 방향제 2.2ml 차방향제 자동차 디퓨저 신차선물 라벤더</t>
+          <t>리틀조 이태리 방향제</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82250772533</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24014951999</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8225077/82250772533.11.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2401495/24014951999.20200903022656.jpg</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2650</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr">
         <is>
-          <t>위즈브리드</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
@@ -4633,22 +4637,22 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>명품고급디퓨저 마일론 갤러리1 차량용 방향제 MGAL-01</t>
+          <t>로베르타디까메리노 차량용 방향제 일반형3P 60ml</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30352215619</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24030450488</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3035221/30352215619.20220102155103.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2403045/24030450488.20220305050205.jpg</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>48900</t>
+          <t>15500</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
@@ -4664,14 +4668,10 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>마일론</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>명품고급디퓨저</t>
-        </is>
-      </c>
+          <t>로베르타디까메리노</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4699,22 +4699,22 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>로베르타디까메리노 차량용 방향제 일반형3P 60ml</t>
+          <t>크로마치 고급 차량용 방향제 자동차 디퓨저 명품 차량 송풍구</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24030450488</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31278229629</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2403045/24030450488.20220305050205.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3127822/31278229629.20220521051428.jpg</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>15500</t>
+          <t>65000</t>
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
@@ -4730,7 +4730,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>로베르타디까메리노</t>
+          <t>크로마치</t>
         </is>
       </c>
       <c r="J70" t="inlineStr"/>
@@ -4761,45 +4761,41 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>제이앤컴퍼니 벨르아망 포켓몬 피규어 차량용 방향제 메타몽 팬텀 마자용 푸린 새차 선물</t>
+          <t>조말론 차량용 방향제 센트투고 명품향수 고급 디퓨저 거치대</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=33464840631</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=83025886866</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3346484/33464840631.20220713121644.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8302588/83025886866.1.jpg</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>19800</t>
+          <t>48500</t>
         </is>
       </c>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>홍콩걸즈</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>벨르아망</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>제이앤컴퍼니</t>
-        </is>
-      </c>
+          <t>조말론</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4827,22 +4823,22 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>오마르 퍼퓸베어 베어브릭 차량용방향제 기본형</t>
+          <t>멜린 베어 파일럿 프로펠러 자동차 송풍구 에어컨</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27192765898</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=33272908872</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2719276/27192765898.20220330020644.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3327290/33272908872.20220704113112.jpg</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>13900</t>
+          <t>19800</t>
         </is>
       </c>
       <c r="F72" t="inlineStr"/>
@@ -4858,7 +4854,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>오마르</t>
+          <t>멜린</t>
         </is>
       </c>
       <c r="J72" t="inlineStr"/>
@@ -4947,22 +4943,22 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>불스원 그라스 디퓨저 105ml 블랙베리 체리 방향제</t>
+          <t>명품고급디퓨저 마일론 갤러리1 차량용 방향제 MGAL-01</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26677172452</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30352215619</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2667717/26677172452.20210407202430.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3035221/30352215619.20220102155103.jpg</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>9800</t>
+          <t>48900</t>
         </is>
       </c>
       <c r="F74" t="inlineStr"/>
@@ -4978,12 +4974,12 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>불스원</t>
+          <t>마일론</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>불스원</t>
+          <t>명품고급디퓨저</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -5013,22 +5009,22 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>페브리즈 차량용 방향제 맑은하늘 바람 2.2ml</t>
+          <t>오마르 퍼퓸베어 베어브릭 차량용방향제 기본형</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24032457103</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27192765898</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2403245/24032457103.20210720152653.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2719276/27192765898.20220330020644.jpg</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2650</t>
+          <t>13900</t>
         </is>
       </c>
       <c r="F75" t="inlineStr"/>
@@ -5044,7 +5040,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>페브리즈</t>
+          <t>오마르</t>
         </is>
       </c>
       <c r="J75" t="inlineStr"/>
@@ -5075,22 +5071,22 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>크로마치 고급 차량용 방향제 자동차 디퓨저 명품 차량 송풍구</t>
+          <t>페브리즈 차량용 방향제 맑은하늘 바람 2.2ml</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31278229629</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24032457103</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3127822/31278229629.20220521051428.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2403245/24032457103.20210720152653.jpg</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>65000</t>
+          <t>2650</t>
         </is>
       </c>
       <c r="F76" t="inlineStr"/>
@@ -5106,7 +5102,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>크로마치</t>
+          <t>페브리즈</t>
         </is>
       </c>
       <c r="J76" t="inlineStr"/>
@@ -5137,22 +5133,22 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>미스터앤미세스 체사레 시저 차량용 방향제</t>
+          <t>불스원 그라스 디퓨저 105ml 블랙베리 체리 방향제</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=8119194241</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26677172452</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8119194/8119194241.20190802121728.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2667717/26677172452.20210407202430.jpg</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>7000</t>
+          <t>9800</t>
         </is>
       </c>
       <c r="F77" t="inlineStr"/>
@@ -5166,8 +5162,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>불스원</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>불스원</t>
+        </is>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -5195,43 +5199,43 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>벤볼릭 명품 차량용 방향제 고급 송풍구 자동차 차량 디퓨져</t>
+          <t>산도깨비 멤브렌 피톤치드 차량용 방향제 6g</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82293143959</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20254478730</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8229314/82293143959.16.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2025447/20254478730.20190716114220.jpg</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>28000</t>
+          <t>2090</t>
         </is>
       </c>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr">
         <is>
-          <t>매드포모던</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>벤볼릭</t>
+          <t>산도깨비</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>키니캔들</t>
+          <t>산도깨비</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -5261,33 +5265,33 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>청개구리 멤브렌 방향제 공기청향제 탈취제 산도깨비</t>
+          <t>미스터앤미세스 니키 리필 차량용 방향제</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29899764272</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=10017842540</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2989976/29899764272.20211201020417.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1001784/10017842540.17.jpg</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>1690</t>
+          <t>7200</t>
         </is>
       </c>
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>반도향기나라</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
@@ -5319,22 +5323,22 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>제로스킨 로보트 태권브이 차량용 방향제 자동차 디퓨저 AD-KF90</t>
+          <t>불스원 그라스 통풍구 디퓨저 차량용 방향제 10ml x 2개</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29535937618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25543313849</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2953593/29535937618.20211216102403.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2554331/25543313849.20211119124936.jpg</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>46340</t>
+          <t>12700</t>
         </is>
       </c>
       <c r="F80" t="inlineStr"/>
@@ -5350,12 +5354,12 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>제로스킨</t>
+          <t>불스원</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>제로스킨</t>
+          <t>불스원</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -5385,22 +5389,22 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>제이앤컴퍼니 벨르아망 차량용방향제 에어도넛 리필키트</t>
+          <t>제로스킨 로보트 태권브이 차량용 방향제 자동차 디퓨저 AD-KF90</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28686680816</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29535937618</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2868668/28686680816.20220614133410.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2953593/29535937618.20211216102403.jpg</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>6000</t>
+          <t>46340</t>
         </is>
       </c>
       <c r="F81" t="inlineStr"/>
@@ -5416,12 +5420,12 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>벨르아망</t>
+          <t>제로스킨</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>제이앤컴퍼니</t>
+          <t>제로스킨</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -5451,22 +5455,22 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>산도깨비 멤브렌 피톤치드 차량용 방향제 6g</t>
+          <t>코코쥬 차량용 방향제 송풍구 자동차 디퓨저 차 선물 2IN1</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20254478730</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=32801292390</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2025447/20254478730.20190716114220.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3280129/32801292390.20220608090651.jpg</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2090</t>
+          <t>48000</t>
         </is>
       </c>
       <c r="F82" t="inlineStr"/>
@@ -5480,16 +5484,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>산도깨비</t>
-        </is>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>산도깨비</t>
-        </is>
-      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -5517,22 +5513,22 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>아우라 카카오 모니터걸이형 방향제 라이언 블루스카이향 10g x1개</t>
+          <t>제이앤컴퍼니 벨르아망 차량용방향제 에어도넛 리필키트</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24014062100</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28686680816</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2401406/24014062100.20200903003222.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2868668/28686680816.20220614133410.jpg</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>12900</t>
+          <t>6000</t>
         </is>
       </c>
       <c r="F83" t="inlineStr"/>
@@ -5546,8 +5542,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>벨르아망</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>제이앤컴퍼니</t>
+        </is>
+      </c>
       <c r="K83" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -5575,33 +5579,33 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>미스터앤미세스 니키 리필 차량용 방향제</t>
+          <t>아우라 카카오 모니터걸이형 방향제 라이언 블루스카이향 10g x1개</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=10017842540</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24014062100</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1001784/10017842540.17.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2401406/24014062100.20200903003222.jpg</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>7200</t>
+          <t>12900</t>
         </is>
       </c>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr">
         <is>
-          <t>반도향기나라</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I84" t="inlineStr"/>
@@ -5699,22 +5703,22 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>리빙인아로마 쿤달 퍼퓸 차량용 디퓨저 2구 세트 블랙체리</t>
+          <t>미스터앤미세스 체사레 시저 차량용 방향제</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24803290609</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=8119194241</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2480329/24803290609.20220826152350.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8119194/8119194241.20190802121728.jpg</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>10900</t>
+          <t>7000</t>
         </is>
       </c>
       <c r="F86" t="inlineStr"/>
@@ -5728,16 +5732,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>쿤달</t>
-        </is>
-      </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>리빙인아로마</t>
-        </is>
-      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -5765,37 +5761,45 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>센텍 디센트 스포이드 디퓨저 리필 자동차 방향제</t>
+          <t>벤볼릭 명품 차량용 방향제 고급 송풍구 자동차 차량 디퓨져</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26762803190</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82293143959</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2676280/26762803190.20220330024851.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8229314/82293143959.16.jpg</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>4130</t>
+          <t>28000</t>
         </is>
       </c>
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>매드포모던</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>벤볼릭</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>키니캔들</t>
+        </is>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -5889,43 +5893,43 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>캘리포니아센트 카센트 차량용 방향제</t>
+          <t>조말론 딥티크 명품 니치향 차 방향제 벤츠 BMW 제네시스 고급 디퓨저</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20309241612</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=84543919273</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2030924/20309241612.20190719121300.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8454391/84543919273.6.jpg</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>3490</t>
+          <t>14900</t>
         </is>
       </c>
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>센트데코</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>캘리포니아센트</t>
+          <t>조말론</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>캘리포니아센트</t>
+          <t>센트데코</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -5955,37 +5959,45 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>헤즐넛 커피방향제 탈취와 향기 차량용 화장실 디퓨져</t>
+          <t>카카오 모니터걸이 방향제 아우라 캐릭터 피규어 라이언 어피치</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26059553880</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=83136484211</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2605955/26059553880.20210219195508.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8313648/83136484211.jpg</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>16000</t>
         </is>
       </c>
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>다나와25</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
-        </is>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>카카오프렌즈</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>엘지생활건강</t>
+        </is>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -6013,22 +6025,22 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>멜린 베어 파일럿 프로펠러 자동차 송풍구 에어컨</t>
+          <t>리빙인아로마 쿤달 퍼퓸 차량용 디퓨저 2구 세트 블랙체리</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=33272908872</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24803290609</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3327290/33272908872.20220704113112.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2480329/24803290609.20220826152350.jpg</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>19800</t>
+          <t>10900</t>
         </is>
       </c>
       <c r="F91" t="inlineStr"/>
@@ -6044,10 +6056,14 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>멜린</t>
-        </is>
-      </c>
-      <c r="J91" t="inlineStr"/>
+          <t>쿤달</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>리빙인아로마</t>
+        </is>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -6075,28 +6091,28 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>조말론 딥티크 명품 니치향 차 방향제 벤츠 BMW 제네시스 고급 디퓨저</t>
+          <t>카카오 차량용 송풍구 방향제 자동차 통풍구 리필 모니터형</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=84543919273</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=12881246711</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8454391/84543919273.6.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1288124/12881246711.12.jpg</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>14900</t>
+          <t>16900</t>
         </is>
       </c>
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr">
         <is>
-          <t>센트데코</t>
+          <t>주네트</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -6106,12 +6122,12 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>조말론</t>
+          <t>카카오프렌즈</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>센트데코</t>
+          <t>엘지생활건강</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -6141,43 +6157,43 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>엘에스인터내셔널 플레이위드센트 불독 송풍구 차량용 방향제</t>
+          <t>캘리포니아센트 캔타입 방향제 15종 모음</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28027363522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=83239063403</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2802736/28027363522.20210716101910.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8323906/83239063403.2.jpg</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>28000</t>
+          <t>4300</t>
         </is>
       </c>
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>캘리포니아센트 공식대리점</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>플레이위드센트</t>
+          <t>캘리포니아센트</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>엘에스인터내셔널</t>
+          <t>에너자이저</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -6207,22 +6223,22 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>불스원 그라스 통풍구 디퓨저 차량용 방향제 10ml x 2개</t>
+          <t>헤즐넛 커피방향제 탈취와 향기 차량용 화장실 디퓨져</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25543313849</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26059553880</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2554331/25543313849.20211119124936.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2605955/26059553880.20210219195508.jpg</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>12700</t>
+          <t>990</t>
         </is>
       </c>
       <c r="F94" t="inlineStr"/>
@@ -6236,16 +6252,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>불스원</t>
-        </is>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>불스원</t>
-        </is>
-      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -6273,43 +6281,43 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>조말론 차량용 방향제 자동차 디퓨저 차량방향제 명품 차방향제</t>
+          <t>캘리포니아센트 카센트 차량용 방향제</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=83776353433</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20309241612</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8377635/83776353433.1.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2030924/20309241612.20190719121300.jpg</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>29600</t>
+          <t>3480</t>
         </is>
       </c>
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr">
         <is>
-          <t>라벨 라휴</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>조말론</t>
+          <t>캘리포니아센트</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>조말론</t>
+          <t>캘리포니아센트</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -6339,38 +6347,38 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>미스터앤미세스 니키 리필 차량용 방향제</t>
+          <t>더드림 꽃 베어브릭 석고 차량용 방향제</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=9773172139</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27124471579</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_9773172/9773172139.15.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2712447/27124471579.20210512182954.jpg</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>7200</t>
+          <t>11700</t>
         </is>
       </c>
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr">
         <is>
-          <t>허브테라피아</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>미스터앤미세스이태리</t>
+          <t>더드림</t>
         </is>
       </c>
       <c r="J96" t="inlineStr"/>
@@ -6401,43 +6409,43 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>카카오 모니터걸이 방향제 아우라 캐릭터 피규어 라이언 어피치</t>
+          <t>엘에스인터내셔널 플레이위드센트 불독 송풍구 차량용 방향제</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=83136484211</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28027363522</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8313648/83136484211.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2802736/28027363522.20210716101910.jpg</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>16000</t>
+          <t>28000</t>
         </is>
       </c>
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr">
         <is>
-          <t>다나와25</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>카카오프렌즈</t>
+          <t>플레이위드센트</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>엘지생활건강</t>
+          <t>엘에스인터내셔널</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -6467,43 +6475,43 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>KAN 뷰센트 자동차 송풍구 메탈 차량용 방향제 선물 2세트</t>
+          <t>조말론 차량용 방향제 자동차 디퓨저 차량방향제 명품 차방향제</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31597320645</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=83776353433</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3159732/31597320645.20220429115323.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8377635/83776353433.1.jpg</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>16900</t>
+          <t>29600</t>
         </is>
       </c>
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>라벨 라휴</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>뷰센트</t>
+          <t>조말론</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>KAN</t>
+          <t>조말론</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -6661,22 +6669,22 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>불스원 폴라프레쉬 NEW 선바이저 차량용 방향제</t>
+          <t>마블 스턴 아이언맨 차량용 방향제 ST-IM01</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29422282618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30644523374</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2942228/29422282618.20211027100552.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3064452/30644523374.20220318023112.jpg</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>6900</t>
+          <t>34800</t>
         </is>
       </c>
       <c r="F101" t="inlineStr"/>
@@ -6692,14 +6700,10 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>불스원</t>
-        </is>
-      </c>
-      <c r="J101" t="inlineStr">
-        <is>
-          <t>불스원</t>
-        </is>
-      </c>
+          <t>마블</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
           <t>생활/건강</t>

--- a/output.xlsx
+++ b/output.xlsx
@@ -505,22 +505,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>불스원 그라스 디퓨져 차량용 방향제 105ml</t>
+          <t>아트센트 천연소가죽 차량용 방향제</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=12140232094</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30479265972</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1214023/12140232094.20211006140204.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3047926/30479265972.20220609124802.jpg</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>8670</t>
+          <t>38900</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
@@ -534,16 +534,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>불스원</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>불스원</t>
-        </is>
-      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -571,22 +563,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>아트센트 천연소가죽 차량용 방향제</t>
+          <t>라피네르 로얄스페이드 듀오 차량용방향제</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30479265972</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30565184917</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3047926/30479265972.20220609124802.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3056518/30565184917.20220922163942.jpg</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>38900</t>
+          <t>39780</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
@@ -600,8 +592,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>라피네르</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>라피네르</t>
+        </is>
+      </c>
       <c r="K4" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -629,22 +629,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>블랩 바이엘 디퓨저 차량용 실내용 방향제 천연디퓨저 BYLDF001</t>
+          <t>에이비 큐빅베어브릭 차량용 방향제 AB-DF02</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=32287746505</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27944185800</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3228774/32287746505.20220512104109.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2794418/27944185800.20220908171344.jpg</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>14000</t>
+          <t>17900</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
@@ -660,12 +660,12 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>바이엘</t>
+          <t>에이비</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>블랩</t>
+          <t>에이비</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -695,22 +695,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>바흐가르트 차량용방향제 석고 송풍구 방향제</t>
+          <t>블랩 바이엘 디퓨저 차량용 실내용 방향제 천연디퓨저 BYLDF001</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30841337224</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=32287746505</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3084133/30841337224.20220811101831.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3228774/32287746505.20220512104109.jpg</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>38900</t>
+          <t>14000</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
@@ -726,10 +726,14 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>바흐가르트</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr"/>
+          <t>바이엘</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>블랩</t>
+        </is>
+      </c>
       <c r="K6" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -757,22 +761,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>에이비 큐빅베어브릭 차량용 방향제 AB-DF02</t>
+          <t>불스원 그라스 디퓨져 차량용 방향제 105ml</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27944185800</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=12140232094</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2794418/27944185800.20220908171344.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1214023/12140232094.20211006140204.jpg</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>17900</t>
+          <t>8660</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
@@ -788,12 +792,12 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>에이비</t>
+          <t>불스원</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>에이비</t>
+          <t>불스원</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -823,22 +827,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>라피네르 로얄스페이드 듀오 차량용방향제</t>
+          <t>명품고급디퓨저 마일론 갤러리3 차량용 방향제 MGAL-03</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30565184917</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31231762618</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3056518/30565184917.20220922163942.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3123176/31231762618.20220310141449.jpg</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>39780</t>
+          <t>39900</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
@@ -854,12 +858,12 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>라피네르</t>
+          <t>마일론</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>라피네르</t>
+          <t>명품고급디퓨저</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -889,22 +893,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>명품고급디퓨저 마일론 갤러리3 차량용 방향제 MGAL-03</t>
+          <t>센트데코 후드독 차량용 방향제 SCD-01</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31231762618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30570794618</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3123176/31231762618.20220310141449.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3057079/30570794618.20220925133647.jpg</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>39900</t>
+          <t>28900</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
@@ -920,12 +924,12 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>마일론</t>
+          <t>센트데코</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>명품고급디퓨저</t>
+          <t>센트데코</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -955,22 +959,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>센트데코 후드독 차량용 방향제 SCD-01</t>
+          <t>바흐가르트 차량용방향제 석고 송풍구 방향제</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30570794618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30841337224</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3057079/30570794618.20220925133647.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3084133/30841337224.20220811101831.jpg</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>28900</t>
+          <t>38900</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
@@ -986,14 +990,10 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>센트데코</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>센트데코</t>
-        </is>
-      </c>
+          <t>바흐가르트</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1149,22 +1149,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>엠퓨처 하트 송풍구 고급 차량용 방향제 디퓨저 MF-CAF03</t>
+          <t>엠퓨처 불독 송풍구 고급 차량용 방향제 디퓨저 MF-CAF02</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31484465959</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30458791731</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3148446/31484465959.20220328053622.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3045879/30458791731.20220117151934.jpg</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>13900</t>
+          <t>14890</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
@@ -1211,22 +1211,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>엠퓨처 불독 송풍구 고급 차량용 방향제 디퓨저 MF-CAF02</t>
+          <t>엠퓨처 하트 송풍구 고급 차량용 방향제 디퓨저 MF-CAF03</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30458791731</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31484465959</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3045879/30458791731.20220117151934.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3148446/31484465959.20220328053622.jpg</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>14890</t>
+          <t>13900</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
@@ -1273,41 +1273,45 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>잉글리쉬페어 라임바질 베이 대용량 센트247 명품 고급 벤츠차량용방향제 디퓨저 120ml</t>
+          <t>이븐도우 생귄 쥬얼리 클립 차량용 방향제</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82876701063</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=19103746764</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8287670/82876701063.7.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1910374/19103746764.20220213194209.jpg</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>27900</t>
+          <t>32800</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
-          <t>센트247 SCENT247</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>조말론</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr"/>
+          <t>생귄</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>이븐도우</t>
+        </is>
+      </c>
       <c r="K15" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1335,45 +1339,41 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>이븐도우 생귄 쥬얼리 클립 차량용 방향제</t>
+          <t>쓰리나인 명품 차량용방향제 고급 불독 자동차 디퓨저 방향제</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=19103746764</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82749964205</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1910374/19103746764.20220213194209.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8274996/82749964205.12.jpg</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>32800</t>
+          <t>29850</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>THREENINE</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>생귄</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>이븐도우</t>
-        </is>
-      </c>
+          <t>쓰리나인</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1401,45 +1401,41 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>디프로젝트 디불 불독 고급 차량용 방향제 자동차 디퓨저</t>
+          <t>잉글리쉬페어 라임바질 베이 대용량 센트247 명품 고급 벤츠차량용방향제 디퓨저 120ml</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=13697148540</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82876701063</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1369714/13697148540.20211222172941.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8287670/82876701063.7.jpg</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>49000</t>
+          <t>27900</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>센트247 SCENT247</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>디프로젝트</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>디프로젝트</t>
-        </is>
-      </c>
+          <t>조말론</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1467,41 +1463,45 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>쓰리나인 명품 차량용방향제 고급 불독 자동차 디퓨저 방향제</t>
+          <t>디프로젝트 디불 불독 고급 차량용 방향제 자동차 디퓨저</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82749964205</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=13697148540</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8274996/82749964205.12.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1369714/13697148540.20211222172941.jpg</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>29850</t>
+          <t>49000</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
-          <t>THREENINE</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>쓰리나인</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr"/>
+          <t>디프로젝트</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>디프로젝트</t>
+        </is>
+      </c>
       <c r="K18" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1529,22 +1529,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>제이엠제이라인 도슈아 클래식 프리미엄 차량용 방향제</t>
+          <t>카보노 대쉬보드 거치형 프리미엄 차량용 방향제</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=17787594512</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25371363986</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1778759/17787594512.20210802225254.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2537136/25371363986.20220104014030.jpg</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>29750</t>
+          <t>46500</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
@@ -1560,14 +1560,10 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>도슈아</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>제이엠제이라인</t>
-        </is>
-      </c>
+          <t>카보노</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1595,22 +1591,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>카보노 대쉬보드 거치형 프리미엄 차량용 방향제</t>
+          <t>제이엠제이라인 도슈아 클래식 프리미엄 차량용 방향제</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25371363986</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=17787594512</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2537136/25371363986.20220104014030.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1778759/17787594512.20210802225254.jpg</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>46500</t>
+          <t>29750</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
@@ -1626,10 +1622,14 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>카보노</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr"/>
+          <t>도슈아</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>제이엠제이라인</t>
+        </is>
+      </c>
       <c r="K20" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1723,22 +1723,22 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ELLA 프라임 호랑이 차량용 방향제 프로펠러</t>
+          <t>불스원 폴라프레쉬 선바이저 방향제 리필</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30617053618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=17787599329</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3061705/30617053618.20220120171741.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1778759/17787599329.20220107133652.jpg</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>29700</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
@@ -1754,10 +1754,14 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>ELLA</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr"/>
+          <t>불스원</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>불스원</t>
+        </is>
+      </c>
       <c r="K22" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1785,22 +1789,22 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>불스원 폴라프레쉬 선바이저 방향제 리필</t>
+          <t>리틀트리 걸이형 종이 방향제</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=17787599329</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=7162545992</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1778759/17787599329.20220107133652.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_7162545/7162545992.20190731170829.jpg</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>1080</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
@@ -1814,16 +1818,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>불스원</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>불스원</t>
-        </is>
-      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1851,22 +1847,22 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>리틀트리 걸이형 종이 방향제</t>
+          <t>ELLA 프라임 호랑이 차량용 방향제 프로펠러</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=7162545992</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30617053618</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_7162545/7162545992.20190731170829.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3061705/30617053618.20220120171741.jpg</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1080</t>
+          <t>29700</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
@@ -1880,7 +1876,11 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr"/>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>ELLA</t>
+        </is>
+      </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
@@ -1909,22 +1909,22 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>디프로젝트 디릴라고 고릴라 차량용 방향제</t>
+          <t>로얄워터 텀블러 모양 차량용 방향제 신차선물</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26801331279</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29835967618</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2680133/26801331279.20211222172904.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2983596/29835967618.20211125191149.jpg</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>49000</t>
+          <t>48460</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
@@ -1940,12 +1940,12 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>디프로젝트</t>
+          <t>로얄워터</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>디프로젝트</t>
+          <t>로얄워터</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -1975,22 +1975,22 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>로얄워터 텀블러 모양 차량용 방향제 신차선물</t>
+          <t>양키캔들 카자얼티메이트 차량용 방향제</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29835967618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29582915037</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2983596/29835967618.20211125191149.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2958291/29582915037.20220919183130.jpg</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>48460</t>
+          <t>2900</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
@@ -2006,12 +2006,12 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>로얄워터</t>
+          <t>양키캔들</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>로얄워터</t>
+          <t>양키캔들</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2041,22 +2041,22 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>토씨 클래시맨 명품 고급 차량용방향제 룸미러걸이형</t>
+          <t>루크타 도베르만 차량용 자동차 송풍구 차 고급 방향제 디퓨저 LT-DB01</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25695599950</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25380843939</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2569559/25695599950.20220704103706.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2538084/25380843939.20220113101814.jpg</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>85000</t>
+          <t>49000</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
@@ -2072,14 +2072,10 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>토씨</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>토씨</t>
-        </is>
-      </c>
+          <t>루크타</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2231,22 +2227,22 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>양키캔들 카자얼티메이트 차량용 방향제</t>
+          <t>플래트 고급 프로펠러 차량용 방향제 F430</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29582915037</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27806043522</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2958291/29582915037.20220919183130.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2780604/27806043522.20210701115440.jpg</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2930</t>
+          <t>41160</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
@@ -2262,14 +2258,10 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>양키캔들</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>양키캔들</t>
-        </is>
-      </c>
+          <t>플래트</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2297,22 +2289,22 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>플래트 고급 프로펠러 차량용 방향제 F430</t>
+          <t>토씨 클래시맨 명품 고급 차량용방향제 룸미러걸이형</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27806043522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25695599950</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2780604/27806043522.20210701115440.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2569559/25695599950.20220704103706.jpg</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>41230</t>
+          <t>85000</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
@@ -2328,10 +2320,14 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>플래트</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr"/>
+          <t>토씨</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>토씨</t>
+        </is>
+      </c>
       <c r="K31" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2359,37 +2355,45 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>미스터앤미세스 니키 클래식 차량용 방향제 본품</t>
+          <t>아뮈잔트 고급 차량용 방향제 명품 자동차 디퓨저 블랙 120ml</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25359648694</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=80920267289</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2535964/25359648694.20201224195431.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8092026/80920267289.12.jpg</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>6690</t>
+          <t>20000</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>아뮈잔트</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>아뮈잔트</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>아뮈잔트</t>
+        </is>
+      </c>
       <c r="K32" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2417,17 +2421,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>루크타 도베르만 차량용 자동차 송풍구 차 고급 방향제 디퓨저 LT-DB01</t>
+          <t>디프로젝트 디릴라고 고릴라 차량용 방향제</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25380843939</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26801331279</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2538084/25380843939.20220113101814.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2680133/26801331279.20211222172904.jpg</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2448,10 +2452,14 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>루크타</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr"/>
+          <t>디프로젝트</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>디프로젝트</t>
+        </is>
+      </c>
       <c r="K33" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2479,45 +2487,41 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>아뮈잔트 고급 차량용 방향제 명품 자동차 디퓨저 블랙 120ml</t>
+          <t>센트몬스터 고양이 차량용 방향제 고급 디퓨져</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=80920267289</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24163460435</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8092026/80920267289.12.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2416346/24163460435.20210124121840.jpg</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>20000</t>
+          <t>39000</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
-          <t>아뮈잔트</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>아뮈잔트</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>아뮈잔트</t>
-        </is>
-      </c>
+          <t>센트몬스터</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2545,22 +2549,22 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>픽도큐먼트 베어브릭 송풍구 차량용 방향제</t>
+          <t>미스터앤미세스 니키 클래식 차량용 방향제 본품</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29900193281</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25359648694</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2990019/29900193281.20211208030917.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2535964/25359648694.20201224195431.jpg</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>14800</t>
+          <t>6690</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
@@ -2603,22 +2607,22 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>센트몬스터 고양이 차량용 방향제 고급 디퓨져</t>
+          <t>디프로젝트 디버니 토끼 고급 차량용 방향제 자동차 디퓨저</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24163460435</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27331951522</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2416346/24163460435.20210124121840.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2733195/27331951522.20211222172819.jpg</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>39000</t>
+          <t>49000</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
@@ -2634,10 +2638,14 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>센트몬스터</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr"/>
+          <t>디프로젝트</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>디프로젝트</t>
+        </is>
+      </c>
       <c r="K36" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2665,22 +2673,22 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>디프로젝트 디버니 토끼 고급 차량용 방향제 자동차 디퓨저</t>
+          <t>불스원 그라스 디퓨저 블루 차량용 방향제 100ml</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27331951522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24063116873</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2733195/27331951522.20211222172819.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2406311/24063116873.20210111145156.jpg</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>49000</t>
+          <t>12180</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
@@ -2696,14 +2704,10 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>디프로젝트</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>디프로젝트</t>
-        </is>
-      </c>
+          <t>불스원</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2789,22 +2793,22 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>불스원 그라스 디퓨저 블루 차량용 방향제 100ml</t>
+          <t>제이앤컴퍼니 벨르아망 포켓몬 피규어 차량용 방향제</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24063116873</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=33464840631</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2406311/24063116873.20210111145156.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3346484/33464840631.20220713121644.jpg</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>12190</t>
+          <t>19800</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
@@ -2820,10 +2824,14 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>불스원</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr"/>
+          <t>벨르아망</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>제이앤컴퍼니</t>
+        </is>
+      </c>
       <c r="K39" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2851,22 +2859,22 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>딥티크 차량용방향제 세트 케이스 + 리필용 캡슐</t>
+          <t>디프로젝트 리필킷 디불 디버니 디릴라고 차량용방향제 자동차 디퓨저 고체 리필 DP-RF02</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28620531681</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18367838563</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2862053/28620531681.20220308051600.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1836783/18367838563.20211108142647.jpg</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>87900</t>
+          <t>13000</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
@@ -2882,10 +2890,14 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>딥티크</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr"/>
+          <t>디프로젝트</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>디프로젝트</t>
+        </is>
+      </c>
       <c r="K40" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2913,22 +2925,22 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>디프로젝트 리필킷 디불 디버니 디릴라고 차량용방향제 자동차 디퓨저 고체 리필 DP-RF02</t>
+          <t>딥티크 차량용방향제 세트 케이스 + 리필용 캡슐</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18367838563</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28620531681</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1836783/18367838563.20211108142647.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2862053/28620531681.20220308051600.jpg</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>13000</t>
+          <t>87900</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
@@ -2944,14 +2956,10 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>디프로젝트</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>디프로젝트</t>
-        </is>
-      </c>
+          <t>딥티크</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2979,22 +2987,22 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>제이앤컴퍼니 벨르아망 포켓몬 피규어 차량용 방향제</t>
+          <t>로베르타디까메리노 원형 대용량 방향제 100ml</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=33464840631</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=5640406696</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3346484/33464840631.20220713121644.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_5640406/5640406696.20190805143958.jpg</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>19800</t>
+          <t>13800</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
@@ -3010,12 +3018,12 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>벨르아망</t>
+          <t>로베르타디까메리노</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>제이앤컴퍼니</t>
+          <t>로베르타디까메리노</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -3045,22 +3053,22 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>로베르타디까메리노 원형 대용량 방향제 100ml</t>
+          <t>라라체리티 리얼 니치퍼퓸 입술 고급 차량용 방향제</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=5640406696</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=33210930858</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_5640406/5640406696.20190805143958.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3321093/33210930858.20220630133748.jpg</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>13800</t>
+          <t>39000</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
@@ -3074,16 +3082,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>로베르타디까메리노</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>로베르타디까메리노</t>
-        </is>
-      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3111,17 +3111,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>JW중외제약 피톤치드 차량용 방향제 피톤케어</t>
+          <t>센티스 캡시 차량용 방향제 프랑스 송풍구 디퓨저</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=12916212027</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30742420421</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1291621/12916212027.20220810105056.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3074242/30742420421.20220130232606.jpg</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -3140,16 +3140,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>JW중외제약</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>JW중외제약</t>
-        </is>
-      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3177,22 +3169,22 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>에이센트 네이처 차량용 디퓨저 방향제 120ml</t>
+          <t>PRE 피톤치드오일 차량용 방향제 다이케스팅 디퓨저</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27334130786</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27930349118</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2733413/27334130786.20211216041142.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2793034/27930349118.20210709220415.jpg</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>7900</t>
+          <t>23100</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
@@ -3206,11 +3198,7 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>에이센트</t>
-        </is>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
@@ -3239,22 +3227,22 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>산도깨비 차량용 멤브렌 리필 방향제</t>
+          <t>픽도큐먼트 베어브릭 송풍구 차량용 방향제</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25695237598</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29900193281</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2569523/25695237598.20220326034624.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2990019/29900193281.20211208030917.jpg</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>21500</t>
+          <t>14800</t>
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
@@ -3268,11 +3256,7 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>산도깨비</t>
-        </is>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
@@ -3301,45 +3285,41 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>조말론 딥티크 명품 니치향 차 방향제 벤츠 BMW 제네시스 고급 디퓨저</t>
+          <t>크로마치 고급 차량용 방향제 자동차 디퓨저 명품 차량 송풍구</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=84543919273</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31278229629</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8454391/84543919273.6.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3127822/31278229629.20220521051428.jpg</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>14900</t>
+          <t>65000</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
-          <t>센트데코</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>조말론</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>센트데코</t>
-        </is>
-      </c>
+          <t>크로마치</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3367,41 +3347,45 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>크로마치 고급 차량용 방향제 자동차 디퓨저 명품 차량 송풍구</t>
+          <t>조말론 딥티크 명품 니치향 차 방향제 벤츠 BMW 제네시스 고급 디퓨저</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31278229629</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=84543919273</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3127822/31278229629.20220521051428.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8454391/84543919273.6.jpg</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>65000</t>
+          <t>14900</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>센트데코</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>크로마치</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr"/>
+          <t>조말론</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>센트데코</t>
+        </is>
+      </c>
       <c r="K48" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3429,22 +3413,22 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>멜린 베어 파일럿 프로펠러 차량용 방향제</t>
+          <t>JW중외제약 피톤치드 차량용 방향제 피톤케어</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=33272908872</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=12916212027</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3327290/33272908872.20220704113112.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1291621/12916212027.20220810105056.jpg</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>19800</t>
+          <t>38000</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
@@ -3460,10 +3444,14 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>멜린</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr"/>
+          <t>JW중외제약</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>JW중외제약</t>
+        </is>
+      </c>
       <c r="K49" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3491,22 +3479,22 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>로베르타디까메리노 차량용 방향제 일반형3P 60ml</t>
+          <t>산도깨비 차량용 멤브렌 리필 방향제</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24030450488</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25695237598</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2403045/24030450488.20220305050205.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2569523/25695237598.20220326034624.jpg</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>15500</t>
+          <t>21500</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
@@ -3522,7 +3510,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>로베르타디까메리노</t>
+          <t>산도깨비</t>
         </is>
       </c>
       <c r="J50" t="inlineStr"/>
@@ -3553,22 +3541,22 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>JW중외제약 JW생활건강 피톤케어 차량용 방향제 리필 카트리지</t>
+          <t>로베르타디까메리노 차량용 방향제 일반형3P 60ml</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=15901498616</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24030450488</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1590149/15901498616.20211116120223.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2403045/24030450488.20220305050205.jpg</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>16900</t>
+          <t>15500</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
@@ -3584,14 +3572,10 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>JW생활건강</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>JW중외제약</t>
-        </is>
-      </c>
+          <t>로베르타디까메리노</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3619,22 +3603,22 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>제이엠제이라인 도슈아 차량용 방향제 리필 도자기</t>
+          <t>JW중외제약 JW생활건강 피톤케어 차량용 방향제 리필 카트리지</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20347407194</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=15901498616</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2034740/20347407194.20211001120304.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1590149/15901498616.20211116120223.jpg</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>16900</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
@@ -3650,12 +3634,12 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>도슈아</t>
+          <t>JW생활건강</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>제이엠제이라인</t>
+          <t>JW중외제약</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -3685,43 +3669,43 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>양키캔들 벤트스틱 차량용 방향제 4P입</t>
+          <t>스턴 디즈니 고급 차량용 방향제 자동차 디퓨저 송풍구 미키마우스</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=6552648097</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82863631854</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_6552648/6552648097.20190731160942.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8286363/82863631854.3.jpg</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>3030</t>
+          <t>34800</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>스턴</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>양키캔들</t>
+          <t>디즈니</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>양키캔들</t>
+          <t>에프티엘컴퍼니</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -3751,22 +3735,22 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>산도깨비 멤브렌 피톤치드 차량용 방향제 6g</t>
+          <t>우드어 심플 차량용 방향제</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20254478730</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=33382841447</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2025447/20254478730.20190716114220.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3338284/33382841447.20220709102853.jpg</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2090</t>
+          <t>28900</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
@@ -3780,16 +3764,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>산도깨비</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>산도깨비</t>
-        </is>
-      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3817,38 +3793,38 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>쓰리나인 바니버니 차량용방향제 고급 자동차 디퓨저 방향제</t>
+          <t>에이센트 네이처 차량용 디퓨저 방향제 120ml</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=84789784921</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27334130786</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8478978/84789784921.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2733413/27334130786.20211216041142.jpg</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>23000</t>
+          <t>7900</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
-          <t>THREENINE</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>쓰리나인</t>
+          <t>에이센트</t>
         </is>
       </c>
       <c r="J55" t="inlineStr"/>
@@ -3879,45 +3855,41 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>스턴 디즈니 고급 차량용 방향제 자동차 디퓨저 송풍구 미키마우스</t>
+          <t>오마르 퍼퓸베어 베어브릭 차량용방향제 기본형</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82863631854</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27192765898</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8286363/82863631854.3.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2719276/27192765898.20220330020644.jpg</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>34800</t>
+          <t>13900</t>
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
-          <t>스턴</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>디즈니</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>에프티엘컴퍼니</t>
-        </is>
-      </c>
+          <t>오마르</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3945,22 +3917,22 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>센티스 캡시 차량용 방향제 프랑스 송풍구 디퓨저</t>
+          <t>멜린 베어 파일럿 프로펠러 차량용 방향제</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30742420421</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=33272908872</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3074242/30742420421.20220130232606.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3327290/33272908872.20220704113112.jpg</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>38000</t>
+          <t>19800</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
@@ -3974,7 +3946,11 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I57" t="inlineStr"/>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>멜린</t>
+        </is>
+      </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
@@ -4003,36 +3979,40 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>라라체리티 리얼 니치퍼퓸 입술 고급 차량용 방향제</t>
+          <t>쓰리나인 바니버니 차량용방향제 고급 자동차 디퓨저 방향제</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=33210930858</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=84789784921</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3321093/33210930858.20220630133748.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8478978/84789784921.jpg</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>39000</t>
+          <t>23000</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>THREENINE</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr"/>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>쓰리나인</t>
+        </is>
+      </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
@@ -4061,22 +4041,22 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>PRE 피톤치드오일 차량용 방향제 다이케스팅 디퓨저</t>
+          <t>양키캔들 벤트스틱 차량용 방향제 4P입</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27930349118</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=6552648097</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2793034/27930349118.20210709220415.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_6552648/6552648097.20190731160942.jpg</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>23100</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
@@ -4090,8 +4070,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>양키캔들</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>양키캔들</t>
+        </is>
+      </c>
       <c r="K59" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4119,22 +4107,22 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>청개구리 멤브렌 방향제</t>
+          <t>산도깨비 멤브렌 피톤치드 차량용 방향제 6g</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29899764272</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20254478730</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2989976/29899764272.20211201020417.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2025447/20254478730.20190716114220.jpg</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>1690</t>
+          <t>2090</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
@@ -4148,8 +4136,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>산도깨비</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>산도깨비</t>
+        </is>
+      </c>
       <c r="K60" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4177,22 +4173,22 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>불스원 폴라프레쉬 선바이저 차량용 방향제</t>
+          <t>제이엠제이라인 도슈아 차량용 방향제 리필 도자기</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24165357120</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20347407194</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2416535/24165357120.20220616110219.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2034740/20347407194.20211001120304.jpg</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
@@ -4208,12 +4204,12 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>불스원</t>
+          <t>도슈아</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>불스원</t>
+          <t>제이엠제이라인</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -4243,22 +4239,22 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>불스원 그라스 디퓨저 블랙베리 체리 방향제 105ml</t>
+          <t>불스원 폴라프레쉬 선바이저 차량용 방향제</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26677172452</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24165357120</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2667717/26677172452.20210407202430.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2416535/24165357120.20220616110219.jpg</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>9800</t>
+          <t>2500</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
@@ -4309,22 +4305,22 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>아우라 카카오 모니터걸이형 방향제 라이언 10g</t>
+          <t>제이앤컴퍼니 벨르아망 차량용방향제 에어도넛 리필키트</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24014062100</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28686680816</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2401406/24014062100.20200903003222.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2868668/28686680816.20220614133410.jpg</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>12900</t>
+          <t>6000</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
@@ -4338,8 +4334,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>벨르아망</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>제이앤컴퍼니</t>
+        </is>
+      </c>
       <c r="K63" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4367,22 +4371,22 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>미키큐빅 엠블럼 방향제</t>
+          <t>P&amp;amp;G 페브리즈 차량용 방향제 2.2ml</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29614058913</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20397190459</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2961405/29614058913.20211110030633.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2039719/20397190459.20190726113415.jpg</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>15800</t>
+          <t>7650</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
@@ -4396,8 +4400,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>페브리즈</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>P&amp;G</t>
+        </is>
+      </c>
       <c r="K64" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4425,22 +4437,22 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>우드어 심플 차량용 방향제</t>
+          <t>더드림 꽃 베어브릭 석고 차량용 방향제</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=33382841447</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27124471579</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3338284/33382841447.20220709102853.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2712447/27124471579.20210512182954.jpg</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>28900</t>
+          <t>11700</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
@@ -4454,7 +4466,11 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I65" t="inlineStr"/>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>더드림</t>
+        </is>
+      </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
@@ -4483,41 +4499,45 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>오마르 퍼퓸베어 베어브릭 차량용방향제 기본형</t>
+          <t>벤볼릭 명품 차량용 방향제 고급 송풍구 자동차 차량 디퓨져</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27192765898</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82293143959</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2719276/27192765898.20220330020644.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8229314/82293143959.16.jpg</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>13900</t>
+          <t>28000</t>
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>매드포모던</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>오마르</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr"/>
+          <t>벤볼릭</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>키니캔들</t>
+        </is>
+      </c>
       <c r="K66" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4545,40 +4565,36 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>더드림 꽃 베어브릭 석고 차량용 방향제</t>
+          <t>리틀트리 TREE 차량용 실내용 걸이형 종이 페이퍼 옷장 방향제</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27124471579</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82937356876</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2712447/27124471579.20210512182954.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8293735/82937356876.1.jpg</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11700</t>
+          <t>1050</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>프랜드캣</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>더드림</t>
-        </is>
-      </c>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
@@ -4607,37 +4623,45 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>리틀트리 TREE 차량용 실내용 걸이형 종이 페이퍼 옷장 방향제</t>
+          <t>제로스킨 로보트 태권브이 차량용 방향제 자동차 디퓨저 AD-KF90</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82937356876</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29535937618</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8293735/82937356876.1.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2953593/29535937618.20211216102403.jpg</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>1050</t>
+          <t>46340</t>
         </is>
       </c>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr">
         <is>
-          <t>프랜드캣</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
+          <t>일반 - 가격비교 상품</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>제로스킨</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>제로스킨</t>
+        </is>
+      </c>
       <c r="K68" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4665,22 +4689,22 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>명품고급디퓨저 마일론 갤러리1 차량용 방향제 MGAL-01</t>
+          <t>아우라 카카오 모니터걸이형 방향제 라이언 10g</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30352215619</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24014062100</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3035221/30352215619.20220102155103.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2401406/24014062100.20200903003222.jpg</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>48900</t>
+          <t>12900</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
@@ -4694,16 +4718,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>마일론</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>명품고급디퓨저</t>
-        </is>
-      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4731,22 +4747,22 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>제로스킨 로보트 태권브이 차량용 방향제 자동차 디퓨저 AD-KF90</t>
+          <t>명품고급디퓨저 마일론 갤러리1 차량용 방향제 MGAL-01</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29535937618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30352215619</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2953593/29535937618.20211216102403.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3035221/30352215619.20220102155103.jpg</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>46340</t>
+          <t>48900</t>
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
@@ -4762,12 +4778,12 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>제로스킨</t>
+          <t>마일론</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>제로스킨</t>
+          <t>명품고급디퓨저</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -4797,22 +4813,22 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>제이앤컴퍼니 벨르아망 차량용방향제 에어도넛 리필키트</t>
+          <t>미스터앤미세스 체사레 시저 차량용 방향제</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28686680816</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=8119194241</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2868668/28686680816.20220614133410.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8119194/8119194241.20190802121728.jpg</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>6000</t>
+          <t>7000</t>
         </is>
       </c>
       <c r="F71" t="inlineStr"/>
@@ -4826,16 +4842,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>벨르아망</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>제이앤컴퍼니</t>
-        </is>
-      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4863,22 +4871,22 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>P&amp;amp;G 페브리즈 차량용 방향제 2.2ml</t>
+          <t>불스원 그라스 디퓨저 블랙베리 체리 방향제 105ml</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20397190459</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26677172452</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2039719/20397190459.20190726113415.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2667717/26677172452.20210407202430.jpg</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>7650</t>
+          <t>9800</t>
         </is>
       </c>
       <c r="F72" t="inlineStr"/>
@@ -4894,12 +4902,12 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>페브리즈</t>
+          <t>불스원</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>P&amp;G</t>
+          <t>불스원</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -4929,28 +4937,28 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>벤볼릭 명품 차량용 방향제 고급 송풍구 자동차 차량 디퓨져</t>
+          <t>딥티크 차량용 방향제 케이스와 리필 9종</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82293143959</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=11913172090</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8229314/82293143959.16.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1191317/11913172090.7.jpg</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>28000</t>
+          <t>44950</t>
         </is>
       </c>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr">
         <is>
-          <t>매드포모던</t>
+          <t>SmartBuying</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -4960,12 +4968,12 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>벤볼릭</t>
+          <t>딥티크</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>키니캔들</t>
+          <t>딥티크</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -5185,22 +5193,22 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>미스터앤미세스 체사레 시저 차량용 방향제</t>
+          <t>리틀조 이태리 방향제</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=8119194241</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24014951999</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8119194/8119194241.20190802121728.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2401495/24014951999.20200903022656.jpg</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>7000</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="F77" t="inlineStr"/>
@@ -5243,22 +5251,22 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>명품고급디퓨저 마일론 갤러리2 차량용 방향제 MGAL-02</t>
+          <t>로베르타디까메리노 액상 클립 통풍구 에어컨 차량용 방향제</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30441772620</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=32628653367</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3044177/30441772620.20220204192733.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3262865/32628653367.20220528094208.jpg</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>49000</t>
+          <t>11900</t>
         </is>
       </c>
       <c r="F78" t="inlineStr"/>
@@ -5274,14 +5282,10 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>마일론</t>
-        </is>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>명품고급디퓨저</t>
-        </is>
-      </c>
+          <t>로베르타디까메리노</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -5309,33 +5313,33 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>차량용 방향제 인테리어 나이키 조던 농구화 송풍구 타입 방향제</t>
+          <t>미키큐빅 엠블럼 방향제</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=84595753276</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29614058913</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8459575/84595753276.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2961405/29614058913.20211110030633.jpg</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>16400</t>
+          <t>15800</t>
         </is>
       </c>
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr">
         <is>
-          <t>가람스스토어</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
@@ -5367,37 +5371,45 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>로베르타 디까메리노 차량용 방향제 100ml</t>
+          <t>딥디크 차량용 방향제 리필 9종</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26801962830</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=84313412976</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2680196/26801962830.20220217035825.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8431341/84313412976.jpg</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>8300</t>
+          <t>24500</t>
         </is>
       </c>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>신장로</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>딥티크</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>딥티크</t>
+        </is>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -5425,43 +5437,43 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>딥디크 차량용 방향제 리필 9종</t>
+          <t>명품고급디퓨저 마일론 갤러리2 차량용 방향제 MGAL-02</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=84313412976</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30441772620</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8431341/84313412976.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3044177/30441772620.20220204192733.jpg</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>24500</t>
+          <t>49000</t>
         </is>
       </c>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr">
         <is>
-          <t>신장로</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>딥티크</t>
+          <t>마일론</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>딥티크</t>
+          <t>명품고급디퓨저</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -5491,22 +5503,22 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>피톤치드 차량용 방향제 제스퍼 에어피톤 배터리형</t>
+          <t>청개구리 멤브렌 방향제</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27705110029</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29899764272</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2770511/27705110029.20220301141146.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2989976/29899764272.20211201020417.jpg</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>47990</t>
+          <t>1690</t>
         </is>
       </c>
       <c r="F82" t="inlineStr"/>
@@ -5549,33 +5561,33 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>코코쥬 차량용 방향제 송풍구 자동차 디퓨저 차 선물 2IN1</t>
+          <t>미스터앤미세스 니키 리필 차량용 방향제</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=32801292390</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=10017842540</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3280129/32801292390.20220608090651.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1001784/10017842540.17.jpg</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>46900</t>
+          <t>7200</t>
         </is>
       </c>
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>반도향기나라</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I83" t="inlineStr"/>
@@ -5607,22 +5619,22 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>리틀조 이태리 방향제</t>
+          <t>로베르타 디까메리노 차량용 방향제 100ml</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24014951999</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26801962830</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2401495/24014951999.20200903022656.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2680196/26801962830.20220217035825.jpg</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>8300</t>
         </is>
       </c>
       <c r="F84" t="inlineStr"/>
@@ -5665,37 +5677,45 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>미스터앤미세스 니키 리필 차량용 방향제</t>
+          <t>KAN 뷰센트 자동차 송풍구 메탈 차량용 방향제 선물 2세트</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=10017842540</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31597320645</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1001784/10017842540.17.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3159732/31597320645.20220429115323.jpg</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>7200</t>
+          <t>25900</t>
         </is>
       </c>
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr">
         <is>
-          <t>반도향기나라</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
+          <t>일반 - 가격비교 상품</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>뷰센트</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>KAN</t>
+        </is>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -5723,22 +5743,22 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>로베르타디까메리노 액상 클립 통풍구 에어컨 차량용 방향제</t>
+          <t>피톤치드 차량용 방향제 제스퍼 에어피톤 배터리형</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=32628653367</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27705110029</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3262865/32628653367.20220528094208.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2770511/27705110029.20220301141146.jpg</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>11900</t>
+          <t>47990</t>
         </is>
       </c>
       <c r="F86" t="inlineStr"/>
@@ -5752,11 +5772,7 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>로베르타디까메리노</t>
-        </is>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
@@ -5851,22 +5867,22 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>KAN 뷰센트 자동차 송풍구 메탈 차량용 방향제 선물 2세트</t>
+          <t>코코쥬 차량용 방향제 송풍구 자동차 디퓨저 차 선물 2IN1</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31597320645</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=32801292390</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3159732/31597320645.20220429115323.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3280129/32801292390.20220608090651.jpg</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>25900</t>
+          <t>46900</t>
         </is>
       </c>
       <c r="F88" t="inlineStr"/>
@@ -5880,16 +5896,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>뷰센트</t>
-        </is>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>KAN</t>
-        </is>
-      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -5917,43 +5925,43 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>딥티크 차량용 방향제 케이스와 리필 9종</t>
+          <t>캘리포니아센트 카센트 차량용 방향제</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=11913172090</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20309241612</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1191317/11913172090.7.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2030924/20309241612.20190719121300.jpg</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>44950</t>
+          <t>3470</t>
         </is>
       </c>
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr">
         <is>
-          <t>SmartBuying</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>딥티크</t>
+          <t>캘리포니아센트</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>딥티크</t>
+          <t>캘리포니아센트</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -5983,45 +5991,37 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>캘리포니아센트 캔타입 방향제 15종 모음</t>
+          <t>미스터앤미세스 니키 본품 리필 차량용방향제</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=83239063403</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26483808112</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8323906/83239063403.2.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2648380/26483808112.20220307013200.jpg</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>4300</t>
+          <t>7000</t>
         </is>
       </c>
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr">
         <is>
-          <t>캘리포니아센트 공식대리점</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
-        </is>
-      </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>캘리포니아센트</t>
-        </is>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>에너자이저</t>
-        </is>
-      </c>
+          <t>일반 - 가격비교 상품</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -6049,22 +6049,22 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>캘리포니아센트 카센트 차량용 방향제</t>
+          <t>라미유 차량용 고급 송풍구 방향제 블랙체리향</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20309241612</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30586965618</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2030924/20309241612.20190719121300.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3058696/30586965618.20220421134837.jpg</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>3470</t>
+          <t>12720</t>
         </is>
       </c>
       <c r="F91" t="inlineStr"/>
@@ -6080,12 +6080,12 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>캘리포니아센트</t>
+          <t>라미유</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>캘리포니아센트</t>
+          <t>라미유</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -6115,38 +6115,38 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>아이수피아 피톤치드 아로마 차량용 방향제</t>
+          <t>조말론 차량용 방향제 센트투고 명품향수 고급 디퓨저 거치대</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24046697950</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=83025886866</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2404669/24046697950.20200905000355.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8302588/83025886866.1.jpg</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>15950</t>
+          <t>48500</t>
         </is>
       </c>
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>홍콩걸즈</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>아이수피아</t>
+          <t>조말론</t>
         </is>
       </c>
       <c r="J92" t="inlineStr"/>
@@ -6177,45 +6177,41 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>도그독 5세대 차량용 방향제 명품 고급 프렌치 크리스탈 불독 자동차 디퓨저</t>
+          <t>페브리즈 차량용 방향제 6개입</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=84432459091</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28545855511</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8443245/84432459091.2.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2854585/28545855511.20220405030723.jpg</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>39000</t>
+          <t>13900</t>
         </is>
       </c>
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr">
         <is>
-          <t>주식회사 도그독</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>도그독</t>
-        </is>
-      </c>
-      <c r="J93" t="inlineStr">
-        <is>
-          <t>도그독</t>
-        </is>
-      </c>
+          <t>페브리즈</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -6243,37 +6239,45 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>올리바노 메탈 엠블럼 차량용 방향제 송풍구형 리필형</t>
+          <t>벨르아망 포켓몬스터 빅페이스 차량용 디퓨저 방향제 새차 선물 피카츄</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28618378553</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=84367332534</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2861837/28618378553.20210828185043.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8436733/84367332534.3.jpg</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>18800</t>
+          <t>19800</t>
         </is>
       </c>
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>BELLE AMANT</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
-        </is>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>벨르아망</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>제이앤컴퍼니</t>
+        </is>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -6301,43 +6305,43 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>양키캔들 차량용 방향제 카자 얼티메이트 자동차 선물</t>
+          <t>불스원 그라스 오브제 디퓨저 차량용 방향제 100ml</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=7761281078</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30425453618</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_7761281/7761281078.11.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3042545/30425453618.20220105100536.jpg</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>3450</t>
+          <t>17500</t>
         </is>
       </c>
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr">
         <is>
-          <t>미베스트</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>양키캔들</t>
+          <t>불스원</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>양키캔들</t>
+          <t>불스원</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -6367,22 +6371,22 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>리빙인아로마 쿤달 퍼퓸 차량용 디퓨저 75ml</t>
+          <t>올리바노 메탈 엠블럼 차량용 방향제 송풍구형 리필형</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24803290609</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28618378553</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2480329/24803290609.20220826152350.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2861837/28618378553.20210828185043.jpg</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>12500</t>
+          <t>18800</t>
         </is>
       </c>
       <c r="F96" t="inlineStr"/>
@@ -6396,16 +6400,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>쿤달</t>
-        </is>
-      </c>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>리빙인아로마</t>
-        </is>
-      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -6433,41 +6429,45 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>센트몬스터 고체형 리필 카트리지 차량용 방향제</t>
+          <t>캘리포니아센트 캔타입 방향제 15종 모음</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24073927844</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=83239063403</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2407392/24073927844.20200907231713.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8323906/83239063403.2.jpg</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>5500</t>
+          <t>4300</t>
         </is>
       </c>
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>캘리포니아센트 공식대리점</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>센트몬스터</t>
-        </is>
-      </c>
-      <c r="J97" t="inlineStr"/>
+          <t>캘리포니아센트</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>에너자이저</t>
+        </is>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -6495,43 +6495,43 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>불스원 폴라프레쉬 NEW 선바이저 차량용 방향제</t>
+          <t>이태리 명품 미스터앤미세스 니키 본품 사람모양 차량용 고급 방향제</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29422282618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82616087203</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2942228/29422282618.20211027100552.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8261608/82616087203.jpg</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>6900</t>
+          <t>16000</t>
         </is>
       </c>
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>도근도근 하냥</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>불스원</t>
+          <t>미스터앤미세스이태리</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>불스원</t>
+          <t>미스터앤미세스이태리</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -6561,22 +6561,22 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>레아린 차량용 천연 아로마 방향제 120ml</t>
+          <t>프레이 카프레쉬너 차량용 종이방향제</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29110904900</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24063016236</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2911090/29110904900.20220402101727.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2406301/24063016236.20220212033525.jpg</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>24500</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="F99" t="inlineStr"/>
@@ -6619,22 +6619,22 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>불스원 그라스 오브제 디퓨저 차량용 방향제 100ml</t>
+          <t>불스원 폴라프레쉬 NEW 선바이저 차량용 방향제</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30425453618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29422282618</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3042545/30425453618.20220105100536.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2942228/29422282618.20211027100552.jpg</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>17500</t>
+          <t>6900</t>
         </is>
       </c>
       <c r="F100" t="inlineStr"/>
@@ -6685,22 +6685,22 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>카프레쉬너 차량용 종이방향제 9종</t>
+          <t>밀레피오리 차량용 방향제 ICON 카에어프레쉬너</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24063016236</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24013937164</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2406301/24063016236.20220212033525.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2401393/24013937164.20200902235225.jpg</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>1300</t>
+          <t>15390</t>
         </is>
       </c>
       <c r="F101" t="inlineStr"/>
@@ -6714,7 +6714,11 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I101" t="inlineStr"/>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>밀레피오리</t>
+        </is>
+      </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>

--- a/output.xlsx
+++ b/output.xlsx
@@ -449,7 +449,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3084133/30841337224.20220811101831.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3084133/30841337224.20221012115129.jpg</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -501,22 +501,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>에이비 베어브릭 차량용방향제 석고 고급 디퓨저 차방향제  ab-df01</t>
+          <t>아트센트 천연소가죽 차량용 방향제</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27765010523</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30479265972</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2776501/27765010523.20220905133151.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3047926/30479265972.20220609124802.jpg</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11900</t>
+          <t>38900</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
@@ -530,16 +530,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>에이비</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>에이비</t>
-        </is>
-      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -567,22 +559,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>아트센트 천연소가죽 차량용 방향제</t>
+          <t>명품고급디퓨저 마일론 갤러리3 차량용 방향제 MGAL-03</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30479265972</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31231762618</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3047926/30479265972.20220609124802.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3123176/31231762618.20220310141449.jpg</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>38900</t>
+          <t>39900</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
@@ -596,8 +588,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>마일론</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>명품고급디퓨저</t>
+        </is>
+      </c>
       <c r="K4" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -625,22 +625,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>명품고급디퓨저 마일론 갤러리3 차량용 방향제 MGAL-03</t>
+          <t>에이비 베어브릭 차량용방향제 석고 고급 디퓨저 차방향제  ab-df01</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31231762618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27765010523</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3123176/31231762618.20220310141449.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2776501/27765010523.20220905133151.jpg</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>39900</t>
+          <t>11900</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
@@ -656,12 +656,12 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>마일론</t>
+          <t>에이비</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>명품고급디퓨저</t>
+          <t>에이비</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -691,22 +691,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>불스원 그라스 디퓨져 차량용 방향제 105ml</t>
+          <t>제이엠제이라인 도슈아 클래식 프리미엄 차량용 방향제</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=12140232094</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=17787594512</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1214023/12140232094.20211006140204.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1778759/17787594512.20210802225254.jpg</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>8570</t>
+          <t>29750</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
@@ -722,12 +722,12 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>불스원</t>
+          <t>도슈아</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>불스원</t>
+          <t>제이엠제이라인</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -757,22 +757,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>라피네르 로얄스페이드 듀오 차량용방향제</t>
+          <t>엠퓨처 불독 송풍구 고급 차량용 방향제 디퓨저 MF-CAF02</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30565184917</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30458791731</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3056518/30565184917.20220922163942.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3045879/30458791731.20220117151934.jpg</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>39780</t>
+          <t>14890</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
@@ -788,14 +788,10 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>라피네르</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>라피네르</t>
-        </is>
-      </c>
+          <t>엠퓨처</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -823,45 +819,41 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>제이엠제이라인 도슈아 클래식 프리미엄 차량용 방향제</t>
+          <t>천연차량방향제 3개세트 송풍구거치형</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=17787594512</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=81628659125</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1778759/17787594512.20210802225254.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8162865/81628659125.5.jpg</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>29750</t>
+          <t>38000</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>아이수피아1</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>도슈아</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>제이엠제이라인</t>
-        </is>
-      </c>
+          <t>아이수피아</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -889,22 +881,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>엠퓨처 불독 송풍구 고급 차량용 방향제 디퓨저 MF-CAF02</t>
+          <t>불스원 그라스 디퓨져 차량용 방향제 105ml</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30458791731</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=12140232094</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3045879/30458791731.20220117151934.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1214023/12140232094.20211006140204.jpg</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>14890</t>
+          <t>8570</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
@@ -920,10 +912,14 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>엠퓨처</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr"/>
+          <t>불스원</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>불스원</t>
+        </is>
+      </c>
       <c r="K9" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -951,41 +947,45 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>천연차량방향제 3개세트 송풍구거치형</t>
+          <t>불스원 폴라프레쉬 선바이저 방향제 리필</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=81628659125</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=17787599329</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8162865/81628659125.5.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1778759/17787599329.20220107133652.jpg</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>38000</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
-          <t>아이수피아1</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>아이수피아</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr"/>
+          <t>불스원</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>불스원</t>
+        </is>
+      </c>
       <c r="K10" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1013,22 +1013,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>리틀트리 걸이형 종이 방향제</t>
+          <t>라피네르 로얄스페이드 듀오 차량용방향제</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=7162545992</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30565184917</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_7162545/7162545992.20190731170829.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3056518/30565184917.20220922163942.jpg</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1080</t>
+          <t>39780</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
@@ -1042,8 +1042,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>라피네르</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>라피네르</t>
+        </is>
+      </c>
       <c r="K11" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1071,45 +1079,41 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>불스원 폴라프레쉬 선바이저 방향제 리필</t>
+          <t>1+1 에이센트 네이처 차량용 방향제 120ml</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=17787599329</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=84487319234</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1778759/17787599329.20220107133652.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8448731/84487319234.jpg</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>12900</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>에이센트ASCENT</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>불스원</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>불스원</t>
-        </is>
-      </c>
+          <t>에이센트</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1199,22 +1203,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>엠퓨처 하트 송풍구 고급 차량용 방향제 디퓨저 MF-CAF03</t>
+          <t>ELLA 프라임 호랑이 차량용 방향제 프로펠러</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31484465959</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30617053618</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3148446/31484465959.20220328053622.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3061705/30617053618.20220120171741.jpg</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>13900</t>
+          <t>29700</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
@@ -1230,7 +1234,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>엠퓨처</t>
+          <t>ELLA</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
@@ -1261,22 +1265,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ELLA 프라임 호랑이 차량용 방향제 프로펠러</t>
+          <t>엠퓨처 하트 송풍구 고급 차량용 방향제 디퓨저 MF-CAF03</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30617053618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31484465959</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3061705/30617053618.20220120171741.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3148446/31484465959.20220328053622.jpg</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>29600</t>
+          <t>13900</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
@@ -1292,7 +1296,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>ELLA</t>
+          <t>엠퓨처</t>
         </is>
       </c>
       <c r="J15" t="inlineStr"/>
@@ -1385,43 +1389,43 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>아뮈잔트 고급 차량용 방향제 명품 자동차 디퓨저 블랙 120ml</t>
+          <t>이븐도우 생귄 쥬얼리 클립 차량용 방향제</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=80920267289</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=19103746764</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8092026/80920267289.12.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1910374/19103746764.20220213194209.jpg</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>20000</t>
+          <t>32800</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
-          <t>아뮈잔트</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>아뮈잔트</t>
+          <t>생귄</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>아뮈잔트</t>
+          <t>이븐도우</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1451,22 +1455,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>디프로젝트 디불 불독 고급 차량용 방향제 자동차 디퓨저</t>
+          <t>리틀트리 걸이형 종이 방향제</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=13697148540</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=7162545992</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1369714/13697148540.20211222172941.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_7162545/7162545992.20190731170829.jpg</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>49000</t>
+          <t>1100</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
@@ -1480,16 +1484,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>디프로젝트</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>디프로젝트</t>
-        </is>
-      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1517,43 +1513,43 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>센트데코 후드독 차량용 방향제 SCD-01</t>
+          <t>아뮈잔트 고급 차량용 방향제 명품 자동차 디퓨저 블랙 120ml</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30570794618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=80920267289</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3057079/30570794618.20220925133647.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8092026/80920267289.12.jpg</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>28900</t>
+          <t>20000</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>아뮈잔트</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>센트데코</t>
+          <t>아뮈잔트</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>센트데코</t>
+          <t>아뮈잔트</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1583,22 +1579,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>이븐도우 생귄 쥬얼리 클립 차량용 방향제</t>
+          <t>마블 스턴 아이언맨 차량용 방향제 ST-IM01</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=19103746764</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30644523374</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1910374/19103746764.20220213194209.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3064452/30644523374.20220923101852.jpg</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>32800</t>
+          <t>34800</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
@@ -1614,14 +1610,10 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>생귄</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>이븐도우</t>
-        </is>
-      </c>
+          <t>마블</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1649,41 +1641,45 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>잉글리쉬페어 라임바질 베이 대용량 센트247 명품 고급 벤츠차량용방향제 디퓨저 120ml</t>
+          <t>에이비 차량용 방향제 도베르만 고급 AB-DF04</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82876701063</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30317520568</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8287670/82876701063.7.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3031752/30317520568.20220110102207.jpg</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>27900</t>
+          <t>27500</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
-          <t>센트247 SCENT247</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>조말론</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr"/>
+          <t>에이비</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>에이비</t>
+        </is>
+      </c>
       <c r="K21" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1711,22 +1707,22 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>언더스코어 젠틀맨 프리미엄 차량용 방향제 디퓨저</t>
+          <t>에이비 큐빅베어브릭 차량용 방향제 AB-DF02</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27137540258</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27944185800</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2713754/27137540258.20210708110811.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2794418/27944185800.20220908171344.jpg</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>30450</t>
+          <t>17900</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
@@ -1742,12 +1738,12 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>언더스코어</t>
+          <t>에이비</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>언더스코어</t>
+          <t>에이비</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1777,45 +1773,41 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>양키캔들 카자얼티메이트 차량용 방향제</t>
+          <t>잉글리쉬페어 라임바질 베이 대용량 센트247 명품 고급 벤츠차량용방향제 디퓨저 120ml</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29582915037</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82876701063</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2958291/29582915037.20220919183130.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8287670/82876701063.7.jpg</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2690</t>
+          <t>27900</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>센트247 SCENT247</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>양키캔들</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>양키캔들</t>
-        </is>
-      </c>
+          <t>조말론</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1843,22 +1835,22 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>불스원 그라스 디퓨저 블루 차량용 방향제 100ml</t>
+          <t>센트데코 후드독 차량용 방향제 SCD-01</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24063116873</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30570794618</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2406311/24063116873.20210111145156.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3057079/30570794618.20220925133647.jpg</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>12180</t>
+          <t>28900</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
@@ -1874,10 +1866,14 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>불스원</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr"/>
+          <t>센트데코</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>센트데코</t>
+        </is>
+      </c>
       <c r="K24" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1905,22 +1901,22 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>에이비 큐빅베어브릭 차량용 방향제 AB-DF02</t>
+          <t>디프로젝트 디불 불독 고급 차량용 방향제 자동차 디퓨저</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27944185800</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=13697148540</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2794418/27944185800.20220908171344.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1369714/13697148540.20211222172941.jpg</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>17900</t>
+          <t>49000</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
@@ -1936,12 +1932,12 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>에이비</t>
+          <t>디프로젝트</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>에이비</t>
+          <t>디프로젝트</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -1971,41 +1967,45 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1+1 에이센트 네이처 차량용 방향제 120ml</t>
+          <t>양키캔들 카자얼티메이트 차량용 방향제</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=84487319234</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29582915037</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8448731/84487319234.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2958291/29582915037.20220919183130.jpg</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>12900</t>
+          <t>2650</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
-          <t>에이센트ASCENT</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>에이센트</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr"/>
+          <t>양키캔들</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>양키캔들</t>
+        </is>
+      </c>
       <c r="K26" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2033,22 +2033,22 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>마블 스턴 아이언맨 차량용 방향제 ST-IM01</t>
+          <t>언더스코어 젠틀맨 프리미엄 차량용 방향제 디퓨저</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30644523374</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27137540258</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3064452/30644523374.20220923101852.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2713754/27137540258.20210708110811.jpg</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>34800</t>
+          <t>30450</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
@@ -2064,10 +2064,14 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>마블</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr"/>
+          <t>언더스코어</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>언더스코어</t>
+        </is>
+      </c>
       <c r="K27" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2161,22 +2165,22 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>에이비 차량용 방향제 도베르만 고급 AB-DF04</t>
+          <t>불스원 그라스 디퓨저 블루 차량용 방향제 100ml</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30317520568</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24063116873</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3031752/30317520568.20220110102207.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2406311/24063116873.20210111145156.jpg</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>27500</t>
+          <t>12100</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
@@ -2192,14 +2196,10 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>에이비</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>에이비</t>
-        </is>
-      </c>
+          <t>불스원</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2227,22 +2227,22 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>디프로젝트 디릴라고 고릴라 차량용 방향제</t>
+          <t>로베르타디까메리노 원형 대용량 방향제 100ml</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26801331279</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=5640406696</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2680133/26801331279.20211222172904.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_5640406/5640406696.20190805143958.jpg</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>49000</t>
+          <t>13800</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
@@ -2258,12 +2258,12 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>디프로젝트</t>
+          <t>로베르타디까메리노</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>디프로젝트</t>
+          <t>로베르타디까메리노</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2293,22 +2293,22 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>로베르타디까메리노 원형 대용량 방향제 100ml</t>
+          <t>미스터앤미세스 니키 차량용 방향제 리필</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=5640406696</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=10149695240</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_5640406/5640406696.20190805143958.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1014969/10149695240.20201014180005.jpg</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>13800</t>
+          <t>5900</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
@@ -2322,16 +2322,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>로베르타디까메리노</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>로베르타디까메리노</t>
-        </is>
-      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2359,22 +2351,22 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>미스터앤미세스 니키 차량용 방향제 리필</t>
+          <t>로베르타디까메리노 차량용 방향제 일반형3P 60ml</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=10149695240</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24030450488</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1014969/10149695240.20201014180005.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2403045/24030450488.20220305050205.jpg</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>5900</t>
+          <t>15480</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
@@ -2388,7 +2380,11 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr"/>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>로베르타디까메리노</t>
+        </is>
+      </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
@@ -2417,22 +2413,22 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>미스터앤미세스 니키 클래식 차량용 방향제 본품</t>
+          <t>디프로젝트 리필킷 디불 디버니 디릴라고 차량용방향제 자동차 디퓨저 고체 리필 DP-RF02</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25359648694</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18367838563</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2535964/25359648694.20201224195431.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1836783/18367838563.20211108142647.jpg</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>6890</t>
+          <t>13000</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
@@ -2446,8 +2442,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>디프로젝트</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>디프로젝트</t>
+        </is>
+      </c>
       <c r="K33" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2475,22 +2479,22 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>디프로젝트 리필킷 디불 디버니 디릴라고 차량용방향제 자동차 디퓨저 고체 리필 DP-RF02</t>
+          <t>디프로젝트 디릴라고 고릴라 차량용 방향제</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18367838563</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26801331279</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1836783/18367838563.20211108142647.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2680133/26801331279.20211222172904.jpg</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>13000</t>
+          <t>49000</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
@@ -2541,22 +2545,22 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>센트몬스터 고양이 차량용 방향제 고급 디퓨져</t>
+          <t>미스터앤미세스 니키 클래식 차량용 방향제 본품</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24163460435</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25359648694</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2416346/24163460435.20210124121840.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2535964/25359648694.20201224195431.jpg</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>39000</t>
+          <t>6890</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
@@ -2570,11 +2574,7 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>센트몬스터</t>
-        </is>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
@@ -2603,28 +2603,28 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>딥티크 차량용 방향제 케이스와 리필 9종</t>
+          <t>조말론 딥티크 명품 니치향 차 방향제 벤츠 BMW 제네시스 고급 디퓨저</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=11913172090</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=84543919273</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1191317/11913172090.7.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8454391/84543919273.6.jpg</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>45560</t>
+          <t>14900</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
-          <t>SmartBuying</t>
+          <t>센트데코</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2634,12 +2634,12 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>딥티크</t>
+          <t>조말론</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>딥티크</t>
+          <t>센트데코</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2669,45 +2669,41 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>조말론 딥티크 명품 니치향 차 방향제 벤츠 BMW 제네시스 고급 디퓨저</t>
+          <t>플래트 고급 프로펠러 차량용 방향제 F430</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=84543919273</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27806043522</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8454391/84543919273.6.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2780604/27806043522.20210701115440.jpg</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>14900</t>
+          <t>40650</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
-          <t>센트데코</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>조말론</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>센트데코</t>
-        </is>
-      </c>
+          <t>플래트</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2735,22 +2731,22 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>플래트 고급 프로펠러 차량용 방향제 F430</t>
+          <t>센트몬스터 고양이 차량용 방향제 고급 디퓨져</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27806043522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24163460435</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2780604/27806043522.20210701115440.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2416346/24163460435.20210124121840.jpg</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>40720</t>
+          <t>39000</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
@@ -2766,7 +2762,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>플래트</t>
+          <t>센트몬스터</t>
         </is>
       </c>
       <c r="J38" t="inlineStr"/>
@@ -2797,22 +2793,22 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>제이앤컴퍼니 벨르아망 포켓몬 피규어 차량용 방향제</t>
+          <t>JW중외제약 피톤치드 차량용 방향제 피톤케어</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=33464840631</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=12916212027</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3346484/33464840631.20220713121644.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1291621/12916212027.20220810105056.jpg</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>19800</t>
+          <t>38000</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
@@ -2828,12 +2824,12 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>벨르아망</t>
+          <t>JW중외제약</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>제이앤컴퍼니</t>
+          <t>JW중외제약</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -2863,22 +2859,22 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>로베르타디까메리노 차량용 방향제 일반형3P 60ml</t>
+          <t>제이앤컴퍼니 벨르아망 포켓몬 피규어 차량용 방향제</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24030450488</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=33464840631</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2403045/24030450488.20220305050205.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3346484/33464840631.20220713121644.jpg</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>15490</t>
+          <t>19800</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
@@ -2894,10 +2890,14 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>로베르타디까메리노</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr"/>
+          <t>벨르아망</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>제이앤컴퍼니</t>
+        </is>
+      </c>
       <c r="K40" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2925,22 +2925,22 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>JW중외제약 피톤치드 차량용 방향제 피톤케어</t>
+          <t>JW중외제약 JW생활건강 피톤케어 차량용 방향제 리필 카트리지</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=12916212027</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=15901498616</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1291621/12916212027.20220810105056.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1590149/15901498616.20211116120223.jpg</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>38000</t>
+          <t>16900</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
@@ -2956,7 +2956,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>JW중외제약</t>
+          <t>JW생활건강</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2991,22 +2991,22 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>딥티크 차량용방향제 세트 케이스 + 리필용 캡슐</t>
+          <t>양키캔들 벤트스틱 차량용 방향제 4P입</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28620531681</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=6552648097</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2862053/28620531681.20220308051600.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_6552648/6552648097.20190731160942.jpg</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>87900</t>
+          <t>3170</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
@@ -3022,10 +3022,14 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>딥티크</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr"/>
+          <t>양키캔들</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>양키캔들</t>
+        </is>
+      </c>
       <c r="K42" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3053,22 +3057,22 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>JW중외제약 JW생활건강 피톤케어 차량용 방향제 리필 카트리지</t>
+          <t>라미유 차량용 고급 송풍구 방향제 블랙체리향</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=15901498616</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30586965618</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1590149/15901498616.20211116120223.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3058696/30586965618.20220421134837.jpg</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>16900</t>
+          <t>12720</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
@@ -3084,12 +3088,12 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>JW생활건강</t>
+          <t>라미유</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>JW중외제약</t>
+          <t>라미유</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -3119,22 +3123,22 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>제이엠제이라인 도슈아 차량용 방향제 리필 도자기</t>
+          <t>딥티크 차량용방향제 세트 케이스 + 리필용 캡슐</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20347407194</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28620531681</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2034740/20347407194.20211001120304.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2862053/28620531681.20220308051600.jpg</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>87900</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
@@ -3150,14 +3154,10 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>도슈아</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>제이엠제이라인</t>
-        </is>
-      </c>
+          <t>딥티크</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3185,22 +3185,22 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>산도깨비 멤브렌 피톤치드 차량용 방향제 6g</t>
+          <t>라라체리티 리얼 니치퍼퓸 입술 고급 차량용 방향제</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20254478730</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=33210930858</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2025447/20254478730.20190716114220.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3321093/33210930858.20221005145401.jpg</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2090</t>
+          <t>39000</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
@@ -3214,16 +3214,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>산도깨비</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>산도깨비</t>
-        </is>
-      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3309,22 +3301,22 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>라라체리티 리얼 니치퍼퓸 입술 고급 차량용 방향제</t>
+          <t>에이센트 네이처 차량용 디퓨저 방향제 120ml</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=33210930858</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27334130786</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3321093/33210930858.20221005145401.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2733413/27334130786.20211216041142.jpg</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>39000</t>
+          <t>7900</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
@@ -3338,7 +3330,11 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I47" t="inlineStr"/>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>에이센트</t>
+        </is>
+      </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
@@ -3367,22 +3363,22 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>에이센트 네이처 차량용 디퓨저 방향제 120ml</t>
+          <t>P&amp;amp;G 페브리즈 차량용 방향제 2.2ml</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27334130786</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20397190459</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2733413/27334130786.20211216041142.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2039719/20397190459.20190726113415.jpg</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>7900</t>
+          <t>7610</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
@@ -3398,10 +3394,14 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>에이센트</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr"/>
+          <t>페브리즈</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>P&amp;G</t>
+        </is>
+      </c>
       <c r="K48" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3495,45 +3495,41 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>P&amp;amp;G 페브리즈 차량용 방향제 2.2ml</t>
+          <t>쓰리나인 바니버니 차량용 방향제 고급 자동차 디퓨저</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20397190459</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=84789784921</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2039719/20397190459.20190726113415.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8478978/84789784921.1.jpg</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>7610</t>
+          <t>19900</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>THREENINE</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>페브리즈</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>P&amp;G</t>
-        </is>
-      </c>
+          <t>쓰리나인</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3561,22 +3557,22 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>산도깨비 차량용 멤브렌 리필 방향제</t>
+          <t>크로마치 고급 차량용 방향제 자동차 디퓨저 명품 차량 송풍구</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25695237598</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31278229629</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2569523/25695237598.20220326034624.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3127822/31278229629.20220521051428.jpg</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>21500</t>
+          <t>65000</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
@@ -3592,7 +3588,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>산도깨비</t>
+          <t>크로마치</t>
         </is>
       </c>
       <c r="J51" t="inlineStr"/>
@@ -3623,22 +3619,22 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>양키캔들 벤트스틱 차량용 방향제 4P입</t>
+          <t>제이엠제이라인 도슈아 차량용 방향제 리필 도자기</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=6552648097</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20347407194</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_6552648/6552648097.20190731160942.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2034740/20347407194.20211001120304.jpg</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>3190</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
@@ -3654,12 +3650,12 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>양키캔들</t>
+          <t>도슈아</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>양키캔들</t>
+          <t>제이엠제이라인</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -3689,22 +3685,22 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>라미유 차량용 고급 송풍구 방향제 블랙체리향</t>
+          <t>산도깨비 차량용 멤브렌 리필 방향제</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30586965618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25695237598</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3058696/30586965618.20220421134837.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2569523/25695237598.20220326034624.jpg</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>12720</t>
+          <t>21500</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
@@ -3720,14 +3716,10 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>라미유</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>라미유</t>
-        </is>
-      </c>
+          <t>산도깨비</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3755,28 +3747,28 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>스턴 디즈니 고급 차량용 방향제 자동차 디퓨저 송풍구 미키마우스</t>
+          <t>딥티크 차량용 방향제 케이스와 리필 9종</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82863631854</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=11913172090</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8286363/82863631854.3.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1191317/11913172090.7.jpg</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>34800</t>
+          <t>45560</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
-          <t>스턴</t>
+          <t>SmartBuying</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -3786,12 +3778,12 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>디즈니</t>
+          <t>딥티크</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>에프티엘컴퍼니</t>
+          <t>딥티크</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -3821,22 +3813,22 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>아우라 카카오 모니터걸이형 방향제 라이언 10g</t>
+          <t>에이비 사막여우 차량용 방향제 송풍구 고급형</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24014062100</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29639151141</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2401406/24014062100.20200903003222.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2963915/29639151141.20211224101014.jpg</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>12900</t>
+          <t>33000</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
@@ -3850,8 +3842,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>에이비</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>에이비</t>
+        </is>
+      </c>
       <c r="K55" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3879,22 +3879,22 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>불스원 폴라프레쉬 선바이저 차량용 방향제</t>
+          <t>오마르 퍼퓸베어 베어브릭 차량용방향제 기본형</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24165357120</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27192765898</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2416535/24165357120.20220616110219.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2719276/27192765898.20220330020644.jpg</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>13900</t>
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
@@ -3910,14 +3910,10 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>불스원</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>불스원</t>
-        </is>
-      </c>
+          <t>오마르</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3945,22 +3941,22 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>오마르 퍼퓸베어 베어브릭 차량용방향제 기본형</t>
+          <t>산도깨비 멤브렌 피톤치드 차량용 방향제 6g</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27192765898</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20254478730</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2719276/27192765898.20220330020644.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2025447/20254478730.20190716114220.jpg</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>13900</t>
+          <t>2090</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
@@ -3976,10 +3972,14 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>오마르</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr"/>
+          <t>산도깨비</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>산도깨비</t>
+        </is>
+      </c>
       <c r="K57" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4007,41 +4007,45 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>쓰리나인 바니버니 차량용방향제 고급 자동차 디퓨저 방향제</t>
+          <t>불스원 폴라프레쉬 선바이저 차량용 방향제</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=84789784921</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24165357120</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8478978/84789784921.1.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2416535/24165357120.20220616110219.jpg</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>19900</t>
+          <t>2500</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
-          <t>THREENINE</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>쓰리나인</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr"/>
+          <t>불스원</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>불스원</t>
+        </is>
+      </c>
       <c r="K58" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4069,28 +4073,28 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>벤볼릭 명품 차량용 방향제 고급 송풍구 자동차 차량 디퓨져</t>
+          <t>페브리즈 차량용 방향제 2.2ml 라벤더의포근함 차방향제 자동차 디퓨저 신차선물</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82293143959</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82250772533</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8229314/82293143959.16.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8225077/82250772533.13.jpg</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>28000</t>
+          <t>2650</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr">
         <is>
-          <t>매드포모던</t>
+          <t>위즈브리드</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -4098,16 +4102,8 @@
           <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>벤볼릭</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>키니캔들</t>
-        </is>
-      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4135,41 +4131,45 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>페브리즈 차량용 방향제 맑은하늘 바람 2.2ml</t>
+          <t>스턴 디즈니 고급 차량용 방향제 자동차 디퓨저 송풍구 미키마우스</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24032457103</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82863631854</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2403245/24032457103.20210720152653.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8286363/82863631854.3.jpg</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2650</t>
+          <t>34800</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>스턴</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>페브리즈</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr"/>
+          <t>디즈니</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>에프티엘컴퍼니</t>
+        </is>
+      </c>
       <c r="K60" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4197,22 +4197,22 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>제이앤컴퍼니 벨르아망 차량용방향제 에어도넛 리필키트</t>
+          <t>우드어 심플 차량용 방향제</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28686680816</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=33382841447</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2868668/28686680816.20220614133410.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3338284/33382841447.20220709102853.jpg</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>6000</t>
+          <t>28900</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
@@ -4226,16 +4226,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>벨르아망</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>제이앤컴퍼니</t>
-        </is>
-      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4263,36 +4255,40 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>페브리즈 차량용 방향제 2.2ml 라벤더의포근함 차방향제 자동차 디퓨저 신차선물</t>
+          <t>더드림 꽃 베어브릭 석고 차량용 방향제</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82250772533</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27124471579</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8225077/82250772533.13.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2712447/27124471579.20210512182954.jpg</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2650</t>
+          <t>11700</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
         <is>
-          <t>위즈브리드</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr"/>
+          <t>일반 - 가격비교 상품</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>더드림</t>
+        </is>
+      </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
@@ -4321,22 +4317,22 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>로베르타디까메리노 액상 클립 통풍구 에어컨 차량용 방향제</t>
+          <t>아우라 카카오 모니터걸이형 방향제 라이언 10g</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=32628653367</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24014062100</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3262865/32628653367.20220528094208.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2401406/24014062100.20200903003222.jpg</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11900</t>
+          <t>12900</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
@@ -4350,11 +4346,7 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>로베르타디까메리노</t>
-        </is>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
@@ -4383,22 +4375,22 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>프레이 카프레쉬너 차량용 종이방향제</t>
+          <t>페브리즈 차량용 방향제 맑은하늘 바람 2.2ml</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24063016236</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24032457103</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2406301/24063016236.20220212033525.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2403245/24032457103.20210720152653.jpg</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>1270</t>
+          <t>2650</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
@@ -4412,7 +4404,11 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I64" t="inlineStr"/>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>페브리즈</t>
+        </is>
+      </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
@@ -4441,22 +4437,22 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>불스원 그라스 디퓨저 블랙베리 체리 방향제 105ml</t>
+          <t>로베르타디까메리노 액상 클립 통풍구 에어컨 차량용 방향제</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26677172452</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=32628653367</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2667717/26677172452.20210407202430.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3262865/32628653367.20220528094208.jpg</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>9800</t>
+          <t>11900</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
@@ -4472,14 +4468,10 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>불스원</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>불스원</t>
-        </is>
-      </c>
+          <t>로베르타디까메리노</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4507,45 +4499,37 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>캘리포니아센트 캔타입 방향제 15종 모음</t>
+          <t>프레이 카프레쉬너 차량용 종이방향제</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=83239063403</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24063016236</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8323906/83239063403.2.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2406301/24063016236.20220212033525.jpg</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>4300</t>
+          <t>1270</t>
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
         <is>
-          <t>캘리포니아센트 공식대리점</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>캘리포니아센트</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>에너자이저</t>
-        </is>
-      </c>
+          <t>일반 - 가격비교 상품</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4573,37 +4557,45 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>미스터앤미세스 니키 차량용 방향제 리필</t>
+          <t>제로스킨 로보트 태권브이 차량용 방향제 자동차 디퓨저 AD-KF90</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=84102412416</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29535937618</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8410241/84102412416.2.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2953593/29535937618.20211216102403.jpg</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>5900</t>
+          <t>46340</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
-          <t>미베스트</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
+          <t>일반 - 가격비교 상품</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>제로스킨</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>제로스킨</t>
+        </is>
+      </c>
       <c r="K67" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4631,33 +4623,33 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>우드어 심플 차량용 방향제</t>
+          <t>미스터앤미세스 니키 차량용 방향제 리필</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=33382841447</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=84102412416</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3338284/33382841447.20220709102853.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8410241/84102412416.2.jpg</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>28900</t>
+          <t>5900</t>
         </is>
       </c>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>미베스트</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
@@ -4689,22 +4681,22 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>크로마치 고급 차량용 방향제 자동차 디퓨저 명품 차량 송풍구</t>
+          <t>제이앤컴퍼니 벨르아망 차량용방향제 에어도넛 리필키트</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31278229629</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28686680816</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3127822/31278229629.20220521051428.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2868668/28686680816.20220614133410.jpg</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>65000</t>
+          <t>6000</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
@@ -4720,10 +4712,14 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>크로마치</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr"/>
+          <t>벨르아망</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>제이앤컴퍼니</t>
+        </is>
+      </c>
       <c r="K69" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4751,45 +4747,37 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>블랩 오르브 오브제 고급 차량용 디퓨저 방향제 120ml</t>
+          <t>자이언트블락 불독 고급 차량용 방향제 자동차 디퓨저</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30431426701</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82612380990</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3043142/30431426701.20220616110358.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8261238/82612380990.4.jpg</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>12800</t>
+          <t>39000</t>
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>자이언트 블락</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>오르브</t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>블랩</t>
-        </is>
-      </c>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4817,37 +4805,45 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>리틀트리 TREE 차량용 실내용 걸이형 종이 페이퍼 옷장 방향제</t>
+          <t>블랩 오르브 오브제 고급 차량용 디퓨저 방향제 120ml</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82937356876</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30431426701</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8293735/82937356876.1.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3043142/30431426701.20220616110358.jpg</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>1290</t>
+          <t>12800</t>
         </is>
       </c>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr">
         <is>
-          <t>프랜드캣</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
+          <t>일반 - 가격비교 상품</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>오르브</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>블랩</t>
+        </is>
+      </c>
       <c r="K71" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4875,22 +4871,22 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>더드림 꽃 베어브릭 석고 차량용 방향제</t>
+          <t>픽도큐먼트 베어브릭 송풍구 차량용 방향제</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27124471579</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29900193281</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2712447/27124471579.20210512182954.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2990019/29900193281.20211208030917.jpg</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11700</t>
+          <t>14800</t>
         </is>
       </c>
       <c r="F72" t="inlineStr"/>
@@ -4904,11 +4900,7 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>더드림</t>
-        </is>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
@@ -4937,37 +4929,45 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>픽도큐먼트 베어브릭 송풍구 차량용 방향제</t>
+          <t>벤볼릭 명품 차량용 방향제 고급 송풍구 자동차 차량 디퓨져</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29900193281</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82293143959</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2990019/29900193281.20211208030917.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8229314/82293143959.16.jpg</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>14800</t>
+          <t>28000</t>
         </is>
       </c>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>매드포모던</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>벤볼릭</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>키니캔들</t>
+        </is>
+      </c>
       <c r="K73" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -5053,28 +5053,28 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>자이언트블락 불독 고급 차량용 방향제 자동차 디퓨저</t>
+          <t>리틀트리 TREE 차량용 실내용 걸이형 종이 페이퍼 옷장 방향제</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82612380990</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82937356876</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8261238/82612380990.4.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8293735/82937356876.1.jpg</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>39000</t>
+          <t>1290</t>
         </is>
       </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr">
         <is>
-          <t>자이언트 블락</t>
+          <t>프랜드캣</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -5173,22 +5173,22 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>명품고급디퓨저 마일론 갤러리1 차량용 방향제 MGAL-01</t>
+          <t>불스원 그라스 디퓨저 블랙베리 체리 방향제 105ml</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30352215619</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26677172452</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3035221/30352215619.20220102155103.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2667717/26677172452.20210407202430.jpg</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>46000</t>
+          <t>9800</t>
         </is>
       </c>
       <c r="F77" t="inlineStr"/>
@@ -5204,12 +5204,12 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>마일론</t>
+          <t>불스원</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>명품고급디퓨저</t>
+          <t>불스원</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -5239,37 +5239,45 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>미스터앤미세스 체사레 시저 차량용 방향제</t>
+          <t>캘리포니아센트 캔타입 방향제 15종 모음</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=8119194241</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=83239063403</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8119194/8119194241.20190802121728.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8323906/83239063403.2.jpg</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>7000</t>
+          <t>4300</t>
         </is>
       </c>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>캘리포니아센트 공식대리점</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>캘리포니아센트</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>에너자이저</t>
+        </is>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -5297,22 +5305,22 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>제로스킨 로보트 태권브이 차량용 방향제 자동차 디퓨저 AD-KF90</t>
+          <t>명품고급디퓨저 마일론 갤러리1 차량용 방향제 MGAL-01</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29535937618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30352215619</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2953593/29535937618.20211216102403.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3035221/30352215619.20220102155103.jpg</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>46340</t>
+          <t>48000</t>
         </is>
       </c>
       <c r="F79" t="inlineStr"/>
@@ -5328,12 +5336,12 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>제로스킨</t>
+          <t>마일론</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>제로스킨</t>
+          <t>명품고급디퓨저</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -5363,22 +5371,22 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>리틀조 이태리 방향제</t>
+          <t>KAN 뷰센트 자동차 송풍구 메탈 차량용 방향제 선물 2세트</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24014951999</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31597320645</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2401495/24014951999.20200903022656.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3159732/31597320645.20220429115323.jpg</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>25900</t>
         </is>
       </c>
       <c r="F80" t="inlineStr"/>
@@ -5392,8 +5400,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>뷰센트</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>KAN</t>
+        </is>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -5421,22 +5437,22 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>캘리포니아센트 카센트 차량용 방향제</t>
+          <t>미스터앤미세스 체사레 시저 차량용 방향제</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20309241612</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=8119194241</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2030924/20309241612.20190719121300.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8119194/8119194241.20190802121728.jpg</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>3470</t>
+          <t>7000</t>
         </is>
       </c>
       <c r="F81" t="inlineStr"/>
@@ -5450,16 +5466,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>캘리포니아센트</t>
-        </is>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>캘리포니아센트</t>
-        </is>
-      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -5487,22 +5495,22 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>루크타 도베르만 차량용 자동차 송풍구 차 고급 방향제 디퓨저 LT-DB01</t>
+          <t>캘리포니아센트 카센트 차량용 방향제</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25380843939</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20309241612</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2538084/25380843939.20220113101814.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2030924/20309241612.20190719121300.jpg</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>49000</t>
+          <t>3470</t>
         </is>
       </c>
       <c r="F82" t="inlineStr"/>
@@ -5518,10 +5526,14 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>루크타</t>
-        </is>
-      </c>
-      <c r="J82" t="inlineStr"/>
+          <t>캘리포니아센트</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>캘리포니아센트</t>
+        </is>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -5549,22 +5561,22 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>KAN 뷰센트 자동차 송풍구 메탈 차량용 방향제 선물 2세트</t>
+          <t>리틀조 이태리 방향제</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31597320645</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24014951999</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3159732/31597320645.20220429115323.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2401495/24014951999.20200903022656.jpg</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>25900</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="F83" t="inlineStr"/>
@@ -5578,16 +5590,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>뷰센트</t>
-        </is>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>KAN</t>
-        </is>
-      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -5615,22 +5619,22 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>PRE 피톤치드오일 차량용 방향제 다이케스팅 디퓨저</t>
+          <t>로베르타 디까메리노 차량용 방향제 100ml</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27930349118</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26801962830</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2793034/27930349118.20210709220415.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2680196/26801962830.20220217035825.jpg</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>23100</t>
+          <t>8300</t>
         </is>
       </c>
       <c r="F84" t="inlineStr"/>
@@ -5673,37 +5677,45 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>헤즐넛 커피방향제 탈취와 향기 차량용 화장실 디퓨져</t>
+          <t>딥디크 차량용 방향제 리필 9종</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26059553880</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=84313412976</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2605955/26059553880.20210219195508.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8431341/84313412976.jpg</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>24500</t>
         </is>
       </c>
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>신장로</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>딥티크</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>딥티크</t>
+        </is>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -5731,43 +5743,43 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>딥디크 차량용 방향제 리필 9종</t>
+          <t>허브타임 시그니처 차량용 방향제 60m</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=84313412976</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30756073471</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8431341/84313412976.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3075607/30756073471.20220202024136.jpg</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>24500</t>
+          <t>14900</t>
         </is>
       </c>
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr">
         <is>
-          <t>신장로</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>딥티크</t>
+          <t>허브타임</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>딥티크</t>
+          <t>허브타임</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -5797,37 +5809,45 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>로베르타 디까메리노 차량용 방향제 100ml</t>
+          <t>도그독 3세대 D-E1 명품 차량용 방향제 고급 디퓨저 프렌치불독 새차 선물 자동차</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26801962830</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82807740637</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2680196/26801962830.20220217035825.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8280774/82807740637.10.jpg</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>8300</t>
+          <t>28000</t>
         </is>
       </c>
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>주식회사 도그독</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>도그독</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>도그독</t>
+        </is>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -5855,28 +5875,28 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>도그독 3세대 D-E1 명품 차량용 방향제 고급 디퓨저 프렌치불독 새차 선물 자동차</t>
+          <t>카카오 모니터걸이 방향제 아우라 캐릭터 피규어 라이언 어피치</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82807740637</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=83136484211</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8280774/82807740637.10.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8313648/83136484211.jpg</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>28000</t>
+          <t>16000</t>
         </is>
       </c>
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr">
         <is>
-          <t>주식회사 도그독</t>
+          <t>다나와25</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -5886,12 +5906,12 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>도그독</t>
+          <t>카카오프렌즈</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>도그독</t>
+          <t>엘지생활건강</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -5921,28 +5941,28 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>카카오 모니터걸이 방향제 아우라 캐릭터 피규어 라이언 어피치</t>
+          <t>양키캔들 차량용 방향제 카자 얼티메이트 자동차 선물</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=83136484211</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=7761281078</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8313648/83136484211.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_7761281/7761281078.11.jpg</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>16000</t>
+          <t>3450</t>
         </is>
       </c>
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr">
         <is>
-          <t>다나와25</t>
+          <t>미베스트</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -5952,12 +5972,12 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>카카오프렌즈</t>
+          <t>양키캔들</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>엘지생활건강</t>
+          <t>양키캔들</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -5987,22 +6007,22 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>토씨 클래시맨 명품 고급 차량용방향제 룸미러걸이형</t>
+          <t>센트몬스터 고체형 리필 카트리지 차량용 방향제</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25695599950</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24073927844</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2569559/25695599950.20220704103706.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2407392/24073927844.20200907231713.jpg</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>85000</t>
+          <t>5500</t>
         </is>
       </c>
       <c r="F90" t="inlineStr"/>
@@ -6018,14 +6038,10 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>토씨</t>
-        </is>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>토씨</t>
-        </is>
-      </c>
+          <t>센트몬스터</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -6053,22 +6069,22 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>아이수피아 피톤치드 아로마 차량용 방향제</t>
+          <t>토씨 클래시맨 명품 고급 차량용방향제 룸미러걸이형</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24046697950</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25695599950</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2404669/24046697950.20200905000355.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2569559/25695599950.20220704103706.jpg</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>15950</t>
+          <t>85000</t>
         </is>
       </c>
       <c r="F91" t="inlineStr"/>
@@ -6084,10 +6100,14 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>아이수피아</t>
-        </is>
-      </c>
-      <c r="J91" t="inlineStr"/>
+          <t>토씨</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>토씨</t>
+        </is>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -6115,22 +6135,22 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>페브리즈 차량용 방향제 6개입</t>
+          <t>명품고급디퓨저 마일론 갤러리2 차량용 방향제 MGAL-02</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28545855511</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30441772620</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2854585/28545855511.20220405030723.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3044177/30441772620.20220204192733.jpg</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>16300</t>
+          <t>49000</t>
         </is>
       </c>
       <c r="F92" t="inlineStr"/>
@@ -6146,10 +6166,14 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>페브리즈</t>
-        </is>
-      </c>
-      <c r="J92" t="inlineStr"/>
+          <t>마일론</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>명품고급디퓨저</t>
+        </is>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -6177,40 +6201,36 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>조말론 차량용 방향제 센트투고 명품향수 고급 디퓨저 거치대</t>
+          <t>PRE 피톤치드오일 차량용 방향제 다이케스팅 디퓨저</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=83025886866</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27930349118</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8302588/83025886866.1.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2793034/27930349118.20210709220415.jpg</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>48500</t>
+          <t>23100</t>
         </is>
       </c>
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr">
         <is>
-          <t>홍콩걸즈</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
-        </is>
-      </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>조말론</t>
-        </is>
-      </c>
+          <t>일반 - 가격비교 상품</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
@@ -6239,43 +6259,43 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>양키캔들 차량용 방향제 카자 얼티메이트 자동차 선물</t>
+          <t>불스원 폴라프레쉬 NEW 선바이저 차량용 방향제</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=7761281078</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29422282618</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_7761281/7761281078.11.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2942228/29422282618.20211027100552.jpg</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>3450</t>
+          <t>6900</t>
         </is>
       </c>
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr">
         <is>
-          <t>미베스트</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>양키캔들</t>
+          <t>불스원</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>양키캔들</t>
+          <t>불스원</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -6305,33 +6325,33 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>리틀트리 차량용 방향제 블랙아이스 HIT</t>
+          <t>미스터앤미세스 니키 리필 차량용 방향제</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24032293838</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=10017842540</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2403229/24032293838.20200904031139.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1001784/10017842540.17.jpg</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>1080</t>
+          <t>7200</t>
         </is>
       </c>
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>반도향기나라</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I95" t="inlineStr"/>
@@ -6363,28 +6383,28 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>미스터앤미세스 니키 리필 차량용 방향제</t>
+          <t>뽀글이 부클 곰돌이 차량용 석고 방향제</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=10017842540</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=81536224875</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1001784/10017842540.17.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8153622/81536224875.1.jpg</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>7200</t>
+          <t>5700</t>
         </is>
       </c>
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr">
         <is>
-          <t>반도향기나라</t>
+          <t>메무아</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -6421,22 +6441,22 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>센트몬스터 고체형 리필 카트리지 차량용 방향제</t>
+          <t>양키캔들 스마트 센트 벤트클립</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24073927844</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18975414143</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2407392/24073927844.20200907231713.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1897541/18975414143.20190429160633.jpg</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>5500</t>
+          <t>2630</t>
         </is>
       </c>
       <c r="F97" t="inlineStr"/>
@@ -6452,7 +6472,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>센트몬스터</t>
+          <t>양키캔들</t>
         </is>
       </c>
       <c r="J97" t="inlineStr"/>
@@ -6549,41 +6569,45 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>양키캔들 스마트 센트 벤트클립</t>
+          <t>벨르아망 포켓몬스터 빅페이스 차량용 디퓨저 방향제 새차 선물 피카츄</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18975414143</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=84367332534</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1897541/18975414143.20190429160633.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8436733/84367332534.3.jpg</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>2670</t>
+          <t>19800</t>
         </is>
       </c>
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>BELLE AMANT</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>양키캔들</t>
-        </is>
-      </c>
-      <c r="J99" t="inlineStr"/>
+          <t>벨르아망</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>제이앤컴퍼니</t>
+        </is>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -6611,45 +6635,41 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>벨르아망 포켓몬스터 빅페이스 차량용 디퓨저 방향제 새차 선물 피카츄</t>
+          <t>디캣 방향제 차량용 송풍구 SM5 G80</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=84367332534</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28534805614</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8436733/84367332534.3.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2853480/28534805614.20210823030729.jpg</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>19800</t>
+          <t>500</t>
         </is>
       </c>
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr">
         <is>
-          <t>BELLE AMANT</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>벨르아망</t>
-        </is>
-      </c>
-      <c r="J100" t="inlineStr">
-        <is>
-          <t>제이앤컴퍼니</t>
-        </is>
-      </c>
+          <t>디캣</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -6677,22 +6697,22 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>디캣 방향제 차량용 송풍구 SM5 G80</t>
+          <t>차모아 마무르 차량용 방향제</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28534805614</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=35086451619</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2853480/28534805614.20210823030729.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3508645/35086451619.20221008153431.jpg</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>39800</t>
         </is>
       </c>
       <c r="F101" t="inlineStr"/>
@@ -6708,10 +6728,14 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>디캣</t>
-        </is>
-      </c>
-      <c r="J101" t="inlineStr"/>
+          <t>차모아</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>차모아</t>
+        </is>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
           <t>생활/건강</t>

--- a/output.xlsx
+++ b/output.xlsx
@@ -439,22 +439,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>에이비 베어브릭 차량용방향제 석고 고급 디퓨저 차방향제  ab-df01</t>
+          <t>바흐가르트 차량용방향제 석고 송풍구 방향제</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27765010523</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30841337224</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2776501/27765010523.20221017112726.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3084133/30841337224.20221012115129.jpg</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11900</t>
+          <t>38900</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
@@ -470,14 +470,10 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>에이비</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>에이비</t>
-        </is>
-      </c>
+          <t>바흐가르트</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -505,22 +501,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>명품고급디퓨저 마일론 갤러리3 차량용 방향제 MGAL-03</t>
+          <t>에이비 베어브릭 차량용방향제 석고 고급 디퓨저 차방향제  ab-df01</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31231762618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27765010523</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3123176/31231762618.20220310141449.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2776501/27765010523.20221017112726.jpg</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>39900</t>
+          <t>11900</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
@@ -536,12 +532,12 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>마일론</t>
+          <t>에이비</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>명품고급디퓨저</t>
+          <t>에이비</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -571,22 +567,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>바흐가르트 차량용방향제 석고 송풍구 방향제</t>
+          <t>제이엠제이라인 도슈아 클래식 프리미엄 차량용 방향제</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30841337224</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=17787594512</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3084133/30841337224.20221012115129.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1778759/17787594512.20210802225254.jpg</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>38900</t>
+          <t>29750</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
@@ -602,10 +598,14 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>바흐가르트</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr"/>
+          <t>도슈아</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>제이엠제이라인</t>
+        </is>
+      </c>
       <c r="K4" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -633,41 +633,45 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[아이수피아] 천연차량방향제 3개세트(송풍구거치형)</t>
+          <t>명품고급디퓨저 마일론 갤러리3 차량용 방향제 MGAL-03</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=81628659125</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31231762618</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8162865/81628659125.5.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3123176/31231762618.20220310141449.jpg</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>38000</t>
+          <t>39900</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t>아이수피아1</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>아이수피아</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr"/>
+          <t>마일론</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>명품고급디퓨저</t>
+        </is>
+      </c>
       <c r="K5" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -695,22 +699,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>불스원 폴라프레쉬 선바이저 방향제 리필</t>
+          <t>에이비 큐빅베어브릭 차량용 방향제 AB-DF02</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=17787599329</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27944185800</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1778759/17787599329.20220107133652.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2794418/27944185800.20220908171344.jpg</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2080</t>
+          <t>18900</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
@@ -726,12 +730,12 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>불스원</t>
+          <t>에이비</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>불스원</t>
+          <t>에이비</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -761,22 +765,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>제이엠제이라인 도슈아 클래식 프리미엄 차량용 방향제</t>
+          <t>리틀트리 걸이형 종이 방향제</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=17787594512</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=7162545992</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1778759/17787594512.20210802225254.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_7162545/7162545992.20190731170829.jpg</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>29750</t>
+          <t>1200</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
@@ -790,16 +794,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>도슈아</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>제이엠제이라인</t>
-        </is>
-      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -827,45 +823,41 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>에이비 큐빅베어브릭 차량용 방향제 AB-DF02</t>
+          <t>[아이수피아] 천연차량방향제 3개세트(송풍구거치형)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27944185800</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=81628659125</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2794418/27944185800.20220908171344.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8162865/81628659125.5.jpg</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>18900</t>
+          <t>38000</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>아이수피아1</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>에이비</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>에이비</t>
-        </is>
-      </c>
+          <t>아이수피아</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -893,22 +885,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>허브타임 시그니처 차량용 방향제 60ml</t>
+          <t>라피네르 베이직 디퓨저 블랙에디션 차량용 방향제 120ml</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30756073471</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29178319224</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3075607/30756073471.20220202024136.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2917831/29178319224.20220125123447.jpg</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>16000</t>
+          <t>18400</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
@@ -924,14 +916,10 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>허브타임</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>허브타임</t>
-        </is>
-      </c>
+          <t>라피네르</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -959,38 +947,38 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>쓰리나인 명품 차량용 방향제 힙한늑대 고급 불독 자동차 디퓨저</t>
+          <t>ELLA 프라임 호랑이 차량용 방향제 프로펠러</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82749964205</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30617053618</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8274996/82749964205.12.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3061705/30617053618.20220120171741.jpg</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>29850</t>
+          <t>29700</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
-          <t>THREENINE</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>쓰리나인</t>
+          <t>ELLA</t>
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
@@ -1021,41 +1009,45 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>잉글리쉬페어 대용량 센트247 명품 고급 백화점 차량용 방향제 디퓨저 120ml</t>
+          <t>이븐도우 생귄 쥬얼리 클립 차량용 방향제</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82876701063</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=19103746764</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8287670/82876701063.7.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1910374/19103746764.20220213194209.jpg</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>24900</t>
+          <t>32800</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
-          <t>센트247 SCENT247</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>조말론</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr"/>
+          <t>생귄</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>이븐도우</t>
+        </is>
+      </c>
       <c r="K11" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1083,22 +1075,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>불스원 그라스 디퓨져 차량용 방향제 105ml</t>
+          <t>메이튼 차량용 방향제 포켓몬 피카츄</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=12140232094</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=35107373619</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1214023/12140232094.20211006140204.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3510737/35107373619.20221007104920.jpg</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>10360</t>
+          <t>19800</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
@@ -1114,12 +1106,12 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>불스원</t>
+          <t>메이튼</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>불스원</t>
+          <t>메이튼</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1149,22 +1141,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>라피네르 베이직 디퓨저 블랙에디션 차량용 방향제 120ml</t>
+          <t>허브타임 시그니처 차량용 방향제 60ml</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29178319224</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30756073471</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2917831/29178319224.20220125123447.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3075607/30756073471.20220202024136.jpg</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>21890</t>
+          <t>16000</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
@@ -1180,10 +1172,14 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>라피네르</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr"/>
+          <t>허브타임</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>허브타임</t>
+        </is>
+      </c>
       <c r="K13" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1211,22 +1207,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>이븐도우 생귄 쥬얼리 클립 차량용 방향제</t>
+          <t>로얄워터 텀블러 모양 차량용 방향제 신차선물</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=19103746764</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29835967618</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1910374/19103746764.20220213194209.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2983596/29835967618.20221110131209.jpg</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>32800</t>
+          <t>48940</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
@@ -1242,12 +1238,12 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>생귄</t>
+          <t>로얄워터</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>이븐도우</t>
+          <t>로얄워터</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1277,45 +1273,41 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>메이튼 차량용 방향제 포켓몬 피카츄</t>
+          <t>쓰리나인 명품 차량용 방향제 힙한늑대 고급 불독 자동차 디퓨저</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=35107373619</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82749964205</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3510737/35107373619.20221007104920.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8274996/82749964205.12.jpg</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>19800</t>
+          <t>29850</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>THREENINE</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>메이튼</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>메이튼</t>
-        </is>
-      </c>
+          <t>쓰리나인</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1343,45 +1335,41 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>로얄워터 텀블러 모양 차량용 방향제 신차선물</t>
+          <t>1+1 에이센트 네이처 차량용 방향제 120ml</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29835967618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=84487319234</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2983596/29835967618.20221110131209.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8448731/84487319234.2.jpg</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>48940</t>
+          <t>12900</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>에이센트ASCENT</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>로얄워터</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>로얄워터</t>
-        </is>
-      </c>
+          <t>에이센트</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1424,7 +1412,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>30450</t>
+          <t>30100</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
@@ -1541,22 +1529,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>리틀트리 걸이형 종이 방향제</t>
+          <t>디프로젝트 디불 불독 고급 차량용 방향제 자동차 디퓨저</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=7162545992</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=13697148540</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_7162545/7162545992.20190731170829.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1369714/13697148540.20211222172941.jpg</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1130</t>
+          <t>49000</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
@@ -1570,8 +1558,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>디프로젝트</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>디프로젝트</t>
+        </is>
+      </c>
       <c r="K19" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1599,22 +1595,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>디프로젝트 디불 불독 고급 차량용 방향제 자동차 디퓨저</t>
+          <t>불스원 그라스 디퓨져 차량용 방향제 105ml</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=13697148540</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=12140232094</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1369714/13697148540.20211222172941.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1214023/12140232094.20211006140204.jpg</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>49000</t>
+          <t>10355</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
@@ -1630,12 +1626,12 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>디프로젝트</t>
+          <t>불스원</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>디프로젝트</t>
+          <t>불스원</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1731,41 +1727,45 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1+1 에이센트 네이처 차량용 방향제 120ml</t>
+          <t>양키캔들 카자얼티메이트 차량용 방향제</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=84487319234</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29582915037</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8448731/84487319234.1.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2958291/29582915037.20220919183130.jpg</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>9900</t>
+          <t>2780</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
-          <t>에이센트ASCENT</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>에이센트</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr"/>
+          <t>양키캔들</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>양키캔들</t>
+        </is>
+      </c>
       <c r="K22" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1793,22 +1793,22 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>픽도큐먼트 베어브릭 송풍구 차량용 방향제</t>
+          <t>불스원 폴라프레쉬 선바이저 방향제 리필</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29900193281</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=17787599329</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2990019/29900193281.20211208030917.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1778759/17787599329.20220107133652.jpg</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>14800</t>
+          <t>2080</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
@@ -1822,8 +1822,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>불스원</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>불스원</t>
+        </is>
+      </c>
       <c r="K23" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1913,45 +1921,37 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>아뮈잔트 고급 차량용 방향제 명품 자동차 디퓨저 블랙 120ml</t>
+          <t>픽도큐먼트 베어브릭 송풍구 차량용 방향제</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=80920267289</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29900193281</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8092026/80920267289.13.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2990019/29900193281.20211208030917.jpg</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>20000</t>
+          <t>14800</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
-          <t>아뮈잔트</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>아뮈잔트</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>아뮈잔트</t>
-        </is>
-      </c>
+          <t>일반 - 가격비교 상품</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1979,22 +1979,22 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>불스원 그라스 디퓨저 블루 차량용 방향제 100ml</t>
+          <t>까사몬타 천연가죽 차량용 방향제</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24063116873</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31877396570</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2406311/24063116873.20210111145156.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3187739/31877396570.20220418002955.jpg</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11990</t>
+          <t>43000</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
@@ -2010,7 +2010,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>불스원</t>
+          <t>까사몬타</t>
         </is>
       </c>
       <c r="J26" t="inlineStr"/>
@@ -2041,43 +2041,43 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>양키캔들 카자얼티메이트 차량용 방향제</t>
+          <t>아뮈잔트 고급 차량용 방향제 명품 자동차 디퓨저 블랙 120ml</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29582915037</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=80920267289</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2958291/29582915037.20220919183130.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8092026/80920267289.13.jpg</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2820</t>
+          <t>20000</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>아뮈잔트</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>양키캔들</t>
+          <t>아뮈잔트</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>양키캔들</t>
+          <t>아뮈잔트</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2107,22 +2107,22 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>마블 스턴 아이언맨 차량용 방향제 ST-IM01</t>
+          <t>불스원 그라스 디퓨저 블루 차량용 방향제 100ml</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30644523374</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24063116873</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3064452/30644523374.20220923101852.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2406311/24063116873.20210111145156.jpg</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>34800</t>
+          <t>11960</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
@@ -2138,7 +2138,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>마블</t>
+          <t>불스원</t>
         </is>
       </c>
       <c r="J28" t="inlineStr"/>
@@ -2169,22 +2169,22 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>까사몬타 천연가죽 차량용 방향제</t>
+          <t>디프로젝트 디릴라고 고릴라 차량용 방향제</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31877396570</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26801331279</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3187739/31877396570.20220418002955.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2680133/26801331279.20211222172904.jpg</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>43000</t>
+          <t>49000</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
@@ -2200,10 +2200,14 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>까사몬타</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr"/>
+          <t>디프로젝트</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>디프로젝트</t>
+        </is>
+      </c>
       <c r="K29" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2231,22 +2235,22 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>디프로젝트 디릴라고 고릴라 차량용 방향제</t>
+          <t>마블 스턴 아이언맨 차량용 방향제 ST-IM01</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26801331279</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30644523374</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2680133/26801331279.20211222172904.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3064452/30644523374.20220923101852.jpg</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>49000</t>
+          <t>34800</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
@@ -2262,14 +2266,10 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>디프로젝트</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>디프로젝트</t>
-        </is>
-      </c>
+          <t>마블</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2297,22 +2297,22 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>플래트 고급 프로펠러 차량용 방향제 F430</t>
+          <t>미스터앤미세스 니키 차량용 방향제 리필</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27806043522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=10149695240</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2780604/27806043522.20210701115440.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1014969/10149695240.20201014180005.jpg</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>38990</t>
+          <t>5890</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
@@ -2326,11 +2326,7 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>플래트</t>
-        </is>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
@@ -2359,22 +2355,22 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>디프로젝트 리필킷 디불 디버니 디릴라고 차량용방향제 자동차 디퓨저 고체 리필 DP-RF02</t>
+          <t>플래트 고급 프로펠러 차량용 방향제 F430</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18367838563</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27806043522</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1836783/18367838563.20211108142647.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2780604/27806043522.20210701115440.jpg</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>13000</t>
+          <t>38910</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
@@ -2390,14 +2386,10 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>디프로젝트</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>디프로젝트</t>
-        </is>
-      </c>
+          <t>플래트</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2425,22 +2417,22 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>미스터앤미세스 니키 차량용 방향제 리필</t>
+          <t>산도깨비 차량용 멤브렌 리필 방향제</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=10149695240</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25695237598</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1014969/10149695240.20201014180005.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2569523/25695237598.20220326034624.jpg</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>5890</t>
+          <t>22990</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
@@ -2454,7 +2446,11 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr"/>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>산도깨비</t>
+        </is>
+      </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
@@ -2483,22 +2479,22 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>라라체리티 리얼 니치퍼퓸 입술 고급 차량용 방향제</t>
+          <t>디프로젝트 리필킷 디불 디버니 디릴라고 차량용방향제 자동차 디퓨저 고체 리필 DP-RF02</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=33210930858</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18367838563</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3321093/33210930858.20221005145401.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1836783/18367838563.20211108142647.jpg</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>39000</t>
+          <t>13000</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
@@ -2512,8 +2508,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>디프로젝트</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>디프로젝트</t>
+        </is>
+      </c>
       <c r="K34" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2541,22 +2545,22 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>미스터앤미세스 니키 클래식 차량용 방향제 본품</t>
+          <t>센트몬스터 고양이 차량용 방향제 고급 디퓨져</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25359648694</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24163460435</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2535964/25359648694.20201224195431.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2416346/24163460435.20210124121840.jpg</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>7390</t>
+          <t>39000</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
@@ -2570,7 +2574,11 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr"/>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>센트몬스터</t>
+        </is>
+      </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
@@ -2599,22 +2607,22 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>JW중외제약 피톤치드 차량용 방향제 피톤케어</t>
+          <t>라라체리티 리얼 니치퍼퓸 입술 고급 차량용 방향제</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=12916212027</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=33210930858</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1291621/12916212027.20220810105056.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3321093/33210930858.20221005145401.jpg</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>37990</t>
+          <t>29000</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
@@ -2628,16 +2636,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>JW중외제약</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>JW중외제약</t>
-        </is>
-      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2665,22 +2665,22 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>페브리즈 차량용 방향제 맑은하늘 바람 2.2ml</t>
+          <t>미스터앤미세스 니키 클래식 차량용 방향제 본품</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24032457103</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25359648694</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2403245/24032457103.20210720152653.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2535964/25359648694.20201224195431.jpg</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2640</t>
+          <t>7390</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
@@ -2694,11 +2694,7 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>페브리즈</t>
-        </is>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
@@ -2727,22 +2723,22 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>로베르타디까메리노 원형 대용량 방향제 100ml</t>
+          <t>JW중외제약 피톤치드 차량용 방향제 피톤케어</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=5640406696</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=12916212027</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_5640406/5640406696.20190805143958.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1291621/12916212027.20220810105056.jpg</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>13800</t>
+          <t>37990</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
@@ -2758,12 +2754,12 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>로베르타디까메리노</t>
+          <t>JW중외제약</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>로베르타디까메리노</t>
+          <t>JW중외제약</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -2793,22 +2789,22 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>라미유 차량용 고급 송풍구 방향제 블랙체리향</t>
+          <t>양키캔들 벤트스틱 차량용 방향제 4P입</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30586965618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=6552648097</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3058696/30586965618.20220421134837.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_6552648/6552648097.20190731160942.jpg</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11130</t>
+          <t>3150</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
@@ -2824,12 +2820,12 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>라미유</t>
+          <t>양키캔들</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>라미유</t>
+          <t>양키캔들</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -2859,22 +2855,22 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>산도깨비 멤브렌 피톤치드 차량용 방향제 6g</t>
+          <t>로베르타디까메리노 원형 대용량 방향제 100ml</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20254478730</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=5640406696</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2025447/20254478730.20190716114220.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_5640406/5640406696.20190805143958.jpg</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2160</t>
+          <t>13800</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
@@ -2890,12 +2886,12 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>산도깨비</t>
+          <t>로베르타디까메리노</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>산도깨비</t>
+          <t>로베르타디까메리노</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -2925,22 +2921,22 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>센트몬스터 고양이 차량용 방향제 고급 디퓨져</t>
+          <t>엠퓨처 불독 송풍구 고급 차량용 방향제 디퓨저 MF-CAF02</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24163460435</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30458791731</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2416346/24163460435.20210124121840.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3045879/30458791731.20220117151934.jpg</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>39000</t>
+          <t>14500</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
@@ -2956,7 +2952,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>센트몬스터</t>
+          <t>엠퓨처</t>
         </is>
       </c>
       <c r="J41" t="inlineStr"/>
@@ -3049,22 +3045,22 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>산도깨비 차량용 멤브렌 리필 방향제</t>
+          <t>페브리즈 차량용 방향제 맑은하늘 바람 2.2ml</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25695237598</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24032457103</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2569523/25695237598.20220326034624.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2403245/24032457103.20210720152653.jpg</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>21510</t>
+          <t>2640</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
@@ -3080,7 +3076,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>산도깨비</t>
+          <t>페브리즈</t>
         </is>
       </c>
       <c r="J43" t="inlineStr"/>
@@ -3111,22 +3107,22 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>JW중외제약 JW생활건강 피톤케어 차량용 방향제 리필 카트리지</t>
+          <t>라미유 차량용 고급 송풍구 방향제 블랙체리향</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=15901498616</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30586965618</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1590149/15901498616.20221101142716.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3058696/30586965618.20220421134837.jpg</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>17000</t>
+          <t>11130</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
@@ -3142,12 +3138,12 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>JW생활건강</t>
+          <t>라미유</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>JW중외제약</t>
+          <t>라미유</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -3177,45 +3173,41 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>불스원 폴라프레쉬 선바이저 차량용 방향제</t>
+          <t>아트센트 천연소가죽 명품 차량용 방향제 고급 송풍구 디퓨저 차방향제</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24165357120</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=83675558871</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2416535/24165357120.20220616110219.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8367555/83675558871.27.jpg</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>39800</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>아트센트</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>불스원</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>불스원</t>
-        </is>
-      </c>
+          <t>아트센트</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3243,22 +3235,22 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>디프로젝트 디버니 토끼 고급 차량용 방향제 자동차 디퓨저</t>
+          <t>JW중외제약 JW생활건강 피톤케어 차량용 방향제 리필 카트리지</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27331951522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=15901498616</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2733195/27331951522.20211222172819.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1590149/15901498616.20221101142716.jpg</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>49000</t>
+          <t>17000</t>
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
@@ -3274,12 +3266,12 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>디프로젝트</t>
+          <t>JW생활건강</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>디프로젝트</t>
+          <t>JW중외제약</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -3309,22 +3301,22 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>언더스코어 오버라인 오버타이거 호랑이 퓨마 차량용 방향제 자동차 디퓨저 OL-CFOT</t>
+          <t>제이엠제이라인 도슈아 차량용 방향제 리필 도자기</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30404262618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20347407194</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3040426/30404262618.20220316162835.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2034740/20347407194.20211001120304.jpg</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>35900</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
@@ -3340,12 +3332,12 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>언더스코어</t>
+          <t>도슈아</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>언더스코어</t>
+          <t>제이엠제이라인</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -3375,22 +3367,22 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>제이앤컴퍼니 벨르아망 포켓몬 피규어 차량용 방향제</t>
+          <t>명품고급디퓨저 마일론 갤러리1 차량용 방향제 MGAL-01</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=33464840631</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30352215619</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3346484/33464840631.20220713121644.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3035221/30352215619.20220102155103.jpg</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>19800</t>
+          <t>45000</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
@@ -3406,12 +3398,12 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>벨르아망</t>
+          <t>마일론</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>제이앤컴퍼니</t>
+          <t>명품고급디퓨저</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -3441,22 +3433,22 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>제이엠제이라인 도슈아 차량용 방향제 리필 도자기</t>
+          <t>불스원 폴라프레쉬 선바이저 차량용 방향제</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20347407194</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24165357120</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2034740/20347407194.20211001120304.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2416535/24165357120.20220616110219.jpg</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>2500</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
@@ -3472,12 +3464,12 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>도슈아</t>
+          <t>불스원</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>제이엠제이라인</t>
+          <t>불스원</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -3507,22 +3499,22 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>제이앤컴퍼니 벨르아망 차량용방향제 에어도넛 리필키트</t>
+          <t>산도깨비 멤브렌 피톤치드 차량용 방향제 6g</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28686680816</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20254478730</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2868668/28686680816.20220614133410.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2025447/20254478730.20190716114220.jpg</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>6000</t>
+          <t>2160</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
@@ -3538,12 +3530,12 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>벨르아망</t>
+          <t>산도깨비</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>제이앤컴퍼니</t>
+          <t>산도깨비</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -3573,22 +3565,22 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>토씨 클래시맨 명품 고급 차량용방향제 룸미러걸이형</t>
+          <t>제이앤컴퍼니 벨르아망 포켓몬 피규어 차량용 방향제</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25695599950</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=33464840631</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2569559/25695599950.20220704103706.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3346484/33464840631.20220713121644.jpg</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>85000</t>
+          <t>19800</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
@@ -3604,12 +3596,12 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>토씨</t>
+          <t>벨르아망</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>토씨</t>
+          <t>제이앤컴퍼니</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -3639,22 +3631,22 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>엠퓨처 불독 송풍구 고급 차량용 방향제 디퓨저 MF-CAF02</t>
+          <t>KAN 뷰센트 자동차 송풍구 메탈 차량용 방향제 선물 2세트</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30458791731</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31597320645</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3045879/30458791731.20220117151934.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3159732/31597320645.20220429115323.jpg</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>14500</t>
+          <t>15900</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
@@ -3670,10 +3662,14 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>엠퓨처</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr"/>
+          <t>뷰센트</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>KAN</t>
+        </is>
+      </c>
       <c r="K52" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3701,38 +3697,38 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>아트센트 천연소가죽 명품 차량용 방향제 고급 송풍구 디퓨저 차방향제</t>
+          <t>로베르타디까메리노 액상 클립 통풍구 에어컨 차량용 방향제</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=83675558871</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=32628653367</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8367555/83675558871.26.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3262865/32628653367.20220528094208.jpg</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>39800</t>
+          <t>11900</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
-          <t>아트센트</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>아트센트</t>
+          <t>로베르타디까메리노</t>
         </is>
       </c>
       <c r="J53" t="inlineStr"/>
@@ -3763,22 +3759,22 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>양키캔들 벤트스틱 차량용 방향제 4P입</t>
+          <t>디프로젝트 디버니 토끼 고급 차량용 방향제 자동차 디퓨저</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=6552648097</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27331951522</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_6552648/6552648097.20190731160942.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2733195/27331951522.20211222172819.jpg</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>3170</t>
+          <t>49000</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
@@ -3794,12 +3790,12 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>양키캔들</t>
+          <t>디프로젝트</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>양키캔들</t>
+          <t>디프로젝트</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -3829,22 +3825,22 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>불스원 그라스 디퓨저 블랙베리 체리 방향제 105ml</t>
+          <t>제이앤컴퍼니 벨르아망 차량용방향제 에어도넛 리필키트</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26677172452</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28686680816</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2667717/26677172452.20210407202430.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2868668/28686680816.20220614133410.jpg</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>9800</t>
+          <t>6000</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
@@ -3860,12 +3856,12 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>불스원</t>
+          <t>벨르아망</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>불스원</t>
+          <t>제이앤컴퍼니</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -3895,22 +3891,22 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>KAN 뷰센트 자동차 송풍구 메탈 차량용 방향제 선물 2세트</t>
+          <t>불스원 그라스 디퓨저 블랙베리 체리 방향제 105ml</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31597320645</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26677172452</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3159732/31597320645.20220429115323.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2667717/26677172452.20210407202430.jpg</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>15900</t>
+          <t>9800</t>
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
@@ -3926,12 +3922,12 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>뷰센트</t>
+          <t>불스원</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>KAN</t>
+          <t>불스원</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -3961,22 +3957,22 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>불스원 폴라프레쉬 NEW 선바이저 차량용 방향제</t>
+          <t>불스원 디즈니 통풍구 차량용 방향제</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29422282618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25158224812</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2942228/29422282618.20211027100552.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2515822/25158224812.20211119125115.jpg</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>5530</t>
+          <t>8500</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
@@ -4027,22 +4023,22 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>디씨네트워크 차량용 방향제 곰돌이 큐빅베어 1set</t>
+          <t>미스터앤미세스 체사레 시저 차량용 방향제</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27092943522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=8119194241</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2709294/27092943522.20220913115935.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8119194/8119194241.20190802121728.jpg</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>17900</t>
+          <t>7000</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
@@ -4056,16 +4052,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>디씨네트워크</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>디씨네트워크</t>
-        </is>
-      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4093,22 +4081,22 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>미스터앤미세스 체사레 시저 차량용 방향제</t>
+          <t>빅쏘 카로브 차량용방향제 디퓨저 송풍구형</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=8119194241</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26310652183</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8119194/8119194241.20190802121728.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2631065/26310652183.20211126145332.jpg</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>7000</t>
+          <t>19900</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
@@ -4122,8 +4110,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>빅쏘</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>빅쏘</t>
+        </is>
+      </c>
       <c r="K59" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4151,36 +4147,40 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>리틀트리 방향제 차량용 실내용 걸이형 종이 썸머린넨</t>
+          <t>엠퓨처 하트 송풍구 고급 차량용 방향제 디퓨저 MF-CAF03</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82937356876</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31484465959</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8293735/82937356876.3.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3148446/31484465959.20220328053622.jpg</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>1290</t>
+          <t>13900</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr">
         <is>
-          <t>프랜드캣</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr"/>
+          <t>일반 - 가격비교 상품</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>엠퓨처</t>
+        </is>
+      </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
@@ -4209,33 +4209,33 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>모노디트리 차량용 방향제 프리미엄 자동차 차 디퓨저</t>
+          <t>우드어 심플 명품 고급 차량용 방향제 디퓨저</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30869812153</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=84195453207</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3086981/30869812153.20220210025122.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8419545/84195453207.1.jpg</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>34000</t>
+          <t>28900</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>우드어</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -4267,38 +4267,38 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>ELLA 프라임 호랑이 차량용 방향제 프로펠러</t>
+          <t>라엣 딥디크 타입 고급 명품 차량용 방향제 50ml</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30617053618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=83308699005</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3061705/30617053618.20220120171741.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8330869/83308699005.2.jpg</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>29700</t>
+          <t>17900</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>라엣 la et</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>ELLA</t>
+          <t>딥티크</t>
         </is>
       </c>
       <c r="J62" t="inlineStr"/>
@@ -4329,40 +4329,36 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>엠퓨처 하트 송풍구 고급 차량용 방향제 디퓨저 MF-CAF03</t>
+          <t>1+1 랑스 차량용 방향제 송풍구 디퓨저 블랙</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31484465959</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=85163337606</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3148446/31484465959.20220328053622.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8516333/85163337606.2.jpg</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>13900</t>
+          <t>9900</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>랑스RANGS</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>엠퓨처</t>
-        </is>
-      </c>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
@@ -4391,28 +4387,28 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>우드어 심플 명품 고급 차량용 방향제 디퓨저</t>
+          <t>리틀트리 방향제 차량용 실내용 걸이형 종이 썸머린넨</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=84195453207</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82937356876</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8419545/84195453207.1.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8293735/82937356876.3.jpg</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>28900</t>
+          <t>1290</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
         <is>
-          <t>우드어</t>
+          <t>프랜드캣</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -4449,22 +4445,22 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>로베르타디까메리노 액상 클립 통풍구 에어컨 차량용 방향제</t>
+          <t>명품고급디퓨저 마일론 갤러리2 차량용 방향제 MGAL-02</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=32628653367</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30441772620</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3262865/32628653367.20220528094208.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3044177/30441772620.20220204192733.jpg</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11900</t>
+          <t>49000</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
@@ -4480,10 +4476,14 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>로베르타디까메리노</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr"/>
+          <t>마일론</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>명품고급디퓨저</t>
+        </is>
+      </c>
       <c r="K65" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4511,37 +4511,45 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>1+1 랑스 차량용 방향제 송풍구 디퓨저 블랙</t>
+          <t>토씨 클래시맨 명품 고급 차량용방향제 룸미러걸이형</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=85163337606</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25695599950</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8516333/85163337606.1.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2569559/25695599950.20220704103706.jpg</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>9900</t>
+          <t>85000</t>
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
         <is>
-          <t>랑스RANGS</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
+          <t>일반 - 가격비교 상품</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>토씨</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>토씨</t>
+        </is>
+      </c>
       <c r="K66" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4569,22 +4577,22 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>빅쏘 카로브 차량용방향제 디퓨저 송풍구형</t>
+          <t>언더스코어 오버라인 오버타이거 호랑이 퓨마 차량용 방향제 자동차 디퓨저 OL-CFOT</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26310652183</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30404262618</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2631065/26310652183.20211126145332.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3040426/30404262618.20220316162835.jpg</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>19900</t>
+          <t>35900</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
@@ -4600,12 +4608,12 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>빅쏘</t>
+          <t>언더스코어</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>빅쏘</t>
+          <t>언더스코어</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -4635,22 +4643,22 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>카보노 대쉬보드 거치형 프리미엄 차량용 방향제</t>
+          <t>코코쥬 차량용 방향제 송풍구 자동차 디퓨저 차 선물 2IN1</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25371363986</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=32801292390</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2537136/25371363986.20220104014030.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3280129/32801292390.20220608090651.jpg</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>46500</t>
+          <t>38000</t>
         </is>
       </c>
       <c r="F68" t="inlineStr"/>
@@ -4664,11 +4672,7 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>카보노</t>
-        </is>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
@@ -4712,7 +4716,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>22700</t>
+          <t>22690</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
@@ -4763,22 +4767,22 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>코코쥬 차량용 방향제 송풍구 자동차 디퓨저 차 선물 2IN1</t>
+          <t>제로스킨 로보트 태권브이 차량용 방향제 자동차 디퓨저 AD-KF90</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=32801292390</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29535937618</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3280129/32801292390.20220608090651.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2953593/29535937618.20211216102403.jpg</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>38000</t>
+          <t>46410</t>
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
@@ -4792,8 +4796,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>제로스킨</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>제로스킨</t>
+        </is>
+      </c>
       <c r="K70" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4821,22 +4833,22 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>로베르타디까메리노 방향제 송풍구 리틀포레스트향수</t>
+          <t>모노디트리 차량용 방향제 프리미엄 자동차 차 디퓨저</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29185219914</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30869812153</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2918521/29185219914.20220719173550.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3086981/30869812153.20220210025122.jpg</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11900</t>
+          <t>34000</t>
         </is>
       </c>
       <c r="F71" t="inlineStr"/>
@@ -4850,11 +4862,7 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>로베르타디까메리노</t>
-        </is>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
@@ -4883,22 +4891,22 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>모먼트 리필액 1+1 고급 차량용 디퓨저 자동차 차량 송풍구 방향제 신차 선물 차 향수</t>
+          <t>오마르 퍼퓸베어 베어브릭 차량용방향제 기본형</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31558660043</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27192765898</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3155866/31558660043.20220401021156.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2719276/27192765898.20220330020644.jpg</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>9700</t>
+          <t>13850</t>
         </is>
       </c>
       <c r="F72" t="inlineStr"/>
@@ -4914,7 +4922,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>모먼트</t>
+          <t>오마르</t>
         </is>
       </c>
       <c r="J72" t="inlineStr"/>
@@ -4945,22 +4953,22 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>오마르 퍼퓸베어 베어브릭 차량용방향제 기본형</t>
+          <t>모먼트 리필액 1+1 고급 차량용 디퓨저 자동차 차량 송풍구 방향제 신차 선물 차 향수</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27192765898</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31558660043</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2719276/27192765898.20220330020644.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3155866/31558660043.20220401021156.jpg</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>13850</t>
+          <t>9700</t>
         </is>
       </c>
       <c r="F73" t="inlineStr"/>
@@ -4976,7 +4984,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>오마르</t>
+          <t>모먼트</t>
         </is>
       </c>
       <c r="J73" t="inlineStr"/>
@@ -5007,22 +5015,22 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>P&amp;amp;G 페브리즈 차량용 방향제 2.2ml</t>
+          <t>로베르타디까메리노 방향제 송풍구 리틀포레스트향수</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20397190459</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29185219914</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2039719/20397190459.20190726113415.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2918521/29185219914.20220719173550.jpg</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>7820</t>
+          <t>11900</t>
         </is>
       </c>
       <c r="F74" t="inlineStr"/>
@@ -5038,14 +5046,10 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>페브리즈</t>
-        </is>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>P&amp;G</t>
-        </is>
-      </c>
+          <t>로베르타디까메리노</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -5073,22 +5077,22 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>제로스킨 로보트 태권브이 차량용 방향제 자동차 디퓨저 AD-KF90</t>
+          <t>청개구리 멤브렌 방향제</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29535937618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29899764272</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2953593/29535937618.20211216102403.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2989976/29899764272.20211201020417.jpg</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>46410</t>
+          <t>1690</t>
         </is>
       </c>
       <c r="F75" t="inlineStr"/>
@@ -5102,16 +5106,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>제로스킨</t>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>제로스킨</t>
-        </is>
-      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -5139,22 +5135,22 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>센텍 디센트 스포이드 디퓨저 리필 자동차 방향제</t>
+          <t>P&amp;amp;G 페브리즈 차량용 방향제 2.2ml</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26762803190</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20397190459</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2676280/26762803190.20220330024851.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2039719/20397190459.20190726113415.jpg</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>4840</t>
+          <t>7820</t>
         </is>
       </c>
       <c r="F76" t="inlineStr"/>
@@ -5168,8 +5164,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>페브리즈</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>P&amp;G</t>
+        </is>
+      </c>
       <c r="K76" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -5197,37 +5201,45 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>청개구리 멤브렌 방향제</t>
+          <t>헤트라스 차량용 디퓨저 2개입 선물세트 방향제</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29899764272</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=84285504876</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2989976/29899764272.20211201020417.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8428550/84285504876.jpg</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>1690</t>
+          <t>9900</t>
         </is>
       </c>
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>헤트라스</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>헤트라스</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>헤트라스</t>
+        </is>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -5255,38 +5267,38 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>라엣 딥디크 타입 고급 명품 차량용 방향제 50ml</t>
+          <t>디캣 방향제 차량용 송풍구 SM5 G80</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=83308699005</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28534805614</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8330869/83308699005.2.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2853480/28534805614.20210823030729.jpg</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>17900</t>
+          <t>500</t>
         </is>
       </c>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr">
         <is>
-          <t>라엣 la et</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>딥티크</t>
+          <t>디캣</t>
         </is>
       </c>
       <c r="J78" t="inlineStr"/>
@@ -5317,43 +5329,43 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>헤트라스 차량용 디퓨저 2개입 선물세트 방향제</t>
+          <t>불스원 폴라프레쉬 NEW 선바이저 차량용 방향제</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=84285504876</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29422282618</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8428550/84285504876.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2942228/29422282618.20211027100552.jpg</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>9900</t>
+          <t>5530</t>
         </is>
       </c>
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr">
         <is>
-          <t>헤트라스</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>헤트라스</t>
+          <t>불스원</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>헤트라스</t>
+          <t>불스원</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -5383,22 +5395,22 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>명품고급디퓨저 마일론 갤러리2 차량용 방향제 MGAL-02</t>
+          <t>딥티크 차량용 방향제 케이스 베이 리필 세트</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30441772620</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28546536156</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3044177/30441772620.20220204192733.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2854653/28546536156.20220224012118.jpg</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>49000</t>
+          <t>20500</t>
         </is>
       </c>
       <c r="F80" t="inlineStr"/>
@@ -5414,14 +5426,10 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>마일론</t>
-        </is>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>명품고급디퓨저</t>
-        </is>
-      </c>
+          <t>딥티크</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -5449,22 +5457,22 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>메이튼 차량용 방향제 십이지신 갓타이거 호랑이</t>
+          <t>디씨네트워크 차량용 방향제 곰돌이 큐빅베어 1set</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=34941654618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27092943522</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3494165/34941654618.20220928141558.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2709294/27092943522.20220913115935.jpg</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>33900</t>
+          <t>17900</t>
         </is>
       </c>
       <c r="F81" t="inlineStr"/>
@@ -5480,12 +5488,12 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>메이튼</t>
+          <t>디씨네트워크</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>메이튼</t>
+          <t>디씨네트워크</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -5515,22 +5523,22 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>디캣 방향제 차량용 송풍구 SM5 G80</t>
+          <t>로베르타 디까메리노 차량용 방향제 100ml</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28534805614</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26801962830</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2853480/28534805614.20210823030729.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2680196/26801962830.20220217035825.jpg</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>8300</t>
         </is>
       </c>
       <c r="F82" t="inlineStr"/>
@@ -5544,11 +5552,7 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>디캣</t>
-        </is>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
@@ -5577,22 +5581,22 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>명품고급디퓨저 마일론 갤러리1 차량용 방향제 MGAL-01</t>
+          <t>센트몬스터 고체형 리필 카트리지 차량용 방향제</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30352215619</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24073927844</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3035221/30352215619.20220102155103.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2407392/24073927844.20200907231713.jpg</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>45000</t>
+          <t>5500</t>
         </is>
       </c>
       <c r="F83" t="inlineStr"/>
@@ -5608,14 +5612,10 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>마일론</t>
-        </is>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>명품고급디퓨저</t>
-        </is>
-      </c>
+          <t>센트몬스터</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -5643,22 +5643,22 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>로베르타 디까메리노 차량용 방향제 100ml</t>
+          <t>아로마케어 대용량 차량용 실내용 우드볼 방향제</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26801962830</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28593145674</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2680196/26801962830.20220217035825.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2859314/28593145674.20210826235019.jpg</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>8300</t>
+          <t>9770</t>
         </is>
       </c>
       <c r="F84" t="inlineStr"/>
@@ -5672,7 +5672,11 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I84" t="inlineStr"/>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>아로마케어</t>
+        </is>
+      </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
@@ -5701,43 +5705,43 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>캘리포니아센트 카센트 차량용 방향제</t>
+          <t>명품 백화점 차 방향제 고급 블랙체리 자동차 디퓨저 새차 선물</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20309241612</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=84543919273</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2030924/20309241612.20190719121300.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8454391/84543919273.8.jpg</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>3400</t>
+          <t>14900</t>
         </is>
       </c>
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>센트데코</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>캘리포니아센트</t>
+          <t>조말론</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>캘리포니아센트</t>
+          <t>센트데코</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -5767,45 +5771,41 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>명품 백화점 차 방향제 고급 블랙체리 자동차 디퓨저 새차 선물</t>
+          <t>카보노 대쉬보드 거치형 프리미엄 차량용 방향제</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=84543919273</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25371363986</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8454391/84543919273.8.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2537136/25371363986.20220104014030.jpg</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>14900</t>
+          <t>46500</t>
         </is>
       </c>
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr">
         <is>
-          <t>센트데코</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>조말론</t>
-        </is>
-      </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>센트데코</t>
-        </is>
-      </c>
+          <t>카보노</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -5833,22 +5833,22 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>센트몬스터 고체형 리필 카트리지 차량용 방향제</t>
+          <t>로베르타디까메리노 차량용 방향제 일반형3P 60ml</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24073927844</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24030450488</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2407392/24073927844.20200907231713.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2403045/24030450488.20220305050205.jpg</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>5500</t>
+          <t>15500</t>
         </is>
       </c>
       <c r="F87" t="inlineStr"/>
@@ -5864,7 +5864,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>센트몬스터</t>
+          <t>로베르타디까메리노</t>
         </is>
       </c>
       <c r="J87" t="inlineStr"/>
@@ -5895,22 +5895,22 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>아로마케어 대용량 차량용 실내용 우드볼 방향제</t>
+          <t>로베르타디까메리노 방향제 크롬 60ml 3P</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28593145674</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24046743066</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2859314/28593145674.20210826235019.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2404674/24046743066.20211117044215.jpg</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>9770</t>
+          <t>18090</t>
         </is>
       </c>
       <c r="F88" t="inlineStr"/>
@@ -5926,7 +5926,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>아로마케어</t>
+          <t>로베르타디까메리노</t>
         </is>
       </c>
       <c r="J88" t="inlineStr"/>
@@ -5957,22 +5957,22 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>불스원 그라스 레스떼렐 방향제 110ml</t>
+          <t>양키캔들 얼티메이트 미드썸머나잇 차량용 방향제</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=5887774761</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25940561903</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_5887774/5887774761.20180928095307.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2594056/25940561903.20210209203509.jpg</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>10300</t>
+          <t>3080</t>
         </is>
       </c>
       <c r="F89" t="inlineStr"/>
@@ -5988,12 +5988,12 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>불스원</t>
+          <t>양키캔들</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>불스원</t>
+          <t>양키캔들</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -6023,22 +6023,22 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>로베르타디까메리노 차량용 방향제 일반형3P 60ml</t>
+          <t>에이비 얼굴 일러스트 사진 차량용방향제 2set</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24030450488</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27190906522</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2403045/24030450488.20220305050205.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2719090/27190906522.20210518150908.jpg</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>15500</t>
+          <t>17900</t>
         </is>
       </c>
       <c r="F90" t="inlineStr"/>
@@ -6054,10 +6054,14 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>로베르타디까메리노</t>
-        </is>
-      </c>
-      <c r="J90" t="inlineStr"/>
+          <t>에이비</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>에이비</t>
+        </is>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -6085,22 +6089,22 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>불스원 디즈니 통풍구 차량용 방향제</t>
+          <t>발롱디 고급 차량용 방향제 명품 디퓨저</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25158224812</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=19402043182</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2515822/25158224812.20211119125115.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1940204/19402043182.20190731114447.jpg</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>8500</t>
+          <t>49000</t>
         </is>
       </c>
       <c r="F91" t="inlineStr"/>
@@ -6116,14 +6120,10 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>불스원</t>
-        </is>
-      </c>
-      <c r="J91" t="inlineStr">
-        <is>
-          <t>불스원</t>
-        </is>
-      </c>
+          <t>발롱디</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -6151,22 +6151,22 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>로베르타디까메리노 방향제 크롬 60ml 3P</t>
+          <t>아이수피아 피톤치드 아로마 차량용 방향제</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24046743066</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24046697950</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2404674/24046743066.20211117044215.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2404669/24046697950.20200905000355.jpg</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>18090</t>
+          <t>15950</t>
         </is>
       </c>
       <c r="F92" t="inlineStr"/>
@@ -6182,7 +6182,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>로베르타디까메리노</t>
+          <t>아이수피아</t>
         </is>
       </c>
       <c r="J92" t="inlineStr"/>
@@ -6213,33 +6213,33 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>리틀트리 차량용 방향제 블랙아이스 HIT</t>
+          <t>플라떼 차량용 방향제 천연 명품 백화점 고급패키지 디퓨저 120ml</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24032293838</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=85173388881</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2403229/24032293838.20200904031139.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8517338/85173388881.jpg</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>1130</t>
+          <t>19800</t>
         </is>
       </c>
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>나오랩</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I93" t="inlineStr"/>
@@ -6271,22 +6271,22 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>토씨 브리즈맨 명품 고급 차량용방향제 송풍구타입형</t>
+          <t>불스원 그라스 레스떼렐 방향제 110ml</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28389278554</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=5887774761</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2838927/28389278554.20220826103921.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_5887774/5887774761.20180928095307.jpg</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>59000</t>
+          <t>10300</t>
         </is>
       </c>
       <c r="F94" t="inlineStr"/>
@@ -6302,12 +6302,12 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>토씨</t>
+          <t>불스원</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>토씨</t>
+          <t>불스원</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -6337,22 +6337,22 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>양키캔들 얼티메이트 미드썸머나잇 차량용 방향제</t>
+          <t>스타투스 커피 방향제2p 모카향+헤이즐넛향</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25940561903</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24049154009</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2594056/25940561903.20210209203509.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2404915/24049154009.20200905050149.jpg</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>3150</t>
+          <t>3640</t>
         </is>
       </c>
       <c r="F95" t="inlineStr"/>
@@ -6366,16 +6366,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>양키캔들</t>
-        </is>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>양키캔들</t>
-        </is>
-      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -6403,36 +6395,40 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>플라떼 차량용 방향제 천연 명품 백화점 고급패키지 디퓨저 120ml</t>
+          <t>에멜시 클립형 차량용 자동차방향제</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=85173388881</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24015321886</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8517338/85173388881.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2401532/24015321886.20201218150649.jpg</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>19800</t>
+          <t>21760</t>
         </is>
       </c>
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr">
         <is>
-          <t>나오랩</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
-        </is>
-      </c>
-      <c r="I96" t="inlineStr"/>
+          <t>일반 - 가격비교 상품</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>에멜시</t>
+        </is>
+      </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
@@ -6476,7 +6472,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>9870</t>
+          <t>9890</t>
         </is>
       </c>
       <c r="F97" t="inlineStr"/>
@@ -6519,22 +6515,22 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>딥티크 차량용 방향제 케이스 베이 리필 세트</t>
+          <t>앵그리차일드 한야 도깨비 차량용 방향제</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28546536156</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=32626419897</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2854653/28546536156.20220224012118.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3262641/32626419897.20220528080017.jpg</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>20500</t>
+          <t>45000</t>
         </is>
       </c>
       <c r="F98" t="inlineStr"/>
@@ -6548,11 +6544,7 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I98" t="inlineStr">
-        <is>
-          <t>딥티크</t>
-        </is>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
@@ -6581,22 +6573,22 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>발롱디 고급 차량용 방향제 명품 디퓨저</t>
+          <t>멜린 베어 파일럿 프로펠러 차량용 방향제</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=19402043182</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=33272908872</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1940204/19402043182.20190731114447.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3327290/33272908872.20220704113112.jpg</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>49000</t>
+          <t>13900</t>
         </is>
       </c>
       <c r="F99" t="inlineStr"/>
@@ -6612,7 +6604,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>발롱디</t>
+          <t>멜린</t>
         </is>
       </c>
       <c r="J99" t="inlineStr"/>
@@ -6643,22 +6635,22 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>스타투스 커피 방향제2p 모카향+헤이즐넛향</t>
+          <t>메이튼 차량용 방향제 십이지신 갓타이거 호랑이</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24049154009</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=34941654618</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2404915/24049154009.20200905050149.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3494165/34941654618.20220928141558.jpg</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>3640</t>
+          <t>33900</t>
         </is>
       </c>
       <c r="F100" t="inlineStr"/>
@@ -6672,8 +6664,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>메이튼</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>메이튼</t>
+        </is>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -6701,22 +6701,22 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>아이수피아 피톤치드 아로마 차량용 방향제</t>
+          <t>게이즈샵 지독 차량용 방향제</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24046697950</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29039136038</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2404669/24046697950.20200905000355.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2903913/29039136038.20220223152854.jpg</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>18990</t>
+          <t>49000</t>
         </is>
       </c>
       <c r="F101" t="inlineStr"/>
@@ -6732,10 +6732,14 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>아이수피아</t>
-        </is>
-      </c>
-      <c r="J101" t="inlineStr"/>
+          <t>게이즈샵</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>게이즈</t>
+        </is>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
           <t>생활/건강</t>

--- a/output.xlsx
+++ b/output.xlsx
@@ -439,45 +439,41 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>아뮈잔트 고급 차량용 방향제 명품 자동차 디퓨저 블랙 120ml</t>
+          <t>바흐가르트 차량용방향제 석고 송풍구 방향제</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=80920267289</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30841337224</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8092026/80920267289.13.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3084133/30841337224.20221012115129.jpg</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>20000</t>
+          <t>38900</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
-          <t>아뮈잔트</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>아뮈잔트</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>아뮈잔트</t>
-        </is>
-      </c>
+          <t>바흐가르트</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -505,41 +501,45 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>바흐가르트 차량용방향제 석고 송풍구 방향제</t>
+          <t>아뮈잔트 고급 차량용 방향제 명품 자동차 디퓨저 블랙 120ml</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30841337224</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=80920267289</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3084133/30841337224.20221012115129.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8092026/80920267289.13.jpg</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>38900</t>
+          <t>20000</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>아뮈잔트</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>바흐가르트</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr"/>
+          <t>아뮈잔트</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>아뮈잔트</t>
+        </is>
+      </c>
       <c r="K3" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -567,45 +567,41 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>디프로젝트 디불 불독 고급 차량용 방향제 자동차 디퓨저</t>
+          <t>쓰리나인 명품 차량용 방향제 힙한늑대 고급 불독 자동차 디퓨저</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=13697148540</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82749964205</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1369714/13697148540.20221206180621.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8274996/82749964205.12.jpg</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>49000</t>
+          <t>29850</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>THREENINE</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>디프로젝트</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>디프로젝트</t>
-        </is>
-      </c>
+          <t>쓰리나인</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -633,41 +629,45 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>쓰리나인 명품 차량용 방향제 힙한늑대 고급 불독 자동차 디퓨저</t>
+          <t>제이엠제이라인 도슈아 클래식 프리미엄 차량용 방향제</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82749964205</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=17787594512</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8274996/82749964205.12.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1778759/17787594512.20210802225254.jpg</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>29850</t>
+          <t>29750</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t>THREENINE</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>쓰리나인</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr"/>
+          <t>도슈아</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>제이엠제이라인</t>
+        </is>
+      </c>
       <c r="K5" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -695,45 +695,37 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>벤볼릭 명품 차량용 방향제 고급 송풍구 자동차 차량 디퓨져</t>
+          <t>리틀트리 걸이형 종이 방향제</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82293143959</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=7162545992</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8229314/82293143959.17.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_7162545/7162545992.20190731170829.jpg</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>28000</t>
+          <t>1140</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t>매드포모던</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>벤볼릭</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>키니캔들</t>
-        </is>
-      </c>
+          <t>일반 - 가격비교 상품</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -761,22 +753,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>명품고급디퓨저 마일론 갤러리3 차량용 방향제 MGAL-03</t>
+          <t>에이비 베어브릭 차량용방향제 석고 고급 디퓨저 차방향제  ab-df01</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31231762618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27765010523</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3123176/31231762618.20220310141449.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2776501/27765010523.20221017112726.jpg</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>39900</t>
+          <t>11900</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
@@ -792,12 +784,12 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>마일론</t>
+          <t>에이비</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>명품고급디퓨저</t>
+          <t>에이비</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -827,45 +819,41 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>제이엠제이라인 도슈아 클래식 프리미엄 차량용 방향제</t>
+          <t>[아이수피아] 천연차량방향제 3개세트(송풍구거치형)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=17787594512</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=81628659125</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1778759/17787594512.20210802225254.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8162865/81628659125.5.jpg</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>29750</t>
+          <t>38000</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>아이수피아1</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>도슈아</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>제이엠제이라인</t>
-        </is>
-      </c>
+          <t>아이수피아</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -893,22 +881,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>에이비 베어브릭 차량용방향제 석고 고급 디퓨저 차방향제  ab-df01</t>
+          <t>불스원 폴라프레쉬 선바이저 방향제 리필</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27765010523</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=17787599329</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2776501/27765010523.20221017112726.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1778759/17787599329.20220107133652.jpg</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11900</t>
+          <t>2080</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
@@ -924,12 +912,12 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>에이비</t>
+          <t>불스원</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>에이비</t>
+          <t>불스원</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -959,22 +947,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>리틀트리 걸이형 종이 방향제</t>
+          <t>명품고급디퓨저 마일론 갤러리3 차량용 방향제 MGAL-03</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=7162545992</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31231762618</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_7162545/7162545992.20190731170829.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3123176/31231762618.20220310141449.jpg</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1180</t>
+          <t>39900</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
@@ -988,8 +976,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>마일론</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>명품고급디퓨저</t>
+        </is>
+      </c>
       <c r="K10" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1079,22 +1075,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>이븐도우 생귄 쥬얼리 클립 차량용 방향제</t>
+          <t>디프로젝트 디불 불독 고급 차량용 방향제 자동차 디퓨저</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=19103746764</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=13697148540</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1910374/19103746764.20220213194209.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1369714/13697148540.20221206180621.jpg</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>32800</t>
+          <t>49000</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
@@ -1110,12 +1106,12 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>생귄</t>
+          <t>디프로젝트</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>이븐도우</t>
+          <t>디프로젝트</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1145,41 +1141,45 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>[아이수피아] 천연차량방향제 3개세트(송풍구거치형)</t>
+          <t>에이비 큐빅베어브릭 차량용 방향제 AB-DF02</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=81628659125</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27944185800</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8162865/81628659125.5.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2794418/27944185800.20220908171344.jpg</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>38000</t>
+          <t>18900</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>아이수피아1</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>아이수피아</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr"/>
+          <t>에이비</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>에이비</t>
+        </is>
+      </c>
       <c r="K13" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1207,22 +1207,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>에이비 큐빅베어브릭 차량용 방향제 AB-DF02</t>
+          <t>디프로젝트 디릴라고 고릴라 차량용 방향제</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27944185800</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26801331279</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2794418/27944185800.20220908171344.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2680133/26801331279.20221206180537.jpg</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>18900</t>
+          <t>49000</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
@@ -1238,12 +1238,12 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>에이비</t>
+          <t>디프로젝트</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>에이비</t>
+          <t>디프로젝트</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1273,43 +1273,43 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>양키캔들 카자얼티메이트 차량용 방향제</t>
+          <t>벤볼릭 명품 차량용 방향제 고급 송풍구 자동차 차량 디퓨져</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29582915037</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82293143959</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2958291/29582915037.20220919183130.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8229314/82293143959.17.jpg</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2560</t>
+          <t>28000</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>벤볼릭</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>양키캔들</t>
+          <t>벤볼릭</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>양키캔들</t>
+          <t>키니캔들</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1339,22 +1339,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>디프로젝트 디릴라고 고릴라 차량용 방향제</t>
+          <t>양키캔들 카자얼티메이트 차량용 방향제</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26801331279</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29582915037</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2680133/26801331279.20221206180537.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2958291/29582915037.20220919183130.jpg</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>49000</t>
+          <t>2550</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
@@ -1370,12 +1370,12 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>디프로젝트</t>
+          <t>양키캔들</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>디프로젝트</t>
+          <t>양키캔들</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1471,22 +1471,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>딥티크 차량용방향제 세트 케이스 + 리필용 캡슐</t>
+          <t>불스원 그라스 디퓨져 차량용 방향제 105ml</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28620531681</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=12140232094</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2862053/28620531681.20220308051600.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1214023/12140232094.20211006140204.jpg</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>88900</t>
+          <t>10480</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
@@ -1502,10 +1502,14 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>딥티크</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr"/>
+          <t>불스원</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>불스원</t>
+        </is>
+      </c>
       <c r="K18" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1533,22 +1537,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>불스원 폴라프레쉬 선바이저 방향제 리필</t>
+          <t>딥티크 차량용방향제 세트 케이스 + 리필용 캡슐</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=17787599329</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28620531681</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1778759/17787599329.20220107133652.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2862053/28620531681.20220308051600.jpg</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2080</t>
+          <t>88900</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
@@ -1564,14 +1568,10 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>불스원</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>불스원</t>
-        </is>
-      </c>
+          <t>딥티크</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1614,7 +1614,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>85000</t>
+          <t>81180</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
@@ -1665,22 +1665,22 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>불스원 그라스 디퓨져 차량용 방향제 105ml</t>
+          <t>에이센트 네이처 차량용 디퓨저 방향제 120ml</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=12140232094</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27334130786</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1214023/12140232094.20211006140204.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2733413/27334130786.20211216041142.jpg</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>10490</t>
+          <t>7900</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
@@ -1696,14 +1696,10 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>불스원</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>불스원</t>
-        </is>
-      </c>
+          <t>에이센트</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1731,22 +1727,22 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>에이센트 네이처 차량용 디퓨저 방향제 120ml</t>
+          <t>이븐도우 생귄 쥬얼리 클립 차량용 방향제</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27334130786</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=19103746764</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2733413/27334130786.20211216041142.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1910374/19103746764.20220213194209.jpg</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>7900</t>
+          <t>32800</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
@@ -1762,10 +1758,14 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>에이센트</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr"/>
+          <t>생귄</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>이븐도우</t>
+        </is>
+      </c>
       <c r="K22" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1793,22 +1793,22 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>불스원 그라스 디퓨저 블루 차량용 방향제 100ml</t>
+          <t>픽도큐먼트 베어브릭 송풍구 차량용 방향제</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24063116873</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29900193281</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2406311/24063116873.20210111145156.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2990019/29900193281.20211208030917.jpg</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11680</t>
+          <t>14800</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
@@ -1822,11 +1822,7 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>불스원</t>
-        </is>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
@@ -1855,38 +1851,38 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>아트센트 천연소가죽 명품 차량용 방향제 고급 송풍구 디퓨저 차방향제</t>
+          <t>라피네르 베이직 디퓨저 블랙에디션 차량용 방향제 120ml</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=83675558871</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29178319224</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8367555/83675558871.27.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2917831/29178319224.20220125123447.jpg</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>39800</t>
+          <t>20800</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
-          <t>아트센트</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>아트센트</t>
+          <t>라피네르</t>
         </is>
       </c>
       <c r="J24" t="inlineStr"/>
@@ -1917,38 +1913,38 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>라피네르 베이직 디퓨저 블랙에디션 차량용 방향제 120ml</t>
+          <t>아트센트 고급 차량용 방향제 명품 자동차 송풍구 디퓨저</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29178319224</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=83675558871</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2917831/29178319224.20220125123447.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8367555/83675558871.27.jpg</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>20800</t>
+          <t>39800</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>아트센트</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>라피네르</t>
+          <t>아트센트</t>
         </is>
       </c>
       <c r="J25" t="inlineStr"/>
@@ -2045,22 +2041,22 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>엠퓨처 불독 송풍구 고급 차량용 방향제 디퓨저 MF-CAF02</t>
+          <t>불스원 그라스 디퓨저 블루 차량용 방향제 100ml</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30458791731</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24063116873</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3045879/30458791731.20220117151934.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2406311/24063116873.20210111145156.jpg</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>14890</t>
+          <t>11680</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
@@ -2076,7 +2072,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>엠퓨처</t>
+          <t>불스원</t>
         </is>
       </c>
       <c r="J27" t="inlineStr"/>
@@ -2122,7 +2118,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>41260</t>
+          <t>41180</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
@@ -2169,36 +2165,40 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>미스터앤미세스 니키 클래식 차량용 방향제 본품</t>
+          <t>잉글리쉬페어 우드볼 차량용방향제 센트247 대용량 명품 고급 디퓨저 120ml</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25359648694</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82876701063</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2535964/25359648694.20201224195431.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8287670/82876701063.7.jpg</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>7390</t>
+          <t>24900</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>센트247 SCENT247</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr"/>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>조말론</t>
+        </is>
+      </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
@@ -2293,22 +2293,22 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>미스터앤미세스 니키 차량용 방향제 리필</t>
+          <t>로베르타디까메리노 원형 대용량 방향제 100ml</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=10149695240</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=5640406696</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1014969/10149695240.20201014180005.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_5640406/5640406696.20190805143958.jpg</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>5890</t>
+          <t>13800</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
@@ -2322,8 +2322,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>로베르타디까메리노</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>로베르타디까메리노</t>
+        </is>
+      </c>
       <c r="K31" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2351,22 +2359,22 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>양키캔들 벤트스틱 차량용 방향제 4P입</t>
+          <t>엠퓨처 불독 송풍구 고급 차량용 방향제 디퓨저 MF-CAF02</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=6552648097</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30458791731</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_6552648/6552648097.20190731160942.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3045879/30458791731.20220117151934.jpg</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>14890</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
@@ -2382,14 +2390,10 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>양키캔들</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>양키캔들</t>
-        </is>
-      </c>
+          <t>엠퓨처</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2417,22 +2421,22 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>에이비 차량용 방향제 도베르만 고급 AB-DF04</t>
+          <t>로얄워터 텀블러 모양 차량용 방향제 신차선물</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30317520568</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29835967618</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3031752/30317520568.20220110102207.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2983596/29835967618.20221110131209.jpg</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>28000</t>
+          <t>49000</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
@@ -2448,12 +2452,12 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>에이비</t>
+          <t>로얄워터</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>에이비</t>
+          <t>로얄워터</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2483,40 +2487,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>잉글리쉬페어 우드볼 차량용방향제 센트247 대용량 명품 고급 디퓨저 120ml</t>
+          <t>미스터앤미세스 니키 클래식 차량용 방향제 본품</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82876701063</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25359648694</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8287670/82876701063.7.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2535964/25359648694.20201224195431.jpg</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>24900</t>
+          <t>7390</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
-          <t>센트247 SCENT247</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>조말론</t>
-        </is>
-      </c>
+          <t>일반 - 가격비교 상품</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
@@ -2545,22 +2545,22 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>마블 스턴 아이언맨 차량용 방향제 ST-IM01</t>
+          <t>양키캔들 벤트스틱 차량용 방향제 4P입</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30644523374</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=6552648097</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3064452/30644523374.20220923101852.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_6552648/6552648097.20190731160942.jpg</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>34800</t>
+          <t>3090</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
@@ -2576,10 +2576,14 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>마블</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr"/>
+          <t>양키캔들</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>양키캔들</t>
+        </is>
+      </c>
       <c r="K35" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2607,22 +2611,22 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>디프로젝트 리필킷 디불 디버니 디릴라고 차량용방향제 자동차 디퓨저 고체 리필 DP-RF02</t>
+          <t>미스터앤미세스 니키 차량용 방향제 리필</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18367838563</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=10149695240</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1836783/18367838563.20221206180600.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1014969/10149695240.20201014180005.jpg</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>13000</t>
+          <t>5890</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
@@ -2636,16 +2640,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>디프로젝트</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>디프로젝트</t>
-        </is>
-      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2673,37 +2669,45 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>리틀트리 방향제 차량용 실내용 걸이형 종이 썸머린넨</t>
+          <t>디프로젝트 리필킷 디불 디버니 디릴라고 차량용방향제 자동차 디퓨저 고체 리필 DP-RF02</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82937356876</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18367838563</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8293735/82937356876.3.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1836783/18367838563.20221206180600.jpg</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>1290</t>
+          <t>13000</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
-          <t>프랜드캣</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
+          <t>일반 - 가격비교 상품</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>디프로젝트</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>디프로젝트</t>
+        </is>
+      </c>
       <c r="K37" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2731,22 +2735,22 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>픽도큐먼트 베어브릭 송풍구 차량용 방향제</t>
+          <t>JW중외제약 JW생활건강 피톤케어 차량용 방향제 리필 카트리지</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29900193281</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=15901498616</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2990019/29900193281.20211208030917.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1590149/15901498616.20221101142716.jpg</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>14800</t>
+          <t>17000</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
@@ -2760,8 +2764,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>JW생활건강</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>JW중외제약</t>
+        </is>
+      </c>
       <c r="K38" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2789,22 +2801,22 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>허브타임 시그니처 차량용 방향제 60ml</t>
+          <t>불스원 그라스 디퓨저 블랙베리 체리 방향제 105ml</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30756073471</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26677172452</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3075607/30756073471.20220202024136.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2667717/26677172452.20210407202430.jpg</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>16000</t>
+          <t>9800</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
@@ -2820,12 +2832,12 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>허브타임</t>
+          <t>불스원</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>허브타임</t>
+          <t>불스원</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -2855,40 +2867,36 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>페브리즈 차량용 방향제 맑은하늘 바람 2.2ml</t>
+          <t>리틀트리 방향제 차량용 실내용 걸이형 종이 썸머린넨</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24032457103</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82937356876</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2403245/24032457103.20210720152653.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8293735/82937356876.3.jpg</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2640</t>
+          <t>1290</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>프랜드캣</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>페브리즈</t>
-        </is>
-      </c>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
@@ -2917,22 +2925,22 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>로얄워터 텀블러 모양 차량용 방향제 신차선물</t>
+          <t>허브타임 시그니처 차량용 방향제 60ml</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29835967618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30756073471</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2983596/29835967618.20221110131209.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3075607/30756073471.20220202024136.jpg</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>49000</t>
+          <t>16000</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
@@ -2948,12 +2956,12 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>로얄워터</t>
+          <t>허브타임</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>로얄워터</t>
+          <t>허브타임</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -2983,22 +2991,22 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>불스원 그라스 디퓨저 블랙베리 체리 방향제 105ml</t>
+          <t>페브리즈 차량용 방향제 맑은하늘 바람 2.2ml</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26677172452</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24032457103</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2667717/26677172452.20210407202430.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2403245/24032457103.20210720152653.jpg</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>9800</t>
+          <t>2640</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
@@ -3014,14 +3022,10 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>불스원</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>불스원</t>
-        </is>
-      </c>
+          <t>페브리즈</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3049,22 +3053,22 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>JW중외제약 JW생활건강 피톤케어 차량용 방향제 리필 카트리지</t>
+          <t>마블 스턴 아이언맨 차량용 방향제 ST-IM01</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=15901498616</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30644523374</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1590149/15901498616.20221101142716.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3064452/30644523374.20220923101852.jpg</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>17000</t>
+          <t>34800</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
@@ -3080,14 +3084,10 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>JW생활건강</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>JW중외제약</t>
-        </is>
-      </c>
+          <t>마블</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3115,22 +3115,22 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>제이앤컴퍼니 벨르아망 차량용방향제 에어도넛 리필키트</t>
+          <t>P&amp;amp;G 페브리즈 차량용 방향제 2.2ml</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28686680816</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20397190459</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2868668/28686680816.20220614133410.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2039719/20397190459.20190726113415.jpg</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>6000</t>
+          <t>7820</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
@@ -3146,12 +3146,12 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>벨르아망</t>
+          <t>페브리즈</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>제이앤컴퍼니</t>
+          <t>P&amp;G</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -3181,22 +3181,22 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>제이앤컴퍼니 벨르아망 포켓몬 피규어 차량용 방향제</t>
+          <t>제이앤컴퍼니 벨르아망 차량용방향제 에어도넛 리필키트</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=33464840631</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28686680816</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3346484/33464840631.20220713121644.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2868668/28686680816.20220614133410.jpg</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>19800</t>
+          <t>6000</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
@@ -3247,22 +3247,22 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>제이엠제이라인 도슈아 차량용 방향제 리필 도자기</t>
+          <t>에이비 차량용 방향제 도베르만 고급 AB-DF04</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20347407194</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30317520568</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2034740/20347407194.20211001120304.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3031752/30317520568.20220110102207.jpg</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>28000</t>
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
@@ -3278,12 +3278,12 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>도슈아</t>
+          <t>에이비</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>제이엠제이라인</t>
+          <t>에이비</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -3313,22 +3313,22 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>산도깨비 차량용 멤브렌 리필 방향제</t>
+          <t>제이엠제이라인 도슈아 차량용 방향제 리필 도자기</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25695237598</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20347407194</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2569523/25695237598.20220326034624.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2034740/20347407194.20211001120304.jpg</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>22999</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
@@ -3344,10 +3344,14 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>산도깨비</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr"/>
+          <t>도슈아</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>제이엠제이라인</t>
+        </is>
+      </c>
       <c r="K47" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3375,22 +3379,22 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>센트몬스터 고양이 차량용 방향제 고급 디퓨져</t>
+          <t>제이앤컴퍼니 벨르아망 포켓몬 피규어 차량용 방향제</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24163460435</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=33464840631</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2416346/24163460435.20210124121840.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3346484/33464840631.20220713121644.jpg</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>39000</t>
+          <t>19800</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
@@ -3406,10 +3410,14 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>센트몬스터</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr"/>
+          <t>벨르아망</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>제이앤컴퍼니</t>
+        </is>
+      </c>
       <c r="K48" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3437,22 +3445,22 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>로베르타디까메리노 원형 대용량 방향제 100ml</t>
+          <t>산도깨비 차량용 멤브렌 리필 방향제</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=5640406696</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25695237598</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_5640406/5640406696.20190805143958.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2569523/25695237598.20220326034624.jpg</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>13800</t>
+          <t>22999</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
@@ -3468,14 +3476,10 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>로베르타디까메리노</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>로베르타디까메리노</t>
-        </is>
-      </c>
+          <t>산도깨비</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3503,28 +3507,28 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>페브리즈 차량용 방향제 2.2ml 맑은하늘바람 차방향제 자동차 디퓨저 신차선물</t>
+          <t>딥디크 고급 명품 차량용 방향제 BAIES 베이 리필</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82250772533</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=84253191120</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8225077/82250772533.14.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8425319/84253191120.5.jpg</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2650</t>
+          <t>49200</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
-          <t>위즈브리드</t>
+          <t>Louis Fennet</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -3532,8 +3536,16 @@
           <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>딥티크</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>딥티크</t>
+        </is>
+      </c>
       <c r="K50" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3561,45 +3573,37 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>산도깨비 멤브렌 피톤치드 차량용 방향제 6g</t>
+          <t>플라떼 차량용 방향제 천연 명품 백화점 고급패키지 디퓨저 120ml</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20254478730</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=85173388881</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2025447/20254478730.20190716114220.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8517338/85173388881.1.jpg</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2290</t>
+          <t>21800</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>나오랩</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>산도깨비</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>산도깨비</t>
-        </is>
-      </c>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3627,22 +3631,22 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>KAN 뷰센트 자동차 송풍구 메탈 차량용 방향제 선물 2세트</t>
+          <t>센트몬스터 고양이 차량용 방향제 고급 디퓨져</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31597320645</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24163460435</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3159732/31597320645.20220429115323.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2416346/24163460435.20210124121840.jpg</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>25800</t>
+          <t>39000</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
@@ -3658,14 +3662,10 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>뷰센트</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>KAN</t>
-        </is>
-      </c>
+          <t>센트몬스터</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3693,22 +3693,22 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>불스원 폴라프레쉬 선바이저 차량용 방향제</t>
+          <t>ELLA 프라임 호랑이 차량용 방향제 프로펠러</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24165357120</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30617053618</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2416535/24165357120.20220616110219.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3061705/30617053618.20220120171741.jpg</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>29700</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
@@ -3724,14 +3724,10 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>불스원</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>불스원</t>
-        </is>
-      </c>
+          <t>ELLA</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3759,22 +3755,22 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>명품고급디퓨저 마일론 갤러리1 차량용 방향제 MGAL-01</t>
+          <t>티커벨 TKB 붕붕 차량용 태양열 비행기 방향제</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30352215619</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26760512605</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3035221/30352215619.20220102155103.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2676051/26760512605.20220222045220.jpg</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>40000</t>
+          <t>11270</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
@@ -3790,14 +3786,10 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>마일론</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>명품고급디퓨저</t>
-        </is>
-      </c>
+          <t>티커벨</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3825,45 +3817,37 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>명품 백화점 차량용 방향제 디퓨저 고급 차방향제 벤츠 BMW 블랙체리</t>
+          <t>청개구리 멤브렌 방향제</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=84543919273</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29899764272</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8454391/84543919273.8.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2989976/29899764272.20211201020417.jpg</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>14900</t>
+          <t>1690</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
-          <t>센트데코</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>조말론</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>센트데코</t>
-        </is>
-      </c>
+          <t>일반 - 가격비교 상품</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3891,22 +3875,22 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>라미유 차량용 고급 송풍구 방향제 블랙체리향</t>
+          <t>산도깨비 멤브렌 피톤치드 차량용 방향제 6g</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30586965618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20254478730</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3058696/30586965618.20220421134837.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2025447/20254478730.20190716114220.jpg</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>14310</t>
+          <t>2290</t>
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
@@ -3922,12 +3906,12 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>라미유</t>
+          <t>산도깨비</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>라미유</t>
+          <t>산도깨비</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -3957,22 +3941,22 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>미스터앤미세스 체사레 시저 차량용 방향제</t>
+          <t>불스원 폴라프레쉬 선바이저 차량용 방향제</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=8119194241</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24165357120</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8119194/8119194241.20190802121728.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2416535/24165357120.20220616110219.jpg</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>7000</t>
+          <t>2500</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
@@ -3986,8 +3970,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>불스원</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>불스원</t>
+        </is>
+      </c>
       <c r="K57" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4015,43 +4007,43 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>딥디크 고급 명품 차량용 방향제 BAIES 베이 리필</t>
+          <t>명품고급디퓨저 마일론 갤러리1 차량용 방향제 MGAL-01</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=84253191120</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30352215619</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8425319/84253191120.5.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3035221/30352215619.20220102155103.jpg</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>49200</t>
+          <t>40000</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Louis Fennet</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>딥티크</t>
+          <t>마일론</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>딥티크</t>
+          <t>명품고급디퓨저</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -4081,28 +4073,28 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>플라떼 차량용 방향제 천연 명품 백화점 고급패키지 디퓨저 120ml</t>
+          <t>명품 백화점 차량용 방향제 디퓨저 고급 차방향제 벤츠 BMW 블랙체리</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=85173388881</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=84543919273</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8517338/85173388881.1.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8454391/84543919273.9.jpg</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>21800</t>
+          <t>14900</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr">
         <is>
-          <t>나오랩</t>
+          <t>센트데코</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -4110,8 +4102,16 @@
           <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>조말론</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>센트데코</t>
+        </is>
+      </c>
       <c r="K59" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4139,22 +4139,22 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>ELLA 프라임 호랑이 차량용 방향제 프로펠러</t>
+          <t>KAN 뷰센트 자동차 송풍구 메탈 차량용 방향제 선물 2세트</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30617053618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31597320645</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3061705/30617053618.20220120171741.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3159732/31597320645.20220429115323.jpg</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>29700</t>
+          <t>25800</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
@@ -4170,10 +4170,14 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>ELLA</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr"/>
+          <t>뷰센트</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>KAN</t>
+        </is>
+      </c>
       <c r="K60" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4201,45 +4205,37 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>P&amp;amp;G 페브리즈 차량용 방향제 2.2ml</t>
+          <t>페브리즈 차량용 방향제 2.2ml 맑은하늘바람 차방향제 자동차 디퓨저 신차선물</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20397190459</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82250772533</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2039719/20397190459.20190726113415.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8225077/82250772533.14.jpg</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>7820</t>
+          <t>2650</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>위즈브리드</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>페브리즈</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>P&amp;G</t>
-        </is>
-      </c>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4267,22 +4263,22 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>청개구리 멤브렌 방향제</t>
+          <t>미스터앤미세스 체사레 시저 차량용 방향제</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29899764272</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=8119194241</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2989976/29899764272.20211201020417.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8119194/8119194241.20190802121728.jpg</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>1690</t>
+          <t>7000</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
@@ -4325,22 +4321,22 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>카보노 대쉬보드 거치형 프리미엄 차량용 방향제</t>
+          <t>명품고급디퓨저 마일론 갤러리2 차량용 방향제 MGAL-02</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25371363986</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30441772620</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2537136/25371363986.20220104014030.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3044177/30441772620.20220204192733.jpg</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>46500</t>
+          <t>49000</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
@@ -4356,10 +4352,14 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>카보노</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr"/>
+          <t>마일론</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>명품고급디퓨저</t>
+        </is>
+      </c>
       <c r="K63" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4387,22 +4387,22 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>디캣 방향제 차량용 송풍구 SM5 G80</t>
+          <t>꾸미다 잇츠마이플라워 차량용 디퓨저 방향제 시리즈 고급자동차 새차선물</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28534805614</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28620463637</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2853480/28534805614.20210823030729.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2862046/28620463637.20221207181102.jpg</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>22690</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
@@ -4418,10 +4418,14 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>디캣</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr"/>
+          <t>잇츠마이플라워</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>꾸미다</t>
+        </is>
+      </c>
       <c r="K64" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4449,22 +4453,22 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>명품고급디퓨저 마일론 갤러리2 차량용 방향제 MGAL-02</t>
+          <t>메이튼 차량용 방향제 십이지신 갓타이거 호랑이</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30441772620</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=34941654618</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3044177/30441772620.20220204192733.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3494165/34941654618.20220928141558.jpg</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>49000</t>
+          <t>33900</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
@@ -4480,12 +4484,12 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>마일론</t>
+          <t>메이튼</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>명품고급디퓨저</t>
+          <t>메이튼</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -4515,22 +4519,22 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>로베르타디까메리노 차량용 방향제 일반형3P 60ml</t>
+          <t>라미유 차량용 고급 송풍구 방향제 블랙체리향</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24030450488</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30586965618</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2403045/24030450488.20220305050205.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3058696/30586965618.20220421134837.jpg</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>15500</t>
+          <t>14310</t>
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
@@ -4546,10 +4550,14 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>로베르타디까메리노</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr"/>
+          <t>라미유</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>라미유</t>
+        </is>
+      </c>
       <c r="K66" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4577,45 +4585,37 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>메이튼 차량용 방향제 십이지신 갓타이거 호랑이</t>
+          <t>미스터앤미세스 니키 리필 차량용 방향제</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=34941654618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=10017842540</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3494165/34941654618.20220928141558.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1001784/10017842540.20.jpg</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>33900</t>
+          <t>8000</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>반도향기나라</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>메이튼</t>
-        </is>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>메이튼</t>
-        </is>
-      </c>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4643,37 +4643,45 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>미스터앤미세스 니키 리필 차량용 방향제</t>
+          <t>빅쏘 카로브 차량용방향제 디퓨저 송풍구형</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=10017842540</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26310652183</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1001784/10017842540.20.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2631065/26310652183.20211126145332.jpg</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>8000</t>
+          <t>19900</t>
         </is>
       </c>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr">
         <is>
-          <t>반도향기나라</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
+          <t>일반 - 가격비교 상품</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>빅쏘</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>빅쏘</t>
+        </is>
+      </c>
       <c r="K68" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4701,22 +4709,22 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>로베르타디까메리노 방향제 송풍구 리틀포레스트향수</t>
+          <t>디캣 방향제 차량용 송풍구 SM5 G80</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29185219914</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28534805614</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2918521/29185219914.20220719173550.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2853480/28534805614.20210823030729.jpg</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11900</t>
+          <t>500</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
@@ -4732,7 +4740,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>로베르타디까메리노</t>
+          <t>디캣</t>
         </is>
       </c>
       <c r="J69" t="inlineStr"/>
@@ -4763,22 +4771,22 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>멜린 베어 파일럿 프로펠러 차량용 방향제</t>
+          <t>로베르타디까메리노 방향제 송풍구 리틀포레스트향수</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=33272908872</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29185219914</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3327290/33272908872.20220704113112.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2918521/29185219914.20220719173550.jpg</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>13900</t>
+          <t>11900</t>
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
@@ -4794,7 +4802,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>멜린</t>
+          <t>로베르타디까메리노</t>
         </is>
       </c>
       <c r="J70" t="inlineStr"/>
@@ -4953,22 +4961,22 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>엠퓨처 하트 송풍구 고급 차량용 방향제 디퓨저 MF-CAF03</t>
+          <t>로베르타디까메리노 액상 클립 통풍구 에어컨 차량용 방향제</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31484465959</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=32628653367</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3148446/31484465959.20220328053622.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3262865/32628653367.20220528094208.jpg</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>13900</t>
+          <t>11900</t>
         </is>
       </c>
       <c r="F73" t="inlineStr"/>
@@ -4984,7 +4992,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>엠퓨처</t>
+          <t>로베르타디까메리노</t>
         </is>
       </c>
       <c r="J73" t="inlineStr"/>
@@ -5015,22 +5023,22 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>꾸미다 잇츠마이플라워 차량용 디퓨저 방향제 시리즈 고급자동차 새차선물</t>
+          <t>라라체리티 리얼 니치퍼퓸 입술 고급 차량용 방향제</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28620463637</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=33210930858</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2862046/28620463637.20221207181102.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3321093/33210930858.20221005145401.jpg</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>22690</t>
+          <t>44500</t>
         </is>
       </c>
       <c r="F74" t="inlineStr"/>
@@ -5044,16 +5052,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>잇츠마이플라워</t>
-        </is>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>꾸미다</t>
-        </is>
-      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -5143,22 +5143,22 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>라라체리티 리얼 니치퍼퓸 입술 고급 차량용 방향제</t>
+          <t>루크타 도베르만 차량용 자동차 송풍구 차 고급 방향제 디퓨저 LT-DB01</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=33210930858</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25380843939</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3321093/33210930858.20221005145401.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2538084/25380843939.20220113101814.jpg</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>44500</t>
+          <t>49000</t>
         </is>
       </c>
       <c r="F76" t="inlineStr"/>
@@ -5172,7 +5172,11 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I76" t="inlineStr"/>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>루크타</t>
+        </is>
+      </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
@@ -5201,22 +5205,22 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>로베르타디까메리노 액상 클립 통풍구 에어컨 차량용 방향제</t>
+          <t>불스원 폴라프레쉬 NEW 선바이저 차량용 방향제</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=32628653367</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29422282618</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3262865/32628653367.20220528094208.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2942228/29422282618.20211027100552.jpg</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>11900</t>
+          <t>5500</t>
         </is>
       </c>
       <c r="F77" t="inlineStr"/>
@@ -5232,10 +5236,14 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>로베르타디까메리노</t>
-        </is>
-      </c>
-      <c r="J77" t="inlineStr"/>
+          <t>불스원</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>불스원</t>
+        </is>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -5325,22 +5333,22 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>불스원 디즈니 통풍구 차량용 방향제</t>
+          <t>엠퓨처 하트 송풍구 고급 차량용 방향제 디퓨저 MF-CAF03</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25158224812</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31484465959</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2515822/25158224812.20211119125115.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3148446/31484465959.20220328053622.jpg</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>8500</t>
+          <t>13900</t>
         </is>
       </c>
       <c r="F79" t="inlineStr"/>
@@ -5356,14 +5364,10 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>불스원</t>
-        </is>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>불스원</t>
-        </is>
-      </c>
+          <t>엠퓨처</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -5391,43 +5395,43 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>도그독 3세대 D-E1 명품 차량용 방향제 고급 디퓨저 프렌치불독 새차 선물 자동차</t>
+          <t>카닉스 아로마닉스 방향제 디퓨저 아카시아향 QRXR0</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82807740637</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28924119122</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8280774/82807740637.11.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2892411/28924119122.20210920193219.jpg</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>28000</t>
+          <t>2500</t>
         </is>
       </c>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr">
         <is>
-          <t>주식회사 도그독</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>도그독</t>
+          <t>카닉스</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>도그독</t>
+          <t>카닉스</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -5457,22 +5461,22 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>루크타 도베르만 차량용 자동차 송풍구 차 고급 방향제 디퓨저 LT-DB01</t>
+          <t>로베르타디까메리노 차량용 방향제 일반형3P 60ml</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25380843939</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24030450488</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2538084/25380843939.20220113101814.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2403045/24030450488.20220305050205.jpg</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>49000</t>
+          <t>15500</t>
         </is>
       </c>
       <c r="F81" t="inlineStr"/>
@@ -5488,7 +5492,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>루크타</t>
+          <t>로베르타디까메리노</t>
         </is>
       </c>
       <c r="J81" t="inlineStr"/>
@@ -5519,22 +5523,22 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>리틀트리 차량용 방향제 블랙아이스 HIT</t>
+          <t>KAN 뷰센트 De.Line 차량용 방향제 싱글세트</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24032293838</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18985549503</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2403229/24032293838.20200904031139.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1898554/18985549503.20210713121106.jpg</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>1130</t>
+          <t>12900</t>
         </is>
       </c>
       <c r="F82" t="inlineStr"/>
@@ -5548,8 +5552,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>뷰센트</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>KAN</t>
+        </is>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -5577,22 +5589,22 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>캘리포니아 센트 방향제 차량용</t>
+          <t>리틀트리 차량용 방향제 블랙아이스 HIT</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24014032699</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24032293838</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2401403/24014032699.20200903001748.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2403229/24032293838.20200904031139.jpg</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>3480</t>
+          <t>1130</t>
         </is>
       </c>
       <c r="F83" t="inlineStr"/>
@@ -5635,45 +5647,41 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>도그독 5세대 차량용 방향제 명품 고급 프렌치 크리스탈 불독 자동차 디퓨저</t>
+          <t>카보노 대쉬보드 거치형 프리미엄 차량용 방향제</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=84432459091</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25371363986</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8443245/84432459091.3.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2537136/25371363986.20220104014030.jpg</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>39000</t>
+          <t>46500</t>
         </is>
       </c>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr">
         <is>
-          <t>주식회사 도그독</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>도그독</t>
-        </is>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>도그독</t>
-        </is>
-      </c>
+          <t>카보노</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -5701,22 +5709,22 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>불스원 폴라프레쉬 NEW 선바이저 차량용 방향제</t>
+          <t>양키캔들 얼티메이트 미드썸머나잇 차량용 방향제</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29422282618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25940561903</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2942228/29422282618.20211027100552.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2594056/25940561903.20210209203509.jpg</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>5500</t>
+          <t>2990</t>
         </is>
       </c>
       <c r="F85" t="inlineStr"/>
@@ -5732,12 +5740,12 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>불스원</t>
+          <t>양키캔들</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>불스원</t>
+          <t>양키캔들</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -5767,28 +5775,28 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>코코도르 차량용 방향제 디퓨저 50ml 모음 고급 자동차디퓨져 차방향제 새차선물</t>
+          <t>도그독 3세대 D-E1 명품 차량용 방향제 고급 디퓨저 프렌치불독 새차 선물 자동차</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82082096588</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82807740637</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8208209/82082096588.7.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8280774/82807740637.11.jpg</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>7900</t>
+          <t>28000</t>
         </is>
       </c>
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr">
         <is>
-          <t>코코도르</t>
+          <t>주식회사 도그독</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -5798,12 +5806,12 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>코코도르</t>
+          <t>도그독</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>코코도르</t>
+          <t>도그독</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -5833,43 +5841,43 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>KAN 뷰센트 De.Line 차량용 방향제 싱글세트</t>
+          <t>코코도르 차량용 방향제 디퓨저 50ml 모음 고급 자동차디퓨져 차방향제 새차선물</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18985549503</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82082096588</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1898554/18985549503.20210713121106.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8208209/82082096588.7.jpg</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>12900</t>
+          <t>7900</t>
         </is>
       </c>
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>코코도르</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>뷰센트</t>
+          <t>코코도르</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>KAN</t>
+          <t>코코도르</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -5899,43 +5907,43 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>양키캔들 얼티메이트 미드썸머나잇 차량용 방향제</t>
+          <t>딥디크 차량용 방향제 명품 자동차 디퓨저 리필</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25940561903</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=84313412976</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2594056/25940561903.20210209203509.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8431341/84313412976.1.jpg</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>22500</t>
         </is>
       </c>
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>신장로</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>양키캔들</t>
+          <t>딥티크</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>양키캔들</t>
+          <t>딥티크</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -5965,41 +5973,45 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>에이그레이드 퓨마 차량용 방향제 에이칩 리필용</t>
+          <t>도그독 5세대 차량용 방향제 명품 고급 프렌치 크리스탈 불독 자동차 디퓨저</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24014174770</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=84432459091</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2401417/24014174770.20210912014916.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8443245/84432459091.3.jpg</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>6900</t>
+          <t>39000</t>
         </is>
       </c>
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>주식회사 도그독</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>에이그레이드</t>
-        </is>
-      </c>
-      <c r="J89" t="inlineStr"/>
+          <t>도그독</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>도그독</t>
+        </is>
+      </c>
       <c r="K89" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -6027,41 +6039,45 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>센트몬스터 고체형 리필 카트리지 차량용 방향제</t>
+          <t>벨르아망 포켓몬스터 빅페이스 차량용 디퓨저 방향제 새차 선물 피카츄</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24073927844</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=84367332534</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2407392/24073927844.20200907231713.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8436733/84367332534.9.jpg</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>5500</t>
+          <t>19800</t>
         </is>
       </c>
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>BELLE AMANT</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>센트몬스터</t>
-        </is>
-      </c>
-      <c r="J90" t="inlineStr"/>
+          <t>벨르아망</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>제이앤컴퍼니</t>
+        </is>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -6089,22 +6105,22 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>불스원 그라스 레스떼렐 방향제 110ml</t>
+          <t>캘리포니아 센트 방향제 차량용</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=5887774761</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24014032699</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_5887774/5887774761.20180928095307.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2401403/24014032699.20200903001748.jpg</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>10300</t>
+          <t>3480</t>
         </is>
       </c>
       <c r="F91" t="inlineStr"/>
@@ -6118,16 +6134,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>불스원</t>
-        </is>
-      </c>
-      <c r="J91" t="inlineStr">
-        <is>
-          <t>불스원</t>
-        </is>
-      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -6155,22 +6163,22 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>로베르타 디까메리노 차량용 방향제 100ml</t>
+          <t>멜린 베어 파일럿 프로펠러 차량용 방향제</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26801962830</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=33272908872</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2680196/26801962830.20220217035825.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3327290/33272908872.20220704113112.jpg</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>8300</t>
+          <t>13900</t>
         </is>
       </c>
       <c r="F92" t="inlineStr"/>
@@ -6184,7 +6192,11 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I92" t="inlineStr"/>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>멜린</t>
+        </is>
+      </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
@@ -6213,22 +6225,22 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>티커벨 TKB 붕붕 차량용 태양열 비행기 방향제</t>
+          <t>카렉스 진로 송풍구 디퓨저v2</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26760512605</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28904371459</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2676051/26760512605.20220222045220.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2890437/28904371459.20220620164944.jpg</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>11270</t>
+          <t>9920</t>
         </is>
       </c>
       <c r="F93" t="inlineStr"/>
@@ -6242,11 +6254,7 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>티커벨</t>
-        </is>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
@@ -6275,22 +6283,22 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>카렉스 진로 송풍구 디퓨저v2</t>
+          <t>센트몬스터 고체형 리필 카트리지 차량용 방향제</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28904371459</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24073927844</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2890437/28904371459.20220620164944.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2407392/24073927844.20200907231713.jpg</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>9920</t>
+          <t>5500</t>
         </is>
       </c>
       <c r="F94" t="inlineStr"/>
@@ -6304,7 +6312,11 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I94" t="inlineStr"/>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>센트몬스터</t>
+        </is>
+      </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
@@ -6333,43 +6345,43 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>딥디크 차량용 방향제 명품 자동차 디퓨저 리필</t>
+          <t>불스원 그라스 디퓨저 방향제</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=84313412976</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=33533900804</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8431341/84313412976.1.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3353390/33533900804.20220716175846.jpg</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>22500</t>
+          <t>8990</t>
         </is>
       </c>
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr">
         <is>
-          <t>신장로</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>딥티크</t>
+          <t>불스원</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>딥티크</t>
+          <t>불스원</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -6399,43 +6411,43 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>벨르아망 포켓몬스터 빅페이스 차량용 디퓨저 방향제 새차 선물 피카츄</t>
+          <t>불스원 그라스 레스떼렐 방향제 110ml</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=84367332534</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=5887774761</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8436733/84367332534.9.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_5887774/5887774761.20180928095307.jpg</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>19800</t>
+          <t>10300</t>
         </is>
       </c>
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr">
         <is>
-          <t>BELLE AMANT</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>벨르아망</t>
+          <t>불스원</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>제이앤컴퍼니</t>
+          <t>불스원</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -6465,22 +6477,22 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>불스원 그라스 디퓨저 방향제</t>
+          <t>에이그레이드 퓨마 차량용 방향제 에이칩 리필용</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=33533900804</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24014174770</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3353390/33533900804.20220716175846.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2401417/24014174770.20210912014916.jpg</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>8990</t>
+          <t>6900</t>
         </is>
       </c>
       <c r="F97" t="inlineStr"/>
@@ -6496,14 +6508,10 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>불스원</t>
-        </is>
-      </c>
-      <c r="J97" t="inlineStr">
-        <is>
-          <t>불스원</t>
-        </is>
-      </c>
+          <t>에이그레이드</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -6531,22 +6539,22 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>발롱디 고급 차량용 방향제 명품 디퓨저</t>
+          <t>로베르타 디까메리노 차량용 방향제 100ml</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=19402043182</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26801962830</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1940204/19402043182.20190731114447.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2680196/26801962830.20220217035825.jpg</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>49000</t>
+          <t>8300</t>
         </is>
       </c>
       <c r="F98" t="inlineStr"/>
@@ -6560,11 +6568,7 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I98" t="inlineStr">
-        <is>
-          <t>발롱디</t>
-        </is>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
@@ -6593,45 +6597,37 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>빅쏘 카로브 차량용방향제 디퓨저 송풍구형</t>
+          <t>1+1 랑스 차량용 방향제 송풍구 디퓨저 블랙</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26310652183</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=85163337606</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2631065/26310652183.20211126145332.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8516333/85163337606.3.jpg</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>19900</t>
+          <t>9900</t>
         </is>
       </c>
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>랑스RANGS</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
-        </is>
-      </c>
-      <c r="I99" t="inlineStr">
-        <is>
-          <t>빅쏘</t>
-        </is>
-      </c>
-      <c r="J99" t="inlineStr">
-        <is>
-          <t>빅쏘</t>
-        </is>
-      </c>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -6659,22 +6655,22 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>에이비 얼굴 일러스트 사진 차량용방향제 2set</t>
+          <t>발롱디 고급 차량용 방향제 명품 디퓨저</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27190906522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=19402043182</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2719090/27190906522.20210518150908.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1940204/19402043182.20190731114447.jpg</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>17900</t>
+          <t>49000</t>
         </is>
       </c>
       <c r="F100" t="inlineStr"/>
@@ -6690,14 +6686,10 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>에이비</t>
-        </is>
-      </c>
-      <c r="J100" t="inlineStr">
-        <is>
-          <t>에이비</t>
-        </is>
-      </c>
+          <t>발롱디</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -6725,22 +6717,22 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>캘리포니아센트 카센트 차량용 방향제</t>
+          <t>에이비 얼굴 일러스트 사진 차량용방향제 2set</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20309241612</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27190906522</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2030924/20309241612.20190719121300.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2719090/27190906522.20210518150908.jpg</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>3470</t>
+          <t>17900</t>
         </is>
       </c>
       <c r="F101" t="inlineStr"/>
@@ -6756,12 +6748,12 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>캘리포니아센트</t>
+          <t>에이비</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>캘리포니아센트</t>
+          <t>에이비</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">

--- a/output.xlsx
+++ b/output.xlsx
@@ -501,45 +501,41 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>명품고급디퓨저 마일론 갤러리3 차량용 방향제 MGAL-03</t>
+          <t>쓰리나인 명품 차량용 방향제 힙한늑대 고급 불독 자동차 디퓨저</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31231762618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82749964205</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3123176/31231762618.20220310141449.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8274996/82749964205.12.jpg</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>39900</t>
+          <t>29850</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>THREENINE</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>마일론</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>명품고급디퓨저</t>
-        </is>
-      </c>
+          <t>쓰리나인</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -567,41 +563,45 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[아이수피아] 천연차량방향제 3개세트(송풍구거치형)</t>
+          <t>명품고급디퓨저 마일론 갤러리3 차량용 방향제 MGAL-03</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=81628659125</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31231762618</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8162865/81628659125.5.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3123176/31231762618.20220310141449.jpg</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>38000</t>
+          <t>39900</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>아이수피아1</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>아이수피아</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr"/>
+          <t>마일론</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>명품고급디퓨저</t>
+        </is>
+      </c>
       <c r="K4" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -629,41 +629,45 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>아트센트 고급 차량용 방향제 명품 자동차 송풍구 디퓨저</t>
+          <t>제이엠제이라인 도슈아 클래식 프리미엄 차량용 방향제</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=83675558871</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=17787594512</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8367555/83675558871.27.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1778759/17787594512.20210802225254.jpg</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>39800</t>
+          <t>29750</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t>아트센트</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>아트센트</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr"/>
+          <t>도슈아</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>제이엠제이라인</t>
+        </is>
+      </c>
       <c r="K5" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -691,45 +695,41 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>제이엠제이라인 도슈아 클래식 프리미엄 차량용 방향제</t>
+          <t>1+1 에이센트 네이처 차량용 방향제 디퓨저 120ml</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=17787594512</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=84487319234</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1778759/17787594512.20210802225254.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8448731/84487319234.2.jpg</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>29750</t>
+          <t>12900</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>에이센트ASCENT</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>도슈아</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>제이엠제이라인</t>
-        </is>
-      </c>
+          <t>에이센트</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -823,28 +823,28 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1+1 에이센트 네이처 차량용 방향제 디퓨저 120ml</t>
+          <t>[아이수피아] 천연차량방향제 3개세트(송풍구거치형)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=84487319234</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=81628659125</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8448731/84487319234.2.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8162865/81628659125.5.jpg</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12900</t>
+          <t>38000</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>에이센트ASCENT</t>
+          <t>아이수피아1</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -854,7 +854,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>에이센트</t>
+          <t>아이수피아</t>
         </is>
       </c>
       <c r="J8" t="inlineStr"/>
@@ -1017,17 +1017,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>디프로젝트 디릴라고 고릴라 차량용 방향제</t>
+          <t>로얄워터 텀블러 모양 차량용 방향제 신차선물</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26801331279</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29835967618</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2680133/26801331279.20221206180537.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2983596/29835967618.20221110131209.jpg</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1048,12 +1048,12 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>디프로젝트</t>
+          <t>로얄워터</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>디프로젝트</t>
+          <t>로얄워터</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1083,22 +1083,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>로얄워터 텀블러 모양 차량용 방향제 신차선물</t>
+          <t>언더스코어 젠틀맨 프리미엄 차량용 방향제 디퓨저</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29835967618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27137540258</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2983596/29835967618.20221110131209.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2713754/27137540258.20210708110811.jpg</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>49000</t>
+          <t>30450</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
@@ -1114,12 +1114,12 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>로얄워터</t>
+          <t>언더스코어</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>로얄워터</t>
+          <t>언더스코어</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1149,22 +1149,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>에이비 큐빅베어브릭 차량용 방향제 AB-DF02</t>
+          <t>불스원 그라스 디퓨져 차량용 방향제 105ml</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27944185800</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=12140232094</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2794418/27944185800.20220908171344.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1214023/12140232094.20211006140204.jpg</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>18900</t>
+          <t>9450</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
@@ -1180,12 +1180,12 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>에이비</t>
+          <t>불스원</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>에이비</t>
+          <t>불스원</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1215,22 +1215,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>언더스코어 젠틀맨 프리미엄 차량용 방향제 디퓨저</t>
+          <t>리틀트리 걸이형 종이 방향제</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27137540258</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=7162545992</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2713754/27137540258.20210708110811.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_7162545/7162545992.20190731170829.jpg</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>30450</t>
+          <t>1710</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
@@ -1244,16 +1244,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>언더스코어</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>언더스코어</t>
-        </is>
-      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1281,36 +1273,40 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>리틀트리 걸이형 종이 방향제</t>
+          <t>아트센트 고급 차량용 방향제 명품 자동차 송풍구 디퓨저</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=7162545992</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=83675558871</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_7162545/7162545992.20190731170829.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8367555/83675558871.27.jpg</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1490</t>
+          <t>39800</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>아트센트</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>아트센트</t>
+        </is>
+      </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
@@ -1339,22 +1335,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>불스원 그라스 디퓨져 차량용 방향제 105ml</t>
+          <t>불스원 그라스 디퓨저 블루 차량용 방향제 100ml</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=12140232094</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24063116873</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1214023/12140232094.20211006140204.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2406311/24063116873.20210111145156.jpg</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>9550</t>
+          <t>11680</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
@@ -1373,11 +1369,7 @@
           <t>불스원</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>불스원</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1405,22 +1397,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>토씨 클래시맨 명품 고급 차량용방향제 룸미러걸이형</t>
+          <t>디프로젝트 디릴라고 고릴라 차량용 방향제</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25695599950</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26801331279</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2569559/25695599950.20220704103706.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2680133/26801331279.20221206180537.jpg</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>85000</t>
+          <t>49000</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
@@ -1436,12 +1428,12 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>토씨</t>
+          <t>디프로젝트</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>토씨</t>
+          <t>디프로젝트</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1471,41 +1463,45 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>쓰리나인 명품 차량용 방향제 힙한늑대 고급 불독 자동차 디퓨저</t>
+          <t>에이비 큐빅베어브릭 차량용 방향제 AB-DF02</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82749964205</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27944185800</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8274996/82749964205.12.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2794418/27944185800.20220908171344.jpg</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>29850</t>
+          <t>18900</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
-          <t>THREENINE</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>쓰리나인</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr"/>
+          <t>에이비</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>에이비</t>
+        </is>
+      </c>
       <c r="K18" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1533,22 +1529,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>딥티크 차량용방향제 세트 케이스 + 리필용 캡슐</t>
+          <t>토씨 클래시맨 명품 고급 차량용방향제 룸미러걸이형</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28620531681</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25695599950</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2862053/28620531681.20220308051600.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2569559/25695599950.20220704103706.jpg</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>88900</t>
+          <t>85000</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
@@ -1564,10 +1560,14 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>딥티크</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr"/>
+          <t>토씨</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>토씨</t>
+        </is>
+      </c>
       <c r="K19" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1595,22 +1595,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>센트몬스터 고양이 차량용 방향제 고급 디퓨져</t>
+          <t>양키캔들 카자얼티메이트 차량용 방향제</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24163460435</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29582915037</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2416346/24163460435.20210124121840.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2958291/29582915037.20220919183130.jpg</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>39000</t>
+          <t>3170</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
@@ -1626,10 +1626,14 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>센트몬스터</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr"/>
+          <t>양키캔들</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>양키캔들</t>
+        </is>
+      </c>
       <c r="K20" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1657,22 +1661,22 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>양키캔들 카자얼티메이트 차량용 방향제</t>
+          <t>플래트 고급 프로펠러 차량용 방향제 F430</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29582915037</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27806043522</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2958291/29582915037.20220919183130.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2780604/27806043522.20210701115440.jpg</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>3170</t>
+          <t>40380</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
@@ -1688,14 +1692,10 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>양키캔들</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>양키캔들</t>
-        </is>
-      </c>
+          <t>플래트</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1723,22 +1723,22 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>플래트 고급 프로펠러 차량용 방향제 F430</t>
+          <t>딥티크 차량용방향제 세트 케이스 + 리필용 캡슐</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27806043522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28620531681</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2780604/27806043522.20210701115440.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2862053/28620531681.20220308051600.jpg</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>40450</t>
+          <t>67500</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
@@ -1754,7 +1754,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>플래트</t>
+          <t>딥티크</t>
         </is>
       </c>
       <c r="J22" t="inlineStr"/>
@@ -1785,22 +1785,22 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>디프로젝트 디버니 토끼 고급 차량용 방향제 자동차 디퓨저</t>
+          <t>로베르타디까메리노 원형 대용량 방향제 100ml</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27331951522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=5640406696</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2733195/27331951522.20221206180516.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_5640406/5640406696.20190805143958.jpg</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>49000</t>
+          <t>13800</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
@@ -1816,12 +1816,12 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>디프로젝트</t>
+          <t>로베르타디까메리노</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>디프로젝트</t>
+          <t>로베르타디까메리노</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1851,41 +1851,45 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>까사몬타 천연가죽 차량용 방향제</t>
+          <t>벤볼릭 명품 차량용 방향제 고급 송풍구 자동차 차량 디퓨져</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31877396570</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82293143959</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3187739/31877396570.20220418002955.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8229314/82293143959.17.jpg</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>43000</t>
+          <t>28000</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>벤볼릭</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>까사몬타</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr"/>
+          <t>벤볼릭</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>키니캔들</t>
+        </is>
+      </c>
       <c r="K24" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1913,38 +1917,38 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>불스원 그라스 디퓨저 블루 차량용 방향제 100ml</t>
+          <t>베이 차량용방향제 센트247 명품 백화점 고급 차량용 방향제 디퓨저 50ml</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24063116873</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82695237172</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2406311/24063116873.20210111145156.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8269523/82695237172.8.jpg</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11680</t>
+          <t>19900</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>센트247 SCENT247</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>불스원</t>
+          <t>딥티크</t>
         </is>
       </c>
       <c r="J25" t="inlineStr"/>
@@ -1975,33 +1979,33 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>픽도큐먼트 베어브릭 송풍구 차량용 방향제</t>
+          <t>1+1 랑스 차량용 방향제 송풍구 디퓨저 블랙</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29900193281</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=85163337606</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2990019/29900193281.20211208030917.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8516333/85163337606.3.jpg</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>14800</t>
+          <t>9900</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>랑스RANGS</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -2033,22 +2037,22 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>JW중외제약 피톤치드 차량용 방향제 피톤케어</t>
+          <t>ELLA 프라임 호랑이 차량용 방향제 프로펠러</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=12916212027</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30617053618</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1291621/12916212027.20220810105056.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3061705/30617053618.20220120171741.jpg</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>38000</t>
+          <t>29700</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
@@ -2064,14 +2068,10 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>JW중외제약</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>JW중외제약</t>
-        </is>
-      </c>
+          <t>ELLA</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2099,43 +2099,43 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>아뮈잔트 고급 차량용 방향제 명품 자동차 디퓨저 블랙 120ml</t>
+          <t>JW중외제약 피톤치드 차량용 방향제 피톤케어</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=80920267289</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=12916212027</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8092026/80920267289.13.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1291621/12916212027.20220810105056.jpg</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>20000</t>
+          <t>38000</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
-          <t>아뮈잔트</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>아뮈잔트</t>
+          <t>JW중외제약</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>아뮈잔트</t>
+          <t>JW중외제약</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2165,22 +2165,22 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ELLA 프라임 호랑이 차량용 방향제 프로펠러</t>
+          <t>엠퓨처 하트 송풍구 고급 차량용 방향제 디퓨저 MF-CAF03</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30617053618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31484465959</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3061705/30617053618.20220120171741.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3148446/31484465959.20220328053622.jpg</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>29700</t>
+          <t>13900</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
@@ -2196,7 +2196,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>ELLA</t>
+          <t>엠퓨처</t>
         </is>
       </c>
       <c r="J29" t="inlineStr"/>
@@ -2227,41 +2227,45 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>엠퓨처 하트 송풍구 고급 차량용 방향제 디퓨저 MF-CAF03</t>
+          <t>아뮈잔트 고급 차량용 방향제 명품 자동차 디퓨저 블랙 120ml</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31484465959</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=80920267289</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3148446/31484465959.20220328053622.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8092026/80920267289.13.jpg</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>13900</t>
+          <t>20000</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>아뮈잔트</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>엠퓨처</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr"/>
+          <t>아뮈잔트</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>아뮈잔트</t>
+        </is>
+      </c>
       <c r="K30" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2347,36 +2351,40 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1+1 랑스 차량용 방향제 송풍구 디퓨저 블랙</t>
+          <t>까사몬타 천연가죽 차량용 방향제</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=85163337606</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31877396570</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8516333/85163337606.3.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3187739/31877396570.20220418002955.jpg</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>9900</t>
+          <t>43000</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
-          <t>랑스RANGS</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr"/>
+          <t>일반 - 가격비교 상품</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>까사몬타</t>
+        </is>
+      </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
@@ -2405,45 +2413,37 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>벤볼릭 명품 차량용 방향제 고급 송풍구 자동차 차량 디퓨져</t>
+          <t>픽도큐먼트 베어브릭 송풍구 차량용 방향제</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82293143959</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29900193281</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8229314/82293143959.17.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2990019/29900193281.20211208030917.jpg</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>28000</t>
+          <t>14800</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
-          <t>벤볼릭</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>벤볼릭</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>키니캔들</t>
-        </is>
-      </c>
+          <t>일반 - 가격비교 상품</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2471,33 +2471,33 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>미스터앤미세스 니키 차량용 방향제 리필</t>
+          <t>페브리즈 차량용 방향제 2.2ml 맑은하늘바람 차방향제 자동차 디퓨저 신차선물</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=10149695240</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82250772533</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1014969/10149695240.20201014180005.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8225077/82250772533.14.jpg</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>5900</t>
+          <t>2650</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>위즈브리드</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -2529,22 +2529,22 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>디프로젝트 리필킷 디불 디버니 디릴라고 차량용방향제 자동차 디퓨저 고체 리필 DP-RF02</t>
+          <t>디프로젝트 디버니 토끼 고급 차량용 방향제 자동차 디퓨저</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18367838563</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27331951522</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1836783/18367838563.20221206180600.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2733195/27331951522.20221206180516.jpg</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>13000</t>
+          <t>49000</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
@@ -2595,22 +2595,22 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>JW중외제약 JW생활건강 피톤케어 차량용 방향제 리필 카트리지</t>
+          <t>이븐도우 생귄 쥬얼리 클립 차량용 방향제</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=15901498616</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=19103746764</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1590149/15901498616.20221101142716.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1910374/19103746764.20220213194209.jpg</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>17000</t>
+          <t>32800</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
@@ -2626,12 +2626,12 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>JW생활건강</t>
+          <t>생귄</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>JW중외제약</t>
+          <t>이븐도우</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2661,43 +2661,43 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>조말론 차량용 방향제 풀세트(본품+리본+거치대+토트백)</t>
+          <t>JW중외제약 JW생활건강 피톤케어 차량용 방향제 리필 카트리지</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=84325238210</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=15901498616</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8432523/84325238210.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1590149/15901498616.20221101142716.jpg</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>69500</t>
+          <t>17000</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
-          <t>제이엔씨물류</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>조말론</t>
+          <t>JW생활건강</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>조말론</t>
+          <t>JW중외제약</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -2727,22 +2727,22 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>양키캔들 벤트스틱 차량용 방향제 4P입</t>
+          <t>미스터앤미세스 니키 차량용 방향제 리필</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=6552648097</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=10149695240</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_6552648/6552648097.20190731160942.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1014969/10149695240.20201014180005.jpg</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>3140</t>
+          <t>5900</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
@@ -2756,16 +2756,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>양키캔들</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>양키캔들</t>
-        </is>
-      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2793,22 +2785,22 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>산도깨비 멤브렌 피톤치드 차량용 방향제 6g</t>
+          <t>양키캔들 벤트스틱 차량용 방향제 4P입</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20254478730</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=6552648097</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2025447/20254478730.20190716114220.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_6552648/6552648097.20190731160942.jpg</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2290</t>
+          <t>3100</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
@@ -2824,12 +2816,12 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>산도깨비</t>
+          <t>양키캔들</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>산도깨비</t>
+          <t>양키캔들</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -2859,41 +2851,45 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>베이 차량용방향제 센트247 명품 백화점 고급 차량용 방향제 디퓨저 50ml</t>
+          <t>디프로젝트 리필킷 디불 디버니 디릴라고 차량용방향제 자동차 디퓨저 고체 리필 DP-RF02</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82695237172</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18367838563</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8269523/82695237172.8.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1836783/18367838563.20221206180600.jpg</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>19900</t>
+          <t>13000</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
-          <t>센트247 SCENT247</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>딥티크</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr"/>
+          <t>디프로젝트</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>디프로젝트</t>
+        </is>
+      </c>
       <c r="K40" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2921,22 +2917,22 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>디씨네트워크 차량용 방향제 곰돌이 큐빅베어 1set</t>
+          <t>에이비 차량용 방향제 도베르만 고급 AB-DF04</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27092943522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30317520568</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2709294/27092943522.20221219121544.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3031752/30317520568.20220110102207.jpg</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>17900</t>
+          <t>28000</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
@@ -2952,12 +2948,12 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>디씨네트워크</t>
+          <t>에이비</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>디씨네트워크</t>
+          <t>에이비</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -2987,22 +2983,22 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>에이비 차량용 방향제 도베르만 고급 AB-DF04</t>
+          <t>제이엠제이라인 도슈아 차량용 방향제 리필 도자기</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30317520568</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20347407194</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3031752/30317520568.20220110102207.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2034740/20347407194.20211001120304.jpg</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>28000</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
@@ -3018,12 +3014,12 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>에이비</t>
+          <t>도슈아</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>에이비</t>
+          <t>제이엠제이라인</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -3053,43 +3049,43 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>딥디크 고급 명품 차량용 방향제 BAIES 베이 리필</t>
+          <t>산도깨비 멤브렌 피톤치드 차량용 방향제 6g</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=84253191120</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20254478730</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8425319/84253191120.5.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2025447/20254478730.20190716114220.jpg</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>49200</t>
+          <t>2290</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Louis Fennet</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>딥티크</t>
+          <t>산도깨비</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>딥티크</t>
+          <t>산도깨비</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -3119,43 +3115,43 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>제이엠제이라인 도슈아 차량용 방향제 리필 도자기</t>
+          <t>조말론 차량용 방향제 풀세트(본품+리본+거치대+토트백)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20347407194</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=84325238210</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2034740/20347407194.20211001120304.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8432523/84325238210.jpg</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>69500</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>제이엔씨물류</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>도슈아</t>
+          <t>조말론</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>제이엠제이라인</t>
+          <t>조말론</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -3185,41 +3181,45 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>마블 스턴 아이언맨 차량용 방향제 ST-IM01</t>
+          <t>명품 백화점 차량용 방향제 디퓨저 고급 차방향제 벤츠 BMW 블랙체리</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30644523374</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=84543919273</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3064452/30644523374.20220923101852.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8454391/84543919273.13.jpg</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>34800</t>
+          <t>14900</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>센트데코</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>마블</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr"/>
+          <t>조말론</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>센트데코</t>
+        </is>
+      </c>
       <c r="K45" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3247,28 +3247,28 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>리틀트리 방향제 차량용 실내용 걸이형 종이 썸머린넨</t>
+          <t>플라떼 차량용 방향제 천연 명품 백화점 고급패키지 디퓨저 120ml</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82937356876</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=85173388881</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8293735/82937356876.3.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8517338/85173388881.1.jpg</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>1800</t>
+          <t>21800</t>
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr">
         <is>
-          <t>프랜드캣</t>
+          <t>나오랩</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -3305,36 +3305,40 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>플라떼 차량용 방향제 천연 명품 백화점 고급패키지 디퓨저 120ml</t>
+          <t>마블 스턴 아이언맨 차량용 방향제 ST-IM01</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=85173388881</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30644523374</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8517338/85173388881.1.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3064452/30644523374.20220923101852.jpg</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>21800</t>
+          <t>34800</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
-          <t>나오랩</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr"/>
+          <t>일반 - 가격비교 상품</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>마블</t>
+        </is>
+      </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
@@ -3363,22 +3367,22 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>로베르타디까메리노 원형 대용량 방향제 100ml</t>
+          <t>디씨네트워크 차량용 방향제 곰돌이 큐빅베어 1set</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=5640406696</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27092943522</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_5640406/5640406696.20190805143958.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2709294/27092943522.20221219121544.jpg</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>13800</t>
+          <t>17900</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
@@ -3394,12 +3398,12 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>로베르타디까메리노</t>
+          <t>디씨네트워크</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>로베르타디까메리노</t>
+          <t>디씨네트워크</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -3429,22 +3433,22 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>산도깨비 차량용 멤브렌 리필 방향제</t>
+          <t>불스원 폴라프레쉬 선바이저 차량용 방향제</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25695237598</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24165357120</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2569523/25695237598.20220326034624.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2416535/24165357120.20220616110219.jpg</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>22900</t>
+          <t>2500</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
@@ -3460,10 +3464,14 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>산도깨비</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr"/>
+          <t>불스원</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>불스원</t>
+        </is>
+      </c>
       <c r="K49" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3491,22 +3499,22 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>제이앤컴퍼니 벨르아망 차량용방향제 에어도넛 리필키트</t>
+          <t>KAN 뷰센트 자동차 송풍구 메탈 차량용 방향제 선물 2세트</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28686680816</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31597320645</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2868668/28686680816.20220614133410.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3159732/31597320645.20220429115323.jpg</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>6000</t>
+          <t>25800</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
@@ -3522,12 +3530,12 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>벨르아망</t>
+          <t>뷰센트</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>제이앤컴퍼니</t>
+          <t>KAN</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -3557,22 +3565,22 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>제이앤컴퍼니 벨르아망 포켓몬 피규어 차량용 방향제</t>
+          <t>라미유 차량용 고급 송풍구 방향제 블랙체리향</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=33464840631</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30586965618</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3346484/33464840631.20220713121644.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3058696/30586965618.20220421134837.jpg</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>19800</t>
+          <t>15900</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
@@ -3588,12 +3596,12 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>벨르아망</t>
+          <t>라미유</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>제이앤컴퍼니</t>
+          <t>라미유</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -3623,22 +3631,22 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>이븐도우 생귄 쥬얼리 클립 차량용 방향제</t>
+          <t>불스원 그라스 디퓨저 블랙베리 체리 방향제 105ml</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=19103746764</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26677172452</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1910374/19103746764.20220213194209.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2667717/26677172452.20210407202430.jpg</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>32800</t>
+          <t>9800</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
@@ -3654,12 +3662,12 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>생귄</t>
+          <t>불스원</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>이븐도우</t>
+          <t>불스원</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -3689,43 +3697,43 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>불스원 폴라프레쉬 선바이저 차량용 방향제</t>
+          <t>딥디크 고급 명품 차량용 방향제 BAIES 베이 리필</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24165357120</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=84253191120</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2416535/24165357120.20220616110219.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8425319/84253191120.5.jpg</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>49200</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>Louis Fennet</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>불스원</t>
+          <t>딥티크</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>불스원</t>
+          <t>딥티크</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -3755,22 +3763,22 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>불스원 그라스 디퓨저 블랙베리 체리 방향제 105ml</t>
+          <t>산도깨비 차량용 멤브렌 리필 방향제</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26677172452</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25695237598</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2667717/26677172452.20210407202430.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2569523/25695237598.20220326034624.jpg</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>9800</t>
+          <t>22900</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
@@ -3786,14 +3794,10 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>불스원</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>불스원</t>
-        </is>
-      </c>
+          <t>산도깨비</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3821,28 +3825,28 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>명품 백화점 차량용 방향제 디퓨저 고급 차방향제 벤츠 BMW 블랙체리</t>
+          <t>리틀트리 방향제 차량용 실내용 걸이형 종이 썸머린넨</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=84543919273</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82937356876</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8454391/84543919273.10.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8293735/82937356876.3.jpg</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>14900</t>
+          <t>1800</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
-          <t>센트데코</t>
+          <t>프랜드캣</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3850,16 +3854,8 @@
           <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>조말론</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>센트데코</t>
-        </is>
-      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3887,22 +3883,22 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>KAN 뷰센트 자동차 송풍구 메탈 차량용 방향제 선물 2세트</t>
+          <t>센트몬스터 고양이 차량용 방향제 고급 디퓨져</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31597320645</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24163460435</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3159732/31597320645.20220429115323.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2416346/24163460435.20210124121840.jpg</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>25800</t>
+          <t>39000</t>
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
@@ -3918,14 +3914,10 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>뷰센트</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>KAN</t>
-        </is>
-      </c>
+          <t>센트몬스터</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3953,22 +3945,22 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>라미유 차량용 고급 송풍구 방향제 블랙체리향</t>
+          <t>에이센트 네이처 차량용 디퓨저 방향제 120ml</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30586965618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27334130786</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3058696/30586965618.20220421134837.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2733413/27334130786.20211216041142.jpg</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>15900</t>
+          <t>7900</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
@@ -3984,14 +3976,10 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>라미유</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>라미유</t>
-        </is>
-      </c>
+          <t>에이센트</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4019,22 +4007,22 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>에이센트 네이처 차량용 디퓨저 방향제 120ml</t>
+          <t>리틀트리 차량용 방향제 블랙아이스 HIT</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27334130786</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24032293838</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2733413/27334130786.20211216041142.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2403229/24032293838.20200904031139.jpg</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>7900</t>
+          <t>1690</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
@@ -4048,11 +4036,7 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>에이센트</t>
-        </is>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
@@ -4081,22 +4065,22 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>리틀트리 차량용 방향제 블랙아이스 HIT</t>
+          <t>제이앤컴퍼니 벨르아망 차량용방향제 에어도넛 리필키트</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24032293838</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28686680816</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2403229/24032293838.20200904031139.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2868668/28686680816.20220614133410.jpg</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>1730</t>
+          <t>6000</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
@@ -4110,8 +4094,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>벨르아망</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>제이앤컴퍼니</t>
+        </is>
+      </c>
       <c r="K59" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4139,22 +4131,22 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>발롱디 고급 차량용 방향제 명품 디퓨저</t>
+          <t>명품고급디퓨저 마일론 갤러리1 차량용 방향제 MGAL-01</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=19402043182</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30352215619</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1940204/19402043182.20190731114447.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3035221/30352215619.20220102155103.jpg</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>49000</t>
+          <t>35000</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
@@ -4170,10 +4162,14 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>발롱디</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr"/>
+          <t>마일론</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>명품고급디퓨저</t>
+        </is>
+      </c>
       <c r="K60" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4201,22 +4197,22 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>라피네르 베이직 디퓨저 블랙에디션 차량용 방향제 120ml</t>
+          <t>제이앤컴퍼니 벨르아망 포켓몬 피규어 차량용 방향제</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29178319224</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=33464840631</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2917831/29178319224.20220125123447.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3346484/33464840631.20220713121644.jpg</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>15620</t>
+          <t>19800</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
@@ -4232,10 +4228,14 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>라피네르</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr"/>
+          <t>벨르아망</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>제이앤컴퍼니</t>
+        </is>
+      </c>
       <c r="K61" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4263,22 +4263,22 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>명품고급디퓨저 마일론 갤러리1 차량용 방향제 MGAL-01</t>
+          <t>라피네르 베이직 디퓨저 블랙에디션 차량용 방향제 120ml</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30352215619</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29178319224</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3035221/30352215619.20220102155103.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2917831/29178319224.20220125123447.jpg</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>35000</t>
+          <t>20800</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
@@ -4294,14 +4294,10 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>마일론</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>명품고급디퓨저</t>
-        </is>
-      </c>
+          <t>라피네르</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4329,38 +4325,38 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>잉글리쉬페어 우드볼 차량용방향제 센트247 대용량 명품 고급 디퓨저 120ml</t>
+          <t>발롱디 고급 차량용 방향제 명품 디퓨저</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82876701063</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=19402043182</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8287670/82876701063.7.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1940204/19402043182.20190731114447.jpg</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>24900</t>
+          <t>49000</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">
         <is>
-          <t>센트247 SCENT247</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>조말론</t>
+          <t>발롱디</t>
         </is>
       </c>
       <c r="J63" t="inlineStr"/>
@@ -4391,22 +4387,22 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>명품고급디퓨저 마일론 갤러리4 차량용 방향제 MGAL-04</t>
+          <t>프리티 송풍구 디퓨져 방향제차량용 블랙체리 차향수</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=36196112618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24071096761</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3619611/36196112618.20221130145337.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2407109/24071096761.20221122124116.jpg</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>39900</t>
+          <t>6530</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
@@ -4420,16 +4416,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>마일론</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>명품고급디퓨저</t>
-        </is>
-      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4457,22 +4445,22 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>꾸미다 잇츠마이플라워 차량용 디퓨저 방향제 시리즈 고급자동차 새차선물</t>
+          <t>페브리즈 차량용 방향제 맑은하늘 바람 2.2ml</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28620463637</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24032457103</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2862046/28620463637.20221207181102.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2403245/24032457103.20210720152653.jpg</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>22690</t>
+          <t>2640</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
@@ -4488,14 +4476,10 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>잇츠마이플라워</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>꾸미다</t>
-        </is>
-      </c>
+          <t>페브리즈</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4523,22 +4507,22 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>페브리즈 차량용 방향제 맑은하늘 바람 2.2ml</t>
+          <t>미스터앤미세스 체사레 시저 차량용 방향제</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24032457103</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=8119194241</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2403245/24032457103.20210720152653.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8119194/8119194241.20190802121728.jpg</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2640</t>
+          <t>7000</t>
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
@@ -4552,11 +4536,7 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>페브리즈</t>
-        </is>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
@@ -4585,22 +4565,22 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>미스터앤미세스 체사레 시저 차량용 방향제</t>
+          <t>청개구리 멤브렌 방향제</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=8119194241</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29899764272</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8119194/8119194241.20190802121728.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2989976/29899764272.20211201020417.jpg</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>7000</t>
+          <t>1690</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
@@ -4643,22 +4623,22 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>청개구리 멤브렌 방향제</t>
+          <t>명품고급디퓨저 마일론 갤러리2 차량용 방향제 MGAL-02</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29899764272</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30441772620</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2989976/29899764272.20211201020417.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3044177/30441772620.20220204192733.jpg</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>1690</t>
+          <t>49000</t>
         </is>
       </c>
       <c r="F68" t="inlineStr"/>
@@ -4672,8 +4652,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>마일론</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>명품고급디퓨저</t>
+        </is>
+      </c>
       <c r="K68" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4829,22 +4817,22 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>제로캔들 차량용 방향제 디퓨저</t>
+          <t>불스원 그라스 디퓨저 자동차 방향제 45ml</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26702050185</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24026344145</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2670205/26702050185.20210409175725.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2402634/24026344145.20210112100959.jpg</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>16500</t>
+          <t>6270</t>
         </is>
       </c>
       <c r="F71" t="inlineStr"/>
@@ -4860,7 +4848,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>제로캔들</t>
+          <t>불스원</t>
         </is>
       </c>
       <c r="J71" t="inlineStr"/>
@@ -5011,22 +4999,22 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>제로스킨 로보트 태권브이 차량용 방향제 자동차 디퓨저 AD-KF90</t>
+          <t>제로캔들 차량용 방향제 디퓨저</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29535937618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26702050185</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2953593/29535937618.20211216102403.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2670205/26702050185.20210409175725.jpg</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>46410</t>
+          <t>16500</t>
         </is>
       </c>
       <c r="F74" t="inlineStr"/>
@@ -5042,14 +5030,10 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>제로스킨</t>
-        </is>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>제로스킨</t>
-        </is>
-      </c>
+          <t>제로캔들</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -5077,22 +5061,22 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>센트데코 후드독 차량용 방향제 SCD-01</t>
+          <t>제로스킨 로보트 태권브이 차량용 방향제 자동차 디퓨저 AD-KF90</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30570794618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29535937618</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3057079/30570794618.20220925133647.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2953593/29535937618.20211216102403.jpg</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>28900</t>
+          <t>46410</t>
         </is>
       </c>
       <c r="F75" t="inlineStr"/>
@@ -5108,12 +5092,12 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>센트데코</t>
+          <t>제로스킨</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>센트데코</t>
+          <t>제로스킨</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -5143,22 +5127,22 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>루크타 도베르만 차량용 자동차 송풍구 차 고급 방향제 디퓨저 LT-DB01</t>
+          <t>로베르타디까메리노 액상 클립 통풍구 에어컨 차량용 방향제</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25380843939</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=32628653367</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2538084/25380843939.20220113101814.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3262865/32628653367.20220528094208.jpg</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>49000</t>
+          <t>11900</t>
         </is>
       </c>
       <c r="F76" t="inlineStr"/>
@@ -5174,7 +5158,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>루크타</t>
+          <t>로베르타디까메리노</t>
         </is>
       </c>
       <c r="J76" t="inlineStr"/>
@@ -5205,41 +5189,45 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>로베르타디까메리노 액상 클립 통풍구 에어컨 차량용 방향제</t>
+          <t>카카오 모니터걸이 방향제 아우라 캐릭터 피규어 라이언 어피치</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=32628653367</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=83136484211</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3262865/32628653367.20220528094208.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8313648/83136484211.1.jpg</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>11900</t>
+          <t>16500</t>
         </is>
       </c>
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>다나와25</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>로베르타디까메리노</t>
-        </is>
-      </c>
-      <c r="J77" t="inlineStr"/>
+          <t>카카오프렌즈</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>엘지생활건강</t>
+        </is>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -5267,37 +5255,45 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>1+1 카카오 라이언 어피치 모니터걸이 방향제 2개</t>
+          <t>KAN 뷰센트 De.Line 차량용 방향제 싱글세트</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=84208235659</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18985549503</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8420823/84208235659.1.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1898554/18985549503.20210713121106.jpg</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>59990</t>
+          <t>12900</t>
         </is>
       </c>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr">
         <is>
-          <t>코코구니</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
+          <t>일반 - 가격비교 상품</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>뷰센트</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>KAN</t>
+        </is>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -5325,22 +5321,22 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>KAN 뷰센트 De.Line 차량용 방향제 싱글세트</t>
+          <t>디캣 방향제 차량용 송풍구 SM5 G80</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18985549503</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28534805614</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1898554/18985549503.20210713121106.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2853480/28534805614.20210823030729.jpg</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>12900</t>
+          <t>500</t>
         </is>
       </c>
       <c r="F79" t="inlineStr"/>
@@ -5356,14 +5352,10 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>뷰센트</t>
-        </is>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>KAN</t>
-        </is>
-      </c>
+          <t>디캣</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -5391,22 +5383,22 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>아이수피아 피톤치드 아로마 차량용 방향제</t>
+          <t>불스원 그라스 디퓨저 방향제</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24046697950</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=33533900804</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2404669/24046697950.20200905000355.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3353390/33533900804.20220716175846.jpg</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>18990</t>
+          <t>9090</t>
         </is>
       </c>
       <c r="F80" t="inlineStr"/>
@@ -5422,10 +5414,14 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>아이수피아</t>
-        </is>
-      </c>
-      <c r="J80" t="inlineStr"/>
+          <t>불스원</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>불스원</t>
+        </is>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -5453,38 +5449,38 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>디캣 방향제 차량용 송풍구 SM5 G80</t>
+          <t>잉글리쉬페어 우드볼 차량용방향제 센트247 대용량 명품 고급 디퓨저 120ml</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28534805614</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82876701063</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2853480/28534805614.20210823030729.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8287670/82876701063.7.jpg</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>24900</t>
         </is>
       </c>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>센트247 SCENT247</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>디캣</t>
+          <t>조말론</t>
         </is>
       </c>
       <c r="J81" t="inlineStr"/>
@@ -5515,22 +5511,22 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>명품고급디퓨저 마일론 갤러리2 차량용 방향제 MGAL-02</t>
+          <t>페브리즈 차량용 방향제 6개입</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30441772620</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28545855511</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3044177/30441772620.20220204192733.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2854585/28545855511.20220405030723.jpg</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>49000</t>
+          <t>13600</t>
         </is>
       </c>
       <c r="F82" t="inlineStr"/>
@@ -5546,14 +5542,10